--- a/文物娘.xlsx
+++ b/文物娘.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GameMaker\Final Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GameMaker\Final Work\Github\CultureRelicGirls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03DC2D1-0E42-49C3-8A0C-976BEDD209DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CDE77B-DF0C-45CF-9D48-6D51CB31D458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="4200" windowWidth="12150" windowHeight="9360" activeTab="3" xr2:uid="{1E3677C8-2B1C-423A-AEA1-C1DF63D56BAF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1E3677C8-2B1C-423A-AEA1-C1DF63D56BAF}"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="1" r:id="rId1"/>
-    <sheet name="关卡" sheetId="2" r:id="rId2"/>
-    <sheet name="物资" sheetId="3" r:id="rId3"/>
-    <sheet name="ID表" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="关卡" sheetId="2" r:id="rId3"/>
+    <sheet name="物资" sheetId="3" r:id="rId4"/>
+    <sheet name="ID表" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="234">
   <si>
     <t>司母戊鼎</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -2199,7 +2200,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2566,6 +2567,51 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="67" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="77" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="76" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2575,60 +2621,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="67" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="77" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="76" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2644,13 +2636,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="58" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="59" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="36" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="37" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="76" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2665,10 +2741,10 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="9" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2686,70 +2762,154 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="36" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="37" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="58" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="59" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="76" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="80" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="81" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="34" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="35" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="82" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="69" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="83" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="84" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="65" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="70" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="61" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="85" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="62" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2758,193 +2918,37 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="60" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="64" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="65" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="61" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="66" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="34" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="35" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="62" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="60" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="64" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="65" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="61" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="66" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="80" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="81" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="82" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="69" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="83" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="84" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="65" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="70" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="61" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="85" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3269,8 +3273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D91B1E5-0340-464B-AF90-56D459836ED7}">
   <dimension ref="B1:V39"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView topLeftCell="V1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AQ39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3285,67 +3289,67 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="131" t="s">
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="131" t="s">
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="132" t="s">
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="133"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="147"/>
     </row>
     <row r="3" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137" t="s">
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="134" t="s">
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="137" t="s">
+      <c r="N3" s="152"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="153"/>
+      <c r="R3" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="138"/>
-      <c r="T3" s="138"/>
-      <c r="U3" s="138"/>
-      <c r="V3" s="139"/>
+      <c r="S3" s="149"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="149"/>
+      <c r="V3" s="150"/>
     </row>
     <row r="4" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -3663,94 +3667,94 @@
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="122" t="s">
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="124"/>
-      <c r="M8" s="122" t="s">
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="123"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="123"/>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="122" t="s">
+      <c r="N8" s="138"/>
+      <c r="O8" s="138"/>
+      <c r="P8" s="138"/>
+      <c r="Q8" s="139"/>
+      <c r="R8" s="137" t="s">
         <v>114</v>
       </c>
-      <c r="S8" s="123"/>
-      <c r="T8" s="123"/>
-      <c r="U8" s="123"/>
-      <c r="V8" s="124"/>
+      <c r="S8" s="138"/>
+      <c r="T8" s="138"/>
+      <c r="U8" s="138"/>
+      <c r="V8" s="139"/>
     </row>
     <row r="9" spans="2:22" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="143" t="s">
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="144"/>
-      <c r="J9" s="144"/>
-      <c r="K9" s="144"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="143" t="s">
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="142"/>
+      <c r="M9" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="144"/>
-      <c r="O9" s="144"/>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="145"/>
-      <c r="R9" s="143" t="s">
+      <c r="N9" s="141"/>
+      <c r="O9" s="141"/>
+      <c r="P9" s="141"/>
+      <c r="Q9" s="142"/>
+      <c r="R9" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="144"/>
-      <c r="T9" s="144"/>
-      <c r="U9" s="144"/>
-      <c r="V9" s="145"/>
+      <c r="S9" s="141"/>
+      <c r="T9" s="141"/>
+      <c r="U9" s="141"/>
+      <c r="V9" s="142"/>
     </row>
     <row r="11" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="131" t="s">
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="132"/>
-      <c r="J12" s="132"/>
-      <c r="K12" s="132"/>
-      <c r="L12" s="133"/>
-      <c r="M12" s="131" t="s">
+      <c r="I12" s="146"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="147"/>
+      <c r="M12" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="132"/>
-      <c r="O12" s="132"/>
-      <c r="P12" s="132"/>
-      <c r="Q12" s="133"/>
+      <c r="N12" s="146"/>
+      <c r="O12" s="146"/>
+      <c r="P12" s="146"/>
+      <c r="Q12" s="147"/>
       <c r="S12" s="113">
         <v>2.1</v>
       </c>
@@ -3765,27 +3769,27 @@
       <c r="B13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="128" t="s">
+      <c r="C13" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="128" t="s">
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="148" t="s">
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="N13" s="149"/>
-      <c r="O13" s="149"/>
-      <c r="P13" s="149"/>
-      <c r="Q13" s="150"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="130"/>
       <c r="S13" s="116">
         <v>1.8</v>
       </c>
@@ -3866,7 +3870,7 @@
       <c r="U14" s="118">
         <v>1</v>
       </c>
-      <c r="V14" s="146"/>
+      <c r="V14" s="143"/>
     </row>
     <row r="15" spans="2:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
@@ -3936,7 +3940,7 @@
         <v>1</v>
       </c>
       <c r="U15" s="118"/>
-      <c r="V15" s="146"/>
+      <c r="V15" s="143"/>
     </row>
     <row r="16" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
@@ -4062,106 +4066,106 @@
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="122" t="s">
+      <c r="C18" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="122" t="s">
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="123"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="122" t="s">
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="123"/>
-      <c r="O18" s="123"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="124"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="138"/>
+      <c r="Q18" s="139"/>
     </row>
     <row r="19" spans="2:17" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="143" t="s">
+      <c r="C19" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="143" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="144"/>
-      <c r="J19" s="144"/>
-      <c r="K19" s="144"/>
-      <c r="L19" s="145"/>
-      <c r="M19" s="143" t="s">
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="144"/>
-      <c r="O19" s="144"/>
-      <c r="P19" s="144"/>
-      <c r="Q19" s="145"/>
+      <c r="N19" s="141"/>
+      <c r="O19" s="141"/>
+      <c r="P19" s="141"/>
+      <c r="Q19" s="142"/>
     </row>
     <row r="21" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="140" t="s">
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="141"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="142"/>
-      <c r="M22" s="140" t="s">
+      <c r="I22" s="135"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="141"/>
-      <c r="O22" s="141"/>
-      <c r="P22" s="141"/>
-      <c r="Q22" s="142"/>
+      <c r="N22" s="135"/>
+      <c r="O22" s="135"/>
+      <c r="P22" s="135"/>
+      <c r="Q22" s="136"/>
     </row>
     <row r="23" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="125" t="s">
+      <c r="C23" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="128" t="s">
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="133"/>
+      <c r="H23" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="129"/>
-      <c r="J23" s="129"/>
-      <c r="K23" s="129"/>
-      <c r="L23" s="130"/>
-      <c r="M23" s="148" t="s">
+      <c r="I23" s="126"/>
+      <c r="J23" s="126"/>
+      <c r="K23" s="126"/>
+      <c r="L23" s="127"/>
+      <c r="M23" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="149"/>
-      <c r="O23" s="149"/>
-      <c r="P23" s="149"/>
-      <c r="Q23" s="150"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="129"/>
+      <c r="P23" s="129"/>
+      <c r="Q23" s="130"/>
     </row>
     <row r="24" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
@@ -4406,92 +4410,92 @@
       <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="122" t="s">
+      <c r="C28" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="122" t="s">
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="123"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="123"/>
-      <c r="L28" s="124"/>
-      <c r="M28" s="122" t="s">
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="123"/>
-      <c r="Q28" s="124"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="138"/>
+      <c r="P28" s="138"/>
+      <c r="Q28" s="139"/>
     </row>
     <row r="29" spans="2:17" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="143" t="s">
+      <c r="C29" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="143" t="s">
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="144"/>
-      <c r="J29" s="144"/>
-      <c r="K29" s="144"/>
-      <c r="L29" s="145"/>
-      <c r="M29" s="143" t="s">
+      <c r="I29" s="141"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="142"/>
+      <c r="M29" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="N29" s="144"/>
-      <c r="O29" s="144"/>
-      <c r="P29" s="144"/>
-      <c r="Q29" s="145"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="141"/>
+      <c r="P29" s="141"/>
+      <c r="Q29" s="142"/>
     </row>
     <row r="31" spans="2:17" s="13" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="131" t="s">
+      <c r="C32" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="132"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="132"/>
-      <c r="G32" s="133"/>
-      <c r="H32" s="131" t="s">
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="132"/>
-      <c r="J32" s="132"/>
-      <c r="K32" s="132"/>
-      <c r="L32" s="133"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="147"/>
     </row>
     <row r="33" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="125" t="s">
+      <c r="C33" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="127"/>
-      <c r="H33" s="128" t="s">
+      <c r="D33" s="132"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="133"/>
+      <c r="H33" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="129"/>
-      <c r="J33" s="129"/>
-      <c r="K33" s="129"/>
-      <c r="L33" s="130"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="126"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="127"/>
     </row>
     <row r="34" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
@@ -4663,39 +4667,39 @@
       <c r="B38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="122" t="s">
+      <c r="C38" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="123"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="123"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="122" t="s">
+      <c r="D38" s="138"/>
+      <c r="E38" s="138"/>
+      <c r="F38" s="138"/>
+      <c r="G38" s="139"/>
+      <c r="H38" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="123"/>
-      <c r="J38" s="123"/>
-      <c r="K38" s="123"/>
-      <c r="L38" s="124"/>
+      <c r="I38" s="138"/>
+      <c r="J38" s="138"/>
+      <c r="K38" s="138"/>
+      <c r="L38" s="139"/>
     </row>
     <row r="39" spans="2:17" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="143" t="s">
+      <c r="C39" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="144"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="145"/>
-      <c r="H39" s="143" t="s">
+      <c r="D39" s="141"/>
+      <c r="E39" s="141"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="142"/>
+      <c r="H39" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="I39" s="144"/>
-      <c r="J39" s="144"/>
-      <c r="K39" s="144"/>
-      <c r="L39" s="145"/>
+      <c r="I39" s="141"/>
+      <c r="J39" s="141"/>
+      <c r="K39" s="141"/>
+      <c r="L39" s="142"/>
       <c r="M39" s="26"/>
       <c r="N39" s="26"/>
       <c r="O39" s="26"/>
@@ -4704,14 +4708,31 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="M18:Q18"/>
     <mergeCell ref="C39:G39"/>
     <mergeCell ref="H39:L39"/>
     <mergeCell ref="V14:V15"/>
@@ -4728,31 +4749,14 @@
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4761,6 +4765,2566 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0ED7B0-0A70-47B6-994E-0F85B4440EFC}">
+  <dimension ref="B1:AQ39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="145" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="145" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="146" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="147"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
+      <c r="AA2" s="122"/>
+      <c r="AB2" s="122"/>
+      <c r="AC2" s="122"/>
+      <c r="AD2" s="122"/>
+      <c r="AE2" s="122"/>
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="122"/>
+      <c r="AH2" s="122"/>
+      <c r="AI2" s="122"/>
+      <c r="AJ2" s="122"/>
+      <c r="AK2" s="122"/>
+      <c r="AL2" s="122"/>
+      <c r="AM2" s="122"/>
+      <c r="AN2" s="122"/>
+      <c r="AO2" s="122"/>
+      <c r="AP2" s="122"/>
+      <c r="AQ2" s="122"/>
+    </row>
+    <row r="3" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="151" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="148" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="151" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="152"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="153"/>
+      <c r="R3" s="148" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="149"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="149"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="122"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="122"/>
+      <c r="AJ3" s="122"/>
+      <c r="AK3" s="122"/>
+      <c r="AL3" s="122"/>
+      <c r="AM3" s="122"/>
+      <c r="AN3" s="122"/>
+      <c r="AO3" s="122"/>
+      <c r="AP3" s="122"/>
+      <c r="AQ3" s="122"/>
+    </row>
+    <row r="4" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="17">
+        <v>250</v>
+      </c>
+      <c r="D4" s="18">
+        <f>C4*1.2</f>
+        <v>300</v>
+      </c>
+      <c r="E4" s="18">
+        <f>C4*1.5</f>
+        <v>375</v>
+      </c>
+      <c r="F4" s="18">
+        <f>C4*1.8</f>
+        <v>450</v>
+      </c>
+      <c r="G4" s="21">
+        <f>C4*2.1</f>
+        <v>525</v>
+      </c>
+      <c r="H4" s="17">
+        <v>100</v>
+      </c>
+      <c r="I4" s="18">
+        <f>H4*1.2</f>
+        <v>120</v>
+      </c>
+      <c r="J4" s="18">
+        <f>H4*1.5</f>
+        <v>150</v>
+      </c>
+      <c r="K4" s="18">
+        <f>H4*1.8</f>
+        <v>180</v>
+      </c>
+      <c r="L4" s="21">
+        <f>H4*2.1</f>
+        <v>210</v>
+      </c>
+      <c r="M4" s="17">
+        <v>200</v>
+      </c>
+      <c r="N4" s="18">
+        <f>M4*1.2</f>
+        <v>240</v>
+      </c>
+      <c r="O4" s="18">
+        <f>M4*1.5</f>
+        <v>300</v>
+      </c>
+      <c r="P4" s="18">
+        <f>M4*1.8</f>
+        <v>360</v>
+      </c>
+      <c r="Q4" s="21">
+        <f>M4*2.1</f>
+        <v>420</v>
+      </c>
+      <c r="R4" s="17">
+        <v>120</v>
+      </c>
+      <c r="S4" s="18">
+        <f>R4*1.2</f>
+        <v>144</v>
+      </c>
+      <c r="T4" s="18">
+        <f>R4*1.5</f>
+        <v>180</v>
+      </c>
+      <c r="U4" s="18">
+        <f>R4*1.8</f>
+        <v>216</v>
+      </c>
+      <c r="V4" s="21">
+        <f>R4*2.1</f>
+        <v>252</v>
+      </c>
+      <c r="W4" s="122"/>
+      <c r="X4" s="122"/>
+      <c r="Y4" s="122"/>
+      <c r="Z4" s="122"/>
+      <c r="AA4" s="122"/>
+      <c r="AB4" s="122"/>
+      <c r="AC4" s="122"/>
+      <c r="AD4" s="122"/>
+      <c r="AE4" s="122"/>
+      <c r="AF4" s="122"/>
+      <c r="AG4" s="122"/>
+      <c r="AH4" s="122"/>
+      <c r="AI4" s="122"/>
+      <c r="AJ4" s="122"/>
+      <c r="AK4" s="122"/>
+      <c r="AL4" s="122"/>
+      <c r="AM4" s="122"/>
+      <c r="AN4" s="122"/>
+      <c r="AO4" s="122"/>
+      <c r="AP4" s="122"/>
+      <c r="AQ4" s="122"/>
+    </row>
+    <row r="5" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="15">
+        <v>38</v>
+      </c>
+      <c r="D5" s="18">
+        <f>C5*1.2</f>
+        <v>45.6</v>
+      </c>
+      <c r="E5" s="18">
+        <f>C5*1.5</f>
+        <v>57</v>
+      </c>
+      <c r="F5" s="18">
+        <f>C5*1.8</f>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="G5" s="21">
+        <f t="shared" ref="G5" si="0">C5*2.1</f>
+        <v>79.8</v>
+      </c>
+      <c r="H5" s="15">
+        <v>25</v>
+      </c>
+      <c r="I5" s="18">
+        <f>H5*1.2</f>
+        <v>30</v>
+      </c>
+      <c r="J5" s="18">
+        <f>H5*1.5</f>
+        <v>37.5</v>
+      </c>
+      <c r="K5" s="18">
+        <f>H5*1.8</f>
+        <v>45</v>
+      </c>
+      <c r="L5" s="21">
+        <f>H5*2.1</f>
+        <v>52.5</v>
+      </c>
+      <c r="M5" s="15">
+        <v>25</v>
+      </c>
+      <c r="N5" s="18">
+        <f>M5*1.2</f>
+        <v>30</v>
+      </c>
+      <c r="O5" s="18">
+        <f>M5*1.5</f>
+        <v>37.5</v>
+      </c>
+      <c r="P5" s="18">
+        <f>M5*1.8</f>
+        <v>45</v>
+      </c>
+      <c r="Q5" s="21">
+        <f>M5*2.1</f>
+        <v>52.5</v>
+      </c>
+      <c r="R5" s="15">
+        <v>20</v>
+      </c>
+      <c r="S5" s="18">
+        <f>R5*1.2</f>
+        <v>24</v>
+      </c>
+      <c r="T5" s="18">
+        <f>R5*1.5</f>
+        <v>30</v>
+      </c>
+      <c r="U5" s="18">
+        <f>R5*1.8</f>
+        <v>36</v>
+      </c>
+      <c r="V5" s="21">
+        <f>R5*2.1</f>
+        <v>42</v>
+      </c>
+      <c r="W5" s="122"/>
+      <c r="X5" s="122"/>
+      <c r="Y5" s="122"/>
+      <c r="Z5" s="122"/>
+      <c r="AA5" s="122"/>
+      <c r="AB5" s="122"/>
+      <c r="AC5" s="122"/>
+      <c r="AD5" s="122"/>
+      <c r="AE5" s="122"/>
+      <c r="AF5" s="122"/>
+      <c r="AG5" s="122"/>
+      <c r="AH5" s="122"/>
+      <c r="AI5" s="122"/>
+      <c r="AJ5" s="122"/>
+      <c r="AK5" s="122"/>
+      <c r="AL5" s="122"/>
+      <c r="AM5" s="122"/>
+      <c r="AN5" s="122"/>
+      <c r="AO5" s="122"/>
+      <c r="AP5" s="122"/>
+      <c r="AQ5" s="122"/>
+    </row>
+    <row r="6" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+      <c r="F6" s="18">
+        <v>1</v>
+      </c>
+      <c r="G6" s="21">
+        <v>1</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="I6" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="J6" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="K6" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="L6" s="25">
+        <v>1.3</v>
+      </c>
+      <c r="M6" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="N6" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="O6" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="P6" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="R6" s="15">
+        <v>1.7</v>
+      </c>
+      <c r="S6" s="16">
+        <v>1.7</v>
+      </c>
+      <c r="T6" s="16">
+        <v>1.7</v>
+      </c>
+      <c r="U6" s="16">
+        <v>1.7</v>
+      </c>
+      <c r="V6" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="W6" s="122"/>
+      <c r="X6" s="122"/>
+      <c r="Y6" s="122"/>
+      <c r="Z6" s="122"/>
+      <c r="AA6" s="122"/>
+      <c r="AB6" s="122"/>
+      <c r="AC6" s="122"/>
+      <c r="AD6" s="122"/>
+      <c r="AE6" s="122"/>
+      <c r="AF6" s="122"/>
+      <c r="AG6" s="122"/>
+      <c r="AH6" s="122"/>
+      <c r="AI6" s="122"/>
+      <c r="AJ6" s="122"/>
+      <c r="AK6" s="122"/>
+      <c r="AL6" s="122"/>
+      <c r="AM6" s="122"/>
+      <c r="AN6" s="122"/>
+      <c r="AO6" s="122"/>
+      <c r="AP6" s="122"/>
+      <c r="AQ6" s="122"/>
+    </row>
+    <row r="7" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="19">
+        <f>C5*C6</f>
+        <v>38</v>
+      </c>
+      <c r="D7" s="20">
+        <f t="shared" ref="D7:G7" si="1">D5*D6</f>
+        <v>45.6</v>
+      </c>
+      <c r="E7" s="20">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="F7" s="20">
+        <f t="shared" si="1"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="G7" s="14">
+        <f t="shared" si="1"/>
+        <v>79.8</v>
+      </c>
+      <c r="H7" s="19">
+        <f>H5*H6</f>
+        <v>32.5</v>
+      </c>
+      <c r="I7" s="20">
+        <f t="shared" ref="I7:L7" si="2">I5*I6</f>
+        <v>39</v>
+      </c>
+      <c r="J7" s="20">
+        <f t="shared" si="2"/>
+        <v>48.75</v>
+      </c>
+      <c r="K7" s="23">
+        <f t="shared" si="2"/>
+        <v>58.5</v>
+      </c>
+      <c r="L7" s="23">
+        <f t="shared" si="2"/>
+        <v>68.25</v>
+      </c>
+      <c r="M7" s="19">
+        <f>M5*M6</f>
+        <v>37.5</v>
+      </c>
+      <c r="N7" s="20">
+        <f t="shared" ref="N7:Q7" si="3">N5*N6</f>
+        <v>45</v>
+      </c>
+      <c r="O7" s="20">
+        <f t="shared" si="3"/>
+        <v>56.25</v>
+      </c>
+      <c r="P7" s="20">
+        <f t="shared" si="3"/>
+        <v>67.5</v>
+      </c>
+      <c r="Q7" s="14">
+        <f t="shared" si="3"/>
+        <v>78.75</v>
+      </c>
+      <c r="R7" s="19">
+        <f>R5*R6</f>
+        <v>34</v>
+      </c>
+      <c r="S7" s="20">
+        <f t="shared" ref="S7:U7" si="4">S5*S6</f>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="T7" s="20">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="U7" s="20">
+        <f t="shared" si="4"/>
+        <v>61.199999999999996</v>
+      </c>
+      <c r="V7" s="14">
+        <f>V5*V6</f>
+        <v>71.399999999999991</v>
+      </c>
+      <c r="W7" s="122"/>
+      <c r="X7" s="122"/>
+      <c r="Y7" s="122"/>
+      <c r="Z7" s="122"/>
+      <c r="AA7" s="122"/>
+      <c r="AB7" s="122"/>
+      <c r="AC7" s="122"/>
+      <c r="AD7" s="122"/>
+      <c r="AE7" s="122"/>
+      <c r="AF7" s="122"/>
+      <c r="AG7" s="122"/>
+      <c r="AH7" s="122"/>
+      <c r="AI7" s="122"/>
+      <c r="AJ7" s="122"/>
+      <c r="AK7" s="122"/>
+      <c r="AL7" s="122"/>
+      <c r="AM7" s="122"/>
+      <c r="AN7" s="122"/>
+      <c r="AO7" s="122"/>
+      <c r="AP7" s="122"/>
+      <c r="AQ7" s="122"/>
+    </row>
+    <row r="8" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="137" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="137" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="137" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="138"/>
+      <c r="O8" s="138"/>
+      <c r="P8" s="138"/>
+      <c r="Q8" s="139"/>
+      <c r="R8" s="137" t="s">
+        <v>114</v>
+      </c>
+      <c r="S8" s="138"/>
+      <c r="T8" s="138"/>
+      <c r="U8" s="138"/>
+      <c r="V8" s="139"/>
+      <c r="W8" s="122"/>
+      <c r="X8" s="122"/>
+      <c r="Y8" s="122"/>
+      <c r="Z8" s="122"/>
+      <c r="AA8" s="122"/>
+      <c r="AB8" s="122"/>
+      <c r="AC8" s="122"/>
+      <c r="AD8" s="122"/>
+      <c r="AE8" s="122"/>
+      <c r="AF8" s="122"/>
+      <c r="AG8" s="122"/>
+      <c r="AH8" s="122"/>
+      <c r="AI8" s="122"/>
+      <c r="AJ8" s="122"/>
+      <c r="AK8" s="122"/>
+      <c r="AL8" s="122"/>
+      <c r="AM8" s="122"/>
+      <c r="AN8" s="122"/>
+      <c r="AO8" s="122"/>
+      <c r="AP8" s="122"/>
+      <c r="AQ8" s="122"/>
+    </row>
+    <row r="9" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="140" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="140" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="142"/>
+      <c r="M9" s="140" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="141"/>
+      <c r="O9" s="141"/>
+      <c r="P9" s="141"/>
+      <c r="Q9" s="142"/>
+      <c r="R9" s="140" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" s="141"/>
+      <c r="T9" s="141"/>
+      <c r="U9" s="141"/>
+      <c r="V9" s="142"/>
+      <c r="W9" s="122"/>
+      <c r="X9" s="122"/>
+      <c r="Y9" s="122"/>
+      <c r="Z9" s="122"/>
+      <c r="AA9" s="122"/>
+      <c r="AB9" s="122"/>
+      <c r="AC9" s="122"/>
+      <c r="AD9" s="122"/>
+      <c r="AE9" s="122"/>
+      <c r="AF9" s="122"/>
+      <c r="AG9" s="122"/>
+      <c r="AH9" s="122"/>
+      <c r="AI9" s="122"/>
+      <c r="AJ9" s="122"/>
+      <c r="AK9" s="122"/>
+      <c r="AL9" s="122"/>
+      <c r="AM9" s="122"/>
+      <c r="AN9" s="122"/>
+      <c r="AO9" s="122"/>
+      <c r="AP9" s="122"/>
+      <c r="AQ9" s="122"/>
+    </row>
+    <row r="10" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="122"/>
+      <c r="T10" s="122"/>
+      <c r="U10" s="122"/>
+      <c r="V10" s="122"/>
+      <c r="W10" s="122"/>
+      <c r="X10" s="122"/>
+      <c r="Y10" s="122"/>
+      <c r="Z10" s="122"/>
+      <c r="AA10" s="122"/>
+      <c r="AB10" s="122"/>
+      <c r="AC10" s="122"/>
+      <c r="AD10" s="122"/>
+      <c r="AE10" s="122"/>
+      <c r="AF10" s="122"/>
+      <c r="AG10" s="122"/>
+      <c r="AH10" s="122"/>
+      <c r="AI10" s="122"/>
+      <c r="AJ10" s="122"/>
+      <c r="AK10" s="122"/>
+      <c r="AL10" s="122"/>
+      <c r="AM10" s="122"/>
+      <c r="AN10" s="122"/>
+      <c r="AO10" s="122"/>
+      <c r="AP10" s="122"/>
+      <c r="AQ10" s="122"/>
+    </row>
+    <row r="11" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="122"/>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="122"/>
+      <c r="S11" s="122"/>
+      <c r="T11" s="122"/>
+      <c r="U11" s="122"/>
+      <c r="V11" s="122"/>
+      <c r="W11" s="122"/>
+      <c r="X11" s="122"/>
+      <c r="Y11" s="122"/>
+      <c r="Z11" s="122"/>
+      <c r="AA11" s="122"/>
+      <c r="AB11" s="122"/>
+      <c r="AC11" s="122"/>
+      <c r="AD11" s="122"/>
+      <c r="AE11" s="122"/>
+      <c r="AF11" s="122"/>
+      <c r="AG11" s="122"/>
+      <c r="AH11" s="122"/>
+      <c r="AI11" s="122"/>
+      <c r="AJ11" s="122"/>
+      <c r="AK11" s="122"/>
+      <c r="AL11" s="122"/>
+      <c r="AM11" s="122"/>
+      <c r="AN11" s="122"/>
+      <c r="AO11" s="122"/>
+      <c r="AP11" s="122"/>
+      <c r="AQ11" s="122"/>
+    </row>
+    <row r="12" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="145" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="145" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="146"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="147"/>
+      <c r="M12" s="145" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="146"/>
+      <c r="O12" s="146"/>
+      <c r="P12" s="146"/>
+      <c r="Q12" s="147"/>
+      <c r="R12" s="122"/>
+      <c r="S12" s="113">
+        <v>2.1</v>
+      </c>
+      <c r="T12" s="114">
+        <v>1.75</v>
+      </c>
+      <c r="U12" s="115">
+        <v>1.4</v>
+      </c>
+      <c r="V12" s="122"/>
+      <c r="W12" s="122"/>
+      <c r="X12" s="122"/>
+      <c r="Y12" s="122"/>
+      <c r="Z12" s="122"/>
+      <c r="AA12" s="122"/>
+      <c r="AB12" s="122"/>
+      <c r="AC12" s="122"/>
+      <c r="AD12" s="122"/>
+      <c r="AE12" s="122"/>
+      <c r="AF12" s="122"/>
+      <c r="AG12" s="122"/>
+      <c r="AH12" s="122"/>
+      <c r="AI12" s="122"/>
+      <c r="AJ12" s="122"/>
+      <c r="AK12" s="122"/>
+      <c r="AL12" s="122"/>
+      <c r="AM12" s="122"/>
+      <c r="AN12" s="122"/>
+      <c r="AO12" s="122"/>
+      <c r="AP12" s="122"/>
+      <c r="AQ12" s="122"/>
+    </row>
+    <row r="13" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="125" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="125" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="128" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13" s="129"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="130"/>
+      <c r="R13" s="122"/>
+      <c r="S13" s="116">
+        <v>1.8</v>
+      </c>
+      <c r="T13" s="117">
+        <v>1.5</v>
+      </c>
+      <c r="U13" s="118">
+        <v>1.2</v>
+      </c>
+      <c r="V13" s="122"/>
+      <c r="W13" s="122"/>
+      <c r="X13" s="122"/>
+      <c r="Y13" s="122"/>
+      <c r="Z13" s="122"/>
+      <c r="AA13" s="122"/>
+      <c r="AB13" s="122"/>
+      <c r="AC13" s="122"/>
+      <c r="AD13" s="122"/>
+      <c r="AE13" s="122"/>
+      <c r="AF13" s="122"/>
+      <c r="AG13" s="122"/>
+      <c r="AH13" s="122"/>
+      <c r="AI13" s="122"/>
+      <c r="AJ13" s="122"/>
+      <c r="AK13" s="122"/>
+      <c r="AL13" s="122"/>
+      <c r="AM13" s="122"/>
+      <c r="AN13" s="122"/>
+      <c r="AO13" s="122"/>
+      <c r="AP13" s="122"/>
+      <c r="AQ13" s="122"/>
+    </row>
+    <row r="14" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="17">
+        <v>50</v>
+      </c>
+      <c r="D14" s="18">
+        <f>C14*1.2</f>
+        <v>60</v>
+      </c>
+      <c r="E14" s="18">
+        <f>C14*1.5</f>
+        <v>75</v>
+      </c>
+      <c r="F14" s="18">
+        <f>C14*1.8</f>
+        <v>90</v>
+      </c>
+      <c r="G14" s="21">
+        <f>C14*2.1</f>
+        <v>105</v>
+      </c>
+      <c r="H14" s="17">
+        <v>65</v>
+      </c>
+      <c r="I14" s="18">
+        <f>H14*1.2</f>
+        <v>78</v>
+      </c>
+      <c r="J14" s="18">
+        <f>H14*1.5</f>
+        <v>97.5</v>
+      </c>
+      <c r="K14" s="18">
+        <f>H14*1.8</f>
+        <v>117</v>
+      </c>
+      <c r="L14" s="21">
+        <f>H14*2.1</f>
+        <v>136.5</v>
+      </c>
+      <c r="M14" s="17">
+        <v>130</v>
+      </c>
+      <c r="N14" s="18">
+        <f>M14*1.2</f>
+        <v>156</v>
+      </c>
+      <c r="O14" s="18">
+        <f>M14*1.5</f>
+        <v>195</v>
+      </c>
+      <c r="P14" s="18">
+        <f>M14*1.8</f>
+        <v>234</v>
+      </c>
+      <c r="Q14" s="21">
+        <f>M14*2.1</f>
+        <v>273</v>
+      </c>
+      <c r="R14" s="122"/>
+      <c r="S14" s="116">
+        <v>1.5</v>
+      </c>
+      <c r="T14" s="117">
+        <v>1.25</v>
+      </c>
+      <c r="U14" s="118">
+        <v>1</v>
+      </c>
+      <c r="V14" s="143"/>
+      <c r="W14" s="122"/>
+      <c r="X14" s="122"/>
+      <c r="Y14" s="122"/>
+      <c r="Z14" s="122"/>
+      <c r="AA14" s="122"/>
+      <c r="AB14" s="122"/>
+      <c r="AC14" s="122"/>
+      <c r="AD14" s="122"/>
+      <c r="AE14" s="122"/>
+      <c r="AF14" s="122"/>
+      <c r="AG14" s="122"/>
+      <c r="AH14" s="122"/>
+      <c r="AI14" s="122"/>
+      <c r="AJ14" s="122"/>
+      <c r="AK14" s="122"/>
+      <c r="AL14" s="122"/>
+      <c r="AM14" s="122"/>
+      <c r="AN14" s="122"/>
+      <c r="AO14" s="122"/>
+      <c r="AP14" s="122"/>
+      <c r="AQ14" s="122"/>
+    </row>
+    <row r="15" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="15">
+        <v>25</v>
+      </c>
+      <c r="D15" s="18">
+        <f>C15*1.2</f>
+        <v>30</v>
+      </c>
+      <c r="E15" s="18">
+        <f>C15*1.5</f>
+        <v>37.5</v>
+      </c>
+      <c r="F15" s="18">
+        <f>C15*1.8</f>
+        <v>45</v>
+      </c>
+      <c r="G15" s="21">
+        <f>C15*2.1</f>
+        <v>52.5</v>
+      </c>
+      <c r="H15" s="15">
+        <v>38</v>
+      </c>
+      <c r="I15" s="18">
+        <f>H15*1.2</f>
+        <v>45.6</v>
+      </c>
+      <c r="J15" s="18">
+        <f>H15*1.5</f>
+        <v>57</v>
+      </c>
+      <c r="K15" s="18">
+        <f>H15*1.8</f>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L15" s="21">
+        <f>H15*2.1</f>
+        <v>79.8</v>
+      </c>
+      <c r="M15" s="15">
+        <v>25</v>
+      </c>
+      <c r="N15" s="18">
+        <f>M15*1.2</f>
+        <v>30</v>
+      </c>
+      <c r="O15" s="18">
+        <f>M15*1.5</f>
+        <v>37.5</v>
+      </c>
+      <c r="P15" s="18">
+        <f>M15*1.8</f>
+        <v>45</v>
+      </c>
+      <c r="Q15" s="21">
+        <f>M15*2.1</f>
+        <v>52.5</v>
+      </c>
+      <c r="R15" s="122"/>
+      <c r="S15" s="116">
+        <v>1.2</v>
+      </c>
+      <c r="T15" s="117">
+        <v>1</v>
+      </c>
+      <c r="U15" s="118"/>
+      <c r="V15" s="143"/>
+      <c r="W15" s="122"/>
+      <c r="X15" s="122"/>
+      <c r="Y15" s="122"/>
+      <c r="Z15" s="122"/>
+      <c r="AA15" s="122"/>
+      <c r="AB15" s="122"/>
+      <c r="AC15" s="122"/>
+      <c r="AD15" s="122"/>
+      <c r="AE15" s="122"/>
+      <c r="AF15" s="122"/>
+      <c r="AG15" s="122"/>
+      <c r="AH15" s="122"/>
+      <c r="AI15" s="122"/>
+      <c r="AJ15" s="122"/>
+      <c r="AK15" s="122"/>
+      <c r="AL15" s="122"/>
+      <c r="AM15" s="122"/>
+      <c r="AN15" s="122"/>
+      <c r="AO15" s="122"/>
+      <c r="AP15" s="122"/>
+      <c r="AQ15" s="122"/>
+    </row>
+    <row r="16" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="F16" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="G16" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="I16" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="J16" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="K16" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="M16" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="N16" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="O16" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="P16" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="R16" s="122"/>
+      <c r="S16" s="119">
+        <v>1</v>
+      </c>
+      <c r="T16" s="120"/>
+      <c r="U16" s="121"/>
+      <c r="V16" s="122"/>
+      <c r="W16" s="122"/>
+      <c r="X16" s="122"/>
+      <c r="Y16" s="122"/>
+      <c r="Z16" s="122"/>
+      <c r="AA16" s="122"/>
+      <c r="AB16" s="122"/>
+      <c r="AC16" s="122"/>
+      <c r="AD16" s="122"/>
+      <c r="AE16" s="122"/>
+      <c r="AF16" s="122"/>
+      <c r="AG16" s="122"/>
+      <c r="AH16" s="122"/>
+      <c r="AI16" s="122"/>
+      <c r="AJ16" s="122"/>
+      <c r="AK16" s="122"/>
+      <c r="AL16" s="122"/>
+      <c r="AM16" s="122"/>
+      <c r="AN16" s="122"/>
+      <c r="AO16" s="122"/>
+      <c r="AP16" s="122"/>
+      <c r="AQ16" s="122"/>
+    </row>
+    <row r="17" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="19">
+        <f>C15*C16</f>
+        <v>30</v>
+      </c>
+      <c r="D17" s="20">
+        <f t="shared" ref="D17:G17" si="5">D15*D16</f>
+        <v>36</v>
+      </c>
+      <c r="E17" s="20">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="F17" s="20">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="G17" s="22">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="H17" s="19">
+        <f>H15*H16</f>
+        <v>30.400000000000002</v>
+      </c>
+      <c r="I17" s="20">
+        <f t="shared" ref="I17:L17" si="6">I15*I16</f>
+        <v>36.480000000000004</v>
+      </c>
+      <c r="J17" s="20">
+        <f t="shared" si="6"/>
+        <v>45.6</v>
+      </c>
+      <c r="K17" s="20">
+        <f t="shared" si="6"/>
+        <v>54.720000000000006</v>
+      </c>
+      <c r="L17" s="22">
+        <f t="shared" si="6"/>
+        <v>63.84</v>
+      </c>
+      <c r="M17" s="19">
+        <f>M15*M16</f>
+        <v>32.5</v>
+      </c>
+      <c r="N17" s="23">
+        <f t="shared" ref="N17:Q17" si="7">N15*N16</f>
+        <v>39</v>
+      </c>
+      <c r="O17" s="23">
+        <f t="shared" si="7"/>
+        <v>48.75</v>
+      </c>
+      <c r="P17" s="23">
+        <f t="shared" si="7"/>
+        <v>58.5</v>
+      </c>
+      <c r="Q17" s="14">
+        <f t="shared" si="7"/>
+        <v>68.25</v>
+      </c>
+      <c r="R17" s="122"/>
+      <c r="S17" s="122"/>
+      <c r="T17" s="122"/>
+      <c r="U17" s="122"/>
+      <c r="V17" s="122"/>
+      <c r="W17" s="122"/>
+      <c r="X17" s="122"/>
+      <c r="Y17" s="122"/>
+      <c r="Z17" s="122"/>
+      <c r="AA17" s="122"/>
+      <c r="AB17" s="122"/>
+      <c r="AC17" s="122"/>
+      <c r="AD17" s="122"/>
+      <c r="AE17" s="122"/>
+      <c r="AF17" s="122"/>
+      <c r="AG17" s="122"/>
+      <c r="AH17" s="122"/>
+      <c r="AI17" s="122"/>
+      <c r="AJ17" s="122"/>
+      <c r="AK17" s="122"/>
+      <c r="AL17" s="122"/>
+      <c r="AM17" s="122"/>
+      <c r="AN17" s="122"/>
+      <c r="AO17" s="122"/>
+      <c r="AP17" s="122"/>
+      <c r="AQ17" s="122"/>
+    </row>
+    <row r="18" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="137" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="137" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="137" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="138"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="138"/>
+      <c r="Q18" s="139"/>
+      <c r="R18" s="122"/>
+      <c r="S18" s="122"/>
+      <c r="T18" s="122"/>
+      <c r="U18" s="122"/>
+      <c r="V18" s="122"/>
+      <c r="W18" s="122"/>
+      <c r="X18" s="122"/>
+      <c r="Y18" s="122"/>
+      <c r="Z18" s="122"/>
+      <c r="AA18" s="122"/>
+      <c r="AB18" s="122"/>
+      <c r="AC18" s="122"/>
+      <c r="AD18" s="122"/>
+      <c r="AE18" s="122"/>
+      <c r="AF18" s="122"/>
+      <c r="AG18" s="122"/>
+      <c r="AH18" s="122"/>
+      <c r="AI18" s="122"/>
+      <c r="AJ18" s="122"/>
+      <c r="AK18" s="122"/>
+      <c r="AL18" s="122"/>
+      <c r="AM18" s="122"/>
+      <c r="AN18" s="122"/>
+      <c r="AO18" s="122"/>
+      <c r="AP18" s="122"/>
+      <c r="AQ18" s="122"/>
+    </row>
+    <row r="19" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="140" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="140" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" s="141"/>
+      <c r="O19" s="141"/>
+      <c r="P19" s="141"/>
+      <c r="Q19" s="142"/>
+      <c r="R19" s="122"/>
+      <c r="S19" s="122"/>
+      <c r="T19" s="122"/>
+      <c r="U19" s="122"/>
+      <c r="V19" s="122"/>
+      <c r="W19" s="122"/>
+      <c r="X19" s="122"/>
+      <c r="Y19" s="122"/>
+      <c r="Z19" s="122"/>
+      <c r="AA19" s="122"/>
+      <c r="AB19" s="122"/>
+      <c r="AC19" s="122"/>
+      <c r="AD19" s="122"/>
+      <c r="AE19" s="122"/>
+      <c r="AF19" s="122"/>
+      <c r="AG19" s="122"/>
+      <c r="AH19" s="122"/>
+      <c r="AI19" s="122"/>
+      <c r="AJ19" s="122"/>
+      <c r="AK19" s="122"/>
+      <c r="AL19" s="122"/>
+      <c r="AM19" s="122"/>
+      <c r="AN19" s="122"/>
+      <c r="AO19" s="122"/>
+      <c r="AP19" s="122"/>
+      <c r="AQ19" s="122"/>
+    </row>
+    <row r="20" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B20" s="122"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="122"/>
+      <c r="N20" s="122"/>
+      <c r="O20" s="122"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="122"/>
+      <c r="S20" s="122"/>
+      <c r="T20" s="122"/>
+      <c r="U20" s="122"/>
+      <c r="V20" s="122"/>
+      <c r="W20" s="122"/>
+      <c r="X20" s="122"/>
+      <c r="Y20" s="122"/>
+      <c r="Z20" s="122"/>
+      <c r="AA20" s="122"/>
+      <c r="AB20" s="122"/>
+      <c r="AC20" s="122"/>
+      <c r="AD20" s="122"/>
+      <c r="AE20" s="122"/>
+      <c r="AF20" s="122"/>
+      <c r="AG20" s="122"/>
+      <c r="AH20" s="122"/>
+      <c r="AI20" s="122"/>
+      <c r="AJ20" s="122"/>
+      <c r="AK20" s="122"/>
+      <c r="AL20" s="122"/>
+      <c r="AM20" s="122"/>
+      <c r="AN20" s="122"/>
+      <c r="AO20" s="122"/>
+      <c r="AP20" s="122"/>
+      <c r="AQ20" s="122"/>
+    </row>
+    <row r="21" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="122"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="122"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="122"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="122"/>
+      <c r="S21" s="122"/>
+      <c r="T21" s="122"/>
+      <c r="U21" s="122"/>
+      <c r="V21" s="122"/>
+      <c r="W21" s="122"/>
+      <c r="X21" s="122"/>
+      <c r="Y21" s="122"/>
+      <c r="Z21" s="122"/>
+      <c r="AA21" s="122"/>
+      <c r="AB21" s="122"/>
+      <c r="AC21" s="122"/>
+      <c r="AD21" s="122"/>
+      <c r="AE21" s="122"/>
+      <c r="AF21" s="122"/>
+      <c r="AG21" s="122"/>
+      <c r="AH21" s="122"/>
+      <c r="AI21" s="122"/>
+      <c r="AJ21" s="122"/>
+      <c r="AK21" s="122"/>
+      <c r="AL21" s="122"/>
+      <c r="AM21" s="122"/>
+      <c r="AN21" s="122"/>
+      <c r="AO21" s="122"/>
+      <c r="AP21" s="122"/>
+      <c r="AQ21" s="122"/>
+    </row>
+    <row r="22" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="134" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="134" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="135"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="135"/>
+      <c r="O22" s="135"/>
+      <c r="P22" s="135"/>
+      <c r="Q22" s="136"/>
+      <c r="R22" s="122"/>
+      <c r="S22" s="122"/>
+      <c r="T22" s="122"/>
+      <c r="U22" s="122"/>
+      <c r="V22" s="122"/>
+      <c r="W22" s="122"/>
+      <c r="X22" s="122"/>
+      <c r="Y22" s="122"/>
+      <c r="Z22" s="122"/>
+      <c r="AA22" s="122"/>
+      <c r="AB22" s="122"/>
+      <c r="AC22" s="122"/>
+      <c r="AD22" s="122"/>
+      <c r="AE22" s="122"/>
+      <c r="AF22" s="122"/>
+      <c r="AG22" s="122"/>
+      <c r="AH22" s="122"/>
+      <c r="AI22" s="122"/>
+      <c r="AJ22" s="122"/>
+      <c r="AK22" s="122"/>
+      <c r="AL22" s="122"/>
+      <c r="AM22" s="122"/>
+      <c r="AN22" s="122"/>
+      <c r="AO22" s="122"/>
+      <c r="AP22" s="122"/>
+      <c r="AQ22" s="122"/>
+    </row>
+    <row r="23" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="131" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="133"/>
+      <c r="H23" s="125" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="126"/>
+      <c r="J23" s="126"/>
+      <c r="K23" s="126"/>
+      <c r="L23" s="127"/>
+      <c r="M23" s="128" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="129"/>
+      <c r="O23" s="129"/>
+      <c r="P23" s="129"/>
+      <c r="Q23" s="130"/>
+      <c r="R23" s="122"/>
+      <c r="S23" s="122"/>
+      <c r="T23" s="122"/>
+      <c r="U23" s="122"/>
+      <c r="V23" s="122"/>
+      <c r="W23" s="122"/>
+      <c r="X23" s="122"/>
+      <c r="Y23" s="122"/>
+      <c r="Z23" s="122"/>
+      <c r="AA23" s="122"/>
+      <c r="AB23" s="122"/>
+      <c r="AC23" s="122"/>
+      <c r="AD23" s="122"/>
+      <c r="AE23" s="122"/>
+      <c r="AF23" s="122"/>
+      <c r="AG23" s="122"/>
+      <c r="AH23" s="122"/>
+      <c r="AI23" s="122"/>
+      <c r="AJ23" s="122"/>
+      <c r="AK23" s="122"/>
+      <c r="AL23" s="122"/>
+      <c r="AM23" s="122"/>
+      <c r="AN23" s="122"/>
+      <c r="AO23" s="122"/>
+      <c r="AP23" s="122"/>
+      <c r="AQ23" s="122"/>
+    </row>
+    <row r="24" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="17">
+        <v>180</v>
+      </c>
+      <c r="D24" s="18">
+        <f>C24*1.2</f>
+        <v>216</v>
+      </c>
+      <c r="E24" s="18">
+        <f>C24*1.5</f>
+        <v>270</v>
+      </c>
+      <c r="F24" s="18">
+        <f>C24*1.8</f>
+        <v>324</v>
+      </c>
+      <c r="G24" s="21">
+        <f>C24*2.1</f>
+        <v>378</v>
+      </c>
+      <c r="H24" s="17">
+        <v>65</v>
+      </c>
+      <c r="I24" s="18">
+        <f>H24*1.2</f>
+        <v>78</v>
+      </c>
+      <c r="J24" s="18">
+        <f>H24*1.5</f>
+        <v>97.5</v>
+      </c>
+      <c r="K24" s="18">
+        <f>H24*1.8</f>
+        <v>117</v>
+      </c>
+      <c r="L24" s="21">
+        <f>H24*2.1</f>
+        <v>136.5</v>
+      </c>
+      <c r="M24" s="17">
+        <v>90</v>
+      </c>
+      <c r="N24" s="18">
+        <f>M24*1.2</f>
+        <v>108</v>
+      </c>
+      <c r="O24" s="18">
+        <f>M24*1.5</f>
+        <v>135</v>
+      </c>
+      <c r="P24" s="18">
+        <f>M24*1.8</f>
+        <v>162</v>
+      </c>
+      <c r="Q24" s="21">
+        <f>M24*2.1</f>
+        <v>189</v>
+      </c>
+      <c r="R24" s="122"/>
+      <c r="S24" s="122"/>
+      <c r="T24" s="122"/>
+      <c r="U24" s="122"/>
+      <c r="V24" s="122"/>
+      <c r="W24" s="122"/>
+      <c r="X24" s="122"/>
+      <c r="Y24" s="122"/>
+      <c r="Z24" s="122"/>
+      <c r="AA24" s="122"/>
+      <c r="AB24" s="122"/>
+      <c r="AC24" s="122"/>
+      <c r="AD24" s="122"/>
+      <c r="AE24" s="122"/>
+      <c r="AF24" s="122"/>
+      <c r="AG24" s="122"/>
+      <c r="AH24" s="122"/>
+      <c r="AI24" s="122"/>
+      <c r="AJ24" s="122"/>
+      <c r="AK24" s="122"/>
+      <c r="AL24" s="122"/>
+      <c r="AM24" s="122"/>
+      <c r="AN24" s="122"/>
+      <c r="AO24" s="122"/>
+      <c r="AP24" s="122"/>
+      <c r="AQ24" s="122"/>
+    </row>
+    <row r="25" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="15">
+        <v>36</v>
+      </c>
+      <c r="D25" s="18">
+        <f>C25*1.2</f>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="E25" s="18">
+        <f>C25*1.5</f>
+        <v>54</v>
+      </c>
+      <c r="F25" s="18">
+        <f>C25*1.8</f>
+        <v>64.8</v>
+      </c>
+      <c r="G25" s="21">
+        <f>C25*2.1</f>
+        <v>75.600000000000009</v>
+      </c>
+      <c r="H25" s="17">
+        <v>66</v>
+      </c>
+      <c r="I25" s="18">
+        <f>H25*1.2</f>
+        <v>79.2</v>
+      </c>
+      <c r="J25" s="18">
+        <f>H25*1.5</f>
+        <v>99</v>
+      </c>
+      <c r="K25" s="18">
+        <f>H25*1.8</f>
+        <v>118.8</v>
+      </c>
+      <c r="L25" s="21">
+        <f>H25*2.1</f>
+        <v>138.6</v>
+      </c>
+      <c r="M25" s="15">
+        <v>20</v>
+      </c>
+      <c r="N25" s="18">
+        <f>M25*1.2</f>
+        <v>24</v>
+      </c>
+      <c r="O25" s="18">
+        <f>M25*1.5</f>
+        <v>30</v>
+      </c>
+      <c r="P25" s="18">
+        <f>M25*1.8</f>
+        <v>36</v>
+      </c>
+      <c r="Q25" s="21">
+        <f>M25*2.1</f>
+        <v>42</v>
+      </c>
+      <c r="R25" s="122"/>
+      <c r="S25" s="122"/>
+      <c r="T25" s="122"/>
+      <c r="U25" s="122"/>
+      <c r="V25" s="122"/>
+      <c r="W25" s="122"/>
+      <c r="X25" s="122"/>
+      <c r="Y25" s="122"/>
+      <c r="Z25" s="122"/>
+      <c r="AA25" s="122"/>
+      <c r="AB25" s="122"/>
+      <c r="AC25" s="122"/>
+      <c r="AD25" s="122"/>
+      <c r="AE25" s="122"/>
+      <c r="AF25" s="122"/>
+      <c r="AG25" s="122"/>
+      <c r="AH25" s="122"/>
+      <c r="AI25" s="122"/>
+      <c r="AJ25" s="122"/>
+      <c r="AK25" s="122"/>
+      <c r="AL25" s="122"/>
+      <c r="AM25" s="122"/>
+      <c r="AN25" s="122"/>
+      <c r="AO25" s="122"/>
+      <c r="AP25" s="122"/>
+      <c r="AQ25" s="122"/>
+    </row>
+    <row r="26" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="F26" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="H26" s="15">
+        <v>1</v>
+      </c>
+      <c r="I26" s="16">
+        <v>1</v>
+      </c>
+      <c r="J26" s="16">
+        <v>1</v>
+      </c>
+      <c r="K26" s="16">
+        <v>1</v>
+      </c>
+      <c r="L26" s="10">
+        <v>1</v>
+      </c>
+      <c r="M26" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N26" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O26" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P26" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R26" s="122"/>
+      <c r="S26" s="122"/>
+      <c r="T26" s="122"/>
+      <c r="U26" s="122"/>
+      <c r="V26" s="122"/>
+      <c r="W26" s="122"/>
+      <c r="X26" s="122"/>
+      <c r="Y26" s="122"/>
+      <c r="Z26" s="122"/>
+      <c r="AA26" s="122"/>
+      <c r="AB26" s="122"/>
+      <c r="AC26" s="122"/>
+      <c r="AD26" s="122"/>
+      <c r="AE26" s="122"/>
+      <c r="AF26" s="122"/>
+      <c r="AG26" s="122"/>
+      <c r="AH26" s="122"/>
+      <c r="AI26" s="122"/>
+      <c r="AJ26" s="122"/>
+      <c r="AK26" s="122"/>
+      <c r="AL26" s="122"/>
+      <c r="AM26" s="122"/>
+      <c r="AN26" s="122"/>
+      <c r="AO26" s="122"/>
+      <c r="AP26" s="122"/>
+      <c r="AQ26" s="122"/>
+    </row>
+    <row r="27" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="19">
+        <f>C25*C26</f>
+        <v>25.2</v>
+      </c>
+      <c r="D27" s="20">
+        <f t="shared" ref="D27:G27" si="8">D25*D26</f>
+        <v>30.239999999999995</v>
+      </c>
+      <c r="E27" s="20">
+        <f t="shared" si="8"/>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="F27" s="20">
+        <f t="shared" si="8"/>
+        <v>45.359999999999992</v>
+      </c>
+      <c r="G27" s="14">
+        <f t="shared" si="8"/>
+        <v>52.92</v>
+      </c>
+      <c r="H27" s="19">
+        <f>H25*H26</f>
+        <v>66</v>
+      </c>
+      <c r="I27" s="20">
+        <f t="shared" ref="I27:L27" si="9">I25*I26</f>
+        <v>79.2</v>
+      </c>
+      <c r="J27" s="20">
+        <f t="shared" si="9"/>
+        <v>99</v>
+      </c>
+      <c r="K27" s="20">
+        <f t="shared" si="9"/>
+        <v>118.8</v>
+      </c>
+      <c r="L27" s="14">
+        <f t="shared" si="9"/>
+        <v>138.6</v>
+      </c>
+      <c r="M27" s="19">
+        <f>M25*M26</f>
+        <v>22</v>
+      </c>
+      <c r="N27" s="20">
+        <f t="shared" ref="N27:Q27" si="10">N25*N26</f>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="O27" s="20">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+      <c r="P27" s="20">
+        <f t="shared" si="10"/>
+        <v>39.6</v>
+      </c>
+      <c r="Q27" s="14">
+        <f t="shared" si="10"/>
+        <v>46.2</v>
+      </c>
+      <c r="R27" s="122"/>
+      <c r="S27" s="122"/>
+      <c r="T27" s="122"/>
+      <c r="U27" s="122"/>
+      <c r="V27" s="122"/>
+      <c r="W27" s="122"/>
+      <c r="X27" s="122"/>
+      <c r="Y27" s="122"/>
+      <c r="Z27" s="122"/>
+      <c r="AA27" s="122"/>
+      <c r="AB27" s="122"/>
+      <c r="AC27" s="122"/>
+      <c r="AD27" s="122"/>
+      <c r="AE27" s="122"/>
+      <c r="AF27" s="122"/>
+      <c r="AG27" s="122"/>
+      <c r="AH27" s="122"/>
+      <c r="AI27" s="122"/>
+      <c r="AJ27" s="122"/>
+      <c r="AK27" s="122"/>
+      <c r="AL27" s="122"/>
+      <c r="AM27" s="122"/>
+      <c r="AN27" s="122"/>
+      <c r="AO27" s="122"/>
+      <c r="AP27" s="122"/>
+      <c r="AQ27" s="122"/>
+    </row>
+    <row r="28" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="137" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="137" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="137" t="s">
+        <v>33</v>
+      </c>
+      <c r="N28" s="138"/>
+      <c r="O28" s="138"/>
+      <c r="P28" s="138"/>
+      <c r="Q28" s="139"/>
+      <c r="R28" s="122"/>
+      <c r="S28" s="122"/>
+      <c r="T28" s="122"/>
+      <c r="U28" s="122"/>
+      <c r="V28" s="122"/>
+      <c r="W28" s="122"/>
+      <c r="X28" s="122"/>
+      <c r="Y28" s="122"/>
+      <c r="Z28" s="122"/>
+      <c r="AA28" s="122"/>
+      <c r="AB28" s="122"/>
+      <c r="AC28" s="122"/>
+      <c r="AD28" s="122"/>
+      <c r="AE28" s="122"/>
+      <c r="AF28" s="122"/>
+      <c r="AG28" s="122"/>
+      <c r="AH28" s="122"/>
+      <c r="AI28" s="122"/>
+      <c r="AJ28" s="122"/>
+      <c r="AK28" s="122"/>
+      <c r="AL28" s="122"/>
+      <c r="AM28" s="122"/>
+      <c r="AN28" s="122"/>
+      <c r="AO28" s="122"/>
+      <c r="AP28" s="122"/>
+      <c r="AQ28" s="122"/>
+    </row>
+    <row r="29" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="140" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="140" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="141"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="142"/>
+      <c r="M29" s="140" t="s">
+        <v>115</v>
+      </c>
+      <c r="N29" s="141"/>
+      <c r="O29" s="141"/>
+      <c r="P29" s="141"/>
+      <c r="Q29" s="142"/>
+      <c r="R29" s="122"/>
+      <c r="S29" s="122"/>
+      <c r="T29" s="122"/>
+      <c r="U29" s="122"/>
+      <c r="V29" s="122"/>
+      <c r="W29" s="122"/>
+      <c r="X29" s="122"/>
+      <c r="Y29" s="122"/>
+      <c r="Z29" s="122"/>
+      <c r="AA29" s="122"/>
+      <c r="AB29" s="122"/>
+      <c r="AC29" s="122"/>
+      <c r="AD29" s="122"/>
+      <c r="AE29" s="122"/>
+      <c r="AF29" s="122"/>
+      <c r="AG29" s="122"/>
+      <c r="AH29" s="122"/>
+      <c r="AI29" s="122"/>
+      <c r="AJ29" s="122"/>
+      <c r="AK29" s="122"/>
+      <c r="AL29" s="122"/>
+      <c r="AM29" s="122"/>
+      <c r="AN29" s="122"/>
+      <c r="AO29" s="122"/>
+      <c r="AP29" s="122"/>
+      <c r="AQ29" s="122"/>
+    </row>
+    <row r="30" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="122"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="122"/>
+      <c r="M30" s="122"/>
+      <c r="N30" s="122"/>
+      <c r="O30" s="122"/>
+      <c r="P30" s="122"/>
+      <c r="Q30" s="122"/>
+      <c r="R30" s="122"/>
+      <c r="S30" s="122"/>
+      <c r="T30" s="122"/>
+      <c r="U30" s="122"/>
+      <c r="V30" s="122"/>
+      <c r="W30" s="122"/>
+      <c r="X30" s="122"/>
+      <c r="Y30" s="122"/>
+      <c r="Z30" s="122"/>
+      <c r="AA30" s="122"/>
+      <c r="AB30" s="122"/>
+      <c r="AC30" s="122"/>
+      <c r="AD30" s="122"/>
+      <c r="AE30" s="122"/>
+      <c r="AF30" s="122"/>
+      <c r="AG30" s="122"/>
+      <c r="AH30" s="122"/>
+      <c r="AI30" s="122"/>
+      <c r="AJ30" s="122"/>
+      <c r="AK30" s="122"/>
+      <c r="AL30" s="122"/>
+      <c r="AM30" s="122"/>
+      <c r="AN30" s="122"/>
+      <c r="AO30" s="122"/>
+      <c r="AP30" s="122"/>
+      <c r="AQ30" s="122"/>
+    </row>
+    <row r="31" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="122"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="122"/>
+      <c r="M31" s="122"/>
+      <c r="N31" s="122"/>
+      <c r="O31" s="122"/>
+      <c r="P31" s="122"/>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="122"/>
+      <c r="S31" s="122"/>
+      <c r="T31" s="122"/>
+      <c r="U31" s="122"/>
+      <c r="V31" s="122"/>
+      <c r="W31" s="122"/>
+      <c r="X31" s="122"/>
+      <c r="Y31" s="122"/>
+      <c r="Z31" s="122"/>
+      <c r="AA31" s="122"/>
+      <c r="AB31" s="122"/>
+      <c r="AC31" s="122"/>
+      <c r="AD31" s="122"/>
+      <c r="AE31" s="122"/>
+      <c r="AF31" s="122"/>
+      <c r="AG31" s="122"/>
+      <c r="AH31" s="122"/>
+      <c r="AI31" s="122"/>
+      <c r="AJ31" s="122"/>
+      <c r="AK31" s="122"/>
+      <c r="AL31" s="122"/>
+      <c r="AM31" s="122"/>
+      <c r="AN31" s="122"/>
+      <c r="AO31" s="122"/>
+      <c r="AP31" s="122"/>
+      <c r="AQ31" s="122"/>
+    </row>
+    <row r="32" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="145" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="145" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="147"/>
+      <c r="M32" s="122"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="122"/>
+      <c r="Q32" s="122"/>
+      <c r="R32" s="122"/>
+      <c r="S32" s="122"/>
+      <c r="T32" s="122"/>
+      <c r="U32" s="122"/>
+      <c r="V32" s="122"/>
+      <c r="W32" s="122"/>
+      <c r="X32" s="122"/>
+      <c r="Y32" s="122"/>
+      <c r="Z32" s="122"/>
+      <c r="AA32" s="122"/>
+      <c r="AB32" s="122"/>
+      <c r="AC32" s="122"/>
+      <c r="AD32" s="122"/>
+      <c r="AE32" s="122"/>
+      <c r="AF32" s="122"/>
+      <c r="AG32" s="122"/>
+      <c r="AH32" s="122"/>
+      <c r="AI32" s="122"/>
+      <c r="AJ32" s="122"/>
+      <c r="AK32" s="122"/>
+      <c r="AL32" s="122"/>
+      <c r="AM32" s="122"/>
+      <c r="AN32" s="122"/>
+      <c r="AO32" s="122"/>
+      <c r="AP32" s="122"/>
+      <c r="AQ32" s="122"/>
+    </row>
+    <row r="33" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="131" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="132"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="133"/>
+      <c r="H33" s="125" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="126"/>
+      <c r="J33" s="126"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="127"/>
+      <c r="M33" s="122"/>
+      <c r="N33" s="122"/>
+      <c r="O33" s="122"/>
+      <c r="P33" s="122"/>
+      <c r="Q33" s="122"/>
+      <c r="R33" s="122"/>
+      <c r="S33" s="122"/>
+      <c r="T33" s="122"/>
+      <c r="U33" s="122"/>
+      <c r="V33" s="122"/>
+      <c r="W33" s="122"/>
+      <c r="X33" s="122"/>
+      <c r="Y33" s="122"/>
+      <c r="Z33" s="122"/>
+      <c r="AA33" s="122"/>
+      <c r="AB33" s="122"/>
+      <c r="AC33" s="122"/>
+      <c r="AD33" s="122"/>
+      <c r="AE33" s="122"/>
+      <c r="AF33" s="122"/>
+      <c r="AG33" s="122"/>
+      <c r="AH33" s="122"/>
+      <c r="AI33" s="122"/>
+      <c r="AJ33" s="122"/>
+      <c r="AK33" s="122"/>
+      <c r="AL33" s="122"/>
+      <c r="AM33" s="122"/>
+      <c r="AN33" s="122"/>
+      <c r="AO33" s="122"/>
+      <c r="AP33" s="122"/>
+      <c r="AQ33" s="122"/>
+    </row>
+    <row r="34" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="17">
+        <v>220</v>
+      </c>
+      <c r="D34" s="18">
+        <f>C34*1.2</f>
+        <v>264</v>
+      </c>
+      <c r="E34" s="18">
+        <f>C34*1.5</f>
+        <v>330</v>
+      </c>
+      <c r="F34" s="18">
+        <f>C34*1.8</f>
+        <v>396</v>
+      </c>
+      <c r="G34" s="21">
+        <f>C34*2.1</f>
+        <v>462</v>
+      </c>
+      <c r="H34" s="17">
+        <v>40</v>
+      </c>
+      <c r="I34" s="18">
+        <f>H34*1.2</f>
+        <v>48</v>
+      </c>
+      <c r="J34" s="18">
+        <f>H34*1.5</f>
+        <v>60</v>
+      </c>
+      <c r="K34" s="18">
+        <f>H34*1.8</f>
+        <v>72</v>
+      </c>
+      <c r="L34" s="21">
+        <f>H34*2.1</f>
+        <v>84</v>
+      </c>
+      <c r="M34" s="122"/>
+      <c r="N34" s="122"/>
+      <c r="O34" s="122"/>
+      <c r="P34" s="122"/>
+      <c r="Q34" s="122"/>
+      <c r="R34" s="122"/>
+      <c r="S34" s="122"/>
+      <c r="T34" s="122"/>
+      <c r="U34" s="122"/>
+      <c r="V34" s="122"/>
+      <c r="W34" s="122"/>
+      <c r="X34" s="122"/>
+      <c r="Y34" s="122"/>
+      <c r="Z34" s="122"/>
+      <c r="AA34" s="122"/>
+      <c r="AB34" s="122"/>
+      <c r="AC34" s="122"/>
+      <c r="AD34" s="122"/>
+      <c r="AE34" s="122"/>
+      <c r="AF34" s="122"/>
+      <c r="AG34" s="122"/>
+      <c r="AH34" s="122"/>
+      <c r="AI34" s="122"/>
+      <c r="AJ34" s="122"/>
+      <c r="AK34" s="122"/>
+      <c r="AL34" s="122"/>
+      <c r="AM34" s="122"/>
+      <c r="AN34" s="122"/>
+      <c r="AO34" s="122"/>
+      <c r="AP34" s="122"/>
+      <c r="AQ34" s="122"/>
+    </row>
+    <row r="35" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="15">
+        <v>28</v>
+      </c>
+      <c r="D35" s="18">
+        <f>C35*1.2</f>
+        <v>33.6</v>
+      </c>
+      <c r="E35" s="18">
+        <f>C35*1.5</f>
+        <v>42</v>
+      </c>
+      <c r="F35" s="18">
+        <f>C35*1.8</f>
+        <v>50.4</v>
+      </c>
+      <c r="G35" s="21">
+        <f>C35*2.1</f>
+        <v>58.800000000000004</v>
+      </c>
+      <c r="H35" s="15">
+        <v>5</v>
+      </c>
+      <c r="I35" s="18">
+        <f>H35*1.2</f>
+        <v>6</v>
+      </c>
+      <c r="J35" s="18">
+        <f>H35*1.5</f>
+        <v>7.5</v>
+      </c>
+      <c r="K35" s="18">
+        <f>H35*1.8</f>
+        <v>9</v>
+      </c>
+      <c r="L35" s="21">
+        <f>H35*2.1</f>
+        <v>10.5</v>
+      </c>
+      <c r="M35" s="122"/>
+      <c r="N35" s="122"/>
+      <c r="O35" s="122"/>
+      <c r="P35" s="122"/>
+      <c r="Q35" s="122"/>
+      <c r="R35" s="122"/>
+      <c r="S35" s="122"/>
+      <c r="T35" s="122"/>
+      <c r="U35" s="122"/>
+      <c r="V35" s="122"/>
+      <c r="W35" s="122"/>
+      <c r="X35" s="122"/>
+      <c r="Y35" s="122"/>
+      <c r="Z35" s="122"/>
+      <c r="AA35" s="122"/>
+      <c r="AB35" s="122"/>
+      <c r="AC35" s="122"/>
+      <c r="AD35" s="122"/>
+      <c r="AE35" s="122"/>
+      <c r="AF35" s="122"/>
+      <c r="AG35" s="122"/>
+      <c r="AH35" s="122"/>
+      <c r="AI35" s="122"/>
+      <c r="AJ35" s="122"/>
+      <c r="AK35" s="122"/>
+      <c r="AL35" s="122"/>
+      <c r="AM35" s="122"/>
+      <c r="AN35" s="122"/>
+      <c r="AO35" s="122"/>
+      <c r="AP35" s="122"/>
+      <c r="AQ35" s="122"/>
+    </row>
+    <row r="36" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="D36" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="E36" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="F36" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="G36" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="H36" s="15">
+        <v>1</v>
+      </c>
+      <c r="I36" s="16">
+        <v>1</v>
+      </c>
+      <c r="J36" s="16">
+        <v>1</v>
+      </c>
+      <c r="K36" s="16">
+        <v>1</v>
+      </c>
+      <c r="L36" s="10">
+        <v>1</v>
+      </c>
+      <c r="M36" s="122"/>
+      <c r="N36" s="122"/>
+      <c r="O36" s="122"/>
+      <c r="P36" s="122"/>
+      <c r="Q36" s="122"/>
+      <c r="R36" s="122"/>
+      <c r="S36" s="122"/>
+      <c r="T36" s="122"/>
+      <c r="U36" s="122"/>
+      <c r="V36" s="122"/>
+      <c r="W36" s="122"/>
+      <c r="X36" s="122"/>
+      <c r="Y36" s="122"/>
+      <c r="Z36" s="122"/>
+      <c r="AA36" s="122"/>
+      <c r="AB36" s="122"/>
+      <c r="AC36" s="122"/>
+      <c r="AD36" s="122"/>
+      <c r="AE36" s="122"/>
+      <c r="AF36" s="122"/>
+      <c r="AG36" s="122"/>
+      <c r="AH36" s="122"/>
+      <c r="AI36" s="122"/>
+      <c r="AJ36" s="122"/>
+      <c r="AK36" s="122"/>
+      <c r="AL36" s="122"/>
+      <c r="AM36" s="122"/>
+      <c r="AN36" s="122"/>
+      <c r="AO36" s="122"/>
+      <c r="AP36" s="122"/>
+      <c r="AQ36" s="122"/>
+    </row>
+    <row r="37" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="19">
+        <f>C35*C36</f>
+        <v>33.6</v>
+      </c>
+      <c r="D37" s="20">
+        <f>D35*D36</f>
+        <v>40.32</v>
+      </c>
+      <c r="E37" s="20">
+        <f>E35*E36</f>
+        <v>50.4</v>
+      </c>
+      <c r="F37" s="20">
+        <f>F35*F36</f>
+        <v>60.48</v>
+      </c>
+      <c r="G37" s="22">
+        <f>G35*G36</f>
+        <v>70.56</v>
+      </c>
+      <c r="H37" s="19">
+        <f t="shared" ref="H37:L37" si="11">H35*H36</f>
+        <v>5</v>
+      </c>
+      <c r="I37" s="20">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="J37" s="20">
+        <f t="shared" si="11"/>
+        <v>7.5</v>
+      </c>
+      <c r="K37" s="20">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="L37" s="14">
+        <f t="shared" si="11"/>
+        <v>10.5</v>
+      </c>
+      <c r="M37" s="122"/>
+      <c r="N37" s="122"/>
+      <c r="O37" s="122"/>
+      <c r="P37" s="122"/>
+      <c r="Q37" s="122"/>
+      <c r="R37" s="122"/>
+      <c r="S37" s="122"/>
+      <c r="T37" s="122"/>
+      <c r="U37" s="122"/>
+      <c r="V37" s="122"/>
+      <c r="W37" s="122"/>
+      <c r="X37" s="122"/>
+      <c r="Y37" s="122"/>
+      <c r="Z37" s="122"/>
+      <c r="AA37" s="122"/>
+      <c r="AB37" s="122"/>
+      <c r="AC37" s="122"/>
+      <c r="AD37" s="122"/>
+      <c r="AE37" s="122"/>
+      <c r="AF37" s="122"/>
+      <c r="AG37" s="122"/>
+      <c r="AH37" s="122"/>
+      <c r="AI37" s="122"/>
+      <c r="AJ37" s="122"/>
+      <c r="AK37" s="122"/>
+      <c r="AL37" s="122"/>
+      <c r="AM37" s="122"/>
+      <c r="AN37" s="122"/>
+      <c r="AO37" s="122"/>
+      <c r="AP37" s="122"/>
+      <c r="AQ37" s="122"/>
+    </row>
+    <row r="38" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="137" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="138"/>
+      <c r="E38" s="138"/>
+      <c r="F38" s="138"/>
+      <c r="G38" s="139"/>
+      <c r="H38" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="138"/>
+      <c r="J38" s="138"/>
+      <c r="K38" s="138"/>
+      <c r="L38" s="139"/>
+      <c r="M38" s="122"/>
+      <c r="N38" s="122"/>
+      <c r="O38" s="122"/>
+      <c r="P38" s="122"/>
+      <c r="Q38" s="122"/>
+      <c r="R38" s="122"/>
+      <c r="S38" s="122"/>
+      <c r="T38" s="122"/>
+      <c r="U38" s="122"/>
+      <c r="V38" s="122"/>
+      <c r="W38" s="122"/>
+      <c r="X38" s="122"/>
+      <c r="Y38" s="122"/>
+      <c r="Z38" s="122"/>
+      <c r="AA38" s="122"/>
+      <c r="AB38" s="122"/>
+      <c r="AC38" s="122"/>
+      <c r="AD38" s="122"/>
+      <c r="AE38" s="122"/>
+      <c r="AF38" s="122"/>
+      <c r="AG38" s="122"/>
+      <c r="AH38" s="122"/>
+      <c r="AI38" s="122"/>
+      <c r="AJ38" s="122"/>
+      <c r="AK38" s="122"/>
+      <c r="AL38" s="122"/>
+      <c r="AM38" s="122"/>
+      <c r="AN38" s="122"/>
+      <c r="AO38" s="122"/>
+      <c r="AP38" s="122"/>
+      <c r="AQ38" s="122"/>
+    </row>
+    <row r="39" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="140" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="141"/>
+      <c r="E39" s="141"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="142"/>
+      <c r="H39" s="140" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" s="141"/>
+      <c r="J39" s="141"/>
+      <c r="K39" s="141"/>
+      <c r="L39" s="142"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="122"/>
+      <c r="S39" s="122"/>
+      <c r="T39" s="122"/>
+      <c r="U39" s="122"/>
+      <c r="V39" s="122"/>
+      <c r="W39" s="122"/>
+      <c r="X39" s="122"/>
+      <c r="Y39" s="122"/>
+      <c r="Z39" s="122"/>
+      <c r="AA39" s="122"/>
+      <c r="AB39" s="122"/>
+      <c r="AC39" s="122"/>
+      <c r="AD39" s="122"/>
+      <c r="AE39" s="122"/>
+      <c r="AF39" s="122"/>
+      <c r="AG39" s="122"/>
+      <c r="AH39" s="122"/>
+      <c r="AI39" s="122"/>
+      <c r="AJ39" s="122"/>
+      <c r="AK39" s="122"/>
+      <c r="AL39" s="122"/>
+      <c r="AM39" s="122"/>
+      <c r="AN39" s="122"/>
+      <c r="AO39" s="122"/>
+      <c r="AP39" s="122"/>
+      <c r="AQ39" s="122"/>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E67363-7FC7-4BA4-8F5D-65854E98AD6E}">
   <dimension ref="A1:O80"/>
   <sheetViews>
@@ -4788,11 +7352,11 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="176" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
       <c r="F2" s="36"/>
@@ -4802,9 +7366,9 @@
       <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="153"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
+      <c r="A3" s="178"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
       <c r="D3" s="38"/>
       <c r="E3" s="39" t="s">
         <v>44</v>
@@ -4846,11 +7410,11 @@
       <c r="J4" s="43"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="161" t="s">
+      <c r="A5" s="186" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="186"/>
       <c r="D5" s="38"/>
       <c r="E5" s="46" t="s">
         <v>50</v>
@@ -4870,9 +7434,9 @@
       <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="161"/>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
+      <c r="A6" s="186"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="186"/>
       <c r="D6" s="38"/>
       <c r="E6" s="46" t="s">
         <v>51</v>
@@ -4892,9 +7456,9 @@
       <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="161"/>
-      <c r="B7" s="161"/>
-      <c r="C7" s="161"/>
+      <c r="A7" s="186"/>
+      <c r="B7" s="186"/>
+      <c r="C7" s="186"/>
       <c r="D7" s="38"/>
       <c r="E7" s="46" t="s">
         <v>52</v>
@@ -4998,11 +7562,11 @@
       <c r="B12" s="63">
         <v>35</v>
       </c>
-      <c r="C12" s="159" t="s">
+      <c r="C12" s="184" t="s">
         <v>58</v>
       </c>
       <c r="D12" s="38"/>
-      <c r="E12" s="157" t="s">
+      <c r="E12" s="182" t="s">
         <v>56</v>
       </c>
       <c r="F12" s="64" t="s">
@@ -5026,9 +7590,9 @@
       <c r="B13" s="66">
         <v>5</v>
       </c>
-      <c r="C13" s="160"/>
+      <c r="C13" s="185"/>
       <c r="D13" s="38"/>
-      <c r="E13" s="158"/>
+      <c r="E13" s="183"/>
       <c r="F13" s="67" t="s">
         <v>59</v>
       </c>
@@ -5063,11 +7627,11 @@
       <c r="B15" s="72">
         <v>44</v>
       </c>
-      <c r="C15" s="159" t="s">
+      <c r="C15" s="184" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="38"/>
-      <c r="E15" s="155" t="s">
+      <c r="E15" s="168" t="s">
         <v>62</v>
       </c>
       <c r="F15" s="64" t="s">
@@ -5092,9 +7656,9 @@
       <c r="B16" s="74">
         <v>9</v>
       </c>
-      <c r="C16" s="160"/>
+      <c r="C16" s="185"/>
       <c r="D16" s="38"/>
-      <c r="E16" s="156"/>
+      <c r="E16" s="169"/>
       <c r="F16" s="67" t="s">
         <v>59</v>
       </c>
@@ -5130,11 +7694,11 @@
       <c r="B18" s="77">
         <v>68</v>
       </c>
-      <c r="C18" s="159" t="s">
+      <c r="C18" s="184" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="38"/>
-      <c r="E18" s="155" t="s">
+      <c r="E18" s="168" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="64" t="s">
@@ -5159,9 +7723,9 @@
       <c r="B19" s="74">
         <v>29</v>
       </c>
-      <c r="C19" s="160"/>
+      <c r="C19" s="185"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="156"/>
+      <c r="E19" s="169"/>
       <c r="F19" s="67" t="s">
         <v>59</v>
       </c>
@@ -5195,11 +7759,11 @@
       <c r="B21" s="72">
         <v>92</v>
       </c>
-      <c r="C21" s="159" t="s">
+      <c r="C21" s="184" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="38"/>
-      <c r="E21" s="155" t="s">
+      <c r="E21" s="168" t="s">
         <v>69</v>
       </c>
       <c r="F21" s="64" t="s">
@@ -5224,9 +7788,9 @@
       <c r="B22" s="74">
         <v>80</v>
       </c>
-      <c r="C22" s="160"/>
+      <c r="C22" s="185"/>
       <c r="D22" s="38"/>
-      <c r="E22" s="156"/>
+      <c r="E22" s="169"/>
       <c r="F22" s="67" t="s">
         <v>59</v>
       </c>
@@ -5282,11 +7846,11 @@
       <c r="J25" s="38"/>
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="151" t="s">
+      <c r="A26" s="176" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="152"/>
-      <c r="C26" s="152"/>
+      <c r="B26" s="177"/>
+      <c r="C26" s="177"/>
       <c r="D26" s="36"/>
       <c r="E26" s="36"/>
       <c r="F26" s="36"/>
@@ -5303,9 +7867,9 @@
       <c r="K26" s="87"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="153"/>
-      <c r="B27" s="154"/>
-      <c r="C27" s="154"/>
+      <c r="A27" s="178"/>
+      <c r="B27" s="179"/>
+      <c r="C27" s="179"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39" t="s">
         <v>44</v>
@@ -5357,11 +7921,11 @@
       <c r="K28" s="89"/>
     </row>
     <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="162" t="s">
+      <c r="A29" s="180" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="163"/>
-      <c r="C29" s="163"/>
+      <c r="B29" s="155"/>
+      <c r="C29" s="155"/>
       <c r="D29" s="38"/>
       <c r="E29" s="46" t="s">
         <v>50</v>
@@ -5387,9 +7951,9 @@
       <c r="K29" s="89"/>
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="164"/>
-      <c r="B30" s="163"/>
-      <c r="C30" s="163"/>
+      <c r="A30" s="181"/>
+      <c r="B30" s="155"/>
+      <c r="C30" s="155"/>
       <c r="D30" s="38"/>
       <c r="E30" s="46" t="s">
         <v>51</v>
@@ -5404,16 +7968,16 @@
       <c r="I30" s="31"/>
       <c r="J30" s="99"/>
       <c r="K30" s="89"/>
-      <c r="M30" s="148" t="s">
+      <c r="M30" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="N30" s="149"/>
-      <c r="O30" s="150"/>
+      <c r="N30" s="129"/>
+      <c r="O30" s="130"/>
     </row>
     <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="164"/>
-      <c r="B31" s="163"/>
-      <c r="C31" s="163"/>
+      <c r="A31" s="181"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="155"/>
       <c r="D31" s="38"/>
       <c r="E31" s="46" t="s">
         <v>52</v>
@@ -5437,11 +8001,11 @@
         <v>18</v>
       </c>
       <c r="K31" s="89"/>
-      <c r="M31" s="171" t="s">
+      <c r="M31" s="154" t="s">
         <v>182</v>
       </c>
-      <c r="N31" s="172"/>
-      <c r="O31" s="173"/>
+      <c r="N31" s="161"/>
+      <c r="O31" s="162"/>
     </row>
     <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="90"/>
@@ -5461,9 +8025,9 @@
       <c r="I32" s="32"/>
       <c r="J32" s="102"/>
       <c r="K32" s="89"/>
-      <c r="M32" s="171"/>
-      <c r="N32" s="172"/>
-      <c r="O32" s="173"/>
+      <c r="M32" s="154"/>
+      <c r="N32" s="161"/>
+      <c r="O32" s="162"/>
     </row>
     <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
@@ -5483,9 +8047,9 @@
       <c r="I33" s="38"/>
       <c r="J33" s="38"/>
       <c r="K33" s="89"/>
-      <c r="M33" s="171"/>
-      <c r="N33" s="172"/>
-      <c r="O33" s="173"/>
+      <c r="M33" s="154"/>
+      <c r="N33" s="161"/>
+      <c r="O33" s="162"/>
     </row>
     <row r="34" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="91">
@@ -5494,9 +8058,9 @@
       <c r="B34" s="92">
         <v>140</v>
       </c>
-      <c r="C34" s="165"/>
+      <c r="C34" s="170"/>
       <c r="D34" s="38"/>
-      <c r="E34" s="155" t="s">
+      <c r="E34" s="168" t="s">
         <v>74</v>
       </c>
       <c r="F34" s="93" t="s">
@@ -5515,9 +8079,9 @@
         <v>4</v>
       </c>
       <c r="K34" s="89"/>
-      <c r="M34" s="174"/>
-      <c r="N34" s="175"/>
-      <c r="O34" s="176"/>
+      <c r="M34" s="163"/>
+      <c r="N34" s="164"/>
+      <c r="O34" s="165"/>
     </row>
     <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="94">
@@ -5526,9 +8090,9 @@
       <c r="B35" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="166"/>
+      <c r="C35" s="171"/>
       <c r="D35" s="38"/>
-      <c r="E35" s="156"/>
+      <c r="E35" s="169"/>
       <c r="F35" s="67" t="s">
         <v>59</v>
       </c>
@@ -5558,11 +8122,11 @@
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
       <c r="K36" s="89"/>
-      <c r="M36" s="148" t="s">
+      <c r="M36" s="128" t="s">
         <v>131</v>
       </c>
-      <c r="N36" s="149"/>
-      <c r="O36" s="150"/>
+      <c r="N36" s="129"/>
+      <c r="O36" s="130"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="91">
@@ -5571,9 +8135,9 @@
       <c r="B37" s="92">
         <v>166</v>
       </c>
-      <c r="C37" s="167"/>
+      <c r="C37" s="166"/>
       <c r="D37" s="38"/>
-      <c r="E37" s="155" t="s">
+      <c r="E37" s="168" t="s">
         <v>80</v>
       </c>
       <c r="F37" s="93" t="s">
@@ -5592,11 +8156,11 @@
         <v>4</v>
       </c>
       <c r="K37" s="89"/>
-      <c r="M37" s="171" t="s">
+      <c r="M37" s="154" t="s">
         <v>183</v>
       </c>
-      <c r="N37" s="163"/>
-      <c r="O37" s="179"/>
+      <c r="N37" s="155"/>
+      <c r="O37" s="156"/>
     </row>
     <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="s">
@@ -5605,9 +8169,9 @@
       <c r="B38" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="168"/>
+      <c r="C38" s="167"/>
       <c r="D38" s="38"/>
-      <c r="E38" s="156"/>
+      <c r="E38" s="169"/>
       <c r="F38" s="67" t="s">
         <v>59</v>
       </c>
@@ -5624,9 +8188,9 @@
         <v>79</v>
       </c>
       <c r="K38" s="89"/>
-      <c r="M38" s="180"/>
-      <c r="N38" s="163"/>
-      <c r="O38" s="179"/>
+      <c r="M38" s="157"/>
+      <c r="N38" s="155"/>
+      <c r="O38" s="156"/>
     </row>
     <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
@@ -5642,9 +8206,9 @@
       <c r="I39" s="38"/>
       <c r="J39" s="38"/>
       <c r="K39" s="89"/>
-      <c r="M39" s="180"/>
-      <c r="N39" s="163"/>
-      <c r="O39" s="179"/>
+      <c r="M39" s="157"/>
+      <c r="N39" s="155"/>
+      <c r="O39" s="156"/>
     </row>
     <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="91">
@@ -5653,11 +8217,11 @@
       <c r="B40" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="165" t="s">
+      <c r="C40" s="170" t="s">
         <v>146</v>
       </c>
       <c r="D40" s="38"/>
-      <c r="E40" s="155" t="s">
+      <c r="E40" s="168" t="s">
         <v>81</v>
       </c>
       <c r="F40" s="93" t="s">
@@ -5669,14 +8233,14 @@
       <c r="H40" s="93">
         <v>2</v>
       </c>
-      <c r="I40" s="177">
+      <c r="I40" s="172">
         <v>3</v>
       </c>
-      <c r="J40" s="178"/>
+      <c r="J40" s="173"/>
       <c r="K40" s="89"/>
-      <c r="M40" s="181"/>
-      <c r="N40" s="182"/>
-      <c r="O40" s="183"/>
+      <c r="M40" s="158"/>
+      <c r="N40" s="159"/>
+      <c r="O40" s="160"/>
     </row>
     <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="94" t="s">
@@ -5685,9 +8249,9 @@
       <c r="B41" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="166"/>
+      <c r="C41" s="171"/>
       <c r="D41" s="38"/>
-      <c r="E41" s="156"/>
+      <c r="E41" s="169"/>
       <c r="F41" s="67" t="s">
         <v>59</v>
       </c>
@@ -5697,10 +8261,10 @@
       <c r="H41" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="I41" s="169" t="s">
+      <c r="I41" s="174" t="s">
         <v>141</v>
       </c>
-      <c r="J41" s="170"/>
+      <c r="J41" s="175"/>
       <c r="K41" s="89"/>
     </row>
     <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -5720,11 +8284,11 @@
     </row>
     <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="151" t="s">
+      <c r="A45" s="176" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="152"/>
-      <c r="C45" s="152"/>
+      <c r="B45" s="177"/>
+      <c r="C45" s="177"/>
       <c r="D45" s="36"/>
       <c r="E45" s="36"/>
       <c r="F45" s="36"/>
@@ -5742,9 +8306,9 @@
       <c r="K45" s="87"/>
     </row>
     <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="153"/>
-      <c r="B46" s="154"/>
-      <c r="C46" s="154"/>
+      <c r="A46" s="178"/>
+      <c r="B46" s="179"/>
+      <c r="C46" s="179"/>
       <c r="D46" s="107"/>
       <c r="E46" s="39" t="s">
         <v>44</v>
@@ -5765,11 +8329,11 @@
         <v>72</v>
       </c>
       <c r="K46" s="89"/>
-      <c r="M46" s="148" t="s">
+      <c r="M46" s="128" t="s">
         <v>132</v>
       </c>
-      <c r="N46" s="149"/>
-      <c r="O46" s="150"/>
+      <c r="N46" s="129"/>
+      <c r="O46" s="130"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="108"/>
@@ -5798,18 +8362,18 @@
         <v>462.5</v>
       </c>
       <c r="K47" s="89"/>
-      <c r="M47" s="171" t="s">
+      <c r="M47" s="154" t="s">
         <v>184</v>
       </c>
-      <c r="N47" s="163"/>
-      <c r="O47" s="179"/>
+      <c r="N47" s="155"/>
+      <c r="O47" s="156"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="162" t="s">
+      <c r="A48" s="180" t="s">
         <v>161</v>
       </c>
-      <c r="B48" s="163"/>
-      <c r="C48" s="163"/>
+      <c r="B48" s="155"/>
+      <c r="C48" s="155"/>
       <c r="D48" s="107"/>
       <c r="E48" s="46" t="s">
         <v>50</v>
@@ -5833,14 +8397,14 @@
         <v>21.25</v>
       </c>
       <c r="K48" s="89"/>
-      <c r="M48" s="180"/>
-      <c r="N48" s="163"/>
-      <c r="O48" s="179"/>
+      <c r="M48" s="157"/>
+      <c r="N48" s="155"/>
+      <c r="O48" s="156"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="164"/>
-      <c r="B49" s="163"/>
-      <c r="C49" s="163"/>
+      <c r="A49" s="181"/>
+      <c r="B49" s="155"/>
+      <c r="C49" s="155"/>
       <c r="D49" s="107"/>
       <c r="E49" s="46" t="s">
         <v>51</v>
@@ -5855,14 +8419,14 @@
       <c r="I49" s="110"/>
       <c r="J49" s="109"/>
       <c r="K49" s="89"/>
-      <c r="M49" s="180"/>
-      <c r="N49" s="163"/>
-      <c r="O49" s="179"/>
+      <c r="M49" s="157"/>
+      <c r="N49" s="155"/>
+      <c r="O49" s="156"/>
     </row>
     <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="164"/>
-      <c r="B50" s="163"/>
-      <c r="C50" s="163"/>
+      <c r="A50" s="181"/>
+      <c r="B50" s="155"/>
+      <c r="C50" s="155"/>
       <c r="D50" s="107"/>
       <c r="E50" s="46" t="s">
         <v>52</v>
@@ -5886,9 +8450,9 @@
         <v>42.5</v>
       </c>
       <c r="K50" s="89"/>
-      <c r="M50" s="181"/>
-      <c r="N50" s="182"/>
-      <c r="O50" s="183"/>
+      <c r="M50" s="158"/>
+      <c r="N50" s="159"/>
+      <c r="O50" s="160"/>
     </row>
     <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="90"/>
@@ -5935,9 +8499,9 @@
       <c r="B53" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="165"/>
+      <c r="C53" s="170"/>
       <c r="D53" s="107"/>
-      <c r="E53" s="155" t="s">
+      <c r="E53" s="168" t="s">
         <v>74</v>
       </c>
       <c r="F53" s="93" t="s">
@@ -5956,11 +8520,11 @@
         <v>4</v>
       </c>
       <c r="K53" s="89"/>
-      <c r="M53" s="148" t="s">
+      <c r="M53" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="N53" s="149"/>
-      <c r="O53" s="150"/>
+      <c r="N53" s="129"/>
+      <c r="O53" s="130"/>
     </row>
     <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="94" t="s">
@@ -5969,9 +8533,9 @@
       <c r="B54" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="166"/>
+      <c r="C54" s="171"/>
       <c r="D54" s="107"/>
-      <c r="E54" s="156"/>
+      <c r="E54" s="169"/>
       <c r="F54" s="67" t="s">
         <v>59</v>
       </c>
@@ -5988,11 +8552,11 @@
         <v>135</v>
       </c>
       <c r="K54" s="89"/>
-      <c r="M54" s="171" t="s">
+      <c r="M54" s="154" t="s">
         <v>185</v>
       </c>
-      <c r="N54" s="163"/>
-      <c r="O54" s="179"/>
+      <c r="N54" s="155"/>
+      <c r="O54" s="156"/>
     </row>
     <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="108" t="s">
@@ -6008,9 +8572,9 @@
       <c r="I55" s="107"/>
       <c r="J55" s="107"/>
       <c r="K55" s="89"/>
-      <c r="M55" s="180"/>
-      <c r="N55" s="163"/>
-      <c r="O55" s="179"/>
+      <c r="M55" s="157"/>
+      <c r="N55" s="155"/>
+      <c r="O55" s="156"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="91">
@@ -6019,9 +8583,9 @@
       <c r="B56" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="167"/>
+      <c r="C56" s="166"/>
       <c r="D56" s="107"/>
-      <c r="E56" s="155" t="s">
+      <c r="E56" s="168" t="s">
         <v>80</v>
       </c>
       <c r="F56" s="93" t="s">
@@ -6040,9 +8604,9 @@
         <v>4</v>
       </c>
       <c r="K56" s="89"/>
-      <c r="M56" s="180"/>
-      <c r="N56" s="163"/>
-      <c r="O56" s="179"/>
+      <c r="M56" s="157"/>
+      <c r="N56" s="155"/>
+      <c r="O56" s="156"/>
     </row>
     <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="94" t="s">
@@ -6051,9 +8615,9 @@
       <c r="B57" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="C57" s="168"/>
+      <c r="C57" s="167"/>
       <c r="D57" s="107"/>
-      <c r="E57" s="156"/>
+      <c r="E57" s="169"/>
       <c r="F57" s="67" t="s">
         <v>59</v>
       </c>
@@ -6070,9 +8634,9 @@
         <v>138</v>
       </c>
       <c r="K57" s="89"/>
-      <c r="M57" s="181"/>
-      <c r="N57" s="182"/>
-      <c r="O57" s="183"/>
+      <c r="M57" s="158"/>
+      <c r="N57" s="159"/>
+      <c r="O57" s="160"/>
     </row>
     <row r="58" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="108" t="s">
@@ -6096,11 +8660,11 @@
       <c r="B59" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="C59" s="165" t="s">
+      <c r="C59" s="170" t="s">
         <v>179</v>
       </c>
       <c r="D59" s="107"/>
-      <c r="E59" s="155" t="s">
+      <c r="E59" s="168" t="s">
         <v>81</v>
       </c>
       <c r="F59" s="93" t="s">
@@ -6112,10 +8676,10 @@
       <c r="H59" s="93">
         <v>2</v>
       </c>
-      <c r="I59" s="177">
+      <c r="I59" s="172">
         <v>3</v>
       </c>
-      <c r="J59" s="178"/>
+      <c r="J59" s="173"/>
       <c r="K59" s="89"/>
     </row>
     <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -6125,9 +8689,9 @@
       <c r="B60" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="C60" s="166"/>
+      <c r="C60" s="171"/>
       <c r="D60" s="107"/>
-      <c r="E60" s="156"/>
+      <c r="E60" s="169"/>
       <c r="F60" s="67" t="s">
         <v>59</v>
       </c>
@@ -6137,10 +8701,10 @@
       <c r="H60" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="I60" s="169" t="s">
+      <c r="I60" s="174" t="s">
         <v>142</v>
       </c>
-      <c r="J60" s="170"/>
+      <c r="J60" s="175"/>
       <c r="K60" s="89"/>
     </row>
     <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -6162,11 +8726,11 @@
     </row>
     <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="151" t="s">
+      <c r="A64" s="176" t="s">
         <v>160</v>
       </c>
-      <c r="B64" s="152"/>
-      <c r="C64" s="152"/>
+      <c r="B64" s="177"/>
+      <c r="C64" s="177"/>
       <c r="D64" s="36"/>
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
@@ -6185,9 +8749,9 @@
       <c r="K64" s="87"/>
     </row>
     <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="153"/>
-      <c r="B65" s="154"/>
-      <c r="C65" s="154"/>
+      <c r="A65" s="178"/>
+      <c r="B65" s="179"/>
+      <c r="C65" s="179"/>
       <c r="D65" s="107"/>
       <c r="E65" s="39" t="s">
         <v>44</v>
@@ -6236,18 +8800,18 @@
         <v>555</v>
       </c>
       <c r="K66" s="89"/>
-      <c r="M66" s="148" t="s">
+      <c r="M66" s="128" t="s">
         <v>162</v>
       </c>
-      <c r="N66" s="149"/>
-      <c r="O66" s="150"/>
+      <c r="N66" s="129"/>
+      <c r="O66" s="130"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="162" t="s">
+      <c r="A67" s="180" t="s">
         <v>181</v>
       </c>
-      <c r="B67" s="163"/>
-      <c r="C67" s="163"/>
+      <c r="B67" s="155"/>
+      <c r="C67" s="155"/>
       <c r="D67" s="107"/>
       <c r="E67" s="46" t="s">
         <v>50</v>
@@ -6271,16 +8835,16 @@
         <v>25.5</v>
       </c>
       <c r="K67" s="89"/>
-      <c r="M67" s="171" t="s">
+      <c r="M67" s="154" t="s">
         <v>186</v>
       </c>
-      <c r="N67" s="163"/>
-      <c r="O67" s="179"/>
+      <c r="N67" s="155"/>
+      <c r="O67" s="156"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="164"/>
-      <c r="B68" s="163"/>
-      <c r="C68" s="163"/>
+      <c r="A68" s="181"/>
+      <c r="B68" s="155"/>
+      <c r="C68" s="155"/>
       <c r="D68" s="107"/>
       <c r="E68" s="46" t="s">
         <v>51</v>
@@ -6295,14 +8859,14 @@
       <c r="I68" s="110"/>
       <c r="J68" s="109"/>
       <c r="K68" s="89"/>
-      <c r="M68" s="180"/>
-      <c r="N68" s="163"/>
-      <c r="O68" s="179"/>
+      <c r="M68" s="157"/>
+      <c r="N68" s="155"/>
+      <c r="O68" s="156"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="164"/>
-      <c r="B69" s="163"/>
-      <c r="C69" s="163"/>
+      <c r="A69" s="181"/>
+      <c r="B69" s="155"/>
+      <c r="C69" s="155"/>
       <c r="D69" s="107"/>
       <c r="E69" s="46" t="s">
         <v>52</v>
@@ -6326,9 +8890,9 @@
         <v>51</v>
       </c>
       <c r="K69" s="89"/>
-      <c r="M69" s="180"/>
-      <c r="N69" s="163"/>
-      <c r="O69" s="179"/>
+      <c r="M69" s="157"/>
+      <c r="N69" s="155"/>
+      <c r="O69" s="156"/>
     </row>
     <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="90"/>
@@ -6350,9 +8914,9 @@
       </c>
       <c r="J70" s="101"/>
       <c r="K70" s="89"/>
-      <c r="M70" s="181"/>
-      <c r="N70" s="182"/>
-      <c r="O70" s="183"/>
+      <c r="M70" s="158"/>
+      <c r="N70" s="159"/>
+      <c r="O70" s="160"/>
     </row>
     <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="52" t="s">
@@ -6380,9 +8944,9 @@
       <c r="B72" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="C72" s="165"/>
+      <c r="C72" s="170"/>
       <c r="D72" s="107"/>
-      <c r="E72" s="155" t="s">
+      <c r="E72" s="168" t="s">
         <v>74</v>
       </c>
       <c r="F72" s="93" t="s">
@@ -6401,11 +8965,11 @@
         <v>4</v>
       </c>
       <c r="K72" s="89"/>
-      <c r="M72" s="148" t="s">
+      <c r="M72" s="128" t="s">
         <v>159</v>
       </c>
-      <c r="N72" s="149"/>
-      <c r="O72" s="150"/>
+      <c r="N72" s="129"/>
+      <c r="O72" s="130"/>
     </row>
     <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="94" t="s">
@@ -6414,9 +8978,9 @@
       <c r="B73" s="95" t="s">
         <v>173</v>
       </c>
-      <c r="C73" s="166"/>
+      <c r="C73" s="171"/>
       <c r="D73" s="107"/>
-      <c r="E73" s="156"/>
+      <c r="E73" s="169"/>
       <c r="F73" s="67" t="s">
         <v>59</v>
       </c>
@@ -6433,11 +8997,11 @@
         <v>166</v>
       </c>
       <c r="K73" s="89"/>
-      <c r="M73" s="171" t="s">
+      <c r="M73" s="154" t="s">
         <v>188</v>
       </c>
-      <c r="N73" s="163"/>
-      <c r="O73" s="179"/>
+      <c r="N73" s="155"/>
+      <c r="O73" s="156"/>
     </row>
     <row r="74" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="108" t="s">
@@ -6453,9 +9017,9 @@
       <c r="I74" s="107"/>
       <c r="J74" s="107"/>
       <c r="K74" s="89"/>
-      <c r="M74" s="180"/>
-      <c r="N74" s="163"/>
-      <c r="O74" s="179"/>
+      <c r="M74" s="157"/>
+      <c r="N74" s="155"/>
+      <c r="O74" s="156"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="91">
@@ -6464,9 +9028,9 @@
       <c r="B75" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="C75" s="167"/>
+      <c r="C75" s="166"/>
       <c r="D75" s="107"/>
-      <c r="E75" s="155" t="s">
+      <c r="E75" s="168" t="s">
         <v>80</v>
       </c>
       <c r="F75" s="93" t="s">
@@ -6485,9 +9049,9 @@
         <v>4</v>
       </c>
       <c r="K75" s="89"/>
-      <c r="M75" s="180"/>
-      <c r="N75" s="163"/>
-      <c r="O75" s="179"/>
+      <c r="M75" s="157"/>
+      <c r="N75" s="155"/>
+      <c r="O75" s="156"/>
     </row>
     <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="94" t="s">
@@ -6496,9 +9060,9 @@
       <c r="B76" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="C76" s="168"/>
+      <c r="C76" s="167"/>
       <c r="D76" s="107"/>
-      <c r="E76" s="156"/>
+      <c r="E76" s="169"/>
       <c r="F76" s="67" t="s">
         <v>59</v>
       </c>
@@ -6515,9 +9079,9 @@
         <v>170</v>
       </c>
       <c r="K76" s="89"/>
-      <c r="M76" s="181"/>
-      <c r="N76" s="182"/>
-      <c r="O76" s="183"/>
+      <c r="M76" s="158"/>
+      <c r="N76" s="159"/>
+      <c r="O76" s="160"/>
     </row>
     <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="108" t="s">
@@ -6541,11 +9105,11 @@
       <c r="B78" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="C78" s="165" t="s">
+      <c r="C78" s="170" t="s">
         <v>195</v>
       </c>
       <c r="D78" s="107"/>
-      <c r="E78" s="155" t="s">
+      <c r="E78" s="168" t="s">
         <v>81</v>
       </c>
       <c r="F78" s="93" t="s">
@@ -6557,10 +9121,10 @@
       <c r="H78" s="93">
         <v>2</v>
       </c>
-      <c r="I78" s="177">
+      <c r="I78" s="172">
         <v>3</v>
       </c>
-      <c r="J78" s="178"/>
+      <c r="J78" s="173"/>
       <c r="K78" s="89"/>
     </row>
     <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -6570,9 +9134,9 @@
       <c r="B79" s="96" t="s">
         <v>180</v>
       </c>
-      <c r="C79" s="166"/>
+      <c r="C79" s="171"/>
       <c r="D79" s="107"/>
-      <c r="E79" s="156"/>
+      <c r="E79" s="169"/>
       <c r="F79" s="67" t="s">
         <v>59</v>
       </c>
@@ -6582,10 +9146,10 @@
       <c r="H79" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="I79" s="169" t="s">
+      <c r="I79" s="174" t="s">
         <v>187</v>
       </c>
-      <c r="J79" s="170"/>
+      <c r="J79" s="175"/>
       <c r="K79" s="89"/>
     </row>
     <row r="80" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -6605,16 +9169,32 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M54:O57"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="M67:O70"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="M73:O76"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M37:O40"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="M47:O50"/>
-    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="A26:C27"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A5:C7"/>
+    <mergeCell ref="A29:C31"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="A45:C46"/>
+    <mergeCell ref="A48:C50"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="E56:E57"/>
     <mergeCell ref="M30:O30"/>
     <mergeCell ref="M31:O34"/>
     <mergeCell ref="C75:C76"/>
@@ -6631,32 +9211,16 @@
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="E59:E60"/>
     <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="A45:C46"/>
-    <mergeCell ref="A48:C50"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="A29:C31"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="A26:C27"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A5:C7"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M37:O40"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="M47:O50"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="M54:O57"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="M67:O70"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="M73:O76"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6664,7 +9228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739D2FDF-FF58-405E-A4E4-D6DDA6C3C12C}">
   <dimension ref="B2:M30"/>
   <sheetViews>
@@ -6688,146 +9252,146 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="223" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
     </row>
     <row r="3" spans="2:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="193"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
+      <c r="B3" s="224"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="224"/>
+      <c r="G3" s="224"/>
     </row>
     <row r="4" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="197" t="s">
+      <c r="C4" s="228" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="197"/>
-      <c r="E4" s="197"/>
-      <c r="F4" s="197" t="s">
+      <c r="D4" s="228"/>
+      <c r="E4" s="228"/>
+      <c r="F4" s="228" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="198"/>
+      <c r="G4" s="229"/>
     </row>
     <row r="5" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="199" t="s">
+      <c r="B5" s="230" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="28">
         <v>1</v>
       </c>
-      <c r="D5" s="213" t="s">
+      <c r="D5" s="197" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="214"/>
-      <c r="F5" s="208" t="s">
+      <c r="E5" s="198"/>
+      <c r="F5" s="241" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="209"/>
+      <c r="G5" s="242"/>
     </row>
     <row r="6" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="200"/>
+      <c r="B6" s="231"/>
       <c r="C6" s="30">
         <v>2</v>
       </c>
-      <c r="D6" s="213" t="s">
+      <c r="D6" s="197" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="214"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="205"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="243"/>
+      <c r="G6" s="236"/>
     </row>
     <row r="7" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="201"/>
+      <c r="B7" s="232"/>
       <c r="C7" s="105">
         <v>3</v>
       </c>
-      <c r="D7" s="202" t="s">
+      <c r="D7" s="233" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="203"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="212"/>
+      <c r="E7" s="234"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="245"/>
     </row>
     <row r="8" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="184" t="s">
+      <c r="C8" s="237" t="s">
         <v>196</v>
       </c>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="185"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="237"/>
+      <c r="G8" s="238"/>
     </row>
     <row r="9" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="202" t="s">
+      <c r="C9" s="233" t="s">
         <v>197</v>
       </c>
-      <c r="D9" s="202"/>
-      <c r="E9" s="202"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="205"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="233"/>
+      <c r="F9" s="235"/>
+      <c r="G9" s="236"/>
     </row>
     <row r="10" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="184" t="s">
+      <c r="C10" s="237" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="184"/>
-      <c r="E10" s="184"/>
-      <c r="F10" s="184"/>
-      <c r="G10" s="185"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="237"/>
+      <c r="F10" s="237"/>
+      <c r="G10" s="238"/>
     </row>
     <row r="11" spans="2:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="206" t="s">
+      <c r="C11" s="239" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="206"/>
-      <c r="E11" s="206"/>
-      <c r="F11" s="206"/>
-      <c r="G11" s="207"/>
+      <c r="D11" s="239"/>
+      <c r="E11" s="239"/>
+      <c r="F11" s="239"/>
+      <c r="G11" s="240"/>
     </row>
     <row r="14" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
-      <c r="D14" s="192" t="s">
+      <c r="D14" s="223" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="194"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="194"/>
-      <c r="I14" s="194"/>
+      <c r="E14" s="225"/>
+      <c r="F14" s="225"/>
+      <c r="G14" s="225"/>
+      <c r="H14" s="225"/>
+      <c r="I14" s="225"/>
     </row>
     <row r="15" spans="2:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
-      <c r="D15" s="194"/>
-      <c r="E15" s="194"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="194"/>
-      <c r="I15" s="194"/>
+      <c r="D15" s="225"/>
+      <c r="E15" s="225"/>
+      <c r="F15" s="225"/>
+      <c r="G15" s="225"/>
+      <c r="H15" s="225"/>
+      <c r="I15" s="225"/>
     </row>
     <row r="16" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="35"/>
@@ -6838,219 +9402,243 @@
       <c r="E16" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="195" t="s">
+      <c r="F16" s="226" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="195"/>
-      <c r="H16" s="195" t="s">
+      <c r="G16" s="226"/>
+      <c r="H16" s="226" t="s">
         <v>96</v>
       </c>
-      <c r="I16" s="196"/>
+      <c r="I16" s="227"/>
     </row>
     <row r="17" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
-      <c r="D17" s="217" t="s">
+      <c r="D17" s="205" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="219" t="s">
+      <c r="E17" s="187" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="225" t="s">
+      <c r="F17" s="211" t="s">
         <v>113</v>
       </c>
-      <c r="G17" s="226"/>
-      <c r="H17" s="188"/>
-      <c r="I17" s="189"/>
+      <c r="G17" s="212"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="202"/>
     </row>
     <row r="18" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
-      <c r="D18" s="217"/>
-      <c r="E18" s="220"/>
-      <c r="F18" s="227"/>
-      <c r="G18" s="228"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="187"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="207"/>
+      <c r="F18" s="213"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="246"/>
+      <c r="I18" s="247"/>
     </row>
     <row r="19" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="240" t="s">
+      <c r="B19" s="190" t="s">
         <v>200</v>
       </c>
-      <c r="C19" s="241"/>
-      <c r="D19" s="215" t="s">
+      <c r="C19" s="191"/>
+      <c r="D19" s="199" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="221"/>
-      <c r="F19" s="229"/>
-      <c r="G19" s="230"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="189"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="215"/>
+      <c r="G19" s="216"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="202"/>
     </row>
     <row r="20" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="240" t="s">
+      <c r="B20" s="190" t="s">
         <v>201</v>
       </c>
-      <c r="C20" s="241"/>
-      <c r="D20" s="215"/>
-      <c r="E20" s="222" t="s">
+      <c r="C20" s="191"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="208" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="231" t="s">
+      <c r="F20" s="217" t="s">
         <v>189</v>
       </c>
-      <c r="G20" s="232"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="187"/>
+      <c r="G20" s="218"/>
+      <c r="H20" s="246"/>
+      <c r="I20" s="247"/>
     </row>
     <row r="21" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="240" t="s">
+      <c r="B21" s="190" t="s">
         <v>203</v>
       </c>
-      <c r="C21" s="241"/>
-      <c r="D21" s="217" t="s">
+      <c r="C21" s="191"/>
+      <c r="D21" s="205" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="223"/>
-      <c r="F21" s="233"/>
-      <c r="G21" s="234"/>
-      <c r="H21" s="188"/>
-      <c r="I21" s="189"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="219"/>
+      <c r="G21" s="220"/>
+      <c r="H21" s="201"/>
+      <c r="I21" s="202"/>
     </row>
     <row r="22" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="240" t="s">
+      <c r="B22" s="190" t="s">
         <v>202</v>
       </c>
-      <c r="C22" s="241"/>
-      <c r="D22" s="217"/>
-      <c r="E22" s="224"/>
-      <c r="F22" s="235"/>
-      <c r="G22" s="236"/>
-      <c r="H22" s="186"/>
-      <c r="I22" s="187"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="205"/>
+      <c r="E22" s="210"/>
+      <c r="F22" s="221"/>
+      <c r="G22" s="222"/>
+      <c r="H22" s="246"/>
+      <c r="I22" s="247"/>
     </row>
     <row r="23" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="242" t="s">
+      <c r="B23" s="192" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="243"/>
-      <c r="D23" s="215" t="s">
+      <c r="C23" s="193"/>
+      <c r="D23" s="199" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="219">
+      <c r="E23" s="187">
         <v>1</v>
       </c>
-      <c r="F23" s="225" t="s">
+      <c r="F23" s="211" t="s">
         <v>191</v>
       </c>
-      <c r="G23" s="226"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="189"/>
+      <c r="G23" s="212"/>
+      <c r="H23" s="201"/>
+      <c r="I23" s="202"/>
     </row>
     <row r="24" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="244"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="215"/>
-      <c r="E24" s="221"/>
-      <c r="F24" s="229"/>
-      <c r="G24" s="230"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="187"/>
+      <c r="B24" s="194"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="199"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="215"/>
+      <c r="G24" s="216"/>
+      <c r="H24" s="246"/>
+      <c r="I24" s="247"/>
     </row>
     <row r="25" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="244"/>
-      <c r="C25" s="179"/>
-      <c r="D25" s="215"/>
-      <c r="E25" s="219">
+      <c r="B25" s="194"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="199"/>
+      <c r="E25" s="187">
         <v>2</v>
       </c>
-      <c r="F25" s="231" t="s">
+      <c r="F25" s="217" t="s">
         <v>193</v>
       </c>
-      <c r="G25" s="232"/>
-      <c r="H25" s="188"/>
-      <c r="I25" s="189"/>
+      <c r="G25" s="218"/>
+      <c r="H25" s="201"/>
+      <c r="I25" s="202"/>
     </row>
     <row r="26" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="244"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="217" t="s">
+      <c r="B26" s="194"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="205" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="221"/>
-      <c r="F26" s="235"/>
-      <c r="G26" s="236"/>
-      <c r="H26" s="186"/>
-      <c r="I26" s="187"/>
+      <c r="E26" s="188"/>
+      <c r="F26" s="221"/>
+      <c r="G26" s="222"/>
+      <c r="H26" s="246"/>
+      <c r="I26" s="247"/>
     </row>
     <row r="27" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="244"/>
-      <c r="C27" s="179"/>
-      <c r="D27" s="217"/>
-      <c r="E27" s="219">
+      <c r="B27" s="194"/>
+      <c r="C27" s="156"/>
+      <c r="D27" s="205"/>
+      <c r="E27" s="187">
         <v>3</v>
       </c>
-      <c r="F27" s="225" t="s">
+      <c r="F27" s="211" t="s">
         <v>192</v>
       </c>
-      <c r="G27" s="226"/>
-      <c r="H27" s="188"/>
-      <c r="I27" s="189"/>
+      <c r="G27" s="212"/>
+      <c r="H27" s="201"/>
+      <c r="I27" s="202"/>
     </row>
     <row r="28" spans="2:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="245"/>
-      <c r="C28" s="246"/>
-      <c r="D28" s="218"/>
-      <c r="E28" s="239"/>
-      <c r="F28" s="237"/>
-      <c r="G28" s="238"/>
-      <c r="H28" s="190"/>
-      <c r="I28" s="191"/>
+      <c r="B28" s="195"/>
+      <c r="C28" s="196"/>
+      <c r="D28" s="206"/>
+      <c r="E28" s="189"/>
+      <c r="F28" s="248"/>
+      <c r="G28" s="249"/>
+      <c r="H28" s="203"/>
+      <c r="I28" s="204"/>
     </row>
     <row r="29" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
-      <c r="D29" s="215" t="s">
+      <c r="D29" s="199" t="s">
         <v>124</v>
       </c>
       <c r="E29" s="109">
         <v>1</v>
       </c>
-      <c r="F29" s="188" t="s">
+      <c r="F29" s="201" t="s">
         <v>125</v>
       </c>
-      <c r="G29" s="188"/>
-      <c r="H29" s="188" t="s">
+      <c r="G29" s="201"/>
+      <c r="H29" s="201" t="s">
         <v>126</v>
       </c>
-      <c r="I29" s="189"/>
+      <c r="I29" s="202"/>
     </row>
     <row r="30" spans="2:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
-      <c r="D30" s="216"/>
+      <c r="D30" s="200"/>
       <c r="E30" s="112">
         <v>2</v>
       </c>
-      <c r="F30" s="190" t="s">
+      <c r="F30" s="203" t="s">
         <v>190</v>
       </c>
-      <c r="G30" s="190"/>
-      <c r="H30" s="190" t="s">
+      <c r="G30" s="203"/>
+      <c r="H30" s="203" t="s">
         <v>194</v>
       </c>
-      <c r="I30" s="191"/>
+      <c r="I30" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C28"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F27:G28"/>
+    <mergeCell ref="F23:G24"/>
+    <mergeCell ref="F25:G26"/>
+    <mergeCell ref="B2:G3"/>
+    <mergeCell ref="D14:I15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F5:G7"/>
+    <mergeCell ref="C11:E11"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D29:D30"/>
@@ -7067,38 +9655,14 @@
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="F17:G19"/>
     <mergeCell ref="F20:G22"/>
-    <mergeCell ref="B2:G3"/>
-    <mergeCell ref="D14:I15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F5:G7"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F27:G28"/>
-    <mergeCell ref="F23:G24"/>
-    <mergeCell ref="F25:G26"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7106,257 +9670,257 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD80170-8D7D-4E29-963E-75821B94DB23}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="247"/>
-    <col min="2" max="2" width="18.75" style="248" customWidth="1"/>
+    <col min="1" max="1" width="9" style="123"/>
+    <col min="2" max="2" width="18.75" style="124" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="247">
+      <c r="A1" s="123">
         <v>1</v>
       </c>
-      <c r="B1" s="248" t="s">
+      <c r="B1" s="124" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="247">
+      <c r="A2" s="123">
         <v>2</v>
       </c>
-      <c r="B2" s="248" t="s">
+      <c r="B2" s="124" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="247">
+      <c r="A3" s="123">
         <v>3</v>
       </c>
-      <c r="B3" s="248" t="s">
+      <c r="B3" s="124" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="247">
+      <c r="A4" s="123">
         <v>4</v>
       </c>
-      <c r="B4" s="248" t="s">
+      <c r="B4" s="124" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="247">
+      <c r="A5" s="123">
         <v>5</v>
       </c>
-      <c r="B5" s="248" t="s">
+      <c r="B5" s="124" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="247">
+      <c r="A6" s="123">
         <v>6</v>
       </c>
-      <c r="B6" s="248" t="s">
+      <c r="B6" s="124" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="247">
+      <c r="A7" s="123">
         <v>7</v>
       </c>
-      <c r="B7" s="248" t="s">
+      <c r="B7" s="124" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="247">
+      <c r="A8" s="123">
         <v>8</v>
       </c>
-      <c r="B8" s="248" t="s">
+      <c r="B8" s="124" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="247">
+      <c r="A9" s="123">
         <v>9</v>
       </c>
-      <c r="B9" s="248" t="s">
+      <c r="B9" s="124" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="247">
+      <c r="A10" s="123">
         <v>10</v>
       </c>
-      <c r="B10" s="248" t="s">
+      <c r="B10" s="124" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="247">
+      <c r="A11" s="123">
         <v>11</v>
       </c>
-      <c r="B11" s="248" t="s">
+      <c r="B11" s="124" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="247">
+      <c r="A12" s="123">
         <v>12</v>
       </c>
-      <c r="B12" s="248" t="s">
+      <c r="B12" s="124" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="247">
+      <c r="A13" s="123">
         <v>13</v>
       </c>
-      <c r="B13" s="248" t="s">
+      <c r="B13" s="124" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="247">
+      <c r="A14" s="123">
         <v>14</v>
       </c>
-      <c r="B14" s="248" t="s">
+      <c r="B14" s="124" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="247">
+      <c r="A15" s="123">
         <v>15</v>
       </c>
-      <c r="B15" s="248" t="s">
+      <c r="B15" s="124" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="247">
+      <c r="A16" s="123">
         <v>16</v>
       </c>
-      <c r="B16" s="248" t="s">
+      <c r="B16" s="124" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="247">
+      <c r="A17" s="123">
         <v>17</v>
       </c>
-      <c r="B17" s="248" t="s">
+      <c r="B17" s="124" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="247">
+      <c r="A18" s="123">
         <v>18</v>
       </c>
-      <c r="B18" s="248" t="s">
+      <c r="B18" s="124" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="247">
+      <c r="A19" s="123">
         <v>19</v>
       </c>
-      <c r="B19" s="248" t="s">
+      <c r="B19" s="124" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="247">
+      <c r="A20" s="123">
         <v>20</v>
       </c>
-      <c r="B20" s="248" t="s">
+      <c r="B20" s="124" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="247">
+      <c r="A21" s="123">
         <v>21</v>
       </c>
-      <c r="B21" s="248" t="s">
+      <c r="B21" s="124" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="247">
+      <c r="A22" s="123">
         <v>22</v>
       </c>
-      <c r="B22" s="248" t="s">
+      <c r="B22" s="124" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="247">
+      <c r="A23" s="123">
         <v>23</v>
       </c>
-      <c r="B23" s="248" t="s">
+      <c r="B23" s="124" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="247">
+      <c r="A24" s="123">
         <v>24</v>
       </c>
-      <c r="B24" s="248" t="s">
+      <c r="B24" s="124" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="247">
+      <c r="A25" s="123">
         <v>25</v>
       </c>
-      <c r="B25" s="248" t="s">
+      <c r="B25" s="124" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="247">
+      <c r="A26" s="123">
         <v>26</v>
       </c>
-      <c r="B26" s="248" t="s">
+      <c r="B26" s="124" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="247">
+      <c r="A27" s="123">
         <v>27</v>
       </c>
-      <c r="B27" s="248" t="s">
+      <c r="B27" s="124" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="247">
+      <c r="A28" s="123">
         <v>28</v>
       </c>
-      <c r="B28" s="248" t="s">
+      <c r="B28" s="124" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="247">
+      <c r="A29" s="123">
         <v>29</v>
       </c>
-      <c r="B29" s="248" t="s">
+      <c r="B29" s="124" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="247">
+      <c r="A30" s="123">
         <v>30</v>
       </c>
-      <c r="B30" s="248" t="s">
+      <c r="B30" s="124" t="s">
         <v>218</v>
       </c>
     </row>

--- a/文物娘.xlsx
+++ b/文物娘.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GameMaker\Final Work\Github\CultureRelicGirls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3452CC91-3243-4D5F-821C-8E9FB7AAE5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D934A9-EE66-468C-A850-F0AFCE615CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{1E3677C8-2B1C-423A-AEA1-C1DF63D56BAF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{1E3677C8-2B1C-423A-AEA1-C1DF63D56BAF}"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="231">
   <si>
     <t>司母戊鼎</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -807,10 +807,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>130+20min</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>100+20min</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -871,14 +867,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>tree_Plant_L1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>desk</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>machine</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -887,10 +875,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Flower</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>tree_crystal</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -951,6 +935,39 @@
   </si>
   <si>
     <t>Blocker_Level0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1F_Upstair</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree_Plant</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>140+20min</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>有用更多研究工具的研究台，可以更快地研究文物</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">为研究台装上高科技工具，将使得同时研究两个文物成为可能。
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装了高科技工具的研究台， 可以同时研究两个文物。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于研究文物的设施，通过一段时间的研究挖掘文物的价值与背后的故事。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>添置更多的研究工具，大大提高研究的效率。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2175,7 +2192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="250">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2551,6 +2568,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="67" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="77" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="76" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2560,60 +2613,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="67" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="77" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="76" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2629,13 +2628,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="58" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="59" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="36" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="37" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="76" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2650,10 +2733,10 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="9" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2671,260 +2754,197 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="80" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="81" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="34" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="35" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="82" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="69" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="83" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="84" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="65" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="70" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="61" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="85" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="62" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="60" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="64" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="65" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="61" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="66" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="36" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="37" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="58" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="59" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="76" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="34" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="35" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="84" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="61" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="85" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="62" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="60" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="64" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="65" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="61" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="66" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="80" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="81" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="82" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="69" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="83" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="65" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="70" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3248,7 +3268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D91B1E5-0340-464B-AF90-56D459836ED7}">
   <dimension ref="B1:V39"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3264,67 +3284,67 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="134" t="s">
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="134" t="s">
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="135" t="s">
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="136"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="147"/>
     </row>
     <row r="3" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="140" t="s">
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="137" t="s">
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="140" t="s">
+      <c r="N3" s="152"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="153"/>
+      <c r="R3" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="141"/>
-      <c r="T3" s="141"/>
-      <c r="U3" s="141"/>
-      <c r="V3" s="142"/>
+      <c r="S3" s="149"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="149"/>
+      <c r="V3" s="150"/>
     </row>
     <row r="4" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -3642,94 +3662,94 @@
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="125" t="s">
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="127"/>
-      <c r="M8" s="125" t="s">
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="127"/>
-      <c r="R8" s="125" t="s">
+      <c r="N8" s="138"/>
+      <c r="O8" s="138"/>
+      <c r="P8" s="138"/>
+      <c r="Q8" s="139"/>
+      <c r="R8" s="137" t="s">
         <v>114</v>
       </c>
-      <c r="S8" s="126"/>
-      <c r="T8" s="126"/>
-      <c r="U8" s="126"/>
-      <c r="V8" s="127"/>
+      <c r="S8" s="138"/>
+      <c r="T8" s="138"/>
+      <c r="U8" s="138"/>
+      <c r="V8" s="139"/>
     </row>
     <row r="9" spans="2:22" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="146" t="s">
+      <c r="C9" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="147"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="146" t="s">
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="147"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="146" t="s">
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="142"/>
+      <c r="M9" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="147"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="147"/>
-      <c r="Q9" s="148"/>
-      <c r="R9" s="146" t="s">
+      <c r="N9" s="141"/>
+      <c r="O9" s="141"/>
+      <c r="P9" s="141"/>
+      <c r="Q9" s="142"/>
+      <c r="R9" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
-      <c r="V9" s="148"/>
+      <c r="S9" s="141"/>
+      <c r="T9" s="141"/>
+      <c r="U9" s="141"/>
+      <c r="V9" s="142"/>
     </row>
     <row r="11" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="134" t="s">
+      <c r="C12" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="135"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="134" t="s">
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="135"/>
-      <c r="L12" s="136"/>
-      <c r="M12" s="134" t="s">
+      <c r="I12" s="146"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="147"/>
+      <c r="M12" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="135"/>
-      <c r="O12" s="135"/>
-      <c r="P12" s="135"/>
-      <c r="Q12" s="136"/>
+      <c r="N12" s="146"/>
+      <c r="O12" s="146"/>
+      <c r="P12" s="146"/>
+      <c r="Q12" s="147"/>
       <c r="S12" s="113">
         <v>2.1</v>
       </c>
@@ -3744,27 +3764,27 @@
       <c r="B13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="131" t="s">
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="132"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="133"/>
-      <c r="M13" s="151" t="s">
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="N13" s="152"/>
-      <c r="O13" s="152"/>
-      <c r="P13" s="152"/>
-      <c r="Q13" s="153"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="130"/>
       <c r="S13" s="116">
         <v>1.8</v>
       </c>
@@ -3845,7 +3865,7 @@
       <c r="U14" s="118">
         <v>1</v>
       </c>
-      <c r="V14" s="149"/>
+      <c r="V14" s="143"/>
     </row>
     <row r="15" spans="2:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
@@ -3915,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="U15" s="118"/>
-      <c r="V15" s="149"/>
+      <c r="V15" s="143"/>
     </row>
     <row r="16" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
@@ -4041,106 +4061,106 @@
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="125" t="s">
+      <c r="C18" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="125" t="s">
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="126"/>
-      <c r="J18" s="126"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="125" t="s">
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="126"/>
-      <c r="O18" s="126"/>
-      <c r="P18" s="126"/>
-      <c r="Q18" s="127"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="138"/>
+      <c r="Q18" s="139"/>
     </row>
     <row r="19" spans="2:17" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="146" t="s">
+      <c r="C19" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="146" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="147"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="146" t="s">
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="147"/>
-      <c r="O19" s="147"/>
-      <c r="P19" s="147"/>
-      <c r="Q19" s="148"/>
+      <c r="N19" s="141"/>
+      <c r="O19" s="141"/>
+      <c r="P19" s="141"/>
+      <c r="Q19" s="142"/>
     </row>
     <row r="21" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="143" t="s">
+      <c r="C22" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="144"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="143" t="s">
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="144"/>
-      <c r="J22" s="144"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="145"/>
-      <c r="M22" s="143" t="s">
+      <c r="I22" s="135"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="144"/>
-      <c r="O22" s="144"/>
-      <c r="P22" s="144"/>
-      <c r="Q22" s="145"/>
+      <c r="N22" s="135"/>
+      <c r="O22" s="135"/>
+      <c r="P22" s="135"/>
+      <c r="Q22" s="136"/>
     </row>
     <row r="23" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="128" t="s">
+      <c r="C23" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="131" t="s">
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="133"/>
+      <c r="H23" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="132"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="133"/>
-      <c r="M23" s="151" t="s">
+      <c r="I23" s="126"/>
+      <c r="J23" s="126"/>
+      <c r="K23" s="126"/>
+      <c r="L23" s="127"/>
+      <c r="M23" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="152"/>
-      <c r="O23" s="152"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="153"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="129"/>
+      <c r="P23" s="129"/>
+      <c r="Q23" s="130"/>
     </row>
     <row r="24" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
@@ -4385,92 +4405,92 @@
       <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="125" t="s">
+      <c r="C28" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="126"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="125" t="s">
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="126"/>
-      <c r="J28" s="126"/>
-      <c r="K28" s="126"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="125" t="s">
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="126"/>
-      <c r="O28" s="126"/>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="127"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="138"/>
+      <c r="P28" s="138"/>
+      <c r="Q28" s="139"/>
     </row>
     <row r="29" spans="2:17" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="146" t="s">
+      <c r="C29" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="146" t="s">
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="147"/>
-      <c r="J29" s="147"/>
-      <c r="K29" s="147"/>
-      <c r="L29" s="148"/>
-      <c r="M29" s="146" t="s">
+      <c r="I29" s="141"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="142"/>
+      <c r="M29" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="N29" s="147"/>
-      <c r="O29" s="147"/>
-      <c r="P29" s="147"/>
-      <c r="Q29" s="148"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="141"/>
+      <c r="P29" s="141"/>
+      <c r="Q29" s="142"/>
     </row>
     <row r="31" spans="2:17" s="13" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="134" t="s">
+      <c r="C32" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="135"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="136"/>
-      <c r="H32" s="134" t="s">
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="135"/>
-      <c r="J32" s="135"/>
-      <c r="K32" s="135"/>
-      <c r="L32" s="136"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="147"/>
     </row>
     <row r="33" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="128" t="s">
+      <c r="C33" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="129"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="131" t="s">
+      <c r="D33" s="132"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="133"/>
+      <c r="H33" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="132"/>
-      <c r="J33" s="132"/>
-      <c r="K33" s="132"/>
-      <c r="L33" s="133"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="126"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="127"/>
     </row>
     <row r="34" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
@@ -4642,39 +4662,39 @@
       <c r="B38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="125" t="s">
+      <c r="C38" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="126"/>
-      <c r="E38" s="126"/>
-      <c r="F38" s="126"/>
-      <c r="G38" s="127"/>
-      <c r="H38" s="125" t="s">
+      <c r="D38" s="138"/>
+      <c r="E38" s="138"/>
+      <c r="F38" s="138"/>
+      <c r="G38" s="139"/>
+      <c r="H38" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="126"/>
-      <c r="J38" s="126"/>
-      <c r="K38" s="126"/>
-      <c r="L38" s="127"/>
+      <c r="I38" s="138"/>
+      <c r="J38" s="138"/>
+      <c r="K38" s="138"/>
+      <c r="L38" s="139"/>
     </row>
     <row r="39" spans="2:17" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="146" t="s">
+      <c r="C39" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="147"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="148"/>
-      <c r="H39" s="146" t="s">
+      <c r="D39" s="141"/>
+      <c r="E39" s="141"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="142"/>
+      <c r="H39" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="I39" s="147"/>
-      <c r="J39" s="147"/>
-      <c r="K39" s="147"/>
-      <c r="L39" s="148"/>
+      <c r="I39" s="141"/>
+      <c r="J39" s="141"/>
+      <c r="K39" s="141"/>
+      <c r="L39" s="142"/>
       <c r="M39" s="26"/>
       <c r="N39" s="26"/>
       <c r="O39" s="26"/>
@@ -4683,14 +4703,31 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="M18:Q18"/>
     <mergeCell ref="C39:G39"/>
     <mergeCell ref="H39:L39"/>
     <mergeCell ref="V14:V15"/>
@@ -4707,31 +4744,14 @@
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4754,34 +4774,34 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="134" t="s">
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="134" t="s">
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="135" t="s">
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="136"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="147"/>
       <c r="W2" s="122"/>
       <c r="X2" s="122"/>
       <c r="Y2" s="122"/>
@@ -4808,34 +4828,34 @@
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="140" t="s">
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="137" t="s">
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="140" t="s">
+      <c r="N3" s="152"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="153"/>
+      <c r="R3" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="141"/>
-      <c r="T3" s="141"/>
-      <c r="U3" s="141"/>
-      <c r="V3" s="142"/>
+      <c r="S3" s="149"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="149"/>
+      <c r="V3" s="150"/>
       <c r="W3" s="122"/>
       <c r="X3" s="122"/>
       <c r="Y3" s="122"/>
@@ -5258,34 +5278,34 @@
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="125" t="s">
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="127"/>
-      <c r="M8" s="125" t="s">
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="127"/>
-      <c r="R8" s="125" t="s">
+      <c r="N8" s="138"/>
+      <c r="O8" s="138"/>
+      <c r="P8" s="138"/>
+      <c r="Q8" s="139"/>
+      <c r="R8" s="137" t="s">
         <v>114</v>
       </c>
-      <c r="S8" s="126"/>
-      <c r="T8" s="126"/>
-      <c r="U8" s="126"/>
-      <c r="V8" s="127"/>
+      <c r="S8" s="138"/>
+      <c r="T8" s="138"/>
+      <c r="U8" s="138"/>
+      <c r="V8" s="139"/>
       <c r="W8" s="122"/>
       <c r="X8" s="122"/>
       <c r="Y8" s="122"/>
@@ -5312,34 +5332,34 @@
       <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="146" t="s">
+      <c r="C9" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="147"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="146" t="s">
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="147"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="146" t="s">
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="142"/>
+      <c r="M9" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="147"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="147"/>
-      <c r="Q9" s="148"/>
-      <c r="R9" s="146" t="s">
+      <c r="N9" s="141"/>
+      <c r="O9" s="141"/>
+      <c r="P9" s="141"/>
+      <c r="Q9" s="142"/>
+      <c r="R9" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
-      <c r="V9" s="148"/>
+      <c r="S9" s="141"/>
+      <c r="T9" s="141"/>
+      <c r="U9" s="141"/>
+      <c r="V9" s="142"/>
       <c r="W9" s="122"/>
       <c r="X9" s="122"/>
       <c r="Y9" s="122"/>
@@ -5454,27 +5474,27 @@
       <c r="B12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="134" t="s">
+      <c r="C12" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="135"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="134" t="s">
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="135"/>
-      <c r="L12" s="136"/>
-      <c r="M12" s="134" t="s">
+      <c r="I12" s="146"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="147"/>
+      <c r="M12" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="135"/>
-      <c r="O12" s="135"/>
-      <c r="P12" s="135"/>
-      <c r="Q12" s="136"/>
+      <c r="N12" s="146"/>
+      <c r="O12" s="146"/>
+      <c r="P12" s="146"/>
+      <c r="Q12" s="147"/>
       <c r="R12" s="122"/>
       <c r="S12" s="113">
         <v>2.1</v>
@@ -5512,27 +5532,27 @@
       <c r="B13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="131" t="s">
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="132"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="133"/>
-      <c r="M13" s="151" t="s">
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="N13" s="152"/>
-      <c r="O13" s="152"/>
-      <c r="P13" s="152"/>
-      <c r="Q13" s="153"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="130"/>
       <c r="R13" s="122"/>
       <c r="S13" s="116">
         <v>1.8</v>
@@ -5637,7 +5657,7 @@
       <c r="U14" s="118">
         <v>1</v>
       </c>
-      <c r="V14" s="149"/>
+      <c r="V14" s="143"/>
       <c r="W14" s="122"/>
       <c r="X14" s="122"/>
       <c r="Y14" s="122"/>
@@ -5729,7 +5749,7 @@
         <v>1</v>
       </c>
       <c r="U15" s="118"/>
-      <c r="V15" s="149"/>
+      <c r="V15" s="143"/>
       <c r="W15" s="122"/>
       <c r="X15" s="122"/>
       <c r="Y15" s="122"/>
@@ -5925,27 +5945,27 @@
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="125" t="s">
+      <c r="C18" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="125" t="s">
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="126"/>
-      <c r="J18" s="126"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="125" t="s">
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="126"/>
-      <c r="O18" s="126"/>
-      <c r="P18" s="126"/>
-      <c r="Q18" s="127"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="138"/>
+      <c r="Q18" s="139"/>
       <c r="R18" s="122"/>
       <c r="S18" s="122"/>
       <c r="T18" s="122"/>
@@ -5977,27 +5997,27 @@
       <c r="B19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="146" t="s">
+      <c r="C19" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="146" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="147"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="146" t="s">
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="147"/>
-      <c r="O19" s="147"/>
-      <c r="P19" s="147"/>
-      <c r="Q19" s="148"/>
+      <c r="N19" s="141"/>
+      <c r="O19" s="141"/>
+      <c r="P19" s="141"/>
+      <c r="Q19" s="142"/>
       <c r="R19" s="122"/>
       <c r="S19" s="122"/>
       <c r="T19" s="122"/>
@@ -6117,27 +6137,27 @@
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="143" t="s">
+      <c r="C22" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="144"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="143" t="s">
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="144"/>
-      <c r="J22" s="144"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="145"/>
-      <c r="M22" s="143" t="s">
+      <c r="I22" s="135"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="144"/>
-      <c r="O22" s="144"/>
-      <c r="P22" s="144"/>
-      <c r="Q22" s="145"/>
+      <c r="N22" s="135"/>
+      <c r="O22" s="135"/>
+      <c r="P22" s="135"/>
+      <c r="Q22" s="136"/>
       <c r="R22" s="122"/>
       <c r="S22" s="122"/>
       <c r="T22" s="122"/>
@@ -6169,27 +6189,27 @@
       <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="128" t="s">
+      <c r="C23" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="131" t="s">
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="133"/>
+      <c r="H23" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="132"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="133"/>
-      <c r="M23" s="151" t="s">
+      <c r="I23" s="126"/>
+      <c r="J23" s="126"/>
+      <c r="K23" s="126"/>
+      <c r="L23" s="127"/>
+      <c r="M23" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="152"/>
-      <c r="O23" s="152"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="153"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="129"/>
+      <c r="P23" s="129"/>
+      <c r="Q23" s="130"/>
       <c r="R23" s="122"/>
       <c r="S23" s="122"/>
       <c r="T23" s="122"/>
@@ -6564,27 +6584,27 @@
       <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="125" t="s">
+      <c r="C28" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="126"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="125" t="s">
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="126"/>
-      <c r="J28" s="126"/>
-      <c r="K28" s="126"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="125" t="s">
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="126"/>
-      <c r="O28" s="126"/>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="127"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="138"/>
+      <c r="P28" s="138"/>
+      <c r="Q28" s="139"/>
       <c r="R28" s="122"/>
       <c r="S28" s="122"/>
       <c r="T28" s="122"/>
@@ -6616,27 +6636,27 @@
       <c r="B29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="146" t="s">
+      <c r="C29" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="146" t="s">
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="147"/>
-      <c r="J29" s="147"/>
-      <c r="K29" s="147"/>
-      <c r="L29" s="148"/>
-      <c r="M29" s="146" t="s">
+      <c r="I29" s="141"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="142"/>
+      <c r="M29" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="N29" s="147"/>
-      <c r="O29" s="147"/>
-      <c r="P29" s="147"/>
-      <c r="Q29" s="148"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="141"/>
+      <c r="P29" s="141"/>
+      <c r="Q29" s="142"/>
       <c r="R29" s="122"/>
       <c r="S29" s="122"/>
       <c r="T29" s="122"/>
@@ -6756,20 +6776,20 @@
       <c r="B32" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="134" t="s">
+      <c r="C32" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="135"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="136"/>
-      <c r="H32" s="134" t="s">
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="135"/>
-      <c r="J32" s="135"/>
-      <c r="K32" s="135"/>
-      <c r="L32" s="136"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="147"/>
       <c r="M32" s="122"/>
       <c r="N32" s="122"/>
       <c r="O32" s="122"/>
@@ -6806,20 +6826,20 @@
       <c r="B33" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="128" t="s">
+      <c r="C33" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="129"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="131" t="s">
+      <c r="D33" s="132"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="133"/>
+      <c r="H33" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="132"/>
-      <c r="J33" s="132"/>
-      <c r="K33" s="132"/>
-      <c r="L33" s="133"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="126"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="127"/>
       <c r="M33" s="122"/>
       <c r="N33" s="122"/>
       <c r="O33" s="122"/>
@@ -7146,20 +7166,20 @@
       <c r="B38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="125" t="s">
+      <c r="C38" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="126"/>
-      <c r="E38" s="126"/>
-      <c r="F38" s="126"/>
-      <c r="G38" s="127"/>
-      <c r="H38" s="125" t="s">
+      <c r="D38" s="138"/>
+      <c r="E38" s="138"/>
+      <c r="F38" s="138"/>
+      <c r="G38" s="139"/>
+      <c r="H38" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="126"/>
-      <c r="J38" s="126"/>
-      <c r="K38" s="126"/>
-      <c r="L38" s="127"/>
+      <c r="I38" s="138"/>
+      <c r="J38" s="138"/>
+      <c r="K38" s="138"/>
+      <c r="L38" s="139"/>
       <c r="M38" s="122"/>
       <c r="N38" s="122"/>
       <c r="O38" s="122"/>
@@ -7196,20 +7216,20 @@
       <c r="B39" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="146" t="s">
+      <c r="C39" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="147"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="148"/>
-      <c r="H39" s="146" t="s">
+      <c r="D39" s="141"/>
+      <c r="E39" s="141"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="142"/>
+      <c r="H39" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="I39" s="147"/>
-      <c r="J39" s="147"/>
-      <c r="K39" s="147"/>
-      <c r="L39" s="148"/>
+      <c r="I39" s="141"/>
+      <c r="J39" s="141"/>
+      <c r="K39" s="141"/>
+      <c r="L39" s="142"/>
       <c r="M39" s="26"/>
       <c r="N39" s="26"/>
       <c r="O39" s="26"/>
@@ -7244,6 +7264,47 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="R9:V9"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="M2:Q2"/>
@@ -7252,47 +7313,6 @@
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="R3:V3"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7303,8 +7323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E67363-7FC7-4BA4-8F5D-65854E98AD6E}">
   <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7327,11 +7347,11 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="176" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
       <c r="F2" s="36"/>
@@ -7341,9 +7361,9 @@
       <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="156"/>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
+      <c r="A3" s="178"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
       <c r="D3" s="38"/>
       <c r="E3" s="39" t="s">
         <v>44</v>
@@ -7385,11 +7405,11 @@
       <c r="J4" s="43"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="164" t="s">
+      <c r="A5" s="186" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="164"/>
-      <c r="C5" s="164"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="186"/>
       <c r="D5" s="38"/>
       <c r="E5" s="46" t="s">
         <v>50</v>
@@ -7409,9 +7429,9 @@
       <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="164"/>
-      <c r="B6" s="164"/>
-      <c r="C6" s="164"/>
+      <c r="A6" s="186"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="186"/>
       <c r="D6" s="38"/>
       <c r="E6" s="46" t="s">
         <v>51</v>
@@ -7431,9 +7451,9 @@
       <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="164"/>
-      <c r="B7" s="164"/>
-      <c r="C7" s="164"/>
+      <c r="A7" s="186"/>
+      <c r="B7" s="186"/>
+      <c r="C7" s="186"/>
       <c r="D7" s="38"/>
       <c r="E7" s="46" t="s">
         <v>52</v>
@@ -7537,11 +7557,11 @@
       <c r="B12" s="63">
         <v>35</v>
       </c>
-      <c r="C12" s="162" t="s">
+      <c r="C12" s="184" t="s">
         <v>58</v>
       </c>
       <c r="D12" s="38"/>
-      <c r="E12" s="160" t="s">
+      <c r="E12" s="182" t="s">
         <v>56</v>
       </c>
       <c r="F12" s="64" t="s">
@@ -7565,9 +7585,9 @@
       <c r="B13" s="66">
         <v>5</v>
       </c>
-      <c r="C13" s="163"/>
+      <c r="C13" s="185"/>
       <c r="D13" s="38"/>
-      <c r="E13" s="161"/>
+      <c r="E13" s="183"/>
       <c r="F13" s="67" t="s">
         <v>59</v>
       </c>
@@ -7602,11 +7622,11 @@
       <c r="B15" s="72">
         <v>44</v>
       </c>
-      <c r="C15" s="162" t="s">
+      <c r="C15" s="184" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="38"/>
-      <c r="E15" s="158" t="s">
+      <c r="E15" s="168" t="s">
         <v>62</v>
       </c>
       <c r="F15" s="64" t="s">
@@ -7631,9 +7651,9 @@
       <c r="B16" s="74">
         <v>9</v>
       </c>
-      <c r="C16" s="163"/>
+      <c r="C16" s="185"/>
       <c r="D16" s="38"/>
-      <c r="E16" s="159"/>
+      <c r="E16" s="169"/>
       <c r="F16" s="67" t="s">
         <v>59</v>
       </c>
@@ -7669,11 +7689,11 @@
       <c r="B18" s="77">
         <v>68</v>
       </c>
-      <c r="C18" s="162" t="s">
+      <c r="C18" s="184" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="38"/>
-      <c r="E18" s="158" t="s">
+      <c r="E18" s="168" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="64" t="s">
@@ -7698,9 +7718,9 @@
       <c r="B19" s="74">
         <v>29</v>
       </c>
-      <c r="C19" s="163"/>
+      <c r="C19" s="185"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="159"/>
+      <c r="E19" s="169"/>
       <c r="F19" s="67" t="s">
         <v>59</v>
       </c>
@@ -7734,11 +7754,11 @@
       <c r="B21" s="72">
         <v>92</v>
       </c>
-      <c r="C21" s="162" t="s">
+      <c r="C21" s="184" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="38"/>
-      <c r="E21" s="158" t="s">
+      <c r="E21" s="168" t="s">
         <v>69</v>
       </c>
       <c r="F21" s="64" t="s">
@@ -7763,9 +7783,9 @@
       <c r="B22" s="74">
         <v>80</v>
       </c>
-      <c r="C22" s="163"/>
+      <c r="C22" s="185"/>
       <c r="D22" s="38"/>
-      <c r="E22" s="159"/>
+      <c r="E22" s="169"/>
       <c r="F22" s="67" t="s">
         <v>59</v>
       </c>
@@ -7821,11 +7841,11 @@
       <c r="J25" s="38"/>
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="154" t="s">
+      <c r="A26" s="176" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="155"/>
-      <c r="C26" s="155"/>
+      <c r="B26" s="177"/>
+      <c r="C26" s="177"/>
       <c r="D26" s="36"/>
       <c r="E26" s="36"/>
       <c r="F26" s="36"/>
@@ -7842,9 +7862,9 @@
       <c r="K26" s="87"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="156"/>
-      <c r="B27" s="157"/>
-      <c r="C27" s="157"/>
+      <c r="A27" s="178"/>
+      <c r="B27" s="179"/>
+      <c r="C27" s="179"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39" t="s">
         <v>44</v>
@@ -7896,11 +7916,11 @@
       <c r="K28" s="89"/>
     </row>
     <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="165" t="s">
+      <c r="A29" s="180" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="166"/>
-      <c r="C29" s="166"/>
+      <c r="B29" s="155"/>
+      <c r="C29" s="155"/>
       <c r="D29" s="38"/>
       <c r="E29" s="46" t="s">
         <v>50</v>
@@ -7926,9 +7946,9 @@
       <c r="K29" s="89"/>
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="167"/>
-      <c r="B30" s="166"/>
-      <c r="C30" s="166"/>
+      <c r="A30" s="181"/>
+      <c r="B30" s="155"/>
+      <c r="C30" s="155"/>
       <c r="D30" s="38"/>
       <c r="E30" s="46" t="s">
         <v>51</v>
@@ -7943,16 +7963,16 @@
       <c r="I30" s="31"/>
       <c r="J30" s="99"/>
       <c r="K30" s="89"/>
-      <c r="M30" s="151" t="s">
+      <c r="M30" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="N30" s="152"/>
-      <c r="O30" s="153"/>
+      <c r="N30" s="129"/>
+      <c r="O30" s="130"/>
     </row>
     <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="167"/>
-      <c r="B31" s="166"/>
-      <c r="C31" s="166"/>
+      <c r="A31" s="181"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="155"/>
       <c r="D31" s="38"/>
       <c r="E31" s="46" t="s">
         <v>52</v>
@@ -7976,11 +7996,11 @@
         <v>18</v>
       </c>
       <c r="K31" s="89"/>
-      <c r="M31" s="174" t="s">
+      <c r="M31" s="154" t="s">
         <v>182</v>
       </c>
-      <c r="N31" s="175"/>
-      <c r="O31" s="176"/>
+      <c r="N31" s="161"/>
+      <c r="O31" s="162"/>
     </row>
     <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="90"/>
@@ -8000,9 +8020,9 @@
       <c r="I32" s="32"/>
       <c r="J32" s="102"/>
       <c r="K32" s="89"/>
-      <c r="M32" s="174"/>
-      <c r="N32" s="175"/>
-      <c r="O32" s="176"/>
+      <c r="M32" s="154"/>
+      <c r="N32" s="161"/>
+      <c r="O32" s="162"/>
     </row>
     <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
@@ -8022,9 +8042,9 @@
       <c r="I33" s="38"/>
       <c r="J33" s="38"/>
       <c r="K33" s="89"/>
-      <c r="M33" s="174"/>
-      <c r="N33" s="175"/>
-      <c r="O33" s="176"/>
+      <c r="M33" s="154"/>
+      <c r="N33" s="161"/>
+      <c r="O33" s="162"/>
     </row>
     <row r="34" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="91">
@@ -8033,9 +8053,9 @@
       <c r="B34" s="92">
         <v>140</v>
       </c>
-      <c r="C34" s="168"/>
+      <c r="C34" s="170"/>
       <c r="D34" s="38"/>
-      <c r="E34" s="158" t="s">
+      <c r="E34" s="168" t="s">
         <v>74</v>
       </c>
       <c r="F34" s="93" t="s">
@@ -8054,9 +8074,9 @@
         <v>4</v>
       </c>
       <c r="K34" s="89"/>
-      <c r="M34" s="177"/>
-      <c r="N34" s="178"/>
-      <c r="O34" s="179"/>
+      <c r="M34" s="163"/>
+      <c r="N34" s="164"/>
+      <c r="O34" s="165"/>
     </row>
     <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="94">
@@ -8065,9 +8085,9 @@
       <c r="B35" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="169"/>
+      <c r="C35" s="171"/>
       <c r="D35" s="38"/>
-      <c r="E35" s="159"/>
+      <c r="E35" s="169"/>
       <c r="F35" s="67" t="s">
         <v>59</v>
       </c>
@@ -8097,11 +8117,11 @@
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
       <c r="K36" s="89"/>
-      <c r="M36" s="151" t="s">
+      <c r="M36" s="128" t="s">
         <v>131</v>
       </c>
-      <c r="N36" s="152"/>
-      <c r="O36" s="153"/>
+      <c r="N36" s="129"/>
+      <c r="O36" s="130"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="91">
@@ -8110,9 +8130,9 @@
       <c r="B37" s="92">
         <v>166</v>
       </c>
-      <c r="C37" s="170"/>
+      <c r="C37" s="166"/>
       <c r="D37" s="38"/>
-      <c r="E37" s="158" t="s">
+      <c r="E37" s="168" t="s">
         <v>80</v>
       </c>
       <c r="F37" s="93" t="s">
@@ -8131,11 +8151,11 @@
         <v>4</v>
       </c>
       <c r="K37" s="89"/>
-      <c r="M37" s="174" t="s">
+      <c r="M37" s="154" t="s">
         <v>183</v>
       </c>
-      <c r="N37" s="166"/>
-      <c r="O37" s="182"/>
+      <c r="N37" s="155"/>
+      <c r="O37" s="156"/>
     </row>
     <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="s">
@@ -8144,9 +8164,9 @@
       <c r="B38" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="171"/>
+      <c r="C38" s="167"/>
       <c r="D38" s="38"/>
-      <c r="E38" s="159"/>
+      <c r="E38" s="169"/>
       <c r="F38" s="67" t="s">
         <v>59</v>
       </c>
@@ -8163,9 +8183,9 @@
         <v>79</v>
       </c>
       <c r="K38" s="89"/>
-      <c r="M38" s="183"/>
-      <c r="N38" s="166"/>
-      <c r="O38" s="182"/>
+      <c r="M38" s="157"/>
+      <c r="N38" s="155"/>
+      <c r="O38" s="156"/>
     </row>
     <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
@@ -8181,9 +8201,9 @@
       <c r="I39" s="38"/>
       <c r="J39" s="38"/>
       <c r="K39" s="89"/>
-      <c r="M39" s="183"/>
-      <c r="N39" s="166"/>
-      <c r="O39" s="182"/>
+      <c r="M39" s="157"/>
+      <c r="N39" s="155"/>
+      <c r="O39" s="156"/>
     </row>
     <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="91">
@@ -8192,11 +8212,11 @@
       <c r="B40" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="168" t="s">
+      <c r="C40" s="170" t="s">
         <v>146</v>
       </c>
       <c r="D40" s="38"/>
-      <c r="E40" s="158" t="s">
+      <c r="E40" s="168" t="s">
         <v>81</v>
       </c>
       <c r="F40" s="93" t="s">
@@ -8208,14 +8228,14 @@
       <c r="H40" s="93">
         <v>2</v>
       </c>
-      <c r="I40" s="180">
+      <c r="I40" s="172">
         <v>3</v>
       </c>
-      <c r="J40" s="181"/>
+      <c r="J40" s="173"/>
       <c r="K40" s="89"/>
-      <c r="M40" s="184"/>
-      <c r="N40" s="185"/>
-      <c r="O40" s="186"/>
+      <c r="M40" s="158"/>
+      <c r="N40" s="159"/>
+      <c r="O40" s="160"/>
     </row>
     <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="94" t="s">
@@ -8224,9 +8244,9 @@
       <c r="B41" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="169"/>
+      <c r="C41" s="171"/>
       <c r="D41" s="38"/>
-      <c r="E41" s="159"/>
+      <c r="E41" s="169"/>
       <c r="F41" s="67" t="s">
         <v>59</v>
       </c>
@@ -8236,10 +8256,10 @@
       <c r="H41" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="I41" s="172" t="s">
+      <c r="I41" s="174" t="s">
         <v>141</v>
       </c>
-      <c r="J41" s="173"/>
+      <c r="J41" s="175"/>
       <c r="K41" s="89"/>
     </row>
     <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -8259,11 +8279,11 @@
     </row>
     <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="154" t="s">
+      <c r="A45" s="176" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="155"/>
-      <c r="C45" s="155"/>
+      <c r="B45" s="177"/>
+      <c r="C45" s="177"/>
       <c r="D45" s="36"/>
       <c r="E45" s="36"/>
       <c r="F45" s="36"/>
@@ -8281,9 +8301,9 @@
       <c r="K45" s="87"/>
     </row>
     <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="156"/>
-      <c r="B46" s="157"/>
-      <c r="C46" s="157"/>
+      <c r="A46" s="178"/>
+      <c r="B46" s="179"/>
+      <c r="C46" s="179"/>
       <c r="D46" s="107"/>
       <c r="E46" s="39" t="s">
         <v>44</v>
@@ -8304,11 +8324,11 @@
         <v>72</v>
       </c>
       <c r="K46" s="89"/>
-      <c r="M46" s="151" t="s">
+      <c r="M46" s="128" t="s">
         <v>132</v>
       </c>
-      <c r="N46" s="152"/>
-      <c r="O46" s="153"/>
+      <c r="N46" s="129"/>
+      <c r="O46" s="130"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="108"/>
@@ -8337,18 +8357,18 @@
         <v>462.5</v>
       </c>
       <c r="K47" s="89"/>
-      <c r="M47" s="174" t="s">
+      <c r="M47" s="154" t="s">
         <v>184</v>
       </c>
-      <c r="N47" s="166"/>
-      <c r="O47" s="182"/>
+      <c r="N47" s="155"/>
+      <c r="O47" s="156"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="165" t="s">
+      <c r="A48" s="180" t="s">
         <v>161</v>
       </c>
-      <c r="B48" s="166"/>
-      <c r="C48" s="166"/>
+      <c r="B48" s="155"/>
+      <c r="C48" s="155"/>
       <c r="D48" s="107"/>
       <c r="E48" s="46" t="s">
         <v>50</v>
@@ -8372,14 +8392,14 @@
         <v>21.25</v>
       </c>
       <c r="K48" s="89"/>
-      <c r="M48" s="183"/>
-      <c r="N48" s="166"/>
-      <c r="O48" s="182"/>
+      <c r="M48" s="157"/>
+      <c r="N48" s="155"/>
+      <c r="O48" s="156"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="167"/>
-      <c r="B49" s="166"/>
-      <c r="C49" s="166"/>
+      <c r="A49" s="181"/>
+      <c r="B49" s="155"/>
+      <c r="C49" s="155"/>
       <c r="D49" s="107"/>
       <c r="E49" s="46" t="s">
         <v>51</v>
@@ -8394,14 +8414,14 @@
       <c r="I49" s="110"/>
       <c r="J49" s="109"/>
       <c r="K49" s="89"/>
-      <c r="M49" s="183"/>
-      <c r="N49" s="166"/>
-      <c r="O49" s="182"/>
+      <c r="M49" s="157"/>
+      <c r="N49" s="155"/>
+      <c r="O49" s="156"/>
     </row>
     <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="167"/>
-      <c r="B50" s="166"/>
-      <c r="C50" s="166"/>
+      <c r="A50" s="181"/>
+      <c r="B50" s="155"/>
+      <c r="C50" s="155"/>
       <c r="D50" s="107"/>
       <c r="E50" s="46" t="s">
         <v>52</v>
@@ -8425,9 +8445,9 @@
         <v>42.5</v>
       </c>
       <c r="K50" s="89"/>
-      <c r="M50" s="184"/>
-      <c r="N50" s="185"/>
-      <c r="O50" s="186"/>
+      <c r="M50" s="158"/>
+      <c r="N50" s="159"/>
+      <c r="O50" s="160"/>
     </row>
     <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="90"/>
@@ -8474,9 +8494,9 @@
       <c r="B53" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="168"/>
+      <c r="C53" s="170"/>
       <c r="D53" s="107"/>
-      <c r="E53" s="158" t="s">
+      <c r="E53" s="168" t="s">
         <v>74</v>
       </c>
       <c r="F53" s="93" t="s">
@@ -8495,11 +8515,11 @@
         <v>4</v>
       </c>
       <c r="K53" s="89"/>
-      <c r="M53" s="151" t="s">
+      <c r="M53" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="N53" s="152"/>
-      <c r="O53" s="153"/>
+      <c r="N53" s="129"/>
+      <c r="O53" s="130"/>
     </row>
     <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="94" t="s">
@@ -8508,9 +8528,9 @@
       <c r="B54" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="169"/>
+      <c r="C54" s="171"/>
       <c r="D54" s="107"/>
-      <c r="E54" s="159"/>
+      <c r="E54" s="169"/>
       <c r="F54" s="67" t="s">
         <v>59</v>
       </c>
@@ -8527,11 +8547,11 @@
         <v>135</v>
       </c>
       <c r="K54" s="89"/>
-      <c r="M54" s="174" t="s">
+      <c r="M54" s="154" t="s">
         <v>185</v>
       </c>
-      <c r="N54" s="166"/>
-      <c r="O54" s="182"/>
+      <c r="N54" s="155"/>
+      <c r="O54" s="156"/>
     </row>
     <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="108" t="s">
@@ -8547,9 +8567,9 @@
       <c r="I55" s="107"/>
       <c r="J55" s="107"/>
       <c r="K55" s="89"/>
-      <c r="M55" s="183"/>
-      <c r="N55" s="166"/>
-      <c r="O55" s="182"/>
+      <c r="M55" s="157"/>
+      <c r="N55" s="155"/>
+      <c r="O55" s="156"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="91">
@@ -8558,9 +8578,9 @@
       <c r="B56" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="170"/>
+      <c r="C56" s="166"/>
       <c r="D56" s="107"/>
-      <c r="E56" s="158" t="s">
+      <c r="E56" s="168" t="s">
         <v>80</v>
       </c>
       <c r="F56" s="93" t="s">
@@ -8579,9 +8599,9 @@
         <v>4</v>
       </c>
       <c r="K56" s="89"/>
-      <c r="M56" s="183"/>
-      <c r="N56" s="166"/>
-      <c r="O56" s="182"/>
+      <c r="M56" s="157"/>
+      <c r="N56" s="155"/>
+      <c r="O56" s="156"/>
     </row>
     <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="94" t="s">
@@ -8590,9 +8610,9 @@
       <c r="B57" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="C57" s="171"/>
+      <c r="C57" s="167"/>
       <c r="D57" s="107"/>
-      <c r="E57" s="159"/>
+      <c r="E57" s="169"/>
       <c r="F57" s="67" t="s">
         <v>59</v>
       </c>
@@ -8609,9 +8629,9 @@
         <v>138</v>
       </c>
       <c r="K57" s="89"/>
-      <c r="M57" s="184"/>
-      <c r="N57" s="185"/>
-      <c r="O57" s="186"/>
+      <c r="M57" s="158"/>
+      <c r="N57" s="159"/>
+      <c r="O57" s="160"/>
     </row>
     <row r="58" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="108" t="s">
@@ -8635,11 +8655,11 @@
       <c r="B59" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="C59" s="168" t="s">
+      <c r="C59" s="170" t="s">
         <v>179</v>
       </c>
       <c r="D59" s="107"/>
-      <c r="E59" s="158" t="s">
+      <c r="E59" s="168" t="s">
         <v>81</v>
       </c>
       <c r="F59" s="93" t="s">
@@ -8651,10 +8671,10 @@
       <c r="H59" s="93">
         <v>2</v>
       </c>
-      <c r="I59" s="180">
+      <c r="I59" s="172">
         <v>3</v>
       </c>
-      <c r="J59" s="181"/>
+      <c r="J59" s="173"/>
       <c r="K59" s="89"/>
     </row>
     <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -8664,9 +8684,9 @@
       <c r="B60" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="C60" s="169"/>
+      <c r="C60" s="171"/>
       <c r="D60" s="107"/>
-      <c r="E60" s="159"/>
+      <c r="E60" s="169"/>
       <c r="F60" s="67" t="s">
         <v>59</v>
       </c>
@@ -8676,10 +8696,10 @@
       <c r="H60" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="I60" s="172" t="s">
+      <c r="I60" s="174" t="s">
         <v>142</v>
       </c>
-      <c r="J60" s="173"/>
+      <c r="J60" s="175"/>
       <c r="K60" s="89"/>
     </row>
     <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -8701,11 +8721,11 @@
     </row>
     <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="154" t="s">
+      <c r="A64" s="176" t="s">
         <v>160</v>
       </c>
-      <c r="B64" s="155"/>
-      <c r="C64" s="155"/>
+      <c r="B64" s="177"/>
+      <c r="C64" s="177"/>
       <c r="D64" s="36"/>
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
@@ -8724,9 +8744,9 @@
       <c r="K64" s="87"/>
     </row>
     <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="156"/>
-      <c r="B65" s="157"/>
-      <c r="C65" s="157"/>
+      <c r="A65" s="178"/>
+      <c r="B65" s="179"/>
+      <c r="C65" s="179"/>
       <c r="D65" s="107"/>
       <c r="E65" s="39" t="s">
         <v>44</v>
@@ -8775,18 +8795,18 @@
         <v>555</v>
       </c>
       <c r="K66" s="89"/>
-      <c r="M66" s="151" t="s">
+      <c r="M66" s="128" t="s">
         <v>162</v>
       </c>
-      <c r="N66" s="152"/>
-      <c r="O66" s="153"/>
+      <c r="N66" s="129"/>
+      <c r="O66" s="130"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="165" t="s">
+      <c r="A67" s="180" t="s">
         <v>181</v>
       </c>
-      <c r="B67" s="166"/>
-      <c r="C67" s="166"/>
+      <c r="B67" s="155"/>
+      <c r="C67" s="155"/>
       <c r="D67" s="107"/>
       <c r="E67" s="46" t="s">
         <v>50</v>
@@ -8810,16 +8830,16 @@
         <v>25.5</v>
       </c>
       <c r="K67" s="89"/>
-      <c r="M67" s="174" t="s">
+      <c r="M67" s="154" t="s">
         <v>186</v>
       </c>
-      <c r="N67" s="166"/>
-      <c r="O67" s="182"/>
+      <c r="N67" s="155"/>
+      <c r="O67" s="156"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="167"/>
-      <c r="B68" s="166"/>
-      <c r="C68" s="166"/>
+      <c r="A68" s="181"/>
+      <c r="B68" s="155"/>
+      <c r="C68" s="155"/>
       <c r="D68" s="107"/>
       <c r="E68" s="46" t="s">
         <v>51</v>
@@ -8834,14 +8854,14 @@
       <c r="I68" s="110"/>
       <c r="J68" s="109"/>
       <c r="K68" s="89"/>
-      <c r="M68" s="183"/>
-      <c r="N68" s="166"/>
-      <c r="O68" s="182"/>
+      <c r="M68" s="157"/>
+      <c r="N68" s="155"/>
+      <c r="O68" s="156"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="167"/>
-      <c r="B69" s="166"/>
-      <c r="C69" s="166"/>
+      <c r="A69" s="181"/>
+      <c r="B69" s="155"/>
+      <c r="C69" s="155"/>
       <c r="D69" s="107"/>
       <c r="E69" s="46" t="s">
         <v>52</v>
@@ -8865,9 +8885,9 @@
         <v>51</v>
       </c>
       <c r="K69" s="89"/>
-      <c r="M69" s="183"/>
-      <c r="N69" s="166"/>
-      <c r="O69" s="182"/>
+      <c r="M69" s="157"/>
+      <c r="N69" s="155"/>
+      <c r="O69" s="156"/>
     </row>
     <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="90"/>
@@ -8889,9 +8909,9 @@
       </c>
       <c r="J70" s="101"/>
       <c r="K70" s="89"/>
-      <c r="M70" s="184"/>
-      <c r="N70" s="185"/>
-      <c r="O70" s="186"/>
+      <c r="M70" s="158"/>
+      <c r="N70" s="159"/>
+      <c r="O70" s="160"/>
     </row>
     <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="52" t="s">
@@ -8919,9 +8939,9 @@
       <c r="B72" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="C72" s="168"/>
+      <c r="C72" s="170"/>
       <c r="D72" s="107"/>
-      <c r="E72" s="158" t="s">
+      <c r="E72" s="168" t="s">
         <v>74</v>
       </c>
       <c r="F72" s="93" t="s">
@@ -8940,11 +8960,11 @@
         <v>4</v>
       </c>
       <c r="K72" s="89"/>
-      <c r="M72" s="151" t="s">
+      <c r="M72" s="128" t="s">
         <v>159</v>
       </c>
-      <c r="N72" s="152"/>
-      <c r="O72" s="153"/>
+      <c r="N72" s="129"/>
+      <c r="O72" s="130"/>
     </row>
     <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="94" t="s">
@@ -8953,9 +8973,9 @@
       <c r="B73" s="95" t="s">
         <v>173</v>
       </c>
-      <c r="C73" s="169"/>
+      <c r="C73" s="171"/>
       <c r="D73" s="107"/>
-      <c r="E73" s="159"/>
+      <c r="E73" s="169"/>
       <c r="F73" s="67" t="s">
         <v>59</v>
       </c>
@@ -8972,11 +8992,11 @@
         <v>166</v>
       </c>
       <c r="K73" s="89"/>
-      <c r="M73" s="174" t="s">
+      <c r="M73" s="154" t="s">
         <v>188</v>
       </c>
-      <c r="N73" s="166"/>
-      <c r="O73" s="182"/>
+      <c r="N73" s="155"/>
+      <c r="O73" s="156"/>
     </row>
     <row r="74" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="108" t="s">
@@ -8992,9 +9012,9 @@
       <c r="I74" s="107"/>
       <c r="J74" s="107"/>
       <c r="K74" s="89"/>
-      <c r="M74" s="183"/>
-      <c r="N74" s="166"/>
-      <c r="O74" s="182"/>
+      <c r="M74" s="157"/>
+      <c r="N74" s="155"/>
+      <c r="O74" s="156"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="91">
@@ -9003,9 +9023,9 @@
       <c r="B75" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="C75" s="170"/>
+      <c r="C75" s="166"/>
       <c r="D75" s="107"/>
-      <c r="E75" s="158" t="s">
+      <c r="E75" s="168" t="s">
         <v>80</v>
       </c>
       <c r="F75" s="93" t="s">
@@ -9024,9 +9044,9 @@
         <v>4</v>
       </c>
       <c r="K75" s="89"/>
-      <c r="M75" s="183"/>
-      <c r="N75" s="166"/>
-      <c r="O75" s="182"/>
+      <c r="M75" s="157"/>
+      <c r="N75" s="155"/>
+      <c r="O75" s="156"/>
     </row>
     <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="94" t="s">
@@ -9035,9 +9055,9 @@
       <c r="B76" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="C76" s="171"/>
+      <c r="C76" s="167"/>
       <c r="D76" s="107"/>
-      <c r="E76" s="159"/>
+      <c r="E76" s="169"/>
       <c r="F76" s="67" t="s">
         <v>59</v>
       </c>
@@ -9054,9 +9074,9 @@
         <v>170</v>
       </c>
       <c r="K76" s="89"/>
-      <c r="M76" s="184"/>
-      <c r="N76" s="185"/>
-      <c r="O76" s="186"/>
+      <c r="M76" s="158"/>
+      <c r="N76" s="159"/>
+      <c r="O76" s="160"/>
     </row>
     <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="108" t="s">
@@ -9080,11 +9100,11 @@
       <c r="B78" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="C78" s="168" t="s">
-        <v>195</v>
+      <c r="C78" s="170" t="s">
+        <v>194</v>
       </c>
       <c r="D78" s="107"/>
-      <c r="E78" s="158" t="s">
+      <c r="E78" s="168" t="s">
         <v>81</v>
       </c>
       <c r="F78" s="93" t="s">
@@ -9096,10 +9116,10 @@
       <c r="H78" s="93">
         <v>2</v>
       </c>
-      <c r="I78" s="180">
+      <c r="I78" s="172">
         <v>3</v>
       </c>
-      <c r="J78" s="181"/>
+      <c r="J78" s="173"/>
       <c r="K78" s="89"/>
     </row>
     <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9109,9 +9129,9 @@
       <c r="B79" s="96" t="s">
         <v>180</v>
       </c>
-      <c r="C79" s="169"/>
+      <c r="C79" s="171"/>
       <c r="D79" s="107"/>
-      <c r="E79" s="159"/>
+      <c r="E79" s="169"/>
       <c r="F79" s="67" t="s">
         <v>59</v>
       </c>
@@ -9121,10 +9141,10 @@
       <c r="H79" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="I79" s="172" t="s">
+      <c r="I79" s="174" t="s">
         <v>187</v>
       </c>
-      <c r="J79" s="173"/>
+      <c r="J79" s="175"/>
       <c r="K79" s="89"/>
     </row>
     <row r="80" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9144,16 +9164,32 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M54:O57"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="M67:O70"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="M73:O76"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M37:O40"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="M47:O50"/>
-    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="A26:C27"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A5:C7"/>
+    <mergeCell ref="A29:C31"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="A45:C46"/>
+    <mergeCell ref="A48:C50"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="E56:E57"/>
     <mergeCell ref="M30:O30"/>
     <mergeCell ref="M31:O34"/>
     <mergeCell ref="C75:C76"/>
@@ -9170,32 +9206,16 @@
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="E59:E60"/>
     <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="A45:C46"/>
-    <mergeCell ref="A48:C50"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="A29:C31"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="A26:C27"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A5:C7"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M37:O40"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="M47:O50"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="M54:O57"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="M67:O70"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="M73:O76"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9207,8 +9227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739D2FDF-FF58-405E-A4E4-D6DDA6C3C12C}">
   <dimension ref="B2:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9220,153 +9240,155 @@
     <col min="5" max="5" width="17" style="35" customWidth="1"/>
     <col min="6" max="6" width="9" style="35"/>
     <col min="7" max="7" width="16" style="35" customWidth="1"/>
-    <col min="8" max="10" width="9" style="33"/>
+    <col min="8" max="8" width="9" style="33"/>
+    <col min="9" max="9" width="23.875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="19.875" style="33" customWidth="1"/>
     <col min="11" max="11" width="12" style="33" customWidth="1"/>
     <col min="12" max="13" width="13.625" style="33" customWidth="1"/>
     <col min="14" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="223" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
     </row>
     <row r="3" spans="2:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
+      <c r="B3" s="224"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="224"/>
+      <c r="G3" s="224"/>
     </row>
     <row r="4" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="210" t="s">
+      <c r="C4" s="228" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="210"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="210" t="s">
+      <c r="D4" s="228"/>
+      <c r="E4" s="228"/>
+      <c r="F4" s="228" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="211"/>
+      <c r="G4" s="229"/>
     </row>
     <row r="5" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="212" t="s">
+      <c r="B5" s="230" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="28">
         <v>1</v>
       </c>
-      <c r="D5" s="226" t="s">
+      <c r="D5" s="197" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="227"/>
-      <c r="F5" s="221" t="s">
+      <c r="E5" s="198"/>
+      <c r="F5" s="241" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="222"/>
+      <c r="G5" s="242"/>
     </row>
     <row r="6" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="213"/>
+      <c r="B6" s="231"/>
       <c r="C6" s="30">
         <v>2</v>
       </c>
-      <c r="D6" s="226" t="s">
+      <c r="D6" s="197" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="227"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="218"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="243"/>
+      <c r="G6" s="236"/>
     </row>
     <row r="7" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="214"/>
+      <c r="B7" s="232"/>
       <c r="C7" s="105">
         <v>3</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="233" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="216"/>
-      <c r="F7" s="224"/>
-      <c r="G7" s="225"/>
+      <c r="E7" s="234"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="245"/>
     </row>
     <row r="8" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="187" t="s">
-        <v>196</v>
-      </c>
-      <c r="D8" s="187"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="188"/>
+      <c r="C8" s="237" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="237"/>
+      <c r="G8" s="238"/>
     </row>
     <row r="9" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="215" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" s="215"/>
-      <c r="E9" s="215"/>
-      <c r="F9" s="217"/>
-      <c r="G9" s="218"/>
+      <c r="C9" s="233" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="233"/>
+      <c r="E9" s="233"/>
+      <c r="F9" s="235"/>
+      <c r="G9" s="236"/>
     </row>
     <row r="10" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="187" t="s">
-        <v>198</v>
-      </c>
-      <c r="D10" s="187"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="188"/>
+      <c r="C10" s="237" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="237"/>
+      <c r="E10" s="237"/>
+      <c r="F10" s="237"/>
+      <c r="G10" s="238"/>
     </row>
     <row r="11" spans="2:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="219" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" s="219"/>
-      <c r="E11" s="219"/>
-      <c r="F11" s="219"/>
-      <c r="G11" s="220"/>
+      <c r="C11" s="239" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="239"/>
+      <c r="E11" s="239"/>
+      <c r="F11" s="239"/>
+      <c r="G11" s="240"/>
     </row>
     <row r="14" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
-      <c r="D14" s="205" t="s">
+      <c r="D14" s="223" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="207"/>
-      <c r="F14" s="207"/>
-      <c r="G14" s="207"/>
-      <c r="H14" s="207"/>
-      <c r="I14" s="207"/>
+      <c r="E14" s="225"/>
+      <c r="F14" s="225"/>
+      <c r="G14" s="225"/>
+      <c r="H14" s="225"/>
+      <c r="I14" s="225"/>
     </row>
     <row r="15" spans="2:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
-      <c r="D15" s="207"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="207"/>
-      <c r="H15" s="207"/>
-      <c r="I15" s="207"/>
+      <c r="D15" s="225"/>
+      <c r="E15" s="225"/>
+      <c r="F15" s="225"/>
+      <c r="G15" s="225"/>
+      <c r="H15" s="225"/>
+      <c r="I15" s="225"/>
     </row>
     <row r="16" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="35"/>
@@ -9377,219 +9399,255 @@
       <c r="E16" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="208" t="s">
+      <c r="F16" s="226" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="208"/>
-      <c r="H16" s="208" t="s">
+      <c r="G16" s="226"/>
+      <c r="H16" s="226" t="s">
         <v>96</v>
       </c>
-      <c r="I16" s="209"/>
-    </row>
-    <row r="17" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="227"/>
+    </row>
+    <row r="17" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
-      <c r="D17" s="230" t="s">
+      <c r="D17" s="205" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="232" t="s">
+      <c r="E17" s="187" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="195" t="s">
+      <c r="F17" s="211" t="s">
         <v>113</v>
       </c>
-      <c r="G17" s="196"/>
-      <c r="H17" s="191"/>
-      <c r="I17" s="192"/>
-    </row>
-    <row r="18" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G17" s="212"/>
+      <c r="H17" s="201" t="s">
+        <v>229</v>
+      </c>
+      <c r="I17" s="202"/>
+      <c r="J17" s="33" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
-      <c r="D18" s="230"/>
-      <c r="E18" s="233"/>
-      <c r="F18" s="238"/>
-      <c r="G18" s="239"/>
-      <c r="H18" s="189"/>
-      <c r="I18" s="190"/>
-    </row>
-    <row r="19" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="243" t="s">
+      <c r="D18" s="205"/>
+      <c r="E18" s="207"/>
+      <c r="F18" s="213"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="246" t="s">
+        <v>226</v>
+      </c>
+      <c r="I18" s="247"/>
+      <c r="J18" s="250" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="190" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="191"/>
+      <c r="D19" s="199" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="188"/>
+      <c r="F19" s="215"/>
+      <c r="G19" s="216"/>
+      <c r="H19" s="201" t="s">
+        <v>228</v>
+      </c>
+      <c r="I19" s="202"/>
+    </row>
+    <row r="20" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="190" t="s">
         <v>200</v>
       </c>
-      <c r="C19" s="244"/>
-      <c r="D19" s="228" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="234"/>
-      <c r="F19" s="199"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="191"/>
-      <c r="I19" s="192"/>
-    </row>
-    <row r="20" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="243" t="s">
+      <c r="C20" s="191"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="208" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="217" t="s">
+        <v>225</v>
+      </c>
+      <c r="G20" s="218"/>
+      <c r="H20" s="246"/>
+      <c r="I20" s="247"/>
+    </row>
+    <row r="21" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="190" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="191"/>
+      <c r="D21" s="205" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="209"/>
+      <c r="F21" s="219"/>
+      <c r="G21" s="220"/>
+      <c r="H21" s="201"/>
+      <c r="I21" s="202"/>
+    </row>
+    <row r="22" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="190" t="s">
         <v>201</v>
       </c>
-      <c r="C20" s="244"/>
-      <c r="D20" s="228"/>
-      <c r="E20" s="235" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="201" t="s">
-        <v>189</v>
-      </c>
-      <c r="G20" s="202"/>
-      <c r="H20" s="189"/>
-      <c r="I20" s="190"/>
-    </row>
-    <row r="21" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="243" t="s">
+      <c r="C22" s="191"/>
+      <c r="D22" s="205"/>
+      <c r="E22" s="210"/>
+      <c r="F22" s="221"/>
+      <c r="G22" s="222"/>
+      <c r="H22" s="246"/>
+      <c r="I22" s="247"/>
+    </row>
+    <row r="23" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="192" t="s">
         <v>203</v>
       </c>
-      <c r="C21" s="244"/>
-      <c r="D21" s="230" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="236"/>
-      <c r="F21" s="240"/>
-      <c r="G21" s="241"/>
-      <c r="H21" s="191"/>
-      <c r="I21" s="192"/>
-    </row>
-    <row r="22" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="243" t="s">
-        <v>202</v>
-      </c>
-      <c r="C22" s="244"/>
-      <c r="D22" s="230"/>
-      <c r="E22" s="237"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="204"/>
-      <c r="H22" s="189"/>
-      <c r="I22" s="190"/>
-    </row>
-    <row r="23" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="245" t="s">
-        <v>204</v>
-      </c>
-      <c r="C23" s="246"/>
-      <c r="D23" s="228" t="s">
+      <c r="C23" s="193"/>
+      <c r="D23" s="199" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="232">
+      <c r="E23" s="187">
         <v>1</v>
       </c>
-      <c r="F23" s="195" t="s">
+      <c r="F23" s="211" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" s="212"/>
+      <c r="H23" s="201"/>
+      <c r="I23" s="202"/>
+    </row>
+    <row r="24" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="194"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="199"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="215"/>
+      <c r="G24" s="216"/>
+      <c r="H24" s="246"/>
+      <c r="I24" s="247"/>
+    </row>
+    <row r="25" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="194"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="199"/>
+      <c r="E25" s="187">
+        <v>2</v>
+      </c>
+      <c r="F25" s="217" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" s="218"/>
+      <c r="H25" s="201"/>
+      <c r="I25" s="202"/>
+    </row>
+    <row r="26" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="194"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="205" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="188"/>
+      <c r="F26" s="221"/>
+      <c r="G26" s="222"/>
+      <c r="H26" s="246"/>
+      <c r="I26" s="247"/>
+    </row>
+    <row r="27" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="194"/>
+      <c r="C27" s="156"/>
+      <c r="D27" s="205"/>
+      <c r="E27" s="187">
+        <v>3</v>
+      </c>
+      <c r="F27" s="211" t="s">
         <v>191</v>
       </c>
-      <c r="G23" s="196"/>
-      <c r="H23" s="191"/>
-      <c r="I23" s="192"/>
-    </row>
-    <row r="24" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="247"/>
-      <c r="C24" s="182"/>
-      <c r="D24" s="228"/>
-      <c r="E24" s="234"/>
-      <c r="F24" s="199"/>
-      <c r="G24" s="200"/>
-      <c r="H24" s="189"/>
-      <c r="I24" s="190"/>
-    </row>
-    <row r="25" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="247"/>
-      <c r="C25" s="182"/>
-      <c r="D25" s="228"/>
-      <c r="E25" s="232">
-        <v>2</v>
-      </c>
-      <c r="F25" s="201" t="s">
-        <v>193</v>
-      </c>
-      <c r="G25" s="202"/>
-      <c r="H25" s="191"/>
-      <c r="I25" s="192"/>
-    </row>
-    <row r="26" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="247"/>
-      <c r="C26" s="182"/>
-      <c r="D26" s="230" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="234"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="204"/>
-      <c r="H26" s="189"/>
-      <c r="I26" s="190"/>
-    </row>
-    <row r="27" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="247"/>
-      <c r="C27" s="182"/>
-      <c r="D27" s="230"/>
-      <c r="E27" s="232">
-        <v>3</v>
-      </c>
-      <c r="F27" s="195" t="s">
-        <v>192</v>
-      </c>
-      <c r="G27" s="196"/>
-      <c r="H27" s="191"/>
-      <c r="I27" s="192"/>
-    </row>
-    <row r="28" spans="2:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="248"/>
-      <c r="C28" s="249"/>
-      <c r="D28" s="231"/>
-      <c r="E28" s="242"/>
-      <c r="F28" s="197"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="193"/>
-      <c r="I28" s="194"/>
-    </row>
-    <row r="29" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G27" s="212"/>
+      <c r="H27" s="201"/>
+      <c r="I27" s="202"/>
+    </row>
+    <row r="28" spans="2:10" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="195"/>
+      <c r="C28" s="196"/>
+      <c r="D28" s="206"/>
+      <c r="E28" s="189"/>
+      <c r="F28" s="248"/>
+      <c r="G28" s="249"/>
+      <c r="H28" s="203"/>
+      <c r="I28" s="204"/>
+    </row>
+    <row r="29" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
-      <c r="D29" s="228" t="s">
+      <c r="D29" s="199" t="s">
         <v>124</v>
       </c>
       <c r="E29" s="109">
         <v>1</v>
       </c>
-      <c r="F29" s="191" t="s">
+      <c r="F29" s="201" t="s">
         <v>125</v>
       </c>
-      <c r="G29" s="191"/>
-      <c r="H29" s="191" t="s">
+      <c r="G29" s="201"/>
+      <c r="H29" s="201" t="s">
         <v>126</v>
       </c>
-      <c r="I29" s="192"/>
-    </row>
-    <row r="30" spans="2:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="202"/>
+    </row>
+    <row r="30" spans="2:10" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
-      <c r="D30" s="229"/>
+      <c r="D30" s="200"/>
       <c r="E30" s="112">
         <v>2</v>
       </c>
-      <c r="F30" s="193" t="s">
-        <v>190</v>
-      </c>
-      <c r="G30" s="193"/>
-      <c r="H30" s="193" t="s">
-        <v>194</v>
-      </c>
-      <c r="I30" s="194"/>
+      <c r="F30" s="203" t="s">
+        <v>189</v>
+      </c>
+      <c r="G30" s="203"/>
+      <c r="H30" s="203" t="s">
+        <v>193</v>
+      </c>
+      <c r="I30" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C28"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F27:G28"/>
+    <mergeCell ref="F23:G24"/>
+    <mergeCell ref="F25:G26"/>
+    <mergeCell ref="B2:G3"/>
+    <mergeCell ref="D14:I15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F5:G7"/>
+    <mergeCell ref="C11:E11"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D29:D30"/>
@@ -9606,38 +9664,14 @@
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="F17:G19"/>
     <mergeCell ref="F20:G22"/>
-    <mergeCell ref="B2:G3"/>
-    <mergeCell ref="D14:I15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F5:G7"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F27:G28"/>
-    <mergeCell ref="F23:G24"/>
-    <mergeCell ref="F25:G26"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9650,7 +9684,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9667,13 +9701,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="124" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="D1" s="124">
         <v>0</v>
       </c>
       <c r="E1" s="124" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -9681,13 +9715,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="124" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D2" s="124">
         <v>1</v>
       </c>
       <c r="E2" s="124" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -9695,13 +9729,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="124" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D3" s="124">
         <v>2</v>
       </c>
       <c r="E3" s="124" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -9709,7 +9743,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="124" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D4" s="124">
         <v>3</v>
@@ -9720,7 +9754,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="124" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D5" s="124">
         <v>4</v>
@@ -9731,7 +9765,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="124" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -9739,7 +9773,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -9747,7 +9781,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="124" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -9755,7 +9789,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="124" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -9763,7 +9797,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="124" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -9771,7 +9805,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="124" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -9779,7 +9813,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="124" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -9787,7 +9821,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="124" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -9795,7 +9829,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="124" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -9803,7 +9837,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="124" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -9811,7 +9845,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="124" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -9819,7 +9853,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="124" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -9827,16 +9861,13 @@
         <v>18</v>
       </c>
       <c r="B18" s="124" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="123">
         <v>19</v>
       </c>
-      <c r="B19" s="124" t="s">
-        <v>211</v>
-      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="123">
@@ -9844,8 +9875,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:B31">
-    <sortCondition ref="B1:B31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:B21">
+    <sortCondition ref="B1:B21"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文物娘.xlsx
+++ b/文物娘.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GameMaker\Final Work\Github\CultureRelicGirls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D934A9-EE66-468C-A850-F0AFCE615CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F104CE-42DF-4C82-86B1-16BB7CBC71D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{1E3677C8-2B1C-423A-AEA1-C1DF63D56BAF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E3677C8-2B1C-423A-AEA1-C1DF63D56BAF}"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="278">
   <si>
     <t>司母戊鼎</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -847,26 +847,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>时间缩短到70%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以同时升级两人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>200/h</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50/h --&gt; 100/h</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>同树</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>machine</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -950,24 +930,230 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>有用更多研究工具的研究台，可以更快地研究文物</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">为研究台装上高科技工具，将使得同时研究两个文物成为可能。
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装了高科技工具的研究台， 可以同时研究两个文物。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于研究文物的设施，通过一段时间的研究挖掘文物的价值与背后的故事。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>添置更多的研究工具，大大提高研究的效率。</t>
+    <t>名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>本级描述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级按钮描述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>相框</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修站</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5到11</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>展台</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳材料转换器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>意识晶体汲取器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>13到15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1F楼梯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2F楼梯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>通往二楼的通道……也许该修一修</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>通往三楼的通道……也许该修一修</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>好好照顾，会长得更快</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长中的可以产生意识晶体的神奇植物</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以产生意识晶体的神奇植物幼苗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>长大了的可以产生意识晶体的神奇植物</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>待修复的破旧展台</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们会需要一个展台</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复好的展台，可以展示物体啦！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>加上一盏金灿灿的灯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金色的展台！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>也许可以换个更高级的底座？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>布琳！布琳！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个位置……放个相框？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以挂些好看的画了！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>换个金属框吧</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱离了木框架的金属框架</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>再加点装饰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>璀璨！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>努力学习的文物才是好文物</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们需要一个沙发</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该再多些书，卷啊！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一台坏掉的转换器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修好就可以产生碳材料了</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一台效率低下的碳材料转换器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO2进来，碳材料出去</t>
+  </si>
+  <si>
+    <t>更新下机器，加强些效率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>框嗤，框嗤，框嗤…</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级材料，上！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>文物，当然要好好保护啊！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>添置些修复工具</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有更多工具的修复台，可以修复更多的文物</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用高科技设备提高效率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高形态的修复台，可以更快的修复文物</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>挖掘文物的价值与背后的故事。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>添置更多的研究工具，提高研究的效率。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装上高科技工具，同时研究两个文物！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>有更多研究工具的研究台，可以更快地研究文物</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>高端的研究台，不拘泥于一个文物</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑描述and数值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>放个书架，让文物们可以自我提升！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我提升中……</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个舒适的自我提升区。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -975,8 +1161,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1106,7 +1293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="87">
+  <borders count="89">
     <border>
       <left/>
       <right/>
@@ -2168,6 +2355,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2192,7 +2405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="251">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2568,6 +2781,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2754,6 +2994,42 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2763,27 +3039,6 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="80" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2799,12 +3054,18 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="34" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="88" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="35" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2862,18 +3123,15 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="85" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="87" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2934,6 +3192,9 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="80" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2942,9 +3203,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3268,7 +3526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D91B1E5-0340-464B-AF90-56D459836ED7}">
   <dimension ref="B1:V39"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3284,67 +3542,67 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="145" t="s">
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="145" t="s">
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="146" t="s">
+      <c r="N2" s="155"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="146"/>
-      <c r="T2" s="146"/>
-      <c r="U2" s="146"/>
-      <c r="V2" s="147"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="155"/>
+      <c r="U2" s="155"/>
+      <c r="V2" s="156"/>
     </row>
     <row r="3" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="148" t="s">
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="151" t="s">
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="152"/>
-      <c r="O3" s="152"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="148" t="s">
+      <c r="N3" s="161"/>
+      <c r="O3" s="161"/>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="162"/>
+      <c r="R3" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="149"/>
-      <c r="T3" s="149"/>
-      <c r="U3" s="149"/>
-      <c r="V3" s="150"/>
+      <c r="S3" s="158"/>
+      <c r="T3" s="158"/>
+      <c r="U3" s="158"/>
+      <c r="V3" s="159"/>
     </row>
     <row r="4" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -3662,94 +3920,94 @@
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="137" t="s">
+      <c r="C8" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="137" t="s">
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="137" t="s">
+      <c r="I8" s="147"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="138"/>
-      <c r="O8" s="138"/>
-      <c r="P8" s="138"/>
-      <c r="Q8" s="139"/>
-      <c r="R8" s="137" t="s">
+      <c r="N8" s="147"/>
+      <c r="O8" s="147"/>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="148"/>
+      <c r="R8" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="S8" s="138"/>
-      <c r="T8" s="138"/>
-      <c r="U8" s="138"/>
-      <c r="V8" s="139"/>
+      <c r="S8" s="147"/>
+      <c r="T8" s="147"/>
+      <c r="U8" s="147"/>
+      <c r="V8" s="148"/>
     </row>
     <row r="9" spans="2:22" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="140" t="s">
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="142"/>
-      <c r="M9" s="140" t="s">
+      <c r="I9" s="150"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="141"/>
-      <c r="O9" s="141"/>
-      <c r="P9" s="141"/>
-      <c r="Q9" s="142"/>
-      <c r="R9" s="140" t="s">
+      <c r="N9" s="150"/>
+      <c r="O9" s="150"/>
+      <c r="P9" s="150"/>
+      <c r="Q9" s="151"/>
+      <c r="R9" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="141"/>
-      <c r="T9" s="141"/>
-      <c r="U9" s="141"/>
-      <c r="V9" s="142"/>
+      <c r="S9" s="150"/>
+      <c r="T9" s="150"/>
+      <c r="U9" s="150"/>
+      <c r="V9" s="151"/>
     </row>
     <row r="11" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="145" t="s">
+      <c r="C12" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="145" t="s">
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="147"/>
-      <c r="M12" s="145" t="s">
+      <c r="I12" s="155"/>
+      <c r="J12" s="155"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="146"/>
-      <c r="O12" s="146"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="147"/>
+      <c r="N12" s="155"/>
+      <c r="O12" s="155"/>
+      <c r="P12" s="155"/>
+      <c r="Q12" s="156"/>
       <c r="S12" s="113">
         <v>2.1</v>
       </c>
@@ -3764,27 +4022,27 @@
       <c r="B13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="125" t="s">
+      <c r="C13" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="125" t="s">
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="128" t="s">
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
-      <c r="P13" s="129"/>
-      <c r="Q13" s="130"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="138"/>
+      <c r="Q13" s="139"/>
       <c r="S13" s="116">
         <v>1.8</v>
       </c>
@@ -3865,7 +4123,7 @@
       <c r="U14" s="118">
         <v>1</v>
       </c>
-      <c r="V14" s="143"/>
+      <c r="V14" s="152"/>
     </row>
     <row r="15" spans="2:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
@@ -3935,7 +4193,7 @@
         <v>1</v>
       </c>
       <c r="U15" s="118"/>
-      <c r="V15" s="143"/>
+      <c r="V15" s="152"/>
     </row>
     <row r="16" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
@@ -4061,106 +4319,106 @@
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="137" t="s">
+      <c r="C18" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="137" t="s">
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="138"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="138"/>
-      <c r="L18" s="139"/>
-      <c r="M18" s="137" t="s">
+      <c r="I18" s="147"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="146" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="138"/>
-      <c r="O18" s="138"/>
-      <c r="P18" s="138"/>
-      <c r="Q18" s="139"/>
+      <c r="N18" s="147"/>
+      <c r="O18" s="147"/>
+      <c r="P18" s="147"/>
+      <c r="Q18" s="148"/>
     </row>
     <row r="19" spans="2:17" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="140" t="s">
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="141"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="141"/>
-      <c r="L19" s="142"/>
-      <c r="M19" s="140" t="s">
+      <c r="I19" s="150"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="150"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="141"/>
-      <c r="O19" s="141"/>
-      <c r="P19" s="141"/>
-      <c r="Q19" s="142"/>
+      <c r="N19" s="150"/>
+      <c r="O19" s="150"/>
+      <c r="P19" s="150"/>
+      <c r="Q19" s="151"/>
     </row>
     <row r="21" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="134" t="s">
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="135"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="135"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="134" t="s">
+      <c r="I22" s="144"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="144"/>
+      <c r="L22" s="145"/>
+      <c r="M22" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="135"/>
-      <c r="O22" s="135"/>
-      <c r="P22" s="135"/>
-      <c r="Q22" s="136"/>
+      <c r="N22" s="144"/>
+      <c r="O22" s="144"/>
+      <c r="P22" s="144"/>
+      <c r="Q22" s="145"/>
     </row>
     <row r="23" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="131" t="s">
+      <c r="C23" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="132"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="133"/>
-      <c r="H23" s="125" t="s">
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="126"/>
-      <c r="J23" s="126"/>
-      <c r="K23" s="126"/>
-      <c r="L23" s="127"/>
-      <c r="M23" s="128" t="s">
+      <c r="I23" s="135"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="135"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="129"/>
-      <c r="O23" s="129"/>
-      <c r="P23" s="129"/>
-      <c r="Q23" s="130"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="138"/>
+      <c r="Q23" s="139"/>
     </row>
     <row r="24" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
@@ -4405,92 +4663,92 @@
       <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="137" t="s">
+      <c r="C28" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="138"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="137" t="s">
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="138"/>
-      <c r="J28" s="138"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="139"/>
-      <c r="M28" s="137" t="s">
+      <c r="I28" s="147"/>
+      <c r="J28" s="147"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="138"/>
-      <c r="O28" s="138"/>
-      <c r="P28" s="138"/>
-      <c r="Q28" s="139"/>
+      <c r="N28" s="147"/>
+      <c r="O28" s="147"/>
+      <c r="P28" s="147"/>
+      <c r="Q28" s="148"/>
     </row>
     <row r="29" spans="2:17" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="140" t="s">
+      <c r="C29" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="140" t="s">
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="151"/>
+      <c r="H29" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="141"/>
-      <c r="J29" s="141"/>
-      <c r="K29" s="141"/>
-      <c r="L29" s="142"/>
-      <c r="M29" s="140" t="s">
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="151"/>
+      <c r="M29" s="149" t="s">
         <v>115</v>
       </c>
-      <c r="N29" s="141"/>
-      <c r="O29" s="141"/>
-      <c r="P29" s="141"/>
-      <c r="Q29" s="142"/>
+      <c r="N29" s="150"/>
+      <c r="O29" s="150"/>
+      <c r="P29" s="150"/>
+      <c r="Q29" s="151"/>
     </row>
     <row r="31" spans="2:17" s="13" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="145" t="s">
+      <c r="C32" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="145" t="s">
+      <c r="D32" s="155"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="154" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="146"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="147"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="156"/>
     </row>
     <row r="33" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="131" t="s">
+      <c r="C33" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="132"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="133"/>
-      <c r="H33" s="125" t="s">
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="126"/>
-      <c r="J33" s="126"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="127"/>
+      <c r="I33" s="135"/>
+      <c r="J33" s="135"/>
+      <c r="K33" s="135"/>
+      <c r="L33" s="136"/>
     </row>
     <row r="34" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
@@ -4662,39 +4920,39 @@
       <c r="B38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="137" t="s">
+      <c r="C38" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="138"/>
-      <c r="E38" s="138"/>
-      <c r="F38" s="138"/>
-      <c r="G38" s="139"/>
-      <c r="H38" s="137" t="s">
+      <c r="D38" s="147"/>
+      <c r="E38" s="147"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="138"/>
-      <c r="J38" s="138"/>
-      <c r="K38" s="138"/>
-      <c r="L38" s="139"/>
+      <c r="I38" s="147"/>
+      <c r="J38" s="147"/>
+      <c r="K38" s="147"/>
+      <c r="L38" s="148"/>
     </row>
     <row r="39" spans="2:17" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="140" t="s">
+      <c r="C39" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="141"/>
-      <c r="E39" s="141"/>
-      <c r="F39" s="141"/>
-      <c r="G39" s="142"/>
-      <c r="H39" s="140" t="s">
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="151"/>
+      <c r="H39" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="I39" s="141"/>
-      <c r="J39" s="141"/>
-      <c r="K39" s="141"/>
-      <c r="L39" s="142"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="151"/>
       <c r="M39" s="26"/>
       <c r="N39" s="26"/>
       <c r="O39" s="26"/>
@@ -4774,34 +5032,34 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="145" t="s">
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="145" t="s">
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="146" t="s">
+      <c r="N2" s="155"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="146"/>
-      <c r="T2" s="146"/>
-      <c r="U2" s="146"/>
-      <c r="V2" s="147"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="155"/>
+      <c r="U2" s="155"/>
+      <c r="V2" s="156"/>
       <c r="W2" s="122"/>
       <c r="X2" s="122"/>
       <c r="Y2" s="122"/>
@@ -4828,34 +5086,34 @@
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="148" t="s">
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="151" t="s">
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="152"/>
-      <c r="O3" s="152"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="148" t="s">
+      <c r="N3" s="161"/>
+      <c r="O3" s="161"/>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="162"/>
+      <c r="R3" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="149"/>
-      <c r="T3" s="149"/>
-      <c r="U3" s="149"/>
-      <c r="V3" s="150"/>
+      <c r="S3" s="158"/>
+      <c r="T3" s="158"/>
+      <c r="U3" s="158"/>
+      <c r="V3" s="159"/>
       <c r="W3" s="122"/>
       <c r="X3" s="122"/>
       <c r="Y3" s="122"/>
@@ -5278,34 +5536,34 @@
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="137" t="s">
+      <c r="C8" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="137" t="s">
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="137" t="s">
+      <c r="I8" s="147"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="138"/>
-      <c r="O8" s="138"/>
-      <c r="P8" s="138"/>
-      <c r="Q8" s="139"/>
-      <c r="R8" s="137" t="s">
+      <c r="N8" s="147"/>
+      <c r="O8" s="147"/>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="148"/>
+      <c r="R8" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="S8" s="138"/>
-      <c r="T8" s="138"/>
-      <c r="U8" s="138"/>
-      <c r="V8" s="139"/>
+      <c r="S8" s="147"/>
+      <c r="T8" s="147"/>
+      <c r="U8" s="147"/>
+      <c r="V8" s="148"/>
       <c r="W8" s="122"/>
       <c r="X8" s="122"/>
       <c r="Y8" s="122"/>
@@ -5332,34 +5590,34 @@
       <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="140" t="s">
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="142"/>
-      <c r="M9" s="140" t="s">
+      <c r="I9" s="150"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="141"/>
-      <c r="O9" s="141"/>
-      <c r="P9" s="141"/>
-      <c r="Q9" s="142"/>
-      <c r="R9" s="140" t="s">
+      <c r="N9" s="150"/>
+      <c r="O9" s="150"/>
+      <c r="P9" s="150"/>
+      <c r="Q9" s="151"/>
+      <c r="R9" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="141"/>
-      <c r="T9" s="141"/>
-      <c r="U9" s="141"/>
-      <c r="V9" s="142"/>
+      <c r="S9" s="150"/>
+      <c r="T9" s="150"/>
+      <c r="U9" s="150"/>
+      <c r="V9" s="151"/>
       <c r="W9" s="122"/>
       <c r="X9" s="122"/>
       <c r="Y9" s="122"/>
@@ -5474,27 +5732,27 @@
       <c r="B12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="145" t="s">
+      <c r="C12" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="145" t="s">
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="147"/>
-      <c r="M12" s="145" t="s">
+      <c r="I12" s="155"/>
+      <c r="J12" s="155"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="146"/>
-      <c r="O12" s="146"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="147"/>
+      <c r="N12" s="155"/>
+      <c r="O12" s="155"/>
+      <c r="P12" s="155"/>
+      <c r="Q12" s="156"/>
       <c r="R12" s="122"/>
       <c r="S12" s="113">
         <v>2.1</v>
@@ -5532,27 +5790,27 @@
       <c r="B13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="125" t="s">
+      <c r="C13" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="125" t="s">
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="128" t="s">
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
-      <c r="P13" s="129"/>
-      <c r="Q13" s="130"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="138"/>
+      <c r="Q13" s="139"/>
       <c r="R13" s="122"/>
       <c r="S13" s="116">
         <v>1.8</v>
@@ -5657,7 +5915,7 @@
       <c r="U14" s="118">
         <v>1</v>
       </c>
-      <c r="V14" s="143"/>
+      <c r="V14" s="152"/>
       <c r="W14" s="122"/>
       <c r="X14" s="122"/>
       <c r="Y14" s="122"/>
@@ -5749,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="U15" s="118"/>
-      <c r="V15" s="143"/>
+      <c r="V15" s="152"/>
       <c r="W15" s="122"/>
       <c r="X15" s="122"/>
       <c r="Y15" s="122"/>
@@ -5945,27 +6203,27 @@
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="137" t="s">
+      <c r="C18" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="137" t="s">
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="138"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="138"/>
-      <c r="L18" s="139"/>
-      <c r="M18" s="137" t="s">
+      <c r="I18" s="147"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="146" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="138"/>
-      <c r="O18" s="138"/>
-      <c r="P18" s="138"/>
-      <c r="Q18" s="139"/>
+      <c r="N18" s="147"/>
+      <c r="O18" s="147"/>
+      <c r="P18" s="147"/>
+      <c r="Q18" s="148"/>
       <c r="R18" s="122"/>
       <c r="S18" s="122"/>
       <c r="T18" s="122"/>
@@ -5997,27 +6255,27 @@
       <c r="B19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="140" t="s">
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="141"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="141"/>
-      <c r="L19" s="142"/>
-      <c r="M19" s="140" t="s">
+      <c r="I19" s="150"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="150"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="141"/>
-      <c r="O19" s="141"/>
-      <c r="P19" s="141"/>
-      <c r="Q19" s="142"/>
+      <c r="N19" s="150"/>
+      <c r="O19" s="150"/>
+      <c r="P19" s="150"/>
+      <c r="Q19" s="151"/>
       <c r="R19" s="122"/>
       <c r="S19" s="122"/>
       <c r="T19" s="122"/>
@@ -6137,27 +6395,27 @@
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="134" t="s">
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="135"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="135"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="134" t="s">
+      <c r="I22" s="144"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="144"/>
+      <c r="L22" s="145"/>
+      <c r="M22" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="135"/>
-      <c r="O22" s="135"/>
-      <c r="P22" s="135"/>
-      <c r="Q22" s="136"/>
+      <c r="N22" s="144"/>
+      <c r="O22" s="144"/>
+      <c r="P22" s="144"/>
+      <c r="Q22" s="145"/>
       <c r="R22" s="122"/>
       <c r="S22" s="122"/>
       <c r="T22" s="122"/>
@@ -6189,27 +6447,27 @@
       <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="131" t="s">
+      <c r="C23" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="132"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="133"/>
-      <c r="H23" s="125" t="s">
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="126"/>
-      <c r="J23" s="126"/>
-      <c r="K23" s="126"/>
-      <c r="L23" s="127"/>
-      <c r="M23" s="128" t="s">
+      <c r="I23" s="135"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="135"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="129"/>
-      <c r="O23" s="129"/>
-      <c r="P23" s="129"/>
-      <c r="Q23" s="130"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="138"/>
+      <c r="Q23" s="139"/>
       <c r="R23" s="122"/>
       <c r="S23" s="122"/>
       <c r="T23" s="122"/>
@@ -6584,27 +6842,27 @@
       <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="137" t="s">
+      <c r="C28" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="138"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="137" t="s">
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="138"/>
-      <c r="J28" s="138"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="139"/>
-      <c r="M28" s="137" t="s">
+      <c r="I28" s="147"/>
+      <c r="J28" s="147"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="138"/>
-      <c r="O28" s="138"/>
-      <c r="P28" s="138"/>
-      <c r="Q28" s="139"/>
+      <c r="N28" s="147"/>
+      <c r="O28" s="147"/>
+      <c r="P28" s="147"/>
+      <c r="Q28" s="148"/>
       <c r="R28" s="122"/>
       <c r="S28" s="122"/>
       <c r="T28" s="122"/>
@@ -6636,27 +6894,27 @@
       <c r="B29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="140" t="s">
+      <c r="C29" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="140" t="s">
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="151"/>
+      <c r="H29" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="141"/>
-      <c r="J29" s="141"/>
-      <c r="K29" s="141"/>
-      <c r="L29" s="142"/>
-      <c r="M29" s="140" t="s">
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="151"/>
+      <c r="M29" s="149" t="s">
         <v>115</v>
       </c>
-      <c r="N29" s="141"/>
-      <c r="O29" s="141"/>
-      <c r="P29" s="141"/>
-      <c r="Q29" s="142"/>
+      <c r="N29" s="150"/>
+      <c r="O29" s="150"/>
+      <c r="P29" s="150"/>
+      <c r="Q29" s="151"/>
       <c r="R29" s="122"/>
       <c r="S29" s="122"/>
       <c r="T29" s="122"/>
@@ -6776,20 +7034,20 @@
       <c r="B32" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="145" t="s">
+      <c r="C32" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="145" t="s">
+      <c r="D32" s="155"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="154" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="146"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="147"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="156"/>
       <c r="M32" s="122"/>
       <c r="N32" s="122"/>
       <c r="O32" s="122"/>
@@ -6826,20 +7084,20 @@
       <c r="B33" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="131" t="s">
+      <c r="C33" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="132"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="133"/>
-      <c r="H33" s="125" t="s">
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="126"/>
-      <c r="J33" s="126"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="127"/>
+      <c r="I33" s="135"/>
+      <c r="J33" s="135"/>
+      <c r="K33" s="135"/>
+      <c r="L33" s="136"/>
       <c r="M33" s="122"/>
       <c r="N33" s="122"/>
       <c r="O33" s="122"/>
@@ -7166,20 +7424,20 @@
       <c r="B38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="137" t="s">
+      <c r="C38" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="138"/>
-      <c r="E38" s="138"/>
-      <c r="F38" s="138"/>
-      <c r="G38" s="139"/>
-      <c r="H38" s="137" t="s">
+      <c r="D38" s="147"/>
+      <c r="E38" s="147"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="138"/>
-      <c r="J38" s="138"/>
-      <c r="K38" s="138"/>
-      <c r="L38" s="139"/>
+      <c r="I38" s="147"/>
+      <c r="J38" s="147"/>
+      <c r="K38" s="147"/>
+      <c r="L38" s="148"/>
       <c r="M38" s="122"/>
       <c r="N38" s="122"/>
       <c r="O38" s="122"/>
@@ -7216,20 +7474,20 @@
       <c r="B39" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="140" t="s">
+      <c r="C39" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="141"/>
-      <c r="E39" s="141"/>
-      <c r="F39" s="141"/>
-      <c r="G39" s="142"/>
-      <c r="H39" s="140" t="s">
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="151"/>
+      <c r="H39" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="I39" s="141"/>
-      <c r="J39" s="141"/>
-      <c r="K39" s="141"/>
-      <c r="L39" s="142"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="151"/>
       <c r="M39" s="26"/>
       <c r="N39" s="26"/>
       <c r="O39" s="26"/>
@@ -7324,7 +7582,7 @@
   <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:C27"/>
+      <selection activeCell="E34" sqref="E34:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7347,11 +7605,11 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
       <c r="F2" s="36"/>
@@ -7361,9 +7619,9 @@
       <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="178"/>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
+      <c r="A3" s="187"/>
+      <c r="B3" s="188"/>
+      <c r="C3" s="188"/>
       <c r="D3" s="38"/>
       <c r="E3" s="39" t="s">
         <v>44</v>
@@ -7405,11 +7663,11 @@
       <c r="J4" s="43"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="186" t="s">
+      <c r="A5" s="195" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="186"/>
-      <c r="C5" s="186"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
       <c r="D5" s="38"/>
       <c r="E5" s="46" t="s">
         <v>50</v>
@@ -7429,9 +7687,9 @@
       <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="186"/>
-      <c r="B6" s="186"/>
-      <c r="C6" s="186"/>
+      <c r="A6" s="195"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
       <c r="D6" s="38"/>
       <c r="E6" s="46" t="s">
         <v>51</v>
@@ -7451,9 +7709,9 @@
       <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="186"/>
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
+      <c r="A7" s="195"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
       <c r="D7" s="38"/>
       <c r="E7" s="46" t="s">
         <v>52</v>
@@ -7557,11 +7815,11 @@
       <c r="B12" s="63">
         <v>35</v>
       </c>
-      <c r="C12" s="184" t="s">
+      <c r="C12" s="193" t="s">
         <v>58</v>
       </c>
       <c r="D12" s="38"/>
-      <c r="E12" s="182" t="s">
+      <c r="E12" s="191" t="s">
         <v>56</v>
       </c>
       <c r="F12" s="64" t="s">
@@ -7585,9 +7843,9 @@
       <c r="B13" s="66">
         <v>5</v>
       </c>
-      <c r="C13" s="185"/>
+      <c r="C13" s="194"/>
       <c r="D13" s="38"/>
-      <c r="E13" s="183"/>
+      <c r="E13" s="192"/>
       <c r="F13" s="67" t="s">
         <v>59</v>
       </c>
@@ -7622,11 +7880,11 @@
       <c r="B15" s="72">
         <v>44</v>
       </c>
-      <c r="C15" s="184" t="s">
+      <c r="C15" s="193" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="38"/>
-      <c r="E15" s="168" t="s">
+      <c r="E15" s="177" t="s">
         <v>62</v>
       </c>
       <c r="F15" s="64" t="s">
@@ -7651,9 +7909,9 @@
       <c r="B16" s="74">
         <v>9</v>
       </c>
-      <c r="C16" s="185"/>
+      <c r="C16" s="194"/>
       <c r="D16" s="38"/>
-      <c r="E16" s="169"/>
+      <c r="E16" s="178"/>
       <c r="F16" s="67" t="s">
         <v>59</v>
       </c>
@@ -7689,11 +7947,11 @@
       <c r="B18" s="77">
         <v>68</v>
       </c>
-      <c r="C18" s="184" t="s">
+      <c r="C18" s="193" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="38"/>
-      <c r="E18" s="168" t="s">
+      <c r="E18" s="177" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="64" t="s">
@@ -7718,9 +7976,9 @@
       <c r="B19" s="74">
         <v>29</v>
       </c>
-      <c r="C19" s="185"/>
+      <c r="C19" s="194"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="169"/>
+      <c r="E19" s="178"/>
       <c r="F19" s="67" t="s">
         <v>59</v>
       </c>
@@ -7754,11 +8012,11 @@
       <c r="B21" s="72">
         <v>92</v>
       </c>
-      <c r="C21" s="184" t="s">
+      <c r="C21" s="193" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="38"/>
-      <c r="E21" s="168" t="s">
+      <c r="E21" s="177" t="s">
         <v>69</v>
       </c>
       <c r="F21" s="64" t="s">
@@ -7783,9 +8041,9 @@
       <c r="B22" s="74">
         <v>80</v>
       </c>
-      <c r="C22" s="185"/>
+      <c r="C22" s="194"/>
       <c r="D22" s="38"/>
-      <c r="E22" s="169"/>
+      <c r="E22" s="178"/>
       <c r="F22" s="67" t="s">
         <v>59</v>
       </c>
@@ -7841,11 +8099,11 @@
       <c r="J25" s="38"/>
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="176" t="s">
+      <c r="A26" s="185" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="177"/>
-      <c r="C26" s="177"/>
+      <c r="B26" s="186"/>
+      <c r="C26" s="186"/>
       <c r="D26" s="36"/>
       <c r="E26" s="36"/>
       <c r="F26" s="36"/>
@@ -7862,9 +8120,9 @@
       <c r="K26" s="87"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="178"/>
-      <c r="B27" s="179"/>
-      <c r="C27" s="179"/>
+      <c r="A27" s="187"/>
+      <c r="B27" s="188"/>
+      <c r="C27" s="188"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39" t="s">
         <v>44</v>
@@ -7916,11 +8174,11 @@
       <c r="K28" s="89"/>
     </row>
     <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="180" t="s">
+      <c r="A29" s="189" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="155"/>
-      <c r="C29" s="155"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="164"/>
       <c r="D29" s="38"/>
       <c r="E29" s="46" t="s">
         <v>50</v>
@@ -7946,9 +8204,9 @@
       <c r="K29" s="89"/>
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="181"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="155"/>
+      <c r="A30" s="190"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="164"/>
       <c r="D30" s="38"/>
       <c r="E30" s="46" t="s">
         <v>51</v>
@@ -7963,16 +8221,16 @@
       <c r="I30" s="31"/>
       <c r="J30" s="99"/>
       <c r="K30" s="89"/>
-      <c r="M30" s="128" t="s">
+      <c r="M30" s="137" t="s">
         <v>72</v>
       </c>
-      <c r="N30" s="129"/>
-      <c r="O30" s="130"/>
+      <c r="N30" s="138"/>
+      <c r="O30" s="139"/>
     </row>
     <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="181"/>
-      <c r="B31" s="155"/>
-      <c r="C31" s="155"/>
+      <c r="A31" s="190"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="164"/>
       <c r="D31" s="38"/>
       <c r="E31" s="46" t="s">
         <v>52</v>
@@ -7996,11 +8254,11 @@
         <v>18</v>
       </c>
       <c r="K31" s="89"/>
-      <c r="M31" s="154" t="s">
+      <c r="M31" s="163" t="s">
         <v>182</v>
       </c>
-      <c r="N31" s="161"/>
-      <c r="O31" s="162"/>
+      <c r="N31" s="170"/>
+      <c r="O31" s="171"/>
     </row>
     <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="90"/>
@@ -8020,9 +8278,9 @@
       <c r="I32" s="32"/>
       <c r="J32" s="102"/>
       <c r="K32" s="89"/>
-      <c r="M32" s="154"/>
-      <c r="N32" s="161"/>
-      <c r="O32" s="162"/>
+      <c r="M32" s="163"/>
+      <c r="N32" s="170"/>
+      <c r="O32" s="171"/>
     </row>
     <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
@@ -8042,9 +8300,9 @@
       <c r="I33" s="38"/>
       <c r="J33" s="38"/>
       <c r="K33" s="89"/>
-      <c r="M33" s="154"/>
-      <c r="N33" s="161"/>
-      <c r="O33" s="162"/>
+      <c r="M33" s="163"/>
+      <c r="N33" s="170"/>
+      <c r="O33" s="171"/>
     </row>
     <row r="34" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="91">
@@ -8053,9 +8311,9 @@
       <c r="B34" s="92">
         <v>140</v>
       </c>
-      <c r="C34" s="170"/>
+      <c r="C34" s="179"/>
       <c r="D34" s="38"/>
-      <c r="E34" s="168" t="s">
+      <c r="E34" s="177" t="s">
         <v>74</v>
       </c>
       <c r="F34" s="93" t="s">
@@ -8074,9 +8332,9 @@
         <v>4</v>
       </c>
       <c r="K34" s="89"/>
-      <c r="M34" s="163"/>
-      <c r="N34" s="164"/>
-      <c r="O34" s="165"/>
+      <c r="M34" s="172"/>
+      <c r="N34" s="173"/>
+      <c r="O34" s="174"/>
     </row>
     <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="94">
@@ -8085,9 +8343,9 @@
       <c r="B35" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="171"/>
+      <c r="C35" s="180"/>
       <c r="D35" s="38"/>
-      <c r="E35" s="169"/>
+      <c r="E35" s="178"/>
       <c r="F35" s="67" t="s">
         <v>59</v>
       </c>
@@ -8117,11 +8375,11 @@
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
       <c r="K36" s="89"/>
-      <c r="M36" s="128" t="s">
+      <c r="M36" s="137" t="s">
         <v>131</v>
       </c>
-      <c r="N36" s="129"/>
-      <c r="O36" s="130"/>
+      <c r="N36" s="138"/>
+      <c r="O36" s="139"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="91">
@@ -8130,9 +8388,9 @@
       <c r="B37" s="92">
         <v>166</v>
       </c>
-      <c r="C37" s="166"/>
+      <c r="C37" s="175"/>
       <c r="D37" s="38"/>
-      <c r="E37" s="168" t="s">
+      <c r="E37" s="177" t="s">
         <v>80</v>
       </c>
       <c r="F37" s="93" t="s">
@@ -8151,11 +8409,11 @@
         <v>4</v>
       </c>
       <c r="K37" s="89"/>
-      <c r="M37" s="154" t="s">
+      <c r="M37" s="163" t="s">
         <v>183</v>
       </c>
-      <c r="N37" s="155"/>
-      <c r="O37" s="156"/>
+      <c r="N37" s="164"/>
+      <c r="O37" s="165"/>
     </row>
     <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="s">
@@ -8164,9 +8422,9 @@
       <c r="B38" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="167"/>
+      <c r="C38" s="176"/>
       <c r="D38" s="38"/>
-      <c r="E38" s="169"/>
+      <c r="E38" s="178"/>
       <c r="F38" s="67" t="s">
         <v>59</v>
       </c>
@@ -8183,9 +8441,9 @@
         <v>79</v>
       </c>
       <c r="K38" s="89"/>
-      <c r="M38" s="157"/>
-      <c r="N38" s="155"/>
-      <c r="O38" s="156"/>
+      <c r="M38" s="166"/>
+      <c r="N38" s="164"/>
+      <c r="O38" s="165"/>
     </row>
     <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
@@ -8201,9 +8459,9 @@
       <c r="I39" s="38"/>
       <c r="J39" s="38"/>
       <c r="K39" s="89"/>
-      <c r="M39" s="157"/>
-      <c r="N39" s="155"/>
-      <c r="O39" s="156"/>
+      <c r="M39" s="166"/>
+      <c r="N39" s="164"/>
+      <c r="O39" s="165"/>
     </row>
     <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="91">
@@ -8212,11 +8470,11 @@
       <c r="B40" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="170" t="s">
+      <c r="C40" s="179" t="s">
         <v>146</v>
       </c>
       <c r="D40" s="38"/>
-      <c r="E40" s="168" t="s">
+      <c r="E40" s="177" t="s">
         <v>81</v>
       </c>
       <c r="F40" s="93" t="s">
@@ -8228,14 +8486,14 @@
       <c r="H40" s="93">
         <v>2</v>
       </c>
-      <c r="I40" s="172">
+      <c r="I40" s="181">
         <v>3</v>
       </c>
-      <c r="J40" s="173"/>
+      <c r="J40" s="182"/>
       <c r="K40" s="89"/>
-      <c r="M40" s="158"/>
-      <c r="N40" s="159"/>
-      <c r="O40" s="160"/>
+      <c r="M40" s="167"/>
+      <c r="N40" s="168"/>
+      <c r="O40" s="169"/>
     </row>
     <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="94" t="s">
@@ -8244,9 +8502,9 @@
       <c r="B41" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="171"/>
+      <c r="C41" s="180"/>
       <c r="D41" s="38"/>
-      <c r="E41" s="169"/>
+      <c r="E41" s="178"/>
       <c r="F41" s="67" t="s">
         <v>59</v>
       </c>
@@ -8256,10 +8514,10 @@
       <c r="H41" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="I41" s="174" t="s">
+      <c r="I41" s="183" t="s">
         <v>141</v>
       </c>
-      <c r="J41" s="175"/>
+      <c r="J41" s="184"/>
       <c r="K41" s="89"/>
     </row>
     <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -8279,11 +8537,11 @@
     </row>
     <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="176" t="s">
+      <c r="A45" s="185" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="177"/>
-      <c r="C45" s="177"/>
+      <c r="B45" s="186"/>
+      <c r="C45" s="186"/>
       <c r="D45" s="36"/>
       <c r="E45" s="36"/>
       <c r="F45" s="36"/>
@@ -8301,9 +8559,9 @@
       <c r="K45" s="87"/>
     </row>
     <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="178"/>
-      <c r="B46" s="179"/>
-      <c r="C46" s="179"/>
+      <c r="A46" s="187"/>
+      <c r="B46" s="188"/>
+      <c r="C46" s="188"/>
       <c r="D46" s="107"/>
       <c r="E46" s="39" t="s">
         <v>44</v>
@@ -8324,11 +8582,11 @@
         <v>72</v>
       </c>
       <c r="K46" s="89"/>
-      <c r="M46" s="128" t="s">
+      <c r="M46" s="137" t="s">
         <v>132</v>
       </c>
-      <c r="N46" s="129"/>
-      <c r="O46" s="130"/>
+      <c r="N46" s="138"/>
+      <c r="O46" s="139"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="108"/>
@@ -8357,18 +8615,18 @@
         <v>462.5</v>
       </c>
       <c r="K47" s="89"/>
-      <c r="M47" s="154" t="s">
+      <c r="M47" s="163" t="s">
         <v>184</v>
       </c>
-      <c r="N47" s="155"/>
-      <c r="O47" s="156"/>
+      <c r="N47" s="164"/>
+      <c r="O47" s="165"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="180" t="s">
+      <c r="A48" s="189" t="s">
         <v>161</v>
       </c>
-      <c r="B48" s="155"/>
-      <c r="C48" s="155"/>
+      <c r="B48" s="164"/>
+      <c r="C48" s="164"/>
       <c r="D48" s="107"/>
       <c r="E48" s="46" t="s">
         <v>50</v>
@@ -8392,14 +8650,14 @@
         <v>21.25</v>
       </c>
       <c r="K48" s="89"/>
-      <c r="M48" s="157"/>
-      <c r="N48" s="155"/>
-      <c r="O48" s="156"/>
+      <c r="M48" s="166"/>
+      <c r="N48" s="164"/>
+      <c r="O48" s="165"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="181"/>
-      <c r="B49" s="155"/>
-      <c r="C49" s="155"/>
+      <c r="A49" s="190"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="164"/>
       <c r="D49" s="107"/>
       <c r="E49" s="46" t="s">
         <v>51</v>
@@ -8414,14 +8672,14 @@
       <c r="I49" s="110"/>
       <c r="J49" s="109"/>
       <c r="K49" s="89"/>
-      <c r="M49" s="157"/>
-      <c r="N49" s="155"/>
-      <c r="O49" s="156"/>
+      <c r="M49" s="166"/>
+      <c r="N49" s="164"/>
+      <c r="O49" s="165"/>
     </row>
     <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="181"/>
-      <c r="B50" s="155"/>
-      <c r="C50" s="155"/>
+      <c r="A50" s="190"/>
+      <c r="B50" s="164"/>
+      <c r="C50" s="164"/>
       <c r="D50" s="107"/>
       <c r="E50" s="46" t="s">
         <v>52</v>
@@ -8445,9 +8703,9 @@
         <v>42.5</v>
       </c>
       <c r="K50" s="89"/>
-      <c r="M50" s="158"/>
-      <c r="N50" s="159"/>
-      <c r="O50" s="160"/>
+      <c r="M50" s="167"/>
+      <c r="N50" s="168"/>
+      <c r="O50" s="169"/>
     </row>
     <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="90"/>
@@ -8494,9 +8752,9 @@
       <c r="B53" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="170"/>
+      <c r="C53" s="179"/>
       <c r="D53" s="107"/>
-      <c r="E53" s="168" t="s">
+      <c r="E53" s="177" t="s">
         <v>74</v>
       </c>
       <c r="F53" s="93" t="s">
@@ -8515,11 +8773,11 @@
         <v>4</v>
       </c>
       <c r="K53" s="89"/>
-      <c r="M53" s="128" t="s">
+      <c r="M53" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="N53" s="129"/>
-      <c r="O53" s="130"/>
+      <c r="N53" s="138"/>
+      <c r="O53" s="139"/>
     </row>
     <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="94" t="s">
@@ -8528,9 +8786,9 @@
       <c r="B54" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="171"/>
+      <c r="C54" s="180"/>
       <c r="D54" s="107"/>
-      <c r="E54" s="169"/>
+      <c r="E54" s="178"/>
       <c r="F54" s="67" t="s">
         <v>59</v>
       </c>
@@ -8547,11 +8805,11 @@
         <v>135</v>
       </c>
       <c r="K54" s="89"/>
-      <c r="M54" s="154" t="s">
+      <c r="M54" s="163" t="s">
         <v>185</v>
       </c>
-      <c r="N54" s="155"/>
-      <c r="O54" s="156"/>
+      <c r="N54" s="164"/>
+      <c r="O54" s="165"/>
     </row>
     <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="108" t="s">
@@ -8567,9 +8825,9 @@
       <c r="I55" s="107"/>
       <c r="J55" s="107"/>
       <c r="K55" s="89"/>
-      <c r="M55" s="157"/>
-      <c r="N55" s="155"/>
-      <c r="O55" s="156"/>
+      <c r="M55" s="166"/>
+      <c r="N55" s="164"/>
+      <c r="O55" s="165"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="91">
@@ -8578,9 +8836,9 @@
       <c r="B56" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="166"/>
+      <c r="C56" s="175"/>
       <c r="D56" s="107"/>
-      <c r="E56" s="168" t="s">
+      <c r="E56" s="177" t="s">
         <v>80</v>
       </c>
       <c r="F56" s="93" t="s">
@@ -8599,9 +8857,9 @@
         <v>4</v>
       </c>
       <c r="K56" s="89"/>
-      <c r="M56" s="157"/>
-      <c r="N56" s="155"/>
-      <c r="O56" s="156"/>
+      <c r="M56" s="166"/>
+      <c r="N56" s="164"/>
+      <c r="O56" s="165"/>
     </row>
     <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="94" t="s">
@@ -8610,9 +8868,9 @@
       <c r="B57" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="C57" s="167"/>
+      <c r="C57" s="176"/>
       <c r="D57" s="107"/>
-      <c r="E57" s="169"/>
+      <c r="E57" s="178"/>
       <c r="F57" s="67" t="s">
         <v>59</v>
       </c>
@@ -8629,9 +8887,9 @@
         <v>138</v>
       </c>
       <c r="K57" s="89"/>
-      <c r="M57" s="158"/>
-      <c r="N57" s="159"/>
-      <c r="O57" s="160"/>
+      <c r="M57" s="167"/>
+      <c r="N57" s="168"/>
+      <c r="O57" s="169"/>
     </row>
     <row r="58" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="108" t="s">
@@ -8655,11 +8913,11 @@
       <c r="B59" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="C59" s="170" t="s">
+      <c r="C59" s="179" t="s">
         <v>179</v>
       </c>
       <c r="D59" s="107"/>
-      <c r="E59" s="168" t="s">
+      <c r="E59" s="177" t="s">
         <v>81</v>
       </c>
       <c r="F59" s="93" t="s">
@@ -8671,10 +8929,10 @@
       <c r="H59" s="93">
         <v>2</v>
       </c>
-      <c r="I59" s="172">
+      <c r="I59" s="181">
         <v>3</v>
       </c>
-      <c r="J59" s="173"/>
+      <c r="J59" s="182"/>
       <c r="K59" s="89"/>
     </row>
     <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -8684,9 +8942,9 @@
       <c r="B60" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="C60" s="171"/>
+      <c r="C60" s="180"/>
       <c r="D60" s="107"/>
-      <c r="E60" s="169"/>
+      <c r="E60" s="178"/>
       <c r="F60" s="67" t="s">
         <v>59</v>
       </c>
@@ -8696,10 +8954,10 @@
       <c r="H60" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="I60" s="174" t="s">
+      <c r="I60" s="183" t="s">
         <v>142</v>
       </c>
-      <c r="J60" s="175"/>
+      <c r="J60" s="184"/>
       <c r="K60" s="89"/>
     </row>
     <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -8721,11 +8979,11 @@
     </row>
     <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="176" t="s">
+      <c r="A64" s="185" t="s">
         <v>160</v>
       </c>
-      <c r="B64" s="177"/>
-      <c r="C64" s="177"/>
+      <c r="B64" s="186"/>
+      <c r="C64" s="186"/>
       <c r="D64" s="36"/>
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
@@ -8744,9 +9002,9 @@
       <c r="K64" s="87"/>
     </row>
     <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="178"/>
-      <c r="B65" s="179"/>
-      <c r="C65" s="179"/>
+      <c r="A65" s="187"/>
+      <c r="B65" s="188"/>
+      <c r="C65" s="188"/>
       <c r="D65" s="107"/>
       <c r="E65" s="39" t="s">
         <v>44</v>
@@ -8795,18 +9053,18 @@
         <v>555</v>
       </c>
       <c r="K66" s="89"/>
-      <c r="M66" s="128" t="s">
+      <c r="M66" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="N66" s="129"/>
-      <c r="O66" s="130"/>
+      <c r="N66" s="138"/>
+      <c r="O66" s="139"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="180" t="s">
+      <c r="A67" s="189" t="s">
         <v>181</v>
       </c>
-      <c r="B67" s="155"/>
-      <c r="C67" s="155"/>
+      <c r="B67" s="164"/>
+      <c r="C67" s="164"/>
       <c r="D67" s="107"/>
       <c r="E67" s="46" t="s">
         <v>50</v>
@@ -8830,16 +9088,16 @@
         <v>25.5</v>
       </c>
       <c r="K67" s="89"/>
-      <c r="M67" s="154" t="s">
+      <c r="M67" s="163" t="s">
         <v>186</v>
       </c>
-      <c r="N67" s="155"/>
-      <c r="O67" s="156"/>
+      <c r="N67" s="164"/>
+      <c r="O67" s="165"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="181"/>
-      <c r="B68" s="155"/>
-      <c r="C68" s="155"/>
+      <c r="A68" s="190"/>
+      <c r="B68" s="164"/>
+      <c r="C68" s="164"/>
       <c r="D68" s="107"/>
       <c r="E68" s="46" t="s">
         <v>51</v>
@@ -8854,14 +9112,14 @@
       <c r="I68" s="110"/>
       <c r="J68" s="109"/>
       <c r="K68" s="89"/>
-      <c r="M68" s="157"/>
-      <c r="N68" s="155"/>
-      <c r="O68" s="156"/>
+      <c r="M68" s="166"/>
+      <c r="N68" s="164"/>
+      <c r="O68" s="165"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="181"/>
-      <c r="B69" s="155"/>
-      <c r="C69" s="155"/>
+      <c r="A69" s="190"/>
+      <c r="B69" s="164"/>
+      <c r="C69" s="164"/>
       <c r="D69" s="107"/>
       <c r="E69" s="46" t="s">
         <v>52</v>
@@ -8885,9 +9143,9 @@
         <v>51</v>
       </c>
       <c r="K69" s="89"/>
-      <c r="M69" s="157"/>
-      <c r="N69" s="155"/>
-      <c r="O69" s="156"/>
+      <c r="M69" s="166"/>
+      <c r="N69" s="164"/>
+      <c r="O69" s="165"/>
     </row>
     <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="90"/>
@@ -8909,9 +9167,9 @@
       </c>
       <c r="J70" s="101"/>
       <c r="K70" s="89"/>
-      <c r="M70" s="158"/>
-      <c r="N70" s="159"/>
-      <c r="O70" s="160"/>
+      <c r="M70" s="167"/>
+      <c r="N70" s="168"/>
+      <c r="O70" s="169"/>
     </row>
     <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="52" t="s">
@@ -8939,9 +9197,9 @@
       <c r="B72" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="C72" s="170"/>
+      <c r="C72" s="179"/>
       <c r="D72" s="107"/>
-      <c r="E72" s="168" t="s">
+      <c r="E72" s="177" t="s">
         <v>74</v>
       </c>
       <c r="F72" s="93" t="s">
@@ -8960,11 +9218,11 @@
         <v>4</v>
       </c>
       <c r="K72" s="89"/>
-      <c r="M72" s="128" t="s">
+      <c r="M72" s="137" t="s">
         <v>159</v>
       </c>
-      <c r="N72" s="129"/>
-      <c r="O72" s="130"/>
+      <c r="N72" s="138"/>
+      <c r="O72" s="139"/>
     </row>
     <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="94" t="s">
@@ -8973,9 +9231,9 @@
       <c r="B73" s="95" t="s">
         <v>173</v>
       </c>
-      <c r="C73" s="171"/>
+      <c r="C73" s="180"/>
       <c r="D73" s="107"/>
-      <c r="E73" s="169"/>
+      <c r="E73" s="178"/>
       <c r="F73" s="67" t="s">
         <v>59</v>
       </c>
@@ -8992,11 +9250,11 @@
         <v>166</v>
       </c>
       <c r="K73" s="89"/>
-      <c r="M73" s="154" t="s">
+      <c r="M73" s="163" t="s">
         <v>188</v>
       </c>
-      <c r="N73" s="155"/>
-      <c r="O73" s="156"/>
+      <c r="N73" s="164"/>
+      <c r="O73" s="165"/>
     </row>
     <row r="74" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="108" t="s">
@@ -9012,9 +9270,9 @@
       <c r="I74" s="107"/>
       <c r="J74" s="107"/>
       <c r="K74" s="89"/>
-      <c r="M74" s="157"/>
-      <c r="N74" s="155"/>
-      <c r="O74" s="156"/>
+      <c r="M74" s="166"/>
+      <c r="N74" s="164"/>
+      <c r="O74" s="165"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="91">
@@ -9023,9 +9281,9 @@
       <c r="B75" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="C75" s="166"/>
+      <c r="C75" s="175"/>
       <c r="D75" s="107"/>
-      <c r="E75" s="168" t="s">
+      <c r="E75" s="177" t="s">
         <v>80</v>
       </c>
       <c r="F75" s="93" t="s">
@@ -9044,9 +9302,9 @@
         <v>4</v>
       </c>
       <c r="K75" s="89"/>
-      <c r="M75" s="157"/>
-      <c r="N75" s="155"/>
-      <c r="O75" s="156"/>
+      <c r="M75" s="166"/>
+      <c r="N75" s="164"/>
+      <c r="O75" s="165"/>
     </row>
     <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="94" t="s">
@@ -9055,9 +9313,9 @@
       <c r="B76" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="C76" s="167"/>
+      <c r="C76" s="176"/>
       <c r="D76" s="107"/>
-      <c r="E76" s="169"/>
+      <c r="E76" s="178"/>
       <c r="F76" s="67" t="s">
         <v>59</v>
       </c>
@@ -9074,9 +9332,9 @@
         <v>170</v>
       </c>
       <c r="K76" s="89"/>
-      <c r="M76" s="158"/>
-      <c r="N76" s="159"/>
-      <c r="O76" s="160"/>
+      <c r="M76" s="167"/>
+      <c r="N76" s="168"/>
+      <c r="O76" s="169"/>
     </row>
     <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="108" t="s">
@@ -9100,11 +9358,11 @@
       <c r="B78" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="C78" s="170" t="s">
+      <c r="C78" s="179" t="s">
         <v>194</v>
       </c>
       <c r="D78" s="107"/>
-      <c r="E78" s="168" t="s">
+      <c r="E78" s="177" t="s">
         <v>81</v>
       </c>
       <c r="F78" s="93" t="s">
@@ -9116,10 +9374,10 @@
       <c r="H78" s="93">
         <v>2</v>
       </c>
-      <c r="I78" s="172">
+      <c r="I78" s="181">
         <v>3</v>
       </c>
-      <c r="J78" s="173"/>
+      <c r="J78" s="182"/>
       <c r="K78" s="89"/>
     </row>
     <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9129,9 +9387,9 @@
       <c r="B79" s="96" t="s">
         <v>180</v>
       </c>
-      <c r="C79" s="171"/>
+      <c r="C79" s="180"/>
       <c r="D79" s="107"/>
-      <c r="E79" s="169"/>
+      <c r="E79" s="178"/>
       <c r="F79" s="67" t="s">
         <v>59</v>
       </c>
@@ -9141,10 +9399,10 @@
       <c r="H79" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="I79" s="174" t="s">
+      <c r="I79" s="183" t="s">
         <v>187</v>
       </c>
-      <c r="J79" s="175"/>
+      <c r="J79" s="184"/>
       <c r="K79" s="89"/>
     </row>
     <row r="80" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9225,10 +9483,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739D2FDF-FF58-405E-A4E4-D6DDA6C3C12C}">
-  <dimension ref="B2:M30"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="B13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9240,402 +9498,796 @@
     <col min="5" max="5" width="17" style="35" customWidth="1"/>
     <col min="6" max="6" width="9" style="35"/>
     <col min="7" max="7" width="16" style="35" customWidth="1"/>
-    <col min="8" max="8" width="9" style="33"/>
-    <col min="9" max="9" width="23.875" style="33" customWidth="1"/>
-    <col min="10" max="10" width="19.875" style="33" customWidth="1"/>
-    <col min="11" max="11" width="12" style="33" customWidth="1"/>
-    <col min="12" max="13" width="13.625" style="33" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="35"/>
+    <col min="8" max="8" width="9" style="196"/>
+    <col min="9" max="9" width="9.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.875" style="33" customWidth="1"/>
+    <col min="11" max="11" width="19.875" style="33" customWidth="1"/>
+    <col min="12" max="12" width="38.25" style="33" customWidth="1"/>
+    <col min="13" max="13" width="34.25" style="33" customWidth="1"/>
+    <col min="14" max="14" width="13.625" style="33" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="223" t="s">
+    <row r="1" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="196"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+    </row>
+    <row r="2" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="196"/>
+      <c r="B2" s="203" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-    </row>
-    <row r="3" spans="2:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="224"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="224"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="224"/>
-      <c r="G3" s="224"/>
-    </row>
-    <row r="4" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="I2" s="203" t="s">
+        <v>274</v>
+      </c>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+    </row>
+    <row r="3" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="196"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+    </row>
+    <row r="4" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="196"/>
       <c r="B4" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="228" t="s">
+      <c r="C4" s="243" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="228"/>
-      <c r="E4" s="228"/>
-      <c r="F4" s="228" t="s">
+      <c r="D4" s="243"/>
+      <c r="E4" s="243"/>
+      <c r="F4" s="243" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="229"/>
-    </row>
-    <row r="5" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="230" t="s">
+      <c r="G4" s="244"/>
+      <c r="I4" s="129" t="s">
+        <v>225</v>
+      </c>
+      <c r="J4" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="K4" s="130" t="s">
+        <v>222</v>
+      </c>
+      <c r="L4" s="130" t="s">
+        <v>223</v>
+      </c>
+      <c r="M4" s="128" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="196"/>
+      <c r="B5" s="245" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="28">
         <v>1</v>
       </c>
-      <c r="D5" s="197" t="s">
+      <c r="D5" s="211" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="198"/>
-      <c r="F5" s="241" t="s">
+      <c r="E5" s="212"/>
+      <c r="F5" s="256" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="242"/>
-    </row>
-    <row r="6" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="231"/>
+      <c r="G5" s="257"/>
+      <c r="I5" s="197">
+        <v>12</v>
+      </c>
+      <c r="J5" s="199" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5" s="130">
+        <v>1</v>
+      </c>
+      <c r="L5" s="130" t="s">
+        <v>269</v>
+      </c>
+      <c r="M5" s="128" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="196"/>
+      <c r="B6" s="246"/>
       <c r="C6" s="30">
         <v>2</v>
       </c>
-      <c r="D6" s="197" t="s">
+      <c r="D6" s="211" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="198"/>
-      <c r="F6" s="243"/>
-      <c r="G6" s="236"/>
-    </row>
-    <row r="7" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="232"/>
+      <c r="E6" s="212"/>
+      <c r="F6" s="258"/>
+      <c r="G6" s="251"/>
+      <c r="I6" s="201"/>
+      <c r="J6" s="202"/>
+      <c r="K6" s="131">
+        <v>2</v>
+      </c>
+      <c r="L6" s="131" t="s">
+        <v>272</v>
+      </c>
+      <c r="M6" s="125" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="196"/>
+      <c r="B7" s="247"/>
       <c r="C7" s="105">
         <v>3</v>
       </c>
-      <c r="D7" s="233" t="s">
+      <c r="D7" s="248" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="234"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="245"/>
-    </row>
-    <row r="8" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="249"/>
+      <c r="F7" s="259"/>
+      <c r="G7" s="260"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="132">
+        <v>3</v>
+      </c>
+      <c r="L7" s="132" t="s">
+        <v>273</v>
+      </c>
+      <c r="M7" s="126"/>
+    </row>
+    <row r="8" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="196"/>
       <c r="B8" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="237" t="s">
+      <c r="C8" s="252" t="s">
         <v>195</v>
       </c>
-      <c r="D8" s="237"/>
-      <c r="E8" s="237"/>
-      <c r="F8" s="237"/>
-      <c r="G8" s="238"/>
-    </row>
-    <row r="9" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="252"/>
+      <c r="E8" s="252"/>
+      <c r="F8" s="252"/>
+      <c r="G8" s="253"/>
+      <c r="I8" s="197">
+        <v>18</v>
+      </c>
+      <c r="J8" s="199" t="s">
+        <v>227</v>
+      </c>
+      <c r="K8" s="130">
+        <v>1</v>
+      </c>
+      <c r="L8" s="130" t="s">
+        <v>264</v>
+      </c>
+      <c r="M8" s="128" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="196"/>
       <c r="B9" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="233" t="s">
+      <c r="C9" s="248" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="233"/>
-      <c r="E9" s="233"/>
-      <c r="F9" s="235"/>
-      <c r="G9" s="236"/>
-    </row>
-    <row r="10" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="248"/>
+      <c r="E9" s="248"/>
+      <c r="F9" s="250"/>
+      <c r="G9" s="251"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="131">
+        <v>2</v>
+      </c>
+      <c r="L9" s="131" t="s">
+        <v>266</v>
+      </c>
+      <c r="M9" s="125" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="196"/>
       <c r="B10" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="237" t="s">
+      <c r="C10" s="252" t="s">
         <v>197</v>
       </c>
-      <c r="D10" s="237"/>
-      <c r="E10" s="237"/>
-      <c r="F10" s="237"/>
-      <c r="G10" s="238"/>
-    </row>
-    <row r="11" spans="2:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="252"/>
+      <c r="E10" s="252"/>
+      <c r="F10" s="252"/>
+      <c r="G10" s="253"/>
+      <c r="I10" s="198"/>
+      <c r="J10" s="200"/>
+      <c r="K10" s="132">
+        <v>3</v>
+      </c>
+      <c r="L10" s="132" t="s">
+        <v>268</v>
+      </c>
+      <c r="M10" s="126"/>
+    </row>
+    <row r="11" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="196"/>
       <c r="B11" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="239" t="s">
+      <c r="C11" s="254" t="s">
         <v>198</v>
       </c>
-      <c r="D11" s="239"/>
-      <c r="E11" s="239"/>
-      <c r="F11" s="239"/>
-      <c r="G11" s="240"/>
-    </row>
-    <row r="14" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="223" t="s">
+      <c r="D11" s="254"/>
+      <c r="E11" s="254"/>
+      <c r="F11" s="254"/>
+      <c r="G11" s="255"/>
+      <c r="I11" s="197">
+        <v>4</v>
+      </c>
+      <c r="J11" s="199" t="s">
+        <v>230</v>
+      </c>
+      <c r="K11" s="130">
+        <v>0</v>
+      </c>
+      <c r="L11" s="130" t="s">
+        <v>257</v>
+      </c>
+      <c r="M11" s="128" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="196"/>
+      <c r="B12" s="196"/>
+      <c r="C12" s="196"/>
+      <c r="D12" s="196"/>
+      <c r="E12" s="196"/>
+      <c r="F12" s="196"/>
+      <c r="G12" s="196"/>
+      <c r="I12" s="201"/>
+      <c r="J12" s="202"/>
+      <c r="K12" s="131">
+        <v>1</v>
+      </c>
+      <c r="L12" s="131" t="s">
+        <v>259</v>
+      </c>
+      <c r="M12" s="125" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="196"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="196"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="196"/>
+      <c r="I13" s="201"/>
+      <c r="J13" s="202"/>
+      <c r="K13" s="131">
+        <v>2</v>
+      </c>
+      <c r="L13" s="131" t="s">
+        <v>260</v>
+      </c>
+      <c r="M13" s="125" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="203" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="225"/>
-      <c r="F14" s="225"/>
-      <c r="G14" s="225"/>
-      <c r="H14" s="225"/>
-      <c r="I14" s="225"/>
-    </row>
-    <row r="15" spans="2:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="225"/>
-      <c r="E15" s="225"/>
-      <c r="F15" s="225"/>
-      <c r="G15" s="225"/>
-      <c r="H15" s="225"/>
-      <c r="I15" s="225"/>
-    </row>
-    <row r="16" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="29" t="s">
+      <c r="B14" s="239"/>
+      <c r="C14" s="239"/>
+      <c r="D14" s="239"/>
+      <c r="E14" s="239"/>
+      <c r="F14" s="239"/>
+      <c r="G14" s="239"/>
+      <c r="I14" s="198"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="132">
+        <v>3</v>
+      </c>
+      <c r="L14" s="132" t="s">
+        <v>262</v>
+      </c>
+      <c r="M14" s="126"/>
+    </row>
+    <row r="15" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="239"/>
+      <c r="B15" s="239"/>
+      <c r="C15" s="239"/>
+      <c r="D15" s="239"/>
+      <c r="E15" s="239"/>
+      <c r="F15" s="239"/>
+      <c r="G15" s="239"/>
+      <c r="I15" s="197">
+        <v>3</v>
+      </c>
+      <c r="J15" s="199" t="s">
+        <v>158</v>
+      </c>
+      <c r="K15" s="130">
+        <v>0</v>
+      </c>
+      <c r="L15" s="130" t="s">
+        <v>275</v>
+      </c>
+      <c r="M15" s="128"/>
+    </row>
+    <row r="16" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="111" t="s">
+      <c r="B16" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="226" t="s">
+      <c r="C16" s="240" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="226"/>
-      <c r="H16" s="226" t="s">
+      <c r="D16" s="240"/>
+      <c r="E16" s="240" t="s">
         <v>96</v>
       </c>
-      <c r="I16" s="227"/>
-    </row>
-    <row r="17" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="205" t="s">
+      <c r="F16" s="241"/>
+      <c r="G16" s="242"/>
+      <c r="I16" s="201"/>
+      <c r="J16" s="202"/>
+      <c r="K16" s="131">
+        <v>1</v>
+      </c>
+      <c r="L16" s="131" t="s">
+        <v>276</v>
+      </c>
+      <c r="M16" s="125" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="221" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="187" t="s">
+      <c r="B17" s="208" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="211" t="s">
+      <c r="C17" s="227" t="s">
         <v>113</v>
       </c>
-      <c r="G17" s="212"/>
-      <c r="H17" s="201" t="s">
+      <c r="D17" s="228"/>
+      <c r="E17" s="215"/>
+      <c r="F17" s="216"/>
+      <c r="G17" s="217"/>
+      <c r="I17" s="201"/>
+      <c r="J17" s="202"/>
+      <c r="K17" s="131">
+        <v>2</v>
+      </c>
+      <c r="L17" s="131" t="s">
+        <v>277</v>
+      </c>
+      <c r="M17" s="125" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="221"/>
+      <c r="B18" s="223"/>
+      <c r="C18" s="229"/>
+      <c r="D18" s="230"/>
+      <c r="E18" s="261"/>
+      <c r="F18" s="262"/>
+      <c r="G18" s="263"/>
+      <c r="I18" s="198"/>
+      <c r="J18" s="200"/>
+      <c r="K18" s="132">
+        <v>3</v>
+      </c>
+      <c r="L18" s="132" t="s">
+        <v>254</v>
+      </c>
+      <c r="M18" s="126"/>
+    </row>
+    <row r="19" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="213" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="209"/>
+      <c r="C19" s="231"/>
+      <c r="D19" s="232"/>
+      <c r="E19" s="215"/>
+      <c r="F19" s="216"/>
+      <c r="G19" s="217"/>
+      <c r="I19" s="205" t="s">
+        <v>228</v>
+      </c>
+      <c r="J19" s="199" t="s">
+        <v>226</v>
+      </c>
+      <c r="K19" s="130">
+        <v>0</v>
+      </c>
+      <c r="L19" s="130" t="s">
+        <v>248</v>
+      </c>
+      <c r="M19" s="128"/>
+    </row>
+    <row r="20" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="213"/>
+      <c r="B20" s="224" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="233" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="234"/>
+      <c r="E20" s="261"/>
+      <c r="F20" s="262"/>
+      <c r="G20" s="263"/>
+      <c r="I20" s="206"/>
+      <c r="J20" s="202"/>
+      <c r="K20" s="131">
+        <v>1</v>
+      </c>
+      <c r="L20" s="131" t="s">
+        <v>249</v>
+      </c>
+      <c r="M20" s="125" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="221" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="225"/>
+      <c r="C21" s="235"/>
+      <c r="D21" s="236"/>
+      <c r="E21" s="215"/>
+      <c r="F21" s="216"/>
+      <c r="G21" s="217"/>
+      <c r="I21" s="206"/>
+      <c r="J21" s="202"/>
+      <c r="K21" s="131">
+        <v>2</v>
+      </c>
+      <c r="L21" s="131" t="s">
+        <v>251</v>
+      </c>
+      <c r="M21" s="125" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="221"/>
+      <c r="B22" s="226"/>
+      <c r="C22" s="237"/>
+      <c r="D22" s="238"/>
+      <c r="E22" s="261"/>
+      <c r="F22" s="262"/>
+      <c r="G22" s="263"/>
+      <c r="I22" s="207"/>
+      <c r="J22" s="200"/>
+      <c r="K22" s="132">
+        <v>3</v>
+      </c>
+      <c r="L22" s="132" t="s">
+        <v>253</v>
+      </c>
+      <c r="M22" s="126"/>
+    </row>
+    <row r="23" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="213" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="208">
+        <v>1</v>
+      </c>
+      <c r="C23" s="227" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" s="228"/>
+      <c r="E23" s="215"/>
+      <c r="F23" s="216"/>
+      <c r="G23" s="217"/>
+      <c r="I23" s="197" t="s">
+        <v>232</v>
+      </c>
+      <c r="J23" s="199" t="s">
         <v>229</v>
       </c>
-      <c r="I17" s="202"/>
-      <c r="J17" s="33" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="205"/>
-      <c r="E18" s="207"/>
-      <c r="F18" s="213"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="246" t="s">
-        <v>226</v>
-      </c>
-      <c r="I18" s="247"/>
-      <c r="J18" s="250" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="190" t="s">
-        <v>199</v>
-      </c>
-      <c r="C19" s="191"/>
-      <c r="D19" s="199" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="188"/>
-      <c r="F19" s="215"/>
-      <c r="G19" s="216"/>
-      <c r="H19" s="201" t="s">
-        <v>228</v>
-      </c>
-      <c r="I19" s="202"/>
-    </row>
-    <row r="20" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="190" t="s">
-        <v>200</v>
-      </c>
-      <c r="C20" s="191"/>
-      <c r="D20" s="199"/>
-      <c r="E20" s="208" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="217" t="s">
-        <v>225</v>
-      </c>
-      <c r="G20" s="218"/>
-      <c r="H20" s="246"/>
-      <c r="I20" s="247"/>
-    </row>
-    <row r="21" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="190" t="s">
-        <v>202</v>
-      </c>
-      <c r="C21" s="191"/>
-      <c r="D21" s="205" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="209"/>
-      <c r="F21" s="219"/>
-      <c r="G21" s="220"/>
-      <c r="H21" s="201"/>
-      <c r="I21" s="202"/>
-    </row>
-    <row r="22" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="190" t="s">
-        <v>201</v>
-      </c>
-      <c r="C22" s="191"/>
-      <c r="D22" s="205"/>
-      <c r="E22" s="210"/>
-      <c r="F22" s="221"/>
-      <c r="G22" s="222"/>
-      <c r="H22" s="246"/>
-      <c r="I22" s="247"/>
-    </row>
-    <row r="23" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="192" t="s">
-        <v>203</v>
-      </c>
-      <c r="C23" s="193"/>
-      <c r="D23" s="199" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" s="187">
+      <c r="K23" s="130">
+        <v>0</v>
+      </c>
+      <c r="L23" s="130" t="s">
+        <v>241</v>
+      </c>
+      <c r="M23" s="128" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="213"/>
+      <c r="B24" s="209"/>
+      <c r="C24" s="231"/>
+      <c r="D24" s="232"/>
+      <c r="E24" s="261"/>
+      <c r="F24" s="262"/>
+      <c r="G24" s="263"/>
+      <c r="I24" s="201"/>
+      <c r="J24" s="202"/>
+      <c r="K24" s="131">
         <v>1</v>
       </c>
-      <c r="F23" s="211" t="s">
-        <v>190</v>
-      </c>
-      <c r="G23" s="212"/>
-      <c r="H23" s="201"/>
-      <c r="I23" s="202"/>
-    </row>
-    <row r="24" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="194"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="199"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="215"/>
-      <c r="G24" s="216"/>
-      <c r="H24" s="246"/>
-      <c r="I24" s="247"/>
-    </row>
-    <row r="25" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="194"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="199"/>
-      <c r="E25" s="187">
+      <c r="L24" s="131" t="s">
+        <v>243</v>
+      </c>
+      <c r="M24" s="125" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="213"/>
+      <c r="B25" s="208">
         <v>2</v>
       </c>
-      <c r="F25" s="217" t="s">
+      <c r="C25" s="233" t="s">
         <v>192</v>
       </c>
-      <c r="G25" s="218"/>
-      <c r="H25" s="201"/>
-      <c r="I25" s="202"/>
-    </row>
-    <row r="26" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="194"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="205" t="s">
+      <c r="D25" s="234"/>
+      <c r="E25" s="215"/>
+      <c r="F25" s="216"/>
+      <c r="G25" s="217"/>
+      <c r="I25" s="201"/>
+      <c r="J25" s="202"/>
+      <c r="K25" s="131">
+        <v>2</v>
+      </c>
+      <c r="L25" s="131" t="s">
+        <v>245</v>
+      </c>
+      <c r="M25" s="125" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="221" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="188"/>
-      <c r="F26" s="221"/>
-      <c r="G26" s="222"/>
-      <c r="H26" s="246"/>
-      <c r="I26" s="247"/>
-    </row>
-    <row r="27" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="194"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="205"/>
-      <c r="E27" s="187">
+      <c r="B26" s="209"/>
+      <c r="C26" s="237"/>
+      <c r="D26" s="238"/>
+      <c r="E26" s="261"/>
+      <c r="F26" s="262"/>
+      <c r="G26" s="263"/>
+      <c r="I26" s="198"/>
+      <c r="J26" s="200"/>
+      <c r="K26" s="132">
         <v>3</v>
       </c>
-      <c r="F27" s="211" t="s">
+      <c r="L26" s="132" t="s">
+        <v>247</v>
+      </c>
+      <c r="M26" s="126"/>
+    </row>
+    <row r="27" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="221"/>
+      <c r="B27" s="208">
+        <v>3</v>
+      </c>
+      <c r="C27" s="227" t="s">
         <v>191</v>
       </c>
-      <c r="G27" s="212"/>
-      <c r="H27" s="201"/>
-      <c r="I27" s="202"/>
-    </row>
-    <row r="28" spans="2:10" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="195"/>
-      <c r="C28" s="196"/>
-      <c r="D28" s="206"/>
-      <c r="E28" s="189"/>
-      <c r="F28" s="248"/>
-      <c r="G28" s="249"/>
-      <c r="H28" s="203"/>
-      <c r="I28" s="204"/>
-    </row>
-    <row r="29" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="199" t="s">
+      <c r="D27" s="228"/>
+      <c r="E27" s="215"/>
+      <c r="F27" s="216"/>
+      <c r="G27" s="217"/>
+      <c r="I27" s="201">
+        <v>17</v>
+      </c>
+      <c r="J27" s="202" t="s">
+        <v>231</v>
+      </c>
+      <c r="K27" s="131">
+        <v>1</v>
+      </c>
+      <c r="L27" s="131" t="s">
+        <v>239</v>
+      </c>
+      <c r="M27" s="125" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="222"/>
+      <c r="B28" s="210"/>
+      <c r="C28" s="264"/>
+      <c r="D28" s="265"/>
+      <c r="E28" s="218"/>
+      <c r="F28" s="219"/>
+      <c r="G28" s="220"/>
+      <c r="I28" s="201"/>
+      <c r="J28" s="202"/>
+      <c r="K28" s="131">
+        <v>2</v>
+      </c>
+      <c r="L28" s="131" t="s">
+        <v>238</v>
+      </c>
+      <c r="M28" s="125" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="213" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="109">
+      <c r="B29" s="109">
         <v>1</v>
       </c>
-      <c r="F29" s="201" t="s">
+      <c r="C29" s="215" t="s">
         <v>125</v>
       </c>
-      <c r="G29" s="201"/>
-      <c r="H29" s="201" t="s">
+      <c r="D29" s="215"/>
+      <c r="E29" s="215" t="s">
         <v>126</v>
       </c>
-      <c r="I29" s="202"/>
-    </row>
-    <row r="30" spans="2:10" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="200"/>
-      <c r="E30" s="112">
+      <c r="F29" s="216"/>
+      <c r="G29" s="217"/>
+      <c r="I29" s="201"/>
+      <c r="J29" s="202"/>
+      <c r="K29" s="131">
+        <v>3</v>
+      </c>
+      <c r="L29" s="131" t="s">
+        <v>240</v>
+      </c>
+      <c r="M29" s="125"/>
+    </row>
+    <row r="30" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="214"/>
+      <c r="B30" s="112">
         <v>2</v>
       </c>
-      <c r="F30" s="203" t="s">
+      <c r="C30" s="218" t="s">
         <v>189</v>
       </c>
-      <c r="G30" s="203"/>
-      <c r="H30" s="203" t="s">
+      <c r="D30" s="218"/>
+      <c r="E30" s="218" t="s">
         <v>193</v>
       </c>
-      <c r="I30" s="204"/>
+      <c r="F30" s="219"/>
+      <c r="G30" s="220"/>
+      <c r="I30" s="197">
+        <v>1</v>
+      </c>
+      <c r="J30" s="199" t="s">
+        <v>233</v>
+      </c>
+      <c r="K30" s="130">
+        <v>0</v>
+      </c>
+      <c r="L30" s="130" t="s">
+        <v>235</v>
+      </c>
+      <c r="M30" s="128"/>
+    </row>
+    <row r="31" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="198"/>
+      <c r="J31" s="200"/>
+      <c r="K31" s="132">
+        <v>1</v>
+      </c>
+      <c r="L31" s="132"/>
+      <c r="M31" s="126"/>
+    </row>
+    <row r="32" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I32" s="201">
+        <v>2</v>
+      </c>
+      <c r="J32" s="202" t="s">
+        <v>234</v>
+      </c>
+      <c r="K32" s="131">
+        <v>0</v>
+      </c>
+      <c r="L32" s="131" t="s">
+        <v>236</v>
+      </c>
+      <c r="M32" s="125"/>
+    </row>
+    <row r="33" spans="9:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="198"/>
+      <c r="J33" s="200"/>
+      <c r="K33" s="132">
+        <v>1</v>
+      </c>
+      <c r="L33" s="132"/>
+      <c r="M33" s="126"/>
+    </row>
+    <row r="53" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K53" s="127"/>
+    </row>
+    <row r="57" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="133"/>
+      <c r="C57" s="133"/>
+    </row>
+    <row r="58" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="133"/>
+      <c r="C58" s="133"/>
+    </row>
+    <row r="59" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="133"/>
+      <c r="C59" s="133"/>
+    </row>
+    <row r="60" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="133"/>
+      <c r="C60" s="133"/>
+    </row>
+    <row r="61" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="133"/>
+      <c r="C61" s="133"/>
+    </row>
+    <row r="62" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="133"/>
+      <c r="C62" s="133"/>
+    </row>
+    <row r="63" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="133"/>
+      <c r="C63" s="133"/>
+    </row>
+    <row r="64" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+    </row>
+    <row r="65" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="74">
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F27:G28"/>
-    <mergeCell ref="F23:G24"/>
-    <mergeCell ref="F25:G26"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E17:G17"/>
     <mergeCell ref="B2:G3"/>
-    <mergeCell ref="D14:I15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A14:G15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="B5:B7"/>
@@ -9648,30 +10300,51 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F5:G7"/>
     <mergeCell ref="C11:E11"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C17:D19"/>
+    <mergeCell ref="C20:D22"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="I2:M3"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="H1:H1048576"/>
+    <mergeCell ref="A12:G13"/>
+    <mergeCell ref="A1:A11"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F17:G19"/>
-    <mergeCell ref="F20:G22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9683,8 +10356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD80170-8D7D-4E29-963E-75821B94DB23}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9701,13 +10374,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="124" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D1" s="124">
         <v>0</v>
       </c>
       <c r="E1" s="124" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -9715,13 +10388,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="124" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D2" s="124">
         <v>1</v>
       </c>
       <c r="E2" s="124" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -9729,13 +10402,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="124" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D3" s="124">
         <v>2</v>
       </c>
       <c r="E3" s="124" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -9743,7 +10416,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="124" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D4" s="124">
         <v>3</v>
@@ -9754,7 +10427,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="124" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D5" s="124">
         <v>4</v>
@@ -9765,7 +10438,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="124" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -9773,7 +10446,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -9781,7 +10454,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -9789,7 +10462,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="124" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -9797,7 +10470,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="124" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -9805,7 +10478,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="124" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -9813,7 +10486,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="124" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -9821,7 +10494,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="124" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -9829,7 +10502,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="124" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -9837,7 +10510,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="124" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -9845,7 +10518,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="124" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -9853,7 +10526,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="124" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -9861,7 +10534,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="124" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">

--- a/文物娘.xlsx
+++ b/文物娘.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GameMaker\Final Work\Github\CultureRelicGirls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F104CE-42DF-4C82-86B1-16BB7CBC71D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28DB179-5917-4141-B473-399E14439921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E3677C8-2B1C-423A-AEA1-C1DF63D56BAF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{1E3677C8-2B1C-423A-AEA1-C1DF63D56BAF}"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="1" r:id="rId1"/>
@@ -998,26 +998,14 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>成长中的可以产生意识晶体的神奇植物</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>可以产生意识晶体的神奇植物幼苗</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>长大了的可以产生意识晶体的神奇植物</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>待修复的破旧展台</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>我们会需要一个展台</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>修复好的展台，可以展示物体啦！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1026,22 +1014,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>金色的展台！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>也许可以换个更高级的底座？</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>布琳！布琳！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个位置……放个相框？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>可以挂些好看的画了！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1074,10 +1050,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>一台坏掉的转换器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>修好就可以产生碳材料了</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1086,25 +1058,14 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>CO2进来，碳材料出去</t>
-  </si>
-  <si>
     <t>更新下机器，加强些效率</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>框嗤，框嗤，框嗤…</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>高级材料，上！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>文物，当然要好好保护啊！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>添置些修复工具</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1121,10 +1082,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>挖掘文物的价值与背后的故事。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>添置更多的研究工具，提高研究的效率。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1154,6 +1111,50 @@
   </si>
   <si>
     <t>一个舒适的自我提升区。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升文物的价值，挖掘背后的故事。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复文物的损坏度，让文物保持最佳状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以生成碳材料的机器——但是坏掉了</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高了效率的碳材料转换器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力全开的碳材料转换器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生大量意识晶体的神奇植物</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生更多意识晶体的神奇植株</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们会需要展示物体</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有更快的孵化速度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>布琳！布琳！迅速孵化文物！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>放个可以产生意识晶体的画</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2808,42 +2809,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="67" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="77" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="76" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2853,6 +2818,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="67" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="77" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="76" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2868,55 +2887,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="36" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="37" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="58" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="59" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2931,111 +2974,225 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="58" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="59" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="36" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="37" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="76" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="9" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="9" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="80" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="34" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="88" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="35" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="87" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="62" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="60" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="64" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="65" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="61" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="66" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="82" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="69" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="83" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="84" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="65" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="70" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="61" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="85" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3045,163 +3202,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="81" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="34" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="88" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="35" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="82" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="69" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="83" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="84" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="65" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="70" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="61" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="85" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="87" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="62" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="60" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="64" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="65" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="61" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="66" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="80" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3526,7 +3527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D91B1E5-0340-464B-AF90-56D459836ED7}">
   <dimension ref="B1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3542,67 +3543,67 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="154" t="s">
+      <c r="C2" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="154" t="s">
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="154" t="s">
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="155" t="s">
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
-      <c r="U2" s="155"/>
-      <c r="V2" s="156"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="144"/>
+      <c r="U2" s="144"/>
+      <c r="V2" s="145"/>
     </row>
     <row r="3" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="160" t="s">
+      <c r="C3" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="157" t="s">
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="160" t="s">
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="162"/>
-      <c r="R3" s="157" t="s">
+      <c r="N3" s="147"/>
+      <c r="O3" s="147"/>
+      <c r="P3" s="147"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="158"/>
-      <c r="T3" s="158"/>
-      <c r="U3" s="158"/>
-      <c r="V3" s="159"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="151"/>
     </row>
     <row r="4" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -3920,94 +3921,94 @@
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="146" t="s">
+      <c r="C8" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="146" t="s">
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="147"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="147"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="146" t="s">
+      <c r="I8" s="135"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="135"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="147"/>
-      <c r="O8" s="147"/>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="148"/>
-      <c r="R8" s="146" t="s">
+      <c r="N8" s="135"/>
+      <c r="O8" s="135"/>
+      <c r="P8" s="135"/>
+      <c r="Q8" s="136"/>
+      <c r="R8" s="134" t="s">
         <v>114</v>
       </c>
-      <c r="S8" s="147"/>
-      <c r="T8" s="147"/>
-      <c r="U8" s="147"/>
-      <c r="V8" s="148"/>
+      <c r="S8" s="135"/>
+      <c r="T8" s="135"/>
+      <c r="U8" s="135"/>
+      <c r="V8" s="136"/>
     </row>
     <row r="9" spans="2:22" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="149" t="s">
+      <c r="C9" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="149" t="s">
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="150"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="149" t="s">
+      <c r="I9" s="156"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="156"/>
+      <c r="L9" s="157"/>
+      <c r="M9" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="150"/>
-      <c r="O9" s="150"/>
-      <c r="P9" s="150"/>
-      <c r="Q9" s="151"/>
-      <c r="R9" s="149" t="s">
+      <c r="N9" s="156"/>
+      <c r="O9" s="156"/>
+      <c r="P9" s="156"/>
+      <c r="Q9" s="157"/>
+      <c r="R9" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="150"/>
-      <c r="T9" s="150"/>
-      <c r="U9" s="150"/>
-      <c r="V9" s="151"/>
+      <c r="S9" s="156"/>
+      <c r="T9" s="156"/>
+      <c r="U9" s="156"/>
+      <c r="V9" s="157"/>
     </row>
     <row r="11" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="154" t="s">
+      <c r="C12" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="154" t="s">
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="155"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="155"/>
-      <c r="L12" s="156"/>
-      <c r="M12" s="154" t="s">
+      <c r="I12" s="144"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="145"/>
+      <c r="M12" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="155"/>
-      <c r="O12" s="155"/>
-      <c r="P12" s="155"/>
-      <c r="Q12" s="156"/>
+      <c r="N12" s="144"/>
+      <c r="O12" s="144"/>
+      <c r="P12" s="144"/>
+      <c r="Q12" s="145"/>
       <c r="S12" s="113">
         <v>2.1</v>
       </c>
@@ -4022,27 +4023,27 @@
       <c r="B13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="134" t="s">
+      <c r="C13" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="134" t="s">
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="135"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="137" t="s">
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="141"/>
+      <c r="L13" s="142"/>
+      <c r="M13" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="N13" s="138"/>
-      <c r="O13" s="138"/>
-      <c r="P13" s="138"/>
-      <c r="Q13" s="139"/>
+      <c r="N13" s="161"/>
+      <c r="O13" s="161"/>
+      <c r="P13" s="161"/>
+      <c r="Q13" s="162"/>
       <c r="S13" s="116">
         <v>1.8</v>
       </c>
@@ -4123,7 +4124,7 @@
       <c r="U14" s="118">
         <v>1</v>
       </c>
-      <c r="V14" s="152"/>
+      <c r="V14" s="158"/>
     </row>
     <row r="15" spans="2:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
@@ -4193,7 +4194,7 @@
         <v>1</v>
       </c>
       <c r="U15" s="118"/>
-      <c r="V15" s="152"/>
+      <c r="V15" s="158"/>
     </row>
     <row r="16" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
@@ -4319,106 +4320,106 @@
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="146" t="s">
+      <c r="C18" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="146" t="s">
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="147"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="146" t="s">
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="147"/>
-      <c r="O18" s="147"/>
-      <c r="P18" s="147"/>
-      <c r="Q18" s="148"/>
+      <c r="N18" s="135"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="136"/>
     </row>
     <row r="19" spans="2:17" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="149" t="s">
+      <c r="C19" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="149" t="s">
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="150"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="150"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="149" t="s">
+      <c r="I19" s="156"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="156"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="150"/>
-      <c r="O19" s="150"/>
-      <c r="P19" s="150"/>
-      <c r="Q19" s="151"/>
+      <c r="N19" s="156"/>
+      <c r="O19" s="156"/>
+      <c r="P19" s="156"/>
+      <c r="Q19" s="157"/>
     </row>
     <row r="21" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="143" t="s">
+      <c r="C22" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="144"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="143" t="s">
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="144"/>
-      <c r="J22" s="144"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="145"/>
-      <c r="M22" s="143" t="s">
+      <c r="I22" s="153"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="144"/>
-      <c r="O22" s="144"/>
-      <c r="P22" s="144"/>
-      <c r="Q22" s="145"/>
+      <c r="N22" s="153"/>
+      <c r="O22" s="153"/>
+      <c r="P22" s="153"/>
+      <c r="Q22" s="154"/>
     </row>
     <row r="23" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="140" t="s">
+      <c r="C23" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="134" t="s">
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="135"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="135"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="137" t="s">
+      <c r="I23" s="141"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="142"/>
+      <c r="M23" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="138"/>
-      <c r="O23" s="138"/>
-      <c r="P23" s="138"/>
-      <c r="Q23" s="139"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="161"/>
+      <c r="P23" s="161"/>
+      <c r="Q23" s="162"/>
     </row>
     <row r="24" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
@@ -4663,92 +4664,92 @@
       <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="146" t="s">
+      <c r="C28" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="146" t="s">
+      <c r="D28" s="135"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="147"/>
-      <c r="J28" s="147"/>
-      <c r="K28" s="147"/>
-      <c r="L28" s="148"/>
-      <c r="M28" s="146" t="s">
+      <c r="I28" s="135"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="135"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="147"/>
-      <c r="O28" s="147"/>
-      <c r="P28" s="147"/>
-      <c r="Q28" s="148"/>
+      <c r="N28" s="135"/>
+      <c r="O28" s="135"/>
+      <c r="P28" s="135"/>
+      <c r="Q28" s="136"/>
     </row>
     <row r="29" spans="2:17" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="149" t="s">
+      <c r="C29" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="150"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="149" t="s">
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="149" t="s">
+      <c r="I29" s="156"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="156"/>
+      <c r="L29" s="157"/>
+      <c r="M29" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="N29" s="150"/>
-      <c r="O29" s="150"/>
-      <c r="P29" s="150"/>
-      <c r="Q29" s="151"/>
+      <c r="N29" s="156"/>
+      <c r="O29" s="156"/>
+      <c r="P29" s="156"/>
+      <c r="Q29" s="157"/>
     </row>
     <row r="31" spans="2:17" s="13" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="154" t="s">
+      <c r="C32" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="155"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="154" t="s">
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="155"/>
-      <c r="J32" s="155"/>
-      <c r="K32" s="155"/>
-      <c r="L32" s="156"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="144"/>
+      <c r="L32" s="145"/>
     </row>
     <row r="33" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="140" t="s">
+      <c r="C33" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="134" t="s">
+      <c r="D33" s="138"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="135"/>
-      <c r="J33" s="135"/>
-      <c r="K33" s="135"/>
-      <c r="L33" s="136"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="141"/>
+      <c r="L33" s="142"/>
     </row>
     <row r="34" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
@@ -4920,39 +4921,39 @@
       <c r="B38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="146" t="s">
+      <c r="C38" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="147"/>
-      <c r="E38" s="147"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="146" t="s">
+      <c r="D38" s="135"/>
+      <c r="E38" s="135"/>
+      <c r="F38" s="135"/>
+      <c r="G38" s="136"/>
+      <c r="H38" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="147"/>
-      <c r="J38" s="147"/>
-      <c r="K38" s="147"/>
-      <c r="L38" s="148"/>
+      <c r="I38" s="135"/>
+      <c r="J38" s="135"/>
+      <c r="K38" s="135"/>
+      <c r="L38" s="136"/>
     </row>
     <row r="39" spans="2:17" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="149" t="s">
+      <c r="C39" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="149" t="s">
+      <c r="D39" s="156"/>
+      <c r="E39" s="156"/>
+      <c r="F39" s="156"/>
+      <c r="G39" s="157"/>
+      <c r="H39" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="151"/>
+      <c r="I39" s="156"/>
+      <c r="J39" s="156"/>
+      <c r="K39" s="156"/>
+      <c r="L39" s="157"/>
       <c r="M39" s="26"/>
       <c r="N39" s="26"/>
       <c r="O39" s="26"/>
@@ -4961,31 +4962,14 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C18:G18"/>
     <mergeCell ref="C39:G39"/>
     <mergeCell ref="H39:L39"/>
     <mergeCell ref="V14:V15"/>
@@ -5002,14 +4986,31 @@
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5032,34 +5033,34 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="154" t="s">
+      <c r="C2" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="154" t="s">
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="154" t="s">
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="155" t="s">
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
-      <c r="U2" s="155"/>
-      <c r="V2" s="156"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="144"/>
+      <c r="U2" s="144"/>
+      <c r="V2" s="145"/>
       <c r="W2" s="122"/>
       <c r="X2" s="122"/>
       <c r="Y2" s="122"/>
@@ -5086,34 +5087,34 @@
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="160" t="s">
+      <c r="C3" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="157" t="s">
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="160" t="s">
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="162"/>
-      <c r="R3" s="157" t="s">
+      <c r="N3" s="147"/>
+      <c r="O3" s="147"/>
+      <c r="P3" s="147"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="158"/>
-      <c r="T3" s="158"/>
-      <c r="U3" s="158"/>
-      <c r="V3" s="159"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="151"/>
       <c r="W3" s="122"/>
       <c r="X3" s="122"/>
       <c r="Y3" s="122"/>
@@ -5536,34 +5537,34 @@
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="146" t="s">
+      <c r="C8" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="146" t="s">
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="147"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="147"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="146" t="s">
+      <c r="I8" s="135"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="135"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="147"/>
-      <c r="O8" s="147"/>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="148"/>
-      <c r="R8" s="146" t="s">
+      <c r="N8" s="135"/>
+      <c r="O8" s="135"/>
+      <c r="P8" s="135"/>
+      <c r="Q8" s="136"/>
+      <c r="R8" s="134" t="s">
         <v>114</v>
       </c>
-      <c r="S8" s="147"/>
-      <c r="T8" s="147"/>
-      <c r="U8" s="147"/>
-      <c r="V8" s="148"/>
+      <c r="S8" s="135"/>
+      <c r="T8" s="135"/>
+      <c r="U8" s="135"/>
+      <c r="V8" s="136"/>
       <c r="W8" s="122"/>
       <c r="X8" s="122"/>
       <c r="Y8" s="122"/>
@@ -5590,34 +5591,34 @@
       <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="149" t="s">
+      <c r="C9" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="149" t="s">
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="150"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="149" t="s">
+      <c r="I9" s="156"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="156"/>
+      <c r="L9" s="157"/>
+      <c r="M9" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="150"/>
-      <c r="O9" s="150"/>
-      <c r="P9" s="150"/>
-      <c r="Q9" s="151"/>
-      <c r="R9" s="149" t="s">
+      <c r="N9" s="156"/>
+      <c r="O9" s="156"/>
+      <c r="P9" s="156"/>
+      <c r="Q9" s="157"/>
+      <c r="R9" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="150"/>
-      <c r="T9" s="150"/>
-      <c r="U9" s="150"/>
-      <c r="V9" s="151"/>
+      <c r="S9" s="156"/>
+      <c r="T9" s="156"/>
+      <c r="U9" s="156"/>
+      <c r="V9" s="157"/>
       <c r="W9" s="122"/>
       <c r="X9" s="122"/>
       <c r="Y9" s="122"/>
@@ -5732,27 +5733,27 @@
       <c r="B12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="154" t="s">
+      <c r="C12" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="154" t="s">
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="155"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="155"/>
-      <c r="L12" s="156"/>
-      <c r="M12" s="154" t="s">
+      <c r="I12" s="144"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="145"/>
+      <c r="M12" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="155"/>
-      <c r="O12" s="155"/>
-      <c r="P12" s="155"/>
-      <c r="Q12" s="156"/>
+      <c r="N12" s="144"/>
+      <c r="O12" s="144"/>
+      <c r="P12" s="144"/>
+      <c r="Q12" s="145"/>
       <c r="R12" s="122"/>
       <c r="S12" s="113">
         <v>2.1</v>
@@ -5790,27 +5791,27 @@
       <c r="B13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="134" t="s">
+      <c r="C13" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="134" t="s">
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="135"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="137" t="s">
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="141"/>
+      <c r="L13" s="142"/>
+      <c r="M13" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="N13" s="138"/>
-      <c r="O13" s="138"/>
-      <c r="P13" s="138"/>
-      <c r="Q13" s="139"/>
+      <c r="N13" s="161"/>
+      <c r="O13" s="161"/>
+      <c r="P13" s="161"/>
+      <c r="Q13" s="162"/>
       <c r="R13" s="122"/>
       <c r="S13" s="116">
         <v>1.8</v>
@@ -5915,7 +5916,7 @@
       <c r="U14" s="118">
         <v>1</v>
       </c>
-      <c r="V14" s="152"/>
+      <c r="V14" s="158"/>
       <c r="W14" s="122"/>
       <c r="X14" s="122"/>
       <c r="Y14" s="122"/>
@@ -6007,7 +6008,7 @@
         <v>1</v>
       </c>
       <c r="U15" s="118"/>
-      <c r="V15" s="152"/>
+      <c r="V15" s="158"/>
       <c r="W15" s="122"/>
       <c r="X15" s="122"/>
       <c r="Y15" s="122"/>
@@ -6203,27 +6204,27 @@
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="146" t="s">
+      <c r="C18" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="146" t="s">
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="147"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="146" t="s">
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="147"/>
-      <c r="O18" s="147"/>
-      <c r="P18" s="147"/>
-      <c r="Q18" s="148"/>
+      <c r="N18" s="135"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="136"/>
       <c r="R18" s="122"/>
       <c r="S18" s="122"/>
       <c r="T18" s="122"/>
@@ -6255,27 +6256,27 @@
       <c r="B19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="149" t="s">
+      <c r="C19" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="149" t="s">
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="150"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="150"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="149" t="s">
+      <c r="I19" s="156"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="156"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="150"/>
-      <c r="O19" s="150"/>
-      <c r="P19" s="150"/>
-      <c r="Q19" s="151"/>
+      <c r="N19" s="156"/>
+      <c r="O19" s="156"/>
+      <c r="P19" s="156"/>
+      <c r="Q19" s="157"/>
       <c r="R19" s="122"/>
       <c r="S19" s="122"/>
       <c r="T19" s="122"/>
@@ -6395,27 +6396,27 @@
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="143" t="s">
+      <c r="C22" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="144"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="143" t="s">
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="144"/>
-      <c r="J22" s="144"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="145"/>
-      <c r="M22" s="143" t="s">
+      <c r="I22" s="153"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="144"/>
-      <c r="O22" s="144"/>
-      <c r="P22" s="144"/>
-      <c r="Q22" s="145"/>
+      <c r="N22" s="153"/>
+      <c r="O22" s="153"/>
+      <c r="P22" s="153"/>
+      <c r="Q22" s="154"/>
       <c r="R22" s="122"/>
       <c r="S22" s="122"/>
       <c r="T22" s="122"/>
@@ -6447,27 +6448,27 @@
       <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="140" t="s">
+      <c r="C23" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="134" t="s">
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="135"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="135"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="137" t="s">
+      <c r="I23" s="141"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="142"/>
+      <c r="M23" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="138"/>
-      <c r="O23" s="138"/>
-      <c r="P23" s="138"/>
-      <c r="Q23" s="139"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="161"/>
+      <c r="P23" s="161"/>
+      <c r="Q23" s="162"/>
       <c r="R23" s="122"/>
       <c r="S23" s="122"/>
       <c r="T23" s="122"/>
@@ -6842,27 +6843,27 @@
       <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="146" t="s">
+      <c r="C28" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="146" t="s">
+      <c r="D28" s="135"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="147"/>
-      <c r="J28" s="147"/>
-      <c r="K28" s="147"/>
-      <c r="L28" s="148"/>
-      <c r="M28" s="146" t="s">
+      <c r="I28" s="135"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="135"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="147"/>
-      <c r="O28" s="147"/>
-      <c r="P28" s="147"/>
-      <c r="Q28" s="148"/>
+      <c r="N28" s="135"/>
+      <c r="O28" s="135"/>
+      <c r="P28" s="135"/>
+      <c r="Q28" s="136"/>
       <c r="R28" s="122"/>
       <c r="S28" s="122"/>
       <c r="T28" s="122"/>
@@ -6894,27 +6895,27 @@
       <c r="B29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="149" t="s">
+      <c r="C29" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="150"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="149" t="s">
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="149" t="s">
+      <c r="I29" s="156"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="156"/>
+      <c r="L29" s="157"/>
+      <c r="M29" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="N29" s="150"/>
-      <c r="O29" s="150"/>
-      <c r="P29" s="150"/>
-      <c r="Q29" s="151"/>
+      <c r="N29" s="156"/>
+      <c r="O29" s="156"/>
+      <c r="P29" s="156"/>
+      <c r="Q29" s="157"/>
       <c r="R29" s="122"/>
       <c r="S29" s="122"/>
       <c r="T29" s="122"/>
@@ -7034,20 +7035,20 @@
       <c r="B32" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="154" t="s">
+      <c r="C32" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="155"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="154" t="s">
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="155"/>
-      <c r="J32" s="155"/>
-      <c r="K32" s="155"/>
-      <c r="L32" s="156"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="144"/>
+      <c r="L32" s="145"/>
       <c r="M32" s="122"/>
       <c r="N32" s="122"/>
       <c r="O32" s="122"/>
@@ -7084,20 +7085,20 @@
       <c r="B33" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="140" t="s">
+      <c r="C33" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="134" t="s">
+      <c r="D33" s="138"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="135"/>
-      <c r="J33" s="135"/>
-      <c r="K33" s="135"/>
-      <c r="L33" s="136"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="141"/>
+      <c r="L33" s="142"/>
       <c r="M33" s="122"/>
       <c r="N33" s="122"/>
       <c r="O33" s="122"/>
@@ -7424,20 +7425,20 @@
       <c r="B38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="146" t="s">
+      <c r="C38" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="147"/>
-      <c r="E38" s="147"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="146" t="s">
+      <c r="D38" s="135"/>
+      <c r="E38" s="135"/>
+      <c r="F38" s="135"/>
+      <c r="G38" s="136"/>
+      <c r="H38" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="147"/>
-      <c r="J38" s="147"/>
-      <c r="K38" s="147"/>
-      <c r="L38" s="148"/>
+      <c r="I38" s="135"/>
+      <c r="J38" s="135"/>
+      <c r="K38" s="135"/>
+      <c r="L38" s="136"/>
       <c r="M38" s="122"/>
       <c r="N38" s="122"/>
       <c r="O38" s="122"/>
@@ -7474,20 +7475,20 @@
       <c r="B39" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="149" t="s">
+      <c r="C39" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="149" t="s">
+      <c r="D39" s="156"/>
+      <c r="E39" s="156"/>
+      <c r="F39" s="156"/>
+      <c r="G39" s="157"/>
+      <c r="H39" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="151"/>
+      <c r="I39" s="156"/>
+      <c r="J39" s="156"/>
+      <c r="K39" s="156"/>
+      <c r="L39" s="157"/>
       <c r="M39" s="26"/>
       <c r="N39" s="26"/>
       <c r="O39" s="26"/>
@@ -7522,6 +7523,47 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="M29:Q29"/>
     <mergeCell ref="C39:G39"/>
     <mergeCell ref="H39:L39"/>
     <mergeCell ref="C32:G32"/>
@@ -7530,47 +7572,6 @@
     <mergeCell ref="H33:L33"/>
     <mergeCell ref="C38:G38"/>
     <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:V3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7605,11 +7606,11 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
       <c r="F2" s="36"/>
@@ -7619,9 +7620,9 @@
       <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="187"/>
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
       <c r="D3" s="38"/>
       <c r="E3" s="39" t="s">
         <v>44</v>
@@ -7663,11 +7664,11 @@
       <c r="J4" s="43"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="195" t="s">
+      <c r="A5" s="173" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="195"/>
-      <c r="C5" s="195"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="38"/>
       <c r="E5" s="46" t="s">
         <v>50</v>
@@ -7687,9 +7688,9 @@
       <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="195"/>
-      <c r="B6" s="195"/>
-      <c r="C6" s="195"/>
+      <c r="A6" s="173"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="173"/>
       <c r="D6" s="38"/>
       <c r="E6" s="46" t="s">
         <v>51</v>
@@ -7709,9 +7710,9 @@
       <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="195"/>
-      <c r="B7" s="195"/>
-      <c r="C7" s="195"/>
+      <c r="A7" s="173"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="38"/>
       <c r="E7" s="46" t="s">
         <v>52</v>
@@ -7815,11 +7816,11 @@
       <c r="B12" s="63">
         <v>35</v>
       </c>
-      <c r="C12" s="193" t="s">
+      <c r="C12" s="171" t="s">
         <v>58</v>
       </c>
       <c r="D12" s="38"/>
-      <c r="E12" s="191" t="s">
+      <c r="E12" s="169" t="s">
         <v>56</v>
       </c>
       <c r="F12" s="64" t="s">
@@ -7843,9 +7844,9 @@
       <c r="B13" s="66">
         <v>5</v>
       </c>
-      <c r="C13" s="194"/>
+      <c r="C13" s="172"/>
       <c r="D13" s="38"/>
-      <c r="E13" s="192"/>
+      <c r="E13" s="170"/>
       <c r="F13" s="67" t="s">
         <v>59</v>
       </c>
@@ -7880,11 +7881,11 @@
       <c r="B15" s="72">
         <v>44</v>
       </c>
-      <c r="C15" s="193" t="s">
+      <c r="C15" s="171" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="38"/>
-      <c r="E15" s="177" t="s">
+      <c r="E15" s="167" t="s">
         <v>62</v>
       </c>
       <c r="F15" s="64" t="s">
@@ -7909,9 +7910,9 @@
       <c r="B16" s="74">
         <v>9</v>
       </c>
-      <c r="C16" s="194"/>
+      <c r="C16" s="172"/>
       <c r="D16" s="38"/>
-      <c r="E16" s="178"/>
+      <c r="E16" s="168"/>
       <c r="F16" s="67" t="s">
         <v>59</v>
       </c>
@@ -7947,11 +7948,11 @@
       <c r="B18" s="77">
         <v>68</v>
       </c>
-      <c r="C18" s="193" t="s">
+      <c r="C18" s="171" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="38"/>
-      <c r="E18" s="177" t="s">
+      <c r="E18" s="167" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="64" t="s">
@@ -7976,9 +7977,9 @@
       <c r="B19" s="74">
         <v>29</v>
       </c>
-      <c r="C19" s="194"/>
+      <c r="C19" s="172"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="178"/>
+      <c r="E19" s="168"/>
       <c r="F19" s="67" t="s">
         <v>59</v>
       </c>
@@ -8012,11 +8013,11 @@
       <c r="B21" s="72">
         <v>92</v>
       </c>
-      <c r="C21" s="193" t="s">
+      <c r="C21" s="171" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="38"/>
-      <c r="E21" s="177" t="s">
+      <c r="E21" s="167" t="s">
         <v>69</v>
       </c>
       <c r="F21" s="64" t="s">
@@ -8041,9 +8042,9 @@
       <c r="B22" s="74">
         <v>80</v>
       </c>
-      <c r="C22" s="194"/>
+      <c r="C22" s="172"/>
       <c r="D22" s="38"/>
-      <c r="E22" s="178"/>
+      <c r="E22" s="168"/>
       <c r="F22" s="67" t="s">
         <v>59</v>
       </c>
@@ -8099,11 +8100,11 @@
       <c r="J25" s="38"/>
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="185" t="s">
+      <c r="A26" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="186"/>
-      <c r="C26" s="186"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="164"/>
       <c r="D26" s="36"/>
       <c r="E26" s="36"/>
       <c r="F26" s="36"/>
@@ -8120,9 +8121,9 @@
       <c r="K26" s="87"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="187"/>
-      <c r="B27" s="188"/>
-      <c r="C27" s="188"/>
+      <c r="A27" s="165"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="166"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39" t="s">
         <v>44</v>
@@ -8174,11 +8175,11 @@
       <c r="K28" s="89"/>
     </row>
     <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="189" t="s">
+      <c r="A29" s="174" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="164"/>
-      <c r="C29" s="164"/>
+      <c r="B29" s="175"/>
+      <c r="C29" s="175"/>
       <c r="D29" s="38"/>
       <c r="E29" s="46" t="s">
         <v>50</v>
@@ -8204,9 +8205,9 @@
       <c r="K29" s="89"/>
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="190"/>
-      <c r="B30" s="164"/>
-      <c r="C30" s="164"/>
+      <c r="A30" s="176"/>
+      <c r="B30" s="175"/>
+      <c r="C30" s="175"/>
       <c r="D30" s="38"/>
       <c r="E30" s="46" t="s">
         <v>51</v>
@@ -8221,16 +8222,16 @@
       <c r="I30" s="31"/>
       <c r="J30" s="99"/>
       <c r="K30" s="89"/>
-      <c r="M30" s="137" t="s">
+      <c r="M30" s="160" t="s">
         <v>72</v>
       </c>
-      <c r="N30" s="138"/>
-      <c r="O30" s="139"/>
+      <c r="N30" s="161"/>
+      <c r="O30" s="162"/>
     </row>
     <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="190"/>
-      <c r="B31" s="164"/>
-      <c r="C31" s="164"/>
+      <c r="A31" s="176"/>
+      <c r="B31" s="175"/>
+      <c r="C31" s="175"/>
       <c r="D31" s="38"/>
       <c r="E31" s="46" t="s">
         <v>52</v>
@@ -8254,11 +8255,11 @@
         <v>18</v>
       </c>
       <c r="K31" s="89"/>
-      <c r="M31" s="163" t="s">
+      <c r="M31" s="183" t="s">
         <v>182</v>
       </c>
-      <c r="N31" s="170"/>
-      <c r="O31" s="171"/>
+      <c r="N31" s="184"/>
+      <c r="O31" s="185"/>
     </row>
     <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="90"/>
@@ -8278,9 +8279,9 @@
       <c r="I32" s="32"/>
       <c r="J32" s="102"/>
       <c r="K32" s="89"/>
-      <c r="M32" s="163"/>
-      <c r="N32" s="170"/>
-      <c r="O32" s="171"/>
+      <c r="M32" s="183"/>
+      <c r="N32" s="184"/>
+      <c r="O32" s="185"/>
     </row>
     <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
@@ -8300,9 +8301,9 @@
       <c r="I33" s="38"/>
       <c r="J33" s="38"/>
       <c r="K33" s="89"/>
-      <c r="M33" s="163"/>
-      <c r="N33" s="170"/>
-      <c r="O33" s="171"/>
+      <c r="M33" s="183"/>
+      <c r="N33" s="184"/>
+      <c r="O33" s="185"/>
     </row>
     <row r="34" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="91">
@@ -8311,9 +8312,9 @@
       <c r="B34" s="92">
         <v>140</v>
       </c>
-      <c r="C34" s="179"/>
+      <c r="C34" s="177"/>
       <c r="D34" s="38"/>
-      <c r="E34" s="177" t="s">
+      <c r="E34" s="167" t="s">
         <v>74</v>
       </c>
       <c r="F34" s="93" t="s">
@@ -8332,9 +8333,9 @@
         <v>4</v>
       </c>
       <c r="K34" s="89"/>
-      <c r="M34" s="172"/>
-      <c r="N34" s="173"/>
-      <c r="O34" s="174"/>
+      <c r="M34" s="186"/>
+      <c r="N34" s="187"/>
+      <c r="O34" s="188"/>
     </row>
     <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="94">
@@ -8343,9 +8344,9 @@
       <c r="B35" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="180"/>
+      <c r="C35" s="178"/>
       <c r="D35" s="38"/>
-      <c r="E35" s="178"/>
+      <c r="E35" s="168"/>
       <c r="F35" s="67" t="s">
         <v>59</v>
       </c>
@@ -8375,11 +8376,11 @@
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
       <c r="K36" s="89"/>
-      <c r="M36" s="137" t="s">
+      <c r="M36" s="160" t="s">
         <v>131</v>
       </c>
-      <c r="N36" s="138"/>
-      <c r="O36" s="139"/>
+      <c r="N36" s="161"/>
+      <c r="O36" s="162"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="91">
@@ -8388,9 +8389,9 @@
       <c r="B37" s="92">
         <v>166</v>
       </c>
-      <c r="C37" s="175"/>
+      <c r="C37" s="179"/>
       <c r="D37" s="38"/>
-      <c r="E37" s="177" t="s">
+      <c r="E37" s="167" t="s">
         <v>80</v>
       </c>
       <c r="F37" s="93" t="s">
@@ -8409,11 +8410,11 @@
         <v>4</v>
       </c>
       <c r="K37" s="89"/>
-      <c r="M37" s="163" t="s">
+      <c r="M37" s="183" t="s">
         <v>183</v>
       </c>
-      <c r="N37" s="164"/>
-      <c r="O37" s="165"/>
+      <c r="N37" s="175"/>
+      <c r="O37" s="191"/>
     </row>
     <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="s">
@@ -8422,9 +8423,9 @@
       <c r="B38" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="176"/>
+      <c r="C38" s="180"/>
       <c r="D38" s="38"/>
-      <c r="E38" s="178"/>
+      <c r="E38" s="168"/>
       <c r="F38" s="67" t="s">
         <v>59</v>
       </c>
@@ -8441,9 +8442,9 @@
         <v>79</v>
       </c>
       <c r="K38" s="89"/>
-      <c r="M38" s="166"/>
-      <c r="N38" s="164"/>
-      <c r="O38" s="165"/>
+      <c r="M38" s="192"/>
+      <c r="N38" s="175"/>
+      <c r="O38" s="191"/>
     </row>
     <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
@@ -8459,9 +8460,9 @@
       <c r="I39" s="38"/>
       <c r="J39" s="38"/>
       <c r="K39" s="89"/>
-      <c r="M39" s="166"/>
-      <c r="N39" s="164"/>
-      <c r="O39" s="165"/>
+      <c r="M39" s="192"/>
+      <c r="N39" s="175"/>
+      <c r="O39" s="191"/>
     </row>
     <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="91">
@@ -8470,11 +8471,11 @@
       <c r="B40" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="179" t="s">
+      <c r="C40" s="177" t="s">
         <v>146</v>
       </c>
       <c r="D40" s="38"/>
-      <c r="E40" s="177" t="s">
+      <c r="E40" s="167" t="s">
         <v>81</v>
       </c>
       <c r="F40" s="93" t="s">
@@ -8486,14 +8487,14 @@
       <c r="H40" s="93">
         <v>2</v>
       </c>
-      <c r="I40" s="181">
+      <c r="I40" s="189">
         <v>3</v>
       </c>
-      <c r="J40" s="182"/>
+      <c r="J40" s="190"/>
       <c r="K40" s="89"/>
-      <c r="M40" s="167"/>
-      <c r="N40" s="168"/>
-      <c r="O40" s="169"/>
+      <c r="M40" s="193"/>
+      <c r="N40" s="194"/>
+      <c r="O40" s="195"/>
     </row>
     <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="94" t="s">
@@ -8502,9 +8503,9 @@
       <c r="B41" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="180"/>
+      <c r="C41" s="178"/>
       <c r="D41" s="38"/>
-      <c r="E41" s="178"/>
+      <c r="E41" s="168"/>
       <c r="F41" s="67" t="s">
         <v>59</v>
       </c>
@@ -8514,10 +8515,10 @@
       <c r="H41" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="I41" s="183" t="s">
+      <c r="I41" s="181" t="s">
         <v>141</v>
       </c>
-      <c r="J41" s="184"/>
+      <c r="J41" s="182"/>
       <c r="K41" s="89"/>
     </row>
     <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -8537,11 +8538,11 @@
     </row>
     <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="185" t="s">
+      <c r="A45" s="163" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="186"/>
-      <c r="C45" s="186"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="164"/>
       <c r="D45" s="36"/>
       <c r="E45" s="36"/>
       <c r="F45" s="36"/>
@@ -8559,9 +8560,9 @@
       <c r="K45" s="87"/>
     </row>
     <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="187"/>
-      <c r="B46" s="188"/>
-      <c r="C46" s="188"/>
+      <c r="A46" s="165"/>
+      <c r="B46" s="166"/>
+      <c r="C46" s="166"/>
       <c r="D46" s="107"/>
       <c r="E46" s="39" t="s">
         <v>44</v>
@@ -8582,11 +8583,11 @@
         <v>72</v>
       </c>
       <c r="K46" s="89"/>
-      <c r="M46" s="137" t="s">
+      <c r="M46" s="160" t="s">
         <v>132</v>
       </c>
-      <c r="N46" s="138"/>
-      <c r="O46" s="139"/>
+      <c r="N46" s="161"/>
+      <c r="O46" s="162"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="108"/>
@@ -8615,18 +8616,18 @@
         <v>462.5</v>
       </c>
       <c r="K47" s="89"/>
-      <c r="M47" s="163" t="s">
+      <c r="M47" s="183" t="s">
         <v>184</v>
       </c>
-      <c r="N47" s="164"/>
-      <c r="O47" s="165"/>
+      <c r="N47" s="175"/>
+      <c r="O47" s="191"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="189" t="s">
+      <c r="A48" s="174" t="s">
         <v>161</v>
       </c>
-      <c r="B48" s="164"/>
-      <c r="C48" s="164"/>
+      <c r="B48" s="175"/>
+      <c r="C48" s="175"/>
       <c r="D48" s="107"/>
       <c r="E48" s="46" t="s">
         <v>50</v>
@@ -8650,14 +8651,14 @@
         <v>21.25</v>
       </c>
       <c r="K48" s="89"/>
-      <c r="M48" s="166"/>
-      <c r="N48" s="164"/>
-      <c r="O48" s="165"/>
+      <c r="M48" s="192"/>
+      <c r="N48" s="175"/>
+      <c r="O48" s="191"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="190"/>
-      <c r="B49" s="164"/>
-      <c r="C49" s="164"/>
+      <c r="A49" s="176"/>
+      <c r="B49" s="175"/>
+      <c r="C49" s="175"/>
       <c r="D49" s="107"/>
       <c r="E49" s="46" t="s">
         <v>51</v>
@@ -8672,14 +8673,14 @@
       <c r="I49" s="110"/>
       <c r="J49" s="109"/>
       <c r="K49" s="89"/>
-      <c r="M49" s="166"/>
-      <c r="N49" s="164"/>
-      <c r="O49" s="165"/>
+      <c r="M49" s="192"/>
+      <c r="N49" s="175"/>
+      <c r="O49" s="191"/>
     </row>
     <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="190"/>
-      <c r="B50" s="164"/>
-      <c r="C50" s="164"/>
+      <c r="A50" s="176"/>
+      <c r="B50" s="175"/>
+      <c r="C50" s="175"/>
       <c r="D50" s="107"/>
       <c r="E50" s="46" t="s">
         <v>52</v>
@@ -8703,9 +8704,9 @@
         <v>42.5</v>
       </c>
       <c r="K50" s="89"/>
-      <c r="M50" s="167"/>
-      <c r="N50" s="168"/>
-      <c r="O50" s="169"/>
+      <c r="M50" s="193"/>
+      <c r="N50" s="194"/>
+      <c r="O50" s="195"/>
     </row>
     <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="90"/>
@@ -8752,9 +8753,9 @@
       <c r="B53" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="179"/>
+      <c r="C53" s="177"/>
       <c r="D53" s="107"/>
-      <c r="E53" s="177" t="s">
+      <c r="E53" s="167" t="s">
         <v>74</v>
       </c>
       <c r="F53" s="93" t="s">
@@ -8773,11 +8774,11 @@
         <v>4</v>
       </c>
       <c r="K53" s="89"/>
-      <c r="M53" s="137" t="s">
+      <c r="M53" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="N53" s="138"/>
-      <c r="O53" s="139"/>
+      <c r="N53" s="161"/>
+      <c r="O53" s="162"/>
     </row>
     <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="94" t="s">
@@ -8786,9 +8787,9 @@
       <c r="B54" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="180"/>
+      <c r="C54" s="178"/>
       <c r="D54" s="107"/>
-      <c r="E54" s="178"/>
+      <c r="E54" s="168"/>
       <c r="F54" s="67" t="s">
         <v>59</v>
       </c>
@@ -8805,11 +8806,11 @@
         <v>135</v>
       </c>
       <c r="K54" s="89"/>
-      <c r="M54" s="163" t="s">
+      <c r="M54" s="183" t="s">
         <v>185</v>
       </c>
-      <c r="N54" s="164"/>
-      <c r="O54" s="165"/>
+      <c r="N54" s="175"/>
+      <c r="O54" s="191"/>
     </row>
     <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="108" t="s">
@@ -8825,9 +8826,9 @@
       <c r="I55" s="107"/>
       <c r="J55" s="107"/>
       <c r="K55" s="89"/>
-      <c r="M55" s="166"/>
-      <c r="N55" s="164"/>
-      <c r="O55" s="165"/>
+      <c r="M55" s="192"/>
+      <c r="N55" s="175"/>
+      <c r="O55" s="191"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="91">
@@ -8836,9 +8837,9 @@
       <c r="B56" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="175"/>
+      <c r="C56" s="179"/>
       <c r="D56" s="107"/>
-      <c r="E56" s="177" t="s">
+      <c r="E56" s="167" t="s">
         <v>80</v>
       </c>
       <c r="F56" s="93" t="s">
@@ -8857,9 +8858,9 @@
         <v>4</v>
       </c>
       <c r="K56" s="89"/>
-      <c r="M56" s="166"/>
-      <c r="N56" s="164"/>
-      <c r="O56" s="165"/>
+      <c r="M56" s="192"/>
+      <c r="N56" s="175"/>
+      <c r="O56" s="191"/>
     </row>
     <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="94" t="s">
@@ -8868,9 +8869,9 @@
       <c r="B57" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="C57" s="176"/>
+      <c r="C57" s="180"/>
       <c r="D57" s="107"/>
-      <c r="E57" s="178"/>
+      <c r="E57" s="168"/>
       <c r="F57" s="67" t="s">
         <v>59</v>
       </c>
@@ -8887,9 +8888,9 @@
         <v>138</v>
       </c>
       <c r="K57" s="89"/>
-      <c r="M57" s="167"/>
-      <c r="N57" s="168"/>
-      <c r="O57" s="169"/>
+      <c r="M57" s="193"/>
+      <c r="N57" s="194"/>
+      <c r="O57" s="195"/>
     </row>
     <row r="58" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="108" t="s">
@@ -8913,11 +8914,11 @@
       <c r="B59" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="C59" s="179" t="s">
+      <c r="C59" s="177" t="s">
         <v>179</v>
       </c>
       <c r="D59" s="107"/>
-      <c r="E59" s="177" t="s">
+      <c r="E59" s="167" t="s">
         <v>81</v>
       </c>
       <c r="F59" s="93" t="s">
@@ -8929,10 +8930,10 @@
       <c r="H59" s="93">
         <v>2</v>
       </c>
-      <c r="I59" s="181">
+      <c r="I59" s="189">
         <v>3</v>
       </c>
-      <c r="J59" s="182"/>
+      <c r="J59" s="190"/>
       <c r="K59" s="89"/>
     </row>
     <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -8942,9 +8943,9 @@
       <c r="B60" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="C60" s="180"/>
+      <c r="C60" s="178"/>
       <c r="D60" s="107"/>
-      <c r="E60" s="178"/>
+      <c r="E60" s="168"/>
       <c r="F60" s="67" t="s">
         <v>59</v>
       </c>
@@ -8954,10 +8955,10 @@
       <c r="H60" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="I60" s="183" t="s">
+      <c r="I60" s="181" t="s">
         <v>142</v>
       </c>
-      <c r="J60" s="184"/>
+      <c r="J60" s="182"/>
       <c r="K60" s="89"/>
     </row>
     <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -8979,11 +8980,11 @@
     </row>
     <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="185" t="s">
+      <c r="A64" s="163" t="s">
         <v>160</v>
       </c>
-      <c r="B64" s="186"/>
-      <c r="C64" s="186"/>
+      <c r="B64" s="164"/>
+      <c r="C64" s="164"/>
       <c r="D64" s="36"/>
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
@@ -9002,9 +9003,9 @@
       <c r="K64" s="87"/>
     </row>
     <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="187"/>
-      <c r="B65" s="188"/>
-      <c r="C65" s="188"/>
+      <c r="A65" s="165"/>
+      <c r="B65" s="166"/>
+      <c r="C65" s="166"/>
       <c r="D65" s="107"/>
       <c r="E65" s="39" t="s">
         <v>44</v>
@@ -9053,18 +9054,18 @@
         <v>555</v>
       </c>
       <c r="K66" s="89"/>
-      <c r="M66" s="137" t="s">
+      <c r="M66" s="160" t="s">
         <v>162</v>
       </c>
-      <c r="N66" s="138"/>
-      <c r="O66" s="139"/>
+      <c r="N66" s="161"/>
+      <c r="O66" s="162"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="189" t="s">
+      <c r="A67" s="174" t="s">
         <v>181</v>
       </c>
-      <c r="B67" s="164"/>
-      <c r="C67" s="164"/>
+      <c r="B67" s="175"/>
+      <c r="C67" s="175"/>
       <c r="D67" s="107"/>
       <c r="E67" s="46" t="s">
         <v>50</v>
@@ -9088,16 +9089,16 @@
         <v>25.5</v>
       </c>
       <c r="K67" s="89"/>
-      <c r="M67" s="163" t="s">
+      <c r="M67" s="183" t="s">
         <v>186</v>
       </c>
-      <c r="N67" s="164"/>
-      <c r="O67" s="165"/>
+      <c r="N67" s="175"/>
+      <c r="O67" s="191"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="190"/>
-      <c r="B68" s="164"/>
-      <c r="C68" s="164"/>
+      <c r="A68" s="176"/>
+      <c r="B68" s="175"/>
+      <c r="C68" s="175"/>
       <c r="D68" s="107"/>
       <c r="E68" s="46" t="s">
         <v>51</v>
@@ -9112,14 +9113,14 @@
       <c r="I68" s="110"/>
       <c r="J68" s="109"/>
       <c r="K68" s="89"/>
-      <c r="M68" s="166"/>
-      <c r="N68" s="164"/>
-      <c r="O68" s="165"/>
+      <c r="M68" s="192"/>
+      <c r="N68" s="175"/>
+      <c r="O68" s="191"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="190"/>
-      <c r="B69" s="164"/>
-      <c r="C69" s="164"/>
+      <c r="A69" s="176"/>
+      <c r="B69" s="175"/>
+      <c r="C69" s="175"/>
       <c r="D69" s="107"/>
       <c r="E69" s="46" t="s">
         <v>52</v>
@@ -9143,9 +9144,9 @@
         <v>51</v>
       </c>
       <c r="K69" s="89"/>
-      <c r="M69" s="166"/>
-      <c r="N69" s="164"/>
-      <c r="O69" s="165"/>
+      <c r="M69" s="192"/>
+      <c r="N69" s="175"/>
+      <c r="O69" s="191"/>
     </row>
     <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="90"/>
@@ -9167,9 +9168,9 @@
       </c>
       <c r="J70" s="101"/>
       <c r="K70" s="89"/>
-      <c r="M70" s="167"/>
-      <c r="N70" s="168"/>
-      <c r="O70" s="169"/>
+      <c r="M70" s="193"/>
+      <c r="N70" s="194"/>
+      <c r="O70" s="195"/>
     </row>
     <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="52" t="s">
@@ -9197,9 +9198,9 @@
       <c r="B72" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="C72" s="179"/>
+      <c r="C72" s="177"/>
       <c r="D72" s="107"/>
-      <c r="E72" s="177" t="s">
+      <c r="E72" s="167" t="s">
         <v>74</v>
       </c>
       <c r="F72" s="93" t="s">
@@ -9218,11 +9219,11 @@
         <v>4</v>
       </c>
       <c r="K72" s="89"/>
-      <c r="M72" s="137" t="s">
+      <c r="M72" s="160" t="s">
         <v>159</v>
       </c>
-      <c r="N72" s="138"/>
-      <c r="O72" s="139"/>
+      <c r="N72" s="161"/>
+      <c r="O72" s="162"/>
     </row>
     <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="94" t="s">
@@ -9231,9 +9232,9 @@
       <c r="B73" s="95" t="s">
         <v>173</v>
       </c>
-      <c r="C73" s="180"/>
+      <c r="C73" s="178"/>
       <c r="D73" s="107"/>
-      <c r="E73" s="178"/>
+      <c r="E73" s="168"/>
       <c r="F73" s="67" t="s">
         <v>59</v>
       </c>
@@ -9250,11 +9251,11 @@
         <v>166</v>
       </c>
       <c r="K73" s="89"/>
-      <c r="M73" s="163" t="s">
+      <c r="M73" s="183" t="s">
         <v>188</v>
       </c>
-      <c r="N73" s="164"/>
-      <c r="O73" s="165"/>
+      <c r="N73" s="175"/>
+      <c r="O73" s="191"/>
     </row>
     <row r="74" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="108" t="s">
@@ -9270,9 +9271,9 @@
       <c r="I74" s="107"/>
       <c r="J74" s="107"/>
       <c r="K74" s="89"/>
-      <c r="M74" s="166"/>
-      <c r="N74" s="164"/>
-      <c r="O74" s="165"/>
+      <c r="M74" s="192"/>
+      <c r="N74" s="175"/>
+      <c r="O74" s="191"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="91">
@@ -9281,9 +9282,9 @@
       <c r="B75" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="C75" s="175"/>
+      <c r="C75" s="179"/>
       <c r="D75" s="107"/>
-      <c r="E75" s="177" t="s">
+      <c r="E75" s="167" t="s">
         <v>80</v>
       </c>
       <c r="F75" s="93" t="s">
@@ -9302,9 +9303,9 @@
         <v>4</v>
       </c>
       <c r="K75" s="89"/>
-      <c r="M75" s="166"/>
-      <c r="N75" s="164"/>
-      <c r="O75" s="165"/>
+      <c r="M75" s="192"/>
+      <c r="N75" s="175"/>
+      <c r="O75" s="191"/>
     </row>
     <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="94" t="s">
@@ -9313,9 +9314,9 @@
       <c r="B76" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="C76" s="176"/>
+      <c r="C76" s="180"/>
       <c r="D76" s="107"/>
-      <c r="E76" s="178"/>
+      <c r="E76" s="168"/>
       <c r="F76" s="67" t="s">
         <v>59</v>
       </c>
@@ -9332,9 +9333,9 @@
         <v>170</v>
       </c>
       <c r="K76" s="89"/>
-      <c r="M76" s="167"/>
-      <c r="N76" s="168"/>
-      <c r="O76" s="169"/>
+      <c r="M76" s="193"/>
+      <c r="N76" s="194"/>
+      <c r="O76" s="195"/>
     </row>
     <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="108" t="s">
@@ -9358,11 +9359,11 @@
       <c r="B78" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="C78" s="179" t="s">
+      <c r="C78" s="177" t="s">
         <v>194</v>
       </c>
       <c r="D78" s="107"/>
-      <c r="E78" s="177" t="s">
+      <c r="E78" s="167" t="s">
         <v>81</v>
       </c>
       <c r="F78" s="93" t="s">
@@ -9374,10 +9375,10 @@
       <c r="H78" s="93">
         <v>2</v>
       </c>
-      <c r="I78" s="181">
+      <c r="I78" s="189">
         <v>3</v>
       </c>
-      <c r="J78" s="182"/>
+      <c r="J78" s="190"/>
       <c r="K78" s="89"/>
     </row>
     <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9387,9 +9388,9 @@
       <c r="B79" s="96" t="s">
         <v>180</v>
       </c>
-      <c r="C79" s="180"/>
+      <c r="C79" s="178"/>
       <c r="D79" s="107"/>
-      <c r="E79" s="178"/>
+      <c r="E79" s="168"/>
       <c r="F79" s="67" t="s">
         <v>59</v>
       </c>
@@ -9399,10 +9400,10 @@
       <c r="H79" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="I79" s="183" t="s">
+      <c r="I79" s="181" t="s">
         <v>187</v>
       </c>
-      <c r="J79" s="184"/>
+      <c r="J79" s="182"/>
       <c r="K79" s="89"/>
     </row>
     <row r="80" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9422,32 +9423,16 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="A26:C27"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A5:C7"/>
-    <mergeCell ref="A29:C31"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="A45:C46"/>
-    <mergeCell ref="A48:C50"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="M54:O57"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="M67:O70"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="M73:O76"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M37:O40"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="M47:O50"/>
+    <mergeCell ref="M53:O53"/>
     <mergeCell ref="M30:O30"/>
     <mergeCell ref="M31:O34"/>
     <mergeCell ref="C75:C76"/>
@@ -9464,16 +9449,32 @@
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="E59:E60"/>
     <mergeCell ref="I59:J59"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M37:O40"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="M47:O50"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="M54:O57"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="M67:O70"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="M73:O76"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="A45:C46"/>
+    <mergeCell ref="A48:C50"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="A29:C31"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="A26:C27"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A5:C7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9485,8 +9486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739D2FDF-FF58-405E-A4E4-D6DDA6C3C12C}">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9498,7 +9499,7 @@
     <col min="5" max="5" width="17" style="35" customWidth="1"/>
     <col min="6" max="6" width="9" style="35"/>
     <col min="7" max="7" width="16" style="35" customWidth="1"/>
-    <col min="8" max="8" width="9" style="196"/>
+    <col min="8" max="8" width="9" style="261"/>
     <col min="9" max="9" width="9.375" style="33" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.875" style="33" customWidth="1"/>
     <col min="11" max="11" width="19.875" style="33" customWidth="1"/>
@@ -9509,60 +9510,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="196"/>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
+      <c r="A1" s="261"/>
+      <c r="B1" s="261"/>
+      <c r="C1" s="261"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="261"/>
+      <c r="F1" s="261"/>
+      <c r="G1" s="261"/>
     </row>
     <row r="2" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="196"/>
-      <c r="B2" s="203" t="s">
+      <c r="A2" s="261"/>
+      <c r="B2" s="207" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="I2" s="203" t="s">
-        <v>274</v>
-      </c>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="I2" s="207" t="s">
+        <v>263</v>
+      </c>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
     </row>
     <row r="3" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="196"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
+      <c r="A3" s="261"/>
+      <c r="B3" s="208"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
     </row>
     <row r="4" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="196"/>
+      <c r="A4" s="261"/>
       <c r="B4" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="243" t="s">
+      <c r="C4" s="213" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="243"/>
-      <c r="E4" s="243"/>
-      <c r="F4" s="243" t="s">
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="244"/>
+      <c r="G4" s="214"/>
       <c r="I4" s="129" t="s">
         <v>225</v>
       </c>
@@ -9580,264 +9581,264 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="196"/>
-      <c r="B5" s="245" t="s">
+      <c r="A5" s="261"/>
+      <c r="B5" s="215" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="28">
         <v>1</v>
       </c>
-      <c r="D5" s="211" t="s">
+      <c r="D5" s="263" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="212"/>
-      <c r="F5" s="256" t="s">
+      <c r="E5" s="264"/>
+      <c r="F5" s="224" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="257"/>
-      <c r="I5" s="197">
+      <c r="G5" s="225"/>
+      <c r="I5" s="260">
         <v>12</v>
       </c>
-      <c r="J5" s="199" t="s">
+      <c r="J5" s="252" t="s">
         <v>107</v>
       </c>
       <c r="K5" s="130">
         <v>1</v>
       </c>
       <c r="L5" s="130" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M5" s="128" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="196"/>
-      <c r="B6" s="246"/>
+      <c r="A6" s="261"/>
+      <c r="B6" s="216"/>
       <c r="C6" s="30">
         <v>2</v>
       </c>
-      <c r="D6" s="211" t="s">
+      <c r="D6" s="263" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="212"/>
-      <c r="F6" s="258"/>
-      <c r="G6" s="251"/>
-      <c r="I6" s="201"/>
-      <c r="J6" s="202"/>
+      <c r="E6" s="264"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="221"/>
+      <c r="I6" s="254"/>
+      <c r="J6" s="256"/>
       <c r="K6" s="131">
         <v>2</v>
       </c>
       <c r="L6" s="131" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="M6" s="125" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="196"/>
-      <c r="B7" s="247"/>
+      <c r="A7" s="261"/>
+      <c r="B7" s="217"/>
       <c r="C7" s="105">
         <v>3</v>
       </c>
-      <c r="D7" s="248" t="s">
+      <c r="D7" s="218" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="249"/>
-      <c r="F7" s="259"/>
-      <c r="G7" s="260"/>
-      <c r="I7" s="198"/>
-      <c r="J7" s="200"/>
+      <c r="E7" s="219"/>
+      <c r="F7" s="227"/>
+      <c r="G7" s="228"/>
+      <c r="I7" s="255"/>
+      <c r="J7" s="253"/>
       <c r="K7" s="132">
         <v>3</v>
       </c>
       <c r="L7" s="132" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="M7" s="126"/>
     </row>
     <row r="8" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="196"/>
+      <c r="A8" s="261"/>
       <c r="B8" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="252" t="s">
+      <c r="C8" s="196" t="s">
         <v>195</v>
       </c>
-      <c r="D8" s="252"/>
-      <c r="E8" s="252"/>
-      <c r="F8" s="252"/>
-      <c r="G8" s="253"/>
-      <c r="I8" s="197">
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="197"/>
+      <c r="I8" s="260">
         <v>18</v>
       </c>
-      <c r="J8" s="199" t="s">
+      <c r="J8" s="252" t="s">
         <v>227</v>
       </c>
       <c r="K8" s="130">
         <v>1</v>
       </c>
       <c r="L8" s="130" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M8" s="128" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="196"/>
+      <c r="A9" s="261"/>
       <c r="B9" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="248" t="s">
+      <c r="C9" s="218" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="248"/>
-      <c r="E9" s="248"/>
-      <c r="F9" s="250"/>
-      <c r="G9" s="251"/>
-      <c r="I9" s="201"/>
-      <c r="J9" s="202"/>
+      <c r="D9" s="218"/>
+      <c r="E9" s="218"/>
+      <c r="F9" s="220"/>
+      <c r="G9" s="221"/>
+      <c r="I9" s="254"/>
+      <c r="J9" s="256"/>
       <c r="K9" s="131">
         <v>2</v>
       </c>
       <c r="L9" s="131" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="M9" s="125" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="196"/>
+      <c r="A10" s="261"/>
       <c r="B10" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="252" t="s">
+      <c r="C10" s="196" t="s">
         <v>197</v>
       </c>
-      <c r="D10" s="252"/>
-      <c r="E10" s="252"/>
-      <c r="F10" s="252"/>
-      <c r="G10" s="253"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="200"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="197"/>
+      <c r="I10" s="255"/>
+      <c r="J10" s="253"/>
       <c r="K10" s="132">
         <v>3</v>
       </c>
       <c r="L10" s="132" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="M10" s="126"/>
     </row>
     <row r="11" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="196"/>
+      <c r="A11" s="261"/>
       <c r="B11" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="254" t="s">
+      <c r="C11" s="222" t="s">
         <v>198</v>
       </c>
-      <c r="D11" s="254"/>
-      <c r="E11" s="254"/>
-      <c r="F11" s="254"/>
-      <c r="G11" s="255"/>
-      <c r="I11" s="197">
+      <c r="D11" s="222"/>
+      <c r="E11" s="222"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="223"/>
+      <c r="I11" s="260">
         <v>4</v>
       </c>
-      <c r="J11" s="199" t="s">
+      <c r="J11" s="252" t="s">
         <v>230</v>
       </c>
       <c r="K11" s="130">
         <v>0</v>
       </c>
       <c r="L11" s="130" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="M11" s="128" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="196"/>
-      <c r="B12" s="196"/>
-      <c r="C12" s="196"/>
-      <c r="D12" s="196"/>
-      <c r="E12" s="196"/>
-      <c r="F12" s="196"/>
-      <c r="G12" s="196"/>
-      <c r="I12" s="201"/>
-      <c r="J12" s="202"/>
+      <c r="A12" s="261"/>
+      <c r="B12" s="261"/>
+      <c r="C12" s="261"/>
+      <c r="D12" s="261"/>
+      <c r="E12" s="261"/>
+      <c r="F12" s="261"/>
+      <c r="G12" s="261"/>
+      <c r="I12" s="254"/>
+      <c r="J12" s="256"/>
       <c r="K12" s="131">
         <v>1</v>
       </c>
       <c r="L12" s="131" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M12" s="125" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="196"/>
-      <c r="B13" s="196"/>
-      <c r="C13" s="196"/>
-      <c r="D13" s="196"/>
-      <c r="E13" s="196"/>
-      <c r="F13" s="196"/>
-      <c r="G13" s="196"/>
-      <c r="I13" s="201"/>
-      <c r="J13" s="202"/>
+      <c r="A13" s="261"/>
+      <c r="B13" s="261"/>
+      <c r="C13" s="261"/>
+      <c r="D13" s="261"/>
+      <c r="E13" s="261"/>
+      <c r="F13" s="261"/>
+      <c r="G13" s="261"/>
+      <c r="I13" s="254"/>
+      <c r="J13" s="256"/>
       <c r="K13" s="131">
         <v>2</v>
       </c>
       <c r="L13" s="131" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="M13" s="125" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="203" t="s">
+      <c r="A14" s="207" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="239"/>
-      <c r="C14" s="239"/>
-      <c r="D14" s="239"/>
-      <c r="E14" s="239"/>
-      <c r="F14" s="239"/>
-      <c r="G14" s="239"/>
-      <c r="I14" s="198"/>
-      <c r="J14" s="200"/>
+      <c r="B14" s="209"/>
+      <c r="C14" s="209"/>
+      <c r="D14" s="209"/>
+      <c r="E14" s="209"/>
+      <c r="F14" s="209"/>
+      <c r="G14" s="209"/>
+      <c r="I14" s="255"/>
+      <c r="J14" s="253"/>
       <c r="K14" s="132">
         <v>3</v>
       </c>
       <c r="L14" s="132" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="M14" s="126"/>
     </row>
     <row r="15" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="239"/>
-      <c r="B15" s="239"/>
-      <c r="C15" s="239"/>
-      <c r="D15" s="239"/>
-      <c r="E15" s="239"/>
-      <c r="F15" s="239"/>
-      <c r="G15" s="239"/>
-      <c r="I15" s="197">
+      <c r="A15" s="209"/>
+      <c r="B15" s="209"/>
+      <c r="C15" s="209"/>
+      <c r="D15" s="209"/>
+      <c r="E15" s="209"/>
+      <c r="F15" s="209"/>
+      <c r="G15" s="209"/>
+      <c r="I15" s="260">
         <v>3</v>
       </c>
-      <c r="J15" s="199" t="s">
+      <c r="J15" s="252" t="s">
         <v>158</v>
       </c>
       <c r="K15" s="130">
         <v>0</v>
       </c>
       <c r="L15" s="130" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="M15" s="128"/>
     </row>
@@ -9848,345 +9849,345 @@
       <c r="B16" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="240" t="s">
+      <c r="C16" s="210" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="240"/>
-      <c r="E16" s="240" t="s">
+      <c r="D16" s="210"/>
+      <c r="E16" s="210" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="241"/>
-      <c r="G16" s="242"/>
-      <c r="I16" s="201"/>
-      <c r="J16" s="202"/>
+      <c r="F16" s="211"/>
+      <c r="G16" s="212"/>
+      <c r="I16" s="254"/>
+      <c r="J16" s="256"/>
       <c r="K16" s="131">
         <v>1</v>
       </c>
       <c r="L16" s="131" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="M16" s="125" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="221" t="s">
+      <c r="A17" s="229" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="208" t="s">
+      <c r="B17" s="232" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="227" t="s">
+      <c r="C17" s="238" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="228"/>
-      <c r="E17" s="215"/>
-      <c r="F17" s="216"/>
-      <c r="G17" s="217"/>
-      <c r="I17" s="201"/>
-      <c r="J17" s="202"/>
+      <c r="D17" s="239"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="202"/>
+      <c r="G17" s="203"/>
+      <c r="I17" s="254"/>
+      <c r="J17" s="256"/>
       <c r="K17" s="131">
         <v>2</v>
       </c>
       <c r="L17" s="131" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="M17" s="125" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="221"/>
-      <c r="B18" s="223"/>
-      <c r="C18" s="229"/>
-      <c r="D18" s="230"/>
-      <c r="E18" s="261"/>
-      <c r="F18" s="262"/>
-      <c r="G18" s="263"/>
-      <c r="I18" s="198"/>
-      <c r="J18" s="200"/>
+      <c r="A18" s="229"/>
+      <c r="B18" s="233"/>
+      <c r="C18" s="240"/>
+      <c r="D18" s="241"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="200"/>
+      <c r="I18" s="255"/>
+      <c r="J18" s="253"/>
       <c r="K18" s="132">
         <v>3</v>
       </c>
       <c r="L18" s="132" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M18" s="126"/>
     </row>
     <row r="19" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="213" t="s">
+      <c r="A19" s="231" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="209"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="232"/>
-      <c r="E19" s="215"/>
-      <c r="F19" s="216"/>
-      <c r="G19" s="217"/>
-      <c r="I19" s="205" t="s">
+      <c r="B19" s="234"/>
+      <c r="C19" s="242"/>
+      <c r="D19" s="243"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="202"/>
+      <c r="G19" s="203"/>
+      <c r="I19" s="257" t="s">
         <v>228</v>
       </c>
-      <c r="J19" s="199" t="s">
+      <c r="J19" s="252" t="s">
         <v>226</v>
       </c>
       <c r="K19" s="130">
         <v>0</v>
       </c>
       <c r="L19" s="130" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="M19" s="128"/>
     </row>
     <row r="20" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="213"/>
-      <c r="B20" s="224" t="s">
+      <c r="A20" s="231"/>
+      <c r="B20" s="235" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="233" t="s">
+      <c r="C20" s="244" t="s">
         <v>220</v>
       </c>
-      <c r="D20" s="234"/>
-      <c r="E20" s="261"/>
-      <c r="F20" s="262"/>
-      <c r="G20" s="263"/>
-      <c r="I20" s="206"/>
-      <c r="J20" s="202"/>
+      <c r="D20" s="245"/>
+      <c r="E20" s="198"/>
+      <c r="F20" s="199"/>
+      <c r="G20" s="200"/>
+      <c r="I20" s="258"/>
+      <c r="J20" s="256"/>
       <c r="K20" s="131">
         <v>1</v>
       </c>
       <c r="L20" s="131" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M20" s="125" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="221" t="s">
+      <c r="A21" s="229" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="225"/>
-      <c r="C21" s="235"/>
-      <c r="D21" s="236"/>
-      <c r="E21" s="215"/>
-      <c r="F21" s="216"/>
-      <c r="G21" s="217"/>
-      <c r="I21" s="206"/>
-      <c r="J21" s="202"/>
+      <c r="B21" s="236"/>
+      <c r="C21" s="246"/>
+      <c r="D21" s="247"/>
+      <c r="E21" s="201"/>
+      <c r="F21" s="202"/>
+      <c r="G21" s="203"/>
+      <c r="I21" s="258"/>
+      <c r="J21" s="256"/>
       <c r="K21" s="131">
         <v>2</v>
       </c>
       <c r="L21" s="131" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M21" s="125" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="221"/>
-      <c r="B22" s="226"/>
-      <c r="C22" s="237"/>
-      <c r="D22" s="238"/>
-      <c r="E22" s="261"/>
-      <c r="F22" s="262"/>
-      <c r="G22" s="263"/>
-      <c r="I22" s="207"/>
-      <c r="J22" s="200"/>
+      <c r="A22" s="229"/>
+      <c r="B22" s="237"/>
+      <c r="C22" s="248"/>
+      <c r="D22" s="249"/>
+      <c r="E22" s="198"/>
+      <c r="F22" s="199"/>
+      <c r="G22" s="200"/>
+      <c r="I22" s="259"/>
+      <c r="J22" s="253"/>
       <c r="K22" s="132">
         <v>3</v>
       </c>
       <c r="L22" s="132" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M22" s="126"/>
     </row>
     <row r="23" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="213" t="s">
+      <c r="A23" s="231" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="208">
+      <c r="B23" s="232">
         <v>1</v>
       </c>
-      <c r="C23" s="227" t="s">
+      <c r="C23" s="238" t="s">
         <v>190</v>
       </c>
-      <c r="D23" s="228"/>
-      <c r="E23" s="215"/>
-      <c r="F23" s="216"/>
-      <c r="G23" s="217"/>
-      <c r="I23" s="197" t="s">
+      <c r="D23" s="239"/>
+      <c r="E23" s="201"/>
+      <c r="F23" s="202"/>
+      <c r="G23" s="203"/>
+      <c r="I23" s="260" t="s">
         <v>232</v>
       </c>
-      <c r="J23" s="199" t="s">
+      <c r="J23" s="252" t="s">
         <v>229</v>
       </c>
       <c r="K23" s="130">
         <v>0</v>
       </c>
       <c r="L23" s="130" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M23" s="128" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="213"/>
-      <c r="B24" s="209"/>
-      <c r="C24" s="231"/>
-      <c r="D24" s="232"/>
-      <c r="E24" s="261"/>
-      <c r="F24" s="262"/>
-      <c r="G24" s="263"/>
-      <c r="I24" s="201"/>
-      <c r="J24" s="202"/>
+      <c r="A24" s="231"/>
+      <c r="B24" s="234"/>
+      <c r="C24" s="242"/>
+      <c r="D24" s="243"/>
+      <c r="E24" s="198"/>
+      <c r="F24" s="199"/>
+      <c r="G24" s="200"/>
+      <c r="I24" s="254"/>
+      <c r="J24" s="256"/>
       <c r="K24" s="131">
         <v>1</v>
       </c>
       <c r="L24" s="131" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M24" s="125" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="213"/>
-      <c r="B25" s="208">
+      <c r="A25" s="231"/>
+      <c r="B25" s="232">
         <v>2</v>
       </c>
-      <c r="C25" s="233" t="s">
+      <c r="C25" s="244" t="s">
         <v>192</v>
       </c>
-      <c r="D25" s="234"/>
-      <c r="E25" s="215"/>
-      <c r="F25" s="216"/>
-      <c r="G25" s="217"/>
-      <c r="I25" s="201"/>
-      <c r="J25" s="202"/>
+      <c r="D25" s="245"/>
+      <c r="E25" s="201"/>
+      <c r="F25" s="202"/>
+      <c r="G25" s="203"/>
+      <c r="I25" s="254"/>
+      <c r="J25" s="256"/>
       <c r="K25" s="131">
         <v>2</v>
       </c>
       <c r="L25" s="131" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="M25" s="125" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="221" t="s">
+      <c r="A26" s="229" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="209"/>
-      <c r="C26" s="237"/>
-      <c r="D26" s="238"/>
-      <c r="E26" s="261"/>
-      <c r="F26" s="262"/>
-      <c r="G26" s="263"/>
-      <c r="I26" s="198"/>
-      <c r="J26" s="200"/>
+      <c r="B26" s="234"/>
+      <c r="C26" s="248"/>
+      <c r="D26" s="249"/>
+      <c r="E26" s="198"/>
+      <c r="F26" s="199"/>
+      <c r="G26" s="200"/>
+      <c r="I26" s="255"/>
+      <c r="J26" s="253"/>
       <c r="K26" s="132">
         <v>3</v>
       </c>
       <c r="L26" s="132" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="M26" s="126"/>
     </row>
     <row r="27" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="221"/>
-      <c r="B27" s="208">
+      <c r="A27" s="229"/>
+      <c r="B27" s="232">
         <v>3</v>
       </c>
-      <c r="C27" s="227" t="s">
+      <c r="C27" s="238" t="s">
         <v>191</v>
       </c>
-      <c r="D27" s="228"/>
-      <c r="E27" s="215"/>
-      <c r="F27" s="216"/>
-      <c r="G27" s="217"/>
-      <c r="I27" s="201">
+      <c r="D27" s="239"/>
+      <c r="E27" s="201"/>
+      <c r="F27" s="202"/>
+      <c r="G27" s="203"/>
+      <c r="I27" s="254">
         <v>17</v>
       </c>
-      <c r="J27" s="202" t="s">
+      <c r="J27" s="256" t="s">
         <v>231</v>
       </c>
       <c r="K27" s="131">
         <v>1</v>
       </c>
       <c r="L27" s="131" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M27" s="125" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="222"/>
-      <c r="B28" s="210"/>
-      <c r="C28" s="264"/>
-      <c r="D28" s="265"/>
-      <c r="E28" s="218"/>
-      <c r="F28" s="219"/>
-      <c r="G28" s="220"/>
-      <c r="I28" s="201"/>
-      <c r="J28" s="202"/>
+      <c r="A28" s="230"/>
+      <c r="B28" s="262"/>
+      <c r="C28" s="250"/>
+      <c r="D28" s="251"/>
+      <c r="E28" s="204"/>
+      <c r="F28" s="205"/>
+      <c r="G28" s="206"/>
+      <c r="I28" s="254"/>
+      <c r="J28" s="256"/>
       <c r="K28" s="131">
         <v>2</v>
       </c>
       <c r="L28" s="131" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="M28" s="125" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="213" t="s">
+      <c r="A29" s="231" t="s">
         <v>124</v>
       </c>
       <c r="B29" s="109">
         <v>1</v>
       </c>
-      <c r="C29" s="215" t="s">
+      <c r="C29" s="201" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="215"/>
-      <c r="E29" s="215" t="s">
+      <c r="D29" s="201"/>
+      <c r="E29" s="201" t="s">
         <v>126</v>
       </c>
-      <c r="F29" s="216"/>
-      <c r="G29" s="217"/>
-      <c r="I29" s="201"/>
-      <c r="J29" s="202"/>
+      <c r="F29" s="202"/>
+      <c r="G29" s="203"/>
+      <c r="I29" s="254"/>
+      <c r="J29" s="256"/>
       <c r="K29" s="131">
         <v>3</v>
       </c>
       <c r="L29" s="131" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="M29" s="125"/>
     </row>
     <row r="30" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="214"/>
+      <c r="A30" s="265"/>
       <c r="B30" s="112">
         <v>2</v>
       </c>
-      <c r="C30" s="218" t="s">
+      <c r="C30" s="204" t="s">
         <v>189</v>
       </c>
-      <c r="D30" s="218"/>
-      <c r="E30" s="218" t="s">
+      <c r="D30" s="204"/>
+      <c r="E30" s="204" t="s">
         <v>193</v>
       </c>
-      <c r="F30" s="219"/>
-      <c r="G30" s="220"/>
-      <c r="I30" s="197">
+      <c r="F30" s="205"/>
+      <c r="G30" s="206"/>
+      <c r="I30" s="260">
         <v>1</v>
       </c>
-      <c r="J30" s="199" t="s">
+      <c r="J30" s="252" t="s">
         <v>233</v>
       </c>
       <c r="K30" s="130">
@@ -10198,8 +10199,8 @@
       <c r="M30" s="128"/>
     </row>
     <row r="31" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I31" s="198"/>
-      <c r="J31" s="200"/>
+      <c r="I31" s="255"/>
+      <c r="J31" s="253"/>
       <c r="K31" s="132">
         <v>1</v>
       </c>
@@ -10207,10 +10208,10 @@
       <c r="M31" s="126"/>
     </row>
     <row r="32" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I32" s="201">
+      <c r="I32" s="254">
         <v>2</v>
       </c>
-      <c r="J32" s="202" t="s">
+      <c r="J32" s="256" t="s">
         <v>234</v>
       </c>
       <c r="K32" s="131">
@@ -10222,8 +10223,8 @@
       <c r="M32" s="125"/>
     </row>
     <row r="33" spans="9:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I33" s="198"/>
-      <c r="J33" s="200"/>
+      <c r="I33" s="255"/>
+      <c r="J33" s="253"/>
       <c r="K33" s="132">
         <v>1</v>
       </c>
@@ -10271,19 +10272,51 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H1:H1048576"/>
+    <mergeCell ref="A12:G13"/>
+    <mergeCell ref="A1:A11"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="I2:M3"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C17:D19"/>
+    <mergeCell ref="C20:D22"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="C25:D26"/>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="A14:G15"/>
     <mergeCell ref="C16:D16"/>
@@ -10300,51 +10333,19 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F5:G7"/>
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C17:D19"/>
-    <mergeCell ref="C20:D22"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="I2:M3"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="H1:H1048576"/>
-    <mergeCell ref="A12:G13"/>
-    <mergeCell ref="A1:A11"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E17:G17"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文物娘.xlsx
+++ b/文物娘.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GameMaker\Final Work\Github\CultureRelicGirls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28DB179-5917-4141-B473-399E14439921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76B4DD4-003D-4335-8338-0D583BEE0DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{1E3677C8-2B1C-423A-AEA1-C1DF63D56BAF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="304">
   <si>
     <t>司母戊鼎</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1110,10 +1110,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>一个舒适的自我提升区。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>提升文物的价值，挖掘背后的故事。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1155,6 +1151,114 @@
   </si>
   <si>
     <t>放个可以产生意识晶体的画</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>司母戊鼎1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>掷饼人6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际象棋7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>星空5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>越王勾践剑2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>四羊方尊3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>天丛云剑4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳历石8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金船9</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>双头蛇10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色升级时间降至70%</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以同时升级两个角色</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修时间降低至80%</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以同时维修两个角色</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用时间升级的所需时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以容纳更多人啦</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用时间升级的所需时间*70%</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以同时升级两个人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/5min，最多104</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/5min，最多144</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>16/5min，最多192</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/5min，最多60</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/5min,最多120</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/5min，最多48</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/5min,最多84</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/5min,最多96</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/5min,最多132</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2406,7 +2510,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="266">
+  <cellXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2808,6 +2912,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3527,8 +3634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D91B1E5-0340-464B-AF90-56D459836ED7}">
   <dimension ref="B1:V39"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3543,67 +3650,67 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="143" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="143" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="143" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="144"/>
-      <c r="O2" s="144"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="144" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="144"/>
-      <c r="T2" s="144"/>
-      <c r="U2" s="144"/>
-      <c r="V2" s="145"/>
+      <c r="C2" s="144" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="144" t="s">
+        <v>281</v>
+      </c>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="144" t="s">
+        <v>282</v>
+      </c>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="145" t="s">
+        <v>283</v>
+      </c>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="146"/>
     </row>
     <row r="3" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="149" t="s">
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="146" t="s">
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="147"/>
-      <c r="O3" s="147"/>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="148"/>
-      <c r="R3" s="149" t="s">
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="149"/>
+      <c r="R3" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="150"/>
-      <c r="T3" s="150"/>
-      <c r="U3" s="150"/>
-      <c r="V3" s="151"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="151"/>
+      <c r="U3" s="151"/>
+      <c r="V3" s="152"/>
     </row>
     <row r="4" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -3921,94 +4028,94 @@
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="134" t="s">
+      <c r="C8" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="134" t="s">
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="135"/>
-      <c r="J8" s="135"/>
-      <c r="K8" s="135"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="134" t="s">
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="135"/>
-      <c r="O8" s="135"/>
-      <c r="P8" s="135"/>
-      <c r="Q8" s="136"/>
-      <c r="R8" s="134" t="s">
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="136"/>
+      <c r="Q8" s="137"/>
+      <c r="R8" s="135" t="s">
         <v>114</v>
       </c>
-      <c r="S8" s="135"/>
-      <c r="T8" s="135"/>
-      <c r="U8" s="135"/>
-      <c r="V8" s="136"/>
+      <c r="S8" s="136"/>
+      <c r="T8" s="136"/>
+      <c r="U8" s="136"/>
+      <c r="V8" s="137"/>
     </row>
     <row r="9" spans="2:22" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="155" t="s">
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="157"/>
-      <c r="M9" s="155" t="s">
+      <c r="I9" s="157"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="157"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="156"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="157"/>
-      <c r="R9" s="155" t="s">
+      <c r="N9" s="157"/>
+      <c r="O9" s="157"/>
+      <c r="P9" s="157"/>
+      <c r="Q9" s="158"/>
+      <c r="R9" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="156"/>
-      <c r="T9" s="156"/>
-      <c r="U9" s="156"/>
-      <c r="V9" s="157"/>
+      <c r="S9" s="157"/>
+      <c r="T9" s="157"/>
+      <c r="U9" s="157"/>
+      <c r="V9" s="158"/>
     </row>
     <row r="11" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="143" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="145"/>
-      <c r="M12" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="144"/>
-      <c r="O12" s="144"/>
-      <c r="P12" s="144"/>
-      <c r="Q12" s="145"/>
+      <c r="C12" s="144" t="s">
+        <v>280</v>
+      </c>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="144" t="s">
+        <v>278</v>
+      </c>
+      <c r="I12" s="145"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="144" t="s">
+        <v>279</v>
+      </c>
+      <c r="N12" s="145"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="145"/>
+      <c r="Q12" s="146"/>
       <c r="S12" s="113">
         <v>2.1</v>
       </c>
@@ -4023,27 +4130,27 @@
       <c r="B13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="140" t="s">
+      <c r="C13" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="140" t="s">
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="142"/>
-      <c r="M13" s="160" t="s">
+      <c r="I13" s="142"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="N13" s="161"/>
-      <c r="O13" s="161"/>
-      <c r="P13" s="161"/>
-      <c r="Q13" s="162"/>
+      <c r="N13" s="162"/>
+      <c r="O13" s="162"/>
+      <c r="P13" s="162"/>
+      <c r="Q13" s="163"/>
       <c r="S13" s="116">
         <v>1.8</v>
       </c>
@@ -4124,7 +4231,7 @@
       <c r="U14" s="118">
         <v>1</v>
       </c>
-      <c r="V14" s="158"/>
+      <c r="V14" s="159"/>
     </row>
     <row r="15" spans="2:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
@@ -4194,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="U15" s="118"/>
-      <c r="V15" s="158"/>
+      <c r="V15" s="159"/>
     </row>
     <row r="16" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
@@ -4320,106 +4427,106 @@
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="134" t="s">
+      <c r="C18" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="134" t="s">
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="134" t="s">
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="135"/>
-      <c r="O18" s="135"/>
-      <c r="P18" s="135"/>
-      <c r="Q18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="136"/>
+      <c r="Q18" s="137"/>
     </row>
     <row r="19" spans="2:17" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="155" t="s">
+      <c r="C19" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="155" t="s">
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="156"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="156"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="155" t="s">
+      <c r="I19" s="157"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="157"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="156"/>
-      <c r="O19" s="156"/>
-      <c r="P19" s="156"/>
-      <c r="Q19" s="157"/>
+      <c r="N19" s="157"/>
+      <c r="O19" s="157"/>
+      <c r="P19" s="157"/>
+      <c r="Q19" s="158"/>
     </row>
     <row r="21" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="152" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="152" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="153"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="154"/>
-      <c r="M22" s="152" t="s">
-        <v>19</v>
-      </c>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="154"/>
+      <c r="C22" s="153" t="s">
+        <v>284</v>
+      </c>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="153" t="s">
+        <v>285</v>
+      </c>
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="153" t="s">
+        <v>286</v>
+      </c>
+      <c r="N22" s="154"/>
+      <c r="O22" s="154"/>
+      <c r="P22" s="154"/>
+      <c r="Q22" s="155"/>
     </row>
     <row r="23" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="137" t="s">
+      <c r="C23" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="138"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="140" t="s">
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="141"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="142"/>
-      <c r="M23" s="160" t="s">
+      <c r="I23" s="142"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="161"/>
-      <c r="O23" s="161"/>
-      <c r="P23" s="161"/>
-      <c r="Q23" s="162"/>
+      <c r="N23" s="162"/>
+      <c r="O23" s="162"/>
+      <c r="P23" s="162"/>
+      <c r="Q23" s="163"/>
     </row>
     <row r="24" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
@@ -4507,23 +4614,23 @@
         <v>75.600000000000009</v>
       </c>
       <c r="H25" s="17">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I25" s="18">
         <f>H25*1.2</f>
-        <v>79.2</v>
+        <v>39.6</v>
       </c>
       <c r="J25" s="18">
         <f>H25*1.5</f>
-        <v>99</v>
+        <v>49.5</v>
       </c>
       <c r="K25" s="18">
         <f>H25*1.8</f>
-        <v>118.8</v>
+        <v>59.4</v>
       </c>
       <c r="L25" s="21">
         <f>H25*2.1</f>
-        <v>138.6</v>
+        <v>69.3</v>
       </c>
       <c r="M25" s="15">
         <v>20</v>
@@ -4621,23 +4728,23 @@
       </c>
       <c r="H27" s="19">
         <f>H25*H26</f>
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I27" s="20">
         <f t="shared" ref="I27:L27" si="9">I25*I26</f>
-        <v>79.2</v>
+        <v>39.6</v>
       </c>
       <c r="J27" s="20">
         <f t="shared" si="9"/>
-        <v>99</v>
+        <v>49.5</v>
       </c>
       <c r="K27" s="20">
         <f t="shared" si="9"/>
-        <v>118.8</v>
+        <v>59.4</v>
       </c>
       <c r="L27" s="14">
         <f t="shared" si="9"/>
-        <v>138.6</v>
+        <v>69.3</v>
       </c>
       <c r="M27" s="19">
         <f>M25*M26</f>
@@ -4664,92 +4771,92 @@
       <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="134" t="s">
+      <c r="C28" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="134" t="s">
+      <c r="D28" s="136"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="135"/>
-      <c r="J28" s="135"/>
-      <c r="K28" s="135"/>
-      <c r="L28" s="136"/>
-      <c r="M28" s="134" t="s">
+      <c r="I28" s="136"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="137"/>
+      <c r="M28" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="135"/>
-      <c r="O28" s="135"/>
-      <c r="P28" s="135"/>
-      <c r="Q28" s="136"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="136"/>
+      <c r="Q28" s="137"/>
     </row>
     <row r="29" spans="2:17" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="155" t="s">
+      <c r="C29" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="156"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="157"/>
-      <c r="H29" s="155" t="s">
+      <c r="D29" s="157"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="156"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="156"/>
-      <c r="L29" s="157"/>
-      <c r="M29" s="155" t="s">
+      <c r="I29" s="157"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="158"/>
+      <c r="M29" s="156" t="s">
         <v>115</v>
       </c>
-      <c r="N29" s="156"/>
-      <c r="O29" s="156"/>
-      <c r="P29" s="156"/>
-      <c r="Q29" s="157"/>
+      <c r="N29" s="157"/>
+      <c r="O29" s="157"/>
+      <c r="P29" s="157"/>
+      <c r="Q29" s="158"/>
     </row>
     <row r="31" spans="2:17" s="13" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="143" t="s">
+      <c r="C32" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="143" t="s">
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="144"/>
-      <c r="J32" s="144"/>
-      <c r="K32" s="144"/>
-      <c r="L32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="146"/>
     </row>
     <row r="33" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="137" t="s">
+      <c r="C33" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="138"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="138"/>
-      <c r="G33" s="139"/>
-      <c r="H33" s="140" t="s">
+      <c r="D33" s="139"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="139"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="142"/>
+      <c r="I33" s="142"/>
+      <c r="J33" s="142"/>
+      <c r="K33" s="142"/>
+      <c r="L33" s="143"/>
     </row>
     <row r="34" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
@@ -4793,6 +4900,9 @@
         <f>H34*2.1</f>
         <v>84</v>
       </c>
+      <c r="M34" s="11">
+        <v>126</v>
+      </c>
     </row>
     <row r="35" spans="2:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
@@ -4818,23 +4928,26 @@
         <v>58.800000000000004</v>
       </c>
       <c r="H35" s="15">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I35" s="18">
         <f>H35*1.2</f>
-        <v>6</v>
+        <v>14.399999999999999</v>
       </c>
       <c r="J35" s="18">
         <f>H35*1.5</f>
-        <v>7.5</v>
+        <v>18</v>
       </c>
       <c r="K35" s="18">
         <f>H35*1.8</f>
-        <v>9</v>
+        <v>21.6</v>
       </c>
       <c r="L35" s="21">
         <f>H35*2.1</f>
-        <v>10.5</v>
+        <v>25.200000000000003</v>
+      </c>
+      <c r="M35" s="11">
+        <v>73.5</v>
       </c>
     </row>
     <row r="36" spans="2:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4877,83 +4990,83 @@
         <v>52</v>
       </c>
       <c r="C37" s="19">
-        <f>C35*C36</f>
+        <f t="shared" ref="C37:H37" si="11">C35*C36</f>
         <v>33.6</v>
       </c>
       <c r="D37" s="20">
-        <f>D35*D36</f>
+        <f t="shared" si="11"/>
         <v>40.32</v>
       </c>
       <c r="E37" s="20">
-        <f>E35*E36</f>
+        <f t="shared" si="11"/>
         <v>50.4</v>
       </c>
       <c r="F37" s="20">
-        <f>F35*F36</f>
+        <f t="shared" si="11"/>
         <v>60.48</v>
       </c>
       <c r="G37" s="22">
-        <f>G35*G36</f>
+        <f t="shared" si="11"/>
         <v>70.56</v>
       </c>
       <c r="H37" s="19">
-        <f t="shared" ref="H37:L37" si="11">H35*H36</f>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>12</v>
       </c>
       <c r="I37" s="20">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <f t="shared" ref="I37:L37" si="12">I35*I36</f>
+        <v>14.399999999999999</v>
       </c>
       <c r="J37" s="20">
-        <f t="shared" si="11"/>
-        <v>7.5</v>
+        <f t="shared" si="12"/>
+        <v>18</v>
       </c>
       <c r="K37" s="20">
-        <f t="shared" si="11"/>
-        <v>9</v>
+        <f t="shared" si="12"/>
+        <v>21.6</v>
       </c>
       <c r="L37" s="14">
-        <f t="shared" si="11"/>
-        <v>10.5</v>
+        <f t="shared" si="12"/>
+        <v>25.200000000000003</v>
       </c>
     </row>
     <row r="38" spans="2:17" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="134" t="s">
+      <c r="C38" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="135"/>
-      <c r="E38" s="135"/>
-      <c r="F38" s="135"/>
-      <c r="G38" s="136"/>
-      <c r="H38" s="134" t="s">
+      <c r="D38" s="136"/>
+      <c r="E38" s="136"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="137"/>
+      <c r="H38" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="135"/>
-      <c r="J38" s="135"/>
-      <c r="K38" s="135"/>
-      <c r="L38" s="136"/>
+      <c r="I38" s="136"/>
+      <c r="J38" s="136"/>
+      <c r="K38" s="136"/>
+      <c r="L38" s="137"/>
     </row>
     <row r="39" spans="2:17" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="155" t="s">
+      <c r="C39" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="156"/>
-      <c r="E39" s="156"/>
-      <c r="F39" s="156"/>
-      <c r="G39" s="157"/>
-      <c r="H39" s="155" t="s">
+      <c r="D39" s="157"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="158"/>
+      <c r="H39" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="I39" s="156"/>
-      <c r="J39" s="156"/>
-      <c r="K39" s="156"/>
-      <c r="L39" s="157"/>
+      <c r="I39" s="157"/>
+      <c r="J39" s="157"/>
+      <c r="K39" s="157"/>
+      <c r="L39" s="158"/>
       <c r="M39" s="26"/>
       <c r="N39" s="26"/>
       <c r="O39" s="26"/>
@@ -5033,34 +5146,34 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="143" t="s">
+      <c r="C2" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="143" t="s">
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="143" t="s">
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="144"/>
-      <c r="O2" s="144"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="144" t="s">
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="144"/>
-      <c r="T2" s="144"/>
-      <c r="U2" s="144"/>
-      <c r="V2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="146"/>
       <c r="W2" s="122"/>
       <c r="X2" s="122"/>
       <c r="Y2" s="122"/>
@@ -5087,34 +5200,34 @@
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="149" t="s">
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="146" t="s">
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="147"/>
-      <c r="O3" s="147"/>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="148"/>
-      <c r="R3" s="149" t="s">
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="149"/>
+      <c r="R3" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="150"/>
-      <c r="T3" s="150"/>
-      <c r="U3" s="150"/>
-      <c r="V3" s="151"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="151"/>
+      <c r="U3" s="151"/>
+      <c r="V3" s="152"/>
       <c r="W3" s="122"/>
       <c r="X3" s="122"/>
       <c r="Y3" s="122"/>
@@ -5537,34 +5650,34 @@
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="134" t="s">
+      <c r="C8" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="134" t="s">
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="135"/>
-      <c r="J8" s="135"/>
-      <c r="K8" s="135"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="134" t="s">
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="135"/>
-      <c r="O8" s="135"/>
-      <c r="P8" s="135"/>
-      <c r="Q8" s="136"/>
-      <c r="R8" s="134" t="s">
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="136"/>
+      <c r="Q8" s="137"/>
+      <c r="R8" s="135" t="s">
         <v>114</v>
       </c>
-      <c r="S8" s="135"/>
-      <c r="T8" s="135"/>
-      <c r="U8" s="135"/>
-      <c r="V8" s="136"/>
+      <c r="S8" s="136"/>
+      <c r="T8" s="136"/>
+      <c r="U8" s="136"/>
+      <c r="V8" s="137"/>
       <c r="W8" s="122"/>
       <c r="X8" s="122"/>
       <c r="Y8" s="122"/>
@@ -5591,34 +5704,34 @@
       <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="155" t="s">
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="157"/>
-      <c r="M9" s="155" t="s">
+      <c r="I9" s="157"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="157"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="156"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="157"/>
-      <c r="R9" s="155" t="s">
+      <c r="N9" s="157"/>
+      <c r="O9" s="157"/>
+      <c r="P9" s="157"/>
+      <c r="Q9" s="158"/>
+      <c r="R9" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="156"/>
-      <c r="T9" s="156"/>
-      <c r="U9" s="156"/>
-      <c r="V9" s="157"/>
+      <c r="S9" s="157"/>
+      <c r="T9" s="157"/>
+      <c r="U9" s="157"/>
+      <c r="V9" s="158"/>
       <c r="W9" s="122"/>
       <c r="X9" s="122"/>
       <c r="Y9" s="122"/>
@@ -5733,27 +5846,27 @@
       <c r="B12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="143" t="s">
+      <c r="C12" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="143" t="s">
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="145"/>
-      <c r="M12" s="143" t="s">
+      <c r="I12" s="145"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="144"/>
-      <c r="O12" s="144"/>
-      <c r="P12" s="144"/>
-      <c r="Q12" s="145"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="145"/>
+      <c r="Q12" s="146"/>
       <c r="R12" s="122"/>
       <c r="S12" s="113">
         <v>2.1</v>
@@ -5791,27 +5904,27 @@
       <c r="B13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="140" t="s">
+      <c r="C13" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="140" t="s">
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="142"/>
-      <c r="M13" s="160" t="s">
+      <c r="I13" s="142"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="N13" s="161"/>
-      <c r="O13" s="161"/>
-      <c r="P13" s="161"/>
-      <c r="Q13" s="162"/>
+      <c r="N13" s="162"/>
+      <c r="O13" s="162"/>
+      <c r="P13" s="162"/>
+      <c r="Q13" s="163"/>
       <c r="R13" s="122"/>
       <c r="S13" s="116">
         <v>1.8</v>
@@ -5916,7 +6029,7 @@
       <c r="U14" s="118">
         <v>1</v>
       </c>
-      <c r="V14" s="158"/>
+      <c r="V14" s="159"/>
       <c r="W14" s="122"/>
       <c r="X14" s="122"/>
       <c r="Y14" s="122"/>
@@ -6008,7 +6121,7 @@
         <v>1</v>
       </c>
       <c r="U15" s="118"/>
-      <c r="V15" s="158"/>
+      <c r="V15" s="159"/>
       <c r="W15" s="122"/>
       <c r="X15" s="122"/>
       <c r="Y15" s="122"/>
@@ -6204,27 +6317,27 @@
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="134" t="s">
+      <c r="C18" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="134" t="s">
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="134" t="s">
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="135"/>
-      <c r="O18" s="135"/>
-      <c r="P18" s="135"/>
-      <c r="Q18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="136"/>
+      <c r="Q18" s="137"/>
       <c r="R18" s="122"/>
       <c r="S18" s="122"/>
       <c r="T18" s="122"/>
@@ -6256,27 +6369,27 @@
       <c r="B19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="155" t="s">
+      <c r="C19" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="155" t="s">
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="156"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="156"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="155" t="s">
+      <c r="I19" s="157"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="157"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="156"/>
-      <c r="O19" s="156"/>
-      <c r="P19" s="156"/>
-      <c r="Q19" s="157"/>
+      <c r="N19" s="157"/>
+      <c r="O19" s="157"/>
+      <c r="P19" s="157"/>
+      <c r="Q19" s="158"/>
       <c r="R19" s="122"/>
       <c r="S19" s="122"/>
       <c r="T19" s="122"/>
@@ -6396,27 +6509,27 @@
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="152" t="s">
+      <c r="C22" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="152" t="s">
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="153"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="154"/>
-      <c r="M22" s="152" t="s">
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="154"/>
+      <c r="N22" s="154"/>
+      <c r="O22" s="154"/>
+      <c r="P22" s="154"/>
+      <c r="Q22" s="155"/>
       <c r="R22" s="122"/>
       <c r="S22" s="122"/>
       <c r="T22" s="122"/>
@@ -6448,27 +6561,27 @@
       <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="137" t="s">
+      <c r="C23" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="138"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="140" t="s">
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="141"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="142"/>
-      <c r="M23" s="160" t="s">
+      <c r="I23" s="142"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="161"/>
-      <c r="O23" s="161"/>
-      <c r="P23" s="161"/>
-      <c r="Q23" s="162"/>
+      <c r="N23" s="162"/>
+      <c r="O23" s="162"/>
+      <c r="P23" s="162"/>
+      <c r="Q23" s="163"/>
       <c r="R23" s="122"/>
       <c r="S23" s="122"/>
       <c r="T23" s="122"/>
@@ -6843,27 +6956,27 @@
       <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="134" t="s">
+      <c r="C28" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="134" t="s">
+      <c r="D28" s="136"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="135"/>
-      <c r="J28" s="135"/>
-      <c r="K28" s="135"/>
-      <c r="L28" s="136"/>
-      <c r="M28" s="134" t="s">
+      <c r="I28" s="136"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="137"/>
+      <c r="M28" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="135"/>
-      <c r="O28" s="135"/>
-      <c r="P28" s="135"/>
-      <c r="Q28" s="136"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="136"/>
+      <c r="Q28" s="137"/>
       <c r="R28" s="122"/>
       <c r="S28" s="122"/>
       <c r="T28" s="122"/>
@@ -6895,27 +7008,27 @@
       <c r="B29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="155" t="s">
+      <c r="C29" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="156"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="157"/>
-      <c r="H29" s="155" t="s">
+      <c r="D29" s="157"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="156"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="156"/>
-      <c r="L29" s="157"/>
-      <c r="M29" s="155" t="s">
+      <c r="I29" s="157"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="158"/>
+      <c r="M29" s="156" t="s">
         <v>115</v>
       </c>
-      <c r="N29" s="156"/>
-      <c r="O29" s="156"/>
-      <c r="P29" s="156"/>
-      <c r="Q29" s="157"/>
+      <c r="N29" s="157"/>
+      <c r="O29" s="157"/>
+      <c r="P29" s="157"/>
+      <c r="Q29" s="158"/>
       <c r="R29" s="122"/>
       <c r="S29" s="122"/>
       <c r="T29" s="122"/>
@@ -7035,20 +7148,20 @@
       <c r="B32" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="143" t="s">
+      <c r="C32" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="143" t="s">
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="144"/>
-      <c r="J32" s="144"/>
-      <c r="K32" s="144"/>
-      <c r="L32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="146"/>
       <c r="M32" s="122"/>
       <c r="N32" s="122"/>
       <c r="O32" s="122"/>
@@ -7085,20 +7198,20 @@
       <c r="B33" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="137" t="s">
+      <c r="C33" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="138"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="138"/>
-      <c r="G33" s="139"/>
-      <c r="H33" s="140" t="s">
+      <c r="D33" s="139"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="139"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="142"/>
+      <c r="I33" s="142"/>
+      <c r="J33" s="142"/>
+      <c r="K33" s="142"/>
+      <c r="L33" s="143"/>
       <c r="M33" s="122"/>
       <c r="N33" s="122"/>
       <c r="O33" s="122"/>
@@ -7425,20 +7538,20 @@
       <c r="B38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="134" t="s">
+      <c r="C38" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="135"/>
-      <c r="E38" s="135"/>
-      <c r="F38" s="135"/>
-      <c r="G38" s="136"/>
-      <c r="H38" s="134" t="s">
+      <c r="D38" s="136"/>
+      <c r="E38" s="136"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="137"/>
+      <c r="H38" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="135"/>
-      <c r="J38" s="135"/>
-      <c r="K38" s="135"/>
-      <c r="L38" s="136"/>
+      <c r="I38" s="136"/>
+      <c r="J38" s="136"/>
+      <c r="K38" s="136"/>
+      <c r="L38" s="137"/>
       <c r="M38" s="122"/>
       <c r="N38" s="122"/>
       <c r="O38" s="122"/>
@@ -7475,20 +7588,20 @@
       <c r="B39" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="155" t="s">
+      <c r="C39" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="156"/>
-      <c r="E39" s="156"/>
-      <c r="F39" s="156"/>
-      <c r="G39" s="157"/>
-      <c r="H39" s="155" t="s">
+      <c r="D39" s="157"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="158"/>
+      <c r="H39" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="I39" s="156"/>
-      <c r="J39" s="156"/>
-      <c r="K39" s="156"/>
-      <c r="L39" s="157"/>
+      <c r="I39" s="157"/>
+      <c r="J39" s="157"/>
+      <c r="K39" s="157"/>
+      <c r="L39" s="158"/>
       <c r="M39" s="26"/>
       <c r="N39" s="26"/>
       <c r="O39" s="26"/>
@@ -7582,8 +7695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E67363-7FC7-4BA4-8F5D-65854E98AD6E}">
   <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34:E35"/>
+    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7606,11 +7719,11 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="164" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
       <c r="F2" s="36"/>
@@ -7620,9 +7733,9 @@
       <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="165"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
+      <c r="A3" s="166"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
       <c r="D3" s="38"/>
       <c r="E3" s="39" t="s">
         <v>44</v>
@@ -7664,11 +7777,11 @@
       <c r="J4" s="43"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="174" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="173"/>
-      <c r="C5" s="173"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
       <c r="D5" s="38"/>
       <c r="E5" s="46" t="s">
         <v>50</v>
@@ -7688,9 +7801,9 @@
       <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="173"/>
-      <c r="B6" s="173"/>
-      <c r="C6" s="173"/>
+      <c r="A6" s="174"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="174"/>
       <c r="D6" s="38"/>
       <c r="E6" s="46" t="s">
         <v>51</v>
@@ -7710,9 +7823,9 @@
       <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="173"/>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
+      <c r="A7" s="174"/>
+      <c r="B7" s="174"/>
+      <c r="C7" s="174"/>
       <c r="D7" s="38"/>
       <c r="E7" s="46" t="s">
         <v>52</v>
@@ -7816,11 +7929,11 @@
       <c r="B12" s="63">
         <v>35</v>
       </c>
-      <c r="C12" s="171" t="s">
+      <c r="C12" s="172" t="s">
         <v>58</v>
       </c>
       <c r="D12" s="38"/>
-      <c r="E12" s="169" t="s">
+      <c r="E12" s="170" t="s">
         <v>56</v>
       </c>
       <c r="F12" s="64" t="s">
@@ -7844,9 +7957,9 @@
       <c r="B13" s="66">
         <v>5</v>
       </c>
-      <c r="C13" s="172"/>
+      <c r="C13" s="173"/>
       <c r="D13" s="38"/>
-      <c r="E13" s="170"/>
+      <c r="E13" s="171"/>
       <c r="F13" s="67" t="s">
         <v>59</v>
       </c>
@@ -7881,11 +7994,11 @@
       <c r="B15" s="72">
         <v>44</v>
       </c>
-      <c r="C15" s="171" t="s">
+      <c r="C15" s="172" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="38"/>
-      <c r="E15" s="167" t="s">
+      <c r="E15" s="168" t="s">
         <v>62</v>
       </c>
       <c r="F15" s="64" t="s">
@@ -7910,9 +8023,9 @@
       <c r="B16" s="74">
         <v>9</v>
       </c>
-      <c r="C16" s="172"/>
+      <c r="C16" s="173"/>
       <c r="D16" s="38"/>
-      <c r="E16" s="168"/>
+      <c r="E16" s="169"/>
       <c r="F16" s="67" t="s">
         <v>59</v>
       </c>
@@ -7948,11 +8061,11 @@
       <c r="B18" s="77">
         <v>68</v>
       </c>
-      <c r="C18" s="171" t="s">
+      <c r="C18" s="172" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="38"/>
-      <c r="E18" s="167" t="s">
+      <c r="E18" s="168" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="64" t="s">
@@ -7977,9 +8090,9 @@
       <c r="B19" s="74">
         <v>29</v>
       </c>
-      <c r="C19" s="172"/>
+      <c r="C19" s="173"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="168"/>
+      <c r="E19" s="169"/>
       <c r="F19" s="67" t="s">
         <v>59</v>
       </c>
@@ -8013,11 +8126,11 @@
       <c r="B21" s="72">
         <v>92</v>
       </c>
-      <c r="C21" s="171" t="s">
-        <v>15</v>
+      <c r="C21" s="172" t="s">
+        <v>1</v>
       </c>
       <c r="D21" s="38"/>
-      <c r="E21" s="167" t="s">
+      <c r="E21" s="168" t="s">
         <v>69</v>
       </c>
       <c r="F21" s="64" t="s">
@@ -8042,9 +8155,9 @@
       <c r="B22" s="74">
         <v>80</v>
       </c>
-      <c r="C22" s="172"/>
+      <c r="C22" s="173"/>
       <c r="D22" s="38"/>
-      <c r="E22" s="168"/>
+      <c r="E22" s="169"/>
       <c r="F22" s="67" t="s">
         <v>59</v>
       </c>
@@ -8100,11 +8213,11 @@
       <c r="J25" s="38"/>
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="163" t="s">
+      <c r="A26" s="164" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="164"/>
-      <c r="C26" s="164"/>
+      <c r="B26" s="165"/>
+      <c r="C26" s="165"/>
       <c r="D26" s="36"/>
       <c r="E26" s="36"/>
       <c r="F26" s="36"/>
@@ -8121,9 +8234,9 @@
       <c r="K26" s="87"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="165"/>
-      <c r="B27" s="166"/>
-      <c r="C27" s="166"/>
+      <c r="A27" s="166"/>
+      <c r="B27" s="167"/>
+      <c r="C27" s="167"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39" t="s">
         <v>44</v>
@@ -8175,11 +8288,11 @@
       <c r="K28" s="89"/>
     </row>
     <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="174" t="s">
+      <c r="A29" s="175" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="175"/>
-      <c r="C29" s="175"/>
+      <c r="B29" s="176"/>
+      <c r="C29" s="176"/>
       <c r="D29" s="38"/>
       <c r="E29" s="46" t="s">
         <v>50</v>
@@ -8205,9 +8318,9 @@
       <c r="K29" s="89"/>
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="176"/>
-      <c r="B30" s="175"/>
-      <c r="C30" s="175"/>
+      <c r="A30" s="177"/>
+      <c r="B30" s="176"/>
+      <c r="C30" s="176"/>
       <c r="D30" s="38"/>
       <c r="E30" s="46" t="s">
         <v>51</v>
@@ -8222,16 +8335,16 @@
       <c r="I30" s="31"/>
       <c r="J30" s="99"/>
       <c r="K30" s="89"/>
-      <c r="M30" s="160" t="s">
+      <c r="M30" s="161" t="s">
         <v>72</v>
       </c>
-      <c r="N30" s="161"/>
-      <c r="O30" s="162"/>
+      <c r="N30" s="162"/>
+      <c r="O30" s="163"/>
     </row>
     <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="176"/>
-      <c r="B31" s="175"/>
-      <c r="C31" s="175"/>
+      <c r="A31" s="177"/>
+      <c r="B31" s="176"/>
+      <c r="C31" s="176"/>
       <c r="D31" s="38"/>
       <c r="E31" s="46" t="s">
         <v>52</v>
@@ -8255,11 +8368,11 @@
         <v>18</v>
       </c>
       <c r="K31" s="89"/>
-      <c r="M31" s="183" t="s">
+      <c r="M31" s="184" t="s">
         <v>182</v>
       </c>
-      <c r="N31" s="184"/>
-      <c r="O31" s="185"/>
+      <c r="N31" s="185"/>
+      <c r="O31" s="186"/>
     </row>
     <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="90"/>
@@ -8279,9 +8392,9 @@
       <c r="I32" s="32"/>
       <c r="J32" s="102"/>
       <c r="K32" s="89"/>
-      <c r="M32" s="183"/>
-      <c r="N32" s="184"/>
-      <c r="O32" s="185"/>
+      <c r="M32" s="184"/>
+      <c r="N32" s="185"/>
+      <c r="O32" s="186"/>
     </row>
     <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
@@ -8301,9 +8414,9 @@
       <c r="I33" s="38"/>
       <c r="J33" s="38"/>
       <c r="K33" s="89"/>
-      <c r="M33" s="183"/>
-      <c r="N33" s="184"/>
-      <c r="O33" s="185"/>
+      <c r="M33" s="184"/>
+      <c r="N33" s="185"/>
+      <c r="O33" s="186"/>
     </row>
     <row r="34" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="91">
@@ -8312,9 +8425,9 @@
       <c r="B34" s="92">
         <v>140</v>
       </c>
-      <c r="C34" s="177"/>
+      <c r="C34" s="178"/>
       <c r="D34" s="38"/>
-      <c r="E34" s="167" t="s">
+      <c r="E34" s="168" t="s">
         <v>74</v>
       </c>
       <c r="F34" s="93" t="s">
@@ -8333,9 +8446,9 @@
         <v>4</v>
       </c>
       <c r="K34" s="89"/>
-      <c r="M34" s="186"/>
-      <c r="N34" s="187"/>
-      <c r="O34" s="188"/>
+      <c r="M34" s="187"/>
+      <c r="N34" s="188"/>
+      <c r="O34" s="189"/>
     </row>
     <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="94">
@@ -8344,9 +8457,9 @@
       <c r="B35" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="178"/>
+      <c r="C35" s="179"/>
       <c r="D35" s="38"/>
-      <c r="E35" s="168"/>
+      <c r="E35" s="169"/>
       <c r="F35" s="67" t="s">
         <v>59</v>
       </c>
@@ -8376,11 +8489,11 @@
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
       <c r="K36" s="89"/>
-      <c r="M36" s="160" t="s">
+      <c r="M36" s="161" t="s">
         <v>131</v>
       </c>
-      <c r="N36" s="161"/>
-      <c r="O36" s="162"/>
+      <c r="N36" s="162"/>
+      <c r="O36" s="163"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="91">
@@ -8389,9 +8502,9 @@
       <c r="B37" s="92">
         <v>166</v>
       </c>
-      <c r="C37" s="179"/>
+      <c r="C37" s="180"/>
       <c r="D37" s="38"/>
-      <c r="E37" s="167" t="s">
+      <c r="E37" s="168" t="s">
         <v>80</v>
       </c>
       <c r="F37" s="93" t="s">
@@ -8410,11 +8523,11 @@
         <v>4</v>
       </c>
       <c r="K37" s="89"/>
-      <c r="M37" s="183" t="s">
+      <c r="M37" s="184" t="s">
         <v>183</v>
       </c>
-      <c r="N37" s="175"/>
-      <c r="O37" s="191"/>
+      <c r="N37" s="176"/>
+      <c r="O37" s="192"/>
     </row>
     <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="s">
@@ -8423,9 +8536,9 @@
       <c r="B38" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="180"/>
+      <c r="C38" s="181"/>
       <c r="D38" s="38"/>
-      <c r="E38" s="168"/>
+      <c r="E38" s="169"/>
       <c r="F38" s="67" t="s">
         <v>59</v>
       </c>
@@ -8442,9 +8555,9 @@
         <v>79</v>
       </c>
       <c r="K38" s="89"/>
-      <c r="M38" s="192"/>
-      <c r="N38" s="175"/>
-      <c r="O38" s="191"/>
+      <c r="M38" s="193"/>
+      <c r="N38" s="176"/>
+      <c r="O38" s="192"/>
     </row>
     <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
@@ -8460,9 +8573,9 @@
       <c r="I39" s="38"/>
       <c r="J39" s="38"/>
       <c r="K39" s="89"/>
-      <c r="M39" s="192"/>
-      <c r="N39" s="175"/>
-      <c r="O39" s="191"/>
+      <c r="M39" s="193"/>
+      <c r="N39" s="176"/>
+      <c r="O39" s="192"/>
     </row>
     <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="91">
@@ -8471,11 +8584,11 @@
       <c r="B40" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="177" t="s">
+      <c r="C40" s="178" t="s">
         <v>146</v>
       </c>
       <c r="D40" s="38"/>
-      <c r="E40" s="167" t="s">
+      <c r="E40" s="168" t="s">
         <v>81</v>
       </c>
       <c r="F40" s="93" t="s">
@@ -8487,14 +8600,14 @@
       <c r="H40" s="93">
         <v>2</v>
       </c>
-      <c r="I40" s="189">
+      <c r="I40" s="190">
         <v>3</v>
       </c>
-      <c r="J40" s="190"/>
+      <c r="J40" s="191"/>
       <c r="K40" s="89"/>
-      <c r="M40" s="193"/>
-      <c r="N40" s="194"/>
-      <c r="O40" s="195"/>
+      <c r="M40" s="194"/>
+      <c r="N40" s="195"/>
+      <c r="O40" s="196"/>
     </row>
     <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="94" t="s">
@@ -8503,9 +8616,9 @@
       <c r="B41" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="178"/>
+      <c r="C41" s="179"/>
       <c r="D41" s="38"/>
-      <c r="E41" s="168"/>
+      <c r="E41" s="169"/>
       <c r="F41" s="67" t="s">
         <v>59</v>
       </c>
@@ -8515,10 +8628,10 @@
       <c r="H41" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="I41" s="181" t="s">
+      <c r="I41" s="182" t="s">
         <v>141</v>
       </c>
-      <c r="J41" s="182"/>
+      <c r="J41" s="183"/>
       <c r="K41" s="89"/>
     </row>
     <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -8538,11 +8651,11 @@
     </row>
     <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="163" t="s">
+      <c r="A45" s="164" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="164"/>
-      <c r="C45" s="164"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
       <c r="D45" s="36"/>
       <c r="E45" s="36"/>
       <c r="F45" s="36"/>
@@ -8560,9 +8673,9 @@
       <c r="K45" s="87"/>
     </row>
     <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="165"/>
-      <c r="B46" s="166"/>
-      <c r="C46" s="166"/>
+      <c r="A46" s="166"/>
+      <c r="B46" s="167"/>
+      <c r="C46" s="167"/>
       <c r="D46" s="107"/>
       <c r="E46" s="39" t="s">
         <v>44</v>
@@ -8583,11 +8696,11 @@
         <v>72</v>
       </c>
       <c r="K46" s="89"/>
-      <c r="M46" s="160" t="s">
+      <c r="M46" s="161" t="s">
         <v>132</v>
       </c>
-      <c r="N46" s="161"/>
-      <c r="O46" s="162"/>
+      <c r="N46" s="162"/>
+      <c r="O46" s="163"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="108"/>
@@ -8616,18 +8729,18 @@
         <v>462.5</v>
       </c>
       <c r="K47" s="89"/>
-      <c r="M47" s="183" t="s">
+      <c r="M47" s="184" t="s">
         <v>184</v>
       </c>
-      <c r="N47" s="175"/>
-      <c r="O47" s="191"/>
+      <c r="N47" s="176"/>
+      <c r="O47" s="192"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="174" t="s">
+      <c r="A48" s="175" t="s">
         <v>161</v>
       </c>
-      <c r="B48" s="175"/>
-      <c r="C48" s="175"/>
+      <c r="B48" s="176"/>
+      <c r="C48" s="176"/>
       <c r="D48" s="107"/>
       <c r="E48" s="46" t="s">
         <v>50</v>
@@ -8651,14 +8764,14 @@
         <v>21.25</v>
       </c>
       <c r="K48" s="89"/>
-      <c r="M48" s="192"/>
-      <c r="N48" s="175"/>
-      <c r="O48" s="191"/>
+      <c r="M48" s="193"/>
+      <c r="N48" s="176"/>
+      <c r="O48" s="192"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="176"/>
-      <c r="B49" s="175"/>
-      <c r="C49" s="175"/>
+      <c r="A49" s="177"/>
+      <c r="B49" s="176"/>
+      <c r="C49" s="176"/>
       <c r="D49" s="107"/>
       <c r="E49" s="46" t="s">
         <v>51</v>
@@ -8673,14 +8786,14 @@
       <c r="I49" s="110"/>
       <c r="J49" s="109"/>
       <c r="K49" s="89"/>
-      <c r="M49" s="192"/>
-      <c r="N49" s="175"/>
-      <c r="O49" s="191"/>
+      <c r="M49" s="193"/>
+      <c r="N49" s="176"/>
+      <c r="O49" s="192"/>
     </row>
     <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="176"/>
-      <c r="B50" s="175"/>
-      <c r="C50" s="175"/>
+      <c r="A50" s="177"/>
+      <c r="B50" s="176"/>
+      <c r="C50" s="176"/>
       <c r="D50" s="107"/>
       <c r="E50" s="46" t="s">
         <v>52</v>
@@ -8704,9 +8817,9 @@
         <v>42.5</v>
       </c>
       <c r="K50" s="89"/>
-      <c r="M50" s="193"/>
-      <c r="N50" s="194"/>
-      <c r="O50" s="195"/>
+      <c r="M50" s="194"/>
+      <c r="N50" s="195"/>
+      <c r="O50" s="196"/>
     </row>
     <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="90"/>
@@ -8753,9 +8866,9 @@
       <c r="B53" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="177"/>
+      <c r="C53" s="178"/>
       <c r="D53" s="107"/>
-      <c r="E53" s="167" t="s">
+      <c r="E53" s="168" t="s">
         <v>74</v>
       </c>
       <c r="F53" s="93" t="s">
@@ -8774,11 +8887,11 @@
         <v>4</v>
       </c>
       <c r="K53" s="89"/>
-      <c r="M53" s="160" t="s">
+      <c r="M53" s="161" t="s">
         <v>73</v>
       </c>
-      <c r="N53" s="161"/>
-      <c r="O53" s="162"/>
+      <c r="N53" s="162"/>
+      <c r="O53" s="163"/>
     </row>
     <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="94" t="s">
@@ -8787,9 +8900,9 @@
       <c r="B54" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="178"/>
+      <c r="C54" s="179"/>
       <c r="D54" s="107"/>
-      <c r="E54" s="168"/>
+      <c r="E54" s="169"/>
       <c r="F54" s="67" t="s">
         <v>59</v>
       </c>
@@ -8806,11 +8919,11 @@
         <v>135</v>
       </c>
       <c r="K54" s="89"/>
-      <c r="M54" s="183" t="s">
+      <c r="M54" s="184" t="s">
         <v>185</v>
       </c>
-      <c r="N54" s="175"/>
-      <c r="O54" s="191"/>
+      <c r="N54" s="176"/>
+      <c r="O54" s="192"/>
     </row>
     <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="108" t="s">
@@ -8826,9 +8939,9 @@
       <c r="I55" s="107"/>
       <c r="J55" s="107"/>
       <c r="K55" s="89"/>
-      <c r="M55" s="192"/>
-      <c r="N55" s="175"/>
-      <c r="O55" s="191"/>
+      <c r="M55" s="193"/>
+      <c r="N55" s="176"/>
+      <c r="O55" s="192"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="91">
@@ -8837,9 +8950,9 @@
       <c r="B56" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="179"/>
+      <c r="C56" s="180"/>
       <c r="D56" s="107"/>
-      <c r="E56" s="167" t="s">
+      <c r="E56" s="168" t="s">
         <v>80</v>
       </c>
       <c r="F56" s="93" t="s">
@@ -8858,9 +8971,9 @@
         <v>4</v>
       </c>
       <c r="K56" s="89"/>
-      <c r="M56" s="192"/>
-      <c r="N56" s="175"/>
-      <c r="O56" s="191"/>
+      <c r="M56" s="193"/>
+      <c r="N56" s="176"/>
+      <c r="O56" s="192"/>
     </row>
     <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="94" t="s">
@@ -8869,9 +8982,9 @@
       <c r="B57" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="C57" s="180"/>
+      <c r="C57" s="181"/>
       <c r="D57" s="107"/>
-      <c r="E57" s="168"/>
+      <c r="E57" s="169"/>
       <c r="F57" s="67" t="s">
         <v>59</v>
       </c>
@@ -8888,9 +9001,9 @@
         <v>138</v>
       </c>
       <c r="K57" s="89"/>
-      <c r="M57" s="193"/>
-      <c r="N57" s="194"/>
-      <c r="O57" s="195"/>
+      <c r="M57" s="194"/>
+      <c r="N57" s="195"/>
+      <c r="O57" s="196"/>
     </row>
     <row r="58" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="108" t="s">
@@ -8914,11 +9027,11 @@
       <c r="B59" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="C59" s="177" t="s">
+      <c r="C59" s="178" t="s">
         <v>179</v>
       </c>
       <c r="D59" s="107"/>
-      <c r="E59" s="167" t="s">
+      <c r="E59" s="168" t="s">
         <v>81</v>
       </c>
       <c r="F59" s="93" t="s">
@@ -8930,10 +9043,10 @@
       <c r="H59" s="93">
         <v>2</v>
       </c>
-      <c r="I59" s="189">
+      <c r="I59" s="190">
         <v>3</v>
       </c>
-      <c r="J59" s="190"/>
+      <c r="J59" s="191"/>
       <c r="K59" s="89"/>
     </row>
     <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -8943,9 +9056,9 @@
       <c r="B60" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="C60" s="178"/>
+      <c r="C60" s="179"/>
       <c r="D60" s="107"/>
-      <c r="E60" s="168"/>
+      <c r="E60" s="169"/>
       <c r="F60" s="67" t="s">
         <v>59</v>
       </c>
@@ -8955,10 +9068,10 @@
       <c r="H60" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="I60" s="181" t="s">
+      <c r="I60" s="182" t="s">
         <v>142</v>
       </c>
-      <c r="J60" s="182"/>
+      <c r="J60" s="183"/>
       <c r="K60" s="89"/>
     </row>
     <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -8980,11 +9093,11 @@
     </row>
     <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="163" t="s">
+      <c r="A64" s="164" t="s">
         <v>160</v>
       </c>
-      <c r="B64" s="164"/>
-      <c r="C64" s="164"/>
+      <c r="B64" s="165"/>
+      <c r="C64" s="165"/>
       <c r="D64" s="36"/>
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
@@ -9003,9 +9116,9 @@
       <c r="K64" s="87"/>
     </row>
     <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="165"/>
-      <c r="B65" s="166"/>
-      <c r="C65" s="166"/>
+      <c r="A65" s="166"/>
+      <c r="B65" s="167"/>
+      <c r="C65" s="167"/>
       <c r="D65" s="107"/>
       <c r="E65" s="39" t="s">
         <v>44</v>
@@ -9054,18 +9167,18 @@
         <v>555</v>
       </c>
       <c r="K66" s="89"/>
-      <c r="M66" s="160" t="s">
+      <c r="M66" s="161" t="s">
         <v>162</v>
       </c>
-      <c r="N66" s="161"/>
-      <c r="O66" s="162"/>
+      <c r="N66" s="162"/>
+      <c r="O66" s="163"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="174" t="s">
+      <c r="A67" s="175" t="s">
         <v>181</v>
       </c>
-      <c r="B67" s="175"/>
-      <c r="C67" s="175"/>
+      <c r="B67" s="176"/>
+      <c r="C67" s="176"/>
       <c r="D67" s="107"/>
       <c r="E67" s="46" t="s">
         <v>50</v>
@@ -9089,16 +9202,16 @@
         <v>25.5</v>
       </c>
       <c r="K67" s="89"/>
-      <c r="M67" s="183" t="s">
+      <c r="M67" s="184" t="s">
         <v>186</v>
       </c>
-      <c r="N67" s="175"/>
-      <c r="O67" s="191"/>
+      <c r="N67" s="176"/>
+      <c r="O67" s="192"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="176"/>
-      <c r="B68" s="175"/>
-      <c r="C68" s="175"/>
+      <c r="A68" s="177"/>
+      <c r="B68" s="176"/>
+      <c r="C68" s="176"/>
       <c r="D68" s="107"/>
       <c r="E68" s="46" t="s">
         <v>51</v>
@@ -9113,14 +9226,14 @@
       <c r="I68" s="110"/>
       <c r="J68" s="109"/>
       <c r="K68" s="89"/>
-      <c r="M68" s="192"/>
-      <c r="N68" s="175"/>
-      <c r="O68" s="191"/>
+      <c r="M68" s="193"/>
+      <c r="N68" s="176"/>
+      <c r="O68" s="192"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="176"/>
-      <c r="B69" s="175"/>
-      <c r="C69" s="175"/>
+      <c r="A69" s="177"/>
+      <c r="B69" s="176"/>
+      <c r="C69" s="176"/>
       <c r="D69" s="107"/>
       <c r="E69" s="46" t="s">
         <v>52</v>
@@ -9144,9 +9257,9 @@
         <v>51</v>
       </c>
       <c r="K69" s="89"/>
-      <c r="M69" s="192"/>
-      <c r="N69" s="175"/>
-      <c r="O69" s="191"/>
+      <c r="M69" s="193"/>
+      <c r="N69" s="176"/>
+      <c r="O69" s="192"/>
     </row>
     <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="90"/>
@@ -9168,9 +9281,9 @@
       </c>
       <c r="J70" s="101"/>
       <c r="K70" s="89"/>
-      <c r="M70" s="193"/>
-      <c r="N70" s="194"/>
-      <c r="O70" s="195"/>
+      <c r="M70" s="194"/>
+      <c r="N70" s="195"/>
+      <c r="O70" s="196"/>
     </row>
     <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="52" t="s">
@@ -9198,9 +9311,9 @@
       <c r="B72" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="C72" s="177"/>
+      <c r="C72" s="178"/>
       <c r="D72" s="107"/>
-      <c r="E72" s="167" t="s">
+      <c r="E72" s="168" t="s">
         <v>74</v>
       </c>
       <c r="F72" s="93" t="s">
@@ -9219,11 +9332,11 @@
         <v>4</v>
       </c>
       <c r="K72" s="89"/>
-      <c r="M72" s="160" t="s">
+      <c r="M72" s="161" t="s">
         <v>159</v>
       </c>
-      <c r="N72" s="161"/>
-      <c r="O72" s="162"/>
+      <c r="N72" s="162"/>
+      <c r="O72" s="163"/>
     </row>
     <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="94" t="s">
@@ -9232,9 +9345,9 @@
       <c r="B73" s="95" t="s">
         <v>173</v>
       </c>
-      <c r="C73" s="178"/>
+      <c r="C73" s="179"/>
       <c r="D73" s="107"/>
-      <c r="E73" s="168"/>
+      <c r="E73" s="169"/>
       <c r="F73" s="67" t="s">
         <v>59</v>
       </c>
@@ -9251,11 +9364,11 @@
         <v>166</v>
       </c>
       <c r="K73" s="89"/>
-      <c r="M73" s="183" t="s">
+      <c r="M73" s="184" t="s">
         <v>188</v>
       </c>
-      <c r="N73" s="175"/>
-      <c r="O73" s="191"/>
+      <c r="N73" s="176"/>
+      <c r="O73" s="192"/>
     </row>
     <row r="74" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="108" t="s">
@@ -9271,9 +9384,9 @@
       <c r="I74" s="107"/>
       <c r="J74" s="107"/>
       <c r="K74" s="89"/>
-      <c r="M74" s="192"/>
-      <c r="N74" s="175"/>
-      <c r="O74" s="191"/>
+      <c r="M74" s="193"/>
+      <c r="N74" s="176"/>
+      <c r="O74" s="192"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="91">
@@ -9282,9 +9395,9 @@
       <c r="B75" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="C75" s="179"/>
+      <c r="C75" s="180"/>
       <c r="D75" s="107"/>
-      <c r="E75" s="167" t="s">
+      <c r="E75" s="168" t="s">
         <v>80</v>
       </c>
       <c r="F75" s="93" t="s">
@@ -9303,9 +9416,9 @@
         <v>4</v>
       </c>
       <c r="K75" s="89"/>
-      <c r="M75" s="192"/>
-      <c r="N75" s="175"/>
-      <c r="O75" s="191"/>
+      <c r="M75" s="193"/>
+      <c r="N75" s="176"/>
+      <c r="O75" s="192"/>
     </row>
     <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="94" t="s">
@@ -9314,9 +9427,9 @@
       <c r="B76" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="C76" s="180"/>
+      <c r="C76" s="181"/>
       <c r="D76" s="107"/>
-      <c r="E76" s="168"/>
+      <c r="E76" s="169"/>
       <c r="F76" s="67" t="s">
         <v>59</v>
       </c>
@@ -9333,9 +9446,9 @@
         <v>170</v>
       </c>
       <c r="K76" s="89"/>
-      <c r="M76" s="193"/>
-      <c r="N76" s="194"/>
-      <c r="O76" s="195"/>
+      <c r="M76" s="194"/>
+      <c r="N76" s="195"/>
+      <c r="O76" s="196"/>
     </row>
     <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="108" t="s">
@@ -9359,11 +9472,11 @@
       <c r="B78" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="C78" s="177" t="s">
+      <c r="C78" s="178" t="s">
         <v>194</v>
       </c>
       <c r="D78" s="107"/>
-      <c r="E78" s="167" t="s">
+      <c r="E78" s="168" t="s">
         <v>81</v>
       </c>
       <c r="F78" s="93" t="s">
@@ -9375,10 +9488,10 @@
       <c r="H78" s="93">
         <v>2</v>
       </c>
-      <c r="I78" s="189">
+      <c r="I78" s="190">
         <v>3</v>
       </c>
-      <c r="J78" s="190"/>
+      <c r="J78" s="191"/>
       <c r="K78" s="89"/>
     </row>
     <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9388,9 +9501,9 @@
       <c r="B79" s="96" t="s">
         <v>180</v>
       </c>
-      <c r="C79" s="178"/>
+      <c r="C79" s="179"/>
       <c r="D79" s="107"/>
-      <c r="E79" s="168"/>
+      <c r="E79" s="169"/>
       <c r="F79" s="67" t="s">
         <v>59</v>
       </c>
@@ -9400,10 +9513,10 @@
       <c r="H79" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="I79" s="181" t="s">
+      <c r="I79" s="182" t="s">
         <v>187</v>
       </c>
-      <c r="J79" s="182"/>
+      <c r="J79" s="183"/>
       <c r="K79" s="89"/>
     </row>
     <row r="80" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9486,8 +9599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739D2FDF-FF58-405E-A4E4-D6DDA6C3C12C}">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9499,71 +9612,71 @@
     <col min="5" max="5" width="17" style="35" customWidth="1"/>
     <col min="6" max="6" width="9" style="35"/>
     <col min="7" max="7" width="16" style="35" customWidth="1"/>
-    <col min="8" max="8" width="9" style="261"/>
+    <col min="8" max="8" width="9" style="262"/>
     <col min="9" max="9" width="9.375" style="33" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.875" style="33" customWidth="1"/>
     <col min="11" max="11" width="19.875" style="33" customWidth="1"/>
     <col min="12" max="12" width="38.25" style="33" customWidth="1"/>
     <col min="13" max="13" width="34.25" style="33" customWidth="1"/>
-    <col min="14" max="14" width="13.625" style="33" customWidth="1"/>
+    <col min="14" max="14" width="25.25" style="33" customWidth="1"/>
     <col min="15" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="261"/>
-      <c r="B1" s="261"/>
-      <c r="C1" s="261"/>
-      <c r="D1" s="261"/>
-      <c r="E1" s="261"/>
-      <c r="F1" s="261"/>
-      <c r="G1" s="261"/>
-    </row>
-    <row r="2" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="261"/>
-      <c r="B2" s="207" t="s">
+    <row r="1" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="262"/>
+      <c r="B1" s="262"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="262"/>
+      <c r="G1" s="262"/>
+    </row>
+    <row r="2" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="262"/>
+      <c r="B2" s="208" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="I2" s="207" t="s">
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="I2" s="208" t="s">
         <v>263</v>
       </c>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-    </row>
-    <row r="3" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="261"/>
-      <c r="B3" s="208"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
-    </row>
-    <row r="4" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="261"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+    </row>
+    <row r="3" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="262"/>
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="209"/>
+    </row>
+    <row r="4" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="262"/>
       <c r="B4" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="214" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="213"/>
-      <c r="E4" s="213"/>
-      <c r="F4" s="213" t="s">
+      <c r="D4" s="214"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="214" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="214"/>
+      <c r="G4" s="215"/>
       <c r="I4" s="129" t="s">
         <v>225</v>
       </c>
@@ -9580,52 +9693,52 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="261"/>
-      <c r="B5" s="215" t="s">
+    <row r="5" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="262"/>
+      <c r="B5" s="216" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="28">
         <v>1</v>
       </c>
-      <c r="D5" s="263" t="s">
+      <c r="D5" s="264" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="264"/>
-      <c r="F5" s="224" t="s">
+      <c r="E5" s="265"/>
+      <c r="F5" s="225" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="225"/>
-      <c r="I5" s="260">
+      <c r="G5" s="226"/>
+      <c r="I5" s="261">
         <v>12</v>
       </c>
-      <c r="J5" s="252" t="s">
+      <c r="J5" s="253" t="s">
         <v>107</v>
       </c>
       <c r="K5" s="130">
         <v>1</v>
       </c>
       <c r="L5" s="130" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M5" s="128" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="261"/>
-      <c r="B6" s="216"/>
+    <row r="6" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="262"/>
+      <c r="B6" s="217"/>
       <c r="C6" s="30">
         <v>2</v>
       </c>
-      <c r="D6" s="263" t="s">
+      <c r="D6" s="264" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="264"/>
-      <c r="F6" s="226"/>
-      <c r="G6" s="221"/>
-      <c r="I6" s="254"/>
-      <c r="J6" s="256"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="227"/>
+      <c r="G6" s="222"/>
+      <c r="I6" s="255"/>
+      <c r="J6" s="257"/>
       <c r="K6" s="131">
         <v>2</v>
       </c>
@@ -9635,21 +9748,24 @@
       <c r="M6" s="125" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="261"/>
-      <c r="B7" s="217"/>
+      <c r="N6" s="33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="262"/>
+      <c r="B7" s="218"/>
       <c r="C7" s="105">
         <v>3</v>
       </c>
-      <c r="D7" s="218" t="s">
+      <c r="D7" s="219" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="219"/>
-      <c r="F7" s="227"/>
-      <c r="G7" s="228"/>
-      <c r="I7" s="255"/>
-      <c r="J7" s="253"/>
+      <c r="E7" s="220"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="229"/>
+      <c r="I7" s="256"/>
+      <c r="J7" s="254"/>
       <c r="K7" s="132">
         <v>3</v>
       </c>
@@ -9657,49 +9773,52 @@
         <v>262</v>
       </c>
       <c r="M7" s="126"/>
-    </row>
-    <row r="8" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="261"/>
+      <c r="N7" s="33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="262"/>
       <c r="B8" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="196" t="s">
+      <c r="C8" s="197" t="s">
         <v>195</v>
       </c>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="197"/>
-      <c r="I8" s="260">
+      <c r="D8" s="197"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="198"/>
+      <c r="I8" s="261">
         <v>18</v>
       </c>
-      <c r="J8" s="252" t="s">
+      <c r="J8" s="253" t="s">
         <v>227</v>
       </c>
       <c r="K8" s="130">
         <v>1</v>
       </c>
       <c r="L8" s="130" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M8" s="128" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="261"/>
+    <row r="9" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="262"/>
       <c r="B9" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="218" t="s">
+      <c r="C9" s="219" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="218"/>
-      <c r="E9" s="218"/>
-      <c r="F9" s="220"/>
-      <c r="G9" s="221"/>
-      <c r="I9" s="254"/>
-      <c r="J9" s="256"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="219"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="222"/>
+      <c r="I9" s="255"/>
+      <c r="J9" s="257"/>
       <c r="K9" s="131">
         <v>2</v>
       </c>
@@ -9709,21 +9828,24 @@
       <c r="M9" s="125" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="261"/>
+      <c r="N9" s="33" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="262"/>
       <c r="B10" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="196" t="s">
+      <c r="C10" s="197" t="s">
         <v>197</v>
       </c>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="197"/>
-      <c r="I10" s="255"/>
-      <c r="J10" s="253"/>
+      <c r="D10" s="197"/>
+      <c r="E10" s="197"/>
+      <c r="F10" s="197"/>
+      <c r="G10" s="198"/>
+      <c r="I10" s="256"/>
+      <c r="J10" s="254"/>
       <c r="K10" s="132">
         <v>3</v>
       </c>
@@ -9731,45 +9853,48 @@
         <v>258</v>
       </c>
       <c r="M10" s="126"/>
-    </row>
-    <row r="11" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="261"/>
+      <c r="N10" s="33" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="262"/>
       <c r="B11" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="222" t="s">
+      <c r="C11" s="223" t="s">
         <v>198</v>
       </c>
-      <c r="D11" s="222"/>
-      <c r="E11" s="222"/>
-      <c r="F11" s="222"/>
-      <c r="G11" s="223"/>
-      <c r="I11" s="260">
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="224"/>
+      <c r="I11" s="261">
         <v>4</v>
       </c>
-      <c r="J11" s="252" t="s">
+      <c r="J11" s="253" t="s">
         <v>230</v>
       </c>
       <c r="K11" s="130">
         <v>0</v>
       </c>
       <c r="L11" s="130" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M11" s="128" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="261"/>
-      <c r="B12" s="261"/>
-      <c r="C12" s="261"/>
-      <c r="D12" s="261"/>
-      <c r="E12" s="261"/>
-      <c r="F12" s="261"/>
-      <c r="G12" s="261"/>
-      <c r="I12" s="254"/>
-      <c r="J12" s="256"/>
+    <row r="12" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="262"/>
+      <c r="B12" s="262"/>
+      <c r="C12" s="262"/>
+      <c r="D12" s="262"/>
+      <c r="E12" s="262"/>
+      <c r="F12" s="262"/>
+      <c r="G12" s="262"/>
+      <c r="I12" s="255"/>
+      <c r="J12" s="257"/>
       <c r="K12" s="131">
         <v>1</v>
       </c>
@@ -9779,59 +9904,68 @@
       <c r="M12" s="125" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="261"/>
-      <c r="B13" s="261"/>
-      <c r="C13" s="261"/>
-      <c r="D13" s="261"/>
-      <c r="E13" s="261"/>
-      <c r="F13" s="261"/>
-      <c r="G13" s="261"/>
-      <c r="I13" s="254"/>
-      <c r="J13" s="256"/>
+      <c r="N12" s="33" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="262"/>
+      <c r="B13" s="262"/>
+      <c r="C13" s="262"/>
+      <c r="D13" s="262"/>
+      <c r="E13" s="262"/>
+      <c r="F13" s="262"/>
+      <c r="G13" s="262"/>
+      <c r="I13" s="255"/>
+      <c r="J13" s="257"/>
       <c r="K13" s="131">
         <v>2</v>
       </c>
       <c r="L13" s="131" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M13" s="125" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="207" t="s">
+      <c r="N13" s="33" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="208" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="209"/>
-      <c r="C14" s="209"/>
-      <c r="D14" s="209"/>
-      <c r="E14" s="209"/>
-      <c r="F14" s="209"/>
-      <c r="G14" s="209"/>
-      <c r="I14" s="255"/>
-      <c r="J14" s="253"/>
+      <c r="B14" s="210"/>
+      <c r="C14" s="210"/>
+      <c r="D14" s="210"/>
+      <c r="E14" s="210"/>
+      <c r="F14" s="210"/>
+      <c r="G14" s="210"/>
+      <c r="I14" s="256"/>
+      <c r="J14" s="254"/>
       <c r="K14" s="132">
         <v>3</v>
       </c>
       <c r="L14" s="132" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M14" s="126"/>
-    </row>
-    <row r="15" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="209"/>
-      <c r="B15" s="209"/>
-      <c r="C15" s="209"/>
-      <c r="D15" s="209"/>
-      <c r="E15" s="209"/>
-      <c r="F15" s="209"/>
-      <c r="G15" s="209"/>
-      <c r="I15" s="260">
+      <c r="N14" s="33" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="210"/>
+      <c r="B15" s="210"/>
+      <c r="C15" s="210"/>
+      <c r="D15" s="210"/>
+      <c r="E15" s="210"/>
+      <c r="F15" s="210"/>
+      <c r="G15" s="210"/>
+      <c r="I15" s="261">
         <v>3</v>
       </c>
-      <c r="J15" s="252" t="s">
+      <c r="J15" s="253" t="s">
         <v>158</v>
       </c>
       <c r="K15" s="130">
@@ -9842,24 +9976,24 @@
       </c>
       <c r="M15" s="128"/>
     </row>
-    <row r="16" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>98</v>
       </c>
       <c r="B16" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="210" t="s">
+      <c r="C16" s="211" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="210"/>
-      <c r="E16" s="210" t="s">
+      <c r="D16" s="211"/>
+      <c r="E16" s="211" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="211"/>
-      <c r="G16" s="212"/>
-      <c r="I16" s="254"/>
-      <c r="J16" s="256"/>
+      <c r="F16" s="212"/>
+      <c r="G16" s="213"/>
+      <c r="I16" s="255"/>
+      <c r="J16" s="257"/>
       <c r="K16" s="131">
         <v>1</v>
       </c>
@@ -9869,43 +10003,49 @@
       <c r="M16" s="125" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="229" t="s">
+      <c r="N16" s="33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="230" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="232" t="s">
+      <c r="B17" s="233" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="238" t="s">
+      <c r="C17" s="239" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="239"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="202"/>
-      <c r="G17" s="203"/>
-      <c r="I17" s="254"/>
-      <c r="J17" s="256"/>
+      <c r="D17" s="240"/>
+      <c r="E17" s="202"/>
+      <c r="F17" s="203"/>
+      <c r="G17" s="204"/>
+      <c r="I17" s="255"/>
+      <c r="J17" s="257"/>
       <c r="K17" s="131">
         <v>2</v>
       </c>
       <c r="L17" s="131" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="M17" s="125" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="229"/>
-      <c r="B18" s="233"/>
-      <c r="C18" s="240"/>
-      <c r="D18" s="241"/>
-      <c r="E18" s="198"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="200"/>
-      <c r="I18" s="255"/>
-      <c r="J18" s="253"/>
+      <c r="N17" s="33" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="230"/>
+      <c r="B18" s="234"/>
+      <c r="C18" s="241"/>
+      <c r="D18" s="242"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="200"/>
+      <c r="G18" s="201"/>
+      <c r="I18" s="256"/>
+      <c r="J18" s="254"/>
       <c r="K18" s="132">
         <v>3</v>
       </c>
@@ -9913,45 +10053,48 @@
         <v>248</v>
       </c>
       <c r="M18" s="126"/>
-    </row>
-    <row r="19" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="231" t="s">
+      <c r="N18" s="134" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="232" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="234"/>
-      <c r="C19" s="242"/>
-      <c r="D19" s="243"/>
-      <c r="E19" s="201"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="203"/>
-      <c r="I19" s="257" t="s">
+      <c r="B19" s="235"/>
+      <c r="C19" s="243"/>
+      <c r="D19" s="244"/>
+      <c r="E19" s="202"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="204"/>
+      <c r="I19" s="258" t="s">
         <v>228</v>
       </c>
-      <c r="J19" s="252" t="s">
+      <c r="J19" s="253" t="s">
         <v>226</v>
       </c>
       <c r="K19" s="130">
         <v>0</v>
       </c>
       <c r="L19" s="130" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M19" s="128"/>
     </row>
-    <row r="20" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="231"/>
-      <c r="B20" s="235" t="s">
+    <row r="20" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="232"/>
+      <c r="B20" s="236" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="244" t="s">
+      <c r="C20" s="245" t="s">
         <v>220</v>
       </c>
-      <c r="D20" s="245"/>
-      <c r="E20" s="198"/>
-      <c r="F20" s="199"/>
-      <c r="G20" s="200"/>
-      <c r="I20" s="258"/>
-      <c r="J20" s="256"/>
+      <c r="D20" s="246"/>
+      <c r="E20" s="199"/>
+      <c r="F20" s="200"/>
+      <c r="G20" s="201"/>
+      <c r="I20" s="259"/>
+      <c r="J20" s="257"/>
       <c r="K20" s="131">
         <v>1</v>
       </c>
@@ -9961,19 +10104,22 @@
       <c r="M20" s="125" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="229" t="s">
+      <c r="N20" s="33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="230" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="236"/>
-      <c r="C21" s="246"/>
-      <c r="D21" s="247"/>
-      <c r="E21" s="201"/>
-      <c r="F21" s="202"/>
-      <c r="G21" s="203"/>
-      <c r="I21" s="258"/>
-      <c r="J21" s="256"/>
+      <c r="B21" s="237"/>
+      <c r="C21" s="247"/>
+      <c r="D21" s="248"/>
+      <c r="E21" s="202"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="204"/>
+      <c r="I21" s="259"/>
+      <c r="J21" s="257"/>
       <c r="K21" s="131">
         <v>2</v>
       </c>
@@ -9983,17 +10129,20 @@
       <c r="M21" s="125" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="229"/>
-      <c r="B22" s="237"/>
-      <c r="C22" s="248"/>
-      <c r="D22" s="249"/>
-      <c r="E22" s="198"/>
-      <c r="F22" s="199"/>
-      <c r="G22" s="200"/>
-      <c r="I22" s="259"/>
-      <c r="J22" s="253"/>
+      <c r="N21" s="33" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="230"/>
+      <c r="B22" s="238"/>
+      <c r="C22" s="249"/>
+      <c r="D22" s="250"/>
+      <c r="E22" s="199"/>
+      <c r="F22" s="200"/>
+      <c r="G22" s="201"/>
+      <c r="I22" s="260"/>
+      <c r="J22" s="254"/>
       <c r="K22" s="132">
         <v>3</v>
       </c>
@@ -10001,25 +10150,28 @@
         <v>247</v>
       </c>
       <c r="M22" s="126"/>
-    </row>
-    <row r="23" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="231" t="s">
+      <c r="N22" s="33" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="232" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="232">
+      <c r="B23" s="233">
         <v>1</v>
       </c>
-      <c r="C23" s="238" t="s">
+      <c r="C23" s="239" t="s">
         <v>190</v>
       </c>
-      <c r="D23" s="239"/>
-      <c r="E23" s="201"/>
-      <c r="F23" s="202"/>
-      <c r="G23" s="203"/>
-      <c r="I23" s="260" t="s">
+      <c r="D23" s="240"/>
+      <c r="E23" s="202"/>
+      <c r="F23" s="203"/>
+      <c r="G23" s="204"/>
+      <c r="I23" s="261" t="s">
         <v>232</v>
       </c>
-      <c r="J23" s="252" t="s">
+      <c r="J23" s="253" t="s">
         <v>229</v>
       </c>
       <c r="K23" s="130">
@@ -10029,19 +10181,19 @@
         <v>239</v>
       </c>
       <c r="M23" s="128" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="231"/>
-      <c r="B24" s="234"/>
-      <c r="C24" s="242"/>
-      <c r="D24" s="243"/>
-      <c r="E24" s="198"/>
-      <c r="F24" s="199"/>
-      <c r="G24" s="200"/>
-      <c r="I24" s="254"/>
-      <c r="J24" s="256"/>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="232"/>
+      <c r="B24" s="235"/>
+      <c r="C24" s="243"/>
+      <c r="D24" s="244"/>
+      <c r="E24" s="199"/>
+      <c r="F24" s="200"/>
+      <c r="G24" s="201"/>
+      <c r="I24" s="255"/>
+      <c r="J24" s="257"/>
       <c r="K24" s="131">
         <v>1</v>
       </c>
@@ -10052,66 +10204,66 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="231"/>
-      <c r="B25" s="232">
+    <row r="25" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="232"/>
+      <c r="B25" s="233">
         <v>2</v>
       </c>
-      <c r="C25" s="244" t="s">
+      <c r="C25" s="245" t="s">
         <v>192</v>
       </c>
-      <c r="D25" s="245"/>
-      <c r="E25" s="201"/>
-      <c r="F25" s="202"/>
-      <c r="G25" s="203"/>
-      <c r="I25" s="254"/>
-      <c r="J25" s="256"/>
+      <c r="D25" s="246"/>
+      <c r="E25" s="202"/>
+      <c r="F25" s="203"/>
+      <c r="G25" s="204"/>
+      <c r="I25" s="255"/>
+      <c r="J25" s="257"/>
       <c r="K25" s="131">
         <v>2</v>
       </c>
       <c r="L25" s="131" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M25" s="125" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="229" t="s">
+    <row r="26" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="230" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="234"/>
-      <c r="C26" s="248"/>
-      <c r="D26" s="249"/>
-      <c r="E26" s="198"/>
-      <c r="F26" s="199"/>
-      <c r="G26" s="200"/>
-      <c r="I26" s="255"/>
-      <c r="J26" s="253"/>
+      <c r="B26" s="235"/>
+      <c r="C26" s="249"/>
+      <c r="D26" s="250"/>
+      <c r="E26" s="199"/>
+      <c r="F26" s="200"/>
+      <c r="G26" s="201"/>
+      <c r="I26" s="256"/>
+      <c r="J26" s="254"/>
       <c r="K26" s="132">
         <v>3</v>
       </c>
       <c r="L26" s="132" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M26" s="126"/>
     </row>
-    <row r="27" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="229"/>
-      <c r="B27" s="232">
+    <row r="27" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="230"/>
+      <c r="B27" s="233">
         <v>3</v>
       </c>
-      <c r="C27" s="238" t="s">
+      <c r="C27" s="239" t="s">
         <v>191</v>
       </c>
-      <c r="D27" s="239"/>
-      <c r="E27" s="201"/>
-      <c r="F27" s="202"/>
-      <c r="G27" s="203"/>
-      <c r="I27" s="254">
+      <c r="D27" s="240"/>
+      <c r="E27" s="202"/>
+      <c r="F27" s="203"/>
+      <c r="G27" s="204"/>
+      <c r="I27" s="255">
         <v>17</v>
       </c>
-      <c r="J27" s="256" t="s">
+      <c r="J27" s="257" t="s">
         <v>231</v>
       </c>
       <c r="K27" s="131">
@@ -10123,71 +10275,80 @@
       <c r="M27" s="125" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="230"/>
-      <c r="B28" s="262"/>
-      <c r="C28" s="250"/>
-      <c r="D28" s="251"/>
-      <c r="E28" s="204"/>
-      <c r="F28" s="205"/>
-      <c r="G28" s="206"/>
-      <c r="I28" s="254"/>
-      <c r="J28" s="256"/>
+      <c r="N27" s="134" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="231"/>
+      <c r="B28" s="263"/>
+      <c r="C28" s="251"/>
+      <c r="D28" s="252"/>
+      <c r="E28" s="205"/>
+      <c r="F28" s="206"/>
+      <c r="G28" s="207"/>
+      <c r="I28" s="255"/>
+      <c r="J28" s="257"/>
       <c r="K28" s="131">
         <v>2</v>
       </c>
       <c r="L28" s="131" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M28" s="125" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="231" t="s">
+      <c r="N28" s="134" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="232" t="s">
         <v>124</v>
       </c>
       <c r="B29" s="109">
         <v>1</v>
       </c>
-      <c r="C29" s="201" t="s">
+      <c r="C29" s="202" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="201"/>
-      <c r="E29" s="201" t="s">
+      <c r="D29" s="202"/>
+      <c r="E29" s="202" t="s">
         <v>126</v>
       </c>
-      <c r="F29" s="202"/>
-      <c r="G29" s="203"/>
-      <c r="I29" s="254"/>
-      <c r="J29" s="256"/>
+      <c r="F29" s="203"/>
+      <c r="G29" s="204"/>
+      <c r="I29" s="255"/>
+      <c r="J29" s="257"/>
       <c r="K29" s="131">
         <v>3</v>
       </c>
       <c r="L29" s="131" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M29" s="125"/>
-    </row>
-    <row r="30" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="265"/>
+      <c r="N29" s="134" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="266"/>
       <c r="B30" s="112">
         <v>2</v>
       </c>
-      <c r="C30" s="204" t="s">
+      <c r="C30" s="205" t="s">
         <v>189</v>
       </c>
-      <c r="D30" s="204"/>
-      <c r="E30" s="204" t="s">
+      <c r="D30" s="205"/>
+      <c r="E30" s="205" t="s">
         <v>193</v>
       </c>
-      <c r="F30" s="205"/>
-      <c r="G30" s="206"/>
-      <c r="I30" s="260">
+      <c r="F30" s="206"/>
+      <c r="G30" s="207"/>
+      <c r="I30" s="261">
         <v>1</v>
       </c>
-      <c r="J30" s="252" t="s">
+      <c r="J30" s="253" t="s">
         <v>233</v>
       </c>
       <c r="K30" s="130">
@@ -10198,20 +10359,20 @@
       </c>
       <c r="M30" s="128"/>
     </row>
-    <row r="31" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I31" s="255"/>
-      <c r="J31" s="253"/>
+    <row r="31" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="256"/>
+      <c r="J31" s="254"/>
       <c r="K31" s="132">
         <v>1</v>
       </c>
       <c r="L31" s="132"/>
       <c r="M31" s="126"/>
     </row>
-    <row r="32" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I32" s="254">
+    <row r="32" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I32" s="255">
         <v>2</v>
       </c>
-      <c r="J32" s="256" t="s">
+      <c r="J32" s="257" t="s">
         <v>234</v>
       </c>
       <c r="K32" s="131">
@@ -10223,8 +10384,8 @@
       <c r="M32" s="125"/>
     </row>
     <row r="33" spans="9:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I33" s="255"/>
-      <c r="J33" s="253"/>
+      <c r="I33" s="256"/>
+      <c r="J33" s="254"/>
       <c r="K33" s="132">
         <v>1</v>
       </c>

--- a/文物娘.xlsx
+++ b/文物娘.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GameMaker\Final Work\Github\CultureRelicGirls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76B4DD4-003D-4335-8338-0D583BEE0DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1FDC82-603A-4B75-A16E-CE21B38CCE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{1E3677C8-2B1C-423A-AEA1-C1DF63D56BAF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{1E3677C8-2B1C-423A-AEA1-C1DF63D56BAF}"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="315">
   <si>
     <t>司母戊鼎</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -759,10 +759,6 @@
   </si>
   <si>
     <t>145 - 100</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>四级强化开放</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -906,18 +902,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Fighter</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Blocker</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Blocker_Level0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>1F_Upstair</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -926,10 +914,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>140+20min</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>名称</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1126,10 +1110,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>活力全开的碳材料转换器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>产生大量意识晶体的神奇植物</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1259,6 +1239,70 @@
   </si>
   <si>
     <t>11/5min,最多132</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>150+20min</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火力全开的碳材料转换器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO2机器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100+10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200+20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>300+40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级强化</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗塞塔石碑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fighter0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fighter1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blocker2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fighter2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tank</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blocker3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fighter3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tank2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2510,7 +2554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="268">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2916,6 +2960,42 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="67" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="77" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="76" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2925,60 +3005,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="67" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="77" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="76" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2994,13 +3020,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="58" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="59" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="36" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="37" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="76" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3015,10 +3125,10 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="9" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3036,70 +3146,178 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="36" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="37" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="58" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="59" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="76" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="80" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="81" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="34" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="88" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="35" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="82" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="69" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="83" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="84" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="65" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="70" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="61" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="85" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="87" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="62" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3108,6 +3326,27 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="60" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="64" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="65" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="61" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="66" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3117,199 +3356,7 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="34" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="88" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="35" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="87" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="62" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="60" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="64" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="65" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="61" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="66" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="82" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="69" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="83" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="84" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="65" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="70" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="61" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="85" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="80" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="81" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3634,8 +3681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D91B1E5-0340-464B-AF90-56D459836ED7}">
   <dimension ref="B1:V39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3650,67 +3697,67 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="155" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="155" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="155" t="s">
         <v>277</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="144" t="s">
-        <v>281</v>
-      </c>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="144" t="s">
-        <v>282</v>
-      </c>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="145" t="s">
-        <v>283</v>
-      </c>
-      <c r="S2" s="145"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="146"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="156" t="s">
+        <v>278</v>
+      </c>
+      <c r="S2" s="156"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="156"/>
+      <c r="V2" s="157"/>
     </row>
     <row r="3" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="150" t="s">
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="147" t="s">
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="148"/>
-      <c r="O3" s="148"/>
-      <c r="P3" s="148"/>
-      <c r="Q3" s="149"/>
-      <c r="R3" s="150" t="s">
+      <c r="N3" s="162"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="162"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="151"/>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="152"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="160"/>
     </row>
     <row r="4" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -4028,94 +4075,94 @@
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="135" t="s">
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="136"/>
-      <c r="J8" s="136"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="135" t="s">
+      <c r="I8" s="148"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="136"/>
-      <c r="O8" s="136"/>
-      <c r="P8" s="136"/>
-      <c r="Q8" s="137"/>
-      <c r="R8" s="135" t="s">
+      <c r="N8" s="148"/>
+      <c r="O8" s="148"/>
+      <c r="P8" s="148"/>
+      <c r="Q8" s="149"/>
+      <c r="R8" s="147" t="s">
         <v>114</v>
       </c>
-      <c r="S8" s="136"/>
-      <c r="T8" s="136"/>
-      <c r="U8" s="136"/>
-      <c r="V8" s="137"/>
+      <c r="S8" s="148"/>
+      <c r="T8" s="148"/>
+      <c r="U8" s="148"/>
+      <c r="V8" s="149"/>
     </row>
     <row r="9" spans="2:22" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="156" t="s">
+      <c r="C9" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="156" t="s">
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="157"/>
-      <c r="J9" s="157"/>
-      <c r="K9" s="157"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="156" t="s">
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="157"/>
-      <c r="O9" s="157"/>
-      <c r="P9" s="157"/>
-      <c r="Q9" s="158"/>
-      <c r="R9" s="156" t="s">
+      <c r="N9" s="151"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="152"/>
+      <c r="R9" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="157"/>
-      <c r="T9" s="157"/>
-      <c r="U9" s="157"/>
-      <c r="V9" s="158"/>
+      <c r="S9" s="151"/>
+      <c r="T9" s="151"/>
+      <c r="U9" s="151"/>
+      <c r="V9" s="152"/>
     </row>
     <row r="11" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="144" t="s">
-        <v>280</v>
-      </c>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="144" t="s">
-        <v>278</v>
-      </c>
-      <c r="I12" s="145"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="145"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="144" t="s">
-        <v>279</v>
-      </c>
-      <c r="N12" s="145"/>
-      <c r="O12" s="145"/>
-      <c r="P12" s="145"/>
-      <c r="Q12" s="146"/>
+      <c r="C12" s="155" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="155" t="s">
+        <v>273</v>
+      </c>
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="157"/>
+      <c r="M12" s="155" t="s">
+        <v>274</v>
+      </c>
+      <c r="N12" s="156"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="156"/>
+      <c r="Q12" s="157"/>
       <c r="S12" s="113">
         <v>2.1</v>
       </c>
@@ -4130,27 +4177,27 @@
       <c r="B13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="141" t="s">
+      <c r="C13" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="141" t="s">
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="142"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="142"/>
-      <c r="L13" s="143"/>
-      <c r="M13" s="161" t="s">
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="N13" s="162"/>
-      <c r="O13" s="162"/>
-      <c r="P13" s="162"/>
-      <c r="Q13" s="163"/>
+      <c r="N13" s="139"/>
+      <c r="O13" s="139"/>
+      <c r="P13" s="139"/>
+      <c r="Q13" s="140"/>
       <c r="S13" s="116">
         <v>1.8</v>
       </c>
@@ -4231,49 +4278,49 @@
       <c r="U14" s="118">
         <v>1</v>
       </c>
-      <c r="V14" s="159"/>
+      <c r="V14" s="153"/>
     </row>
     <row r="15" spans="2:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="15">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D15" s="18">
         <f>C15*1.2</f>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E15" s="18">
         <f>C15*1.5</f>
-        <v>37.5</v>
+        <v>30</v>
       </c>
       <c r="F15" s="18">
         <f>C15*1.8</f>
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G15" s="21">
         <f>C15*2.1</f>
-        <v>52.5</v>
+        <v>42</v>
       </c>
       <c r="H15" s="15">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I15" s="18">
         <f>H15*1.2</f>
-        <v>45.6</v>
+        <v>36</v>
       </c>
       <c r="J15" s="18">
         <f>H15*1.5</f>
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K15" s="18">
         <f>H15*1.8</f>
-        <v>68.400000000000006</v>
+        <v>54</v>
       </c>
       <c r="L15" s="21">
         <f>H15*2.1</f>
-        <v>79.8</v>
+        <v>63</v>
       </c>
       <c r="M15" s="15">
         <v>25</v>
@@ -4301,7 +4348,7 @@
         <v>1</v>
       </c>
       <c r="U15" s="118"/>
-      <c r="V15" s="159"/>
+      <c r="V15" s="153"/>
     </row>
     <row r="16" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
@@ -4364,43 +4411,43 @@
       </c>
       <c r="C17" s="19">
         <f>C15*C16</f>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D17" s="20">
         <f t="shared" ref="D17:G17" si="5">D15*D16</f>
-        <v>36</v>
+        <v>28.799999999999997</v>
       </c>
       <c r="E17" s="20">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F17" s="20">
         <f t="shared" si="5"/>
-        <v>54</v>
+        <v>43.199999999999996</v>
       </c>
       <c r="G17" s="22">
         <f t="shared" si="5"/>
-        <v>63</v>
+        <v>50.4</v>
       </c>
       <c r="H17" s="19">
         <f>H15*H16</f>
-        <v>30.400000000000002</v>
+        <v>24</v>
       </c>
       <c r="I17" s="20">
         <f t="shared" ref="I17:L17" si="6">I15*I16</f>
-        <v>36.480000000000004</v>
+        <v>28.8</v>
       </c>
       <c r="J17" s="20">
         <f t="shared" si="6"/>
-        <v>45.6</v>
+        <v>36</v>
       </c>
       <c r="K17" s="20">
         <f t="shared" si="6"/>
-        <v>54.720000000000006</v>
+        <v>43.2</v>
       </c>
       <c r="L17" s="22">
         <f t="shared" si="6"/>
-        <v>63.84</v>
+        <v>50.400000000000006</v>
       </c>
       <c r="M17" s="19">
         <f>M15*M16</f>
@@ -4427,106 +4474,106 @@
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="135" t="s">
+      <c r="C18" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="135" t="s">
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="136"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="135" t="s">
+      <c r="I18" s="148"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="136"/>
-      <c r="Q18" s="137"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="148"/>
+      <c r="Q18" s="149"/>
     </row>
     <row r="19" spans="2:17" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="156" t="s">
+      <c r="C19" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="156" t="s">
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="157"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="156" t="s">
+      <c r="I19" s="151"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="157"/>
-      <c r="O19" s="157"/>
-      <c r="P19" s="157"/>
-      <c r="Q19" s="158"/>
+      <c r="N19" s="151"/>
+      <c r="O19" s="151"/>
+      <c r="P19" s="151"/>
+      <c r="Q19" s="152"/>
     </row>
     <row r="21" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="153" t="s">
-        <v>284</v>
-      </c>
-      <c r="D22" s="154"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="153" t="s">
-        <v>285</v>
-      </c>
-      <c r="I22" s="154"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="154"/>
-      <c r="L22" s="155"/>
-      <c r="M22" s="153" t="s">
-        <v>286</v>
-      </c>
-      <c r="N22" s="154"/>
-      <c r="O22" s="154"/>
-      <c r="P22" s="154"/>
-      <c r="Q22" s="155"/>
+      <c r="C22" s="144" t="s">
+        <v>279</v>
+      </c>
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="144" t="s">
+        <v>280</v>
+      </c>
+      <c r="I22" s="145"/>
+      <c r="J22" s="145"/>
+      <c r="K22" s="145"/>
+      <c r="L22" s="146"/>
+      <c r="M22" s="144" t="s">
+        <v>281</v>
+      </c>
+      <c r="N22" s="145"/>
+      <c r="O22" s="145"/>
+      <c r="P22" s="145"/>
+      <c r="Q22" s="146"/>
     </row>
     <row r="23" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="138" t="s">
+      <c r="C23" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="141" t="s">
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="142"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="142"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="161" t="s">
+      <c r="I23" s="136"/>
+      <c r="J23" s="136"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="162"/>
-      <c r="O23" s="162"/>
-      <c r="P23" s="162"/>
-      <c r="Q23" s="163"/>
+      <c r="N23" s="139"/>
+      <c r="O23" s="139"/>
+      <c r="P23" s="139"/>
+      <c r="Q23" s="140"/>
     </row>
     <row r="24" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
@@ -4614,23 +4661,23 @@
         <v>75.600000000000009</v>
       </c>
       <c r="H25" s="17">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I25" s="18">
         <f>H25*1.2</f>
-        <v>39.6</v>
+        <v>28.799999999999997</v>
       </c>
       <c r="J25" s="18">
         <f>H25*1.5</f>
-        <v>49.5</v>
+        <v>36</v>
       </c>
       <c r="K25" s="18">
         <f>H25*1.8</f>
-        <v>59.4</v>
+        <v>43.2</v>
       </c>
       <c r="L25" s="21">
         <f>H25*2.1</f>
-        <v>69.3</v>
+        <v>50.400000000000006</v>
       </c>
       <c r="M25" s="15">
         <v>20</v>
@@ -4728,23 +4775,23 @@
       </c>
       <c r="H27" s="19">
         <f>H25*H26</f>
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I27" s="20">
         <f t="shared" ref="I27:L27" si="9">I25*I26</f>
-        <v>39.6</v>
+        <v>28.799999999999997</v>
       </c>
       <c r="J27" s="20">
         <f t="shared" si="9"/>
-        <v>49.5</v>
+        <v>36</v>
       </c>
       <c r="K27" s="20">
         <f t="shared" si="9"/>
-        <v>59.4</v>
+        <v>43.2</v>
       </c>
       <c r="L27" s="14">
         <f t="shared" si="9"/>
-        <v>69.3</v>
+        <v>50.400000000000006</v>
       </c>
       <c r="M27" s="19">
         <f>M25*M26</f>
@@ -4771,92 +4818,92 @@
       <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="135" t="s">
+      <c r="C28" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="135" t="s">
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="136"/>
-      <c r="J28" s="136"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="135" t="s">
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="136"/>
-      <c r="O28" s="136"/>
-      <c r="P28" s="136"/>
-      <c r="Q28" s="137"/>
+      <c r="N28" s="148"/>
+      <c r="O28" s="148"/>
+      <c r="P28" s="148"/>
+      <c r="Q28" s="149"/>
     </row>
     <row r="29" spans="2:17" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="156" t="s">
+      <c r="C29" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="157"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="156" t="s">
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="157"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="157"/>
-      <c r="L29" s="158"/>
-      <c r="M29" s="156" t="s">
+      <c r="I29" s="151"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="150" t="s">
         <v>115</v>
       </c>
-      <c r="N29" s="157"/>
-      <c r="O29" s="157"/>
-      <c r="P29" s="157"/>
-      <c r="Q29" s="158"/>
+      <c r="N29" s="151"/>
+      <c r="O29" s="151"/>
+      <c r="P29" s="151"/>
+      <c r="Q29" s="152"/>
     </row>
     <row r="31" spans="2:17" s="13" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="144" t="s">
+      <c r="C32" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="144" t="s">
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="145"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="145"/>
-      <c r="L32" s="146"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="157"/>
     </row>
     <row r="33" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="138" t="s">
+      <c r="C33" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="139"/>
-      <c r="E33" s="139"/>
-      <c r="F33" s="139"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="141" t="s">
+      <c r="D33" s="142"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="142"/>
-      <c r="J33" s="142"/>
-      <c r="K33" s="142"/>
-      <c r="L33" s="143"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="136"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="137"/>
     </row>
     <row r="34" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
@@ -4928,23 +4975,23 @@
         <v>58.800000000000004</v>
       </c>
       <c r="H35" s="15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I35" s="18">
         <f>H35*1.2</f>
-        <v>14.399999999999999</v>
+        <v>12</v>
       </c>
       <c r="J35" s="18">
         <f>H35*1.5</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K35" s="18">
         <f>H35*1.8</f>
-        <v>21.6</v>
+        <v>18</v>
       </c>
       <c r="L35" s="21">
         <f>H35*2.1</f>
-        <v>25.200000000000003</v>
+        <v>21</v>
       </c>
       <c r="M35" s="11">
         <v>73.5</v>
@@ -5011,62 +5058,62 @@
       </c>
       <c r="H37" s="19">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I37" s="20">
         <f t="shared" ref="I37:L37" si="12">I35*I36</f>
-        <v>14.399999999999999</v>
+        <v>12</v>
       </c>
       <c r="J37" s="20">
         <f t="shared" si="12"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K37" s="20">
         <f t="shared" si="12"/>
-        <v>21.6</v>
+        <v>18</v>
       </c>
       <c r="L37" s="14">
         <f t="shared" si="12"/>
-        <v>25.200000000000003</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="2:17" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="135" t="s">
+      <c r="C38" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="136"/>
-      <c r="E38" s="136"/>
-      <c r="F38" s="136"/>
-      <c r="G38" s="137"/>
-      <c r="H38" s="135" t="s">
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="136"/>
-      <c r="J38" s="136"/>
-      <c r="K38" s="136"/>
-      <c r="L38" s="137"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="149"/>
     </row>
     <row r="39" spans="2:17" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="156" t="s">
+      <c r="C39" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="157"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="156" t="s">
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="150" t="s">
         <v>32</v>
       </c>
-      <c r="I39" s="157"/>
-      <c r="J39" s="157"/>
-      <c r="K39" s="157"/>
-      <c r="L39" s="158"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="151"/>
+      <c r="K39" s="151"/>
+      <c r="L39" s="152"/>
       <c r="M39" s="26"/>
       <c r="N39" s="26"/>
       <c r="O39" s="26"/>
@@ -5075,14 +5122,31 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="M18:Q18"/>
     <mergeCell ref="C39:G39"/>
     <mergeCell ref="H39:L39"/>
     <mergeCell ref="V14:V15"/>
@@ -5099,31 +5163,14 @@
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5146,34 +5193,34 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="144" t="s">
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="144" t="s">
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="145" t="s">
+      <c r="N2" s="156"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="145"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="146"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="156"/>
+      <c r="V2" s="157"/>
       <c r="W2" s="122"/>
       <c r="X2" s="122"/>
       <c r="Y2" s="122"/>
@@ -5200,34 +5247,34 @@
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="150" t="s">
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="147" t="s">
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="148"/>
-      <c r="O3" s="148"/>
-      <c r="P3" s="148"/>
-      <c r="Q3" s="149"/>
-      <c r="R3" s="150" t="s">
+      <c r="N3" s="162"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="162"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="151"/>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="152"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="160"/>
       <c r="W3" s="122"/>
       <c r="X3" s="122"/>
       <c r="Y3" s="122"/>
@@ -5650,34 +5697,34 @@
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="135" t="s">
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="136"/>
-      <c r="J8" s="136"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="135" t="s">
+      <c r="I8" s="148"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="136"/>
-      <c r="O8" s="136"/>
-      <c r="P8" s="136"/>
-      <c r="Q8" s="137"/>
-      <c r="R8" s="135" t="s">
+      <c r="N8" s="148"/>
+      <c r="O8" s="148"/>
+      <c r="P8" s="148"/>
+      <c r="Q8" s="149"/>
+      <c r="R8" s="147" t="s">
         <v>114</v>
       </c>
-      <c r="S8" s="136"/>
-      <c r="T8" s="136"/>
-      <c r="U8" s="136"/>
-      <c r="V8" s="137"/>
+      <c r="S8" s="148"/>
+      <c r="T8" s="148"/>
+      <c r="U8" s="148"/>
+      <c r="V8" s="149"/>
       <c r="W8" s="122"/>
       <c r="X8" s="122"/>
       <c r="Y8" s="122"/>
@@ -5704,34 +5751,34 @@
       <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="156" t="s">
+      <c r="C9" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="156" t="s">
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="157"/>
-      <c r="J9" s="157"/>
-      <c r="K9" s="157"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="156" t="s">
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="157"/>
-      <c r="O9" s="157"/>
-      <c r="P9" s="157"/>
-      <c r="Q9" s="158"/>
-      <c r="R9" s="156" t="s">
+      <c r="N9" s="151"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="152"/>
+      <c r="R9" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="157"/>
-      <c r="T9" s="157"/>
-      <c r="U9" s="157"/>
-      <c r="V9" s="158"/>
+      <c r="S9" s="151"/>
+      <c r="T9" s="151"/>
+      <c r="U9" s="151"/>
+      <c r="V9" s="152"/>
       <c r="W9" s="122"/>
       <c r="X9" s="122"/>
       <c r="Y9" s="122"/>
@@ -5846,27 +5893,27 @@
       <c r="B12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="144" t="s">
+      <c r="C12" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="144" t="s">
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="145"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="145"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="144" t="s">
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="157"/>
+      <c r="M12" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="145"/>
-      <c r="O12" s="145"/>
-      <c r="P12" s="145"/>
-      <c r="Q12" s="146"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="156"/>
+      <c r="Q12" s="157"/>
       <c r="R12" s="122"/>
       <c r="S12" s="113">
         <v>2.1</v>
@@ -5904,27 +5951,27 @@
       <c r="B13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="141" t="s">
+      <c r="C13" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="141" t="s">
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="142"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="142"/>
-      <c r="L13" s="143"/>
-      <c r="M13" s="161" t="s">
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="N13" s="162"/>
-      <c r="O13" s="162"/>
-      <c r="P13" s="162"/>
-      <c r="Q13" s="163"/>
+      <c r="N13" s="139"/>
+      <c r="O13" s="139"/>
+      <c r="P13" s="139"/>
+      <c r="Q13" s="140"/>
       <c r="R13" s="122"/>
       <c r="S13" s="116">
         <v>1.8</v>
@@ -6029,7 +6076,7 @@
       <c r="U14" s="118">
         <v>1</v>
       </c>
-      <c r="V14" s="159"/>
+      <c r="V14" s="153"/>
       <c r="W14" s="122"/>
       <c r="X14" s="122"/>
       <c r="Y14" s="122"/>
@@ -6121,7 +6168,7 @@
         <v>1</v>
       </c>
       <c r="U15" s="118"/>
-      <c r="V15" s="159"/>
+      <c r="V15" s="153"/>
       <c r="W15" s="122"/>
       <c r="X15" s="122"/>
       <c r="Y15" s="122"/>
@@ -6317,27 +6364,27 @@
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="135" t="s">
+      <c r="C18" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="135" t="s">
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="136"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="135" t="s">
+      <c r="I18" s="148"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="136"/>
-      <c r="Q18" s="137"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="148"/>
+      <c r="Q18" s="149"/>
       <c r="R18" s="122"/>
       <c r="S18" s="122"/>
       <c r="T18" s="122"/>
@@ -6369,27 +6416,27 @@
       <c r="B19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="156" t="s">
+      <c r="C19" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="156" t="s">
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="157"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="156" t="s">
+      <c r="I19" s="151"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="157"/>
-      <c r="O19" s="157"/>
-      <c r="P19" s="157"/>
-      <c r="Q19" s="158"/>
+      <c r="N19" s="151"/>
+      <c r="O19" s="151"/>
+      <c r="P19" s="151"/>
+      <c r="Q19" s="152"/>
       <c r="R19" s="122"/>
       <c r="S19" s="122"/>
       <c r="T19" s="122"/>
@@ -6509,27 +6556,27 @@
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="153" t="s">
+      <c r="C22" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="154"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="153" t="s">
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="154"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="154"/>
-      <c r="L22" s="155"/>
-      <c r="M22" s="153" t="s">
+      <c r="I22" s="145"/>
+      <c r="J22" s="145"/>
+      <c r="K22" s="145"/>
+      <c r="L22" s="146"/>
+      <c r="M22" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="154"/>
-      <c r="O22" s="154"/>
-      <c r="P22" s="154"/>
-      <c r="Q22" s="155"/>
+      <c r="N22" s="145"/>
+      <c r="O22" s="145"/>
+      <c r="P22" s="145"/>
+      <c r="Q22" s="146"/>
       <c r="R22" s="122"/>
       <c r="S22" s="122"/>
       <c r="T22" s="122"/>
@@ -6561,27 +6608,27 @@
       <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="138" t="s">
+      <c r="C23" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="141" t="s">
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="142"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="142"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="161" t="s">
+      <c r="I23" s="136"/>
+      <c r="J23" s="136"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="162"/>
-      <c r="O23" s="162"/>
-      <c r="P23" s="162"/>
-      <c r="Q23" s="163"/>
+      <c r="N23" s="139"/>
+      <c r="O23" s="139"/>
+      <c r="P23" s="139"/>
+      <c r="Q23" s="140"/>
       <c r="R23" s="122"/>
       <c r="S23" s="122"/>
       <c r="T23" s="122"/>
@@ -6956,27 +7003,27 @@
       <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="135" t="s">
+      <c r="C28" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="135" t="s">
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="136"/>
-      <c r="J28" s="136"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="135" t="s">
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="136"/>
-      <c r="O28" s="136"/>
-      <c r="P28" s="136"/>
-      <c r="Q28" s="137"/>
+      <c r="N28" s="148"/>
+      <c r="O28" s="148"/>
+      <c r="P28" s="148"/>
+      <c r="Q28" s="149"/>
       <c r="R28" s="122"/>
       <c r="S28" s="122"/>
       <c r="T28" s="122"/>
@@ -7008,27 +7055,27 @@
       <c r="B29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="156" t="s">
+      <c r="C29" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="157"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="156" t="s">
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="157"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="157"/>
-      <c r="L29" s="158"/>
-      <c r="M29" s="156" t="s">
+      <c r="I29" s="151"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="150" t="s">
         <v>115</v>
       </c>
-      <c r="N29" s="157"/>
-      <c r="O29" s="157"/>
-      <c r="P29" s="157"/>
-      <c r="Q29" s="158"/>
+      <c r="N29" s="151"/>
+      <c r="O29" s="151"/>
+      <c r="P29" s="151"/>
+      <c r="Q29" s="152"/>
       <c r="R29" s="122"/>
       <c r="S29" s="122"/>
       <c r="T29" s="122"/>
@@ -7148,20 +7195,20 @@
       <c r="B32" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="144" t="s">
+      <c r="C32" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="144" t="s">
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="145"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="145"/>
-      <c r="L32" s="146"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="157"/>
       <c r="M32" s="122"/>
       <c r="N32" s="122"/>
       <c r="O32" s="122"/>
@@ -7198,20 +7245,20 @@
       <c r="B33" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="138" t="s">
+      <c r="C33" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="139"/>
-      <c r="E33" s="139"/>
-      <c r="F33" s="139"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="141" t="s">
+      <c r="D33" s="142"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="142"/>
-      <c r="J33" s="142"/>
-      <c r="K33" s="142"/>
-      <c r="L33" s="143"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="136"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="137"/>
       <c r="M33" s="122"/>
       <c r="N33" s="122"/>
       <c r="O33" s="122"/>
@@ -7538,20 +7585,20 @@
       <c r="B38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="135" t="s">
+      <c r="C38" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="136"/>
-      <c r="E38" s="136"/>
-      <c r="F38" s="136"/>
-      <c r="G38" s="137"/>
-      <c r="H38" s="135" t="s">
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="136"/>
-      <c r="J38" s="136"/>
-      <c r="K38" s="136"/>
-      <c r="L38" s="137"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="149"/>
       <c r="M38" s="122"/>
       <c r="N38" s="122"/>
       <c r="O38" s="122"/>
@@ -7588,20 +7635,20 @@
       <c r="B39" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="156" t="s">
+      <c r="C39" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="157"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="156" t="s">
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="150" t="s">
         <v>32</v>
       </c>
-      <c r="I39" s="157"/>
-      <c r="J39" s="157"/>
-      <c r="K39" s="157"/>
-      <c r="L39" s="158"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="151"/>
+      <c r="K39" s="151"/>
+      <c r="L39" s="152"/>
       <c r="M39" s="26"/>
       <c r="N39" s="26"/>
       <c r="O39" s="26"/>
@@ -7636,6 +7683,47 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="R9:V9"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="M2:Q2"/>
@@ -7644,47 +7732,6 @@
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="R3:V3"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7695,8 +7742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E67363-7FC7-4BA4-8F5D-65854E98AD6E}">
   <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7719,11 +7766,11 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="186" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
       <c r="F2" s="36"/>
@@ -7733,9 +7780,9 @@
       <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="166"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
+      <c r="A3" s="188"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
       <c r="D3" s="38"/>
       <c r="E3" s="39" t="s">
         <v>44</v>
@@ -7777,11 +7824,11 @@
       <c r="J4" s="43"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="174" t="s">
+      <c r="A5" s="196" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="174"/>
-      <c r="C5" s="174"/>
+      <c r="B5" s="196"/>
+      <c r="C5" s="196"/>
       <c r="D5" s="38"/>
       <c r="E5" s="46" t="s">
         <v>50</v>
@@ -7801,9 +7848,9 @@
       <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="174"/>
-      <c r="B6" s="174"/>
-      <c r="C6" s="174"/>
+      <c r="A6" s="196"/>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
       <c r="D6" s="38"/>
       <c r="E6" s="46" t="s">
         <v>51</v>
@@ -7823,9 +7870,9 @@
       <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="174"/>
-      <c r="B7" s="174"/>
-      <c r="C7" s="174"/>
+      <c r="A7" s="196"/>
+      <c r="B7" s="196"/>
+      <c r="C7" s="196"/>
       <c r="D7" s="38"/>
       <c r="E7" s="46" t="s">
         <v>52</v>
@@ -7929,11 +7976,11 @@
       <c r="B12" s="63">
         <v>35</v>
       </c>
-      <c r="C12" s="172" t="s">
+      <c r="C12" s="194" t="s">
         <v>58</v>
       </c>
       <c r="D12" s="38"/>
-      <c r="E12" s="170" t="s">
+      <c r="E12" s="192" t="s">
         <v>56</v>
       </c>
       <c r="F12" s="64" t="s">
@@ -7957,9 +8004,9 @@
       <c r="B13" s="66">
         <v>5</v>
       </c>
-      <c r="C13" s="173"/>
+      <c r="C13" s="195"/>
       <c r="D13" s="38"/>
-      <c r="E13" s="171"/>
+      <c r="E13" s="193"/>
       <c r="F13" s="67" t="s">
         <v>59</v>
       </c>
@@ -7994,11 +8041,11 @@
       <c r="B15" s="72">
         <v>44</v>
       </c>
-      <c r="C15" s="172" t="s">
+      <c r="C15" s="194" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="38"/>
-      <c r="E15" s="168" t="s">
+      <c r="E15" s="178" t="s">
         <v>62</v>
       </c>
       <c r="F15" s="64" t="s">
@@ -8023,9 +8070,9 @@
       <c r="B16" s="74">
         <v>9</v>
       </c>
-      <c r="C16" s="173"/>
+      <c r="C16" s="195"/>
       <c r="D16" s="38"/>
-      <c r="E16" s="169"/>
+      <c r="E16" s="179"/>
       <c r="F16" s="67" t="s">
         <v>59</v>
       </c>
@@ -8043,9 +8090,7 @@
     <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" s="61"/>
-      <c r="C17" s="76" t="s">
-        <v>111</v>
-      </c>
+      <c r="C17" s="76"/>
       <c r="D17" s="38"/>
       <c r="E17" s="38"/>
       <c r="F17" s="38"/>
@@ -8061,11 +8106,11 @@
       <c r="B18" s="77">
         <v>68</v>
       </c>
-      <c r="C18" s="172" t="s">
+      <c r="C18" s="194" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="38"/>
-      <c r="E18" s="168" t="s">
+      <c r="E18" s="178" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="64" t="s">
@@ -8090,9 +8135,9 @@
       <c r="B19" s="74">
         <v>29</v>
       </c>
-      <c r="C19" s="173"/>
+      <c r="C19" s="195"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="169"/>
+      <c r="E19" s="179"/>
       <c r="F19" s="67" t="s">
         <v>59</v>
       </c>
@@ -8126,11 +8171,11 @@
       <c r="B21" s="72">
         <v>92</v>
       </c>
-      <c r="C21" s="172" t="s">
+      <c r="C21" s="194" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="38"/>
-      <c r="E21" s="168" t="s">
+      <c r="E21" s="178" t="s">
         <v>69</v>
       </c>
       <c r="F21" s="64" t="s">
@@ -8155,9 +8200,9 @@
       <c r="B22" s="74">
         <v>80</v>
       </c>
-      <c r="C22" s="173"/>
+      <c r="C22" s="195"/>
       <c r="D22" s="38"/>
-      <c r="E22" s="169"/>
+      <c r="E22" s="179"/>
       <c r="F22" s="67" t="s">
         <v>59</v>
       </c>
@@ -8213,11 +8258,11 @@
       <c r="J25" s="38"/>
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="164" t="s">
+      <c r="A26" s="186" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="165"/>
-      <c r="C26" s="165"/>
+      <c r="B26" s="187"/>
+      <c r="C26" s="187"/>
       <c r="D26" s="36"/>
       <c r="E26" s="36"/>
       <c r="F26" s="36"/>
@@ -8234,9 +8279,9 @@
       <c r="K26" s="87"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="166"/>
-      <c r="B27" s="167"/>
-      <c r="C27" s="167"/>
+      <c r="A27" s="188"/>
+      <c r="B27" s="189"/>
+      <c r="C27" s="189"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39" t="s">
         <v>44</v>
@@ -8288,11 +8333,11 @@
       <c r="K28" s="89"/>
     </row>
     <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="175" t="s">
+      <c r="A29" s="190" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="176"/>
-      <c r="C29" s="176"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="165"/>
       <c r="D29" s="38"/>
       <c r="E29" s="46" t="s">
         <v>50</v>
@@ -8318,9 +8363,9 @@
       <c r="K29" s="89"/>
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="177"/>
-      <c r="B30" s="176"/>
-      <c r="C30" s="176"/>
+      <c r="A30" s="191"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
       <c r="D30" s="38"/>
       <c r="E30" s="46" t="s">
         <v>51</v>
@@ -8335,16 +8380,16 @@
       <c r="I30" s="31"/>
       <c r="J30" s="99"/>
       <c r="K30" s="89"/>
-      <c r="M30" s="161" t="s">
+      <c r="M30" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="N30" s="162"/>
-      <c r="O30" s="163"/>
+      <c r="N30" s="139"/>
+      <c r="O30" s="140"/>
     </row>
     <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="177"/>
-      <c r="B31" s="176"/>
-      <c r="C31" s="176"/>
+      <c r="A31" s="191"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="165"/>
       <c r="D31" s="38"/>
       <c r="E31" s="46" t="s">
         <v>52</v>
@@ -8368,11 +8413,11 @@
         <v>18</v>
       </c>
       <c r="K31" s="89"/>
-      <c r="M31" s="184" t="s">
-        <v>182</v>
-      </c>
-      <c r="N31" s="185"/>
-      <c r="O31" s="186"/>
+      <c r="M31" s="164" t="s">
+        <v>181</v>
+      </c>
+      <c r="N31" s="171"/>
+      <c r="O31" s="172"/>
     </row>
     <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="90"/>
@@ -8392,9 +8437,9 @@
       <c r="I32" s="32"/>
       <c r="J32" s="102"/>
       <c r="K32" s="89"/>
-      <c r="M32" s="184"/>
-      <c r="N32" s="185"/>
-      <c r="O32" s="186"/>
+      <c r="M32" s="164"/>
+      <c r="N32" s="171"/>
+      <c r="O32" s="172"/>
     </row>
     <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
@@ -8414,9 +8459,9 @@
       <c r="I33" s="38"/>
       <c r="J33" s="38"/>
       <c r="K33" s="89"/>
-      <c r="M33" s="184"/>
-      <c r="N33" s="185"/>
-      <c r="O33" s="186"/>
+      <c r="M33" s="164"/>
+      <c r="N33" s="171"/>
+      <c r="O33" s="172"/>
     </row>
     <row r="34" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="91">
@@ -8425,9 +8470,11 @@
       <c r="B34" s="92">
         <v>140</v>
       </c>
-      <c r="C34" s="178"/>
+      <c r="C34" s="180" t="s">
+        <v>15</v>
+      </c>
       <c r="D34" s="38"/>
-      <c r="E34" s="168" t="s">
+      <c r="E34" s="178" t="s">
         <v>74</v>
       </c>
       <c r="F34" s="93" t="s">
@@ -8446,9 +8493,9 @@
         <v>4</v>
       </c>
       <c r="K34" s="89"/>
-      <c r="M34" s="187"/>
-      <c r="N34" s="188"/>
-      <c r="O34" s="189"/>
+      <c r="M34" s="173"/>
+      <c r="N34" s="174"/>
+      <c r="O34" s="175"/>
     </row>
     <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="94">
@@ -8457,9 +8504,9 @@
       <c r="B35" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="179"/>
+      <c r="C35" s="181"/>
       <c r="D35" s="38"/>
-      <c r="E35" s="169"/>
+      <c r="E35" s="179"/>
       <c r="F35" s="67" t="s">
         <v>59</v>
       </c>
@@ -8489,11 +8536,11 @@
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
       <c r="K36" s="89"/>
-      <c r="M36" s="161" t="s">
+      <c r="M36" s="138" t="s">
         <v>131</v>
       </c>
-      <c r="N36" s="162"/>
-      <c r="O36" s="163"/>
+      <c r="N36" s="139"/>
+      <c r="O36" s="140"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="91">
@@ -8502,9 +8549,11 @@
       <c r="B37" s="92">
         <v>166</v>
       </c>
-      <c r="C37" s="180"/>
+      <c r="C37" s="176" t="s">
+        <v>16</v>
+      </c>
       <c r="D37" s="38"/>
-      <c r="E37" s="168" t="s">
+      <c r="E37" s="178" t="s">
         <v>80</v>
       </c>
       <c r="F37" s="93" t="s">
@@ -8523,11 +8572,11 @@
         <v>4</v>
       </c>
       <c r="K37" s="89"/>
-      <c r="M37" s="184" t="s">
-        <v>183</v>
-      </c>
-      <c r="N37" s="176"/>
-      <c r="O37" s="192"/>
+      <c r="M37" s="164" t="s">
+        <v>182</v>
+      </c>
+      <c r="N37" s="165"/>
+      <c r="O37" s="166"/>
     </row>
     <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="s">
@@ -8536,9 +8585,9 @@
       <c r="B38" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="181"/>
+      <c r="C38" s="177"/>
       <c r="D38" s="38"/>
-      <c r="E38" s="169"/>
+      <c r="E38" s="179"/>
       <c r="F38" s="67" t="s">
         <v>59</v>
       </c>
@@ -8555,9 +8604,9 @@
         <v>79</v>
       </c>
       <c r="K38" s="89"/>
-      <c r="M38" s="193"/>
-      <c r="N38" s="176"/>
-      <c r="O38" s="192"/>
+      <c r="M38" s="167"/>
+      <c r="N38" s="165"/>
+      <c r="O38" s="166"/>
     </row>
     <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
@@ -8573,9 +8622,9 @@
       <c r="I39" s="38"/>
       <c r="J39" s="38"/>
       <c r="K39" s="89"/>
-      <c r="M39" s="193"/>
-      <c r="N39" s="176"/>
-      <c r="O39" s="192"/>
+      <c r="M39" s="167"/>
+      <c r="N39" s="165"/>
+      <c r="O39" s="166"/>
     </row>
     <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="91">
@@ -8584,11 +8633,11 @@
       <c r="B40" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="178" t="s">
+      <c r="C40" s="180" t="s">
         <v>146</v>
       </c>
       <c r="D40" s="38"/>
-      <c r="E40" s="168" t="s">
+      <c r="E40" s="178" t="s">
         <v>81</v>
       </c>
       <c r="F40" s="93" t="s">
@@ -8600,14 +8649,14 @@
       <c r="H40" s="93">
         <v>2</v>
       </c>
-      <c r="I40" s="190">
+      <c r="I40" s="182">
         <v>3</v>
       </c>
-      <c r="J40" s="191"/>
+      <c r="J40" s="183"/>
       <c r="K40" s="89"/>
-      <c r="M40" s="194"/>
-      <c r="N40" s="195"/>
-      <c r="O40" s="196"/>
+      <c r="M40" s="168"/>
+      <c r="N40" s="169"/>
+      <c r="O40" s="170"/>
     </row>
     <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="94" t="s">
@@ -8616,9 +8665,9 @@
       <c r="B41" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="179"/>
+      <c r="C41" s="181"/>
       <c r="D41" s="38"/>
-      <c r="E41" s="169"/>
+      <c r="E41" s="179"/>
       <c r="F41" s="67" t="s">
         <v>59</v>
       </c>
@@ -8628,10 +8677,10 @@
       <c r="H41" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="I41" s="182" t="s">
+      <c r="I41" s="184" t="s">
         <v>141</v>
       </c>
-      <c r="J41" s="183"/>
+      <c r="J41" s="185"/>
       <c r="K41" s="89"/>
     </row>
     <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -8639,7 +8688,9 @@
         <v>123</v>
       </c>
       <c r="B42" s="98"/>
-      <c r="C42" s="76"/>
+      <c r="C42" s="76" t="s">
+        <v>111</v>
+      </c>
       <c r="D42" s="76"/>
       <c r="E42" s="76"/>
       <c r="F42" s="76"/>
@@ -8651,11 +8702,11 @@
     </row>
     <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="164" t="s">
+      <c r="A45" s="186" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="165"/>
-      <c r="C45" s="165"/>
+      <c r="B45" s="187"/>
+      <c r="C45" s="187"/>
       <c r="D45" s="36"/>
       <c r="E45" s="36"/>
       <c r="F45" s="36"/>
@@ -8673,9 +8724,9 @@
       <c r="K45" s="87"/>
     </row>
     <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="166"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
+      <c r="A46" s="188"/>
+      <c r="B46" s="189"/>
+      <c r="C46" s="189"/>
       <c r="D46" s="107"/>
       <c r="E46" s="39" t="s">
         <v>44</v>
@@ -8696,11 +8747,11 @@
         <v>72</v>
       </c>
       <c r="K46" s="89"/>
-      <c r="M46" s="161" t="s">
+      <c r="M46" s="138" t="s">
         <v>132</v>
       </c>
-      <c r="N46" s="162"/>
-      <c r="O46" s="163"/>
+      <c r="N46" s="139"/>
+      <c r="O46" s="140"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="108"/>
@@ -8729,18 +8780,18 @@
         <v>462.5</v>
       </c>
       <c r="K47" s="89"/>
-      <c r="M47" s="184" t="s">
-        <v>184</v>
-      </c>
-      <c r="N47" s="176"/>
-      <c r="O47" s="192"/>
+      <c r="M47" s="164" t="s">
+        <v>183</v>
+      </c>
+      <c r="N47" s="165"/>
+      <c r="O47" s="166"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="175" t="s">
+      <c r="A48" s="190" t="s">
         <v>161</v>
       </c>
-      <c r="B48" s="176"/>
-      <c r="C48" s="176"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="165"/>
       <c r="D48" s="107"/>
       <c r="E48" s="46" t="s">
         <v>50</v>
@@ -8764,14 +8815,14 @@
         <v>21.25</v>
       </c>
       <c r="K48" s="89"/>
-      <c r="M48" s="193"/>
-      <c r="N48" s="176"/>
-      <c r="O48" s="192"/>
+      <c r="M48" s="167"/>
+      <c r="N48" s="165"/>
+      <c r="O48" s="166"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="177"/>
-      <c r="B49" s="176"/>
-      <c r="C49" s="176"/>
+      <c r="A49" s="191"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="165"/>
       <c r="D49" s="107"/>
       <c r="E49" s="46" t="s">
         <v>51</v>
@@ -8786,14 +8837,14 @@
       <c r="I49" s="110"/>
       <c r="J49" s="109"/>
       <c r="K49" s="89"/>
-      <c r="M49" s="193"/>
-      <c r="N49" s="176"/>
-      <c r="O49" s="192"/>
+      <c r="M49" s="167"/>
+      <c r="N49" s="165"/>
+      <c r="O49" s="166"/>
     </row>
     <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="177"/>
-      <c r="B50" s="176"/>
-      <c r="C50" s="176"/>
+      <c r="A50" s="191"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="165"/>
       <c r="D50" s="107"/>
       <c r="E50" s="46" t="s">
         <v>52</v>
@@ -8817,9 +8868,9 @@
         <v>42.5</v>
       </c>
       <c r="K50" s="89"/>
-      <c r="M50" s="194"/>
-      <c r="N50" s="195"/>
-      <c r="O50" s="196"/>
+      <c r="M50" s="168"/>
+      <c r="N50" s="169"/>
+      <c r="O50" s="170"/>
     </row>
     <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="90"/>
@@ -8866,9 +8917,11 @@
       <c r="B53" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="178"/>
+      <c r="C53" s="180" t="s">
+        <v>17</v>
+      </c>
       <c r="D53" s="107"/>
-      <c r="E53" s="168" t="s">
+      <c r="E53" s="178" t="s">
         <v>74</v>
       </c>
       <c r="F53" s="93" t="s">
@@ -8887,11 +8940,11 @@
         <v>4</v>
       </c>
       <c r="K53" s="89"/>
-      <c r="M53" s="161" t="s">
+      <c r="M53" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="N53" s="162"/>
-      <c r="O53" s="163"/>
+      <c r="N53" s="139"/>
+      <c r="O53" s="140"/>
     </row>
     <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="94" t="s">
@@ -8900,9 +8953,9 @@
       <c r="B54" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="179"/>
+      <c r="C54" s="181"/>
       <c r="D54" s="107"/>
-      <c r="E54" s="169"/>
+      <c r="E54" s="179"/>
       <c r="F54" s="67" t="s">
         <v>59</v>
       </c>
@@ -8919,11 +8972,11 @@
         <v>135</v>
       </c>
       <c r="K54" s="89"/>
-      <c r="M54" s="184" t="s">
-        <v>185</v>
-      </c>
-      <c r="N54" s="176"/>
-      <c r="O54" s="192"/>
+      <c r="M54" s="164" t="s">
+        <v>184</v>
+      </c>
+      <c r="N54" s="165"/>
+      <c r="O54" s="166"/>
     </row>
     <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="108" t="s">
@@ -8939,9 +8992,9 @@
       <c r="I55" s="107"/>
       <c r="J55" s="107"/>
       <c r="K55" s="89"/>
-      <c r="M55" s="193"/>
-      <c r="N55" s="176"/>
-      <c r="O55" s="192"/>
+      <c r="M55" s="167"/>
+      <c r="N55" s="165"/>
+      <c r="O55" s="166"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="91">
@@ -8950,9 +9003,11 @@
       <c r="B56" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="180"/>
+      <c r="C56" s="176" t="s">
+        <v>19</v>
+      </c>
       <c r="D56" s="107"/>
-      <c r="E56" s="168" t="s">
+      <c r="E56" s="178" t="s">
         <v>80</v>
       </c>
       <c r="F56" s="93" t="s">
@@ -8971,9 +9026,9 @@
         <v>4</v>
       </c>
       <c r="K56" s="89"/>
-      <c r="M56" s="193"/>
-      <c r="N56" s="176"/>
-      <c r="O56" s="192"/>
+      <c r="M56" s="167"/>
+      <c r="N56" s="165"/>
+      <c r="O56" s="166"/>
     </row>
     <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="94" t="s">
@@ -8982,9 +9037,9 @@
       <c r="B57" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="C57" s="181"/>
+      <c r="C57" s="177"/>
       <c r="D57" s="107"/>
-      <c r="E57" s="169"/>
+      <c r="E57" s="179"/>
       <c r="F57" s="67" t="s">
         <v>59</v>
       </c>
@@ -9001,9 +9056,9 @@
         <v>138</v>
       </c>
       <c r="K57" s="89"/>
-      <c r="M57" s="194"/>
-      <c r="N57" s="195"/>
-      <c r="O57" s="196"/>
+      <c r="M57" s="168"/>
+      <c r="N57" s="169"/>
+      <c r="O57" s="170"/>
     </row>
     <row r="58" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="108" t="s">
@@ -9027,11 +9082,11 @@
       <c r="B59" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="C59" s="178" t="s">
-        <v>179</v>
+      <c r="C59" s="180" t="s">
+        <v>18</v>
       </c>
       <c r="D59" s="107"/>
-      <c r="E59" s="168" t="s">
+      <c r="E59" s="178" t="s">
         <v>81</v>
       </c>
       <c r="F59" s="93" t="s">
@@ -9043,10 +9098,10 @@
       <c r="H59" s="93">
         <v>2</v>
       </c>
-      <c r="I59" s="190">
+      <c r="I59" s="182">
         <v>3</v>
       </c>
-      <c r="J59" s="191"/>
+      <c r="J59" s="183"/>
       <c r="K59" s="89"/>
     </row>
     <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9056,9 +9111,9 @@
       <c r="B60" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="C60" s="179"/>
+      <c r="C60" s="181"/>
       <c r="D60" s="107"/>
-      <c r="E60" s="169"/>
+      <c r="E60" s="179"/>
       <c r="F60" s="67" t="s">
         <v>59</v>
       </c>
@@ -9068,10 +9123,10 @@
       <c r="H60" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="I60" s="182" t="s">
+      <c r="I60" s="184" t="s">
         <v>142</v>
       </c>
-      <c r="J60" s="183"/>
+      <c r="J60" s="185"/>
       <c r="K60" s="89"/>
     </row>
     <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9079,7 +9134,9 @@
         <v>156</v>
       </c>
       <c r="B61" s="98"/>
-      <c r="C61" s="76"/>
+      <c r="C61" s="76" t="s">
+        <v>305</v>
+      </c>
       <c r="D61" s="76"/>
       <c r="E61" s="76" t="s">
         <v>116</v>
@@ -9093,11 +9150,11 @@
     </row>
     <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="164" t="s">
+      <c r="A64" s="186" t="s">
         <v>160</v>
       </c>
-      <c r="B64" s="165"/>
-      <c r="C64" s="165"/>
+      <c r="B64" s="187"/>
+      <c r="C64" s="187"/>
       <c r="D64" s="36"/>
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
@@ -9116,9 +9173,9 @@
       <c r="K64" s="87"/>
     </row>
     <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="166"/>
-      <c r="B65" s="167"/>
-      <c r="C65" s="167"/>
+      <c r="A65" s="188"/>
+      <c r="B65" s="189"/>
+      <c r="C65" s="189"/>
       <c r="D65" s="107"/>
       <c r="E65" s="39" t="s">
         <v>44</v>
@@ -9167,18 +9224,18 @@
         <v>555</v>
       </c>
       <c r="K66" s="89"/>
-      <c r="M66" s="161" t="s">
+      <c r="M66" s="138" t="s">
         <v>162</v>
       </c>
-      <c r="N66" s="162"/>
-      <c r="O66" s="163"/>
+      <c r="N66" s="139"/>
+      <c r="O66" s="140"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="175" t="s">
-        <v>181</v>
-      </c>
-      <c r="B67" s="176"/>
-      <c r="C67" s="176"/>
+      <c r="A67" s="190" t="s">
+        <v>180</v>
+      </c>
+      <c r="B67" s="165"/>
+      <c r="C67" s="165"/>
       <c r="D67" s="107"/>
       <c r="E67" s="46" t="s">
         <v>50</v>
@@ -9202,16 +9259,16 @@
         <v>25.5</v>
       </c>
       <c r="K67" s="89"/>
-      <c r="M67" s="184" t="s">
-        <v>186</v>
-      </c>
-      <c r="N67" s="176"/>
-      <c r="O67" s="192"/>
+      <c r="M67" s="164" t="s">
+        <v>185</v>
+      </c>
+      <c r="N67" s="165"/>
+      <c r="O67" s="166"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="177"/>
-      <c r="B68" s="176"/>
-      <c r="C68" s="176"/>
+      <c r="A68" s="191"/>
+      <c r="B68" s="165"/>
+      <c r="C68" s="165"/>
       <c r="D68" s="107"/>
       <c r="E68" s="46" t="s">
         <v>51</v>
@@ -9226,14 +9283,14 @@
       <c r="I68" s="110"/>
       <c r="J68" s="109"/>
       <c r="K68" s="89"/>
-      <c r="M68" s="193"/>
-      <c r="N68" s="176"/>
-      <c r="O68" s="192"/>
+      <c r="M68" s="167"/>
+      <c r="N68" s="165"/>
+      <c r="O68" s="166"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="177"/>
-      <c r="B69" s="176"/>
-      <c r="C69" s="176"/>
+      <c r="A69" s="191"/>
+      <c r="B69" s="165"/>
+      <c r="C69" s="165"/>
       <c r="D69" s="107"/>
       <c r="E69" s="46" t="s">
         <v>52</v>
@@ -9257,9 +9314,9 @@
         <v>51</v>
       </c>
       <c r="K69" s="89"/>
-      <c r="M69" s="193"/>
-      <c r="N69" s="176"/>
-      <c r="O69" s="192"/>
+      <c r="M69" s="167"/>
+      <c r="N69" s="165"/>
+      <c r="O69" s="166"/>
     </row>
     <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="90"/>
@@ -9281,9 +9338,9 @@
       </c>
       <c r="J70" s="101"/>
       <c r="K70" s="89"/>
-      <c r="M70" s="194"/>
-      <c r="N70" s="195"/>
-      <c r="O70" s="196"/>
+      <c r="M70" s="168"/>
+      <c r="N70" s="169"/>
+      <c r="O70" s="170"/>
     </row>
     <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="52" t="s">
@@ -9311,9 +9368,11 @@
       <c r="B72" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="C72" s="178"/>
+      <c r="C72" s="180" t="s">
+        <v>306</v>
+      </c>
       <c r="D72" s="107"/>
-      <c r="E72" s="168" t="s">
+      <c r="E72" s="178" t="s">
         <v>74</v>
       </c>
       <c r="F72" s="93" t="s">
@@ -9332,11 +9391,11 @@
         <v>4</v>
       </c>
       <c r="K72" s="89"/>
-      <c r="M72" s="161" t="s">
+      <c r="M72" s="138" t="s">
         <v>159</v>
       </c>
-      <c r="N72" s="162"/>
-      <c r="O72" s="163"/>
+      <c r="N72" s="139"/>
+      <c r="O72" s="140"/>
     </row>
     <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="94" t="s">
@@ -9345,9 +9404,9 @@
       <c r="B73" s="95" t="s">
         <v>173</v>
       </c>
-      <c r="C73" s="179"/>
+      <c r="C73" s="181"/>
       <c r="D73" s="107"/>
-      <c r="E73" s="169"/>
+      <c r="E73" s="179"/>
       <c r="F73" s="67" t="s">
         <v>59</v>
       </c>
@@ -9364,11 +9423,11 @@
         <v>166</v>
       </c>
       <c r="K73" s="89"/>
-      <c r="M73" s="184" t="s">
-        <v>188</v>
-      </c>
-      <c r="N73" s="176"/>
-      <c r="O73" s="192"/>
+      <c r="M73" s="164" t="s">
+        <v>187</v>
+      </c>
+      <c r="N73" s="165"/>
+      <c r="O73" s="166"/>
     </row>
     <row r="74" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="108" t="s">
@@ -9384,9 +9443,9 @@
       <c r="I74" s="107"/>
       <c r="J74" s="107"/>
       <c r="K74" s="89"/>
-      <c r="M74" s="193"/>
-      <c r="N74" s="176"/>
-      <c r="O74" s="192"/>
+      <c r="M74" s="167"/>
+      <c r="N74" s="165"/>
+      <c r="O74" s="166"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="91">
@@ -9395,9 +9454,11 @@
       <c r="B75" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="C75" s="180"/>
+      <c r="C75" s="176" t="s">
+        <v>43</v>
+      </c>
       <c r="D75" s="107"/>
-      <c r="E75" s="168" t="s">
+      <c r="E75" s="178" t="s">
         <v>80</v>
       </c>
       <c r="F75" s="93" t="s">
@@ -9416,9 +9477,9 @@
         <v>4</v>
       </c>
       <c r="K75" s="89"/>
-      <c r="M75" s="193"/>
-      <c r="N75" s="176"/>
-      <c r="O75" s="192"/>
+      <c r="M75" s="167"/>
+      <c r="N75" s="165"/>
+      <c r="O75" s="166"/>
     </row>
     <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="94" t="s">
@@ -9427,9 +9488,9 @@
       <c r="B76" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="C76" s="181"/>
+      <c r="C76" s="177"/>
       <c r="D76" s="107"/>
-      <c r="E76" s="169"/>
+      <c r="E76" s="179"/>
       <c r="F76" s="67" t="s">
         <v>59</v>
       </c>
@@ -9446,9 +9507,9 @@
         <v>170</v>
       </c>
       <c r="K76" s="89"/>
-      <c r="M76" s="194"/>
-      <c r="N76" s="195"/>
-      <c r="O76" s="196"/>
+      <c r="M76" s="168"/>
+      <c r="N76" s="169"/>
+      <c r="O76" s="170"/>
     </row>
     <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="108" t="s">
@@ -9472,11 +9533,11 @@
       <c r="B78" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="C78" s="178" t="s">
-        <v>194</v>
+      <c r="C78" s="180" t="s">
+        <v>193</v>
       </c>
       <c r="D78" s="107"/>
-      <c r="E78" s="168" t="s">
+      <c r="E78" s="178" t="s">
         <v>81</v>
       </c>
       <c r="F78" s="93" t="s">
@@ -9488,10 +9549,10 @@
       <c r="H78" s="93">
         <v>2</v>
       </c>
-      <c r="I78" s="190">
+      <c r="I78" s="182">
         <v>3</v>
       </c>
-      <c r="J78" s="191"/>
+      <c r="J78" s="183"/>
       <c r="K78" s="89"/>
     </row>
     <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9499,11 +9560,11 @@
         <v>195</v>
       </c>
       <c r="B79" s="96" t="s">
-        <v>180</v>
-      </c>
-      <c r="C79" s="179"/>
+        <v>179</v>
+      </c>
+      <c r="C79" s="181"/>
       <c r="D79" s="107"/>
-      <c r="E79" s="169"/>
+      <c r="E79" s="179"/>
       <c r="F79" s="67" t="s">
         <v>59</v>
       </c>
@@ -9513,10 +9574,10 @@
       <c r="H79" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="I79" s="182" t="s">
-        <v>187</v>
-      </c>
-      <c r="J79" s="183"/>
+      <c r="I79" s="184" t="s">
+        <v>186</v>
+      </c>
+      <c r="J79" s="185"/>
       <c r="K79" s="89"/>
     </row>
     <row r="80" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9536,16 +9597,32 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M54:O57"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="M67:O70"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="M73:O76"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M37:O40"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="M47:O50"/>
-    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="A26:C27"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A5:C7"/>
+    <mergeCell ref="A29:C31"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="A45:C46"/>
+    <mergeCell ref="A48:C50"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="E56:E57"/>
     <mergeCell ref="M30:O30"/>
     <mergeCell ref="M31:O34"/>
     <mergeCell ref="C75:C76"/>
@@ -9562,32 +9639,16 @@
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="E59:E60"/>
     <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="A45:C46"/>
-    <mergeCell ref="A48:C50"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="A29:C31"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="A26:C27"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A5:C7"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M37:O40"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="M47:O50"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="M54:O57"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="M67:O70"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="M73:O76"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9599,8 +9660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739D2FDF-FF58-405E-A4E4-D6DDA6C3C12C}">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:D22"/>
+    <sheetView topLeftCell="H13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9612,7 +9673,7 @@
     <col min="5" max="5" width="17" style="35" customWidth="1"/>
     <col min="6" max="6" width="9" style="35"/>
     <col min="7" max="7" width="16" style="35" customWidth="1"/>
-    <col min="8" max="8" width="9" style="262"/>
+    <col min="8" max="8" width="9" style="197"/>
     <col min="9" max="9" width="9.375" style="33" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.875" style="33" customWidth="1"/>
     <col min="11" max="11" width="19.875" style="33" customWidth="1"/>
@@ -9623,356 +9684,356 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="262"/>
-      <c r="B1" s="262"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="262"/>
-      <c r="E1" s="262"/>
-      <c r="F1" s="262"/>
-      <c r="G1" s="262"/>
+      <c r="A1" s="197"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
     </row>
     <row r="2" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="262"/>
-      <c r="B2" s="208" t="s">
+      <c r="A2" s="197"/>
+      <c r="B2" s="215" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="I2" s="208" t="s">
-        <v>263</v>
-      </c>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="I2" s="215" t="s">
+        <v>259</v>
+      </c>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="215"/>
     </row>
     <row r="3" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="262"/>
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="209"/>
-      <c r="M3" s="209"/>
+      <c r="A3" s="197"/>
+      <c r="B3" s="216"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="216"/>
+      <c r="L3" s="216"/>
+      <c r="M3" s="216"/>
     </row>
     <row r="4" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="262"/>
+      <c r="A4" s="197"/>
       <c r="B4" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="214" t="s">
+      <c r="C4" s="246" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="214" t="s">
+      <c r="D4" s="246"/>
+      <c r="E4" s="246"/>
+      <c r="F4" s="246" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="215"/>
+      <c r="G4" s="247"/>
       <c r="I4" s="129" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J4" s="130" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K4" s="130" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L4" s="130" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M4" s="128" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="262"/>
-      <c r="B5" s="216" t="s">
+      <c r="A5" s="197"/>
+      <c r="B5" s="248" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="28">
         <v>1</v>
       </c>
-      <c r="D5" s="264" t="s">
+      <c r="D5" s="204" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="265"/>
-      <c r="F5" s="225" t="s">
+      <c r="E5" s="205"/>
+      <c r="F5" s="259" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="226"/>
-      <c r="I5" s="261">
+      <c r="G5" s="260"/>
+      <c r="I5" s="198">
         <v>12</v>
       </c>
-      <c r="J5" s="253" t="s">
+      <c r="J5" s="212" t="s">
         <v>107</v>
       </c>
       <c r="K5" s="130">
         <v>1</v>
       </c>
       <c r="L5" s="130" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M5" s="128" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="262"/>
-      <c r="B6" s="217"/>
+      <c r="A6" s="197"/>
+      <c r="B6" s="249"/>
       <c r="C6" s="30">
         <v>2</v>
       </c>
-      <c r="D6" s="264" t="s">
+      <c r="D6" s="204" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="265"/>
-      <c r="F6" s="227"/>
-      <c r="G6" s="222"/>
-      <c r="I6" s="255"/>
-      <c r="J6" s="257"/>
+      <c r="E6" s="205"/>
+      <c r="F6" s="261"/>
+      <c r="G6" s="254"/>
+      <c r="I6" s="200"/>
+      <c r="J6" s="214"/>
       <c r="K6" s="131">
         <v>2</v>
       </c>
       <c r="L6" s="131" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M6" s="125" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="262"/>
-      <c r="B7" s="218"/>
+      <c r="A7" s="197"/>
+      <c r="B7" s="250"/>
       <c r="C7" s="105">
         <v>3</v>
       </c>
-      <c r="D7" s="219" t="s">
+      <c r="D7" s="251" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="220"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="229"/>
-      <c r="I7" s="256"/>
-      <c r="J7" s="254"/>
+      <c r="E7" s="252"/>
+      <c r="F7" s="262"/>
+      <c r="G7" s="263"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="213"/>
       <c r="K7" s="132">
         <v>3</v>
       </c>
       <c r="L7" s="132" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M7" s="126"/>
       <c r="N7" s="33" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="262"/>
+      <c r="A8" s="197"/>
       <c r="B8" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="197" t="s">
-        <v>195</v>
-      </c>
-      <c r="D8" s="197"/>
-      <c r="E8" s="197"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="198"/>
-      <c r="I8" s="261">
+      <c r="C8" s="255" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="255"/>
+      <c r="E8" s="255"/>
+      <c r="F8" s="255"/>
+      <c r="G8" s="256"/>
+      <c r="I8" s="198">
         <v>18</v>
       </c>
-      <c r="J8" s="253" t="s">
-        <v>227</v>
+      <c r="J8" s="212" t="s">
+        <v>223</v>
       </c>
       <c r="K8" s="130">
         <v>1</v>
       </c>
       <c r="L8" s="130" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M8" s="128" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="262"/>
+      <c r="A9" s="197"/>
       <c r="B9" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="219" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="219"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="222"/>
-      <c r="I9" s="255"/>
-      <c r="J9" s="257"/>
+      <c r="C9" s="251" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="251"/>
+      <c r="E9" s="251"/>
+      <c r="F9" s="253"/>
+      <c r="G9" s="254"/>
+      <c r="I9" s="200"/>
+      <c r="J9" s="214"/>
       <c r="K9" s="131">
         <v>2</v>
       </c>
       <c r="L9" s="131" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M9" s="125" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="N9" s="33" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="262"/>
+      <c r="A10" s="197"/>
       <c r="B10" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="197" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10" s="197"/>
-      <c r="E10" s="197"/>
-      <c r="F10" s="197"/>
-      <c r="G10" s="198"/>
-      <c r="I10" s="256"/>
-      <c r="J10" s="254"/>
+      <c r="C10" s="255" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="255"/>
+      <c r="E10" s="255"/>
+      <c r="F10" s="255"/>
+      <c r="G10" s="256"/>
+      <c r="I10" s="199"/>
+      <c r="J10" s="213"/>
       <c r="K10" s="132">
         <v>3</v>
       </c>
       <c r="L10" s="132" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M10" s="126"/>
       <c r="N10" s="33" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="262"/>
+      <c r="A11" s="197"/>
       <c r="B11" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="223" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="224"/>
-      <c r="I11" s="261">
+      <c r="C11" s="257" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="257"/>
+      <c r="E11" s="257"/>
+      <c r="F11" s="257"/>
+      <c r="G11" s="258"/>
+      <c r="I11" s="198">
         <v>4</v>
       </c>
-      <c r="J11" s="253" t="s">
-        <v>230</v>
+      <c r="J11" s="212" t="s">
+        <v>226</v>
       </c>
       <c r="K11" s="130">
         <v>0</v>
       </c>
       <c r="L11" s="130" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M11" s="128" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="262"/>
-      <c r="B12" s="262"/>
-      <c r="C12" s="262"/>
-      <c r="D12" s="262"/>
-      <c r="E12" s="262"/>
-      <c r="F12" s="262"/>
-      <c r="G12" s="262"/>
-      <c r="I12" s="255"/>
-      <c r="J12" s="257"/>
+      <c r="A12" s="197"/>
+      <c r="B12" s="197"/>
+      <c r="C12" s="197"/>
+      <c r="D12" s="197"/>
+      <c r="E12" s="197"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="197"/>
+      <c r="I12" s="200"/>
+      <c r="J12" s="214"/>
       <c r="K12" s="131">
         <v>1</v>
       </c>
       <c r="L12" s="131" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M12" s="125" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="262"/>
-      <c r="B13" s="262"/>
-      <c r="C13" s="262"/>
-      <c r="D13" s="262"/>
-      <c r="E13" s="262"/>
-      <c r="F13" s="262"/>
-      <c r="G13" s="262"/>
-      <c r="I13" s="255"/>
-      <c r="J13" s="257"/>
+      <c r="A13" s="197"/>
+      <c r="B13" s="197"/>
+      <c r="C13" s="197"/>
+      <c r="D13" s="197"/>
+      <c r="E13" s="197"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="197"/>
+      <c r="I13" s="200"/>
+      <c r="J13" s="214"/>
       <c r="K13" s="131">
         <v>2</v>
       </c>
       <c r="L13" s="131" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M13" s="125" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="N13" s="33" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="208" t="s">
+      <c r="A14" s="215" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="210"/>
-      <c r="C14" s="210"/>
-      <c r="D14" s="210"/>
-      <c r="E14" s="210"/>
-      <c r="F14" s="210"/>
-      <c r="G14" s="210"/>
-      <c r="I14" s="256"/>
-      <c r="J14" s="254"/>
+      <c r="B14" s="242"/>
+      <c r="C14" s="242"/>
+      <c r="D14" s="242"/>
+      <c r="E14" s="242"/>
+      <c r="F14" s="242"/>
+      <c r="G14" s="242"/>
+      <c r="I14" s="199"/>
+      <c r="J14" s="213"/>
       <c r="K14" s="132">
         <v>3</v>
       </c>
       <c r="L14" s="132" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="M14" s="126"/>
       <c r="N14" s="33" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="210"/>
-      <c r="B15" s="210"/>
-      <c r="C15" s="210"/>
-      <c r="D15" s="210"/>
-      <c r="E15" s="210"/>
-      <c r="F15" s="210"/>
-      <c r="G15" s="210"/>
-      <c r="I15" s="261">
+      <c r="A15" s="242"/>
+      <c r="B15" s="242"/>
+      <c r="C15" s="242"/>
+      <c r="D15" s="242"/>
+      <c r="E15" s="242"/>
+      <c r="F15" s="242"/>
+      <c r="G15" s="242"/>
+      <c r="I15" s="198">
         <v>3</v>
       </c>
-      <c r="J15" s="253" t="s">
+      <c r="J15" s="212" t="s">
         <v>158</v>
       </c>
       <c r="K15" s="130">
         <v>0</v>
       </c>
       <c r="L15" s="130" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M15" s="128"/>
     </row>
@@ -9983,385 +10044,398 @@
       <c r="B16" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="211" t="s">
+      <c r="C16" s="243" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="211"/>
-      <c r="E16" s="211" t="s">
+      <c r="D16" s="243"/>
+      <c r="E16" s="243" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="212"/>
-      <c r="G16" s="213"/>
-      <c r="I16" s="255"/>
-      <c r="J16" s="257"/>
+      <c r="F16" s="244"/>
+      <c r="G16" s="245"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="214"/>
       <c r="K16" s="131">
         <v>1</v>
       </c>
       <c r="L16" s="131" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M16" s="125" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="N16" s="33" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="230" t="s">
+      <c r="A17" s="222" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="233" t="s">
+      <c r="B17" s="201" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="239" t="s">
+      <c r="C17" s="228" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="240"/>
-      <c r="E17" s="202"/>
-      <c r="F17" s="203"/>
-      <c r="G17" s="204"/>
-      <c r="I17" s="255"/>
-      <c r="J17" s="257"/>
+      <c r="D17" s="229"/>
+      <c r="E17" s="208"/>
+      <c r="F17" s="209"/>
+      <c r="G17" s="210"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="214"/>
       <c r="K17" s="131">
         <v>2</v>
       </c>
       <c r="L17" s="131" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M17" s="125" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N17" s="33" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="230"/>
-      <c r="B18" s="234"/>
-      <c r="C18" s="241"/>
-      <c r="D18" s="242"/>
-      <c r="E18" s="199"/>
-      <c r="F18" s="200"/>
-      <c r="G18" s="201"/>
-      <c r="I18" s="256"/>
-      <c r="J18" s="254"/>
+      <c r="A18" s="222"/>
+      <c r="B18" s="224"/>
+      <c r="C18" s="230"/>
+      <c r="D18" s="231"/>
+      <c r="E18" s="264"/>
+      <c r="F18" s="265"/>
+      <c r="G18" s="266"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="213"/>
       <c r="K18" s="132">
         <v>3</v>
       </c>
       <c r="L18" s="132" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M18" s="126"/>
       <c r="N18" s="134" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="232" t="s">
+      <c r="A19" s="206" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="235"/>
-      <c r="C19" s="243"/>
-      <c r="D19" s="244"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="204"/>
-      <c r="I19" s="258" t="s">
-        <v>228</v>
-      </c>
-      <c r="J19" s="253" t="s">
-        <v>226</v>
+      <c r="B19" s="202"/>
+      <c r="C19" s="232"/>
+      <c r="D19" s="233"/>
+      <c r="E19" s="208"/>
+      <c r="F19" s="209"/>
+      <c r="G19" s="210"/>
+      <c r="I19" s="217" t="s">
+        <v>224</v>
+      </c>
+      <c r="J19" s="212" t="s">
+        <v>222</v>
       </c>
       <c r="K19" s="130">
         <v>0</v>
       </c>
       <c r="L19" s="130" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M19" s="128"/>
     </row>
     <row r="20" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="232"/>
-      <c r="B20" s="236" t="s">
+      <c r="A20" s="206"/>
+      <c r="B20" s="225" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="245" t="s">
-        <v>220</v>
-      </c>
-      <c r="D20" s="246"/>
-      <c r="E20" s="199"/>
-      <c r="F20" s="200"/>
-      <c r="G20" s="201"/>
-      <c r="I20" s="259"/>
-      <c r="J20" s="257"/>
+      <c r="C20" s="234" t="s">
+        <v>299</v>
+      </c>
+      <c r="D20" s="235"/>
+      <c r="E20" s="264"/>
+      <c r="F20" s="265"/>
+      <c r="G20" s="266"/>
+      <c r="I20" s="218"/>
+      <c r="J20" s="214"/>
       <c r="K20" s="131">
         <v>1</v>
       </c>
       <c r="L20" s="131" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M20" s="125" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N20" s="33" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="230" t="s">
+      <c r="A21" s="222" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="237"/>
-      <c r="C21" s="247"/>
-      <c r="D21" s="248"/>
-      <c r="E21" s="202"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="204"/>
-      <c r="I21" s="259"/>
-      <c r="J21" s="257"/>
+      <c r="B21" s="226"/>
+      <c r="C21" s="236"/>
+      <c r="D21" s="237"/>
+      <c r="E21" s="208"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="210"/>
+      <c r="I21" s="218"/>
+      <c r="J21" s="214"/>
       <c r="K21" s="131">
         <v>2</v>
       </c>
       <c r="L21" s="131" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M21" s="125" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="N21" s="33" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="230"/>
-      <c r="B22" s="238"/>
-      <c r="C22" s="249"/>
-      <c r="D22" s="250"/>
-      <c r="E22" s="199"/>
-      <c r="F22" s="200"/>
-      <c r="G22" s="201"/>
-      <c r="I22" s="260"/>
-      <c r="J22" s="254"/>
+      <c r="A22" s="222"/>
+      <c r="B22" s="227"/>
+      <c r="C22" s="238"/>
+      <c r="D22" s="239"/>
+      <c r="E22" s="264"/>
+      <c r="F22" s="265"/>
+      <c r="G22" s="266"/>
+      <c r="I22" s="219"/>
+      <c r="J22" s="213"/>
       <c r="K22" s="132">
         <v>3</v>
       </c>
       <c r="L22" s="132" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M22" s="126"/>
       <c r="N22" s="33" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="232" t="s">
+      <c r="A23" s="206" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="233">
+      <c r="B23" s="201">
         <v>1</v>
       </c>
-      <c r="C23" s="239" t="s">
-        <v>190</v>
-      </c>
-      <c r="D23" s="240"/>
-      <c r="E23" s="202"/>
-      <c r="F23" s="203"/>
-      <c r="G23" s="204"/>
-      <c r="I23" s="261" t="s">
-        <v>232</v>
-      </c>
-      <c r="J23" s="253" t="s">
-        <v>229</v>
+      <c r="C23" s="228" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" s="229"/>
+      <c r="E23" s="208"/>
+      <c r="F23" s="209"/>
+      <c r="G23" s="210"/>
+      <c r="I23" s="198" t="s">
+        <v>228</v>
+      </c>
+      <c r="J23" s="212" t="s">
+        <v>225</v>
       </c>
       <c r="K23" s="130">
         <v>0</v>
       </c>
       <c r="L23" s="130" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M23" s="128" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="232"/>
-      <c r="B24" s="235"/>
-      <c r="C24" s="243"/>
-      <c r="D24" s="244"/>
-      <c r="E24" s="199"/>
-      <c r="F24" s="200"/>
-      <c r="G24" s="201"/>
-      <c r="I24" s="255"/>
-      <c r="J24" s="257"/>
+      <c r="A24" s="206"/>
+      <c r="B24" s="202"/>
+      <c r="C24" s="232"/>
+      <c r="D24" s="233"/>
+      <c r="E24" s="264"/>
+      <c r="F24" s="265"/>
+      <c r="G24" s="266"/>
+      <c r="I24" s="200"/>
+      <c r="J24" s="214"/>
       <c r="K24" s="131">
         <v>1</v>
       </c>
       <c r="L24" s="131" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M24" s="125" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="232"/>
-      <c r="B25" s="233">
+      <c r="A25" s="206"/>
+      <c r="B25" s="201">
         <v>2</v>
       </c>
-      <c r="C25" s="245" t="s">
-        <v>192</v>
-      </c>
-      <c r="D25" s="246"/>
-      <c r="E25" s="202"/>
-      <c r="F25" s="203"/>
-      <c r="G25" s="204"/>
-      <c r="I25" s="255"/>
-      <c r="J25" s="257"/>
+      <c r="C25" s="234" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="235"/>
+      <c r="E25" s="208"/>
+      <c r="F25" s="209"/>
+      <c r="G25" s="210"/>
+      <c r="I25" s="200"/>
+      <c r="J25" s="214"/>
       <c r="K25" s="131">
         <v>2</v>
       </c>
       <c r="L25" s="131" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M25" s="125" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="230" t="s">
+      <c r="A26" s="222" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="235"/>
-      <c r="C26" s="249"/>
-      <c r="D26" s="250"/>
-      <c r="E26" s="199"/>
-      <c r="F26" s="200"/>
-      <c r="G26" s="201"/>
-      <c r="I26" s="256"/>
-      <c r="J26" s="254"/>
+      <c r="B26" s="202"/>
+      <c r="C26" s="238"/>
+      <c r="D26" s="239"/>
+      <c r="E26" s="264"/>
+      <c r="F26" s="265"/>
+      <c r="G26" s="266"/>
+      <c r="I26" s="199"/>
+      <c r="J26" s="213"/>
       <c r="K26" s="132">
         <v>3</v>
       </c>
       <c r="L26" s="132" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M26" s="126"/>
     </row>
     <row r="27" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="230"/>
-      <c r="B27" s="233">
+      <c r="A27" s="222"/>
+      <c r="B27" s="201">
         <v>3</v>
       </c>
-      <c r="C27" s="239" t="s">
-        <v>191</v>
-      </c>
-      <c r="D27" s="240"/>
-      <c r="E27" s="202"/>
-      <c r="F27" s="203"/>
-      <c r="G27" s="204"/>
-      <c r="I27" s="255">
+      <c r="C27" s="228" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" s="229"/>
+      <c r="E27" s="208"/>
+      <c r="F27" s="209"/>
+      <c r="G27" s="210"/>
+      <c r="I27" s="200">
         <v>17</v>
       </c>
-      <c r="J27" s="257" t="s">
-        <v>231</v>
+      <c r="J27" s="214" t="s">
+        <v>227</v>
       </c>
       <c r="K27" s="131">
         <v>1</v>
       </c>
       <c r="L27" s="131" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M27" s="125" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="N27" s="134" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="231"/>
-      <c r="B28" s="263"/>
-      <c r="C28" s="251"/>
-      <c r="D28" s="252"/>
-      <c r="E28" s="205"/>
-      <c r="F28" s="206"/>
-      <c r="G28" s="207"/>
-      <c r="I28" s="255"/>
-      <c r="J28" s="257"/>
+      <c r="A28" s="223"/>
+      <c r="B28" s="203"/>
+      <c r="C28" s="240"/>
+      <c r="D28" s="241"/>
+      <c r="E28" s="211"/>
+      <c r="F28" s="220"/>
+      <c r="G28" s="221"/>
+      <c r="I28" s="200"/>
+      <c r="J28" s="214"/>
       <c r="K28" s="131">
         <v>2</v>
       </c>
       <c r="L28" s="131" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M28" s="125" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="N28" s="134" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="232" t="s">
+      <c r="A29" s="206" t="s">
         <v>124</v>
       </c>
       <c r="B29" s="109">
         <v>1</v>
       </c>
-      <c r="C29" s="202" t="s">
+      <c r="C29" s="208" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="202"/>
-      <c r="E29" s="202" t="s">
+      <c r="D29" s="208"/>
+      <c r="E29" s="208" t="s">
         <v>126</v>
       </c>
-      <c r="F29" s="203"/>
-      <c r="G29" s="204"/>
-      <c r="I29" s="255"/>
-      <c r="J29" s="257"/>
+      <c r="F29" s="209"/>
+      <c r="G29" s="210"/>
+      <c r="I29" s="200"/>
+      <c r="J29" s="214"/>
       <c r="K29" s="131">
         <v>3</v>
       </c>
       <c r="L29" s="131" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M29" s="125"/>
       <c r="N29" s="134" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="266"/>
+      <c r="A30" s="207"/>
       <c r="B30" s="112">
         <v>2</v>
       </c>
-      <c r="C30" s="205" t="s">
-        <v>189</v>
-      </c>
-      <c r="D30" s="205"/>
-      <c r="E30" s="205" t="s">
-        <v>193</v>
-      </c>
-      <c r="F30" s="206"/>
-      <c r="G30" s="207"/>
-      <c r="I30" s="261">
+      <c r="C30" s="211" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="211"/>
+      <c r="E30" s="211" t="s">
+        <v>192</v>
+      </c>
+      <c r="F30" s="220"/>
+      <c r="G30" s="221"/>
+      <c r="I30" s="198">
         <v>1</v>
       </c>
-      <c r="J30" s="253" t="s">
-        <v>233</v>
+      <c r="J30" s="212" t="s">
+        <v>229</v>
       </c>
       <c r="K30" s="130">
         <v>0</v>
       </c>
       <c r="L30" s="130" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M30" s="128"/>
     </row>
     <row r="31" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I31" s="256"/>
-      <c r="J31" s="254"/>
+      <c r="A31" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="B31" s="33">
+        <v>1</v>
+      </c>
+      <c r="C31" s="267" t="s">
+        <v>302</v>
+      </c>
+      <c r="D31" s="267"/>
+      <c r="E31" s="267"/>
+      <c r="F31" s="267"/>
+      <c r="G31" s="267"/>
+      <c r="I31" s="199"/>
+      <c r="J31" s="213"/>
       <c r="K31" s="132">
         <v>1</v>
       </c>
@@ -10369,23 +10443,43 @@
       <c r="M31" s="126"/>
     </row>
     <row r="32" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I32" s="255">
+      <c r="B32" s="33">
         <v>2</v>
       </c>
-      <c r="J32" s="257" t="s">
-        <v>234</v>
+      <c r="C32" s="197" t="s">
+        <v>303</v>
+      </c>
+      <c r="D32" s="197"/>
+      <c r="E32" s="197"/>
+      <c r="F32" s="197"/>
+      <c r="G32" s="197"/>
+      <c r="I32" s="200">
+        <v>2</v>
+      </c>
+      <c r="J32" s="214" t="s">
+        <v>230</v>
       </c>
       <c r="K32" s="131">
         <v>0</v>
       </c>
       <c r="L32" s="131" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M32" s="125"/>
     </row>
-    <row r="33" spans="9:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I33" s="256"/>
-      <c r="J33" s="254"/>
+    <row r="33" spans="2:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="33">
+        <v>3</v>
+      </c>
+      <c r="C33" s="197" t="s">
+        <v>304</v>
+      </c>
+      <c r="D33" s="197"/>
+      <c r="E33" s="197"/>
+      <c r="F33" s="197"/>
+      <c r="G33" s="197"/>
+      <c r="I33" s="199"/>
+      <c r="J33" s="213"/>
       <c r="K33" s="132">
         <v>1</v>
       </c>
@@ -10432,7 +10526,71 @@
       <c r="C65" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
+  <mergeCells count="80">
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B2:G3"/>
+    <mergeCell ref="A14:G15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F5:G7"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C17:D19"/>
+    <mergeCell ref="C20:D22"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="I2:M3"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="J8:J10"/>
     <mergeCell ref="H1:H1048576"/>
     <mergeCell ref="A12:G13"/>
     <mergeCell ref="A1:A11"/>
@@ -10449,64 +10607,6 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="I2:M3"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C17:D19"/>
-    <mergeCell ref="C20:D22"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="B2:G3"/>
-    <mergeCell ref="A14:G15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F5:G7"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E17:G17"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10518,8 +10618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD80170-8D7D-4E29-963E-75821B94DB23}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10536,13 +10636,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="124" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D1" s="124">
         <v>0</v>
       </c>
       <c r="E1" s="124" t="s">
-        <v>217</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -10550,13 +10650,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="124" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D2" s="124">
         <v>1</v>
       </c>
       <c r="E2" s="124" t="s">
-        <v>215</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -10564,13 +10664,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D3" s="124">
         <v>2</v>
       </c>
       <c r="E3" s="124" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -10578,10 +10678,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="124" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D4" s="124">
         <v>3</v>
+      </c>
+      <c r="E4" s="124" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -10589,10 +10692,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="124" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D5" s="124">
         <v>4</v>
+      </c>
+      <c r="E5" s="124" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -10600,7 +10706,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="124" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="D6" s="124">
+        <v>5</v>
+      </c>
+      <c r="E6" s="124" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -10608,7 +10720,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+      <c r="D7" s="124">
+        <v>6</v>
+      </c>
+      <c r="E7" s="124" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -10616,7 +10734,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="124" t="s">
-        <v>208</v>
+        <v>207</v>
+      </c>
+      <c r="D8" s="124">
+        <v>7</v>
+      </c>
+      <c r="E8" s="124" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -10624,7 +10748,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="124" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="D9" s="124">
+        <v>8</v>
+      </c>
+      <c r="E9" s="124" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -10632,7 +10762,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="124" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -10640,7 +10770,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="124" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -10648,7 +10778,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="124" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -10656,7 +10786,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -10664,7 +10794,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="124" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -10672,7 +10802,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="124" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -10680,7 +10810,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -10688,7 +10818,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="124" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -10696,7 +10826,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="124" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">

--- a/文物娘.xlsx
+++ b/文物娘.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GameMaker\Final Work\Github\CultureRelicGirls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1FDC82-603A-4B75-A16E-CE21B38CCE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E76DDD7-93ED-446E-BD2E-B3CB235399D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{1E3677C8-2B1C-423A-AEA1-C1DF63D56BAF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1E3677C8-2B1C-423A-AEA1-C1DF63D56BAF}"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="322">
   <si>
     <t>司母戊鼎</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1303,6 +1303,34 @@
   </si>
   <si>
     <t>Tank2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jumper</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blocker_Spaw</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fighter_Spaw</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tank_Spaw</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jumper_Spaw</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spaw_L0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fighter</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2960,42 +2988,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="67" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="77" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="76" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3005,6 +2997,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="67" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="77" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="76" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3020,55 +3066,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="36" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="37" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="58" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="59" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3083,87 +3153,228 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="58" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="59" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="36" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="37" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="76" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="9" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="9" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="80" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="34" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="88" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="35" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="87" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="62" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="60" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="64" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="65" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="61" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="66" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="82" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="69" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="83" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="84" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="65" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="70" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="61" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="85" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3173,190 +3384,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="81" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="34" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="88" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="35" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="82" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="69" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="83" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="84" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="65" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="70" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="61" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="85" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="87" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="62" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="60" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="64" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="65" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="61" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="66" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="80" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3681,7 +3709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D91B1E5-0340-464B-AF90-56D459836ED7}">
   <dimension ref="B1:V39"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -3697,67 +3725,67 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="155" t="s">
+      <c r="C2" s="144" t="s">
         <v>272</v>
       </c>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="155" t="s">
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="144" t="s">
         <v>276</v>
       </c>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="155" t="s">
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="144" t="s">
         <v>277</v>
       </c>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="156" t="s">
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="145" t="s">
         <v>278</v>
       </c>
-      <c r="S2" s="156"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="156"/>
-      <c r="V2" s="157"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="146"/>
     </row>
     <row r="3" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="161" t="s">
+      <c r="C3" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="158" t="s">
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="161" t="s">
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="158" t="s">
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="149"/>
+      <c r="R3" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="159"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="159"/>
-      <c r="V3" s="160"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="151"/>
+      <c r="U3" s="151"/>
+      <c r="V3" s="152"/>
     </row>
     <row r="4" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -4075,94 +4103,94 @@
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="147" t="s">
+      <c r="C8" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="148"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="147" t="s">
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="148"/>
-      <c r="J8" s="148"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="149"/>
-      <c r="M8" s="147" t="s">
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="148"/>
-      <c r="O8" s="148"/>
-      <c r="P8" s="148"/>
-      <c r="Q8" s="149"/>
-      <c r="R8" s="147" t="s">
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="136"/>
+      <c r="Q8" s="137"/>
+      <c r="R8" s="135" t="s">
         <v>114</v>
       </c>
-      <c r="S8" s="148"/>
-      <c r="T8" s="148"/>
-      <c r="U8" s="148"/>
-      <c r="V8" s="149"/>
+      <c r="S8" s="136"/>
+      <c r="T8" s="136"/>
+      <c r="U8" s="136"/>
+      <c r="V8" s="137"/>
     </row>
     <row r="9" spans="2:22" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="150" t="s">
+      <c r="C9" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="150" t="s">
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="151"/>
-      <c r="J9" s="151"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="150" t="s">
+      <c r="I9" s="157"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="157"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="151"/>
-      <c r="O9" s="151"/>
-      <c r="P9" s="151"/>
-      <c r="Q9" s="152"/>
-      <c r="R9" s="150" t="s">
+      <c r="N9" s="157"/>
+      <c r="O9" s="157"/>
+      <c r="P9" s="157"/>
+      <c r="Q9" s="158"/>
+      <c r="R9" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="151"/>
-      <c r="T9" s="151"/>
-      <c r="U9" s="151"/>
-      <c r="V9" s="152"/>
+      <c r="S9" s="157"/>
+      <c r="T9" s="157"/>
+      <c r="U9" s="157"/>
+      <c r="V9" s="158"/>
     </row>
     <row r="11" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="155" t="s">
+      <c r="C12" s="144" t="s">
         <v>275</v>
       </c>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="155" t="s">
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="144" t="s">
         <v>273</v>
       </c>
-      <c r="I12" s="156"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="157"/>
-      <c r="M12" s="155" t="s">
+      <c r="I12" s="145"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="144" t="s">
         <v>274</v>
       </c>
-      <c r="N12" s="156"/>
-      <c r="O12" s="156"/>
-      <c r="P12" s="156"/>
-      <c r="Q12" s="157"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="145"/>
+      <c r="Q12" s="146"/>
       <c r="S12" s="113">
         <v>2.1</v>
       </c>
@@ -4177,27 +4205,27 @@
       <c r="B13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="135" t="s">
+      <c r="C13" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="135" t="s">
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="136"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="137"/>
-      <c r="M13" s="138" t="s">
+      <c r="I13" s="142"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="N13" s="139"/>
-      <c r="O13" s="139"/>
-      <c r="P13" s="139"/>
-      <c r="Q13" s="140"/>
+      <c r="N13" s="162"/>
+      <c r="O13" s="162"/>
+      <c r="P13" s="162"/>
+      <c r="Q13" s="163"/>
       <c r="S13" s="116">
         <v>1.8</v>
       </c>
@@ -4278,7 +4306,7 @@
       <c r="U14" s="118">
         <v>1</v>
       </c>
-      <c r="V14" s="153"/>
+      <c r="V14" s="159"/>
     </row>
     <row r="15" spans="2:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
@@ -4348,7 +4376,7 @@
         <v>1</v>
       </c>
       <c r="U15" s="118"/>
-      <c r="V15" s="153"/>
+      <c r="V15" s="159"/>
     </row>
     <row r="16" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
@@ -4474,106 +4502,106 @@
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="147" t="s">
+      <c r="C18" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="147" t="s">
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="148"/>
-      <c r="J18" s="148"/>
-      <c r="K18" s="148"/>
-      <c r="L18" s="149"/>
-      <c r="M18" s="147" t="s">
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="148"/>
-      <c r="O18" s="148"/>
-      <c r="P18" s="148"/>
-      <c r="Q18" s="149"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="136"/>
+      <c r="Q18" s="137"/>
     </row>
     <row r="19" spans="2:17" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="150" t="s">
+      <c r="C19" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="151"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="150" t="s">
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="151"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="150" t="s">
+      <c r="I19" s="157"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="157"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="151"/>
-      <c r="O19" s="151"/>
-      <c r="P19" s="151"/>
-      <c r="Q19" s="152"/>
+      <c r="N19" s="157"/>
+      <c r="O19" s="157"/>
+      <c r="P19" s="157"/>
+      <c r="Q19" s="158"/>
     </row>
     <row r="21" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="144" t="s">
+      <c r="C22" s="153" t="s">
         <v>279</v>
       </c>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="144" t="s">
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="153" t="s">
         <v>280</v>
       </c>
-      <c r="I22" s="145"/>
-      <c r="J22" s="145"/>
-      <c r="K22" s="145"/>
-      <c r="L22" s="146"/>
-      <c r="M22" s="144" t="s">
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="153" t="s">
         <v>281</v>
       </c>
-      <c r="N22" s="145"/>
-      <c r="O22" s="145"/>
-      <c r="P22" s="145"/>
-      <c r="Q22" s="146"/>
+      <c r="N22" s="154"/>
+      <c r="O22" s="154"/>
+      <c r="P22" s="154"/>
+      <c r="Q22" s="155"/>
     </row>
     <row r="23" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="141" t="s">
+      <c r="C23" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="135" t="s">
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="136"/>
-      <c r="J23" s="136"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="137"/>
-      <c r="M23" s="138" t="s">
+      <c r="I23" s="142"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="139"/>
-      <c r="O23" s="139"/>
-      <c r="P23" s="139"/>
-      <c r="Q23" s="140"/>
+      <c r="N23" s="162"/>
+      <c r="O23" s="162"/>
+      <c r="P23" s="162"/>
+      <c r="Q23" s="163"/>
     </row>
     <row r="24" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
@@ -4818,92 +4846,92 @@
       <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="147" t="s">
+      <c r="C28" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="148"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="147" t="s">
+      <c r="D28" s="136"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="148"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="147" t="s">
+      <c r="I28" s="136"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="137"/>
+      <c r="M28" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="148"/>
-      <c r="O28" s="148"/>
-      <c r="P28" s="148"/>
-      <c r="Q28" s="149"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="136"/>
+      <c r="Q28" s="137"/>
     </row>
     <row r="29" spans="2:17" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="150" t="s">
+      <c r="C29" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="150" t="s">
+      <c r="D29" s="157"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="152"/>
-      <c r="M29" s="150" t="s">
+      <c r="I29" s="157"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="158"/>
+      <c r="M29" s="156" t="s">
         <v>115</v>
       </c>
-      <c r="N29" s="151"/>
-      <c r="O29" s="151"/>
-      <c r="P29" s="151"/>
-      <c r="Q29" s="152"/>
+      <c r="N29" s="157"/>
+      <c r="O29" s="157"/>
+      <c r="P29" s="157"/>
+      <c r="Q29" s="158"/>
     </row>
     <row r="31" spans="2:17" s="13" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="155" t="s">
+      <c r="C32" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="155" t="s">
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="156"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="156"/>
-      <c r="L32" s="157"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="146"/>
     </row>
     <row r="33" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="141" t="s">
+      <c r="C33" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="142"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="143"/>
-      <c r="H33" s="135" t="s">
+      <c r="D33" s="139"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="139"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="136"/>
-      <c r="J33" s="136"/>
-      <c r="K33" s="136"/>
-      <c r="L33" s="137"/>
+      <c r="I33" s="142"/>
+      <c r="J33" s="142"/>
+      <c r="K33" s="142"/>
+      <c r="L33" s="143"/>
     </row>
     <row r="34" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
@@ -5081,39 +5109,39 @@
       <c r="B38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="147" t="s">
+      <c r="C38" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="148"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="147" t="s">
+      <c r="D38" s="136"/>
+      <c r="E38" s="136"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="137"/>
+      <c r="H38" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="148"/>
-      <c r="J38" s="148"/>
-      <c r="K38" s="148"/>
-      <c r="L38" s="149"/>
+      <c r="I38" s="136"/>
+      <c r="J38" s="136"/>
+      <c r="K38" s="136"/>
+      <c r="L38" s="137"/>
     </row>
     <row r="39" spans="2:17" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="150" t="s">
+      <c r="C39" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="152"/>
-      <c r="H39" s="150" t="s">
+      <c r="D39" s="157"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="158"/>
+      <c r="H39" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="152"/>
+      <c r="I39" s="157"/>
+      <c r="J39" s="157"/>
+      <c r="K39" s="157"/>
+      <c r="L39" s="158"/>
       <c r="M39" s="26"/>
       <c r="N39" s="26"/>
       <c r="O39" s="26"/>
@@ -5122,31 +5150,14 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C18:G18"/>
     <mergeCell ref="C39:G39"/>
     <mergeCell ref="H39:L39"/>
     <mergeCell ref="V14:V15"/>
@@ -5163,14 +5174,31 @@
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5193,34 +5221,34 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="155" t="s">
+      <c r="C2" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="155" t="s">
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="155" t="s">
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="156" t="s">
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="156"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="156"/>
-      <c r="V2" s="157"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="146"/>
       <c r="W2" s="122"/>
       <c r="X2" s="122"/>
       <c r="Y2" s="122"/>
@@ -5247,34 +5275,34 @@
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="161" t="s">
+      <c r="C3" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="158" t="s">
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="161" t="s">
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="158" t="s">
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="149"/>
+      <c r="R3" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="159"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="159"/>
-      <c r="V3" s="160"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="151"/>
+      <c r="U3" s="151"/>
+      <c r="V3" s="152"/>
       <c r="W3" s="122"/>
       <c r="X3" s="122"/>
       <c r="Y3" s="122"/>
@@ -5697,34 +5725,34 @@
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="147" t="s">
+      <c r="C8" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="148"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="147" t="s">
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="148"/>
-      <c r="J8" s="148"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="149"/>
-      <c r="M8" s="147" t="s">
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="148"/>
-      <c r="O8" s="148"/>
-      <c r="P8" s="148"/>
-      <c r="Q8" s="149"/>
-      <c r="R8" s="147" t="s">
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="136"/>
+      <c r="Q8" s="137"/>
+      <c r="R8" s="135" t="s">
         <v>114</v>
       </c>
-      <c r="S8" s="148"/>
-      <c r="T8" s="148"/>
-      <c r="U8" s="148"/>
-      <c r="V8" s="149"/>
+      <c r="S8" s="136"/>
+      <c r="T8" s="136"/>
+      <c r="U8" s="136"/>
+      <c r="V8" s="137"/>
       <c r="W8" s="122"/>
       <c r="X8" s="122"/>
       <c r="Y8" s="122"/>
@@ -5751,34 +5779,34 @@
       <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="150" t="s">
+      <c r="C9" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="150" t="s">
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="151"/>
-      <c r="J9" s="151"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="150" t="s">
+      <c r="I9" s="157"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="157"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="151"/>
-      <c r="O9" s="151"/>
-      <c r="P9" s="151"/>
-      <c r="Q9" s="152"/>
-      <c r="R9" s="150" t="s">
+      <c r="N9" s="157"/>
+      <c r="O9" s="157"/>
+      <c r="P9" s="157"/>
+      <c r="Q9" s="158"/>
+      <c r="R9" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="151"/>
-      <c r="T9" s="151"/>
-      <c r="U9" s="151"/>
-      <c r="V9" s="152"/>
+      <c r="S9" s="157"/>
+      <c r="T9" s="157"/>
+      <c r="U9" s="157"/>
+      <c r="V9" s="158"/>
       <c r="W9" s="122"/>
       <c r="X9" s="122"/>
       <c r="Y9" s="122"/>
@@ -5893,27 +5921,27 @@
       <c r="B12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="155" t="s">
+      <c r="C12" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="155" t="s">
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="156"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="157"/>
-      <c r="M12" s="155" t="s">
+      <c r="I12" s="145"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="156"/>
-      <c r="O12" s="156"/>
-      <c r="P12" s="156"/>
-      <c r="Q12" s="157"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="145"/>
+      <c r="Q12" s="146"/>
       <c r="R12" s="122"/>
       <c r="S12" s="113">
         <v>2.1</v>
@@ -5951,27 +5979,27 @@
       <c r="B13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="135" t="s">
+      <c r="C13" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="135" t="s">
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="136"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="137"/>
-      <c r="M13" s="138" t="s">
+      <c r="I13" s="142"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="N13" s="139"/>
-      <c r="O13" s="139"/>
-      <c r="P13" s="139"/>
-      <c r="Q13" s="140"/>
+      <c r="N13" s="162"/>
+      <c r="O13" s="162"/>
+      <c r="P13" s="162"/>
+      <c r="Q13" s="163"/>
       <c r="R13" s="122"/>
       <c r="S13" s="116">
         <v>1.8</v>
@@ -6076,7 +6104,7 @@
       <c r="U14" s="118">
         <v>1</v>
       </c>
-      <c r="V14" s="153"/>
+      <c r="V14" s="159"/>
       <c r="W14" s="122"/>
       <c r="X14" s="122"/>
       <c r="Y14" s="122"/>
@@ -6168,7 +6196,7 @@
         <v>1</v>
       </c>
       <c r="U15" s="118"/>
-      <c r="V15" s="153"/>
+      <c r="V15" s="159"/>
       <c r="W15" s="122"/>
       <c r="X15" s="122"/>
       <c r="Y15" s="122"/>
@@ -6364,27 +6392,27 @@
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="147" t="s">
+      <c r="C18" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="147" t="s">
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="148"/>
-      <c r="J18" s="148"/>
-      <c r="K18" s="148"/>
-      <c r="L18" s="149"/>
-      <c r="M18" s="147" t="s">
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="148"/>
-      <c r="O18" s="148"/>
-      <c r="P18" s="148"/>
-      <c r="Q18" s="149"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="136"/>
+      <c r="Q18" s="137"/>
       <c r="R18" s="122"/>
       <c r="S18" s="122"/>
       <c r="T18" s="122"/>
@@ -6416,27 +6444,27 @@
       <c r="B19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="150" t="s">
+      <c r="C19" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="151"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="150" t="s">
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="151"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="150" t="s">
+      <c r="I19" s="157"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="157"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="151"/>
-      <c r="O19" s="151"/>
-      <c r="P19" s="151"/>
-      <c r="Q19" s="152"/>
+      <c r="N19" s="157"/>
+      <c r="O19" s="157"/>
+      <c r="P19" s="157"/>
+      <c r="Q19" s="158"/>
       <c r="R19" s="122"/>
       <c r="S19" s="122"/>
       <c r="T19" s="122"/>
@@ -6556,27 +6584,27 @@
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="144" t="s">
+      <c r="C22" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="144" t="s">
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="145"/>
-      <c r="J22" s="145"/>
-      <c r="K22" s="145"/>
-      <c r="L22" s="146"/>
-      <c r="M22" s="144" t="s">
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="145"/>
-      <c r="O22" s="145"/>
-      <c r="P22" s="145"/>
-      <c r="Q22" s="146"/>
+      <c r="N22" s="154"/>
+      <c r="O22" s="154"/>
+      <c r="P22" s="154"/>
+      <c r="Q22" s="155"/>
       <c r="R22" s="122"/>
       <c r="S22" s="122"/>
       <c r="T22" s="122"/>
@@ -6608,27 +6636,27 @@
       <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="141" t="s">
+      <c r="C23" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="135" t="s">
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="136"/>
-      <c r="J23" s="136"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="137"/>
-      <c r="M23" s="138" t="s">
+      <c r="I23" s="142"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="139"/>
-      <c r="O23" s="139"/>
-      <c r="P23" s="139"/>
-      <c r="Q23" s="140"/>
+      <c r="N23" s="162"/>
+      <c r="O23" s="162"/>
+      <c r="P23" s="162"/>
+      <c r="Q23" s="163"/>
       <c r="R23" s="122"/>
       <c r="S23" s="122"/>
       <c r="T23" s="122"/>
@@ -7003,27 +7031,27 @@
       <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="147" t="s">
+      <c r="C28" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="148"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="147" t="s">
+      <c r="D28" s="136"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="148"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="147" t="s">
+      <c r="I28" s="136"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="137"/>
+      <c r="M28" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="148"/>
-      <c r="O28" s="148"/>
-      <c r="P28" s="148"/>
-      <c r="Q28" s="149"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="136"/>
+      <c r="Q28" s="137"/>
       <c r="R28" s="122"/>
       <c r="S28" s="122"/>
       <c r="T28" s="122"/>
@@ -7055,27 +7083,27 @@
       <c r="B29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="150" t="s">
+      <c r="C29" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="150" t="s">
+      <c r="D29" s="157"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="152"/>
-      <c r="M29" s="150" t="s">
+      <c r="I29" s="157"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="158"/>
+      <c r="M29" s="156" t="s">
         <v>115</v>
       </c>
-      <c r="N29" s="151"/>
-      <c r="O29" s="151"/>
-      <c r="P29" s="151"/>
-      <c r="Q29" s="152"/>
+      <c r="N29" s="157"/>
+      <c r="O29" s="157"/>
+      <c r="P29" s="157"/>
+      <c r="Q29" s="158"/>
       <c r="R29" s="122"/>
       <c r="S29" s="122"/>
       <c r="T29" s="122"/>
@@ -7195,20 +7223,20 @@
       <c r="B32" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="155" t="s">
+      <c r="C32" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="155" t="s">
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="156"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="156"/>
-      <c r="L32" s="157"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="146"/>
       <c r="M32" s="122"/>
       <c r="N32" s="122"/>
       <c r="O32" s="122"/>
@@ -7245,20 +7273,20 @@
       <c r="B33" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="141" t="s">
+      <c r="C33" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="142"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="143"/>
-      <c r="H33" s="135" t="s">
+      <c r="D33" s="139"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="139"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="136"/>
-      <c r="J33" s="136"/>
-      <c r="K33" s="136"/>
-      <c r="L33" s="137"/>
+      <c r="I33" s="142"/>
+      <c r="J33" s="142"/>
+      <c r="K33" s="142"/>
+      <c r="L33" s="143"/>
       <c r="M33" s="122"/>
       <c r="N33" s="122"/>
       <c r="O33" s="122"/>
@@ -7585,20 +7613,20 @@
       <c r="B38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="147" t="s">
+      <c r="C38" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="148"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="147" t="s">
+      <c r="D38" s="136"/>
+      <c r="E38" s="136"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="137"/>
+      <c r="H38" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="148"/>
-      <c r="J38" s="148"/>
-      <c r="K38" s="148"/>
-      <c r="L38" s="149"/>
+      <c r="I38" s="136"/>
+      <c r="J38" s="136"/>
+      <c r="K38" s="136"/>
+      <c r="L38" s="137"/>
       <c r="M38" s="122"/>
       <c r="N38" s="122"/>
       <c r="O38" s="122"/>
@@ -7635,20 +7663,20 @@
       <c r="B39" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="150" t="s">
+      <c r="C39" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="152"/>
-      <c r="H39" s="150" t="s">
+      <c r="D39" s="157"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="158"/>
+      <c r="H39" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="152"/>
+      <c r="I39" s="157"/>
+      <c r="J39" s="157"/>
+      <c r="K39" s="157"/>
+      <c r="L39" s="158"/>
       <c r="M39" s="26"/>
       <c r="N39" s="26"/>
       <c r="O39" s="26"/>
@@ -7683,6 +7711,47 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="M29:Q29"/>
     <mergeCell ref="C39:G39"/>
     <mergeCell ref="H39:L39"/>
     <mergeCell ref="C32:G32"/>
@@ -7691,47 +7760,6 @@
     <mergeCell ref="H33:L33"/>
     <mergeCell ref="C38:G38"/>
     <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:V3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7742,8 +7770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E67363-7FC7-4BA4-8F5D-65854E98AD6E}">
   <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53:C54"/>
+    <sheetView topLeftCell="D49" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7766,11 +7794,11 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="164" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
       <c r="F2" s="36"/>
@@ -7780,9 +7808,9 @@
       <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="188"/>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
+      <c r="A3" s="166"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
       <c r="D3" s="38"/>
       <c r="E3" s="39" t="s">
         <v>44</v>
@@ -7824,11 +7852,11 @@
       <c r="J4" s="43"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="196" t="s">
+      <c r="A5" s="174" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="196"/>
-      <c r="C5" s="196"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
       <c r="D5" s="38"/>
       <c r="E5" s="46" t="s">
         <v>50</v>
@@ -7848,9 +7876,9 @@
       <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="196"/>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
+      <c r="A6" s="174"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="174"/>
       <c r="D6" s="38"/>
       <c r="E6" s="46" t="s">
         <v>51</v>
@@ -7870,9 +7898,9 @@
       <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="196"/>
-      <c r="B7" s="196"/>
-      <c r="C7" s="196"/>
+      <c r="A7" s="174"/>
+      <c r="B7" s="174"/>
+      <c r="C7" s="174"/>
       <c r="D7" s="38"/>
       <c r="E7" s="46" t="s">
         <v>52</v>
@@ -7976,11 +8004,11 @@
       <c r="B12" s="63">
         <v>35</v>
       </c>
-      <c r="C12" s="194" t="s">
+      <c r="C12" s="172" t="s">
         <v>58</v>
       </c>
       <c r="D12" s="38"/>
-      <c r="E12" s="192" t="s">
+      <c r="E12" s="170" t="s">
         <v>56</v>
       </c>
       <c r="F12" s="64" t="s">
@@ -8004,9 +8032,9 @@
       <c r="B13" s="66">
         <v>5</v>
       </c>
-      <c r="C13" s="195"/>
+      <c r="C13" s="173"/>
       <c r="D13" s="38"/>
-      <c r="E13" s="193"/>
+      <c r="E13" s="171"/>
       <c r="F13" s="67" t="s">
         <v>59</v>
       </c>
@@ -8041,11 +8069,11 @@
       <c r="B15" s="72">
         <v>44</v>
       </c>
-      <c r="C15" s="194" t="s">
+      <c r="C15" s="172" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="38"/>
-      <c r="E15" s="178" t="s">
+      <c r="E15" s="168" t="s">
         <v>62</v>
       </c>
       <c r="F15" s="64" t="s">
@@ -8070,9 +8098,9 @@
       <c r="B16" s="74">
         <v>9</v>
       </c>
-      <c r="C16" s="195"/>
+      <c r="C16" s="173"/>
       <c r="D16" s="38"/>
-      <c r="E16" s="179"/>
+      <c r="E16" s="169"/>
       <c r="F16" s="67" t="s">
         <v>59</v>
       </c>
@@ -8106,11 +8134,11 @@
       <c r="B18" s="77">
         <v>68</v>
       </c>
-      <c r="C18" s="194" t="s">
+      <c r="C18" s="172" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="38"/>
-      <c r="E18" s="178" t="s">
+      <c r="E18" s="168" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="64" t="s">
@@ -8135,9 +8163,9 @@
       <c r="B19" s="74">
         <v>29</v>
       </c>
-      <c r="C19" s="195"/>
+      <c r="C19" s="173"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="179"/>
+      <c r="E19" s="169"/>
       <c r="F19" s="67" t="s">
         <v>59</v>
       </c>
@@ -8171,11 +8199,11 @@
       <c r="B21" s="72">
         <v>92</v>
       </c>
-      <c r="C21" s="194" t="s">
+      <c r="C21" s="172" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="38"/>
-      <c r="E21" s="178" t="s">
+      <c r="E21" s="168" t="s">
         <v>69</v>
       </c>
       <c r="F21" s="64" t="s">
@@ -8200,9 +8228,9 @@
       <c r="B22" s="74">
         <v>80</v>
       </c>
-      <c r="C22" s="195"/>
+      <c r="C22" s="173"/>
       <c r="D22" s="38"/>
-      <c r="E22" s="179"/>
+      <c r="E22" s="169"/>
       <c r="F22" s="67" t="s">
         <v>59</v>
       </c>
@@ -8258,11 +8286,11 @@
       <c r="J25" s="38"/>
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="186" t="s">
+      <c r="A26" s="164" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="187"/>
-      <c r="C26" s="187"/>
+      <c r="B26" s="165"/>
+      <c r="C26" s="165"/>
       <c r="D26" s="36"/>
       <c r="E26" s="36"/>
       <c r="F26" s="36"/>
@@ -8279,9 +8307,9 @@
       <c r="K26" s="87"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="188"/>
-      <c r="B27" s="189"/>
-      <c r="C27" s="189"/>
+      <c r="A27" s="166"/>
+      <c r="B27" s="167"/>
+      <c r="C27" s="167"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39" t="s">
         <v>44</v>
@@ -8333,11 +8361,11 @@
       <c r="K28" s="89"/>
     </row>
     <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="190" t="s">
+      <c r="A29" s="175" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="165"/>
-      <c r="C29" s="165"/>
+      <c r="B29" s="176"/>
+      <c r="C29" s="176"/>
       <c r="D29" s="38"/>
       <c r="E29" s="46" t="s">
         <v>50</v>
@@ -8363,9 +8391,9 @@
       <c r="K29" s="89"/>
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="191"/>
-      <c r="B30" s="165"/>
-      <c r="C30" s="165"/>
+      <c r="A30" s="177"/>
+      <c r="B30" s="176"/>
+      <c r="C30" s="176"/>
       <c r="D30" s="38"/>
       <c r="E30" s="46" t="s">
         <v>51</v>
@@ -8380,16 +8408,16 @@
       <c r="I30" s="31"/>
       <c r="J30" s="99"/>
       <c r="K30" s="89"/>
-      <c r="M30" s="138" t="s">
+      <c r="M30" s="161" t="s">
         <v>72</v>
       </c>
-      <c r="N30" s="139"/>
-      <c r="O30" s="140"/>
+      <c r="N30" s="162"/>
+      <c r="O30" s="163"/>
     </row>
     <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="191"/>
-      <c r="B31" s="165"/>
-      <c r="C31" s="165"/>
+      <c r="A31" s="177"/>
+      <c r="B31" s="176"/>
+      <c r="C31" s="176"/>
       <c r="D31" s="38"/>
       <c r="E31" s="46" t="s">
         <v>52</v>
@@ -8413,11 +8441,11 @@
         <v>18</v>
       </c>
       <c r="K31" s="89"/>
-      <c r="M31" s="164" t="s">
+      <c r="M31" s="184" t="s">
         <v>181</v>
       </c>
-      <c r="N31" s="171"/>
-      <c r="O31" s="172"/>
+      <c r="N31" s="185"/>
+      <c r="O31" s="186"/>
     </row>
     <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="90"/>
@@ -8437,9 +8465,9 @@
       <c r="I32" s="32"/>
       <c r="J32" s="102"/>
       <c r="K32" s="89"/>
-      <c r="M32" s="164"/>
-      <c r="N32" s="171"/>
-      <c r="O32" s="172"/>
+      <c r="M32" s="184"/>
+      <c r="N32" s="185"/>
+      <c r="O32" s="186"/>
     </row>
     <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
@@ -8459,9 +8487,9 @@
       <c r="I33" s="38"/>
       <c r="J33" s="38"/>
       <c r="K33" s="89"/>
-      <c r="M33" s="164"/>
-      <c r="N33" s="171"/>
-      <c r="O33" s="172"/>
+      <c r="M33" s="184"/>
+      <c r="N33" s="185"/>
+      <c r="O33" s="186"/>
     </row>
     <row r="34" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="91">
@@ -8470,11 +8498,11 @@
       <c r="B34" s="92">
         <v>140</v>
       </c>
-      <c r="C34" s="180" t="s">
+      <c r="C34" s="178" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="38"/>
-      <c r="E34" s="178" t="s">
+      <c r="E34" s="168" t="s">
         <v>74</v>
       </c>
       <c r="F34" s="93" t="s">
@@ -8493,9 +8521,9 @@
         <v>4</v>
       </c>
       <c r="K34" s="89"/>
-      <c r="M34" s="173"/>
-      <c r="N34" s="174"/>
-      <c r="O34" s="175"/>
+      <c r="M34" s="187"/>
+      <c r="N34" s="188"/>
+      <c r="O34" s="189"/>
     </row>
     <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="94">
@@ -8504,9 +8532,9 @@
       <c r="B35" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="181"/>
+      <c r="C35" s="179"/>
       <c r="D35" s="38"/>
-      <c r="E35" s="179"/>
+      <c r="E35" s="169"/>
       <c r="F35" s="67" t="s">
         <v>59</v>
       </c>
@@ -8536,11 +8564,11 @@
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
       <c r="K36" s="89"/>
-      <c r="M36" s="138" t="s">
+      <c r="M36" s="161" t="s">
         <v>131</v>
       </c>
-      <c r="N36" s="139"/>
-      <c r="O36" s="140"/>
+      <c r="N36" s="162"/>
+      <c r="O36" s="163"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="91">
@@ -8549,11 +8577,11 @@
       <c r="B37" s="92">
         <v>166</v>
       </c>
-      <c r="C37" s="176" t="s">
+      <c r="C37" s="180" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="38"/>
-      <c r="E37" s="178" t="s">
+      <c r="E37" s="168" t="s">
         <v>80</v>
       </c>
       <c r="F37" s="93" t="s">
@@ -8572,11 +8600,11 @@
         <v>4</v>
       </c>
       <c r="K37" s="89"/>
-      <c r="M37" s="164" t="s">
+      <c r="M37" s="184" t="s">
         <v>182</v>
       </c>
-      <c r="N37" s="165"/>
-      <c r="O37" s="166"/>
+      <c r="N37" s="176"/>
+      <c r="O37" s="192"/>
     </row>
     <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="s">
@@ -8585,9 +8613,9 @@
       <c r="B38" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="177"/>
+      <c r="C38" s="181"/>
       <c r="D38" s="38"/>
-      <c r="E38" s="179"/>
+      <c r="E38" s="169"/>
       <c r="F38" s="67" t="s">
         <v>59</v>
       </c>
@@ -8604,9 +8632,9 @@
         <v>79</v>
       </c>
       <c r="K38" s="89"/>
-      <c r="M38" s="167"/>
-      <c r="N38" s="165"/>
-      <c r="O38" s="166"/>
+      <c r="M38" s="193"/>
+      <c r="N38" s="176"/>
+      <c r="O38" s="192"/>
     </row>
     <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
@@ -8622,9 +8650,9 @@
       <c r="I39" s="38"/>
       <c r="J39" s="38"/>
       <c r="K39" s="89"/>
-      <c r="M39" s="167"/>
-      <c r="N39" s="165"/>
-      <c r="O39" s="166"/>
+      <c r="M39" s="193"/>
+      <c r="N39" s="176"/>
+      <c r="O39" s="192"/>
     </row>
     <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="91">
@@ -8633,11 +8661,11 @@
       <c r="B40" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="180" t="s">
+      <c r="C40" s="178" t="s">
         <v>146</v>
       </c>
       <c r="D40" s="38"/>
-      <c r="E40" s="178" t="s">
+      <c r="E40" s="168" t="s">
         <v>81</v>
       </c>
       <c r="F40" s="93" t="s">
@@ -8649,14 +8677,14 @@
       <c r="H40" s="93">
         <v>2</v>
       </c>
-      <c r="I40" s="182">
+      <c r="I40" s="190">
         <v>3</v>
       </c>
-      <c r="J40" s="183"/>
+      <c r="J40" s="191"/>
       <c r="K40" s="89"/>
-      <c r="M40" s="168"/>
-      <c r="N40" s="169"/>
-      <c r="O40" s="170"/>
+      <c r="M40" s="194"/>
+      <c r="N40" s="195"/>
+      <c r="O40" s="196"/>
     </row>
     <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="94" t="s">
@@ -8665,9 +8693,9 @@
       <c r="B41" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="181"/>
+      <c r="C41" s="179"/>
       <c r="D41" s="38"/>
-      <c r="E41" s="179"/>
+      <c r="E41" s="169"/>
       <c r="F41" s="67" t="s">
         <v>59</v>
       </c>
@@ -8677,10 +8705,10 @@
       <c r="H41" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="I41" s="184" t="s">
+      <c r="I41" s="182" t="s">
         <v>141</v>
       </c>
-      <c r="J41" s="185"/>
+      <c r="J41" s="183"/>
       <c r="K41" s="89"/>
     </row>
     <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -8702,11 +8730,11 @@
     </row>
     <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="186" t="s">
+      <c r="A45" s="164" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="187"/>
-      <c r="C45" s="187"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
       <c r="D45" s="36"/>
       <c r="E45" s="36"/>
       <c r="F45" s="36"/>
@@ -8724,9 +8752,9 @@
       <c r="K45" s="87"/>
     </row>
     <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="188"/>
-      <c r="B46" s="189"/>
-      <c r="C46" s="189"/>
+      <c r="A46" s="166"/>
+      <c r="B46" s="167"/>
+      <c r="C46" s="167"/>
       <c r="D46" s="107"/>
       <c r="E46" s="39" t="s">
         <v>44</v>
@@ -8747,11 +8775,11 @@
         <v>72</v>
       </c>
       <c r="K46" s="89"/>
-      <c r="M46" s="138" t="s">
+      <c r="M46" s="161" t="s">
         <v>132</v>
       </c>
-      <c r="N46" s="139"/>
-      <c r="O46" s="140"/>
+      <c r="N46" s="162"/>
+      <c r="O46" s="163"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="108"/>
@@ -8780,18 +8808,18 @@
         <v>462.5</v>
       </c>
       <c r="K47" s="89"/>
-      <c r="M47" s="164" t="s">
+      <c r="M47" s="184" t="s">
         <v>183</v>
       </c>
-      <c r="N47" s="165"/>
-      <c r="O47" s="166"/>
+      <c r="N47" s="176"/>
+      <c r="O47" s="192"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="190" t="s">
+      <c r="A48" s="175" t="s">
         <v>161</v>
       </c>
-      <c r="B48" s="165"/>
-      <c r="C48" s="165"/>
+      <c r="B48" s="176"/>
+      <c r="C48" s="176"/>
       <c r="D48" s="107"/>
       <c r="E48" s="46" t="s">
         <v>50</v>
@@ -8815,14 +8843,14 @@
         <v>21.25</v>
       </c>
       <c r="K48" s="89"/>
-      <c r="M48" s="167"/>
-      <c r="N48" s="165"/>
-      <c r="O48" s="166"/>
+      <c r="M48" s="193"/>
+      <c r="N48" s="176"/>
+      <c r="O48" s="192"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="191"/>
-      <c r="B49" s="165"/>
-      <c r="C49" s="165"/>
+      <c r="A49" s="177"/>
+      <c r="B49" s="176"/>
+      <c r="C49" s="176"/>
       <c r="D49" s="107"/>
       <c r="E49" s="46" t="s">
         <v>51</v>
@@ -8837,14 +8865,14 @@
       <c r="I49" s="110"/>
       <c r="J49" s="109"/>
       <c r="K49" s="89"/>
-      <c r="M49" s="167"/>
-      <c r="N49" s="165"/>
-      <c r="O49" s="166"/>
+      <c r="M49" s="193"/>
+      <c r="N49" s="176"/>
+      <c r="O49" s="192"/>
     </row>
     <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="191"/>
-      <c r="B50" s="165"/>
-      <c r="C50" s="165"/>
+      <c r="A50" s="177"/>
+      <c r="B50" s="176"/>
+      <c r="C50" s="176"/>
       <c r="D50" s="107"/>
       <c r="E50" s="46" t="s">
         <v>52</v>
@@ -8868,9 +8896,9 @@
         <v>42.5</v>
       </c>
       <c r="K50" s="89"/>
-      <c r="M50" s="168"/>
-      <c r="N50" s="169"/>
-      <c r="O50" s="170"/>
+      <c r="M50" s="194"/>
+      <c r="N50" s="195"/>
+      <c r="O50" s="196"/>
     </row>
     <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="90"/>
@@ -8917,11 +8945,11 @@
       <c r="B53" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="180" t="s">
+      <c r="C53" s="178" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="107"/>
-      <c r="E53" s="178" t="s">
+      <c r="E53" s="168" t="s">
         <v>74</v>
       </c>
       <c r="F53" s="93" t="s">
@@ -8940,11 +8968,11 @@
         <v>4</v>
       </c>
       <c r="K53" s="89"/>
-      <c r="M53" s="138" t="s">
+      <c r="M53" s="161" t="s">
         <v>73</v>
       </c>
-      <c r="N53" s="139"/>
-      <c r="O53" s="140"/>
+      <c r="N53" s="162"/>
+      <c r="O53" s="163"/>
     </row>
     <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="94" t="s">
@@ -8953,9 +8981,9 @@
       <c r="B54" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="181"/>
+      <c r="C54" s="179"/>
       <c r="D54" s="107"/>
-      <c r="E54" s="179"/>
+      <c r="E54" s="169"/>
       <c r="F54" s="67" t="s">
         <v>59</v>
       </c>
@@ -8972,11 +9000,11 @@
         <v>135</v>
       </c>
       <c r="K54" s="89"/>
-      <c r="M54" s="164" t="s">
+      <c r="M54" s="184" t="s">
         <v>184</v>
       </c>
-      <c r="N54" s="165"/>
-      <c r="O54" s="166"/>
+      <c r="N54" s="176"/>
+      <c r="O54" s="192"/>
     </row>
     <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="108" t="s">
@@ -8992,9 +9020,9 @@
       <c r="I55" s="107"/>
       <c r="J55" s="107"/>
       <c r="K55" s="89"/>
-      <c r="M55" s="167"/>
-      <c r="N55" s="165"/>
-      <c r="O55" s="166"/>
+      <c r="M55" s="193"/>
+      <c r="N55" s="176"/>
+      <c r="O55" s="192"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="91">
@@ -9003,11 +9031,11 @@
       <c r="B56" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="176" t="s">
+      <c r="C56" s="180" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="107"/>
-      <c r="E56" s="178" t="s">
+      <c r="E56" s="168" t="s">
         <v>80</v>
       </c>
       <c r="F56" s="93" t="s">
@@ -9026,9 +9054,9 @@
         <v>4</v>
       </c>
       <c r="K56" s="89"/>
-      <c r="M56" s="167"/>
-      <c r="N56" s="165"/>
-      <c r="O56" s="166"/>
+      <c r="M56" s="193"/>
+      <c r="N56" s="176"/>
+      <c r="O56" s="192"/>
     </row>
     <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="94" t="s">
@@ -9037,9 +9065,9 @@
       <c r="B57" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="C57" s="177"/>
+      <c r="C57" s="181"/>
       <c r="D57" s="107"/>
-      <c r="E57" s="179"/>
+      <c r="E57" s="169"/>
       <c r="F57" s="67" t="s">
         <v>59</v>
       </c>
@@ -9056,9 +9084,9 @@
         <v>138</v>
       </c>
       <c r="K57" s="89"/>
-      <c r="M57" s="168"/>
-      <c r="N57" s="169"/>
-      <c r="O57" s="170"/>
+      <c r="M57" s="194"/>
+      <c r="N57" s="195"/>
+      <c r="O57" s="196"/>
     </row>
     <row r="58" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="108" t="s">
@@ -9082,11 +9110,11 @@
       <c r="B59" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="C59" s="180" t="s">
+      <c r="C59" s="178" t="s">
         <v>18</v>
       </c>
       <c r="D59" s="107"/>
-      <c r="E59" s="178" t="s">
+      <c r="E59" s="168" t="s">
         <v>81</v>
       </c>
       <c r="F59" s="93" t="s">
@@ -9098,10 +9126,10 @@
       <c r="H59" s="93">
         <v>2</v>
       </c>
-      <c r="I59" s="182">
+      <c r="I59" s="190">
         <v>3</v>
       </c>
-      <c r="J59" s="183"/>
+      <c r="J59" s="191"/>
       <c r="K59" s="89"/>
     </row>
     <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9111,9 +9139,9 @@
       <c r="B60" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="C60" s="181"/>
+      <c r="C60" s="179"/>
       <c r="D60" s="107"/>
-      <c r="E60" s="179"/>
+      <c r="E60" s="169"/>
       <c r="F60" s="67" t="s">
         <v>59</v>
       </c>
@@ -9123,10 +9151,10 @@
       <c r="H60" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="I60" s="184" t="s">
+      <c r="I60" s="182" t="s">
         <v>142</v>
       </c>
-      <c r="J60" s="185"/>
+      <c r="J60" s="183"/>
       <c r="K60" s="89"/>
     </row>
     <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9150,11 +9178,11 @@
     </row>
     <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="186" t="s">
+      <c r="A64" s="164" t="s">
         <v>160</v>
       </c>
-      <c r="B64" s="187"/>
-      <c r="C64" s="187"/>
+      <c r="B64" s="165"/>
+      <c r="C64" s="165"/>
       <c r="D64" s="36"/>
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
@@ -9173,9 +9201,9 @@
       <c r="K64" s="87"/>
     </row>
     <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="188"/>
-      <c r="B65" s="189"/>
-      <c r="C65" s="189"/>
+      <c r="A65" s="166"/>
+      <c r="B65" s="167"/>
+      <c r="C65" s="167"/>
       <c r="D65" s="107"/>
       <c r="E65" s="39" t="s">
         <v>44</v>
@@ -9224,18 +9252,18 @@
         <v>555</v>
       </c>
       <c r="K66" s="89"/>
-      <c r="M66" s="138" t="s">
+      <c r="M66" s="161" t="s">
         <v>162</v>
       </c>
-      <c r="N66" s="139"/>
-      <c r="O66" s="140"/>
+      <c r="N66" s="162"/>
+      <c r="O66" s="163"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="190" t="s">
+      <c r="A67" s="175" t="s">
         <v>180</v>
       </c>
-      <c r="B67" s="165"/>
-      <c r="C67" s="165"/>
+      <c r="B67" s="176"/>
+      <c r="C67" s="176"/>
       <c r="D67" s="107"/>
       <c r="E67" s="46" t="s">
         <v>50</v>
@@ -9259,16 +9287,16 @@
         <v>25.5</v>
       </c>
       <c r="K67" s="89"/>
-      <c r="M67" s="164" t="s">
+      <c r="M67" s="184" t="s">
         <v>185</v>
       </c>
-      <c r="N67" s="165"/>
-      <c r="O67" s="166"/>
+      <c r="N67" s="176"/>
+      <c r="O67" s="192"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="191"/>
-      <c r="B68" s="165"/>
-      <c r="C68" s="165"/>
+      <c r="A68" s="177"/>
+      <c r="B68" s="176"/>
+      <c r="C68" s="176"/>
       <c r="D68" s="107"/>
       <c r="E68" s="46" t="s">
         <v>51</v>
@@ -9283,14 +9311,14 @@
       <c r="I68" s="110"/>
       <c r="J68" s="109"/>
       <c r="K68" s="89"/>
-      <c r="M68" s="167"/>
-      <c r="N68" s="165"/>
-      <c r="O68" s="166"/>
+      <c r="M68" s="193"/>
+      <c r="N68" s="176"/>
+      <c r="O68" s="192"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="191"/>
-      <c r="B69" s="165"/>
-      <c r="C69" s="165"/>
+      <c r="A69" s="177"/>
+      <c r="B69" s="176"/>
+      <c r="C69" s="176"/>
       <c r="D69" s="107"/>
       <c r="E69" s="46" t="s">
         <v>52</v>
@@ -9314,9 +9342,9 @@
         <v>51</v>
       </c>
       <c r="K69" s="89"/>
-      <c r="M69" s="167"/>
-      <c r="N69" s="165"/>
-      <c r="O69" s="166"/>
+      <c r="M69" s="193"/>
+      <c r="N69" s="176"/>
+      <c r="O69" s="192"/>
     </row>
     <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="90"/>
@@ -9338,9 +9366,9 @@
       </c>
       <c r="J70" s="101"/>
       <c r="K70" s="89"/>
-      <c r="M70" s="168"/>
-      <c r="N70" s="169"/>
-      <c r="O70" s="170"/>
+      <c r="M70" s="194"/>
+      <c r="N70" s="195"/>
+      <c r="O70" s="196"/>
     </row>
     <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="52" t="s">
@@ -9368,11 +9396,11 @@
       <c r="B72" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="C72" s="180" t="s">
+      <c r="C72" s="178" t="s">
         <v>306</v>
       </c>
       <c r="D72" s="107"/>
-      <c r="E72" s="178" t="s">
+      <c r="E72" s="168" t="s">
         <v>74</v>
       </c>
       <c r="F72" s="93" t="s">
@@ -9391,11 +9419,11 @@
         <v>4</v>
       </c>
       <c r="K72" s="89"/>
-      <c r="M72" s="138" t="s">
+      <c r="M72" s="161" t="s">
         <v>159</v>
       </c>
-      <c r="N72" s="139"/>
-      <c r="O72" s="140"/>
+      <c r="N72" s="162"/>
+      <c r="O72" s="163"/>
     </row>
     <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="94" t="s">
@@ -9404,9 +9432,9 @@
       <c r="B73" s="95" t="s">
         <v>173</v>
       </c>
-      <c r="C73" s="181"/>
+      <c r="C73" s="179"/>
       <c r="D73" s="107"/>
-      <c r="E73" s="179"/>
+      <c r="E73" s="169"/>
       <c r="F73" s="67" t="s">
         <v>59</v>
       </c>
@@ -9423,11 +9451,11 @@
         <v>166</v>
       </c>
       <c r="K73" s="89"/>
-      <c r="M73" s="164" t="s">
+      <c r="M73" s="184" t="s">
         <v>187</v>
       </c>
-      <c r="N73" s="165"/>
-      <c r="O73" s="166"/>
+      <c r="N73" s="176"/>
+      <c r="O73" s="192"/>
     </row>
     <row r="74" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="108" t="s">
@@ -9443,9 +9471,9 @@
       <c r="I74" s="107"/>
       <c r="J74" s="107"/>
       <c r="K74" s="89"/>
-      <c r="M74" s="167"/>
-      <c r="N74" s="165"/>
-      <c r="O74" s="166"/>
+      <c r="M74" s="193"/>
+      <c r="N74" s="176"/>
+      <c r="O74" s="192"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="91">
@@ -9454,11 +9482,11 @@
       <c r="B75" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="C75" s="176" t="s">
+      <c r="C75" s="180" t="s">
         <v>43</v>
       </c>
       <c r="D75" s="107"/>
-      <c r="E75" s="178" t="s">
+      <c r="E75" s="168" t="s">
         <v>80</v>
       </c>
       <c r="F75" s="93" t="s">
@@ -9477,9 +9505,9 @@
         <v>4</v>
       </c>
       <c r="K75" s="89"/>
-      <c r="M75" s="167"/>
-      <c r="N75" s="165"/>
-      <c r="O75" s="166"/>
+      <c r="M75" s="193"/>
+      <c r="N75" s="176"/>
+      <c r="O75" s="192"/>
     </row>
     <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="94" t="s">
@@ -9488,9 +9516,9 @@
       <c r="B76" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="C76" s="177"/>
+      <c r="C76" s="181"/>
       <c r="D76" s="107"/>
-      <c r="E76" s="179"/>
+      <c r="E76" s="169"/>
       <c r="F76" s="67" t="s">
         <v>59</v>
       </c>
@@ -9507,9 +9535,9 @@
         <v>170</v>
       </c>
       <c r="K76" s="89"/>
-      <c r="M76" s="168"/>
-      <c r="N76" s="169"/>
-      <c r="O76" s="170"/>
+      <c r="M76" s="194"/>
+      <c r="N76" s="195"/>
+      <c r="O76" s="196"/>
     </row>
     <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="108" t="s">
@@ -9533,11 +9561,11 @@
       <c r="B78" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="C78" s="180" t="s">
+      <c r="C78" s="178" t="s">
         <v>193</v>
       </c>
       <c r="D78" s="107"/>
-      <c r="E78" s="178" t="s">
+      <c r="E78" s="168" t="s">
         <v>81</v>
       </c>
       <c r="F78" s="93" t="s">
@@ -9549,10 +9577,10 @@
       <c r="H78" s="93">
         <v>2</v>
       </c>
-      <c r="I78" s="182">
+      <c r="I78" s="190">
         <v>3</v>
       </c>
-      <c r="J78" s="183"/>
+      <c r="J78" s="191"/>
       <c r="K78" s="89"/>
     </row>
     <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9562,9 +9590,9 @@
       <c r="B79" s="96" t="s">
         <v>179</v>
       </c>
-      <c r="C79" s="181"/>
+      <c r="C79" s="179"/>
       <c r="D79" s="107"/>
-      <c r="E79" s="179"/>
+      <c r="E79" s="169"/>
       <c r="F79" s="67" t="s">
         <v>59</v>
       </c>
@@ -9574,10 +9602,10 @@
       <c r="H79" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="I79" s="184" t="s">
+      <c r="I79" s="182" t="s">
         <v>186</v>
       </c>
-      <c r="J79" s="185"/>
+      <c r="J79" s="183"/>
       <c r="K79" s="89"/>
     </row>
     <row r="80" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9597,32 +9625,16 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="A26:C27"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A5:C7"/>
-    <mergeCell ref="A29:C31"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="A45:C46"/>
-    <mergeCell ref="A48:C50"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="M54:O57"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="M67:O70"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="M73:O76"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M37:O40"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="M47:O50"/>
+    <mergeCell ref="M53:O53"/>
     <mergeCell ref="M30:O30"/>
     <mergeCell ref="M31:O34"/>
     <mergeCell ref="C75:C76"/>
@@ -9639,16 +9651,32 @@
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="E59:E60"/>
     <mergeCell ref="I59:J59"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M37:O40"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="M47:O50"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="M54:O57"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="M67:O70"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="M73:O76"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="A45:C46"/>
+    <mergeCell ref="A48:C50"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="A29:C31"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="A26:C27"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A5:C7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9660,8 +9688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739D2FDF-FF58-405E-A4E4-D6DDA6C3C12C}">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView topLeftCell="H13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9673,7 +9701,7 @@
     <col min="5" max="5" width="17" style="35" customWidth="1"/>
     <col min="6" max="6" width="9" style="35"/>
     <col min="7" max="7" width="16" style="35" customWidth="1"/>
-    <col min="8" max="8" width="9" style="197"/>
+    <col min="8" max="8" width="9" style="198"/>
     <col min="9" max="9" width="9.375" style="33" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.875" style="33" customWidth="1"/>
     <col min="11" max="11" width="19.875" style="33" customWidth="1"/>
@@ -9684,60 +9712,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="197"/>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
+      <c r="A1" s="198"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
     </row>
     <row r="2" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="197"/>
-      <c r="B2" s="215" t="s">
+      <c r="A2" s="198"/>
+      <c r="B2" s="210" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="I2" s="215" t="s">
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="I2" s="210" t="s">
         <v>259</v>
       </c>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
     </row>
     <row r="3" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="197"/>
-      <c r="B3" s="216"/>
-      <c r="C3" s="216"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="216"/>
-      <c r="G3" s="216"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="216"/>
-      <c r="M3" s="216"/>
+      <c r="A3" s="198"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
     </row>
     <row r="4" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="197"/>
+      <c r="A4" s="198"/>
       <c r="B4" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="246" t="s">
+      <c r="C4" s="216" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="246"/>
-      <c r="E4" s="246"/>
-      <c r="F4" s="246" t="s">
+      <c r="D4" s="216"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="247"/>
+      <c r="G4" s="217"/>
       <c r="I4" s="129" t="s">
         <v>221</v>
       </c>
@@ -9755,25 +9783,25 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="197"/>
-      <c r="B5" s="248" t="s">
+      <c r="A5" s="198"/>
+      <c r="B5" s="218" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="28">
         <v>1</v>
       </c>
-      <c r="D5" s="204" t="s">
+      <c r="D5" s="265" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="205"/>
-      <c r="F5" s="259" t="s">
+      <c r="E5" s="266"/>
+      <c r="F5" s="227" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="260"/>
-      <c r="I5" s="198">
+      <c r="G5" s="228"/>
+      <c r="I5" s="263">
         <v>12</v>
       </c>
-      <c r="J5" s="212" t="s">
+      <c r="J5" s="255" t="s">
         <v>107</v>
       </c>
       <c r="K5" s="130">
@@ -9787,19 +9815,19 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="197"/>
-      <c r="B6" s="249"/>
+      <c r="A6" s="198"/>
+      <c r="B6" s="219"/>
       <c r="C6" s="30">
         <v>2</v>
       </c>
-      <c r="D6" s="204" t="s">
+      <c r="D6" s="265" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="205"/>
-      <c r="F6" s="261"/>
-      <c r="G6" s="254"/>
-      <c r="I6" s="200"/>
-      <c r="J6" s="214"/>
+      <c r="E6" s="266"/>
+      <c r="F6" s="229"/>
+      <c r="G6" s="224"/>
+      <c r="I6" s="257"/>
+      <c r="J6" s="259"/>
       <c r="K6" s="131">
         <v>2</v>
       </c>
@@ -9814,19 +9842,19 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="197"/>
-      <c r="B7" s="250"/>
+      <c r="A7" s="198"/>
+      <c r="B7" s="220"/>
       <c r="C7" s="105">
         <v>3</v>
       </c>
-      <c r="D7" s="251" t="s">
+      <c r="D7" s="221" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="252"/>
-      <c r="F7" s="262"/>
-      <c r="G7" s="263"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="213"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="230"/>
+      <c r="G7" s="231"/>
+      <c r="I7" s="258"/>
+      <c r="J7" s="256"/>
       <c r="K7" s="132">
         <v>3</v>
       </c>
@@ -9839,21 +9867,21 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="197"/>
+      <c r="A8" s="198"/>
       <c r="B8" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="255" t="s">
+      <c r="C8" s="199" t="s">
         <v>194</v>
       </c>
-      <c r="D8" s="255"/>
-      <c r="E8" s="255"/>
-      <c r="F8" s="255"/>
-      <c r="G8" s="256"/>
-      <c r="I8" s="198">
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="200"/>
+      <c r="I8" s="263">
         <v>18</v>
       </c>
-      <c r="J8" s="212" t="s">
+      <c r="J8" s="255" t="s">
         <v>223</v>
       </c>
       <c r="K8" s="130">
@@ -9867,19 +9895,19 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="197"/>
+      <c r="A9" s="198"/>
       <c r="B9" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="251" t="s">
+      <c r="C9" s="221" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="251"/>
-      <c r="E9" s="251"/>
-      <c r="F9" s="253"/>
-      <c r="G9" s="254"/>
-      <c r="I9" s="200"/>
-      <c r="J9" s="214"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="223"/>
+      <c r="G9" s="224"/>
+      <c r="I9" s="257"/>
+      <c r="J9" s="259"/>
       <c r="K9" s="131">
         <v>2</v>
       </c>
@@ -9894,19 +9922,19 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="197"/>
+      <c r="A10" s="198"/>
       <c r="B10" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="255" t="s">
+      <c r="C10" s="199" t="s">
         <v>196</v>
       </c>
-      <c r="D10" s="255"/>
-      <c r="E10" s="255"/>
-      <c r="F10" s="255"/>
-      <c r="G10" s="256"/>
-      <c r="I10" s="199"/>
-      <c r="J10" s="213"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="199"/>
+      <c r="G10" s="200"/>
+      <c r="I10" s="258"/>
+      <c r="J10" s="256"/>
       <c r="K10" s="132">
         <v>3</v>
       </c>
@@ -9919,21 +9947,21 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="197"/>
+      <c r="A11" s="198"/>
       <c r="B11" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="257" t="s">
+      <c r="C11" s="225" t="s">
         <v>197</v>
       </c>
-      <c r="D11" s="257"/>
-      <c r="E11" s="257"/>
-      <c r="F11" s="257"/>
-      <c r="G11" s="258"/>
-      <c r="I11" s="198">
+      <c r="D11" s="225"/>
+      <c r="E11" s="225"/>
+      <c r="F11" s="225"/>
+      <c r="G11" s="226"/>
+      <c r="I11" s="263">
         <v>4</v>
       </c>
-      <c r="J11" s="212" t="s">
+      <c r="J11" s="255" t="s">
         <v>226</v>
       </c>
       <c r="K11" s="130">
@@ -9947,15 +9975,15 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="197"/>
-      <c r="B12" s="197"/>
-      <c r="C12" s="197"/>
-      <c r="D12" s="197"/>
-      <c r="E12" s="197"/>
-      <c r="F12" s="197"/>
-      <c r="G12" s="197"/>
-      <c r="I12" s="200"/>
-      <c r="J12" s="214"/>
+      <c r="A12" s="198"/>
+      <c r="B12" s="198"/>
+      <c r="C12" s="198"/>
+      <c r="D12" s="198"/>
+      <c r="E12" s="198"/>
+      <c r="F12" s="198"/>
+      <c r="G12" s="198"/>
+      <c r="I12" s="257"/>
+      <c r="J12" s="259"/>
       <c r="K12" s="131">
         <v>1</v>
       </c>
@@ -9970,15 +9998,15 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="197"/>
-      <c r="B13" s="197"/>
-      <c r="C13" s="197"/>
-      <c r="D13" s="197"/>
-      <c r="E13" s="197"/>
-      <c r="F13" s="197"/>
-      <c r="G13" s="197"/>
-      <c r="I13" s="200"/>
-      <c r="J13" s="214"/>
+      <c r="A13" s="198"/>
+      <c r="B13" s="198"/>
+      <c r="C13" s="198"/>
+      <c r="D13" s="198"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="198"/>
+      <c r="G13" s="198"/>
+      <c r="I13" s="257"/>
+      <c r="J13" s="259"/>
       <c r="K13" s="131">
         <v>2</v>
       </c>
@@ -9993,17 +10021,17 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="215" t="s">
+      <c r="A14" s="210" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="242"/>
-      <c r="C14" s="242"/>
-      <c r="D14" s="242"/>
-      <c r="E14" s="242"/>
-      <c r="F14" s="242"/>
-      <c r="G14" s="242"/>
-      <c r="I14" s="199"/>
-      <c r="J14" s="213"/>
+      <c r="B14" s="212"/>
+      <c r="C14" s="212"/>
+      <c r="D14" s="212"/>
+      <c r="E14" s="212"/>
+      <c r="F14" s="212"/>
+      <c r="G14" s="212"/>
+      <c r="I14" s="258"/>
+      <c r="J14" s="256"/>
       <c r="K14" s="132">
         <v>3</v>
       </c>
@@ -10016,17 +10044,17 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="242"/>
-      <c r="B15" s="242"/>
-      <c r="C15" s="242"/>
-      <c r="D15" s="242"/>
-      <c r="E15" s="242"/>
-      <c r="F15" s="242"/>
-      <c r="G15" s="242"/>
-      <c r="I15" s="198">
+      <c r="A15" s="212"/>
+      <c r="B15" s="212"/>
+      <c r="C15" s="212"/>
+      <c r="D15" s="212"/>
+      <c r="E15" s="212"/>
+      <c r="F15" s="212"/>
+      <c r="G15" s="212"/>
+      <c r="I15" s="263">
         <v>3</v>
       </c>
-      <c r="J15" s="212" t="s">
+      <c r="J15" s="255" t="s">
         <v>158</v>
       </c>
       <c r="K15" s="130">
@@ -10044,17 +10072,17 @@
       <c r="B16" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="243" t="s">
+      <c r="C16" s="213" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="243"/>
-      <c r="E16" s="243" t="s">
+      <c r="D16" s="213"/>
+      <c r="E16" s="213" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="244"/>
-      <c r="G16" s="245"/>
-      <c r="I16" s="200"/>
-      <c r="J16" s="214"/>
+      <c r="F16" s="214"/>
+      <c r="G16" s="215"/>
+      <c r="I16" s="257"/>
+      <c r="J16" s="259"/>
       <c r="K16" s="131">
         <v>1</v>
       </c>
@@ -10069,21 +10097,21 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="222" t="s">
+      <c r="A17" s="232" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="201" t="s">
+      <c r="B17" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="228" t="s">
+      <c r="C17" s="241" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="229"/>
-      <c r="E17" s="208"/>
-      <c r="F17" s="209"/>
-      <c r="G17" s="210"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="214"/>
+      <c r="D17" s="242"/>
+      <c r="E17" s="204"/>
+      <c r="F17" s="205"/>
+      <c r="G17" s="206"/>
+      <c r="I17" s="257"/>
+      <c r="J17" s="259"/>
       <c r="K17" s="131">
         <v>2</v>
       </c>
@@ -10098,15 +10126,15 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="222"/>
-      <c r="B18" s="224"/>
-      <c r="C18" s="230"/>
-      <c r="D18" s="231"/>
-      <c r="E18" s="264"/>
-      <c r="F18" s="265"/>
-      <c r="G18" s="266"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="213"/>
+      <c r="A18" s="232"/>
+      <c r="B18" s="236"/>
+      <c r="C18" s="243"/>
+      <c r="D18" s="244"/>
+      <c r="E18" s="201"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="203"/>
+      <c r="I18" s="258"/>
+      <c r="J18" s="256"/>
       <c r="K18" s="132">
         <v>3</v>
       </c>
@@ -10119,19 +10147,19 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="206" t="s">
+      <c r="A19" s="234" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="202"/>
-      <c r="C19" s="232"/>
-      <c r="D19" s="233"/>
-      <c r="E19" s="208"/>
-      <c r="F19" s="209"/>
-      <c r="G19" s="210"/>
-      <c r="I19" s="217" t="s">
+      <c r="B19" s="237"/>
+      <c r="C19" s="245"/>
+      <c r="D19" s="246"/>
+      <c r="E19" s="204"/>
+      <c r="F19" s="205"/>
+      <c r="G19" s="206"/>
+      <c r="I19" s="260" t="s">
         <v>224</v>
       </c>
-      <c r="J19" s="212" t="s">
+      <c r="J19" s="255" t="s">
         <v>222</v>
       </c>
       <c r="K19" s="130">
@@ -10143,19 +10171,19 @@
       <c r="M19" s="128"/>
     </row>
     <row r="20" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="206"/>
-      <c r="B20" s="225" t="s">
+      <c r="A20" s="234"/>
+      <c r="B20" s="238" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="234" t="s">
+      <c r="C20" s="247" t="s">
         <v>299</v>
       </c>
-      <c r="D20" s="235"/>
-      <c r="E20" s="264"/>
-      <c r="F20" s="265"/>
-      <c r="G20" s="266"/>
-      <c r="I20" s="218"/>
-      <c r="J20" s="214"/>
+      <c r="D20" s="248"/>
+      <c r="E20" s="201"/>
+      <c r="F20" s="202"/>
+      <c r="G20" s="203"/>
+      <c r="I20" s="261"/>
+      <c r="J20" s="259"/>
       <c r="K20" s="131">
         <v>1</v>
       </c>
@@ -10170,17 +10198,17 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="222" t="s">
+      <c r="A21" s="232" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="226"/>
-      <c r="C21" s="236"/>
-      <c r="D21" s="237"/>
-      <c r="E21" s="208"/>
-      <c r="F21" s="209"/>
-      <c r="G21" s="210"/>
-      <c r="I21" s="218"/>
-      <c r="J21" s="214"/>
+      <c r="B21" s="239"/>
+      <c r="C21" s="249"/>
+      <c r="D21" s="250"/>
+      <c r="E21" s="204"/>
+      <c r="F21" s="205"/>
+      <c r="G21" s="206"/>
+      <c r="I21" s="261"/>
+      <c r="J21" s="259"/>
       <c r="K21" s="131">
         <v>2</v>
       </c>
@@ -10195,15 +10223,15 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="222"/>
-      <c r="B22" s="227"/>
-      <c r="C22" s="238"/>
-      <c r="D22" s="239"/>
-      <c r="E22" s="264"/>
-      <c r="F22" s="265"/>
-      <c r="G22" s="266"/>
-      <c r="I22" s="219"/>
-      <c r="J22" s="213"/>
+      <c r="A22" s="232"/>
+      <c r="B22" s="240"/>
+      <c r="C22" s="251"/>
+      <c r="D22" s="252"/>
+      <c r="E22" s="201"/>
+      <c r="F22" s="202"/>
+      <c r="G22" s="203"/>
+      <c r="I22" s="262"/>
+      <c r="J22" s="256"/>
       <c r="K22" s="132">
         <v>3</v>
       </c>
@@ -10216,23 +10244,23 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="206" t="s">
+      <c r="A23" s="234" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="201">
+      <c r="B23" s="235">
         <v>1</v>
       </c>
-      <c r="C23" s="228" t="s">
+      <c r="C23" s="241" t="s">
         <v>189</v>
       </c>
-      <c r="D23" s="229"/>
-      <c r="E23" s="208"/>
-      <c r="F23" s="209"/>
-      <c r="G23" s="210"/>
-      <c r="I23" s="198" t="s">
+      <c r="D23" s="242"/>
+      <c r="E23" s="204"/>
+      <c r="F23" s="205"/>
+      <c r="G23" s="206"/>
+      <c r="I23" s="263" t="s">
         <v>228</v>
       </c>
-      <c r="J23" s="212" t="s">
+      <c r="J23" s="255" t="s">
         <v>225</v>
       </c>
       <c r="K23" s="130">
@@ -10246,15 +10274,15 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="206"/>
-      <c r="B24" s="202"/>
-      <c r="C24" s="232"/>
-      <c r="D24" s="233"/>
-      <c r="E24" s="264"/>
-      <c r="F24" s="265"/>
-      <c r="G24" s="266"/>
-      <c r="I24" s="200"/>
-      <c r="J24" s="214"/>
+      <c r="A24" s="234"/>
+      <c r="B24" s="237"/>
+      <c r="C24" s="245"/>
+      <c r="D24" s="246"/>
+      <c r="E24" s="201"/>
+      <c r="F24" s="202"/>
+      <c r="G24" s="203"/>
+      <c r="I24" s="257"/>
+      <c r="J24" s="259"/>
       <c r="K24" s="131">
         <v>1</v>
       </c>
@@ -10266,19 +10294,19 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="206"/>
-      <c r="B25" s="201">
+      <c r="A25" s="234"/>
+      <c r="B25" s="235">
         <v>2</v>
       </c>
-      <c r="C25" s="234" t="s">
+      <c r="C25" s="247" t="s">
         <v>191</v>
       </c>
-      <c r="D25" s="235"/>
-      <c r="E25" s="208"/>
-      <c r="F25" s="209"/>
-      <c r="G25" s="210"/>
-      <c r="I25" s="200"/>
-      <c r="J25" s="214"/>
+      <c r="D25" s="248"/>
+      <c r="E25" s="204"/>
+      <c r="F25" s="205"/>
+      <c r="G25" s="206"/>
+      <c r="I25" s="257"/>
+      <c r="J25" s="259"/>
       <c r="K25" s="131">
         <v>2</v>
       </c>
@@ -10290,17 +10318,17 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="222" t="s">
+      <c r="A26" s="232" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="202"/>
-      <c r="C26" s="238"/>
-      <c r="D26" s="239"/>
-      <c r="E26" s="264"/>
-      <c r="F26" s="265"/>
-      <c r="G26" s="266"/>
-      <c r="I26" s="199"/>
-      <c r="J26" s="213"/>
+      <c r="B26" s="237"/>
+      <c r="C26" s="251"/>
+      <c r="D26" s="252"/>
+      <c r="E26" s="201"/>
+      <c r="F26" s="202"/>
+      <c r="G26" s="203"/>
+      <c r="I26" s="258"/>
+      <c r="J26" s="256"/>
       <c r="K26" s="132">
         <v>3</v>
       </c>
@@ -10310,21 +10338,21 @@
       <c r="M26" s="126"/>
     </row>
     <row r="27" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="222"/>
-      <c r="B27" s="201">
+      <c r="A27" s="232"/>
+      <c r="B27" s="235">
         <v>3</v>
       </c>
-      <c r="C27" s="228" t="s">
+      <c r="C27" s="241" t="s">
         <v>190</v>
       </c>
-      <c r="D27" s="229"/>
-      <c r="E27" s="208"/>
-      <c r="F27" s="209"/>
-      <c r="G27" s="210"/>
-      <c r="I27" s="200">
+      <c r="D27" s="242"/>
+      <c r="E27" s="204"/>
+      <c r="F27" s="205"/>
+      <c r="G27" s="206"/>
+      <c r="I27" s="257">
         <v>17</v>
       </c>
-      <c r="J27" s="214" t="s">
+      <c r="J27" s="259" t="s">
         <v>227</v>
       </c>
       <c r="K27" s="131">
@@ -10341,15 +10369,15 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="223"/>
-      <c r="B28" s="203"/>
-      <c r="C28" s="240"/>
-      <c r="D28" s="241"/>
-      <c r="E28" s="211"/>
-      <c r="F28" s="220"/>
-      <c r="G28" s="221"/>
-      <c r="I28" s="200"/>
-      <c r="J28" s="214"/>
+      <c r="A28" s="233"/>
+      <c r="B28" s="264"/>
+      <c r="C28" s="253"/>
+      <c r="D28" s="254"/>
+      <c r="E28" s="207"/>
+      <c r="F28" s="208"/>
+      <c r="G28" s="209"/>
+      <c r="I28" s="257"/>
+      <c r="J28" s="259"/>
       <c r="K28" s="131">
         <v>2</v>
       </c>
@@ -10364,23 +10392,23 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="206" t="s">
+      <c r="A29" s="234" t="s">
         <v>124</v>
       </c>
       <c r="B29" s="109">
         <v>1</v>
       </c>
-      <c r="C29" s="208" t="s">
+      <c r="C29" s="204" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="208"/>
-      <c r="E29" s="208" t="s">
+      <c r="D29" s="204"/>
+      <c r="E29" s="204" t="s">
         <v>126</v>
       </c>
-      <c r="F29" s="209"/>
-      <c r="G29" s="210"/>
-      <c r="I29" s="200"/>
-      <c r="J29" s="214"/>
+      <c r="F29" s="205"/>
+      <c r="G29" s="206"/>
+      <c r="I29" s="257"/>
+      <c r="J29" s="259"/>
       <c r="K29" s="131">
         <v>3</v>
       </c>
@@ -10393,23 +10421,23 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="207"/>
+      <c r="A30" s="267"/>
       <c r="B30" s="112">
         <v>2</v>
       </c>
-      <c r="C30" s="211" t="s">
+      <c r="C30" s="207" t="s">
         <v>188</v>
       </c>
-      <c r="D30" s="211"/>
-      <c r="E30" s="211" t="s">
+      <c r="D30" s="207"/>
+      <c r="E30" s="207" t="s">
         <v>192</v>
       </c>
-      <c r="F30" s="220"/>
-      <c r="G30" s="221"/>
-      <c r="I30" s="198">
+      <c r="F30" s="208"/>
+      <c r="G30" s="209"/>
+      <c r="I30" s="263">
         <v>1</v>
       </c>
-      <c r="J30" s="212" t="s">
+      <c r="J30" s="255" t="s">
         <v>229</v>
       </c>
       <c r="K30" s="130">
@@ -10421,21 +10449,21 @@
       <c r="M30" s="128"/>
     </row>
     <row r="31" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="197" t="s">
         <v>301</v>
       </c>
       <c r="B31" s="33">
         <v>1</v>
       </c>
-      <c r="C31" s="267" t="s">
+      <c r="C31" s="197" t="s">
         <v>302</v>
       </c>
-      <c r="D31" s="267"/>
-      <c r="E31" s="267"/>
-      <c r="F31" s="267"/>
-      <c r="G31" s="267"/>
-      <c r="I31" s="199"/>
-      <c r="J31" s="213"/>
+      <c r="D31" s="197"/>
+      <c r="E31" s="197"/>
+      <c r="F31" s="197"/>
+      <c r="G31" s="197"/>
+      <c r="I31" s="258"/>
+      <c r="J31" s="256"/>
       <c r="K31" s="132">
         <v>1</v>
       </c>
@@ -10443,20 +10471,21 @@
       <c r="M31" s="126"/>
     </row>
     <row r="32" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="198"/>
       <c r="B32" s="33">
         <v>2</v>
       </c>
-      <c r="C32" s="197" t="s">
+      <c r="C32" s="198" t="s">
         <v>303</v>
       </c>
-      <c r="D32" s="197"/>
-      <c r="E32" s="197"/>
-      <c r="F32" s="197"/>
-      <c r="G32" s="197"/>
-      <c r="I32" s="200">
+      <c r="D32" s="198"/>
+      <c r="E32" s="198"/>
+      <c r="F32" s="198"/>
+      <c r="G32" s="198"/>
+      <c r="I32" s="257">
         <v>2</v>
       </c>
-      <c r="J32" s="214" t="s">
+      <c r="J32" s="259" t="s">
         <v>230</v>
       </c>
       <c r="K32" s="131">
@@ -10467,19 +10496,20 @@
       </c>
       <c r="M32" s="125"/>
     </row>
-    <row r="33" spans="2:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="198"/>
       <c r="B33" s="33">
         <v>3</v>
       </c>
-      <c r="C33" s="197" t="s">
+      <c r="C33" s="198" t="s">
         <v>304</v>
       </c>
-      <c r="D33" s="197"/>
-      <c r="E33" s="197"/>
-      <c r="F33" s="197"/>
-      <c r="G33" s="197"/>
-      <c r="I33" s="199"/>
-      <c r="J33" s="213"/>
+      <c r="D33" s="198"/>
+      <c r="E33" s="198"/>
+      <c r="F33" s="198"/>
+      <c r="G33" s="198"/>
+      <c r="I33" s="258"/>
+      <c r="J33" s="256"/>
       <c r="K33" s="132">
         <v>1</v>
       </c>
@@ -10526,26 +10556,53 @@
       <c r="C65" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E17:G17"/>
+  <mergeCells count="81">
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="H1:H1048576"/>
+    <mergeCell ref="A12:G13"/>
+    <mergeCell ref="A1:A11"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="I2:M3"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C17:D19"/>
+    <mergeCell ref="C20:D22"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="C25:D26"/>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="A14:G15"/>
     <mergeCell ref="C16:D16"/>
@@ -10562,51 +10619,25 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F5:G7"/>
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C17:D19"/>
-    <mergeCell ref="C20:D22"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="I2:M3"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="H1:H1048576"/>
-    <mergeCell ref="A12:G13"/>
-    <mergeCell ref="A1:A11"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10618,8 +10649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD80170-8D7D-4E29-963E-75821B94DB23}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10764,6 +10795,12 @@
       <c r="B10" s="124" t="s">
         <v>209</v>
       </c>
+      <c r="D10" s="124">
+        <v>9</v>
+      </c>
+      <c r="E10" s="124" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="123">
@@ -10772,6 +10809,12 @@
       <c r="B11" s="124" t="s">
         <v>210</v>
       </c>
+      <c r="D11" s="124">
+        <v>10</v>
+      </c>
+      <c r="E11" s="124" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="123">
@@ -10780,6 +10823,12 @@
       <c r="B12" s="124" t="s">
         <v>203</v>
       </c>
+      <c r="D12" s="124">
+        <v>11</v>
+      </c>
+      <c r="E12" s="124" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="123">
@@ -10788,6 +10837,12 @@
       <c r="B13" s="124" t="s">
         <v>213</v>
       </c>
+      <c r="D13" s="124">
+        <v>12</v>
+      </c>
+      <c r="E13" s="124" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="123">
@@ -10796,6 +10851,12 @@
       <c r="B14" s="124" t="s">
         <v>211</v>
       </c>
+      <c r="D14" s="124">
+        <v>13</v>
+      </c>
+      <c r="E14" s="124" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="123">
@@ -10804,6 +10865,12 @@
       <c r="B15" s="124" t="s">
         <v>212</v>
       </c>
+      <c r="D15" s="124">
+        <v>14</v>
+      </c>
+      <c r="E15" s="124" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="123">
@@ -10812,29 +10879,47 @@
       <c r="B16" s="124" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D16" s="124">
+        <v>15</v>
+      </c>
+      <c r="E16" s="124" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="123">
         <v>17</v>
       </c>
       <c r="B17" s="124" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D17" s="124">
+        <v>16</v>
+      </c>
+      <c r="E17" s="124" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="123">
         <v>18</v>
       </c>
       <c r="B18" s="124" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D18" s="124">
+        <v>17</v>
+      </c>
+      <c r="E18" s="124" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="123">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="123">
         <v>20</v>
       </c>

--- a/文物娘.xlsx
+++ b/文物娘.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GameMaker\Final Work\Github\CultureRelicGirls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E76DDD7-93ED-446E-BD2E-B3CB235399D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF70981F-6056-4574-A76E-740BB574A672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1E3677C8-2B1C-423A-AEA1-C1DF63D56BAF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="324">
   <si>
     <t>司母戊鼎</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1331,6 +1331,14 @@
   </si>
   <si>
     <t>Fighter</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃及狗神像，出土于法老图坦卡蒙墓中的"阿努比斯"雕像。神像长270厘米，高118厘米，宽52厘米，由涂了焦油的木材制成，爪子则为银制，身下是一个小小的祭坛。目前，这尊"阿努比斯"雕像收藏于埃及开罗博物馆中。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊雷：击杀一个单位时，在敌人的头上召唤一朵雷云，造成30伤害的3身位范围雷击</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2988,6 +2996,42 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="67" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="77" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="76" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2997,60 +3041,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="67" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="77" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="76" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3066,13 +3056,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="58" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="59" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="36" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="37" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="76" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3087,10 +3161,10 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="9" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3108,84 +3182,210 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="36" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="37" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="58" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="59" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="76" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="80" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="81" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="34" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="88" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="35" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="82" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="69" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="83" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="84" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="65" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="70" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="61" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="85" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="87" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="62" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="60" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="64" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="65" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="61" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="66" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3193,198 +3393,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="34" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="88" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="35" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="87" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="62" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="60" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="64" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="65" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="61" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="66" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="82" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="69" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="83" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="84" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="65" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="70" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="61" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="85" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="80" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="81" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3709,8 +3717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D91B1E5-0340-464B-AF90-56D459836ED7}">
   <dimension ref="B1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3725,67 +3733,67 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="155" t="s">
         <v>272</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="144" t="s">
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="155" t="s">
         <v>276</v>
       </c>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="144" t="s">
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="155" t="s">
         <v>277</v>
       </c>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="145" t="s">
+      <c r="N2" s="156"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="156" t="s">
         <v>278</v>
       </c>
-      <c r="S2" s="145"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="146"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="156"/>
+      <c r="V2" s="157"/>
     </row>
     <row r="3" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="150" t="s">
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="147" t="s">
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="148"/>
-      <c r="O3" s="148"/>
-      <c r="P3" s="148"/>
-      <c r="Q3" s="149"/>
-      <c r="R3" s="150" t="s">
+      <c r="N3" s="162"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="162"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="151"/>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="152"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="160"/>
     </row>
     <row r="4" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -3811,23 +3819,23 @@
         <v>525</v>
       </c>
       <c r="H4" s="17">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="I4" s="18">
         <f>H4*1.2</f>
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="J4" s="18">
         <f>H4*1.5</f>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K4" s="18">
         <f>H4*1.8</f>
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="L4" s="21">
         <f>H4*2.1</f>
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="M4" s="17">
         <v>200</v>
@@ -4103,94 +4111,94 @@
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="135" t="s">
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="136"/>
-      <c r="J8" s="136"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="135" t="s">
+      <c r="I8" s="148"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="136"/>
-      <c r="O8" s="136"/>
-      <c r="P8" s="136"/>
-      <c r="Q8" s="137"/>
-      <c r="R8" s="135" t="s">
-        <v>114</v>
-      </c>
-      <c r="S8" s="136"/>
-      <c r="T8" s="136"/>
-      <c r="U8" s="136"/>
-      <c r="V8" s="137"/>
+      <c r="N8" s="148"/>
+      <c r="O8" s="148"/>
+      <c r="P8" s="148"/>
+      <c r="Q8" s="149"/>
+      <c r="R8" s="147" t="s">
+        <v>323</v>
+      </c>
+      <c r="S8" s="148"/>
+      <c r="T8" s="148"/>
+      <c r="U8" s="148"/>
+      <c r="V8" s="149"/>
     </row>
     <row r="9" spans="2:22" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="156" t="s">
+      <c r="C9" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="156" t="s">
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="157"/>
-      <c r="J9" s="157"/>
-      <c r="K9" s="157"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="156" t="s">
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="157"/>
-      <c r="O9" s="157"/>
-      <c r="P9" s="157"/>
-      <c r="Q9" s="158"/>
-      <c r="R9" s="156" t="s">
+      <c r="N9" s="151"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="152"/>
+      <c r="R9" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="157"/>
-      <c r="T9" s="157"/>
-      <c r="U9" s="157"/>
-      <c r="V9" s="158"/>
+      <c r="S9" s="151"/>
+      <c r="T9" s="151"/>
+      <c r="U9" s="151"/>
+      <c r="V9" s="152"/>
     </row>
     <row r="11" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="144" t="s">
+      <c r="C12" s="155" t="s">
         <v>275</v>
       </c>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="144" t="s">
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="155" t="s">
         <v>273</v>
       </c>
-      <c r="I12" s="145"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="145"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="144" t="s">
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="157"/>
+      <c r="M12" s="155" t="s">
         <v>274</v>
       </c>
-      <c r="N12" s="145"/>
-      <c r="O12" s="145"/>
-      <c r="P12" s="145"/>
-      <c r="Q12" s="146"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="156"/>
+      <c r="Q12" s="157"/>
       <c r="S12" s="113">
         <v>2.1</v>
       </c>
@@ -4205,27 +4213,27 @@
       <c r="B13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="141" t="s">
+      <c r="C13" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="141" t="s">
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="142"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="142"/>
-      <c r="L13" s="143"/>
-      <c r="M13" s="161" t="s">
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="N13" s="162"/>
-      <c r="O13" s="162"/>
-      <c r="P13" s="162"/>
-      <c r="Q13" s="163"/>
+      <c r="N13" s="139"/>
+      <c r="O13" s="139"/>
+      <c r="P13" s="139"/>
+      <c r="Q13" s="140"/>
       <c r="S13" s="116">
         <v>1.8</v>
       </c>
@@ -4306,7 +4314,7 @@
       <c r="U14" s="118">
         <v>1</v>
       </c>
-      <c r="V14" s="159"/>
+      <c r="V14" s="153"/>
     </row>
     <row r="15" spans="2:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
@@ -4376,7 +4384,7 @@
         <v>1</v>
       </c>
       <c r="U15" s="118"/>
-      <c r="V15" s="159"/>
+      <c r="V15" s="153"/>
     </row>
     <row r="16" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
@@ -4502,106 +4510,106 @@
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="135" t="s">
+      <c r="C18" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="135" t="s">
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="136"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="135" t="s">
+      <c r="I18" s="148"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="136"/>
-      <c r="Q18" s="137"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="148"/>
+      <c r="Q18" s="149"/>
     </row>
     <row r="19" spans="2:17" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="156" t="s">
+      <c r="C19" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="156" t="s">
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="157"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="156" t="s">
+      <c r="I19" s="151"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="157"/>
-      <c r="O19" s="157"/>
-      <c r="P19" s="157"/>
-      <c r="Q19" s="158"/>
+      <c r="N19" s="151"/>
+      <c r="O19" s="151"/>
+      <c r="P19" s="151"/>
+      <c r="Q19" s="152"/>
     </row>
     <row r="21" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="153" t="s">
+      <c r="C22" s="144" t="s">
         <v>279</v>
       </c>
-      <c r="D22" s="154"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="153" t="s">
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="144" t="s">
         <v>280</v>
       </c>
-      <c r="I22" s="154"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="154"/>
-      <c r="L22" s="155"/>
-      <c r="M22" s="153" t="s">
+      <c r="I22" s="145"/>
+      <c r="J22" s="145"/>
+      <c r="K22" s="145"/>
+      <c r="L22" s="146"/>
+      <c r="M22" s="144" t="s">
         <v>281</v>
       </c>
-      <c r="N22" s="154"/>
-      <c r="O22" s="154"/>
-      <c r="P22" s="154"/>
-      <c r="Q22" s="155"/>
+      <c r="N22" s="145"/>
+      <c r="O22" s="145"/>
+      <c r="P22" s="145"/>
+      <c r="Q22" s="146"/>
     </row>
     <row r="23" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="138" t="s">
+      <c r="C23" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="141" t="s">
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="142"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="142"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="161" t="s">
+      <c r="I23" s="136"/>
+      <c r="J23" s="136"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="162"/>
-      <c r="O23" s="162"/>
-      <c r="P23" s="162"/>
-      <c r="Q23" s="163"/>
+      <c r="N23" s="139"/>
+      <c r="O23" s="139"/>
+      <c r="P23" s="139"/>
+      <c r="Q23" s="140"/>
     </row>
     <row r="24" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
@@ -4846,92 +4854,92 @@
       <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="135" t="s">
+      <c r="C28" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="135" t="s">
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="136"/>
-      <c r="J28" s="136"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="135" t="s">
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="136"/>
-      <c r="O28" s="136"/>
-      <c r="P28" s="136"/>
-      <c r="Q28" s="137"/>
+      <c r="N28" s="148"/>
+      <c r="O28" s="148"/>
+      <c r="P28" s="148"/>
+      <c r="Q28" s="149"/>
     </row>
     <row r="29" spans="2:17" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="156" t="s">
+      <c r="C29" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="157"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="156" t="s">
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="157"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="157"/>
-      <c r="L29" s="158"/>
-      <c r="M29" s="156" t="s">
+      <c r="I29" s="151"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="150" t="s">
         <v>115</v>
       </c>
-      <c r="N29" s="157"/>
-      <c r="O29" s="157"/>
-      <c r="P29" s="157"/>
-      <c r="Q29" s="158"/>
+      <c r="N29" s="151"/>
+      <c r="O29" s="151"/>
+      <c r="P29" s="151"/>
+      <c r="Q29" s="152"/>
     </row>
     <row r="31" spans="2:17" s="13" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="144" t="s">
+      <c r="C32" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="144" t="s">
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="145"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="145"/>
-      <c r="L32" s="146"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="157"/>
     </row>
     <row r="33" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="138" t="s">
+      <c r="C33" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="139"/>
-      <c r="E33" s="139"/>
-      <c r="F33" s="139"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="141" t="s">
+      <c r="D33" s="142"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="142"/>
-      <c r="J33" s="142"/>
-      <c r="K33" s="142"/>
-      <c r="L33" s="143"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="136"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="137"/>
     </row>
     <row r="34" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
@@ -5109,39 +5117,39 @@
       <c r="B38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="135" t="s">
+      <c r="C38" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="136"/>
-      <c r="E38" s="136"/>
-      <c r="F38" s="136"/>
-      <c r="G38" s="137"/>
-      <c r="H38" s="135" t="s">
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="136"/>
-      <c r="J38" s="136"/>
-      <c r="K38" s="136"/>
-      <c r="L38" s="137"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="149"/>
     </row>
     <row r="39" spans="2:17" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="156" t="s">
+      <c r="C39" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="157"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="156" t="s">
-        <v>32</v>
-      </c>
-      <c r="I39" s="157"/>
-      <c r="J39" s="157"/>
-      <c r="K39" s="157"/>
-      <c r="L39" s="158"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="150" t="s">
+        <v>322</v>
+      </c>
+      <c r="I39" s="151"/>
+      <c r="J39" s="151"/>
+      <c r="K39" s="151"/>
+      <c r="L39" s="152"/>
       <c r="M39" s="26"/>
       <c r="N39" s="26"/>
       <c r="O39" s="26"/>
@@ -5150,14 +5158,31 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="M18:Q18"/>
     <mergeCell ref="C39:G39"/>
     <mergeCell ref="H39:L39"/>
     <mergeCell ref="V14:V15"/>
@@ -5174,31 +5199,14 @@
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C18:G18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5221,34 +5229,34 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="144" t="s">
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="144" t="s">
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="145" t="s">
+      <c r="N2" s="156"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="145"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="146"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="156"/>
+      <c r="V2" s="157"/>
       <c r="W2" s="122"/>
       <c r="X2" s="122"/>
       <c r="Y2" s="122"/>
@@ -5275,34 +5283,34 @@
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="150" t="s">
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="147" t="s">
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="148"/>
-      <c r="O3" s="148"/>
-      <c r="P3" s="148"/>
-      <c r="Q3" s="149"/>
-      <c r="R3" s="150" t="s">
+      <c r="N3" s="162"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="162"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="151"/>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="152"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="160"/>
       <c r="W3" s="122"/>
       <c r="X3" s="122"/>
       <c r="Y3" s="122"/>
@@ -5725,34 +5733,34 @@
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="135" t="s">
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="136"/>
-      <c r="J8" s="136"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="135" t="s">
+      <c r="I8" s="148"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="136"/>
-      <c r="O8" s="136"/>
-      <c r="P8" s="136"/>
-      <c r="Q8" s="137"/>
-      <c r="R8" s="135" t="s">
+      <c r="N8" s="148"/>
+      <c r="O8" s="148"/>
+      <c r="P8" s="148"/>
+      <c r="Q8" s="149"/>
+      <c r="R8" s="147" t="s">
         <v>114</v>
       </c>
-      <c r="S8" s="136"/>
-      <c r="T8" s="136"/>
-      <c r="U8" s="136"/>
-      <c r="V8" s="137"/>
+      <c r="S8" s="148"/>
+      <c r="T8" s="148"/>
+      <c r="U8" s="148"/>
+      <c r="V8" s="149"/>
       <c r="W8" s="122"/>
       <c r="X8" s="122"/>
       <c r="Y8" s="122"/>
@@ -5779,34 +5787,34 @@
       <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="156" t="s">
+      <c r="C9" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="156" t="s">
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="157"/>
-      <c r="J9" s="157"/>
-      <c r="K9" s="157"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="156" t="s">
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="157"/>
-      <c r="O9" s="157"/>
-      <c r="P9" s="157"/>
-      <c r="Q9" s="158"/>
-      <c r="R9" s="156" t="s">
+      <c r="N9" s="151"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="152"/>
+      <c r="R9" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="157"/>
-      <c r="T9" s="157"/>
-      <c r="U9" s="157"/>
-      <c r="V9" s="158"/>
+      <c r="S9" s="151"/>
+      <c r="T9" s="151"/>
+      <c r="U9" s="151"/>
+      <c r="V9" s="152"/>
       <c r="W9" s="122"/>
       <c r="X9" s="122"/>
       <c r="Y9" s="122"/>
@@ -5921,27 +5929,27 @@
       <c r="B12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="144" t="s">
+      <c r="C12" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="144" t="s">
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="145"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="145"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="144" t="s">
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="157"/>
+      <c r="M12" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="145"/>
-      <c r="O12" s="145"/>
-      <c r="P12" s="145"/>
-      <c r="Q12" s="146"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="156"/>
+      <c r="Q12" s="157"/>
       <c r="R12" s="122"/>
       <c r="S12" s="113">
         <v>2.1</v>
@@ -5979,27 +5987,27 @@
       <c r="B13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="141" t="s">
+      <c r="C13" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="141" t="s">
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="142"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="142"/>
-      <c r="L13" s="143"/>
-      <c r="M13" s="161" t="s">
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="N13" s="162"/>
-      <c r="O13" s="162"/>
-      <c r="P13" s="162"/>
-      <c r="Q13" s="163"/>
+      <c r="N13" s="139"/>
+      <c r="O13" s="139"/>
+      <c r="P13" s="139"/>
+      <c r="Q13" s="140"/>
       <c r="R13" s="122"/>
       <c r="S13" s="116">
         <v>1.8</v>
@@ -6104,7 +6112,7 @@
       <c r="U14" s="118">
         <v>1</v>
       </c>
-      <c r="V14" s="159"/>
+      <c r="V14" s="153"/>
       <c r="W14" s="122"/>
       <c r="X14" s="122"/>
       <c r="Y14" s="122"/>
@@ -6196,7 +6204,7 @@
         <v>1</v>
       </c>
       <c r="U15" s="118"/>
-      <c r="V15" s="159"/>
+      <c r="V15" s="153"/>
       <c r="W15" s="122"/>
       <c r="X15" s="122"/>
       <c r="Y15" s="122"/>
@@ -6392,27 +6400,27 @@
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="135" t="s">
+      <c r="C18" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="135" t="s">
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="136"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="135" t="s">
+      <c r="I18" s="148"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="136"/>
-      <c r="Q18" s="137"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="148"/>
+      <c r="Q18" s="149"/>
       <c r="R18" s="122"/>
       <c r="S18" s="122"/>
       <c r="T18" s="122"/>
@@ -6444,27 +6452,27 @@
       <c r="B19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="156" t="s">
+      <c r="C19" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="156" t="s">
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="157"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="156" t="s">
+      <c r="I19" s="151"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="157"/>
-      <c r="O19" s="157"/>
-      <c r="P19" s="157"/>
-      <c r="Q19" s="158"/>
+      <c r="N19" s="151"/>
+      <c r="O19" s="151"/>
+      <c r="P19" s="151"/>
+      <c r="Q19" s="152"/>
       <c r="R19" s="122"/>
       <c r="S19" s="122"/>
       <c r="T19" s="122"/>
@@ -6584,27 +6592,27 @@
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="153" t="s">
+      <c r="C22" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="154"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="153" t="s">
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="154"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="154"/>
-      <c r="L22" s="155"/>
-      <c r="M22" s="153" t="s">
+      <c r="I22" s="145"/>
+      <c r="J22" s="145"/>
+      <c r="K22" s="145"/>
+      <c r="L22" s="146"/>
+      <c r="M22" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="154"/>
-      <c r="O22" s="154"/>
-      <c r="P22" s="154"/>
-      <c r="Q22" s="155"/>
+      <c r="N22" s="145"/>
+      <c r="O22" s="145"/>
+      <c r="P22" s="145"/>
+      <c r="Q22" s="146"/>
       <c r="R22" s="122"/>
       <c r="S22" s="122"/>
       <c r="T22" s="122"/>
@@ -6636,27 +6644,27 @@
       <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="138" t="s">
+      <c r="C23" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="141" t="s">
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="142"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="142"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="161" t="s">
+      <c r="I23" s="136"/>
+      <c r="J23" s="136"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="162"/>
-      <c r="O23" s="162"/>
-      <c r="P23" s="162"/>
-      <c r="Q23" s="163"/>
+      <c r="N23" s="139"/>
+      <c r="O23" s="139"/>
+      <c r="P23" s="139"/>
+      <c r="Q23" s="140"/>
       <c r="R23" s="122"/>
       <c r="S23" s="122"/>
       <c r="T23" s="122"/>
@@ -7031,27 +7039,27 @@
       <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="135" t="s">
+      <c r="C28" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="135" t="s">
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="136"/>
-      <c r="J28" s="136"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="135" t="s">
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="136"/>
-      <c r="O28" s="136"/>
-      <c r="P28" s="136"/>
-      <c r="Q28" s="137"/>
+      <c r="N28" s="148"/>
+      <c r="O28" s="148"/>
+      <c r="P28" s="148"/>
+      <c r="Q28" s="149"/>
       <c r="R28" s="122"/>
       <c r="S28" s="122"/>
       <c r="T28" s="122"/>
@@ -7083,27 +7091,27 @@
       <c r="B29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="156" t="s">
+      <c r="C29" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="157"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="156" t="s">
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="157"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="157"/>
-      <c r="L29" s="158"/>
-      <c r="M29" s="156" t="s">
+      <c r="I29" s="151"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="150" t="s">
         <v>115</v>
       </c>
-      <c r="N29" s="157"/>
-      <c r="O29" s="157"/>
-      <c r="P29" s="157"/>
-      <c r="Q29" s="158"/>
+      <c r="N29" s="151"/>
+      <c r="O29" s="151"/>
+      <c r="P29" s="151"/>
+      <c r="Q29" s="152"/>
       <c r="R29" s="122"/>
       <c r="S29" s="122"/>
       <c r="T29" s="122"/>
@@ -7223,20 +7231,20 @@
       <c r="B32" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="144" t="s">
+      <c r="C32" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="144" t="s">
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="145"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="145"/>
-      <c r="L32" s="146"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="157"/>
       <c r="M32" s="122"/>
       <c r="N32" s="122"/>
       <c r="O32" s="122"/>
@@ -7273,20 +7281,20 @@
       <c r="B33" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="138" t="s">
+      <c r="C33" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="139"/>
-      <c r="E33" s="139"/>
-      <c r="F33" s="139"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="141" t="s">
+      <c r="D33" s="142"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="142"/>
-      <c r="J33" s="142"/>
-      <c r="K33" s="142"/>
-      <c r="L33" s="143"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="136"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="137"/>
       <c r="M33" s="122"/>
       <c r="N33" s="122"/>
       <c r="O33" s="122"/>
@@ -7613,20 +7621,20 @@
       <c r="B38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="135" t="s">
+      <c r="C38" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="136"/>
-      <c r="E38" s="136"/>
-      <c r="F38" s="136"/>
-      <c r="G38" s="137"/>
-      <c r="H38" s="135" t="s">
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="136"/>
-      <c r="J38" s="136"/>
-      <c r="K38" s="136"/>
-      <c r="L38" s="137"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="149"/>
       <c r="M38" s="122"/>
       <c r="N38" s="122"/>
       <c r="O38" s="122"/>
@@ -7663,20 +7671,20 @@
       <c r="B39" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="156" t="s">
+      <c r="C39" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="157"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="156" t="s">
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="150" t="s">
         <v>32</v>
       </c>
-      <c r="I39" s="157"/>
-      <c r="J39" s="157"/>
-      <c r="K39" s="157"/>
-      <c r="L39" s="158"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="151"/>
+      <c r="K39" s="151"/>
+      <c r="L39" s="152"/>
       <c r="M39" s="26"/>
       <c r="N39" s="26"/>
       <c r="O39" s="26"/>
@@ -7711,6 +7719,47 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="R9:V9"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="M2:Q2"/>
@@ -7719,47 +7768,6 @@
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="R3:V3"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7794,11 +7802,11 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="186" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
       <c r="F2" s="36"/>
@@ -7808,9 +7816,9 @@
       <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="166"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
+      <c r="A3" s="188"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
       <c r="D3" s="38"/>
       <c r="E3" s="39" t="s">
         <v>44</v>
@@ -7852,11 +7860,11 @@
       <c r="J4" s="43"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="174" t="s">
+      <c r="A5" s="196" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="174"/>
-      <c r="C5" s="174"/>
+      <c r="B5" s="196"/>
+      <c r="C5" s="196"/>
       <c r="D5" s="38"/>
       <c r="E5" s="46" t="s">
         <v>50</v>
@@ -7876,9 +7884,9 @@
       <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="174"/>
-      <c r="B6" s="174"/>
-      <c r="C6" s="174"/>
+      <c r="A6" s="196"/>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
       <c r="D6" s="38"/>
       <c r="E6" s="46" t="s">
         <v>51</v>
@@ -7898,9 +7906,9 @@
       <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="174"/>
-      <c r="B7" s="174"/>
-      <c r="C7" s="174"/>
+      <c r="A7" s="196"/>
+      <c r="B7" s="196"/>
+      <c r="C7" s="196"/>
       <c r="D7" s="38"/>
       <c r="E7" s="46" t="s">
         <v>52</v>
@@ -8004,11 +8012,11 @@
       <c r="B12" s="63">
         <v>35</v>
       </c>
-      <c r="C12" s="172" t="s">
+      <c r="C12" s="194" t="s">
         <v>58</v>
       </c>
       <c r="D12" s="38"/>
-      <c r="E12" s="170" t="s">
+      <c r="E12" s="192" t="s">
         <v>56</v>
       </c>
       <c r="F12" s="64" t="s">
@@ -8032,9 +8040,9 @@
       <c r="B13" s="66">
         <v>5</v>
       </c>
-      <c r="C13" s="173"/>
+      <c r="C13" s="195"/>
       <c r="D13" s="38"/>
-      <c r="E13" s="171"/>
+      <c r="E13" s="193"/>
       <c r="F13" s="67" t="s">
         <v>59</v>
       </c>
@@ -8069,11 +8077,11 @@
       <c r="B15" s="72">
         <v>44</v>
       </c>
-      <c r="C15" s="172" t="s">
+      <c r="C15" s="194" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="38"/>
-      <c r="E15" s="168" t="s">
+      <c r="E15" s="178" t="s">
         <v>62</v>
       </c>
       <c r="F15" s="64" t="s">
@@ -8098,9 +8106,9 @@
       <c r="B16" s="74">
         <v>9</v>
       </c>
-      <c r="C16" s="173"/>
+      <c r="C16" s="195"/>
       <c r="D16" s="38"/>
-      <c r="E16" s="169"/>
+      <c r="E16" s="179"/>
       <c r="F16" s="67" t="s">
         <v>59</v>
       </c>
@@ -8134,11 +8142,11 @@
       <c r="B18" s="77">
         <v>68</v>
       </c>
-      <c r="C18" s="172" t="s">
+      <c r="C18" s="194" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="38"/>
-      <c r="E18" s="168" t="s">
+      <c r="E18" s="178" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="64" t="s">
@@ -8163,9 +8171,9 @@
       <c r="B19" s="74">
         <v>29</v>
       </c>
-      <c r="C19" s="173"/>
+      <c r="C19" s="195"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="169"/>
+      <c r="E19" s="179"/>
       <c r="F19" s="67" t="s">
         <v>59</v>
       </c>
@@ -8199,11 +8207,11 @@
       <c r="B21" s="72">
         <v>92</v>
       </c>
-      <c r="C21" s="172" t="s">
+      <c r="C21" s="194" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="38"/>
-      <c r="E21" s="168" t="s">
+      <c r="E21" s="178" t="s">
         <v>69</v>
       </c>
       <c r="F21" s="64" t="s">
@@ -8228,9 +8236,9 @@
       <c r="B22" s="74">
         <v>80</v>
       </c>
-      <c r="C22" s="173"/>
+      <c r="C22" s="195"/>
       <c r="D22" s="38"/>
-      <c r="E22" s="169"/>
+      <c r="E22" s="179"/>
       <c r="F22" s="67" t="s">
         <v>59</v>
       </c>
@@ -8286,11 +8294,11 @@
       <c r="J25" s="38"/>
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="164" t="s">
+      <c r="A26" s="186" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="165"/>
-      <c r="C26" s="165"/>
+      <c r="B26" s="187"/>
+      <c r="C26" s="187"/>
       <c r="D26" s="36"/>
       <c r="E26" s="36"/>
       <c r="F26" s="36"/>
@@ -8307,9 +8315,9 @@
       <c r="K26" s="87"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="166"/>
-      <c r="B27" s="167"/>
-      <c r="C27" s="167"/>
+      <c r="A27" s="188"/>
+      <c r="B27" s="189"/>
+      <c r="C27" s="189"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39" t="s">
         <v>44</v>
@@ -8361,11 +8369,11 @@
       <c r="K28" s="89"/>
     </row>
     <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="175" t="s">
+      <c r="A29" s="190" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="176"/>
-      <c r="C29" s="176"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="165"/>
       <c r="D29" s="38"/>
       <c r="E29" s="46" t="s">
         <v>50</v>
@@ -8391,9 +8399,9 @@
       <c r="K29" s="89"/>
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="177"/>
-      <c r="B30" s="176"/>
-      <c r="C30" s="176"/>
+      <c r="A30" s="191"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
       <c r="D30" s="38"/>
       <c r="E30" s="46" t="s">
         <v>51</v>
@@ -8408,16 +8416,16 @@
       <c r="I30" s="31"/>
       <c r="J30" s="99"/>
       <c r="K30" s="89"/>
-      <c r="M30" s="161" t="s">
+      <c r="M30" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="N30" s="162"/>
-      <c r="O30" s="163"/>
+      <c r="N30" s="139"/>
+      <c r="O30" s="140"/>
     </row>
     <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="177"/>
-      <c r="B31" s="176"/>
-      <c r="C31" s="176"/>
+      <c r="A31" s="191"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="165"/>
       <c r="D31" s="38"/>
       <c r="E31" s="46" t="s">
         <v>52</v>
@@ -8441,11 +8449,11 @@
         <v>18</v>
       </c>
       <c r="K31" s="89"/>
-      <c r="M31" s="184" t="s">
+      <c r="M31" s="164" t="s">
         <v>181</v>
       </c>
-      <c r="N31" s="185"/>
-      <c r="O31" s="186"/>
+      <c r="N31" s="171"/>
+      <c r="O31" s="172"/>
     </row>
     <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="90"/>
@@ -8465,9 +8473,9 @@
       <c r="I32" s="32"/>
       <c r="J32" s="102"/>
       <c r="K32" s="89"/>
-      <c r="M32" s="184"/>
-      <c r="N32" s="185"/>
-      <c r="O32" s="186"/>
+      <c r="M32" s="164"/>
+      <c r="N32" s="171"/>
+      <c r="O32" s="172"/>
     </row>
     <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
@@ -8487,9 +8495,9 @@
       <c r="I33" s="38"/>
       <c r="J33" s="38"/>
       <c r="K33" s="89"/>
-      <c r="M33" s="184"/>
-      <c r="N33" s="185"/>
-      <c r="O33" s="186"/>
+      <c r="M33" s="164"/>
+      <c r="N33" s="171"/>
+      <c r="O33" s="172"/>
     </row>
     <row r="34" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="91">
@@ -8498,11 +8506,11 @@
       <c r="B34" s="92">
         <v>140</v>
       </c>
-      <c r="C34" s="178" t="s">
+      <c r="C34" s="180" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="38"/>
-      <c r="E34" s="168" t="s">
+      <c r="E34" s="178" t="s">
         <v>74</v>
       </c>
       <c r="F34" s="93" t="s">
@@ -8521,9 +8529,9 @@
         <v>4</v>
       </c>
       <c r="K34" s="89"/>
-      <c r="M34" s="187"/>
-      <c r="N34" s="188"/>
-      <c r="O34" s="189"/>
+      <c r="M34" s="173"/>
+      <c r="N34" s="174"/>
+      <c r="O34" s="175"/>
     </row>
     <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="94">
@@ -8532,9 +8540,9 @@
       <c r="B35" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="179"/>
+      <c r="C35" s="181"/>
       <c r="D35" s="38"/>
-      <c r="E35" s="169"/>
+      <c r="E35" s="179"/>
       <c r="F35" s="67" t="s">
         <v>59</v>
       </c>
@@ -8564,11 +8572,11 @@
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
       <c r="K36" s="89"/>
-      <c r="M36" s="161" t="s">
+      <c r="M36" s="138" t="s">
         <v>131</v>
       </c>
-      <c r="N36" s="162"/>
-      <c r="O36" s="163"/>
+      <c r="N36" s="139"/>
+      <c r="O36" s="140"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="91">
@@ -8577,11 +8585,11 @@
       <c r="B37" s="92">
         <v>166</v>
       </c>
-      <c r="C37" s="180" t="s">
+      <c r="C37" s="176" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="38"/>
-      <c r="E37" s="168" t="s">
+      <c r="E37" s="178" t="s">
         <v>80</v>
       </c>
       <c r="F37" s="93" t="s">
@@ -8600,11 +8608,11 @@
         <v>4</v>
       </c>
       <c r="K37" s="89"/>
-      <c r="M37" s="184" t="s">
+      <c r="M37" s="164" t="s">
         <v>182</v>
       </c>
-      <c r="N37" s="176"/>
-      <c r="O37" s="192"/>
+      <c r="N37" s="165"/>
+      <c r="O37" s="166"/>
     </row>
     <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="s">
@@ -8613,9 +8621,9 @@
       <c r="B38" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="181"/>
+      <c r="C38" s="177"/>
       <c r="D38" s="38"/>
-      <c r="E38" s="169"/>
+      <c r="E38" s="179"/>
       <c r="F38" s="67" t="s">
         <v>59</v>
       </c>
@@ -8632,9 +8640,9 @@
         <v>79</v>
       </c>
       <c r="K38" s="89"/>
-      <c r="M38" s="193"/>
-      <c r="N38" s="176"/>
-      <c r="O38" s="192"/>
+      <c r="M38" s="167"/>
+      <c r="N38" s="165"/>
+      <c r="O38" s="166"/>
     </row>
     <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
@@ -8650,9 +8658,9 @@
       <c r="I39" s="38"/>
       <c r="J39" s="38"/>
       <c r="K39" s="89"/>
-      <c r="M39" s="193"/>
-      <c r="N39" s="176"/>
-      <c r="O39" s="192"/>
+      <c r="M39" s="167"/>
+      <c r="N39" s="165"/>
+      <c r="O39" s="166"/>
     </row>
     <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="91">
@@ -8661,11 +8669,11 @@
       <c r="B40" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="178" t="s">
+      <c r="C40" s="180" t="s">
         <v>146</v>
       </c>
       <c r="D40" s="38"/>
-      <c r="E40" s="168" t="s">
+      <c r="E40" s="178" t="s">
         <v>81</v>
       </c>
       <c r="F40" s="93" t="s">
@@ -8677,14 +8685,14 @@
       <c r="H40" s="93">
         <v>2</v>
       </c>
-      <c r="I40" s="190">
+      <c r="I40" s="182">
         <v>3</v>
       </c>
-      <c r="J40" s="191"/>
+      <c r="J40" s="183"/>
       <c r="K40" s="89"/>
-      <c r="M40" s="194"/>
-      <c r="N40" s="195"/>
-      <c r="O40" s="196"/>
+      <c r="M40" s="168"/>
+      <c r="N40" s="169"/>
+      <c r="O40" s="170"/>
     </row>
     <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="94" t="s">
@@ -8693,9 +8701,9 @@
       <c r="B41" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="179"/>
+      <c r="C41" s="181"/>
       <c r="D41" s="38"/>
-      <c r="E41" s="169"/>
+      <c r="E41" s="179"/>
       <c r="F41" s="67" t="s">
         <v>59</v>
       </c>
@@ -8705,10 +8713,10 @@
       <c r="H41" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="I41" s="182" t="s">
+      <c r="I41" s="184" t="s">
         <v>141</v>
       </c>
-      <c r="J41" s="183"/>
+      <c r="J41" s="185"/>
       <c r="K41" s="89"/>
     </row>
     <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -8730,11 +8738,11 @@
     </row>
     <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="164" t="s">
+      <c r="A45" s="186" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="165"/>
-      <c r="C45" s="165"/>
+      <c r="B45" s="187"/>
+      <c r="C45" s="187"/>
       <c r="D45" s="36"/>
       <c r="E45" s="36"/>
       <c r="F45" s="36"/>
@@ -8752,9 +8760,9 @@
       <c r="K45" s="87"/>
     </row>
     <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="166"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
+      <c r="A46" s="188"/>
+      <c r="B46" s="189"/>
+      <c r="C46" s="189"/>
       <c r="D46" s="107"/>
       <c r="E46" s="39" t="s">
         <v>44</v>
@@ -8775,11 +8783,11 @@
         <v>72</v>
       </c>
       <c r="K46" s="89"/>
-      <c r="M46" s="161" t="s">
+      <c r="M46" s="138" t="s">
         <v>132</v>
       </c>
-      <c r="N46" s="162"/>
-      <c r="O46" s="163"/>
+      <c r="N46" s="139"/>
+      <c r="O46" s="140"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="108"/>
@@ -8808,18 +8816,18 @@
         <v>462.5</v>
       </c>
       <c r="K47" s="89"/>
-      <c r="M47" s="184" t="s">
+      <c r="M47" s="164" t="s">
         <v>183</v>
       </c>
-      <c r="N47" s="176"/>
-      <c r="O47" s="192"/>
+      <c r="N47" s="165"/>
+      <c r="O47" s="166"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="175" t="s">
+      <c r="A48" s="190" t="s">
         <v>161</v>
       </c>
-      <c r="B48" s="176"/>
-      <c r="C48" s="176"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="165"/>
       <c r="D48" s="107"/>
       <c r="E48" s="46" t="s">
         <v>50</v>
@@ -8843,14 +8851,14 @@
         <v>21.25</v>
       </c>
       <c r="K48" s="89"/>
-      <c r="M48" s="193"/>
-      <c r="N48" s="176"/>
-      <c r="O48" s="192"/>
+      <c r="M48" s="167"/>
+      <c r="N48" s="165"/>
+      <c r="O48" s="166"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="177"/>
-      <c r="B49" s="176"/>
-      <c r="C49" s="176"/>
+      <c r="A49" s="191"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="165"/>
       <c r="D49" s="107"/>
       <c r="E49" s="46" t="s">
         <v>51</v>
@@ -8865,14 +8873,14 @@
       <c r="I49" s="110"/>
       <c r="J49" s="109"/>
       <c r="K49" s="89"/>
-      <c r="M49" s="193"/>
-      <c r="N49" s="176"/>
-      <c r="O49" s="192"/>
+      <c r="M49" s="167"/>
+      <c r="N49" s="165"/>
+      <c r="O49" s="166"/>
     </row>
     <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="177"/>
-      <c r="B50" s="176"/>
-      <c r="C50" s="176"/>
+      <c r="A50" s="191"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="165"/>
       <c r="D50" s="107"/>
       <c r="E50" s="46" t="s">
         <v>52</v>
@@ -8896,9 +8904,9 @@
         <v>42.5</v>
       </c>
       <c r="K50" s="89"/>
-      <c r="M50" s="194"/>
-      <c r="N50" s="195"/>
-      <c r="O50" s="196"/>
+      <c r="M50" s="168"/>
+      <c r="N50" s="169"/>
+      <c r="O50" s="170"/>
     </row>
     <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="90"/>
@@ -8945,11 +8953,11 @@
       <c r="B53" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="178" t="s">
+      <c r="C53" s="180" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="107"/>
-      <c r="E53" s="168" t="s">
+      <c r="E53" s="178" t="s">
         <v>74</v>
       </c>
       <c r="F53" s="93" t="s">
@@ -8968,11 +8976,11 @@
         <v>4</v>
       </c>
       <c r="K53" s="89"/>
-      <c r="M53" s="161" t="s">
+      <c r="M53" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="N53" s="162"/>
-      <c r="O53" s="163"/>
+      <c r="N53" s="139"/>
+      <c r="O53" s="140"/>
     </row>
     <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="94" t="s">
@@ -8981,9 +8989,9 @@
       <c r="B54" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="179"/>
+      <c r="C54" s="181"/>
       <c r="D54" s="107"/>
-      <c r="E54" s="169"/>
+      <c r="E54" s="179"/>
       <c r="F54" s="67" t="s">
         <v>59</v>
       </c>
@@ -9000,11 +9008,11 @@
         <v>135</v>
       </c>
       <c r="K54" s="89"/>
-      <c r="M54" s="184" t="s">
+      <c r="M54" s="164" t="s">
         <v>184</v>
       </c>
-      <c r="N54" s="176"/>
-      <c r="O54" s="192"/>
+      <c r="N54" s="165"/>
+      <c r="O54" s="166"/>
     </row>
     <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="108" t="s">
@@ -9020,9 +9028,9 @@
       <c r="I55" s="107"/>
       <c r="J55" s="107"/>
       <c r="K55" s="89"/>
-      <c r="M55" s="193"/>
-      <c r="N55" s="176"/>
-      <c r="O55" s="192"/>
+      <c r="M55" s="167"/>
+      <c r="N55" s="165"/>
+      <c r="O55" s="166"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="91">
@@ -9031,11 +9039,11 @@
       <c r="B56" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="180" t="s">
+      <c r="C56" s="176" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="107"/>
-      <c r="E56" s="168" t="s">
+      <c r="E56" s="178" t="s">
         <v>80</v>
       </c>
       <c r="F56" s="93" t="s">
@@ -9054,9 +9062,9 @@
         <v>4</v>
       </c>
       <c r="K56" s="89"/>
-      <c r="M56" s="193"/>
-      <c r="N56" s="176"/>
-      <c r="O56" s="192"/>
+      <c r="M56" s="167"/>
+      <c r="N56" s="165"/>
+      <c r="O56" s="166"/>
     </row>
     <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="94" t="s">
@@ -9065,9 +9073,9 @@
       <c r="B57" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="C57" s="181"/>
+      <c r="C57" s="177"/>
       <c r="D57" s="107"/>
-      <c r="E57" s="169"/>
+      <c r="E57" s="179"/>
       <c r="F57" s="67" t="s">
         <v>59</v>
       </c>
@@ -9084,9 +9092,9 @@
         <v>138</v>
       </c>
       <c r="K57" s="89"/>
-      <c r="M57" s="194"/>
-      <c r="N57" s="195"/>
-      <c r="O57" s="196"/>
+      <c r="M57" s="168"/>
+      <c r="N57" s="169"/>
+      <c r="O57" s="170"/>
     </row>
     <row r="58" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="108" t="s">
@@ -9110,11 +9118,11 @@
       <c r="B59" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="C59" s="178" t="s">
+      <c r="C59" s="180" t="s">
         <v>18</v>
       </c>
       <c r="D59" s="107"/>
-      <c r="E59" s="168" t="s">
+      <c r="E59" s="178" t="s">
         <v>81</v>
       </c>
       <c r="F59" s="93" t="s">
@@ -9126,10 +9134,10 @@
       <c r="H59" s="93">
         <v>2</v>
       </c>
-      <c r="I59" s="190">
+      <c r="I59" s="182">
         <v>3</v>
       </c>
-      <c r="J59" s="191"/>
+      <c r="J59" s="183"/>
       <c r="K59" s="89"/>
     </row>
     <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9139,9 +9147,9 @@
       <c r="B60" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="C60" s="179"/>
+      <c r="C60" s="181"/>
       <c r="D60" s="107"/>
-      <c r="E60" s="169"/>
+      <c r="E60" s="179"/>
       <c r="F60" s="67" t="s">
         <v>59</v>
       </c>
@@ -9151,10 +9159,10 @@
       <c r="H60" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="I60" s="182" t="s">
+      <c r="I60" s="184" t="s">
         <v>142</v>
       </c>
-      <c r="J60" s="183"/>
+      <c r="J60" s="185"/>
       <c r="K60" s="89"/>
     </row>
     <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9178,11 +9186,11 @@
     </row>
     <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="164" t="s">
+      <c r="A64" s="186" t="s">
         <v>160</v>
       </c>
-      <c r="B64" s="165"/>
-      <c r="C64" s="165"/>
+      <c r="B64" s="187"/>
+      <c r="C64" s="187"/>
       <c r="D64" s="36"/>
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
@@ -9201,9 +9209,9 @@
       <c r="K64" s="87"/>
     </row>
     <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="166"/>
-      <c r="B65" s="167"/>
-      <c r="C65" s="167"/>
+      <c r="A65" s="188"/>
+      <c r="B65" s="189"/>
+      <c r="C65" s="189"/>
       <c r="D65" s="107"/>
       <c r="E65" s="39" t="s">
         <v>44</v>
@@ -9252,18 +9260,18 @@
         <v>555</v>
       </c>
       <c r="K66" s="89"/>
-      <c r="M66" s="161" t="s">
+      <c r="M66" s="138" t="s">
         <v>162</v>
       </c>
-      <c r="N66" s="162"/>
-      <c r="O66" s="163"/>
+      <c r="N66" s="139"/>
+      <c r="O66" s="140"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="175" t="s">
+      <c r="A67" s="190" t="s">
         <v>180</v>
       </c>
-      <c r="B67" s="176"/>
-      <c r="C67" s="176"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="165"/>
       <c r="D67" s="107"/>
       <c r="E67" s="46" t="s">
         <v>50</v>
@@ -9287,16 +9295,16 @@
         <v>25.5</v>
       </c>
       <c r="K67" s="89"/>
-      <c r="M67" s="184" t="s">
+      <c r="M67" s="164" t="s">
         <v>185</v>
       </c>
-      <c r="N67" s="176"/>
-      <c r="O67" s="192"/>
+      <c r="N67" s="165"/>
+      <c r="O67" s="166"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="177"/>
-      <c r="B68" s="176"/>
-      <c r="C68" s="176"/>
+      <c r="A68" s="191"/>
+      <c r="B68" s="165"/>
+      <c r="C68" s="165"/>
       <c r="D68" s="107"/>
       <c r="E68" s="46" t="s">
         <v>51</v>
@@ -9311,14 +9319,14 @@
       <c r="I68" s="110"/>
       <c r="J68" s="109"/>
       <c r="K68" s="89"/>
-      <c r="M68" s="193"/>
-      <c r="N68" s="176"/>
-      <c r="O68" s="192"/>
+      <c r="M68" s="167"/>
+      <c r="N68" s="165"/>
+      <c r="O68" s="166"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="177"/>
-      <c r="B69" s="176"/>
-      <c r="C69" s="176"/>
+      <c r="A69" s="191"/>
+      <c r="B69" s="165"/>
+      <c r="C69" s="165"/>
       <c r="D69" s="107"/>
       <c r="E69" s="46" t="s">
         <v>52</v>
@@ -9342,9 +9350,9 @@
         <v>51</v>
       </c>
       <c r="K69" s="89"/>
-      <c r="M69" s="193"/>
-      <c r="N69" s="176"/>
-      <c r="O69" s="192"/>
+      <c r="M69" s="167"/>
+      <c r="N69" s="165"/>
+      <c r="O69" s="166"/>
     </row>
     <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="90"/>
@@ -9366,9 +9374,9 @@
       </c>
       <c r="J70" s="101"/>
       <c r="K70" s="89"/>
-      <c r="M70" s="194"/>
-      <c r="N70" s="195"/>
-      <c r="O70" s="196"/>
+      <c r="M70" s="168"/>
+      <c r="N70" s="169"/>
+      <c r="O70" s="170"/>
     </row>
     <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="52" t="s">
@@ -9396,11 +9404,11 @@
       <c r="B72" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="C72" s="178" t="s">
+      <c r="C72" s="180" t="s">
         <v>306</v>
       </c>
       <c r="D72" s="107"/>
-      <c r="E72" s="168" t="s">
+      <c r="E72" s="178" t="s">
         <v>74</v>
       </c>
       <c r="F72" s="93" t="s">
@@ -9419,11 +9427,11 @@
         <v>4</v>
       </c>
       <c r="K72" s="89"/>
-      <c r="M72" s="161" t="s">
+      <c r="M72" s="138" t="s">
         <v>159</v>
       </c>
-      <c r="N72" s="162"/>
-      <c r="O72" s="163"/>
+      <c r="N72" s="139"/>
+      <c r="O72" s="140"/>
     </row>
     <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="94" t="s">
@@ -9432,9 +9440,9 @@
       <c r="B73" s="95" t="s">
         <v>173</v>
       </c>
-      <c r="C73" s="179"/>
+      <c r="C73" s="181"/>
       <c r="D73" s="107"/>
-      <c r="E73" s="169"/>
+      <c r="E73" s="179"/>
       <c r="F73" s="67" t="s">
         <v>59</v>
       </c>
@@ -9451,11 +9459,11 @@
         <v>166</v>
       </c>
       <c r="K73" s="89"/>
-      <c r="M73" s="184" t="s">
+      <c r="M73" s="164" t="s">
         <v>187</v>
       </c>
-      <c r="N73" s="176"/>
-      <c r="O73" s="192"/>
+      <c r="N73" s="165"/>
+      <c r="O73" s="166"/>
     </row>
     <row r="74" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="108" t="s">
@@ -9471,9 +9479,9 @@
       <c r="I74" s="107"/>
       <c r="J74" s="107"/>
       <c r="K74" s="89"/>
-      <c r="M74" s="193"/>
-      <c r="N74" s="176"/>
-      <c r="O74" s="192"/>
+      <c r="M74" s="167"/>
+      <c r="N74" s="165"/>
+      <c r="O74" s="166"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="91">
@@ -9482,11 +9490,11 @@
       <c r="B75" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="C75" s="180" t="s">
+      <c r="C75" s="176" t="s">
         <v>43</v>
       </c>
       <c r="D75" s="107"/>
-      <c r="E75" s="168" t="s">
+      <c r="E75" s="178" t="s">
         <v>80</v>
       </c>
       <c r="F75" s="93" t="s">
@@ -9505,9 +9513,9 @@
         <v>4</v>
       </c>
       <c r="K75" s="89"/>
-      <c r="M75" s="193"/>
-      <c r="N75" s="176"/>
-      <c r="O75" s="192"/>
+      <c r="M75" s="167"/>
+      <c r="N75" s="165"/>
+      <c r="O75" s="166"/>
     </row>
     <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="94" t="s">
@@ -9516,9 +9524,9 @@
       <c r="B76" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="C76" s="181"/>
+      <c r="C76" s="177"/>
       <c r="D76" s="107"/>
-      <c r="E76" s="169"/>
+      <c r="E76" s="179"/>
       <c r="F76" s="67" t="s">
         <v>59</v>
       </c>
@@ -9535,9 +9543,9 @@
         <v>170</v>
       </c>
       <c r="K76" s="89"/>
-      <c r="M76" s="194"/>
-      <c r="N76" s="195"/>
-      <c r="O76" s="196"/>
+      <c r="M76" s="168"/>
+      <c r="N76" s="169"/>
+      <c r="O76" s="170"/>
     </row>
     <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="108" t="s">
@@ -9561,11 +9569,11 @@
       <c r="B78" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="C78" s="178" t="s">
+      <c r="C78" s="180" t="s">
         <v>193</v>
       </c>
       <c r="D78" s="107"/>
-      <c r="E78" s="168" t="s">
+      <c r="E78" s="178" t="s">
         <v>81</v>
       </c>
       <c r="F78" s="93" t="s">
@@ -9577,10 +9585,10 @@
       <c r="H78" s="93">
         <v>2</v>
       </c>
-      <c r="I78" s="190">
+      <c r="I78" s="182">
         <v>3</v>
       </c>
-      <c r="J78" s="191"/>
+      <c r="J78" s="183"/>
       <c r="K78" s="89"/>
     </row>
     <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9590,9 +9598,9 @@
       <c r="B79" s="96" t="s">
         <v>179</v>
       </c>
-      <c r="C79" s="179"/>
+      <c r="C79" s="181"/>
       <c r="D79" s="107"/>
-      <c r="E79" s="169"/>
+      <c r="E79" s="179"/>
       <c r="F79" s="67" t="s">
         <v>59</v>
       </c>
@@ -9602,10 +9610,10 @@
       <c r="H79" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="I79" s="182" t="s">
+      <c r="I79" s="184" t="s">
         <v>186</v>
       </c>
-      <c r="J79" s="183"/>
+      <c r="J79" s="185"/>
       <c r="K79" s="89"/>
     </row>
     <row r="80" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9625,16 +9633,32 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M54:O57"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="M67:O70"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="M73:O76"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M37:O40"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="M47:O50"/>
-    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="A26:C27"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A5:C7"/>
+    <mergeCell ref="A29:C31"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="A45:C46"/>
+    <mergeCell ref="A48:C50"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="E56:E57"/>
     <mergeCell ref="M30:O30"/>
     <mergeCell ref="M31:O34"/>
     <mergeCell ref="C75:C76"/>
@@ -9651,32 +9675,16 @@
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="E59:E60"/>
     <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="A45:C46"/>
-    <mergeCell ref="A48:C50"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="A29:C31"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="A26:C27"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A5:C7"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M37:O40"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="M47:O50"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="M54:O57"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="M67:O70"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="M73:O76"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9722,50 +9730,50 @@
     </row>
     <row r="2" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="198"/>
-      <c r="B2" s="210" t="s">
+      <c r="B2" s="216" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="I2" s="210" t="s">
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="I2" s="216" t="s">
         <v>259</v>
       </c>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
     </row>
     <row r="3" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="198"/>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
+      <c r="B3" s="217"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
+      <c r="I3" s="217"/>
+      <c r="J3" s="217"/>
+      <c r="K3" s="217"/>
+      <c r="L3" s="217"/>
+      <c r="M3" s="217"/>
     </row>
     <row r="4" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="198"/>
       <c r="B4" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="216" t="s">
+      <c r="C4" s="247" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="216" t="s">
+      <c r="D4" s="247"/>
+      <c r="E4" s="247"/>
+      <c r="F4" s="247" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="217"/>
+      <c r="G4" s="248"/>
       <c r="I4" s="129" t="s">
         <v>221</v>
       </c>
@@ -9784,24 +9792,24 @@
     </row>
     <row r="5" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="198"/>
-      <c r="B5" s="218" t="s">
+      <c r="B5" s="249" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="28">
         <v>1</v>
       </c>
-      <c r="D5" s="265" t="s">
+      <c r="D5" s="205" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="266"/>
-      <c r="F5" s="227" t="s">
+      <c r="E5" s="206"/>
+      <c r="F5" s="260" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="228"/>
-      <c r="I5" s="263">
+      <c r="G5" s="261"/>
+      <c r="I5" s="199">
         <v>12</v>
       </c>
-      <c r="J5" s="255" t="s">
+      <c r="J5" s="213" t="s">
         <v>107</v>
       </c>
       <c r="K5" s="130">
@@ -9816,18 +9824,18 @@
     </row>
     <row r="6" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="198"/>
-      <c r="B6" s="219"/>
+      <c r="B6" s="250"/>
       <c r="C6" s="30">
         <v>2</v>
       </c>
-      <c r="D6" s="265" t="s">
+      <c r="D6" s="205" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="266"/>
-      <c r="F6" s="229"/>
-      <c r="G6" s="224"/>
-      <c r="I6" s="257"/>
-      <c r="J6" s="259"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="262"/>
+      <c r="G6" s="255"/>
+      <c r="I6" s="201"/>
+      <c r="J6" s="215"/>
       <c r="K6" s="131">
         <v>2</v>
       </c>
@@ -9843,18 +9851,18 @@
     </row>
     <row r="7" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="198"/>
-      <c r="B7" s="220"/>
+      <c r="B7" s="251"/>
       <c r="C7" s="105">
         <v>3</v>
       </c>
-      <c r="D7" s="221" t="s">
+      <c r="D7" s="252" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="222"/>
-      <c r="F7" s="230"/>
-      <c r="G7" s="231"/>
-      <c r="I7" s="258"/>
-      <c r="J7" s="256"/>
+      <c r="E7" s="253"/>
+      <c r="F7" s="263"/>
+      <c r="G7" s="264"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="214"/>
       <c r="K7" s="132">
         <v>3</v>
       </c>
@@ -9871,17 +9879,17 @@
       <c r="B8" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="199" t="s">
+      <c r="C8" s="256" t="s">
         <v>194</v>
       </c>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
-      <c r="G8" s="200"/>
-      <c r="I8" s="263">
+      <c r="D8" s="256"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
+      <c r="G8" s="257"/>
+      <c r="I8" s="199">
         <v>18</v>
       </c>
-      <c r="J8" s="255" t="s">
+      <c r="J8" s="213" t="s">
         <v>223</v>
       </c>
       <c r="K8" s="130">
@@ -9899,15 +9907,15 @@
       <c r="B9" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="221" t="s">
+      <c r="C9" s="252" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="223"/>
-      <c r="G9" s="224"/>
-      <c r="I9" s="257"/>
-      <c r="J9" s="259"/>
+      <c r="D9" s="252"/>
+      <c r="E9" s="252"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="255"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="215"/>
       <c r="K9" s="131">
         <v>2</v>
       </c>
@@ -9926,15 +9934,15 @@
       <c r="B10" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="199" t="s">
+      <c r="C10" s="256" t="s">
         <v>196</v>
       </c>
-      <c r="D10" s="199"/>
-      <c r="E10" s="199"/>
-      <c r="F10" s="199"/>
-      <c r="G10" s="200"/>
-      <c r="I10" s="258"/>
-      <c r="J10" s="256"/>
+      <c r="D10" s="256"/>
+      <c r="E10" s="256"/>
+      <c r="F10" s="256"/>
+      <c r="G10" s="257"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="214"/>
       <c r="K10" s="132">
         <v>3</v>
       </c>
@@ -9951,17 +9959,17 @@
       <c r="B11" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="225" t="s">
+      <c r="C11" s="258" t="s">
         <v>197</v>
       </c>
-      <c r="D11" s="225"/>
-      <c r="E11" s="225"/>
-      <c r="F11" s="225"/>
-      <c r="G11" s="226"/>
-      <c r="I11" s="263">
+      <c r="D11" s="258"/>
+      <c r="E11" s="258"/>
+      <c r="F11" s="258"/>
+      <c r="G11" s="259"/>
+      <c r="I11" s="199">
         <v>4</v>
       </c>
-      <c r="J11" s="255" t="s">
+      <c r="J11" s="213" t="s">
         <v>226</v>
       </c>
       <c r="K11" s="130">
@@ -9982,8 +9990,8 @@
       <c r="E12" s="198"/>
       <c r="F12" s="198"/>
       <c r="G12" s="198"/>
-      <c r="I12" s="257"/>
-      <c r="J12" s="259"/>
+      <c r="I12" s="201"/>
+      <c r="J12" s="215"/>
       <c r="K12" s="131">
         <v>1</v>
       </c>
@@ -10005,8 +10013,8 @@
       <c r="E13" s="198"/>
       <c r="F13" s="198"/>
       <c r="G13" s="198"/>
-      <c r="I13" s="257"/>
-      <c r="J13" s="259"/>
+      <c r="I13" s="201"/>
+      <c r="J13" s="215"/>
       <c r="K13" s="131">
         <v>2</v>
       </c>
@@ -10021,17 +10029,17 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="210" t="s">
+      <c r="A14" s="216" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="212"/>
-      <c r="C14" s="212"/>
-      <c r="D14" s="212"/>
-      <c r="E14" s="212"/>
-      <c r="F14" s="212"/>
-      <c r="G14" s="212"/>
-      <c r="I14" s="258"/>
-      <c r="J14" s="256"/>
+      <c r="B14" s="243"/>
+      <c r="C14" s="243"/>
+      <c r="D14" s="243"/>
+      <c r="E14" s="243"/>
+      <c r="F14" s="243"/>
+      <c r="G14" s="243"/>
+      <c r="I14" s="200"/>
+      <c r="J14" s="214"/>
       <c r="K14" s="132">
         <v>3</v>
       </c>
@@ -10044,17 +10052,17 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="212"/>
-      <c r="B15" s="212"/>
-      <c r="C15" s="212"/>
-      <c r="D15" s="212"/>
-      <c r="E15" s="212"/>
-      <c r="F15" s="212"/>
-      <c r="G15" s="212"/>
-      <c r="I15" s="263">
+      <c r="A15" s="243"/>
+      <c r="B15" s="243"/>
+      <c r="C15" s="243"/>
+      <c r="D15" s="243"/>
+      <c r="E15" s="243"/>
+      <c r="F15" s="243"/>
+      <c r="G15" s="243"/>
+      <c r="I15" s="199">
         <v>3</v>
       </c>
-      <c r="J15" s="255" t="s">
+      <c r="J15" s="213" t="s">
         <v>158</v>
       </c>
       <c r="K15" s="130">
@@ -10072,17 +10080,17 @@
       <c r="B16" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="213" t="s">
+      <c r="C16" s="244" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="213"/>
-      <c r="E16" s="213" t="s">
+      <c r="D16" s="244"/>
+      <c r="E16" s="244" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="214"/>
-      <c r="G16" s="215"/>
-      <c r="I16" s="257"/>
-      <c r="J16" s="259"/>
+      <c r="F16" s="245"/>
+      <c r="G16" s="246"/>
+      <c r="I16" s="201"/>
+      <c r="J16" s="215"/>
       <c r="K16" s="131">
         <v>1</v>
       </c>
@@ -10097,21 +10105,21 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="232" t="s">
+      <c r="A17" s="223" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="235" t="s">
+      <c r="B17" s="202" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="241" t="s">
+      <c r="C17" s="229" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="242"/>
-      <c r="E17" s="204"/>
-      <c r="F17" s="205"/>
-      <c r="G17" s="206"/>
-      <c r="I17" s="257"/>
-      <c r="J17" s="259"/>
+      <c r="D17" s="230"/>
+      <c r="E17" s="209"/>
+      <c r="F17" s="210"/>
+      <c r="G17" s="211"/>
+      <c r="I17" s="201"/>
+      <c r="J17" s="215"/>
       <c r="K17" s="131">
         <v>2</v>
       </c>
@@ -10126,15 +10134,15 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="232"/>
-      <c r="B18" s="236"/>
-      <c r="C18" s="243"/>
-      <c r="D18" s="244"/>
-      <c r="E18" s="201"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="203"/>
-      <c r="I18" s="258"/>
-      <c r="J18" s="256"/>
+      <c r="A18" s="223"/>
+      <c r="B18" s="225"/>
+      <c r="C18" s="231"/>
+      <c r="D18" s="232"/>
+      <c r="E18" s="265"/>
+      <c r="F18" s="266"/>
+      <c r="G18" s="267"/>
+      <c r="I18" s="200"/>
+      <c r="J18" s="214"/>
       <c r="K18" s="132">
         <v>3</v>
       </c>
@@ -10147,19 +10155,19 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="234" t="s">
+      <c r="A19" s="207" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="237"/>
-      <c r="C19" s="245"/>
-      <c r="D19" s="246"/>
-      <c r="E19" s="204"/>
-      <c r="F19" s="205"/>
-      <c r="G19" s="206"/>
-      <c r="I19" s="260" t="s">
+      <c r="B19" s="203"/>
+      <c r="C19" s="233"/>
+      <c r="D19" s="234"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="211"/>
+      <c r="I19" s="218" t="s">
         <v>224</v>
       </c>
-      <c r="J19" s="255" t="s">
+      <c r="J19" s="213" t="s">
         <v>222</v>
       </c>
       <c r="K19" s="130">
@@ -10171,19 +10179,19 @@
       <c r="M19" s="128"/>
     </row>
     <row r="20" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="234"/>
-      <c r="B20" s="238" t="s">
+      <c r="A20" s="207"/>
+      <c r="B20" s="226" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="247" t="s">
+      <c r="C20" s="235" t="s">
         <v>299</v>
       </c>
-      <c r="D20" s="248"/>
-      <c r="E20" s="201"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="203"/>
-      <c r="I20" s="261"/>
-      <c r="J20" s="259"/>
+      <c r="D20" s="236"/>
+      <c r="E20" s="265"/>
+      <c r="F20" s="266"/>
+      <c r="G20" s="267"/>
+      <c r="I20" s="219"/>
+      <c r="J20" s="215"/>
       <c r="K20" s="131">
         <v>1</v>
       </c>
@@ -10198,17 +10206,17 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="232" t="s">
+      <c r="A21" s="223" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="239"/>
-      <c r="C21" s="249"/>
-      <c r="D21" s="250"/>
-      <c r="E21" s="204"/>
-      <c r="F21" s="205"/>
-      <c r="G21" s="206"/>
-      <c r="I21" s="261"/>
-      <c r="J21" s="259"/>
+      <c r="B21" s="227"/>
+      <c r="C21" s="237"/>
+      <c r="D21" s="238"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="211"/>
+      <c r="I21" s="219"/>
+      <c r="J21" s="215"/>
       <c r="K21" s="131">
         <v>2</v>
       </c>
@@ -10223,15 +10231,15 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="232"/>
-      <c r="B22" s="240"/>
-      <c r="C22" s="251"/>
-      <c r="D22" s="252"/>
-      <c r="E22" s="201"/>
-      <c r="F22" s="202"/>
-      <c r="G22" s="203"/>
-      <c r="I22" s="262"/>
-      <c r="J22" s="256"/>
+      <c r="A22" s="223"/>
+      <c r="B22" s="228"/>
+      <c r="C22" s="239"/>
+      <c r="D22" s="240"/>
+      <c r="E22" s="265"/>
+      <c r="F22" s="266"/>
+      <c r="G22" s="267"/>
+      <c r="I22" s="220"/>
+      <c r="J22" s="214"/>
       <c r="K22" s="132">
         <v>3</v>
       </c>
@@ -10244,23 +10252,23 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="234" t="s">
+      <c r="A23" s="207" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="235">
+      <c r="B23" s="202">
         <v>1</v>
       </c>
-      <c r="C23" s="241" t="s">
+      <c r="C23" s="229" t="s">
         <v>189</v>
       </c>
-      <c r="D23" s="242"/>
-      <c r="E23" s="204"/>
-      <c r="F23" s="205"/>
-      <c r="G23" s="206"/>
-      <c r="I23" s="263" t="s">
+      <c r="D23" s="230"/>
+      <c r="E23" s="209"/>
+      <c r="F23" s="210"/>
+      <c r="G23" s="211"/>
+      <c r="I23" s="199" t="s">
         <v>228</v>
       </c>
-      <c r="J23" s="255" t="s">
+      <c r="J23" s="213" t="s">
         <v>225</v>
       </c>
       <c r="K23" s="130">
@@ -10274,15 +10282,15 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="234"/>
-      <c r="B24" s="237"/>
-      <c r="C24" s="245"/>
-      <c r="D24" s="246"/>
-      <c r="E24" s="201"/>
-      <c r="F24" s="202"/>
-      <c r="G24" s="203"/>
-      <c r="I24" s="257"/>
-      <c r="J24" s="259"/>
+      <c r="A24" s="207"/>
+      <c r="B24" s="203"/>
+      <c r="C24" s="233"/>
+      <c r="D24" s="234"/>
+      <c r="E24" s="265"/>
+      <c r="F24" s="266"/>
+      <c r="G24" s="267"/>
+      <c r="I24" s="201"/>
+      <c r="J24" s="215"/>
       <c r="K24" s="131">
         <v>1</v>
       </c>
@@ -10294,19 +10302,19 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="234"/>
-      <c r="B25" s="235">
+      <c r="A25" s="207"/>
+      <c r="B25" s="202">
         <v>2</v>
       </c>
-      <c r="C25" s="247" t="s">
+      <c r="C25" s="235" t="s">
         <v>191</v>
       </c>
-      <c r="D25" s="248"/>
-      <c r="E25" s="204"/>
-      <c r="F25" s="205"/>
-      <c r="G25" s="206"/>
-      <c r="I25" s="257"/>
-      <c r="J25" s="259"/>
+      <c r="D25" s="236"/>
+      <c r="E25" s="209"/>
+      <c r="F25" s="210"/>
+      <c r="G25" s="211"/>
+      <c r="I25" s="201"/>
+      <c r="J25" s="215"/>
       <c r="K25" s="131">
         <v>2</v>
       </c>
@@ -10318,17 +10326,17 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="232" t="s">
+      <c r="A26" s="223" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="237"/>
-      <c r="C26" s="251"/>
-      <c r="D26" s="252"/>
-      <c r="E26" s="201"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="203"/>
-      <c r="I26" s="258"/>
-      <c r="J26" s="256"/>
+      <c r="B26" s="203"/>
+      <c r="C26" s="239"/>
+      <c r="D26" s="240"/>
+      <c r="E26" s="265"/>
+      <c r="F26" s="266"/>
+      <c r="G26" s="267"/>
+      <c r="I26" s="200"/>
+      <c r="J26" s="214"/>
       <c r="K26" s="132">
         <v>3</v>
       </c>
@@ -10338,21 +10346,21 @@
       <c r="M26" s="126"/>
     </row>
     <row r="27" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="232"/>
-      <c r="B27" s="235">
+      <c r="A27" s="223"/>
+      <c r="B27" s="202">
         <v>3</v>
       </c>
-      <c r="C27" s="241" t="s">
+      <c r="C27" s="229" t="s">
         <v>190</v>
       </c>
-      <c r="D27" s="242"/>
-      <c r="E27" s="204"/>
-      <c r="F27" s="205"/>
-      <c r="G27" s="206"/>
-      <c r="I27" s="257">
+      <c r="D27" s="230"/>
+      <c r="E27" s="209"/>
+      <c r="F27" s="210"/>
+      <c r="G27" s="211"/>
+      <c r="I27" s="201">
         <v>17</v>
       </c>
-      <c r="J27" s="259" t="s">
+      <c r="J27" s="215" t="s">
         <v>227</v>
       </c>
       <c r="K27" s="131">
@@ -10369,15 +10377,15 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="233"/>
-      <c r="B28" s="264"/>
-      <c r="C28" s="253"/>
-      <c r="D28" s="254"/>
-      <c r="E28" s="207"/>
-      <c r="F28" s="208"/>
-      <c r="G28" s="209"/>
-      <c r="I28" s="257"/>
-      <c r="J28" s="259"/>
+      <c r="A28" s="224"/>
+      <c r="B28" s="204"/>
+      <c r="C28" s="241"/>
+      <c r="D28" s="242"/>
+      <c r="E28" s="212"/>
+      <c r="F28" s="221"/>
+      <c r="G28" s="222"/>
+      <c r="I28" s="201"/>
+      <c r="J28" s="215"/>
       <c r="K28" s="131">
         <v>2</v>
       </c>
@@ -10392,23 +10400,23 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="234" t="s">
+      <c r="A29" s="207" t="s">
         <v>124</v>
       </c>
       <c r="B29" s="109">
         <v>1</v>
       </c>
-      <c r="C29" s="204" t="s">
+      <c r="C29" s="209" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="204"/>
-      <c r="E29" s="204" t="s">
+      <c r="D29" s="209"/>
+      <c r="E29" s="209" t="s">
         <v>126</v>
       </c>
-      <c r="F29" s="205"/>
-      <c r="G29" s="206"/>
-      <c r="I29" s="257"/>
-      <c r="J29" s="259"/>
+      <c r="F29" s="210"/>
+      <c r="G29" s="211"/>
+      <c r="I29" s="201"/>
+      <c r="J29" s="215"/>
       <c r="K29" s="131">
         <v>3</v>
       </c>
@@ -10421,23 +10429,23 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="267"/>
+      <c r="A30" s="208"/>
       <c r="B30" s="112">
         <v>2</v>
       </c>
-      <c r="C30" s="207" t="s">
+      <c r="C30" s="212" t="s">
         <v>188</v>
       </c>
-      <c r="D30" s="207"/>
-      <c r="E30" s="207" t="s">
+      <c r="D30" s="212"/>
+      <c r="E30" s="212" t="s">
         <v>192</v>
       </c>
-      <c r="F30" s="208"/>
-      <c r="G30" s="209"/>
-      <c r="I30" s="263">
+      <c r="F30" s="221"/>
+      <c r="G30" s="222"/>
+      <c r="I30" s="199">
         <v>1</v>
       </c>
-      <c r="J30" s="255" t="s">
+      <c r="J30" s="213" t="s">
         <v>229</v>
       </c>
       <c r="K30" s="130">
@@ -10462,8 +10470,8 @@
       <c r="E31" s="197"/>
       <c r="F31" s="197"/>
       <c r="G31" s="197"/>
-      <c r="I31" s="258"/>
-      <c r="J31" s="256"/>
+      <c r="I31" s="200"/>
+      <c r="J31" s="214"/>
       <c r="K31" s="132">
         <v>1</v>
       </c>
@@ -10482,10 +10490,10 @@
       <c r="E32" s="198"/>
       <c r="F32" s="198"/>
       <c r="G32" s="198"/>
-      <c r="I32" s="257">
+      <c r="I32" s="201">
         <v>2</v>
       </c>
-      <c r="J32" s="259" t="s">
+      <c r="J32" s="215" t="s">
         <v>230</v>
       </c>
       <c r="K32" s="131">
@@ -10508,8 +10516,8 @@
       <c r="E33" s="198"/>
       <c r="F33" s="198"/>
       <c r="G33" s="198"/>
-      <c r="I33" s="258"/>
-      <c r="J33" s="256"/>
+      <c r="I33" s="200"/>
+      <c r="J33" s="214"/>
       <c r="K33" s="132">
         <v>1</v>
       </c>
@@ -10557,23 +10565,39 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="H1:H1048576"/>
-    <mergeCell ref="A12:G13"/>
-    <mergeCell ref="A1:A11"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F5:G7"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="J30:J31"/>
     <mergeCell ref="I32:I33"/>
     <mergeCell ref="J32:J33"/>
@@ -10590,54 +10614,38 @@
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="J5:J7"/>
     <mergeCell ref="J8:J10"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:G30"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C17:D19"/>
+    <mergeCell ref="C20:D22"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="H1:H1048576"/>
+    <mergeCell ref="A12:G13"/>
+    <mergeCell ref="A1:A11"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C17:D19"/>
-    <mergeCell ref="C20:D22"/>
     <mergeCell ref="C27:D28"/>
     <mergeCell ref="C23:D24"/>
     <mergeCell ref="C25:D26"/>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="A14:G15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F5:G7"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文物娘.xlsx
+++ b/文物娘.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GameMaker\Final Work\Github\CultureRelicGirls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF70981F-6056-4574-A76E-740BB574A672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CEB6ED-7248-4BF8-91BA-7648373F0FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1E3677C8-2B1C-423A-AEA1-C1DF63D56BAF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E3677C8-2B1C-423A-AEA1-C1DF63D56BAF}"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
-    <sheet name="关卡" sheetId="2" r:id="rId3"/>
+    <sheet name="关卡" sheetId="2" r:id="rId2"/>
+    <sheet name="ID表" sheetId="4" r:id="rId3"/>
     <sheet name="物资" sheetId="3" r:id="rId4"/>
-    <sheet name="ID表" sheetId="4" r:id="rId5"/>
+    <sheet name="关卡统计" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,21 +37,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="324">
-  <si>
-    <t>司母戊鼎</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="345">
   <si>
     <t>越王勾践剑</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>四羊方尊</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>天丛云剑</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -169,10 +161,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>盖尔安德森猫，出土于埃及古代大型墓地萨卡拉的公元前600年的青铜像，由盖尔安德森赠于大英博物馆。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>毒入膏肓：每次攻击+5攻击力，最高叠5层，持续1.9s</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -182,11 +170,6 @@
   </si>
   <si>
     <t>同舟共济：每攻击两次，为队友提升8点攻击力，持续2s</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>卧薪尝胆：血量低于50时，att为36
-血量低于25时，att为50</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -496,10 +479,6 @@
   </si>
   <si>
     <t>100+10min</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>惊雷：击杀一个单位时，在敌人的头上召唤一朵雷云，造成15伤害的3身位范围雷击</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1339,6 +1318,111 @@
   </si>
   <si>
     <t>惊雷：击杀一个单位时，在敌人的头上召唤一朵雷云，造成30伤害的3身位范围雷击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spwa</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗估计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估所得</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>累积</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估消耗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人掉落</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级第一个角色</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大可能累积</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估累积</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级第二个角色</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级第三个角色</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级修复台</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级研究台</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁2楼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁3楼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级孵化台</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个三星角色</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二个三星角色</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三个三星角色</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个四星角色</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二个四星角色</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三个四星角色</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复图书馆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧薪尝胆：血量低于50%时，攻击力提升25%
+血量低于25%时，50%</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1478,7 +1562,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="89">
+  <borders count="90">
     <border>
       <left/>
       <right/>
@@ -2566,6 +2650,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2590,7 +2687,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="268">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2957,9 +3054,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2996,40 +3090,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="67" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="77" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="76" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3041,6 +3102,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="67" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="77" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="76" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3056,55 +3171,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="36" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="37" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="58" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="59" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3119,68 +3258,35 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="58" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="59" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="36" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="37" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="76" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="9" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="9" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3188,15 +3294,120 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="80" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="34" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="88" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="35" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="87" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="62" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="60" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="64" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="65" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="61" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="66" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3212,108 +3423,66 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="81" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="82" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="69" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="83" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="84" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="65" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="70" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="61" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="85" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="34" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="88" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="35" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="82" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="69" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="83" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="60" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="84" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="65" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="70" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="61" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="85" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3323,77 +3492,56 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="87" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="62" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="63" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="60" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="64" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="65" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="61" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="66" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="80" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="89" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3717,8 +3865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D91B1E5-0340-464B-AF90-56D459836ED7}">
   <dimension ref="B1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:G29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3731,73 +3879,73 @@
     <row r="1" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="155" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="144" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="144" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="144" t="s">
         <v>272</v>
       </c>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="155" t="s">
-        <v>276</v>
-      </c>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="155" t="s">
-        <v>277</v>
-      </c>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="156" t="s">
-        <v>278</v>
-      </c>
-      <c r="S2" s="156"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="156"/>
-      <c r="V2" s="157"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="145" t="s">
+        <v>273</v>
+      </c>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="146"/>
     </row>
     <row r="3" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="161" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="161" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="158" t="s">
-        <v>5</v>
-      </c>
-      <c r="S3" s="159"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="159"/>
-      <c r="V3" s="160"/>
+      <c r="C3" s="147" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="147" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="149"/>
+      <c r="R3" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="151"/>
+      <c r="T3" s="151"/>
+      <c r="U3" s="151"/>
+      <c r="V3" s="152"/>
     </row>
     <row r="4" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="17">
         <v>250</v>
@@ -3878,7 +4026,7 @@
     </row>
     <row r="5" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="15">
         <v>38</v>
@@ -3959,7 +4107,7 @@
     </row>
     <row r="6" spans="2:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="15">
         <v>1</v>
@@ -4024,7 +4172,7 @@
     </row>
     <row r="7" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C7" s="19">
         <f>C5*C6</f>
@@ -4109,96 +4257,96 @@
     </row>
     <row r="8" spans="2:22" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="147" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="148"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="147" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="148"/>
-      <c r="J8" s="148"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="149"/>
-      <c r="M8" s="147" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="148"/>
-      <c r="O8" s="148"/>
-      <c r="P8" s="148"/>
-      <c r="Q8" s="149"/>
-      <c r="R8" s="147" t="s">
-        <v>323</v>
-      </c>
-      <c r="S8" s="148"/>
-      <c r="T8" s="148"/>
-      <c r="U8" s="148"/>
-      <c r="V8" s="149"/>
+        <v>9</v>
+      </c>
+      <c r="C8" s="135" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="135" t="s">
+        <v>344</v>
+      </c>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="135" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="136"/>
+      <c r="Q8" s="137"/>
+      <c r="R8" s="135" t="s">
+        <v>318</v>
+      </c>
+      <c r="S8" s="136"/>
+      <c r="T8" s="136"/>
+      <c r="U8" s="136"/>
+      <c r="V8" s="137"/>
     </row>
     <row r="9" spans="2:22" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="156" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="156" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="157"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="157"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="150" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="150" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="151"/>
-      <c r="J9" s="151"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="150" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="151"/>
-      <c r="O9" s="151"/>
-      <c r="P9" s="151"/>
-      <c r="Q9" s="152"/>
-      <c r="R9" s="150" t="s">
-        <v>39</v>
-      </c>
-      <c r="S9" s="151"/>
-      <c r="T9" s="151"/>
-      <c r="U9" s="151"/>
-      <c r="V9" s="152"/>
+      <c r="N9" s="157"/>
+      <c r="O9" s="157"/>
+      <c r="P9" s="157"/>
+      <c r="Q9" s="158"/>
+      <c r="R9" s="156" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="157"/>
+      <c r="T9" s="157"/>
+      <c r="U9" s="157"/>
+      <c r="V9" s="158"/>
     </row>
     <row r="11" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="155" t="s">
-        <v>275</v>
-      </c>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="155" t="s">
-        <v>273</v>
-      </c>
-      <c r="I12" s="156"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="157"/>
-      <c r="M12" s="155" t="s">
-        <v>274</v>
-      </c>
-      <c r="N12" s="156"/>
-      <c r="O12" s="156"/>
-      <c r="P12" s="156"/>
-      <c r="Q12" s="157"/>
+        <v>4</v>
+      </c>
+      <c r="C12" s="144" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="144" t="s">
+        <v>268</v>
+      </c>
+      <c r="I12" s="145"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="144" t="s">
+        <v>269</v>
+      </c>
+      <c r="N12" s="145"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="145"/>
+      <c r="Q12" s="146"/>
       <c r="S12" s="113">
         <v>2.1</v>
       </c>
@@ -4211,29 +4359,29 @@
     </row>
     <row r="13" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="135" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="135" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="136"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="137"/>
-      <c r="M13" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="N13" s="139"/>
-      <c r="O13" s="139"/>
-      <c r="P13" s="139"/>
-      <c r="Q13" s="140"/>
+      <c r="C13" s="141" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="141" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="142"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="161" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" s="162"/>
+      <c r="O13" s="162"/>
+      <c r="P13" s="162"/>
+      <c r="Q13" s="163"/>
       <c r="S13" s="116">
         <v>1.8</v>
       </c>
@@ -4246,7 +4394,7 @@
     </row>
     <row r="14" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" s="17">
         <v>50</v>
@@ -4314,11 +4462,11 @@
       <c r="U14" s="118">
         <v>1</v>
       </c>
-      <c r="V14" s="153"/>
+      <c r="V14" s="159"/>
     </row>
     <row r="15" spans="2:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" s="15">
         <v>20</v>
@@ -4384,11 +4532,11 @@
         <v>1</v>
       </c>
       <c r="U15" s="118"/>
-      <c r="V15" s="153"/>
+      <c r="V15" s="159"/>
     </row>
     <row r="16" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" s="15">
         <v>1.2</v>
@@ -4443,7 +4591,7 @@
     </row>
     <row r="17" spans="2:17" s="13" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C17" s="19">
         <f>C15*C16</f>
@@ -4508,112 +4656,112 @@
     </row>
     <row r="18" spans="2:17" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="147" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="147" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="148"/>
-      <c r="J18" s="148"/>
-      <c r="K18" s="148"/>
-      <c r="L18" s="149"/>
-      <c r="M18" s="147" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" s="148"/>
-      <c r="O18" s="148"/>
-      <c r="P18" s="148"/>
-      <c r="Q18" s="149"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="135" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="136"/>
+      <c r="Q18" s="137"/>
     </row>
     <row r="19" spans="2:17" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="150" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="151"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="150" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="151"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="150" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" s="151"/>
-      <c r="O19" s="151"/>
-      <c r="P19" s="151"/>
-      <c r="Q19" s="152"/>
+        <v>23</v>
+      </c>
+      <c r="C19" s="156" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="156" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="157"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="157"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="156" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="157"/>
+      <c r="O19" s="157"/>
+      <c r="P19" s="157"/>
+      <c r="Q19" s="158"/>
     </row>
     <row r="21" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="144" t="s">
-        <v>279</v>
-      </c>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="144" t="s">
-        <v>280</v>
-      </c>
-      <c r="I22" s="145"/>
-      <c r="J22" s="145"/>
-      <c r="K22" s="145"/>
-      <c r="L22" s="146"/>
-      <c r="M22" s="144" t="s">
-        <v>281</v>
-      </c>
-      <c r="N22" s="145"/>
-      <c r="O22" s="145"/>
-      <c r="P22" s="145"/>
-      <c r="Q22" s="146"/>
+        <v>4</v>
+      </c>
+      <c r="C22" s="153" t="s">
+        <v>274</v>
+      </c>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="153" t="s">
+        <v>275</v>
+      </c>
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="153" t="s">
+        <v>276</v>
+      </c>
+      <c r="N22" s="154"/>
+      <c r="O22" s="154"/>
+      <c r="P22" s="154"/>
+      <c r="Q22" s="155"/>
     </row>
     <row r="23" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="141" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="135" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="136"/>
-      <c r="J23" s="136"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="137"/>
-      <c r="M23" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="139"/>
-      <c r="O23" s="139"/>
-      <c r="P23" s="139"/>
-      <c r="Q23" s="140"/>
+      <c r="C23" s="138" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="141" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="142"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="161" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="162"/>
+      <c r="O23" s="162"/>
+      <c r="P23" s="162"/>
+      <c r="Q23" s="163"/>
     </row>
     <row r="24" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" s="17">
         <v>180</v>
@@ -4675,7 +4823,7 @@
     </row>
     <row r="25" spans="2:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25" s="15">
         <v>36</v>
@@ -4737,7 +4885,7 @@
     </row>
     <row r="26" spans="2:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" s="15">
         <v>0.7</v>
@@ -4787,7 +4935,7 @@
     </row>
     <row r="27" spans="2:17" s="13" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C27" s="19">
         <f>C25*C26</f>
@@ -4852,98 +5000,98 @@
     </row>
     <row r="28" spans="2:17" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="147" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="148"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="147" t="s">
-        <v>35</v>
-      </c>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="148"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="147" t="s">
-        <v>33</v>
-      </c>
-      <c r="N28" s="148"/>
-      <c r="O28" s="148"/>
-      <c r="P28" s="148"/>
-      <c r="Q28" s="149"/>
+        <v>9</v>
+      </c>
+      <c r="C28" s="135" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="136"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="135" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="136"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="137"/>
+      <c r="M28" s="135" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="136"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="136"/>
+      <c r="Q28" s="137"/>
     </row>
     <row r="29" spans="2:17" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="150" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="150" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="152"/>
-      <c r="M29" s="150" t="s">
-        <v>115</v>
-      </c>
-      <c r="N29" s="151"/>
-      <c r="O29" s="151"/>
-      <c r="P29" s="151"/>
-      <c r="Q29" s="152"/>
+        <v>23</v>
+      </c>
+      <c r="C29" s="156" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="157"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="156" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="157"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="158"/>
+      <c r="M29" s="156" t="s">
+        <v>110</v>
+      </c>
+      <c r="N29" s="157"/>
+      <c r="O29" s="157"/>
+      <c r="P29" s="157"/>
+      <c r="Q29" s="158"/>
     </row>
     <row r="31" spans="2:17" s="13" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="155" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="155" t="s">
-        <v>43</v>
-      </c>
-      <c r="I32" s="156"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="156"/>
-      <c r="L32" s="157"/>
+        <v>4</v>
+      </c>
+      <c r="C32" s="144" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="144" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="146"/>
     </row>
     <row r="33" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="141" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="142"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="143"/>
-      <c r="H33" s="135" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="136"/>
-      <c r="J33" s="136"/>
-      <c r="K33" s="136"/>
-      <c r="L33" s="137"/>
+        <v>5</v>
+      </c>
+      <c r="C33" s="138" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="139"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="139"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="141" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="142"/>
+      <c r="J33" s="142"/>
+      <c r="K33" s="142"/>
+      <c r="L33" s="143"/>
     </row>
     <row r="34" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34" s="17">
         <v>220</v>
@@ -4989,7 +5137,7 @@
     </row>
     <row r="35" spans="2:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C35" s="15">
         <v>28</v>
@@ -5035,7 +5183,7 @@
     </row>
     <row r="36" spans="2:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" s="15">
         <v>1.2</v>
@@ -5070,7 +5218,7 @@
     </row>
     <row r="37" spans="2:17" s="13" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C37" s="19">
         <f t="shared" ref="C37:H37" si="11">C35*C36</f>
@@ -5115,41 +5263,41 @@
     </row>
     <row r="38" spans="2:17" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="147" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="148"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="147" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="148"/>
-      <c r="J38" s="148"/>
-      <c r="K38" s="148"/>
-      <c r="L38" s="149"/>
+        <v>9</v>
+      </c>
+      <c r="C38" s="135" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="136"/>
+      <c r="E38" s="136"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="137"/>
+      <c r="H38" s="135" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="136"/>
+      <c r="J38" s="136"/>
+      <c r="K38" s="136"/>
+      <c r="L38" s="137"/>
     </row>
     <row r="39" spans="2:17" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="150" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="152"/>
-      <c r="H39" s="150" t="s">
-        <v>322</v>
-      </c>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="152"/>
+        <v>23</v>
+      </c>
+      <c r="C39" s="156" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="157"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="158"/>
+      <c r="H39" s="156" t="s">
+        <v>317</v>
+      </c>
+      <c r="I39" s="157"/>
+      <c r="J39" s="157"/>
+      <c r="K39" s="157"/>
+      <c r="L39" s="158"/>
       <c r="M39" s="26"/>
       <c r="N39" s="26"/>
       <c r="O39" s="26"/>
@@ -5158,31 +5306,14 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C18:G18"/>
     <mergeCell ref="C39:G39"/>
     <mergeCell ref="H39:L39"/>
     <mergeCell ref="V14:V15"/>
@@ -5199,14 +5330,31 @@
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5215,2571 +5363,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0ED7B0-0A70-47B6-994E-0F85B4440EFC}">
-  <dimension ref="B1:AQ39"/>
-  <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="155" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="155" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="155" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="156" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="156"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="156"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
-      <c r="AA2" s="122"/>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="122"/>
-      <c r="AE2" s="122"/>
-      <c r="AF2" s="122"/>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="122"/>
-      <c r="AI2" s="122"/>
-      <c r="AJ2" s="122"/>
-      <c r="AK2" s="122"/>
-      <c r="AL2" s="122"/>
-      <c r="AM2" s="122"/>
-      <c r="AN2" s="122"/>
-      <c r="AO2" s="122"/>
-      <c r="AP2" s="122"/>
-      <c r="AQ2" s="122"/>
-    </row>
-    <row r="3" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="161" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="158" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="161" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="158" t="s">
-        <v>5</v>
-      </c>
-      <c r="S3" s="159"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="159"/>
-      <c r="V3" s="160"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="122"/>
-      <c r="Z3" s="122"/>
-      <c r="AA3" s="122"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="122"/>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="122"/>
-      <c r="AG3" s="122"/>
-      <c r="AH3" s="122"/>
-      <c r="AI3" s="122"/>
-      <c r="AJ3" s="122"/>
-      <c r="AK3" s="122"/>
-      <c r="AL3" s="122"/>
-      <c r="AM3" s="122"/>
-      <c r="AN3" s="122"/>
-      <c r="AO3" s="122"/>
-      <c r="AP3" s="122"/>
-      <c r="AQ3" s="122"/>
-    </row>
-    <row r="4" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="17">
-        <v>250</v>
-      </c>
-      <c r="D4" s="18">
-        <f>C4*1.2</f>
-        <v>300</v>
-      </c>
-      <c r="E4" s="18">
-        <f>C4*1.5</f>
-        <v>375</v>
-      </c>
-      <c r="F4" s="18">
-        <f>C4*1.8</f>
-        <v>450</v>
-      </c>
-      <c r="G4" s="21">
-        <f>C4*2.1</f>
-        <v>525</v>
-      </c>
-      <c r="H4" s="17">
-        <v>100</v>
-      </c>
-      <c r="I4" s="18">
-        <f>H4*1.2</f>
-        <v>120</v>
-      </c>
-      <c r="J4" s="18">
-        <f>H4*1.5</f>
-        <v>150</v>
-      </c>
-      <c r="K4" s="18">
-        <f>H4*1.8</f>
-        <v>180</v>
-      </c>
-      <c r="L4" s="21">
-        <f>H4*2.1</f>
-        <v>210</v>
-      </c>
-      <c r="M4" s="17">
-        <v>200</v>
-      </c>
-      <c r="N4" s="18">
-        <f>M4*1.2</f>
-        <v>240</v>
-      </c>
-      <c r="O4" s="18">
-        <f>M4*1.5</f>
-        <v>300</v>
-      </c>
-      <c r="P4" s="18">
-        <f>M4*1.8</f>
-        <v>360</v>
-      </c>
-      <c r="Q4" s="21">
-        <f>M4*2.1</f>
-        <v>420</v>
-      </c>
-      <c r="R4" s="17">
-        <v>120</v>
-      </c>
-      <c r="S4" s="18">
-        <f>R4*1.2</f>
-        <v>144</v>
-      </c>
-      <c r="T4" s="18">
-        <f>R4*1.5</f>
-        <v>180</v>
-      </c>
-      <c r="U4" s="18">
-        <f>R4*1.8</f>
-        <v>216</v>
-      </c>
-      <c r="V4" s="21">
-        <f>R4*2.1</f>
-        <v>252</v>
-      </c>
-      <c r="W4" s="122"/>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="122"/>
-      <c r="Z4" s="122"/>
-      <c r="AA4" s="122"/>
-      <c r="AB4" s="122"/>
-      <c r="AC4" s="122"/>
-      <c r="AD4" s="122"/>
-      <c r="AE4" s="122"/>
-      <c r="AF4" s="122"/>
-      <c r="AG4" s="122"/>
-      <c r="AH4" s="122"/>
-      <c r="AI4" s="122"/>
-      <c r="AJ4" s="122"/>
-      <c r="AK4" s="122"/>
-      <c r="AL4" s="122"/>
-      <c r="AM4" s="122"/>
-      <c r="AN4" s="122"/>
-      <c r="AO4" s="122"/>
-      <c r="AP4" s="122"/>
-      <c r="AQ4" s="122"/>
-    </row>
-    <row r="5" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="15">
-        <v>38</v>
-      </c>
-      <c r="D5" s="18">
-        <f>C5*1.2</f>
-        <v>45.6</v>
-      </c>
-      <c r="E5" s="18">
-        <f>C5*1.5</f>
-        <v>57</v>
-      </c>
-      <c r="F5" s="18">
-        <f>C5*1.8</f>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="G5" s="21">
-        <f t="shared" ref="G5" si="0">C5*2.1</f>
-        <v>79.8</v>
-      </c>
-      <c r="H5" s="15">
-        <v>25</v>
-      </c>
-      <c r="I5" s="18">
-        <f>H5*1.2</f>
-        <v>30</v>
-      </c>
-      <c r="J5" s="18">
-        <f>H5*1.5</f>
-        <v>37.5</v>
-      </c>
-      <c r="K5" s="18">
-        <f>H5*1.8</f>
-        <v>45</v>
-      </c>
-      <c r="L5" s="21">
-        <f>H5*2.1</f>
-        <v>52.5</v>
-      </c>
-      <c r="M5" s="15">
-        <v>25</v>
-      </c>
-      <c r="N5" s="18">
-        <f>M5*1.2</f>
-        <v>30</v>
-      </c>
-      <c r="O5" s="18">
-        <f>M5*1.5</f>
-        <v>37.5</v>
-      </c>
-      <c r="P5" s="18">
-        <f>M5*1.8</f>
-        <v>45</v>
-      </c>
-      <c r="Q5" s="21">
-        <f>M5*2.1</f>
-        <v>52.5</v>
-      </c>
-      <c r="R5" s="15">
-        <v>20</v>
-      </c>
-      <c r="S5" s="18">
-        <f>R5*1.2</f>
-        <v>24</v>
-      </c>
-      <c r="T5" s="18">
-        <f>R5*1.5</f>
-        <v>30</v>
-      </c>
-      <c r="U5" s="18">
-        <f>R5*1.8</f>
-        <v>36</v>
-      </c>
-      <c r="V5" s="21">
-        <f>R5*2.1</f>
-        <v>42</v>
-      </c>
-      <c r="W5" s="122"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="122"/>
-      <c r="AA5" s="122"/>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="122"/>
-      <c r="AD5" s="122"/>
-      <c r="AE5" s="122"/>
-      <c r="AF5" s="122"/>
-      <c r="AG5" s="122"/>
-      <c r="AH5" s="122"/>
-      <c r="AI5" s="122"/>
-      <c r="AJ5" s="122"/>
-      <c r="AK5" s="122"/>
-      <c r="AL5" s="122"/>
-      <c r="AM5" s="122"/>
-      <c r="AN5" s="122"/>
-      <c r="AO5" s="122"/>
-      <c r="AP5" s="122"/>
-      <c r="AQ5" s="122"/>
-    </row>
-    <row r="6" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="15">
-        <v>1</v>
-      </c>
-      <c r="D6" s="18">
-        <v>1</v>
-      </c>
-      <c r="E6" s="18">
-        <v>1</v>
-      </c>
-      <c r="F6" s="18">
-        <v>1</v>
-      </c>
-      <c r="G6" s="21">
-        <v>1</v>
-      </c>
-      <c r="H6" s="15">
-        <v>1.3</v>
-      </c>
-      <c r="I6" s="16">
-        <v>1.3</v>
-      </c>
-      <c r="J6" s="16">
-        <v>1.3</v>
-      </c>
-      <c r="K6" s="16">
-        <v>1.3</v>
-      </c>
-      <c r="L6" s="25">
-        <v>1.3</v>
-      </c>
-      <c r="M6" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="N6" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="O6" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="P6" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="R6" s="15">
-        <v>1.7</v>
-      </c>
-      <c r="S6" s="16">
-        <v>1.7</v>
-      </c>
-      <c r="T6" s="16">
-        <v>1.7</v>
-      </c>
-      <c r="U6" s="16">
-        <v>1.7</v>
-      </c>
-      <c r="V6" s="10">
-        <v>1.7</v>
-      </c>
-      <c r="W6" s="122"/>
-      <c r="X6" s="122"/>
-      <c r="Y6" s="122"/>
-      <c r="Z6" s="122"/>
-      <c r="AA6" s="122"/>
-      <c r="AB6" s="122"/>
-      <c r="AC6" s="122"/>
-      <c r="AD6" s="122"/>
-      <c r="AE6" s="122"/>
-      <c r="AF6" s="122"/>
-      <c r="AG6" s="122"/>
-      <c r="AH6" s="122"/>
-      <c r="AI6" s="122"/>
-      <c r="AJ6" s="122"/>
-      <c r="AK6" s="122"/>
-      <c r="AL6" s="122"/>
-      <c r="AM6" s="122"/>
-      <c r="AN6" s="122"/>
-      <c r="AO6" s="122"/>
-      <c r="AP6" s="122"/>
-      <c r="AQ6" s="122"/>
-    </row>
-    <row r="7" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="19">
-        <f>C5*C6</f>
-        <v>38</v>
-      </c>
-      <c r="D7" s="20">
-        <f t="shared" ref="D7:G7" si="1">D5*D6</f>
-        <v>45.6</v>
-      </c>
-      <c r="E7" s="20">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="F7" s="20">
-        <f t="shared" si="1"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="G7" s="14">
-        <f t="shared" si="1"/>
-        <v>79.8</v>
-      </c>
-      <c r="H7" s="19">
-        <f>H5*H6</f>
-        <v>32.5</v>
-      </c>
-      <c r="I7" s="20">
-        <f t="shared" ref="I7:L7" si="2">I5*I6</f>
-        <v>39</v>
-      </c>
-      <c r="J7" s="20">
-        <f t="shared" si="2"/>
-        <v>48.75</v>
-      </c>
-      <c r="K7" s="23">
-        <f t="shared" si="2"/>
-        <v>58.5</v>
-      </c>
-      <c r="L7" s="23">
-        <f t="shared" si="2"/>
-        <v>68.25</v>
-      </c>
-      <c r="M7" s="19">
-        <f>M5*M6</f>
-        <v>37.5</v>
-      </c>
-      <c r="N7" s="20">
-        <f t="shared" ref="N7:Q7" si="3">N5*N6</f>
-        <v>45</v>
-      </c>
-      <c r="O7" s="20">
-        <f t="shared" si="3"/>
-        <v>56.25</v>
-      </c>
-      <c r="P7" s="20">
-        <f t="shared" si="3"/>
-        <v>67.5</v>
-      </c>
-      <c r="Q7" s="14">
-        <f t="shared" si="3"/>
-        <v>78.75</v>
-      </c>
-      <c r="R7" s="19">
-        <f>R5*R6</f>
-        <v>34</v>
-      </c>
-      <c r="S7" s="20">
-        <f t="shared" ref="S7:U7" si="4">S5*S6</f>
-        <v>40.799999999999997</v>
-      </c>
-      <c r="T7" s="20">
-        <f t="shared" si="4"/>
-        <v>51</v>
-      </c>
-      <c r="U7" s="20">
-        <f t="shared" si="4"/>
-        <v>61.199999999999996</v>
-      </c>
-      <c r="V7" s="14">
-        <f>V5*V6</f>
-        <v>71.399999999999991</v>
-      </c>
-      <c r="W7" s="122"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="122"/>
-      <c r="AA7" s="122"/>
-      <c r="AB7" s="122"/>
-      <c r="AC7" s="122"/>
-      <c r="AD7" s="122"/>
-      <c r="AE7" s="122"/>
-      <c r="AF7" s="122"/>
-      <c r="AG7" s="122"/>
-      <c r="AH7" s="122"/>
-      <c r="AI7" s="122"/>
-      <c r="AJ7" s="122"/>
-      <c r="AK7" s="122"/>
-      <c r="AL7" s="122"/>
-      <c r="AM7" s="122"/>
-      <c r="AN7" s="122"/>
-      <c r="AO7" s="122"/>
-      <c r="AP7" s="122"/>
-      <c r="AQ7" s="122"/>
-    </row>
-    <row r="8" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="147" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="148"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="147" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="148"/>
-      <c r="J8" s="148"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="149"/>
-      <c r="M8" s="147" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="148"/>
-      <c r="O8" s="148"/>
-      <c r="P8" s="148"/>
-      <c r="Q8" s="149"/>
-      <c r="R8" s="147" t="s">
-        <v>114</v>
-      </c>
-      <c r="S8" s="148"/>
-      <c r="T8" s="148"/>
-      <c r="U8" s="148"/>
-      <c r="V8" s="149"/>
-      <c r="W8" s="122"/>
-      <c r="X8" s="122"/>
-      <c r="Y8" s="122"/>
-      <c r="Z8" s="122"/>
-      <c r="AA8" s="122"/>
-      <c r="AB8" s="122"/>
-      <c r="AC8" s="122"/>
-      <c r="AD8" s="122"/>
-      <c r="AE8" s="122"/>
-      <c r="AF8" s="122"/>
-      <c r="AG8" s="122"/>
-      <c r="AH8" s="122"/>
-      <c r="AI8" s="122"/>
-      <c r="AJ8" s="122"/>
-      <c r="AK8" s="122"/>
-      <c r="AL8" s="122"/>
-      <c r="AM8" s="122"/>
-      <c r="AN8" s="122"/>
-      <c r="AO8" s="122"/>
-      <c r="AP8" s="122"/>
-      <c r="AQ8" s="122"/>
-    </row>
-    <row r="9" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="150" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="150" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="151"/>
-      <c r="J9" s="151"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="150" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="151"/>
-      <c r="O9" s="151"/>
-      <c r="P9" s="151"/>
-      <c r="Q9" s="152"/>
-      <c r="R9" s="150" t="s">
-        <v>39</v>
-      </c>
-      <c r="S9" s="151"/>
-      <c r="T9" s="151"/>
-      <c r="U9" s="151"/>
-      <c r="V9" s="152"/>
-      <c r="W9" s="122"/>
-      <c r="X9" s="122"/>
-      <c r="Y9" s="122"/>
-      <c r="Z9" s="122"/>
-      <c r="AA9" s="122"/>
-      <c r="AB9" s="122"/>
-      <c r="AC9" s="122"/>
-      <c r="AD9" s="122"/>
-      <c r="AE9" s="122"/>
-      <c r="AF9" s="122"/>
-      <c r="AG9" s="122"/>
-      <c r="AH9" s="122"/>
-      <c r="AI9" s="122"/>
-      <c r="AJ9" s="122"/>
-      <c r="AK9" s="122"/>
-      <c r="AL9" s="122"/>
-      <c r="AM9" s="122"/>
-      <c r="AN9" s="122"/>
-      <c r="AO9" s="122"/>
-      <c r="AP9" s="122"/>
-      <c r="AQ9" s="122"/>
-    </row>
-    <row r="10" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="122"/>
-      <c r="R10" s="122"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="122"/>
-      <c r="U10" s="122"/>
-      <c r="V10" s="122"/>
-      <c r="W10" s="122"/>
-      <c r="X10" s="122"/>
-      <c r="Y10" s="122"/>
-      <c r="Z10" s="122"/>
-      <c r="AA10" s="122"/>
-      <c r="AB10" s="122"/>
-      <c r="AC10" s="122"/>
-      <c r="AD10" s="122"/>
-      <c r="AE10" s="122"/>
-      <c r="AF10" s="122"/>
-      <c r="AG10" s="122"/>
-      <c r="AH10" s="122"/>
-      <c r="AI10" s="122"/>
-      <c r="AJ10" s="122"/>
-      <c r="AK10" s="122"/>
-      <c r="AL10" s="122"/>
-      <c r="AM10" s="122"/>
-      <c r="AN10" s="122"/>
-      <c r="AO10" s="122"/>
-      <c r="AP10" s="122"/>
-      <c r="AQ10" s="122"/>
-    </row>
-    <row r="11" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="122"/>
-      <c r="O11" s="122"/>
-      <c r="P11" s="122"/>
-      <c r="Q11" s="122"/>
-      <c r="R11" s="122"/>
-      <c r="S11" s="122"/>
-      <c r="T11" s="122"/>
-      <c r="U11" s="122"/>
-      <c r="V11" s="122"/>
-      <c r="W11" s="122"/>
-      <c r="X11" s="122"/>
-      <c r="Y11" s="122"/>
-      <c r="Z11" s="122"/>
-      <c r="AA11" s="122"/>
-      <c r="AB11" s="122"/>
-      <c r="AC11" s="122"/>
-      <c r="AD11" s="122"/>
-      <c r="AE11" s="122"/>
-      <c r="AF11" s="122"/>
-      <c r="AG11" s="122"/>
-      <c r="AH11" s="122"/>
-      <c r="AI11" s="122"/>
-      <c r="AJ11" s="122"/>
-      <c r="AK11" s="122"/>
-      <c r="AL11" s="122"/>
-      <c r="AM11" s="122"/>
-      <c r="AN11" s="122"/>
-      <c r="AO11" s="122"/>
-      <c r="AP11" s="122"/>
-      <c r="AQ11" s="122"/>
-    </row>
-    <row r="12" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="155" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="155" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="156"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="157"/>
-      <c r="M12" s="155" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="156"/>
-      <c r="O12" s="156"/>
-      <c r="P12" s="156"/>
-      <c r="Q12" s="157"/>
-      <c r="R12" s="122"/>
-      <c r="S12" s="113">
-        <v>2.1</v>
-      </c>
-      <c r="T12" s="114">
-        <v>1.75</v>
-      </c>
-      <c r="U12" s="115">
-        <v>1.4</v>
-      </c>
-      <c r="V12" s="122"/>
-      <c r="W12" s="122"/>
-      <c r="X12" s="122"/>
-      <c r="Y12" s="122"/>
-      <c r="Z12" s="122"/>
-      <c r="AA12" s="122"/>
-      <c r="AB12" s="122"/>
-      <c r="AC12" s="122"/>
-      <c r="AD12" s="122"/>
-      <c r="AE12" s="122"/>
-      <c r="AF12" s="122"/>
-      <c r="AG12" s="122"/>
-      <c r="AH12" s="122"/>
-      <c r="AI12" s="122"/>
-      <c r="AJ12" s="122"/>
-      <c r="AK12" s="122"/>
-      <c r="AL12" s="122"/>
-      <c r="AM12" s="122"/>
-      <c r="AN12" s="122"/>
-      <c r="AO12" s="122"/>
-      <c r="AP12" s="122"/>
-      <c r="AQ12" s="122"/>
-    </row>
-    <row r="13" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="135" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="135" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="136"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="137"/>
-      <c r="M13" s="138" t="s">
-        <v>5</v>
-      </c>
-      <c r="N13" s="139"/>
-      <c r="O13" s="139"/>
-      <c r="P13" s="139"/>
-      <c r="Q13" s="140"/>
-      <c r="R13" s="122"/>
-      <c r="S13" s="116">
-        <v>1.8</v>
-      </c>
-      <c r="T13" s="117">
-        <v>1.5</v>
-      </c>
-      <c r="U13" s="118">
-        <v>1.2</v>
-      </c>
-      <c r="V13" s="122"/>
-      <c r="W13" s="122"/>
-      <c r="X13" s="122"/>
-      <c r="Y13" s="122"/>
-      <c r="Z13" s="122"/>
-      <c r="AA13" s="122"/>
-      <c r="AB13" s="122"/>
-      <c r="AC13" s="122"/>
-      <c r="AD13" s="122"/>
-      <c r="AE13" s="122"/>
-      <c r="AF13" s="122"/>
-      <c r="AG13" s="122"/>
-      <c r="AH13" s="122"/>
-      <c r="AI13" s="122"/>
-      <c r="AJ13" s="122"/>
-      <c r="AK13" s="122"/>
-      <c r="AL13" s="122"/>
-      <c r="AM13" s="122"/>
-      <c r="AN13" s="122"/>
-      <c r="AO13" s="122"/>
-      <c r="AP13" s="122"/>
-      <c r="AQ13" s="122"/>
-    </row>
-    <row r="14" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="17">
-        <v>50</v>
-      </c>
-      <c r="D14" s="18">
-        <f>C14*1.2</f>
-        <v>60</v>
-      </c>
-      <c r="E14" s="18">
-        <f>C14*1.5</f>
-        <v>75</v>
-      </c>
-      <c r="F14" s="18">
-        <f>C14*1.8</f>
-        <v>90</v>
-      </c>
-      <c r="G14" s="21">
-        <f>C14*2.1</f>
-        <v>105</v>
-      </c>
-      <c r="H14" s="17">
-        <v>65</v>
-      </c>
-      <c r="I14" s="18">
-        <f>H14*1.2</f>
-        <v>78</v>
-      </c>
-      <c r="J14" s="18">
-        <f>H14*1.5</f>
-        <v>97.5</v>
-      </c>
-      <c r="K14" s="18">
-        <f>H14*1.8</f>
-        <v>117</v>
-      </c>
-      <c r="L14" s="21">
-        <f>H14*2.1</f>
-        <v>136.5</v>
-      </c>
-      <c r="M14" s="17">
-        <v>130</v>
-      </c>
-      <c r="N14" s="18">
-        <f>M14*1.2</f>
-        <v>156</v>
-      </c>
-      <c r="O14" s="18">
-        <f>M14*1.5</f>
-        <v>195</v>
-      </c>
-      <c r="P14" s="18">
-        <f>M14*1.8</f>
-        <v>234</v>
-      </c>
-      <c r="Q14" s="21">
-        <f>M14*2.1</f>
-        <v>273</v>
-      </c>
-      <c r="R14" s="122"/>
-      <c r="S14" s="116">
-        <v>1.5</v>
-      </c>
-      <c r="T14" s="117">
-        <v>1.25</v>
-      </c>
-      <c r="U14" s="118">
-        <v>1</v>
-      </c>
-      <c r="V14" s="153"/>
-      <c r="W14" s="122"/>
-      <c r="X14" s="122"/>
-      <c r="Y14" s="122"/>
-      <c r="Z14" s="122"/>
-      <c r="AA14" s="122"/>
-      <c r="AB14" s="122"/>
-      <c r="AC14" s="122"/>
-      <c r="AD14" s="122"/>
-      <c r="AE14" s="122"/>
-      <c r="AF14" s="122"/>
-      <c r="AG14" s="122"/>
-      <c r="AH14" s="122"/>
-      <c r="AI14" s="122"/>
-      <c r="AJ14" s="122"/>
-      <c r="AK14" s="122"/>
-      <c r="AL14" s="122"/>
-      <c r="AM14" s="122"/>
-      <c r="AN14" s="122"/>
-      <c r="AO14" s="122"/>
-      <c r="AP14" s="122"/>
-      <c r="AQ14" s="122"/>
-    </row>
-    <row r="15" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="15">
-        <v>25</v>
-      </c>
-      <c r="D15" s="18">
-        <f>C15*1.2</f>
-        <v>30</v>
-      </c>
-      <c r="E15" s="18">
-        <f>C15*1.5</f>
-        <v>37.5</v>
-      </c>
-      <c r="F15" s="18">
-        <f>C15*1.8</f>
-        <v>45</v>
-      </c>
-      <c r="G15" s="21">
-        <f>C15*2.1</f>
-        <v>52.5</v>
-      </c>
-      <c r="H15" s="15">
-        <v>38</v>
-      </c>
-      <c r="I15" s="18">
-        <f>H15*1.2</f>
-        <v>45.6</v>
-      </c>
-      <c r="J15" s="18">
-        <f>H15*1.5</f>
-        <v>57</v>
-      </c>
-      <c r="K15" s="18">
-        <f>H15*1.8</f>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L15" s="21">
-        <f>H15*2.1</f>
-        <v>79.8</v>
-      </c>
-      <c r="M15" s="15">
-        <v>25</v>
-      </c>
-      <c r="N15" s="18">
-        <f>M15*1.2</f>
-        <v>30</v>
-      </c>
-      <c r="O15" s="18">
-        <f>M15*1.5</f>
-        <v>37.5</v>
-      </c>
-      <c r="P15" s="18">
-        <f>M15*1.8</f>
-        <v>45</v>
-      </c>
-      <c r="Q15" s="21">
-        <f>M15*2.1</f>
-        <v>52.5</v>
-      </c>
-      <c r="R15" s="122"/>
-      <c r="S15" s="116">
-        <v>1.2</v>
-      </c>
-      <c r="T15" s="117">
-        <v>1</v>
-      </c>
-      <c r="U15" s="118"/>
-      <c r="V15" s="153"/>
-      <c r="W15" s="122"/>
-      <c r="X15" s="122"/>
-      <c r="Y15" s="122"/>
-      <c r="Z15" s="122"/>
-      <c r="AA15" s="122"/>
-      <c r="AB15" s="122"/>
-      <c r="AC15" s="122"/>
-      <c r="AD15" s="122"/>
-      <c r="AE15" s="122"/>
-      <c r="AF15" s="122"/>
-      <c r="AG15" s="122"/>
-      <c r="AH15" s="122"/>
-      <c r="AI15" s="122"/>
-      <c r="AJ15" s="122"/>
-      <c r="AK15" s="122"/>
-      <c r="AL15" s="122"/>
-      <c r="AM15" s="122"/>
-      <c r="AN15" s="122"/>
-      <c r="AO15" s="122"/>
-      <c r="AP15" s="122"/>
-      <c r="AQ15" s="122"/>
-    </row>
-    <row r="16" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="D16" s="16">
-        <v>1.2</v>
-      </c>
-      <c r="E16" s="16">
-        <v>1.2</v>
-      </c>
-      <c r="F16" s="16">
-        <v>1.2</v>
-      </c>
-      <c r="G16" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="H16" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="I16" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="J16" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="K16" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="L16" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="M16" s="15">
-        <v>1.3</v>
-      </c>
-      <c r="N16" s="16">
-        <v>1.3</v>
-      </c>
-      <c r="O16" s="16">
-        <v>1.3</v>
-      </c>
-      <c r="P16" s="16">
-        <v>1.3</v>
-      </c>
-      <c r="Q16" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="R16" s="122"/>
-      <c r="S16" s="119">
-        <v>1</v>
-      </c>
-      <c r="T16" s="120"/>
-      <c r="U16" s="121"/>
-      <c r="V16" s="122"/>
-      <c r="W16" s="122"/>
-      <c r="X16" s="122"/>
-      <c r="Y16" s="122"/>
-      <c r="Z16" s="122"/>
-      <c r="AA16" s="122"/>
-      <c r="AB16" s="122"/>
-      <c r="AC16" s="122"/>
-      <c r="AD16" s="122"/>
-      <c r="AE16" s="122"/>
-      <c r="AF16" s="122"/>
-      <c r="AG16" s="122"/>
-      <c r="AH16" s="122"/>
-      <c r="AI16" s="122"/>
-      <c r="AJ16" s="122"/>
-      <c r="AK16" s="122"/>
-      <c r="AL16" s="122"/>
-      <c r="AM16" s="122"/>
-      <c r="AN16" s="122"/>
-      <c r="AO16" s="122"/>
-      <c r="AP16" s="122"/>
-      <c r="AQ16" s="122"/>
-    </row>
-    <row r="17" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="19">
-        <f>C15*C16</f>
-        <v>30</v>
-      </c>
-      <c r="D17" s="20">
-        <f t="shared" ref="D17:G17" si="5">D15*D16</f>
-        <v>36</v>
-      </c>
-      <c r="E17" s="20">
-        <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="F17" s="20">
-        <f t="shared" si="5"/>
-        <v>54</v>
-      </c>
-      <c r="G17" s="22">
-        <f t="shared" si="5"/>
-        <v>63</v>
-      </c>
-      <c r="H17" s="19">
-        <f>H15*H16</f>
-        <v>30.400000000000002</v>
-      </c>
-      <c r="I17" s="20">
-        <f t="shared" ref="I17:L17" si="6">I15*I16</f>
-        <v>36.480000000000004</v>
-      </c>
-      <c r="J17" s="20">
-        <f t="shared" si="6"/>
-        <v>45.6</v>
-      </c>
-      <c r="K17" s="20">
-        <f t="shared" si="6"/>
-        <v>54.720000000000006</v>
-      </c>
-      <c r="L17" s="22">
-        <f t="shared" si="6"/>
-        <v>63.84</v>
-      </c>
-      <c r="M17" s="19">
-        <f>M15*M16</f>
-        <v>32.5</v>
-      </c>
-      <c r="N17" s="23">
-        <f t="shared" ref="N17:Q17" si="7">N15*N16</f>
-        <v>39</v>
-      </c>
-      <c r="O17" s="23">
-        <f t="shared" si="7"/>
-        <v>48.75</v>
-      </c>
-      <c r="P17" s="23">
-        <f t="shared" si="7"/>
-        <v>58.5</v>
-      </c>
-      <c r="Q17" s="14">
-        <f t="shared" si="7"/>
-        <v>68.25</v>
-      </c>
-      <c r="R17" s="122"/>
-      <c r="S17" s="122"/>
-      <c r="T17" s="122"/>
-      <c r="U17" s="122"/>
-      <c r="V17" s="122"/>
-      <c r="W17" s="122"/>
-      <c r="X17" s="122"/>
-      <c r="Y17" s="122"/>
-      <c r="Z17" s="122"/>
-      <c r="AA17" s="122"/>
-      <c r="AB17" s="122"/>
-      <c r="AC17" s="122"/>
-      <c r="AD17" s="122"/>
-      <c r="AE17" s="122"/>
-      <c r="AF17" s="122"/>
-      <c r="AG17" s="122"/>
-      <c r="AH17" s="122"/>
-      <c r="AI17" s="122"/>
-      <c r="AJ17" s="122"/>
-      <c r="AK17" s="122"/>
-      <c r="AL17" s="122"/>
-      <c r="AM17" s="122"/>
-      <c r="AN17" s="122"/>
-      <c r="AO17" s="122"/>
-      <c r="AP17" s="122"/>
-      <c r="AQ17" s="122"/>
-    </row>
-    <row r="18" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="147" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="147" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="148"/>
-      <c r="J18" s="148"/>
-      <c r="K18" s="148"/>
-      <c r="L18" s="149"/>
-      <c r="M18" s="147" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" s="148"/>
-      <c r="O18" s="148"/>
-      <c r="P18" s="148"/>
-      <c r="Q18" s="149"/>
-      <c r="R18" s="122"/>
-      <c r="S18" s="122"/>
-      <c r="T18" s="122"/>
-      <c r="U18" s="122"/>
-      <c r="V18" s="122"/>
-      <c r="W18" s="122"/>
-      <c r="X18" s="122"/>
-      <c r="Y18" s="122"/>
-      <c r="Z18" s="122"/>
-      <c r="AA18" s="122"/>
-      <c r="AB18" s="122"/>
-      <c r="AC18" s="122"/>
-      <c r="AD18" s="122"/>
-      <c r="AE18" s="122"/>
-      <c r="AF18" s="122"/>
-      <c r="AG18" s="122"/>
-      <c r="AH18" s="122"/>
-      <c r="AI18" s="122"/>
-      <c r="AJ18" s="122"/>
-      <c r="AK18" s="122"/>
-      <c r="AL18" s="122"/>
-      <c r="AM18" s="122"/>
-      <c r="AN18" s="122"/>
-      <c r="AO18" s="122"/>
-      <c r="AP18" s="122"/>
-      <c r="AQ18" s="122"/>
-    </row>
-    <row r="19" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="150" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="151"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="150" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="151"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="150" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" s="151"/>
-      <c r="O19" s="151"/>
-      <c r="P19" s="151"/>
-      <c r="Q19" s="152"/>
-      <c r="R19" s="122"/>
-      <c r="S19" s="122"/>
-      <c r="T19" s="122"/>
-      <c r="U19" s="122"/>
-      <c r="V19" s="122"/>
-      <c r="W19" s="122"/>
-      <c r="X19" s="122"/>
-      <c r="Y19" s="122"/>
-      <c r="Z19" s="122"/>
-      <c r="AA19" s="122"/>
-      <c r="AB19" s="122"/>
-      <c r="AC19" s="122"/>
-      <c r="AD19" s="122"/>
-      <c r="AE19" s="122"/>
-      <c r="AF19" s="122"/>
-      <c r="AG19" s="122"/>
-      <c r="AH19" s="122"/>
-      <c r="AI19" s="122"/>
-      <c r="AJ19" s="122"/>
-      <c r="AK19" s="122"/>
-      <c r="AL19" s="122"/>
-      <c r="AM19" s="122"/>
-      <c r="AN19" s="122"/>
-      <c r="AO19" s="122"/>
-      <c r="AP19" s="122"/>
-      <c r="AQ19" s="122"/>
-    </row>
-    <row r="20" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="B20" s="122"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="122"/>
-      <c r="N20" s="122"/>
-      <c r="O20" s="122"/>
-      <c r="P20" s="122"/>
-      <c r="Q20" s="122"/>
-      <c r="R20" s="122"/>
-      <c r="S20" s="122"/>
-      <c r="T20" s="122"/>
-      <c r="U20" s="122"/>
-      <c r="V20" s="122"/>
-      <c r="W20" s="122"/>
-      <c r="X20" s="122"/>
-      <c r="Y20" s="122"/>
-      <c r="Z20" s="122"/>
-      <c r="AA20" s="122"/>
-      <c r="AB20" s="122"/>
-      <c r="AC20" s="122"/>
-      <c r="AD20" s="122"/>
-      <c r="AE20" s="122"/>
-      <c r="AF20" s="122"/>
-      <c r="AG20" s="122"/>
-      <c r="AH20" s="122"/>
-      <c r="AI20" s="122"/>
-      <c r="AJ20" s="122"/>
-      <c r="AK20" s="122"/>
-      <c r="AL20" s="122"/>
-      <c r="AM20" s="122"/>
-      <c r="AN20" s="122"/>
-      <c r="AO20" s="122"/>
-      <c r="AP20" s="122"/>
-      <c r="AQ20" s="122"/>
-    </row>
-    <row r="21" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="122"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="122"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="122"/>
-      <c r="O21" s="122"/>
-      <c r="P21" s="122"/>
-      <c r="Q21" s="122"/>
-      <c r="R21" s="122"/>
-      <c r="S21" s="122"/>
-      <c r="T21" s="122"/>
-      <c r="U21" s="122"/>
-      <c r="V21" s="122"/>
-      <c r="W21" s="122"/>
-      <c r="X21" s="122"/>
-      <c r="Y21" s="122"/>
-      <c r="Z21" s="122"/>
-      <c r="AA21" s="122"/>
-      <c r="AB21" s="122"/>
-      <c r="AC21" s="122"/>
-      <c r="AD21" s="122"/>
-      <c r="AE21" s="122"/>
-      <c r="AF21" s="122"/>
-      <c r="AG21" s="122"/>
-      <c r="AH21" s="122"/>
-      <c r="AI21" s="122"/>
-      <c r="AJ21" s="122"/>
-      <c r="AK21" s="122"/>
-      <c r="AL21" s="122"/>
-      <c r="AM21" s="122"/>
-      <c r="AN21" s="122"/>
-      <c r="AO21" s="122"/>
-      <c r="AP21" s="122"/>
-      <c r="AQ21" s="122"/>
-    </row>
-    <row r="22" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="144" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="144" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="145"/>
-      <c r="J22" s="145"/>
-      <c r="K22" s="145"/>
-      <c r="L22" s="146"/>
-      <c r="M22" s="144" t="s">
-        <v>19</v>
-      </c>
-      <c r="N22" s="145"/>
-      <c r="O22" s="145"/>
-      <c r="P22" s="145"/>
-      <c r="Q22" s="146"/>
-      <c r="R22" s="122"/>
-      <c r="S22" s="122"/>
-      <c r="T22" s="122"/>
-      <c r="U22" s="122"/>
-      <c r="V22" s="122"/>
-      <c r="W22" s="122"/>
-      <c r="X22" s="122"/>
-      <c r="Y22" s="122"/>
-      <c r="Z22" s="122"/>
-      <c r="AA22" s="122"/>
-      <c r="AB22" s="122"/>
-      <c r="AC22" s="122"/>
-      <c r="AD22" s="122"/>
-      <c r="AE22" s="122"/>
-      <c r="AF22" s="122"/>
-      <c r="AG22" s="122"/>
-      <c r="AH22" s="122"/>
-      <c r="AI22" s="122"/>
-      <c r="AJ22" s="122"/>
-      <c r="AK22" s="122"/>
-      <c r="AL22" s="122"/>
-      <c r="AM22" s="122"/>
-      <c r="AN22" s="122"/>
-      <c r="AO22" s="122"/>
-      <c r="AP22" s="122"/>
-      <c r="AQ22" s="122"/>
-    </row>
-    <row r="23" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="141" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="135" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="136"/>
-      <c r="J23" s="136"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="137"/>
-      <c r="M23" s="138" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="139"/>
-      <c r="O23" s="139"/>
-      <c r="P23" s="139"/>
-      <c r="Q23" s="140"/>
-      <c r="R23" s="122"/>
-      <c r="S23" s="122"/>
-      <c r="T23" s="122"/>
-      <c r="U23" s="122"/>
-      <c r="V23" s="122"/>
-      <c r="W23" s="122"/>
-      <c r="X23" s="122"/>
-      <c r="Y23" s="122"/>
-      <c r="Z23" s="122"/>
-      <c r="AA23" s="122"/>
-      <c r="AB23" s="122"/>
-      <c r="AC23" s="122"/>
-      <c r="AD23" s="122"/>
-      <c r="AE23" s="122"/>
-      <c r="AF23" s="122"/>
-      <c r="AG23" s="122"/>
-      <c r="AH23" s="122"/>
-      <c r="AI23" s="122"/>
-      <c r="AJ23" s="122"/>
-      <c r="AK23" s="122"/>
-      <c r="AL23" s="122"/>
-      <c r="AM23" s="122"/>
-      <c r="AN23" s="122"/>
-      <c r="AO23" s="122"/>
-      <c r="AP23" s="122"/>
-      <c r="AQ23" s="122"/>
-    </row>
-    <row r="24" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="17">
-        <v>180</v>
-      </c>
-      <c r="D24" s="18">
-        <f>C24*1.2</f>
-        <v>216</v>
-      </c>
-      <c r="E24" s="18">
-        <f>C24*1.5</f>
-        <v>270</v>
-      </c>
-      <c r="F24" s="18">
-        <f>C24*1.8</f>
-        <v>324</v>
-      </c>
-      <c r="G24" s="21">
-        <f>C24*2.1</f>
-        <v>378</v>
-      </c>
-      <c r="H24" s="17">
-        <v>65</v>
-      </c>
-      <c r="I24" s="18">
-        <f>H24*1.2</f>
-        <v>78</v>
-      </c>
-      <c r="J24" s="18">
-        <f>H24*1.5</f>
-        <v>97.5</v>
-      </c>
-      <c r="K24" s="18">
-        <f>H24*1.8</f>
-        <v>117</v>
-      </c>
-      <c r="L24" s="21">
-        <f>H24*2.1</f>
-        <v>136.5</v>
-      </c>
-      <c r="M24" s="17">
-        <v>90</v>
-      </c>
-      <c r="N24" s="18">
-        <f>M24*1.2</f>
-        <v>108</v>
-      </c>
-      <c r="O24" s="18">
-        <f>M24*1.5</f>
-        <v>135</v>
-      </c>
-      <c r="P24" s="18">
-        <f>M24*1.8</f>
-        <v>162</v>
-      </c>
-      <c r="Q24" s="21">
-        <f>M24*2.1</f>
-        <v>189</v>
-      </c>
-      <c r="R24" s="122"/>
-      <c r="S24" s="122"/>
-      <c r="T24" s="122"/>
-      <c r="U24" s="122"/>
-      <c r="V24" s="122"/>
-      <c r="W24" s="122"/>
-      <c r="X24" s="122"/>
-      <c r="Y24" s="122"/>
-      <c r="Z24" s="122"/>
-      <c r="AA24" s="122"/>
-      <c r="AB24" s="122"/>
-      <c r="AC24" s="122"/>
-      <c r="AD24" s="122"/>
-      <c r="AE24" s="122"/>
-      <c r="AF24" s="122"/>
-      <c r="AG24" s="122"/>
-      <c r="AH24" s="122"/>
-      <c r="AI24" s="122"/>
-      <c r="AJ24" s="122"/>
-      <c r="AK24" s="122"/>
-      <c r="AL24" s="122"/>
-      <c r="AM24" s="122"/>
-      <c r="AN24" s="122"/>
-      <c r="AO24" s="122"/>
-      <c r="AP24" s="122"/>
-      <c r="AQ24" s="122"/>
-    </row>
-    <row r="25" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="B25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="15">
-        <v>36</v>
-      </c>
-      <c r="D25" s="18">
-        <f>C25*1.2</f>
-        <v>43.199999999999996</v>
-      </c>
-      <c r="E25" s="18">
-        <f>C25*1.5</f>
-        <v>54</v>
-      </c>
-      <c r="F25" s="18">
-        <f>C25*1.8</f>
-        <v>64.8</v>
-      </c>
-      <c r="G25" s="21">
-        <f>C25*2.1</f>
-        <v>75.600000000000009</v>
-      </c>
-      <c r="H25" s="17">
-        <v>66</v>
-      </c>
-      <c r="I25" s="18">
-        <f>H25*1.2</f>
-        <v>79.2</v>
-      </c>
-      <c r="J25" s="18">
-        <f>H25*1.5</f>
-        <v>99</v>
-      </c>
-      <c r="K25" s="18">
-        <f>H25*1.8</f>
-        <v>118.8</v>
-      </c>
-      <c r="L25" s="21">
-        <f>H25*2.1</f>
-        <v>138.6</v>
-      </c>
-      <c r="M25" s="15">
-        <v>20</v>
-      </c>
-      <c r="N25" s="18">
-        <f>M25*1.2</f>
-        <v>24</v>
-      </c>
-      <c r="O25" s="18">
-        <f>M25*1.5</f>
-        <v>30</v>
-      </c>
-      <c r="P25" s="18">
-        <f>M25*1.8</f>
-        <v>36</v>
-      </c>
-      <c r="Q25" s="21">
-        <f>M25*2.1</f>
-        <v>42</v>
-      </c>
-      <c r="R25" s="122"/>
-      <c r="S25" s="122"/>
-      <c r="T25" s="122"/>
-      <c r="U25" s="122"/>
-      <c r="V25" s="122"/>
-      <c r="W25" s="122"/>
-      <c r="X25" s="122"/>
-      <c r="Y25" s="122"/>
-      <c r="Z25" s="122"/>
-      <c r="AA25" s="122"/>
-      <c r="AB25" s="122"/>
-      <c r="AC25" s="122"/>
-      <c r="AD25" s="122"/>
-      <c r="AE25" s="122"/>
-      <c r="AF25" s="122"/>
-      <c r="AG25" s="122"/>
-      <c r="AH25" s="122"/>
-      <c r="AI25" s="122"/>
-      <c r="AJ25" s="122"/>
-      <c r="AK25" s="122"/>
-      <c r="AL25" s="122"/>
-      <c r="AM25" s="122"/>
-      <c r="AN25" s="122"/>
-      <c r="AO25" s="122"/>
-      <c r="AP25" s="122"/>
-      <c r="AQ25" s="122"/>
-    </row>
-    <row r="26" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="15">
-        <v>0.7</v>
-      </c>
-      <c r="D26" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="E26" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="F26" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="G26" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="H26" s="15">
-        <v>1</v>
-      </c>
-      <c r="I26" s="16">
-        <v>1</v>
-      </c>
-      <c r="J26" s="16">
-        <v>1</v>
-      </c>
-      <c r="K26" s="16">
-        <v>1</v>
-      </c>
-      <c r="L26" s="10">
-        <v>1</v>
-      </c>
-      <c r="M26" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N26" s="16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O26" s="16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P26" s="16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q26" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R26" s="122"/>
-      <c r="S26" s="122"/>
-      <c r="T26" s="122"/>
-      <c r="U26" s="122"/>
-      <c r="V26" s="122"/>
-      <c r="W26" s="122"/>
-      <c r="X26" s="122"/>
-      <c r="Y26" s="122"/>
-      <c r="Z26" s="122"/>
-      <c r="AA26" s="122"/>
-      <c r="AB26" s="122"/>
-      <c r="AC26" s="122"/>
-      <c r="AD26" s="122"/>
-      <c r="AE26" s="122"/>
-      <c r="AF26" s="122"/>
-      <c r="AG26" s="122"/>
-      <c r="AH26" s="122"/>
-      <c r="AI26" s="122"/>
-      <c r="AJ26" s="122"/>
-      <c r="AK26" s="122"/>
-      <c r="AL26" s="122"/>
-      <c r="AM26" s="122"/>
-      <c r="AN26" s="122"/>
-      <c r="AO26" s="122"/>
-      <c r="AP26" s="122"/>
-      <c r="AQ26" s="122"/>
-    </row>
-    <row r="27" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="19">
-        <f>C25*C26</f>
-        <v>25.2</v>
-      </c>
-      <c r="D27" s="20">
-        <f t="shared" ref="D27:G27" si="8">D25*D26</f>
-        <v>30.239999999999995</v>
-      </c>
-      <c r="E27" s="20">
-        <f t="shared" si="8"/>
-        <v>37.799999999999997</v>
-      </c>
-      <c r="F27" s="20">
-        <f t="shared" si="8"/>
-        <v>45.359999999999992</v>
-      </c>
-      <c r="G27" s="14">
-        <f t="shared" si="8"/>
-        <v>52.92</v>
-      </c>
-      <c r="H27" s="19">
-        <f>H25*H26</f>
-        <v>66</v>
-      </c>
-      <c r="I27" s="20">
-        <f t="shared" ref="I27:L27" si="9">I25*I26</f>
-        <v>79.2</v>
-      </c>
-      <c r="J27" s="20">
-        <f t="shared" si="9"/>
-        <v>99</v>
-      </c>
-      <c r="K27" s="20">
-        <f t="shared" si="9"/>
-        <v>118.8</v>
-      </c>
-      <c r="L27" s="14">
-        <f t="shared" si="9"/>
-        <v>138.6</v>
-      </c>
-      <c r="M27" s="19">
-        <f>M25*M26</f>
-        <v>22</v>
-      </c>
-      <c r="N27" s="20">
-        <f t="shared" ref="N27:Q27" si="10">N25*N26</f>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="O27" s="20">
-        <f t="shared" si="10"/>
-        <v>33</v>
-      </c>
-      <c r="P27" s="20">
-        <f t="shared" si="10"/>
-        <v>39.6</v>
-      </c>
-      <c r="Q27" s="14">
-        <f t="shared" si="10"/>
-        <v>46.2</v>
-      </c>
-      <c r="R27" s="122"/>
-      <c r="S27" s="122"/>
-      <c r="T27" s="122"/>
-      <c r="U27" s="122"/>
-      <c r="V27" s="122"/>
-      <c r="W27" s="122"/>
-      <c r="X27" s="122"/>
-      <c r="Y27" s="122"/>
-      <c r="Z27" s="122"/>
-      <c r="AA27" s="122"/>
-      <c r="AB27" s="122"/>
-      <c r="AC27" s="122"/>
-      <c r="AD27" s="122"/>
-      <c r="AE27" s="122"/>
-      <c r="AF27" s="122"/>
-      <c r="AG27" s="122"/>
-      <c r="AH27" s="122"/>
-      <c r="AI27" s="122"/>
-      <c r="AJ27" s="122"/>
-      <c r="AK27" s="122"/>
-      <c r="AL27" s="122"/>
-      <c r="AM27" s="122"/>
-      <c r="AN27" s="122"/>
-      <c r="AO27" s="122"/>
-      <c r="AP27" s="122"/>
-      <c r="AQ27" s="122"/>
-    </row>
-    <row r="28" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="147" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="148"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="147" t="s">
-        <v>35</v>
-      </c>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="148"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="147" t="s">
-        <v>33</v>
-      </c>
-      <c r="N28" s="148"/>
-      <c r="O28" s="148"/>
-      <c r="P28" s="148"/>
-      <c r="Q28" s="149"/>
-      <c r="R28" s="122"/>
-      <c r="S28" s="122"/>
-      <c r="T28" s="122"/>
-      <c r="U28" s="122"/>
-      <c r="V28" s="122"/>
-      <c r="W28" s="122"/>
-      <c r="X28" s="122"/>
-      <c r="Y28" s="122"/>
-      <c r="Z28" s="122"/>
-      <c r="AA28" s="122"/>
-      <c r="AB28" s="122"/>
-      <c r="AC28" s="122"/>
-      <c r="AD28" s="122"/>
-      <c r="AE28" s="122"/>
-      <c r="AF28" s="122"/>
-      <c r="AG28" s="122"/>
-      <c r="AH28" s="122"/>
-      <c r="AI28" s="122"/>
-      <c r="AJ28" s="122"/>
-      <c r="AK28" s="122"/>
-      <c r="AL28" s="122"/>
-      <c r="AM28" s="122"/>
-      <c r="AN28" s="122"/>
-      <c r="AO28" s="122"/>
-      <c r="AP28" s="122"/>
-      <c r="AQ28" s="122"/>
-    </row>
-    <row r="29" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="150" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="150" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="152"/>
-      <c r="M29" s="150" t="s">
-        <v>115</v>
-      </c>
-      <c r="N29" s="151"/>
-      <c r="O29" s="151"/>
-      <c r="P29" s="151"/>
-      <c r="Q29" s="152"/>
-      <c r="R29" s="122"/>
-      <c r="S29" s="122"/>
-      <c r="T29" s="122"/>
-      <c r="U29" s="122"/>
-      <c r="V29" s="122"/>
-      <c r="W29" s="122"/>
-      <c r="X29" s="122"/>
-      <c r="Y29" s="122"/>
-      <c r="Z29" s="122"/>
-      <c r="AA29" s="122"/>
-      <c r="AB29" s="122"/>
-      <c r="AC29" s="122"/>
-      <c r="AD29" s="122"/>
-      <c r="AE29" s="122"/>
-      <c r="AF29" s="122"/>
-      <c r="AG29" s="122"/>
-      <c r="AH29" s="122"/>
-      <c r="AI29" s="122"/>
-      <c r="AJ29" s="122"/>
-      <c r="AK29" s="122"/>
-      <c r="AL29" s="122"/>
-      <c r="AM29" s="122"/>
-      <c r="AN29" s="122"/>
-      <c r="AO29" s="122"/>
-      <c r="AP29" s="122"/>
-      <c r="AQ29" s="122"/>
-    </row>
-    <row r="30" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="B30" s="122"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="122"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="122"/>
-      <c r="K30" s="122"/>
-      <c r="L30" s="122"/>
-      <c r="M30" s="122"/>
-      <c r="N30" s="122"/>
-      <c r="O30" s="122"/>
-      <c r="P30" s="122"/>
-      <c r="Q30" s="122"/>
-      <c r="R30" s="122"/>
-      <c r="S30" s="122"/>
-      <c r="T30" s="122"/>
-      <c r="U30" s="122"/>
-      <c r="V30" s="122"/>
-      <c r="W30" s="122"/>
-      <c r="X30" s="122"/>
-      <c r="Y30" s="122"/>
-      <c r="Z30" s="122"/>
-      <c r="AA30" s="122"/>
-      <c r="AB30" s="122"/>
-      <c r="AC30" s="122"/>
-      <c r="AD30" s="122"/>
-      <c r="AE30" s="122"/>
-      <c r="AF30" s="122"/>
-      <c r="AG30" s="122"/>
-      <c r="AH30" s="122"/>
-      <c r="AI30" s="122"/>
-      <c r="AJ30" s="122"/>
-      <c r="AK30" s="122"/>
-      <c r="AL30" s="122"/>
-      <c r="AM30" s="122"/>
-      <c r="AN30" s="122"/>
-      <c r="AO30" s="122"/>
-      <c r="AP30" s="122"/>
-      <c r="AQ30" s="122"/>
-    </row>
-    <row r="31" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="122"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="122"/>
-      <c r="K31" s="122"/>
-      <c r="L31" s="122"/>
-      <c r="M31" s="122"/>
-      <c r="N31" s="122"/>
-      <c r="O31" s="122"/>
-      <c r="P31" s="122"/>
-      <c r="Q31" s="122"/>
-      <c r="R31" s="122"/>
-      <c r="S31" s="122"/>
-      <c r="T31" s="122"/>
-      <c r="U31" s="122"/>
-      <c r="V31" s="122"/>
-      <c r="W31" s="122"/>
-      <c r="X31" s="122"/>
-      <c r="Y31" s="122"/>
-      <c r="Z31" s="122"/>
-      <c r="AA31" s="122"/>
-      <c r="AB31" s="122"/>
-      <c r="AC31" s="122"/>
-      <c r="AD31" s="122"/>
-      <c r="AE31" s="122"/>
-      <c r="AF31" s="122"/>
-      <c r="AG31" s="122"/>
-      <c r="AH31" s="122"/>
-      <c r="AI31" s="122"/>
-      <c r="AJ31" s="122"/>
-      <c r="AK31" s="122"/>
-      <c r="AL31" s="122"/>
-      <c r="AM31" s="122"/>
-      <c r="AN31" s="122"/>
-      <c r="AO31" s="122"/>
-      <c r="AP31" s="122"/>
-      <c r="AQ31" s="122"/>
-    </row>
-    <row r="32" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="155" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="155" t="s">
-        <v>43</v>
-      </c>
-      <c r="I32" s="156"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="156"/>
-      <c r="L32" s="157"/>
-      <c r="M32" s="122"/>
-      <c r="N32" s="122"/>
-      <c r="O32" s="122"/>
-      <c r="P32" s="122"/>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="122"/>
-      <c r="S32" s="122"/>
-      <c r="T32" s="122"/>
-      <c r="U32" s="122"/>
-      <c r="V32" s="122"/>
-      <c r="W32" s="122"/>
-      <c r="X32" s="122"/>
-      <c r="Y32" s="122"/>
-      <c r="Z32" s="122"/>
-      <c r="AA32" s="122"/>
-      <c r="AB32" s="122"/>
-      <c r="AC32" s="122"/>
-      <c r="AD32" s="122"/>
-      <c r="AE32" s="122"/>
-      <c r="AF32" s="122"/>
-      <c r="AG32" s="122"/>
-      <c r="AH32" s="122"/>
-      <c r="AI32" s="122"/>
-      <c r="AJ32" s="122"/>
-      <c r="AK32" s="122"/>
-      <c r="AL32" s="122"/>
-      <c r="AM32" s="122"/>
-      <c r="AN32" s="122"/>
-      <c r="AO32" s="122"/>
-      <c r="AP32" s="122"/>
-      <c r="AQ32" s="122"/>
-    </row>
-    <row r="33" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="141" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="142"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="143"/>
-      <c r="H33" s="135" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="136"/>
-      <c r="J33" s="136"/>
-      <c r="K33" s="136"/>
-      <c r="L33" s="137"/>
-      <c r="M33" s="122"/>
-      <c r="N33" s="122"/>
-      <c r="O33" s="122"/>
-      <c r="P33" s="122"/>
-      <c r="Q33" s="122"/>
-      <c r="R33" s="122"/>
-      <c r="S33" s="122"/>
-      <c r="T33" s="122"/>
-      <c r="U33" s="122"/>
-      <c r="V33" s="122"/>
-      <c r="W33" s="122"/>
-      <c r="X33" s="122"/>
-      <c r="Y33" s="122"/>
-      <c r="Z33" s="122"/>
-      <c r="AA33" s="122"/>
-      <c r="AB33" s="122"/>
-      <c r="AC33" s="122"/>
-      <c r="AD33" s="122"/>
-      <c r="AE33" s="122"/>
-      <c r="AF33" s="122"/>
-      <c r="AG33" s="122"/>
-      <c r="AH33" s="122"/>
-      <c r="AI33" s="122"/>
-      <c r="AJ33" s="122"/>
-      <c r="AK33" s="122"/>
-      <c r="AL33" s="122"/>
-      <c r="AM33" s="122"/>
-      <c r="AN33" s="122"/>
-      <c r="AO33" s="122"/>
-      <c r="AP33" s="122"/>
-      <c r="AQ33" s="122"/>
-    </row>
-    <row r="34" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="17">
-        <v>220</v>
-      </c>
-      <c r="D34" s="18">
-        <f>C34*1.2</f>
-        <v>264</v>
-      </c>
-      <c r="E34" s="18">
-        <f>C34*1.5</f>
-        <v>330</v>
-      </c>
-      <c r="F34" s="18">
-        <f>C34*1.8</f>
-        <v>396</v>
-      </c>
-      <c r="G34" s="21">
-        <f>C34*2.1</f>
-        <v>462</v>
-      </c>
-      <c r="H34" s="17">
-        <v>40</v>
-      </c>
-      <c r="I34" s="18">
-        <f>H34*1.2</f>
-        <v>48</v>
-      </c>
-      <c r="J34" s="18">
-        <f>H34*1.5</f>
-        <v>60</v>
-      </c>
-      <c r="K34" s="18">
-        <f>H34*1.8</f>
-        <v>72</v>
-      </c>
-      <c r="L34" s="21">
-        <f>H34*2.1</f>
-        <v>84</v>
-      </c>
-      <c r="M34" s="122"/>
-      <c r="N34" s="122"/>
-      <c r="O34" s="122"/>
-      <c r="P34" s="122"/>
-      <c r="Q34" s="122"/>
-      <c r="R34" s="122"/>
-      <c r="S34" s="122"/>
-      <c r="T34" s="122"/>
-      <c r="U34" s="122"/>
-      <c r="V34" s="122"/>
-      <c r="W34" s="122"/>
-      <c r="X34" s="122"/>
-      <c r="Y34" s="122"/>
-      <c r="Z34" s="122"/>
-      <c r="AA34" s="122"/>
-      <c r="AB34" s="122"/>
-      <c r="AC34" s="122"/>
-      <c r="AD34" s="122"/>
-      <c r="AE34" s="122"/>
-      <c r="AF34" s="122"/>
-      <c r="AG34" s="122"/>
-      <c r="AH34" s="122"/>
-      <c r="AI34" s="122"/>
-      <c r="AJ34" s="122"/>
-      <c r="AK34" s="122"/>
-      <c r="AL34" s="122"/>
-      <c r="AM34" s="122"/>
-      <c r="AN34" s="122"/>
-      <c r="AO34" s="122"/>
-      <c r="AP34" s="122"/>
-      <c r="AQ34" s="122"/>
-    </row>
-    <row r="35" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="15">
-        <v>28</v>
-      </c>
-      <c r="D35" s="18">
-        <f>C35*1.2</f>
-        <v>33.6</v>
-      </c>
-      <c r="E35" s="18">
-        <f>C35*1.5</f>
-        <v>42</v>
-      </c>
-      <c r="F35" s="18">
-        <f>C35*1.8</f>
-        <v>50.4</v>
-      </c>
-      <c r="G35" s="21">
-        <f>C35*2.1</f>
-        <v>58.800000000000004</v>
-      </c>
-      <c r="H35" s="15">
-        <v>5</v>
-      </c>
-      <c r="I35" s="18">
-        <f>H35*1.2</f>
-        <v>6</v>
-      </c>
-      <c r="J35" s="18">
-        <f>H35*1.5</f>
-        <v>7.5</v>
-      </c>
-      <c r="K35" s="18">
-        <f>H35*1.8</f>
-        <v>9</v>
-      </c>
-      <c r="L35" s="21">
-        <f>H35*2.1</f>
-        <v>10.5</v>
-      </c>
-      <c r="M35" s="122"/>
-      <c r="N35" s="122"/>
-      <c r="O35" s="122"/>
-      <c r="P35" s="122"/>
-      <c r="Q35" s="122"/>
-      <c r="R35" s="122"/>
-      <c r="S35" s="122"/>
-      <c r="T35" s="122"/>
-      <c r="U35" s="122"/>
-      <c r="V35" s="122"/>
-      <c r="W35" s="122"/>
-      <c r="X35" s="122"/>
-      <c r="Y35" s="122"/>
-      <c r="Z35" s="122"/>
-      <c r="AA35" s="122"/>
-      <c r="AB35" s="122"/>
-      <c r="AC35" s="122"/>
-      <c r="AD35" s="122"/>
-      <c r="AE35" s="122"/>
-      <c r="AF35" s="122"/>
-      <c r="AG35" s="122"/>
-      <c r="AH35" s="122"/>
-      <c r="AI35" s="122"/>
-      <c r="AJ35" s="122"/>
-      <c r="AK35" s="122"/>
-      <c r="AL35" s="122"/>
-      <c r="AM35" s="122"/>
-      <c r="AN35" s="122"/>
-      <c r="AO35" s="122"/>
-      <c r="AP35" s="122"/>
-      <c r="AQ35" s="122"/>
-    </row>
-    <row r="36" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="D36" s="16">
-        <v>1.2</v>
-      </c>
-      <c r="E36" s="16">
-        <v>1.2</v>
-      </c>
-      <c r="F36" s="16">
-        <v>1.2</v>
-      </c>
-      <c r="G36" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="H36" s="15">
-        <v>1</v>
-      </c>
-      <c r="I36" s="16">
-        <v>1</v>
-      </c>
-      <c r="J36" s="16">
-        <v>1</v>
-      </c>
-      <c r="K36" s="16">
-        <v>1</v>
-      </c>
-      <c r="L36" s="10">
-        <v>1</v>
-      </c>
-      <c r="M36" s="122"/>
-      <c r="N36" s="122"/>
-      <c r="O36" s="122"/>
-      <c r="P36" s="122"/>
-      <c r="Q36" s="122"/>
-      <c r="R36" s="122"/>
-      <c r="S36" s="122"/>
-      <c r="T36" s="122"/>
-      <c r="U36" s="122"/>
-      <c r="V36" s="122"/>
-      <c r="W36" s="122"/>
-      <c r="X36" s="122"/>
-      <c r="Y36" s="122"/>
-      <c r="Z36" s="122"/>
-      <c r="AA36" s="122"/>
-      <c r="AB36" s="122"/>
-      <c r="AC36" s="122"/>
-      <c r="AD36" s="122"/>
-      <c r="AE36" s="122"/>
-      <c r="AF36" s="122"/>
-      <c r="AG36" s="122"/>
-      <c r="AH36" s="122"/>
-      <c r="AI36" s="122"/>
-      <c r="AJ36" s="122"/>
-      <c r="AK36" s="122"/>
-      <c r="AL36" s="122"/>
-      <c r="AM36" s="122"/>
-      <c r="AN36" s="122"/>
-      <c r="AO36" s="122"/>
-      <c r="AP36" s="122"/>
-      <c r="AQ36" s="122"/>
-    </row>
-    <row r="37" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="19">
-        <f>C35*C36</f>
-        <v>33.6</v>
-      </c>
-      <c r="D37" s="20">
-        <f>D35*D36</f>
-        <v>40.32</v>
-      </c>
-      <c r="E37" s="20">
-        <f>E35*E36</f>
-        <v>50.4</v>
-      </c>
-      <c r="F37" s="20">
-        <f>F35*F36</f>
-        <v>60.48</v>
-      </c>
-      <c r="G37" s="22">
-        <f>G35*G36</f>
-        <v>70.56</v>
-      </c>
-      <c r="H37" s="19">
-        <f t="shared" ref="H37:L37" si="11">H35*H36</f>
-        <v>5</v>
-      </c>
-      <c r="I37" s="20">
-        <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="J37" s="20">
-        <f t="shared" si="11"/>
-        <v>7.5</v>
-      </c>
-      <c r="K37" s="20">
-        <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="L37" s="14">
-        <f t="shared" si="11"/>
-        <v>10.5</v>
-      </c>
-      <c r="M37" s="122"/>
-      <c r="N37" s="122"/>
-      <c r="O37" s="122"/>
-      <c r="P37" s="122"/>
-      <c r="Q37" s="122"/>
-      <c r="R37" s="122"/>
-      <c r="S37" s="122"/>
-      <c r="T37" s="122"/>
-      <c r="U37" s="122"/>
-      <c r="V37" s="122"/>
-      <c r="W37" s="122"/>
-      <c r="X37" s="122"/>
-      <c r="Y37" s="122"/>
-      <c r="Z37" s="122"/>
-      <c r="AA37" s="122"/>
-      <c r="AB37" s="122"/>
-      <c r="AC37" s="122"/>
-      <c r="AD37" s="122"/>
-      <c r="AE37" s="122"/>
-      <c r="AF37" s="122"/>
-      <c r="AG37" s="122"/>
-      <c r="AH37" s="122"/>
-      <c r="AI37" s="122"/>
-      <c r="AJ37" s="122"/>
-      <c r="AK37" s="122"/>
-      <c r="AL37" s="122"/>
-      <c r="AM37" s="122"/>
-      <c r="AN37" s="122"/>
-      <c r="AO37" s="122"/>
-      <c r="AP37" s="122"/>
-      <c r="AQ37" s="122"/>
-    </row>
-    <row r="38" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="147" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="148"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="147" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="148"/>
-      <c r="J38" s="148"/>
-      <c r="K38" s="148"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="122"/>
-      <c r="N38" s="122"/>
-      <c r="O38" s="122"/>
-      <c r="P38" s="122"/>
-      <c r="Q38" s="122"/>
-      <c r="R38" s="122"/>
-      <c r="S38" s="122"/>
-      <c r="T38" s="122"/>
-      <c r="U38" s="122"/>
-      <c r="V38" s="122"/>
-      <c r="W38" s="122"/>
-      <c r="X38" s="122"/>
-      <c r="Y38" s="122"/>
-      <c r="Z38" s="122"/>
-      <c r="AA38" s="122"/>
-      <c r="AB38" s="122"/>
-      <c r="AC38" s="122"/>
-      <c r="AD38" s="122"/>
-      <c r="AE38" s="122"/>
-      <c r="AF38" s="122"/>
-      <c r="AG38" s="122"/>
-      <c r="AH38" s="122"/>
-      <c r="AI38" s="122"/>
-      <c r="AJ38" s="122"/>
-      <c r="AK38" s="122"/>
-      <c r="AL38" s="122"/>
-      <c r="AM38" s="122"/>
-      <c r="AN38" s="122"/>
-      <c r="AO38" s="122"/>
-      <c r="AP38" s="122"/>
-      <c r="AQ38" s="122"/>
-    </row>
-    <row r="39" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="150" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="152"/>
-      <c r="H39" s="150" t="s">
-        <v>32</v>
-      </c>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="152"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="122"/>
-      <c r="S39" s="122"/>
-      <c r="T39" s="122"/>
-      <c r="U39" s="122"/>
-      <c r="V39" s="122"/>
-      <c r="W39" s="122"/>
-      <c r="X39" s="122"/>
-      <c r="Y39" s="122"/>
-      <c r="Z39" s="122"/>
-      <c r="AA39" s="122"/>
-      <c r="AB39" s="122"/>
-      <c r="AC39" s="122"/>
-      <c r="AD39" s="122"/>
-      <c r="AE39" s="122"/>
-      <c r="AF39" s="122"/>
-      <c r="AG39" s="122"/>
-      <c r="AH39" s="122"/>
-      <c r="AI39" s="122"/>
-      <c r="AJ39" s="122"/>
-      <c r="AK39" s="122"/>
-      <c r="AL39" s="122"/>
-      <c r="AM39" s="122"/>
-      <c r="AN39" s="122"/>
-      <c r="AO39" s="122"/>
-      <c r="AP39" s="122"/>
-      <c r="AQ39" s="122"/>
-    </row>
-  </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:V3"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E67363-7FC7-4BA4-8F5D-65854E98AD6E}">
   <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView topLeftCell="D49" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:C41"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7802,11 +5390,11 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="186" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
+      <c r="A2" s="164" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
       <c r="F2" s="36"/>
@@ -7816,24 +5404,24 @@
       <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="188"/>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
+      <c r="A3" s="166"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
       <c r="D3" s="38"/>
       <c r="E3" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="42" t="s">
         <v>44</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>48</v>
       </c>
       <c r="J3" s="43"/>
     </row>
@@ -7843,7 +5431,7 @@
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
       <c r="E4" s="46" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F4" s="30">
         <v>300</v>
@@ -7860,14 +5448,14 @@
       <c r="J4" s="43"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="196" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="196"/>
-      <c r="C5" s="196"/>
+      <c r="A5" s="174" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
       <c r="D5" s="38"/>
       <c r="E5" s="46" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F5" s="30">
         <v>15</v>
@@ -7884,12 +5472,12 @@
       <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="196"/>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
+      <c r="A6" s="174"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="174"/>
       <c r="D6" s="38"/>
       <c r="E6" s="46" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F6" s="30">
         <v>1.5</v>
@@ -7906,12 +5494,12 @@
       <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="196"/>
-      <c r="B7" s="196"/>
-      <c r="C7" s="196"/>
+      <c r="A7" s="174"/>
+      <c r="B7" s="174"/>
+      <c r="C7" s="174"/>
       <c r="D7" s="38"/>
       <c r="E7" s="46" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F7" s="30">
         <v>22.5</v>
@@ -7931,12 +5519,12 @@
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="45" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="48" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F8" s="49">
         <v>5</v>
@@ -7954,13 +5542,13 @@
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -7974,17 +5562,17 @@
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55"/>
       <c r="B10" s="56" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="58" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F10" s="59" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G10" s="60"/>
       <c r="H10" s="38"/>
@@ -8012,15 +5600,15 @@
       <c r="B12" s="63">
         <v>35</v>
       </c>
-      <c r="C12" s="194" t="s">
-        <v>58</v>
+      <c r="C12" s="172" t="s">
+        <v>54</v>
       </c>
       <c r="D12" s="38"/>
-      <c r="E12" s="192" t="s">
-        <v>56</v>
+      <c r="E12" s="170" t="s">
+        <v>52</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G12" s="64">
         <v>1</v>
@@ -8040,20 +5628,20 @@
       <c r="B13" s="66">
         <v>5</v>
       </c>
-      <c r="C13" s="195"/>
+      <c r="C13" s="173"/>
       <c r="D13" s="38"/>
-      <c r="E13" s="193"/>
+      <c r="E13" s="171"/>
       <c r="F13" s="67" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G13" s="68" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H13" s="68" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I13" s="68" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J13" s="43"/>
       <c r="L13" s="33"/>
@@ -8077,15 +5665,15 @@
       <c r="B15" s="72">
         <v>44</v>
       </c>
-      <c r="C15" s="194" t="s">
-        <v>14</v>
+      <c r="C15" s="172" t="s">
+        <v>12</v>
       </c>
       <c r="D15" s="38"/>
-      <c r="E15" s="178" t="s">
-        <v>62</v>
+      <c r="E15" s="168" t="s">
+        <v>58</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G15" s="64">
         <v>1</v>
@@ -8106,20 +5694,20 @@
       <c r="B16" s="74">
         <v>9</v>
       </c>
-      <c r="C16" s="195"/>
+      <c r="C16" s="173"/>
       <c r="D16" s="38"/>
-      <c r="E16" s="179"/>
+      <c r="E16" s="169"/>
       <c r="F16" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="68" t="s">
+      <c r="I16" s="75" t="s">
         <v>60</v>
-      </c>
-      <c r="H16" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="75" t="s">
-        <v>64</v>
       </c>
       <c r="J16" s="43"/>
     </row>
@@ -8142,15 +5730,15 @@
       <c r="B18" s="77">
         <v>68</v>
       </c>
-      <c r="C18" s="194" t="s">
-        <v>2</v>
+      <c r="C18" s="172" t="s">
+        <v>1</v>
       </c>
       <c r="D18" s="38"/>
-      <c r="E18" s="178" t="s">
-        <v>65</v>
+      <c r="E18" s="168" t="s">
+        <v>61</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G18" s="64">
         <v>1</v>
@@ -8171,20 +5759,20 @@
       <c r="B19" s="74">
         <v>29</v>
       </c>
-      <c r="C19" s="195"/>
+      <c r="C19" s="173"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="179"/>
+      <c r="E19" s="169"/>
       <c r="F19" s="67" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G19" s="78" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H19" s="78" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I19" s="78" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J19" s="43"/>
     </row>
@@ -8207,15 +5795,15 @@
       <c r="B21" s="72">
         <v>92</v>
       </c>
-      <c r="C21" s="194" t="s">
-        <v>1</v>
+      <c r="C21" s="172" t="s">
+        <v>0</v>
       </c>
       <c r="D21" s="38"/>
-      <c r="E21" s="178" t="s">
-        <v>69</v>
+      <c r="E21" s="168" t="s">
+        <v>65</v>
       </c>
       <c r="F21" s="64" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G21" s="81">
         <v>1</v>
@@ -8236,20 +5824,20 @@
       <c r="B22" s="74">
         <v>80</v>
       </c>
-      <c r="C22" s="195"/>
+      <c r="C22" s="173"/>
       <c r="D22" s="38"/>
-      <c r="E22" s="179"/>
+      <c r="E22" s="169"/>
       <c r="F22" s="67" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G22" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="78" t="s">
         <v>67</v>
-      </c>
-      <c r="H22" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="I22" s="78" t="s">
-        <v>71</v>
       </c>
       <c r="J22" s="43"/>
     </row>
@@ -8259,7 +5847,7 @@
       </c>
       <c r="B23" s="84"/>
       <c r="C23" s="33" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D23" s="76"/>
       <c r="E23" s="76"/>
@@ -8294,11 +5882,11 @@
       <c r="J25" s="38"/>
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="186" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="187"/>
-      <c r="C26" s="187"/>
+      <c r="A26" s="164" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="165"/>
+      <c r="C26" s="165"/>
       <c r="D26" s="36"/>
       <c r="E26" s="36"/>
       <c r="F26" s="36"/>
@@ -8315,27 +5903,27 @@
       <c r="K26" s="87"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="188"/>
-      <c r="B27" s="189"/>
-      <c r="C27" s="189"/>
+      <c r="A27" s="166"/>
+      <c r="B27" s="167"/>
+      <c r="C27" s="167"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="H27" s="40" t="s">
-        <v>48</v>
-      </c>
       <c r="I27" s="41" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J27" s="88" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K27" s="89"/>
       <c r="L27" s="33"/>
@@ -8346,7 +5934,7 @@
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
       <c r="E28" s="46" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F28" s="30">
         <v>370</v>
@@ -8369,14 +5957,14 @@
       <c r="K28" s="89"/>
     </row>
     <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="190" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" s="165"/>
-      <c r="C29" s="165"/>
+      <c r="A29" s="175" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="176"/>
+      <c r="C29" s="176"/>
       <c r="D29" s="38"/>
       <c r="E29" s="46" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F29" s="30">
         <v>17</v>
@@ -8399,15 +5987,15 @@
       <c r="K29" s="89"/>
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="191"/>
-      <c r="B30" s="165"/>
-      <c r="C30" s="165"/>
+      <c r="A30" s="177"/>
+      <c r="B30" s="176"/>
+      <c r="C30" s="176"/>
       <c r="D30" s="38"/>
       <c r="E30" s="46" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G30" s="31">
         <v>0.3</v>
@@ -8416,19 +6004,19 @@
       <c r="I30" s="31"/>
       <c r="J30" s="99"/>
       <c r="K30" s="89"/>
-      <c r="M30" s="138" t="s">
-        <v>72</v>
-      </c>
-      <c r="N30" s="139"/>
-      <c r="O30" s="140"/>
+      <c r="M30" s="161" t="s">
+        <v>68</v>
+      </c>
+      <c r="N30" s="162"/>
+      <c r="O30" s="163"/>
     </row>
     <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="191"/>
-      <c r="B31" s="165"/>
-      <c r="C31" s="165"/>
+      <c r="A31" s="177"/>
+      <c r="B31" s="176"/>
+      <c r="C31" s="176"/>
       <c r="D31" s="38"/>
       <c r="E31" s="46" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F31" s="30">
         <v>34</v>
@@ -8449,11 +6037,11 @@
         <v>18</v>
       </c>
       <c r="K31" s="89"/>
-      <c r="M31" s="164" t="s">
-        <v>181</v>
-      </c>
-      <c r="N31" s="171"/>
-      <c r="O31" s="172"/>
+      <c r="M31" s="184" t="s">
+        <v>176</v>
+      </c>
+      <c r="N31" s="185"/>
+      <c r="O31" s="186"/>
     </row>
     <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="90"/>
@@ -8461,7 +6049,7 @@
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
       <c r="E32" s="48" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F32" s="101">
         <v>11</v>
@@ -8473,19 +6061,19 @@
       <c r="I32" s="32"/>
       <c r="J32" s="102"/>
       <c r="K32" s="89"/>
-      <c r="M32" s="164"/>
-      <c r="N32" s="171"/>
-      <c r="O32" s="172"/>
+      <c r="M32" s="184"/>
+      <c r="N32" s="185"/>
+      <c r="O32" s="186"/>
     </row>
     <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B33" s="53" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C33" s="54" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
@@ -8495,9 +6083,9 @@
       <c r="I33" s="38"/>
       <c r="J33" s="38"/>
       <c r="K33" s="89"/>
-      <c r="M33" s="164"/>
-      <c r="N33" s="171"/>
-      <c r="O33" s="172"/>
+      <c r="M33" s="184"/>
+      <c r="N33" s="185"/>
+      <c r="O33" s="186"/>
     </row>
     <row r="34" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="91">
@@ -8506,15 +6094,15 @@
       <c r="B34" s="92">
         <v>140</v>
       </c>
-      <c r="C34" s="180" t="s">
-        <v>15</v>
+      <c r="C34" s="178" t="s">
+        <v>13</v>
       </c>
       <c r="D34" s="38"/>
-      <c r="E34" s="178" t="s">
-        <v>74</v>
+      <c r="E34" s="168" t="s">
+        <v>70</v>
       </c>
       <c r="F34" s="93" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G34" s="93">
         <v>1</v>
@@ -8529,34 +6117,34 @@
         <v>4</v>
       </c>
       <c r="K34" s="89"/>
-      <c r="M34" s="173"/>
-      <c r="N34" s="174"/>
-      <c r="O34" s="175"/>
+      <c r="M34" s="187"/>
+      <c r="N34" s="188"/>
+      <c r="O34" s="189"/>
     </row>
     <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="94">
         <v>80</v>
       </c>
       <c r="B35" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="181"/>
+        <v>114</v>
+      </c>
+      <c r="C35" s="179"/>
       <c r="D35" s="38"/>
-      <c r="E35" s="179"/>
+      <c r="E35" s="169"/>
       <c r="F35" s="67" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G35" s="103" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H35" s="68" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I35" s="68" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J35" s="68" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K35" s="89"/>
     </row>
@@ -8572,11 +6160,11 @@
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
       <c r="K36" s="89"/>
-      <c r="M36" s="138" t="s">
-        <v>131</v>
-      </c>
-      <c r="N36" s="139"/>
-      <c r="O36" s="140"/>
+      <c r="M36" s="161" t="s">
+        <v>126</v>
+      </c>
+      <c r="N36" s="162"/>
+      <c r="O36" s="163"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="91">
@@ -8585,15 +6173,15 @@
       <c r="B37" s="92">
         <v>166</v>
       </c>
-      <c r="C37" s="176" t="s">
-        <v>16</v>
+      <c r="C37" s="180" t="s">
+        <v>14</v>
       </c>
       <c r="D37" s="38"/>
-      <c r="E37" s="178" t="s">
-        <v>80</v>
+      <c r="E37" s="168" t="s">
+        <v>76</v>
       </c>
       <c r="F37" s="93" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G37" s="93">
         <v>1</v>
@@ -8608,45 +6196,45 @@
         <v>4</v>
       </c>
       <c r="K37" s="89"/>
-      <c r="M37" s="164" t="s">
-        <v>182</v>
-      </c>
-      <c r="N37" s="165"/>
-      <c r="O37" s="166"/>
+      <c r="M37" s="184" t="s">
+        <v>177</v>
+      </c>
+      <c r="N37" s="176"/>
+      <c r="O37" s="192"/>
     </row>
     <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B38" s="96" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="177"/>
+        <v>113</v>
+      </c>
+      <c r="C38" s="181"/>
       <c r="D38" s="38"/>
-      <c r="E38" s="179"/>
+      <c r="E38" s="169"/>
       <c r="F38" s="67" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G38" s="103" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H38" s="68" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I38" s="68" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J38" s="68" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K38" s="89"/>
-      <c r="M38" s="167"/>
-      <c r="N38" s="165"/>
-      <c r="O38" s="166"/>
+      <c r="M38" s="193"/>
+      <c r="N38" s="176"/>
+      <c r="O38" s="192"/>
     </row>
     <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B39" s="45"/>
       <c r="C39" s="38"/>
@@ -8658,26 +6246,26 @@
       <c r="I39" s="38"/>
       <c r="J39" s="38"/>
       <c r="K39" s="89"/>
-      <c r="M39" s="167"/>
-      <c r="N39" s="165"/>
-      <c r="O39" s="166"/>
+      <c r="M39" s="193"/>
+      <c r="N39" s="176"/>
+      <c r="O39" s="192"/>
     </row>
     <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="91">
         <v>80</v>
       </c>
       <c r="B40" s="97" t="s">
-        <v>148</v>
-      </c>
-      <c r="C40" s="180" t="s">
-        <v>146</v>
+        <v>143</v>
+      </c>
+      <c r="C40" s="178" t="s">
+        <v>141</v>
       </c>
       <c r="D40" s="38"/>
-      <c r="E40" s="178" t="s">
-        <v>81</v>
+      <c r="E40" s="168" t="s">
+        <v>77</v>
       </c>
       <c r="F40" s="93" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G40" s="93">
         <v>1</v>
@@ -8685,47 +6273,47 @@
       <c r="H40" s="93">
         <v>2</v>
       </c>
-      <c r="I40" s="182">
+      <c r="I40" s="190">
         <v>3</v>
       </c>
-      <c r="J40" s="183"/>
+      <c r="J40" s="191"/>
       <c r="K40" s="89"/>
-      <c r="M40" s="168"/>
-      <c r="N40" s="169"/>
-      <c r="O40" s="170"/>
+      <c r="M40" s="194"/>
+      <c r="N40" s="195"/>
+      <c r="O40" s="196"/>
     </row>
     <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="94" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B41" s="96" t="s">
-        <v>145</v>
-      </c>
-      <c r="C41" s="181"/>
+        <v>140</v>
+      </c>
+      <c r="C41" s="179"/>
       <c r="D41" s="38"/>
-      <c r="E41" s="179"/>
+      <c r="E41" s="169"/>
       <c r="F41" s="67" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G41" s="103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H41" s="68" t="s">
-        <v>140</v>
-      </c>
-      <c r="I41" s="184" t="s">
-        <v>141</v>
-      </c>
-      <c r="J41" s="185"/>
+        <v>135</v>
+      </c>
+      <c r="I41" s="182" t="s">
+        <v>136</v>
+      </c>
+      <c r="J41" s="183"/>
       <c r="K41" s="89"/>
     </row>
     <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="83" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B42" s="98"/>
       <c r="C42" s="76" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D42" s="76"/>
       <c r="E42" s="76"/>
@@ -8738,11 +6326,11 @@
     </row>
     <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="186" t="s">
-        <v>128</v>
-      </c>
-      <c r="B45" s="187"/>
-      <c r="C45" s="187"/>
+      <c r="A45" s="164" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
       <c r="D45" s="36"/>
       <c r="E45" s="36"/>
       <c r="F45" s="36"/>
@@ -8760,34 +6348,34 @@
       <c r="K45" s="87"/>
     </row>
     <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="188"/>
-      <c r="B46" s="189"/>
-      <c r="C46" s="189"/>
+      <c r="A46" s="166"/>
+      <c r="B46" s="167"/>
+      <c r="C46" s="167"/>
       <c r="D46" s="107"/>
       <c r="E46" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="G46" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="H46" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="F46" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="G46" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="H46" s="40" t="s">
-        <v>48</v>
-      </c>
       <c r="I46" s="41" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J46" s="40" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K46" s="89"/>
-      <c r="M46" s="138" t="s">
-        <v>132</v>
-      </c>
-      <c r="N46" s="139"/>
-      <c r="O46" s="140"/>
+      <c r="M46" s="161" t="s">
+        <v>127</v>
+      </c>
+      <c r="N46" s="162"/>
+      <c r="O46" s="163"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="108"/>
@@ -8795,7 +6383,7 @@
       <c r="C47" s="107"/>
       <c r="D47" s="107"/>
       <c r="E47" s="46" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F47" s="109">
         <v>180</v>
@@ -8816,21 +6404,21 @@
         <v>462.5</v>
       </c>
       <c r="K47" s="89"/>
-      <c r="M47" s="164" t="s">
-        <v>183</v>
-      </c>
-      <c r="N47" s="165"/>
-      <c r="O47" s="166"/>
+      <c r="M47" s="184" t="s">
+        <v>178</v>
+      </c>
+      <c r="N47" s="176"/>
+      <c r="O47" s="192"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="190" t="s">
-        <v>161</v>
-      </c>
-      <c r="B48" s="165"/>
-      <c r="C48" s="165"/>
+      <c r="A48" s="175" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="176"/>
+      <c r="C48" s="176"/>
       <c r="D48" s="107"/>
       <c r="E48" s="46" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F48" s="109">
         <v>5</v>
@@ -8851,17 +6439,17 @@
         <v>21.25</v>
       </c>
       <c r="K48" s="89"/>
-      <c r="M48" s="167"/>
-      <c r="N48" s="165"/>
-      <c r="O48" s="166"/>
+      <c r="M48" s="193"/>
+      <c r="N48" s="176"/>
+      <c r="O48" s="192"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="191"/>
-      <c r="B49" s="165"/>
-      <c r="C49" s="165"/>
+      <c r="A49" s="177"/>
+      <c r="B49" s="176"/>
+      <c r="C49" s="176"/>
       <c r="D49" s="107"/>
       <c r="E49" s="46" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F49" s="109">
         <v>2</v>
@@ -8873,17 +6461,17 @@
       <c r="I49" s="110"/>
       <c r="J49" s="109"/>
       <c r="K49" s="89"/>
-      <c r="M49" s="167"/>
-      <c r="N49" s="165"/>
-      <c r="O49" s="166"/>
+      <c r="M49" s="193"/>
+      <c r="N49" s="176"/>
+      <c r="O49" s="192"/>
     </row>
     <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="191"/>
-      <c r="B50" s="165"/>
-      <c r="C50" s="165"/>
+      <c r="A50" s="177"/>
+      <c r="B50" s="176"/>
+      <c r="C50" s="176"/>
       <c r="D50" s="107"/>
       <c r="E50" s="46" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F50" s="109">
         <v>10</v>
@@ -8904,9 +6492,9 @@
         <v>42.5</v>
       </c>
       <c r="K50" s="89"/>
-      <c r="M50" s="168"/>
-      <c r="N50" s="169"/>
-      <c r="O50" s="170"/>
+      <c r="M50" s="194"/>
+      <c r="N50" s="195"/>
+      <c r="O50" s="196"/>
     </row>
     <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="90"/>
@@ -8914,7 +6502,7 @@
       <c r="C51" s="107"/>
       <c r="D51" s="107"/>
       <c r="E51" s="48" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F51" s="101">
         <v>13</v>
@@ -8929,13 +6517,13 @@
     </row>
     <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="52" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B52" s="53" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C52" s="54" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D52" s="107"/>
       <c r="E52" s="107"/>
@@ -8951,17 +6539,17 @@
         <v>90</v>
       </c>
       <c r="B53" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" s="180" t="s">
-        <v>17</v>
+        <v>142</v>
+      </c>
+      <c r="C53" s="178" t="s">
+        <v>15</v>
       </c>
       <c r="D53" s="107"/>
-      <c r="E53" s="178" t="s">
-        <v>74</v>
+      <c r="E53" s="168" t="s">
+        <v>70</v>
       </c>
       <c r="F53" s="93" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G53" s="93">
         <v>1</v>
@@ -8976,47 +6564,47 @@
         <v>4</v>
       </c>
       <c r="K53" s="89"/>
-      <c r="M53" s="138" t="s">
-        <v>73</v>
-      </c>
-      <c r="N53" s="139"/>
-      <c r="O53" s="140"/>
+      <c r="M53" s="161" t="s">
+        <v>69</v>
+      </c>
+      <c r="N53" s="162"/>
+      <c r="O53" s="163"/>
     </row>
     <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="94" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B54" s="95" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" s="181"/>
+        <v>112</v>
+      </c>
+      <c r="C54" s="179"/>
       <c r="D54" s="107"/>
-      <c r="E54" s="179"/>
+      <c r="E54" s="169"/>
       <c r="F54" s="67" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G54" s="103" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H54" s="68" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I54" s="68" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="J54" s="68" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K54" s="89"/>
-      <c r="M54" s="164" t="s">
-        <v>184</v>
-      </c>
-      <c r="N54" s="165"/>
-      <c r="O54" s="166"/>
+      <c r="M54" s="184" t="s">
+        <v>179</v>
+      </c>
+      <c r="N54" s="176"/>
+      <c r="O54" s="192"/>
     </row>
     <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="108" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B55" s="45"/>
       <c r="C55" s="107"/>
@@ -9028,26 +6616,26 @@
       <c r="I55" s="107"/>
       <c r="J55" s="107"/>
       <c r="K55" s="89"/>
-      <c r="M55" s="167"/>
-      <c r="N55" s="165"/>
-      <c r="O55" s="166"/>
+      <c r="M55" s="193"/>
+      <c r="N55" s="176"/>
+      <c r="O55" s="192"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="91">
         <v>105</v>
       </c>
       <c r="B56" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="C56" s="176" t="s">
-        <v>19</v>
+        <v>144</v>
+      </c>
+      <c r="C56" s="180" t="s">
+        <v>17</v>
       </c>
       <c r="D56" s="107"/>
-      <c r="E56" s="178" t="s">
-        <v>80</v>
+      <c r="E56" s="168" t="s">
+        <v>76</v>
       </c>
       <c r="F56" s="93" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G56" s="93">
         <v>1</v>
@@ -9062,43 +6650,43 @@
         <v>4</v>
       </c>
       <c r="K56" s="89"/>
-      <c r="M56" s="167"/>
-      <c r="N56" s="165"/>
-      <c r="O56" s="166"/>
+      <c r="M56" s="193"/>
+      <c r="N56" s="176"/>
+      <c r="O56" s="192"/>
     </row>
     <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="94" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B57" s="96" t="s">
-        <v>150</v>
-      </c>
-      <c r="C57" s="177"/>
+        <v>145</v>
+      </c>
+      <c r="C57" s="181"/>
       <c r="D57" s="107"/>
-      <c r="E57" s="179"/>
+      <c r="E57" s="169"/>
       <c r="F57" s="67" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G57" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="H57" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="I57" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="J57" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="H57" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="I57" s="68" t="s">
-        <v>137</v>
-      </c>
-      <c r="J57" s="68" t="s">
-        <v>138</v>
-      </c>
       <c r="K57" s="89"/>
-      <c r="M57" s="168"/>
-      <c r="N57" s="169"/>
-      <c r="O57" s="170"/>
+      <c r="M57" s="194"/>
+      <c r="N57" s="195"/>
+      <c r="O57" s="196"/>
     </row>
     <row r="58" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="108" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B58" s="45"/>
       <c r="C58" s="107"/>
@@ -9116,17 +6704,17 @@
         <v>120</v>
       </c>
       <c r="B59" s="97" t="s">
-        <v>151</v>
-      </c>
-      <c r="C59" s="180" t="s">
-        <v>18</v>
+        <v>146</v>
+      </c>
+      <c r="C59" s="178" t="s">
+        <v>16</v>
       </c>
       <c r="D59" s="107"/>
-      <c r="E59" s="178" t="s">
-        <v>81</v>
+      <c r="E59" s="168" t="s">
+        <v>77</v>
       </c>
       <c r="F59" s="93" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G59" s="93">
         <v>1</v>
@@ -9134,48 +6722,48 @@
       <c r="H59" s="93">
         <v>2</v>
       </c>
-      <c r="I59" s="182">
+      <c r="I59" s="190">
         <v>3</v>
       </c>
-      <c r="J59" s="183"/>
+      <c r="J59" s="191"/>
       <c r="K59" s="89"/>
     </row>
     <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="94" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B60" s="96" t="s">
-        <v>152</v>
-      </c>
-      <c r="C60" s="181"/>
+        <v>147</v>
+      </c>
+      <c r="C60" s="179"/>
       <c r="D60" s="107"/>
-      <c r="E60" s="179"/>
+      <c r="E60" s="169"/>
       <c r="F60" s="67" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G60" s="103" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H60" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="I60" s="182" t="s">
         <v>137</v>
       </c>
-      <c r="I60" s="184" t="s">
-        <v>142</v>
-      </c>
-      <c r="J60" s="185"/>
+      <c r="J60" s="183"/>
       <c r="K60" s="89"/>
     </row>
     <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="83" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B61" s="98"/>
       <c r="C61" s="76" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D61" s="76"/>
       <c r="E61" s="76" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F61" s="76"/>
       <c r="G61" s="76"/>
@@ -9186,11 +6774,11 @@
     </row>
     <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="186" t="s">
-        <v>160</v>
-      </c>
-      <c r="B64" s="187"/>
-      <c r="C64" s="187"/>
+      <c r="A64" s="164" t="s">
+        <v>155</v>
+      </c>
+      <c r="B64" s="165"/>
+      <c r="C64" s="165"/>
       <c r="D64" s="36"/>
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
@@ -9209,27 +6797,27 @@
       <c r="K64" s="87"/>
     </row>
     <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="188"/>
-      <c r="B65" s="189"/>
-      <c r="C65" s="189"/>
+      <c r="A65" s="166"/>
+      <c r="B65" s="167"/>
+      <c r="C65" s="167"/>
       <c r="D65" s="107"/>
       <c r="E65" s="39" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F65" s="40" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G65" s="41" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H65" s="40" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I65" s="41" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J65" s="40" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K65" s="89"/>
     </row>
@@ -9239,7 +6827,7 @@
       <c r="C66" s="107"/>
       <c r="D66" s="107"/>
       <c r="E66" s="46" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F66" s="109">
         <v>200</v>
@@ -9260,21 +6848,21 @@
         <v>555</v>
       </c>
       <c r="K66" s="89"/>
-      <c r="M66" s="138" t="s">
-        <v>162</v>
-      </c>
-      <c r="N66" s="139"/>
-      <c r="O66" s="140"/>
+      <c r="M66" s="161" t="s">
+        <v>157</v>
+      </c>
+      <c r="N66" s="162"/>
+      <c r="O66" s="163"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="190" t="s">
-        <v>180</v>
-      </c>
-      <c r="B67" s="165"/>
-      <c r="C67" s="165"/>
+      <c r="A67" s="175" t="s">
+        <v>175</v>
+      </c>
+      <c r="B67" s="176"/>
+      <c r="C67" s="176"/>
       <c r="D67" s="107"/>
       <c r="E67" s="46" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F67" s="109">
         <v>50</v>
@@ -9295,19 +6883,19 @@
         <v>25.5</v>
       </c>
       <c r="K67" s="89"/>
-      <c r="M67" s="164" t="s">
-        <v>185</v>
-      </c>
-      <c r="N67" s="165"/>
-      <c r="O67" s="166"/>
+      <c r="M67" s="184" t="s">
+        <v>180</v>
+      </c>
+      <c r="N67" s="176"/>
+      <c r="O67" s="192"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="191"/>
-      <c r="B68" s="165"/>
-      <c r="C68" s="165"/>
+      <c r="A68" s="177"/>
+      <c r="B68" s="176"/>
+      <c r="C68" s="176"/>
       <c r="D68" s="107"/>
       <c r="E68" s="46" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F68" s="109">
         <v>0.7</v>
@@ -9319,17 +6907,17 @@
       <c r="I68" s="110"/>
       <c r="J68" s="109"/>
       <c r="K68" s="89"/>
-      <c r="M68" s="167"/>
-      <c r="N68" s="165"/>
-      <c r="O68" s="166"/>
+      <c r="M68" s="193"/>
+      <c r="N68" s="176"/>
+      <c r="O68" s="192"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="191"/>
-      <c r="B69" s="165"/>
-      <c r="C69" s="165"/>
+      <c r="A69" s="177"/>
+      <c r="B69" s="176"/>
+      <c r="C69" s="176"/>
       <c r="D69" s="107"/>
       <c r="E69" s="46" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F69" s="109">
         <v>35</v>
@@ -9350,9 +6938,9 @@
         <v>51</v>
       </c>
       <c r="K69" s="89"/>
-      <c r="M69" s="167"/>
-      <c r="N69" s="165"/>
-      <c r="O69" s="166"/>
+      <c r="M69" s="193"/>
+      <c r="N69" s="176"/>
+      <c r="O69" s="192"/>
     </row>
     <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="90"/>
@@ -9360,7 +6948,7 @@
       <c r="C70" s="107"/>
       <c r="D70" s="107"/>
       <c r="E70" s="48" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F70" s="101">
         <v>15</v>
@@ -9374,19 +6962,19 @@
       </c>
       <c r="J70" s="101"/>
       <c r="K70" s="89"/>
-      <c r="M70" s="168"/>
-      <c r="N70" s="169"/>
-      <c r="O70" s="170"/>
+      <c r="M70" s="194"/>
+      <c r="N70" s="195"/>
+      <c r="O70" s="196"/>
     </row>
     <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="52" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C71" s="54" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D71" s="107"/>
       <c r="E71" s="107"/>
@@ -9402,17 +6990,17 @@
         <v>115</v>
       </c>
       <c r="B72" s="92" t="s">
-        <v>172</v>
-      </c>
-      <c r="C72" s="180" t="s">
-        <v>306</v>
+        <v>167</v>
+      </c>
+      <c r="C72" s="178" t="s">
+        <v>301</v>
       </c>
       <c r="D72" s="107"/>
-      <c r="E72" s="178" t="s">
-        <v>74</v>
+      <c r="E72" s="168" t="s">
+        <v>70</v>
       </c>
       <c r="F72" s="93" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G72" s="93">
         <v>1</v>
@@ -9427,47 +7015,47 @@
         <v>4</v>
       </c>
       <c r="K72" s="89"/>
-      <c r="M72" s="138" t="s">
-        <v>159</v>
-      </c>
-      <c r="N72" s="139"/>
-      <c r="O72" s="140"/>
+      <c r="M72" s="161" t="s">
+        <v>154</v>
+      </c>
+      <c r="N72" s="162"/>
+      <c r="O72" s="163"/>
     </row>
     <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="94" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B73" s="95" t="s">
-        <v>173</v>
-      </c>
-      <c r="C73" s="181"/>
+        <v>168</v>
+      </c>
+      <c r="C73" s="179"/>
       <c r="D73" s="107"/>
-      <c r="E73" s="179"/>
+      <c r="E73" s="169"/>
       <c r="F73" s="67" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G73" s="103" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H73" s="68" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I73" s="68" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J73" s="68" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K73" s="89"/>
-      <c r="M73" s="164" t="s">
-        <v>187</v>
-      </c>
-      <c r="N73" s="165"/>
-      <c r="O73" s="166"/>
+      <c r="M73" s="184" t="s">
+        <v>182</v>
+      </c>
+      <c r="N73" s="176"/>
+      <c r="O73" s="192"/>
     </row>
     <row r="74" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="108" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B74" s="45"/>
       <c r="C74" s="107"/>
@@ -9479,26 +7067,26 @@
       <c r="I74" s="107"/>
       <c r="J74" s="107"/>
       <c r="K74" s="89"/>
-      <c r="M74" s="167"/>
-      <c r="N74" s="165"/>
-      <c r="O74" s="166"/>
+      <c r="M74" s="193"/>
+      <c r="N74" s="176"/>
+      <c r="O74" s="192"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="91">
         <v>135</v>
       </c>
       <c r="B75" s="92" t="s">
-        <v>174</v>
-      </c>
-      <c r="C75" s="176" t="s">
-        <v>43</v>
+        <v>169</v>
+      </c>
+      <c r="C75" s="180" t="s">
+        <v>39</v>
       </c>
       <c r="D75" s="107"/>
-      <c r="E75" s="178" t="s">
-        <v>80</v>
+      <c r="E75" s="168" t="s">
+        <v>76</v>
       </c>
       <c r="F75" s="93" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G75" s="93">
         <v>1</v>
@@ -9513,43 +7101,43 @@
         <v>4</v>
       </c>
       <c r="K75" s="89"/>
-      <c r="M75" s="167"/>
-      <c r="N75" s="165"/>
-      <c r="O75" s="166"/>
+      <c r="M75" s="193"/>
+      <c r="N75" s="176"/>
+      <c r="O75" s="192"/>
     </row>
     <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="94" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B76" s="96" t="s">
-        <v>175</v>
-      </c>
-      <c r="C76" s="177"/>
+        <v>170</v>
+      </c>
+      <c r="C76" s="181"/>
       <c r="D76" s="107"/>
-      <c r="E76" s="179"/>
+      <c r="E76" s="169"/>
       <c r="F76" s="67" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G76" s="103" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H76" s="68" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I76" s="68" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J76" s="68" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K76" s="89"/>
-      <c r="M76" s="168"/>
-      <c r="N76" s="169"/>
-      <c r="O76" s="170"/>
+      <c r="M76" s="194"/>
+      <c r="N76" s="195"/>
+      <c r="O76" s="196"/>
     </row>
     <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="108" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B77" s="45"/>
       <c r="C77" s="107"/>
@@ -9567,17 +7155,17 @@
         <v>150</v>
       </c>
       <c r="B78" s="97" t="s">
-        <v>176</v>
-      </c>
-      <c r="C78" s="180" t="s">
-        <v>193</v>
+        <v>171</v>
+      </c>
+      <c r="C78" s="178" t="s">
+        <v>188</v>
       </c>
       <c r="D78" s="107"/>
-      <c r="E78" s="178" t="s">
-        <v>81</v>
+      <c r="E78" s="168" t="s">
+        <v>77</v>
       </c>
       <c r="F78" s="93" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G78" s="93">
         <v>1</v>
@@ -9585,10 +7173,10 @@
       <c r="H78" s="93">
         <v>2</v>
       </c>
-      <c r="I78" s="182">
+      <c r="I78" s="190">
         <v>3</v>
       </c>
-      <c r="J78" s="183"/>
+      <c r="J78" s="191"/>
       <c r="K78" s="89"/>
     </row>
     <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9596,24 +7184,24 @@
         <v>195</v>
       </c>
       <c r="B79" s="96" t="s">
-        <v>179</v>
-      </c>
-      <c r="C79" s="181"/>
+        <v>174</v>
+      </c>
+      <c r="C79" s="179"/>
       <c r="D79" s="107"/>
-      <c r="E79" s="179"/>
+      <c r="E79" s="169"/>
       <c r="F79" s="67" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G79" s="103" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H79" s="68" t="s">
-        <v>171</v>
-      </c>
-      <c r="I79" s="184" t="s">
-        <v>186</v>
-      </c>
-      <c r="J79" s="185"/>
+        <v>166</v>
+      </c>
+      <c r="I79" s="182" t="s">
+        <v>181</v>
+      </c>
+      <c r="J79" s="183"/>
       <c r="K79" s="89"/>
     </row>
     <row r="80" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -9622,7 +7210,7 @@
       <c r="C80" s="76"/>
       <c r="D80" s="76"/>
       <c r="E80" s="76" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F80" s="76"/>
       <c r="G80" s="76"/>
@@ -9633,32 +7221,16 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="A26:C27"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A5:C7"/>
-    <mergeCell ref="A29:C31"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="A45:C46"/>
-    <mergeCell ref="A48:C50"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="M54:O57"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="M67:O70"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="M73:O76"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M37:O40"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="M47:O50"/>
+    <mergeCell ref="M53:O53"/>
     <mergeCell ref="M30:O30"/>
     <mergeCell ref="M31:O34"/>
     <mergeCell ref="C75:C76"/>
@@ -9675,17 +7247,322 @@
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="E59:E60"/>
     <mergeCell ref="I59:J59"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M37:O40"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="M47:O50"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="M54:O57"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="M67:O70"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="M73:O76"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="A45:C46"/>
+    <mergeCell ref="A48:C50"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="A29:C31"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="A26:C27"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A5:C7"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD80170-8D7D-4E29-963E-75821B94DB23}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="122"/>
+    <col min="2" max="2" width="18.75" style="123" customWidth="1"/>
+    <col min="3" max="3" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="9" style="123"/>
+    <col min="5" max="5" width="22.5" style="123" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="122">
+        <v>1</v>
+      </c>
+      <c r="B1" s="123" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="123">
+        <v>0</v>
+      </c>
+      <c r="E1" s="123" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="122">
+        <v>2</v>
+      </c>
+      <c r="B2" s="123" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="123">
+        <v>1</v>
+      </c>
+      <c r="E2" s="123" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="122">
+        <v>3</v>
+      </c>
+      <c r="B3" s="123" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="123">
+        <v>2</v>
+      </c>
+      <c r="E3" s="123" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="122">
+        <v>4</v>
+      </c>
+      <c r="B4" s="123" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="123">
+        <v>3</v>
+      </c>
+      <c r="E4" s="123" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="122">
+        <v>5</v>
+      </c>
+      <c r="B5" s="123" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="123">
+        <v>4</v>
+      </c>
+      <c r="E5" s="123" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="122">
+        <v>6</v>
+      </c>
+      <c r="B6" s="123" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="123">
+        <v>5</v>
+      </c>
+      <c r="E6" s="123" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="122">
+        <v>7</v>
+      </c>
+      <c r="B7" s="123" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="123">
+        <v>6</v>
+      </c>
+      <c r="E7" s="123" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="122">
+        <v>8</v>
+      </c>
+      <c r="B8" s="123" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="123">
+        <v>7</v>
+      </c>
+      <c r="E8" s="123" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="122">
+        <v>9</v>
+      </c>
+      <c r="B9" s="123" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="123">
+        <v>8</v>
+      </c>
+      <c r="E9" s="123" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="122">
+        <v>10</v>
+      </c>
+      <c r="B10" s="123" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="123">
+        <v>9</v>
+      </c>
+      <c r="E10" s="123" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="122">
+        <v>11</v>
+      </c>
+      <c r="B11" s="123" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="123">
+        <v>10</v>
+      </c>
+      <c r="E11" s="123" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="122">
+        <v>12</v>
+      </c>
+      <c r="B12" s="123" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="123">
+        <v>11</v>
+      </c>
+      <c r="E12" s="123" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="122">
+        <v>13</v>
+      </c>
+      <c r="B13" s="123" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="123">
+        <v>12</v>
+      </c>
+      <c r="E13" s="123" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="122">
+        <v>14</v>
+      </c>
+      <c r="B14" s="123" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="123">
+        <v>13</v>
+      </c>
+      <c r="E14" s="123" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="122">
+        <v>15</v>
+      </c>
+      <c r="B15" s="123" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="123">
+        <v>14</v>
+      </c>
+      <c r="E15" s="123" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="122">
+        <v>16</v>
+      </c>
+      <c r="B16" s="123" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="123">
+        <v>15</v>
+      </c>
+      <c r="E16" s="123" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="122">
+        <v>17</v>
+      </c>
+      <c r="B17" s="123" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" s="123">
+        <v>16</v>
+      </c>
+      <c r="E17" s="123" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="122">
+        <v>18</v>
+      </c>
+      <c r="B18" s="123" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="123">
+        <v>17</v>
+      </c>
+      <c r="E18" s="123" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="122">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="122">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:B21">
+    <sortCondition ref="B1:B21"/>
+  </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9696,7 +7573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739D2FDF-FF58-405E-A4E4-D6DDA6C3C12C}">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -9709,7 +7586,7 @@
     <col min="5" max="5" width="17" style="35" customWidth="1"/>
     <col min="6" max="6" width="9" style="35"/>
     <col min="7" max="7" width="16" style="35" customWidth="1"/>
-    <col min="8" max="8" width="9" style="198"/>
+    <col min="8" max="8" width="9" style="201"/>
     <col min="9" max="9" width="9.375" style="33" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.875" style="33" customWidth="1"/>
     <col min="11" max="11" width="19.875" style="33" customWidth="1"/>
@@ -9720,840 +7597,840 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="198"/>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
+      <c r="A1" s="201"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
     </row>
     <row r="2" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="198"/>
-      <c r="B2" s="216" t="s">
+      <c r="A2" s="201"/>
+      <c r="B2" s="234" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="I2" s="234" t="s">
+        <v>254</v>
+      </c>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
+      <c r="M2" s="234"/>
+    </row>
+    <row r="3" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="201"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+    </row>
+    <row r="4" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="201"/>
+      <c r="B4" s="104" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="211" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="I2" s="216" t="s">
-        <v>259</v>
-      </c>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
-      <c r="L2" s="216"/>
-      <c r="M2" s="216"/>
-    </row>
-    <row r="3" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="198"/>
-      <c r="B3" s="217"/>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="217"/>
-    </row>
-    <row r="4" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="198"/>
-      <c r="B4" s="104" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="247" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="247"/>
-      <c r="E4" s="247"/>
-      <c r="F4" s="247" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="248"/>
-      <c r="I4" s="129" t="s">
-        <v>221</v>
-      </c>
-      <c r="J4" s="130" t="s">
-        <v>217</v>
-      </c>
-      <c r="K4" s="130" t="s">
-        <v>218</v>
-      </c>
-      <c r="L4" s="130" t="s">
-        <v>219</v>
-      </c>
-      <c r="M4" s="128" t="s">
-        <v>220</v>
+      <c r="D4" s="211"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="211" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="212"/>
+      <c r="I4" s="128" t="s">
+        <v>216</v>
+      </c>
+      <c r="J4" s="129" t="s">
+        <v>212</v>
+      </c>
+      <c r="K4" s="129" t="s">
+        <v>213</v>
+      </c>
+      <c r="L4" s="129" t="s">
+        <v>214</v>
+      </c>
+      <c r="M4" s="127" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="198"/>
-      <c r="B5" s="249" t="s">
-        <v>92</v>
+      <c r="A5" s="201"/>
+      <c r="B5" s="213" t="s">
+        <v>88</v>
       </c>
       <c r="C5" s="28">
         <v>1</v>
       </c>
-      <c r="D5" s="205" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="206"/>
-      <c r="F5" s="260" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="261"/>
-      <c r="I5" s="199">
+      <c r="D5" s="243" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="244"/>
+      <c r="F5" s="224" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="225"/>
+      <c r="I5" s="239">
         <v>12</v>
       </c>
-      <c r="J5" s="213" t="s">
-        <v>107</v>
-      </c>
-      <c r="K5" s="130">
+      <c r="J5" s="229" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="129">
         <v>1</v>
       </c>
-      <c r="L5" s="130" t="s">
-        <v>262</v>
-      </c>
-      <c r="M5" s="128" t="s">
-        <v>255</v>
+      <c r="L5" s="129" t="s">
+        <v>257</v>
+      </c>
+      <c r="M5" s="127" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="198"/>
-      <c r="B6" s="250"/>
+      <c r="A6" s="201"/>
+      <c r="B6" s="214"/>
       <c r="C6" s="30">
         <v>2</v>
       </c>
-      <c r="D6" s="205" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="206"/>
-      <c r="F6" s="262"/>
-      <c r="G6" s="255"/>
-      <c r="I6" s="201"/>
-      <c r="J6" s="215"/>
-      <c r="K6" s="131">
+      <c r="D6" s="243" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="244"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="219"/>
+      <c r="I6" s="231"/>
+      <c r="J6" s="233"/>
+      <c r="K6" s="130">
         <v>2</v>
       </c>
-      <c r="L6" s="131" t="s">
-        <v>257</v>
-      </c>
-      <c r="M6" s="125" t="s">
-        <v>256</v>
+      <c r="L6" s="130" t="s">
+        <v>252</v>
+      </c>
+      <c r="M6" s="124" t="s">
+        <v>251</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="198"/>
-      <c r="B7" s="251"/>
+      <c r="A7" s="201"/>
+      <c r="B7" s="215"/>
       <c r="C7" s="105">
         <v>3</v>
       </c>
-      <c r="D7" s="252" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="253"/>
-      <c r="F7" s="263"/>
-      <c r="G7" s="264"/>
-      <c r="I7" s="200"/>
-      <c r="J7" s="214"/>
-      <c r="K7" s="132">
+      <c r="D7" s="216" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="217"/>
+      <c r="F7" s="227"/>
+      <c r="G7" s="228"/>
+      <c r="I7" s="232"/>
+      <c r="J7" s="230"/>
+      <c r="K7" s="131">
         <v>3</v>
       </c>
-      <c r="L7" s="132" t="s">
+      <c r="L7" s="131" t="s">
+        <v>253</v>
+      </c>
+      <c r="M7" s="125"/>
+      <c r="N7" s="33" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="201"/>
+      <c r="B8" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="220" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="220"/>
+      <c r="E8" s="220"/>
+      <c r="F8" s="220"/>
+      <c r="G8" s="221"/>
+      <c r="I8" s="239">
+        <v>18</v>
+      </c>
+      <c r="J8" s="229" t="s">
+        <v>218</v>
+      </c>
+      <c r="K8" s="129">
+        <v>1</v>
+      </c>
+      <c r="L8" s="129" t="s">
         <v>258</v>
       </c>
-      <c r="M7" s="126"/>
-      <c r="N7" s="33" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="198"/>
-      <c r="B8" s="106" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="256" t="s">
-        <v>194</v>
-      </c>
-      <c r="D8" s="256"/>
-      <c r="E8" s="256"/>
-      <c r="F8" s="256"/>
-      <c r="G8" s="257"/>
-      <c r="I8" s="199">
-        <v>18</v>
-      </c>
-      <c r="J8" s="213" t="s">
-        <v>223</v>
-      </c>
-      <c r="K8" s="130">
+      <c r="M8" s="127" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="201"/>
+      <c r="B9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="216" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="216"/>
+      <c r="E9" s="216"/>
+      <c r="F9" s="218"/>
+      <c r="G9" s="219"/>
+      <c r="I9" s="231"/>
+      <c r="J9" s="233"/>
+      <c r="K9" s="130">
+        <v>2</v>
+      </c>
+      <c r="L9" s="130" t="s">
+        <v>247</v>
+      </c>
+      <c r="M9" s="124" t="s">
+        <v>248</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="201"/>
+      <c r="B10" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="220" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="220"/>
+      <c r="E10" s="220"/>
+      <c r="F10" s="220"/>
+      <c r="G10" s="221"/>
+      <c r="I10" s="232"/>
+      <c r="J10" s="230"/>
+      <c r="K10" s="131">
+        <v>3</v>
+      </c>
+      <c r="L10" s="131" t="s">
+        <v>249</v>
+      </c>
+      <c r="M10" s="125"/>
+      <c r="N10" s="33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="201"/>
+      <c r="B11" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="222" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="222"/>
+      <c r="E11" s="222"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="223"/>
+      <c r="I11" s="239">
+        <v>4</v>
+      </c>
+      <c r="J11" s="229" t="s">
+        <v>221</v>
+      </c>
+      <c r="K11" s="129">
+        <v>0</v>
+      </c>
+      <c r="L11" s="129" t="s">
+        <v>259</v>
+      </c>
+      <c r="M11" s="127" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="201"/>
+      <c r="B12" s="201"/>
+      <c r="C12" s="201"/>
+      <c r="D12" s="201"/>
+      <c r="E12" s="201"/>
+      <c r="F12" s="201"/>
+      <c r="G12" s="201"/>
+      <c r="I12" s="231"/>
+      <c r="J12" s="233"/>
+      <c r="K12" s="130">
         <v>1</v>
       </c>
-      <c r="L8" s="130" t="s">
-        <v>263</v>
-      </c>
-      <c r="M8" s="128" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="198"/>
-      <c r="B9" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="252" t="s">
-        <v>195</v>
-      </c>
-      <c r="D9" s="252"/>
-      <c r="E9" s="252"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="255"/>
-      <c r="I9" s="201"/>
-      <c r="J9" s="215"/>
-      <c r="K9" s="131">
+      <c r="L12" s="130" t="s">
+        <v>243</v>
+      </c>
+      <c r="M12" s="124" t="s">
+        <v>244</v>
+      </c>
+      <c r="N12" s="33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="201"/>
+      <c r="B13" s="201"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="201"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="201"/>
+      <c r="G13" s="201"/>
+      <c r="I13" s="231"/>
+      <c r="J13" s="233"/>
+      <c r="K13" s="130">
         <v>2</v>
       </c>
-      <c r="L9" s="131" t="s">
-        <v>252</v>
-      </c>
-      <c r="M9" s="125" t="s">
-        <v>253</v>
-      </c>
-      <c r="N9" s="33" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="198"/>
-      <c r="B10" s="106" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="256" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" s="256"/>
-      <c r="E10" s="256"/>
-      <c r="F10" s="256"/>
-      <c r="G10" s="257"/>
-      <c r="I10" s="200"/>
-      <c r="J10" s="214"/>
-      <c r="K10" s="132">
+      <c r="L13" s="130" t="s">
+        <v>260</v>
+      </c>
+      <c r="M13" s="124" t="s">
+        <v>245</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="234" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="267"/>
+      <c r="C14" s="267"/>
+      <c r="D14" s="267"/>
+      <c r="E14" s="267"/>
+      <c r="F14" s="267"/>
+      <c r="G14" s="267"/>
+      <c r="I14" s="232"/>
+      <c r="J14" s="230"/>
+      <c r="K14" s="131">
         <v>3</v>
       </c>
-      <c r="L10" s="132" t="s">
-        <v>254</v>
-      </c>
-      <c r="M10" s="126"/>
-      <c r="N10" s="33" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="198"/>
-      <c r="B11" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="258" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11" s="258"/>
-      <c r="E11" s="258"/>
-      <c r="F11" s="258"/>
-      <c r="G11" s="259"/>
-      <c r="I11" s="199">
-        <v>4</v>
-      </c>
-      <c r="J11" s="213" t="s">
-        <v>226</v>
-      </c>
-      <c r="K11" s="130">
+      <c r="L14" s="131" t="s">
+        <v>295</v>
+      </c>
+      <c r="M14" s="125"/>
+      <c r="N14" s="33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="267"/>
+      <c r="B15" s="267"/>
+      <c r="C15" s="267"/>
+      <c r="D15" s="267"/>
+      <c r="E15" s="267"/>
+      <c r="F15" s="267"/>
+      <c r="G15" s="267"/>
+      <c r="I15" s="239">
+        <v>3</v>
+      </c>
+      <c r="J15" s="229" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" s="129">
         <v>0</v>
       </c>
-      <c r="L11" s="130" t="s">
-        <v>264</v>
-      </c>
-      <c r="M11" s="128" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="198"/>
-      <c r="B12" s="198"/>
-      <c r="C12" s="198"/>
-      <c r="D12" s="198"/>
-      <c r="E12" s="198"/>
-      <c r="F12" s="198"/>
-      <c r="G12" s="198"/>
-      <c r="I12" s="201"/>
-      <c r="J12" s="215"/>
-      <c r="K12" s="131">
-        <v>1</v>
-      </c>
-      <c r="L12" s="131" t="s">
-        <v>248</v>
-      </c>
-      <c r="M12" s="125" t="s">
-        <v>249</v>
-      </c>
-      <c r="N12" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="198"/>
-      <c r="B13" s="198"/>
-      <c r="C13" s="198"/>
-      <c r="D13" s="198"/>
-      <c r="E13" s="198"/>
-      <c r="F13" s="198"/>
-      <c r="G13" s="198"/>
-      <c r="I13" s="201"/>
-      <c r="J13" s="215"/>
-      <c r="K13" s="131">
-        <v>2</v>
-      </c>
-      <c r="L13" s="131" t="s">
-        <v>265</v>
-      </c>
-      <c r="M13" s="125" t="s">
-        <v>250</v>
-      </c>
-      <c r="N13" s="33" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="216" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="243"/>
-      <c r="C14" s="243"/>
-      <c r="D14" s="243"/>
-      <c r="E14" s="243"/>
-      <c r="F14" s="243"/>
-      <c r="G14" s="243"/>
-      <c r="I14" s="200"/>
-      <c r="J14" s="214"/>
-      <c r="K14" s="132">
-        <v>3</v>
-      </c>
-      <c r="L14" s="132" t="s">
-        <v>300</v>
-      </c>
-      <c r="M14" s="126"/>
-      <c r="N14" s="33" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="243"/>
-      <c r="B15" s="243"/>
-      <c r="C15" s="243"/>
-      <c r="D15" s="243"/>
-      <c r="E15" s="243"/>
-      <c r="F15" s="243"/>
-      <c r="G15" s="243"/>
-      <c r="I15" s="199">
-        <v>3</v>
-      </c>
-      <c r="J15" s="213" t="s">
-        <v>158</v>
-      </c>
-      <c r="K15" s="130">
-        <v>0</v>
-      </c>
-      <c r="L15" s="130" t="s">
-        <v>260</v>
-      </c>
-      <c r="M15" s="128"/>
+      <c r="L15" s="129" t="s">
+        <v>255</v>
+      </c>
+      <c r="M15" s="127"/>
     </row>
     <row r="16" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="208" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="208"/>
+      <c r="E16" s="208" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="209"/>
+      <c r="G16" s="210"/>
+      <c r="I16" s="231"/>
+      <c r="J16" s="233"/>
+      <c r="K16" s="130">
+        <v>1</v>
+      </c>
+      <c r="L16" s="130" t="s">
+        <v>256</v>
+      </c>
+      <c r="M16" s="124" t="s">
+        <v>240</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="263" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="240" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="249" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="250"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="199"/>
+      <c r="I17" s="231"/>
+      <c r="J17" s="233"/>
+      <c r="K17" s="130">
+        <v>2</v>
+      </c>
+      <c r="L17" s="130" t="s">
+        <v>282</v>
+      </c>
+      <c r="M17" s="124" t="s">
+        <v>241</v>
+      </c>
+      <c r="N17" s="33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="263"/>
+      <c r="B18" s="245"/>
+      <c r="C18" s="251"/>
+      <c r="D18" s="252"/>
+      <c r="E18" s="202"/>
+      <c r="F18" s="203"/>
+      <c r="G18" s="204"/>
+      <c r="I18" s="232"/>
+      <c r="J18" s="230"/>
+      <c r="K18" s="131">
+        <v>3</v>
+      </c>
+      <c r="L18" s="131" t="s">
+        <v>239</v>
+      </c>
+      <c r="M18" s="125"/>
+      <c r="N18" s="133" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="261" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="241"/>
+      <c r="C19" s="253"/>
+      <c r="D19" s="254"/>
+      <c r="E19" s="197"/>
+      <c r="F19" s="198"/>
+      <c r="G19" s="199"/>
+      <c r="I19" s="236" t="s">
+        <v>219</v>
+      </c>
+      <c r="J19" s="229" t="s">
+        <v>217</v>
+      </c>
+      <c r="K19" s="129">
+        <v>0</v>
+      </c>
+      <c r="L19" s="129" t="s">
+        <v>266</v>
+      </c>
+      <c r="M19" s="127"/>
+    </row>
+    <row r="20" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="261"/>
+      <c r="B20" s="246" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="244" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="244"/>
-      <c r="E16" s="244" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="245"/>
-      <c r="G16" s="246"/>
-      <c r="I16" s="201"/>
-      <c r="J16" s="215"/>
-      <c r="K16" s="131">
+      <c r="C20" s="255" t="s">
+        <v>294</v>
+      </c>
+      <c r="D20" s="256"/>
+      <c r="E20" s="202"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="204"/>
+      <c r="I20" s="237"/>
+      <c r="J20" s="233"/>
+      <c r="K20" s="130">
         <v>1</v>
       </c>
-      <c r="L16" s="131" t="s">
-        <v>261</v>
-      </c>
-      <c r="M16" s="125" t="s">
-        <v>245</v>
-      </c>
-      <c r="N16" s="33" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="223" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="202" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="229" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="230"/>
-      <c r="E17" s="209"/>
-      <c r="F17" s="210"/>
-      <c r="G17" s="211"/>
-      <c r="I17" s="201"/>
-      <c r="J17" s="215"/>
-      <c r="K17" s="131">
+      <c r="L20" s="130" t="s">
+        <v>234</v>
+      </c>
+      <c r="M20" s="124" t="s">
+        <v>235</v>
+      </c>
+      <c r="N20" s="33" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="263" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="247"/>
+      <c r="C21" s="257"/>
+      <c r="D21" s="258"/>
+      <c r="E21" s="197"/>
+      <c r="F21" s="198"/>
+      <c r="G21" s="199"/>
+      <c r="I21" s="237"/>
+      <c r="J21" s="233"/>
+      <c r="K21" s="130">
         <v>2</v>
       </c>
-      <c r="L17" s="131" t="s">
-        <v>287</v>
-      </c>
-      <c r="M17" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="N17" s="33" t="s">
+      <c r="L21" s="130" t="s">
+        <v>236</v>
+      </c>
+      <c r="M21" s="124" t="s">
+        <v>237</v>
+      </c>
+      <c r="N21" s="33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="263"/>
+      <c r="B22" s="248"/>
+      <c r="C22" s="259"/>
+      <c r="D22" s="260"/>
+      <c r="E22" s="202"/>
+      <c r="F22" s="203"/>
+      <c r="G22" s="204"/>
+      <c r="I22" s="238"/>
+      <c r="J22" s="230"/>
+      <c r="K22" s="131">
+        <v>3</v>
+      </c>
+      <c r="L22" s="131" t="s">
+        <v>238</v>
+      </c>
+      <c r="M22" s="125"/>
+      <c r="N22" s="33" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="223"/>
-      <c r="B18" s="225"/>
-      <c r="C18" s="231"/>
-      <c r="D18" s="232"/>
-      <c r="E18" s="265"/>
-      <c r="F18" s="266"/>
-      <c r="G18" s="267"/>
-      <c r="I18" s="200"/>
-      <c r="J18" s="214"/>
-      <c r="K18" s="132">
+    <row r="23" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="261" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="240">
+        <v>1</v>
+      </c>
+      <c r="C23" s="249" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="250"/>
+      <c r="E23" s="197"/>
+      <c r="F23" s="198"/>
+      <c r="G23" s="199"/>
+      <c r="I23" s="239" t="s">
+        <v>223</v>
+      </c>
+      <c r="J23" s="229" t="s">
+        <v>220</v>
+      </c>
+      <c r="K23" s="129">
+        <v>0</v>
+      </c>
+      <c r="L23" s="129" t="s">
+        <v>230</v>
+      </c>
+      <c r="M23" s="127" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="261"/>
+      <c r="B24" s="241"/>
+      <c r="C24" s="253"/>
+      <c r="D24" s="254"/>
+      <c r="E24" s="202"/>
+      <c r="F24" s="203"/>
+      <c r="G24" s="204"/>
+      <c r="I24" s="231"/>
+      <c r="J24" s="233"/>
+      <c r="K24" s="130">
+        <v>1</v>
+      </c>
+      <c r="L24" s="130" t="s">
+        <v>231</v>
+      </c>
+      <c r="M24" s="124" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="261"/>
+      <c r="B25" s="240">
+        <v>2</v>
+      </c>
+      <c r="C25" s="255" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="256"/>
+      <c r="E25" s="197"/>
+      <c r="F25" s="198"/>
+      <c r="G25" s="199"/>
+      <c r="I25" s="231"/>
+      <c r="J25" s="233"/>
+      <c r="K25" s="130">
+        <v>2</v>
+      </c>
+      <c r="L25" s="130" t="s">
+        <v>264</v>
+      </c>
+      <c r="M25" s="124" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="263" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="241"/>
+      <c r="C26" s="259"/>
+      <c r="D26" s="260"/>
+      <c r="E26" s="202"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="204"/>
+      <c r="I26" s="232"/>
+      <c r="J26" s="230"/>
+      <c r="K26" s="131">
         <v>3</v>
       </c>
-      <c r="L18" s="132" t="s">
-        <v>244</v>
-      </c>
-      <c r="M18" s="126"/>
-      <c r="N18" s="134" t="s">
+      <c r="L26" s="131" t="s">
+        <v>265</v>
+      </c>
+      <c r="M26" s="125"/>
+    </row>
+    <row r="27" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="263"/>
+      <c r="B27" s="240">
+        <v>3</v>
+      </c>
+      <c r="C27" s="249" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="250"/>
+      <c r="E27" s="197"/>
+      <c r="F27" s="198"/>
+      <c r="G27" s="199"/>
+      <c r="I27" s="231">
+        <v>17</v>
+      </c>
+      <c r="J27" s="233" t="s">
+        <v>222</v>
+      </c>
+      <c r="K27" s="130">
+        <v>1</v>
+      </c>
+      <c r="L27" s="130" t="s">
+        <v>229</v>
+      </c>
+      <c r="M27" s="124" t="s">
+        <v>228</v>
+      </c>
+      <c r="N27" s="133" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="207" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="203"/>
-      <c r="C19" s="233"/>
-      <c r="D19" s="234"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="211"/>
-      <c r="I19" s="218" t="s">
-        <v>224</v>
-      </c>
-      <c r="J19" s="213" t="s">
-        <v>222</v>
-      </c>
-      <c r="K19" s="130">
-        <v>0</v>
-      </c>
-      <c r="L19" s="130" t="s">
-        <v>271</v>
-      </c>
-      <c r="M19" s="128"/>
-    </row>
-    <row r="20" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="207"/>
-      <c r="B20" s="226" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="235" t="s">
-        <v>299</v>
-      </c>
-      <c r="D20" s="236"/>
-      <c r="E20" s="265"/>
-      <c r="F20" s="266"/>
-      <c r="G20" s="267"/>
-      <c r="I20" s="219"/>
-      <c r="J20" s="215"/>
-      <c r="K20" s="131">
-        <v>1</v>
-      </c>
-      <c r="L20" s="131" t="s">
-        <v>239</v>
-      </c>
-      <c r="M20" s="125" t="s">
-        <v>240</v>
-      </c>
-      <c r="N20" s="33" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="223" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="227"/>
-      <c r="C21" s="237"/>
-      <c r="D21" s="238"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="211"/>
-      <c r="I21" s="219"/>
-      <c r="J21" s="215"/>
-      <c r="K21" s="131">
+    <row r="28" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="264"/>
+      <c r="B28" s="242"/>
+      <c r="C28" s="265"/>
+      <c r="D28" s="266"/>
+      <c r="E28" s="205"/>
+      <c r="F28" s="206"/>
+      <c r="G28" s="207"/>
+      <c r="I28" s="231"/>
+      <c r="J28" s="233"/>
+      <c r="K28" s="130">
         <v>2</v>
       </c>
-      <c r="L21" s="131" t="s">
-        <v>241</v>
-      </c>
-      <c r="M21" s="125" t="s">
-        <v>242</v>
-      </c>
-      <c r="N21" s="33" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="223"/>
-      <c r="B22" s="228"/>
-      <c r="C22" s="239"/>
-      <c r="D22" s="240"/>
-      <c r="E22" s="265"/>
-      <c r="F22" s="266"/>
-      <c r="G22" s="267"/>
-      <c r="I22" s="220"/>
-      <c r="J22" s="214"/>
-      <c r="K22" s="132">
-        <v>3</v>
-      </c>
-      <c r="L22" s="132" t="s">
-        <v>243</v>
-      </c>
-      <c r="M22" s="126"/>
-      <c r="N22" s="33" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="207" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="202">
-        <v>1</v>
-      </c>
-      <c r="C23" s="229" t="s">
-        <v>189</v>
-      </c>
-      <c r="D23" s="230"/>
-      <c r="E23" s="209"/>
-      <c r="F23" s="210"/>
-      <c r="G23" s="211"/>
-      <c r="I23" s="199" t="s">
+      <c r="L28" s="130" t="s">
+        <v>262</v>
+      </c>
+      <c r="M28" s="124" t="s">
         <v>228</v>
       </c>
-      <c r="J23" s="213" t="s">
-        <v>225</v>
-      </c>
-      <c r="K23" s="130">
-        <v>0</v>
-      </c>
-      <c r="L23" s="130" t="s">
-        <v>235</v>
-      </c>
-      <c r="M23" s="128" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="207"/>
-      <c r="B24" s="203"/>
-      <c r="C24" s="233"/>
-      <c r="D24" s="234"/>
-      <c r="E24" s="265"/>
-      <c r="F24" s="266"/>
-      <c r="G24" s="267"/>
-      <c r="I24" s="201"/>
-      <c r="J24" s="215"/>
-      <c r="K24" s="131">
-        <v>1</v>
-      </c>
-      <c r="L24" s="131" t="s">
-        <v>236</v>
-      </c>
-      <c r="M24" s="125" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="207"/>
-      <c r="B25" s="202">
-        <v>2</v>
-      </c>
-      <c r="C25" s="235" t="s">
-        <v>191</v>
-      </c>
-      <c r="D25" s="236"/>
-      <c r="E25" s="209"/>
-      <c r="F25" s="210"/>
-      <c r="G25" s="211"/>
-      <c r="I25" s="201"/>
-      <c r="J25" s="215"/>
-      <c r="K25" s="131">
-        <v>2</v>
-      </c>
-      <c r="L25" s="131" t="s">
-        <v>269</v>
-      </c>
-      <c r="M25" s="125" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="223" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="203"/>
-      <c r="C26" s="239"/>
-      <c r="D26" s="240"/>
-      <c r="E26" s="265"/>
-      <c r="F26" s="266"/>
-      <c r="G26" s="267"/>
-      <c r="I26" s="200"/>
-      <c r="J26" s="214"/>
-      <c r="K26" s="132">
-        <v>3</v>
-      </c>
-      <c r="L26" s="132" t="s">
-        <v>270</v>
-      </c>
-      <c r="M26" s="126"/>
-    </row>
-    <row r="27" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="223"/>
-      <c r="B27" s="202">
-        <v>3</v>
-      </c>
-      <c r="C27" s="229" t="s">
-        <v>190</v>
-      </c>
-      <c r="D27" s="230"/>
-      <c r="E27" s="209"/>
-      <c r="F27" s="210"/>
-      <c r="G27" s="211"/>
-      <c r="I27" s="201">
-        <v>17</v>
-      </c>
-      <c r="J27" s="215" t="s">
-        <v>227</v>
-      </c>
-      <c r="K27" s="131">
-        <v>1</v>
-      </c>
-      <c r="L27" s="131" t="s">
-        <v>234</v>
-      </c>
-      <c r="M27" s="125" t="s">
-        <v>233</v>
-      </c>
-      <c r="N27" s="134" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="224"/>
-      <c r="B28" s="204"/>
-      <c r="C28" s="241"/>
-      <c r="D28" s="242"/>
-      <c r="E28" s="212"/>
-      <c r="F28" s="221"/>
-      <c r="G28" s="222"/>
-      <c r="I28" s="201"/>
-      <c r="J28" s="215"/>
-      <c r="K28" s="131">
-        <v>2</v>
-      </c>
-      <c r="L28" s="131" t="s">
-        <v>267</v>
-      </c>
-      <c r="M28" s="125" t="s">
-        <v>233</v>
-      </c>
-      <c r="N28" s="134" t="s">
-        <v>297</v>
+      <c r="N28" s="133" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="207" t="s">
-        <v>124</v>
+      <c r="A29" s="261" t="s">
+        <v>119</v>
       </c>
       <c r="B29" s="109">
         <v>1</v>
       </c>
-      <c r="C29" s="209" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29" s="209"/>
-      <c r="E29" s="209" t="s">
-        <v>126</v>
-      </c>
-      <c r="F29" s="210"/>
-      <c r="G29" s="211"/>
-      <c r="I29" s="201"/>
-      <c r="J29" s="215"/>
-      <c r="K29" s="131">
+      <c r="C29" s="197" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="197"/>
+      <c r="E29" s="197" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="198"/>
+      <c r="G29" s="199"/>
+      <c r="I29" s="231"/>
+      <c r="J29" s="233"/>
+      <c r="K29" s="130">
         <v>3</v>
       </c>
-      <c r="L29" s="131" t="s">
-        <v>266</v>
-      </c>
-      <c r="M29" s="125"/>
-      <c r="N29" s="134" t="s">
-        <v>298</v>
+      <c r="L29" s="130" t="s">
+        <v>261</v>
+      </c>
+      <c r="M29" s="124"/>
+      <c r="N29" s="133" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="208"/>
+      <c r="A30" s="262"/>
       <c r="B30" s="112">
         <v>2</v>
       </c>
-      <c r="C30" s="212" t="s">
-        <v>188</v>
-      </c>
-      <c r="D30" s="212"/>
-      <c r="E30" s="212" t="s">
-        <v>192</v>
-      </c>
-      <c r="F30" s="221"/>
-      <c r="G30" s="222"/>
-      <c r="I30" s="199">
+      <c r="C30" s="205" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" s="205"/>
+      <c r="E30" s="205" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30" s="206"/>
+      <c r="G30" s="207"/>
+      <c r="I30" s="239">
         <v>1</v>
       </c>
-      <c r="J30" s="213" t="s">
-        <v>229</v>
-      </c>
-      <c r="K30" s="130">
+      <c r="J30" s="229" t="s">
+        <v>224</v>
+      </c>
+      <c r="K30" s="129">
         <v>0</v>
       </c>
-      <c r="L30" s="130" t="s">
-        <v>231</v>
-      </c>
-      <c r="M30" s="128"/>
+      <c r="L30" s="129" t="s">
+        <v>226</v>
+      </c>
+      <c r="M30" s="127"/>
     </row>
     <row r="31" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="197" t="s">
-        <v>301</v>
+      <c r="A31" s="200" t="s">
+        <v>296</v>
       </c>
       <c r="B31" s="33">
         <v>1</v>
       </c>
-      <c r="C31" s="197" t="s">
-        <v>302</v>
-      </c>
-      <c r="D31" s="197"/>
-      <c r="E31" s="197"/>
-      <c r="F31" s="197"/>
-      <c r="G31" s="197"/>
-      <c r="I31" s="200"/>
-      <c r="J31" s="214"/>
-      <c r="K31" s="132">
+      <c r="C31" s="200" t="s">
+        <v>297</v>
+      </c>
+      <c r="D31" s="200"/>
+      <c r="E31" s="200"/>
+      <c r="F31" s="200"/>
+      <c r="G31" s="200"/>
+      <c r="I31" s="232"/>
+      <c r="J31" s="230"/>
+      <c r="K31" s="131">
         <v>1</v>
       </c>
-      <c r="L31" s="132"/>
-      <c r="M31" s="126"/>
+      <c r="L31" s="131"/>
+      <c r="M31" s="125"/>
     </row>
     <row r="32" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="198"/>
+      <c r="A32" s="201"/>
       <c r="B32" s="33">
         <v>2</v>
       </c>
-      <c r="C32" s="198" t="s">
-        <v>303</v>
-      </c>
-      <c r="D32" s="198"/>
-      <c r="E32" s="198"/>
-      <c r="F32" s="198"/>
-      <c r="G32" s="198"/>
-      <c r="I32" s="201">
+      <c r="C32" s="201" t="s">
+        <v>298</v>
+      </c>
+      <c r="D32" s="201"/>
+      <c r="E32" s="201"/>
+      <c r="F32" s="201"/>
+      <c r="G32" s="201"/>
+      <c r="I32" s="231">
         <v>2</v>
       </c>
-      <c r="J32" s="215" t="s">
-        <v>230</v>
-      </c>
-      <c r="K32" s="131">
+      <c r="J32" s="233" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" s="130">
         <v>0</v>
       </c>
-      <c r="L32" s="131" t="s">
-        <v>232</v>
-      </c>
-      <c r="M32" s="125"/>
+      <c r="L32" s="130" t="s">
+        <v>227</v>
+      </c>
+      <c r="M32" s="124"/>
     </row>
     <row r="33" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="198"/>
+      <c r="A33" s="201"/>
       <c r="B33" s="33">
         <v>3</v>
       </c>
-      <c r="C33" s="198" t="s">
-        <v>304</v>
-      </c>
-      <c r="D33" s="198"/>
-      <c r="E33" s="198"/>
-      <c r="F33" s="198"/>
-      <c r="G33" s="198"/>
-      <c r="I33" s="200"/>
-      <c r="J33" s="214"/>
-      <c r="K33" s="132">
+      <c r="C33" s="201" t="s">
+        <v>299</v>
+      </c>
+      <c r="D33" s="201"/>
+      <c r="E33" s="201"/>
+      <c r="F33" s="201"/>
+      <c r="G33" s="201"/>
+      <c r="I33" s="232"/>
+      <c r="J33" s="230"/>
+      <c r="K33" s="131">
         <v>1</v>
       </c>
-      <c r="L33" s="132"/>
-      <c r="M33" s="126"/>
+      <c r="L33" s="131"/>
+      <c r="M33" s="125"/>
     </row>
     <row r="53" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K53" s="127"/>
+      <c r="K53" s="126"/>
     </row>
     <row r="57" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="133"/>
-      <c r="C57" s="133"/>
+      <c r="B57" s="132"/>
+      <c r="C57" s="132"/>
     </row>
     <row r="58" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="133"/>
-      <c r="C58" s="133"/>
+      <c r="B58" s="132"/>
+      <c r="C58" s="132"/>
     </row>
     <row r="59" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="133"/>
-      <c r="C59" s="133"/>
+      <c r="B59" s="132"/>
+      <c r="C59" s="132"/>
     </row>
     <row r="60" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="133"/>
-      <c r="C60" s="133"/>
+      <c r="B60" s="132"/>
+      <c r="C60" s="132"/>
     </row>
     <row r="61" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="133"/>
-      <c r="C61" s="133"/>
+      <c r="B61" s="132"/>
+      <c r="C61" s="132"/>
     </row>
     <row r="62" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="133"/>
-      <c r="C62" s="133"/>
+      <c r="B62" s="132"/>
+      <c r="C62" s="132"/>
     </row>
     <row r="63" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="133"/>
-      <c r="C63" s="133"/>
+      <c r="B63" s="132"/>
+      <c r="C63" s="132"/>
     </row>
     <row r="64" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="35"/>
@@ -10565,6 +8442,71 @@
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="H1:H1048576"/>
+    <mergeCell ref="A12:G13"/>
+    <mergeCell ref="A1:A11"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="B2:G3"/>
+    <mergeCell ref="A14:G15"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C17:D19"/>
+    <mergeCell ref="C20:D22"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="I2:M3"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F5:G7"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C4:E4"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
@@ -10581,71 +8523,6 @@
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F5:G7"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="I2:M3"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C17:D19"/>
-    <mergeCell ref="C20:D22"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="H1:H1048576"/>
-    <mergeCell ref="A12:G13"/>
-    <mergeCell ref="A1:A11"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="B2:G3"/>
-    <mergeCell ref="A14:G15"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10654,288 +8531,847 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD80170-8D7D-4E29-963E-75821B94DB23}">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4829BB66-8207-4076-AF2F-C0DDAAFABB1D}">
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="H1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="123"/>
-    <col min="2" max="2" width="18.75" style="124" customWidth="1"/>
-    <col min="3" max="3" width="5.875" customWidth="1"/>
-    <col min="4" max="4" width="9" style="124"/>
-    <col min="5" max="5" width="22.5" style="124" customWidth="1"/>
+    <col min="1" max="1" width="9" style="268"/>
+    <col min="2" max="6" width="9" style="134"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="9" style="12"/>
+    <col min="9" max="9" width="9.5" style="12" customWidth="1"/>
+    <col min="10" max="10" width="9" style="12"/>
+    <col min="11" max="11" width="13.875" style="12" customWidth="1"/>
+    <col min="12" max="13" width="9" style="12"/>
+    <col min="14" max="14" width="15.375" style="283" customWidth="1"/>
+    <col min="15" max="17" width="9" style="134"/>
+    <col min="18" max="18" width="19.375" style="134" customWidth="1"/>
+    <col min="19" max="19" width="9" style="134"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="123">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B1" s="269" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1" s="269" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="269" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1" s="269" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1" s="273" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" s="274" t="s">
+        <v>325</v>
+      </c>
+      <c r="H1" s="275" t="s">
+        <v>326</v>
+      </c>
+      <c r="I1" s="275" t="s">
+        <v>320</v>
+      </c>
+      <c r="J1" s="275" t="s">
+        <v>321</v>
+      </c>
+      <c r="K1" s="275" t="s">
+        <v>328</v>
+      </c>
+      <c r="L1" s="276" t="s">
+        <v>329</v>
+      </c>
+      <c r="M1" s="275" t="s">
+        <v>323</v>
+      </c>
+      <c r="N1" s="280" t="s">
+        <v>324</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="134">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="269">
+        <v>5</v>
+      </c>
+      <c r="C2" s="269">
+        <v>6</v>
+      </c>
+      <c r="D2" s="269">
+        <v>7</v>
+      </c>
+      <c r="E2" s="269">
+        <v>9</v>
+      </c>
+      <c r="F2" s="273">
+        <v>12</v>
+      </c>
+      <c r="G2" s="277"/>
+      <c r="H2" s="272"/>
+      <c r="I2" s="272"/>
+      <c r="J2" s="272"/>
+      <c r="K2" s="272"/>
+      <c r="L2" s="271"/>
+      <c r="M2" s="272"/>
+      <c r="N2" s="281"/>
+      <c r="O2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="P2" s="134" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q2" s="134" t="s">
+        <v>323</v>
+      </c>
+      <c r="R2" s="134" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="270">
+        <v>0</v>
+      </c>
+      <c r="B3" s="134">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1">
+        <f>F3*F2+E3*E2+D3*D2+C3*C2+B3*B2</f>
+        <v>30</v>
+      </c>
+      <c r="H3" s="278">
+        <v>4</v>
+      </c>
+      <c r="I3" s="278">
+        <v>4</v>
+      </c>
+      <c r="J3" s="278">
+        <f>G3-I3+H3</f>
+        <v>30</v>
+      </c>
+      <c r="K3" s="278">
+        <f>J3+I3</f>
+        <v>34</v>
+      </c>
+      <c r="L3" s="278">
+        <v>30</v>
+      </c>
+      <c r="M3" s="278"/>
+      <c r="N3" s="282"/>
+      <c r="O3" s="134">
+        <v>20</v>
+      </c>
+      <c r="P3" s="134">
+        <v>110</v>
+      </c>
+      <c r="Q3" s="134">
+        <v>50</v>
+      </c>
+      <c r="R3" s="134" t="s">
+        <v>336</v>
+      </c>
+      <c r="S3" s="134">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="270">
         <v>1</v>
       </c>
-      <c r="B1" s="124" t="s">
-        <v>215</v>
-      </c>
-      <c r="D1" s="124">
+      <c r="B4" s="134">
+        <v>6</v>
+      </c>
+      <c r="C4" s="134">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <f>F4*12+E4*9+D4*7+C4*6+B4*5</f>
+        <v>48</v>
+      </c>
+      <c r="H4" s="12">
+        <v>2</v>
+      </c>
+      <c r="I4" s="12">
+        <v>15</v>
+      </c>
+      <c r="J4" s="12">
+        <f t="shared" ref="J4:J19" si="0">G4-I4+H4</f>
+        <v>35</v>
+      </c>
+      <c r="K4" s="12">
+        <f>J4+I4+K3</f>
+        <v>84</v>
+      </c>
+      <c r="L4" s="12">
+        <f>L3+J4</f>
+        <v>65</v>
+      </c>
+      <c r="O4" s="134">
+        <v>40</v>
+      </c>
+      <c r="P4" s="134">
+        <f>O4+P3</f>
+        <v>150</v>
+      </c>
+      <c r="R4" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="S4" s="134">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="270">
+        <v>2</v>
+      </c>
+      <c r="B5" s="134">
+        <v>7</v>
+      </c>
+      <c r="C5" s="134">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" ref="G5:G19" si="1">F5*12+E5*9+D5*7+C5*6+B5*5</f>
+        <v>53</v>
+      </c>
+      <c r="H5" s="12">
+        <v>12</v>
+      </c>
+      <c r="I5" s="12">
+        <v>15</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="K5" s="12">
+        <f t="shared" ref="K5:K19" si="2">J5+I5+K4</f>
+        <v>149</v>
+      </c>
+      <c r="L5" s="12">
+        <f>L4+J5</f>
+        <v>115</v>
+      </c>
+      <c r="M5" s="12">
+        <v>80</v>
+      </c>
+      <c r="N5" s="283" t="s">
+        <v>327</v>
+      </c>
+      <c r="O5" s="134">
+        <v>50</v>
+      </c>
+      <c r="P5" s="134">
+        <f t="shared" ref="P5:P22" si="3">O5+P4</f>
+        <v>200</v>
+      </c>
+      <c r="S5" s="134">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="270">
+        <v>3</v>
+      </c>
+      <c r="B6" s="134">
+        <v>17</v>
+      </c>
+      <c r="C6" s="134">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
+      <c r="H6" s="22">
+        <v>-24</v>
+      </c>
+      <c r="I6" s="22">
+        <v>30</v>
+      </c>
+      <c r="J6" s="22">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="K6" s="22">
+        <f t="shared" si="2"/>
+        <v>264</v>
+      </c>
+      <c r="L6" s="22">
+        <f>L5+J6</f>
+        <v>200</v>
+      </c>
+      <c r="M6" s="22">
+        <v>80</v>
+      </c>
+      <c r="N6" s="284" t="s">
+        <v>330</v>
+      </c>
+      <c r="O6" s="134">
+        <v>80</v>
+      </c>
+      <c r="P6" s="134">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+      <c r="Q6" s="134">
+        <v>100</v>
+      </c>
+      <c r="R6" s="134" t="s">
+        <v>333</v>
+      </c>
+      <c r="S6" s="134">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="270">
+        <v>4</v>
+      </c>
+      <c r="B7" s="134">
+        <v>6</v>
+      </c>
+      <c r="C7" s="134">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="H7" s="278">
+        <v>14</v>
+      </c>
+      <c r="I7" s="278">
+        <v>13</v>
+      </c>
+      <c r="J7" s="278">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="K7" s="278">
+        <f t="shared" si="2"/>
+        <v>332</v>
+      </c>
+      <c r="L7" s="278">
+        <f>L6+J7</f>
+        <v>255</v>
+      </c>
+      <c r="M7" s="278">
+        <v>80</v>
+      </c>
+      <c r="N7" s="282" t="s">
+        <v>331</v>
+      </c>
+      <c r="O7" s="134">
+        <v>40</v>
+      </c>
+      <c r="P7" s="134">
+        <f t="shared" si="3"/>
+        <v>320</v>
+      </c>
+      <c r="Q7" s="134">
+        <v>50</v>
+      </c>
+      <c r="R7" s="279" t="s">
+        <v>334</v>
+      </c>
+      <c r="S7" s="134">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="270">
+        <v>5</v>
+      </c>
+      <c r="B8" s="134">
+        <v>6</v>
+      </c>
+      <c r="C8" s="134">
+        <v>4</v>
+      </c>
+      <c r="D8" s="134">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="H8" s="12">
+        <v>15</v>
+      </c>
+      <c r="I8" s="12">
+        <v>15</v>
+      </c>
+      <c r="J8" s="12">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="K8" s="12">
+        <f t="shared" si="2"/>
+        <v>422</v>
+      </c>
+      <c r="L8" s="12">
+        <f>L7+J8</f>
+        <v>330</v>
+      </c>
+      <c r="O8" s="134">
+        <v>50</v>
+      </c>
+      <c r="P8" s="134">
+        <f t="shared" si="3"/>
+        <v>370</v>
+      </c>
+      <c r="Q8" s="134">
+        <v>50</v>
+      </c>
+      <c r="R8" s="134" t="s">
+        <v>343</v>
+      </c>
+      <c r="S8" s="134">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="270">
+        <v>6</v>
+      </c>
+      <c r="B9" s="134">
+        <v>7</v>
+      </c>
+      <c r="C9" s="134">
+        <v>4</v>
+      </c>
+      <c r="D9" s="134">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="H9" s="12">
+        <v>9</v>
+      </c>
+      <c r="I9" s="12">
+        <v>15</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="K9" s="12">
+        <f t="shared" si="2"/>
+        <v>532</v>
+      </c>
+      <c r="L9" s="12">
+        <f>L8+J9</f>
+        <v>425</v>
+      </c>
+      <c r="M9" s="12">
+        <v>160</v>
+      </c>
+      <c r="N9" s="283" t="s">
+        <v>337</v>
+      </c>
+      <c r="O9" s="134">
+        <v>60</v>
+      </c>
+      <c r="P9" s="134">
+        <f t="shared" si="3"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="270">
+        <v>7</v>
+      </c>
+      <c r="B10" s="134">
+        <v>18</v>
+      </c>
+      <c r="C10" s="134">
+        <v>8</v>
+      </c>
+      <c r="D10" s="134">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22">
+        <v>30</v>
+      </c>
+      <c r="J10" s="22">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="K10" s="22">
+        <f t="shared" si="2"/>
+        <v>712</v>
+      </c>
+      <c r="L10" s="22">
+        <f>L9+J10</f>
+        <v>575</v>
+      </c>
+      <c r="M10" s="22">
+        <v>160</v>
+      </c>
+      <c r="N10" s="284" t="s">
+        <v>338</v>
+      </c>
+      <c r="O10" s="134">
+        <v>90</v>
+      </c>
+      <c r="P10" s="134">
+        <f t="shared" si="3"/>
+        <v>520</v>
+      </c>
+      <c r="R10" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="S10" s="134">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="270">
+        <v>8</v>
+      </c>
+      <c r="B11" s="134">
+        <v>6</v>
+      </c>
+      <c r="C11" s="134">
+        <v>3</v>
+      </c>
+      <c r="D11" s="134">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="H11" s="278">
+        <v>19</v>
+      </c>
+      <c r="I11" s="278">
+        <v>15</v>
+      </c>
+      <c r="J11" s="278">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="K11" s="278">
+        <f t="shared" si="2"/>
+        <v>807</v>
+      </c>
+      <c r="L11" s="278">
+        <f>L10+J11</f>
+        <v>655</v>
+      </c>
+      <c r="M11" s="278">
+        <v>160</v>
+      </c>
+      <c r="N11" s="282" t="s">
+        <v>339</v>
+      </c>
+      <c r="P11" s="134">
+        <f t="shared" si="3"/>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="270">
+        <v>9</v>
+      </c>
+      <c r="B12" s="134">
+        <v>3</v>
+      </c>
+      <c r="C12" s="134">
+        <v>2</v>
+      </c>
+      <c r="D12" s="134">
+        <v>1</v>
+      </c>
+      <c r="E12" s="134">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="H12" s="12">
+        <v>48</v>
+      </c>
+      <c r="I12" s="12">
+        <v>20</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="K12" s="12">
+        <f t="shared" si="2"/>
+        <v>907</v>
+      </c>
+      <c r="L12" s="12">
+        <f>L11+J12</f>
+        <v>735</v>
+      </c>
+      <c r="P12" s="134">
+        <f t="shared" si="3"/>
+        <v>520</v>
+      </c>
+      <c r="R12" s="134" t="s">
+        <v>333</v>
+      </c>
+      <c r="S12" s="134">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="270">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E1" s="124" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="123">
-        <v>2</v>
-      </c>
-      <c r="B2" s="124" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2" s="124">
-        <v>1</v>
-      </c>
-      <c r="E2" s="124" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="123">
-        <v>3</v>
-      </c>
-      <c r="B3" s="124" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" s="124">
-        <v>2</v>
-      </c>
-      <c r="E3" s="124" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="123">
-        <v>4</v>
-      </c>
-      <c r="B4" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="D4" s="124">
-        <v>3</v>
-      </c>
-      <c r="E4" s="124" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="123">
-        <v>5</v>
-      </c>
-      <c r="B5" s="124" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" s="124">
-        <v>4</v>
-      </c>
-      <c r="E5" s="124" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="123">
-        <v>6</v>
-      </c>
-      <c r="B6" s="124" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" s="124">
-        <v>5</v>
-      </c>
-      <c r="E6" s="124" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="123">
-        <v>7</v>
-      </c>
-      <c r="B7" s="124" t="s">
-        <v>206</v>
-      </c>
-      <c r="D7" s="124">
-        <v>6</v>
-      </c>
-      <c r="E7" s="124" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="123">
-        <v>8</v>
-      </c>
-      <c r="B8" s="124" t="s">
-        <v>207</v>
-      </c>
-      <c r="D8" s="124">
-        <v>7</v>
-      </c>
-      <c r="E8" s="124" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="123">
-        <v>9</v>
-      </c>
-      <c r="B9" s="124" t="s">
-        <v>208</v>
-      </c>
-      <c r="D9" s="124">
-        <v>8</v>
-      </c>
-      <c r="E9" s="124" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="123">
-        <v>10</v>
-      </c>
-      <c r="B10" s="124" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" s="124">
-        <v>9</v>
-      </c>
-      <c r="E10" s="124" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="123">
+      <c r="J13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <f t="shared" si="2"/>
+        <v>907</v>
+      </c>
+      <c r="L13" s="12">
+        <f>L12+J13</f>
+        <v>735</v>
+      </c>
+      <c r="M13" s="12">
+        <v>220</v>
+      </c>
+      <c r="N13" s="283" t="s">
+        <v>340</v>
+      </c>
+      <c r="P13" s="134">
+        <f t="shared" si="3"/>
+        <v>520</v>
+      </c>
+      <c r="R13" s="134" t="s">
+        <v>335</v>
+      </c>
+      <c r="S13" s="134">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="270">
         <v>11</v>
       </c>
-      <c r="B11" s="124" t="s">
-        <v>210</v>
-      </c>
-      <c r="D11" s="124">
-        <v>10</v>
-      </c>
-      <c r="E11" s="124" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="123">
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="22">
+        <f t="shared" si="2"/>
+        <v>907</v>
+      </c>
+      <c r="L14" s="22">
+        <f>L13+J14</f>
+        <v>735</v>
+      </c>
+      <c r="M14" s="22">
+        <v>220</v>
+      </c>
+      <c r="N14" s="283" t="s">
+        <v>341</v>
+      </c>
+      <c r="P14" s="134">
+        <f t="shared" si="3"/>
+        <v>520</v>
+      </c>
+      <c r="S14" s="134">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="270">
         <v>12</v>
       </c>
-      <c r="B12" s="124" t="s">
-        <v>203</v>
-      </c>
-      <c r="D12" s="124">
-        <v>11</v>
-      </c>
-      <c r="E12" s="124" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="123">
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="278"/>
+      <c r="I15" s="278"/>
+      <c r="J15" s="278">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="278">
+        <f t="shared" si="2"/>
+        <v>907</v>
+      </c>
+      <c r="L15" s="278">
+        <f>L14+J15</f>
+        <v>735</v>
+      </c>
+      <c r="M15" s="278">
+        <v>220</v>
+      </c>
+      <c r="N15" s="282" t="s">
+        <v>342</v>
+      </c>
+      <c r="P15" s="134">
+        <f t="shared" si="3"/>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="270">
         <v>13</v>
       </c>
-      <c r="B13" s="124" t="s">
-        <v>213</v>
-      </c>
-      <c r="D13" s="124">
-        <v>12</v>
-      </c>
-      <c r="E13" s="124" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="123">
+      <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="12">
+        <f t="shared" si="2"/>
+        <v>907</v>
+      </c>
+      <c r="L16" s="12">
+        <f>L15+J16</f>
+        <v>735</v>
+      </c>
+      <c r="P16" s="134">
+        <f t="shared" si="3"/>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="270">
         <v>14</v>
       </c>
-      <c r="B14" s="124" t="s">
-        <v>211</v>
-      </c>
-      <c r="D14" s="124">
-        <v>13</v>
-      </c>
-      <c r="E14" s="124" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="123">
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="12">
+        <f t="shared" si="2"/>
+        <v>907</v>
+      </c>
+      <c r="L17" s="12">
+        <f>L16+J17</f>
+        <v>735</v>
+      </c>
+      <c r="P17" s="134">
+        <f t="shared" si="3"/>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="270">
         <v>15</v>
       </c>
-      <c r="B15" s="124" t="s">
-        <v>212</v>
-      </c>
-      <c r="D15" s="124">
-        <v>14</v>
-      </c>
-      <c r="E15" s="124" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="123">
-        <v>16</v>
-      </c>
-      <c r="B16" s="124" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="124">
-        <v>15</v>
-      </c>
-      <c r="E16" s="124" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="123">
-        <v>17</v>
-      </c>
-      <c r="B17" s="124" t="s">
-        <v>216</v>
-      </c>
-      <c r="D17" s="124">
-        <v>16</v>
-      </c>
-      <c r="E17" s="124" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="123">
-        <v>18</v>
-      </c>
-      <c r="B18" s="124" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" s="124">
-        <v>17</v>
-      </c>
-      <c r="E18" s="124" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="123">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="123">
-        <v>20</v>
+      <c r="G18" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="22">
+        <f t="shared" si="2"/>
+        <v>907</v>
+      </c>
+      <c r="L18" s="22">
+        <f>L17+J18</f>
+        <v>735</v>
+      </c>
+      <c r="M18" s="22"/>
+      <c r="N18" s="284"/>
+      <c r="P18" s="134">
+        <f t="shared" si="3"/>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="12">
+        <f t="shared" si="2"/>
+        <v>907</v>
+      </c>
+      <c r="L19" s="12">
+        <f>L18+J19</f>
+        <v>735</v>
+      </c>
+      <c r="P19" s="134">
+        <f t="shared" si="3"/>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P20" s="134">
+        <f t="shared" si="3"/>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P21" s="134">
+        <f t="shared" si="3"/>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P22" s="134">
+        <f t="shared" si="3"/>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:B21">
-    <sortCondition ref="B1:B21"/>
-  </sortState>
+  <mergeCells count="8">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="K1:K2"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/文物娘.xlsx
+++ b/文物娘.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GameMaker\Final Work\Github\CultureRelicGirls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CEB6ED-7248-4BF8-91BA-7648373F0FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00053D26-3D10-4530-A686-ECBE1E827A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E3677C8-2B1C-423A-AEA1-C1DF63D56BAF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{1E3677C8-2B1C-423A-AEA1-C1DF63D56BAF}"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="345">
   <si>
     <t>越王勾践剑</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1562,7 +1562,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="90">
+  <borders count="92">
     <border>
       <left/>
       <right/>
@@ -2663,6 +2663,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2687,7 +2717,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="288">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3090,6 +3120,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3492,13 +3525,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3542,6 +3569,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3865,8 +3904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D91B1E5-0340-464B-AF90-56D459836ED7}">
   <dimension ref="B1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:L8"/>
+    <sheetView topLeftCell="D1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3881,67 +3920,67 @@
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="145" t="s">
         <v>267</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="144" t="s">
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="145" t="s">
         <v>271</v>
       </c>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="144" t="s">
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="145" t="s">
         <v>272</v>
       </c>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="145" t="s">
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="146" t="s">
         <v>273</v>
       </c>
-      <c r="S2" s="145"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="146"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="147"/>
     </row>
     <row r="3" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="150" t="s">
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="147" t="s">
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="148"/>
-      <c r="O3" s="148"/>
-      <c r="P3" s="148"/>
-      <c r="Q3" s="149"/>
-      <c r="R3" s="150" t="s">
+      <c r="N3" s="149"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="149"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="151"/>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="152"/>
+      <c r="S3" s="152"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="153"/>
     </row>
     <row r="4" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -3967,23 +4006,23 @@
         <v>525</v>
       </c>
       <c r="H4" s="17">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="I4" s="18">
         <f>H4*1.2</f>
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="J4" s="18">
         <f>H4*1.5</f>
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K4" s="18">
         <f>H4*1.8</f>
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="L4" s="21">
         <f>H4*2.1</f>
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="M4" s="17">
         <v>200</v>
@@ -4048,23 +4087,23 @@
         <v>79.8</v>
       </c>
       <c r="H5" s="15">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I5" s="18">
         <f>H5*1.2</f>
-        <v>30</v>
+        <v>27.599999999999998</v>
       </c>
       <c r="J5" s="18">
         <f>H5*1.5</f>
-        <v>37.5</v>
+        <v>34.5</v>
       </c>
       <c r="K5" s="18">
         <f>H5*1.8</f>
-        <v>45</v>
+        <v>41.4</v>
       </c>
       <c r="L5" s="21">
         <f>H5*2.1</f>
-        <v>52.5</v>
+        <v>48.300000000000004</v>
       </c>
       <c r="M5" s="15">
         <v>25</v>
@@ -4196,23 +4235,23 @@
       </c>
       <c r="H7" s="19">
         <f>H5*H6</f>
-        <v>32.5</v>
+        <v>29.900000000000002</v>
       </c>
       <c r="I7" s="20">
         <f t="shared" ref="I7:L7" si="2">I5*I6</f>
-        <v>39</v>
+        <v>35.879999999999995</v>
       </c>
       <c r="J7" s="20">
         <f t="shared" si="2"/>
-        <v>48.75</v>
+        <v>44.85</v>
       </c>
       <c r="K7" s="23">
         <f t="shared" si="2"/>
-        <v>58.5</v>
+        <v>53.82</v>
       </c>
       <c r="L7" s="23">
         <f t="shared" si="2"/>
-        <v>68.25</v>
+        <v>62.790000000000006</v>
       </c>
       <c r="M7" s="19">
         <f>M5*M6</f>
@@ -4259,94 +4298,94 @@
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="135" t="s">
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="136" t="s">
         <v>344</v>
       </c>
-      <c r="I8" s="136"/>
-      <c r="J8" s="136"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="135" t="s">
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="136"/>
-      <c r="O8" s="136"/>
-      <c r="P8" s="136"/>
-      <c r="Q8" s="137"/>
-      <c r="R8" s="135" t="s">
+      <c r="N8" s="137"/>
+      <c r="O8" s="137"/>
+      <c r="P8" s="137"/>
+      <c r="Q8" s="138"/>
+      <c r="R8" s="136" t="s">
         <v>318</v>
       </c>
-      <c r="S8" s="136"/>
-      <c r="T8" s="136"/>
-      <c r="U8" s="136"/>
-      <c r="V8" s="137"/>
+      <c r="S8" s="137"/>
+      <c r="T8" s="137"/>
+      <c r="U8" s="137"/>
+      <c r="V8" s="138"/>
     </row>
     <row r="9" spans="2:22" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="156" t="s">
+      <c r="C9" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="156" t="s">
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="157"/>
-      <c r="J9" s="157"/>
-      <c r="K9" s="157"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="156" t="s">
+      <c r="I9" s="158"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="158"/>
+      <c r="L9" s="159"/>
+      <c r="M9" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="157"/>
-      <c r="O9" s="157"/>
-      <c r="P9" s="157"/>
-      <c r="Q9" s="158"/>
-      <c r="R9" s="156" t="s">
+      <c r="N9" s="158"/>
+      <c r="O9" s="158"/>
+      <c r="P9" s="158"/>
+      <c r="Q9" s="159"/>
+      <c r="R9" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="S9" s="157"/>
-      <c r="T9" s="157"/>
-      <c r="U9" s="157"/>
-      <c r="V9" s="158"/>
+      <c r="S9" s="158"/>
+      <c r="T9" s="158"/>
+      <c r="U9" s="158"/>
+      <c r="V9" s="159"/>
     </row>
     <row r="11" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="144" t="s">
+      <c r="C12" s="145" t="s">
         <v>270</v>
       </c>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="144" t="s">
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="145" t="s">
         <v>268</v>
       </c>
-      <c r="I12" s="145"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="145"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="144" t="s">
+      <c r="I12" s="146"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="147"/>
+      <c r="M12" s="145" t="s">
         <v>269</v>
       </c>
-      <c r="N12" s="145"/>
-      <c r="O12" s="145"/>
-      <c r="P12" s="145"/>
-      <c r="Q12" s="146"/>
+      <c r="N12" s="146"/>
+      <c r="O12" s="146"/>
+      <c r="P12" s="146"/>
+      <c r="Q12" s="147"/>
       <c r="S12" s="113">
         <v>2.1</v>
       </c>
@@ -4361,27 +4400,27 @@
       <c r="B13" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="141" t="s">
+      <c r="C13" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="141" t="s">
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="142"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="142"/>
-      <c r="L13" s="143"/>
-      <c r="M13" s="161" t="s">
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="N13" s="162"/>
-      <c r="O13" s="162"/>
-      <c r="P13" s="162"/>
-      <c r="Q13" s="163"/>
+      <c r="N13" s="163"/>
+      <c r="O13" s="163"/>
+      <c r="P13" s="163"/>
+      <c r="Q13" s="164"/>
       <c r="S13" s="116">
         <v>1.8</v>
       </c>
@@ -4435,23 +4474,23 @@
         <v>136.5</v>
       </c>
       <c r="M14" s="17">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="N14" s="18">
         <f>M14*1.2</f>
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="O14" s="18">
         <f>M14*1.5</f>
-        <v>195</v>
+        <v>202.5</v>
       </c>
       <c r="P14" s="18">
         <f>M14*1.8</f>
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="Q14" s="21">
         <f>M14*2.1</f>
-        <v>273</v>
+        <v>283.5</v>
       </c>
       <c r="S14" s="116">
         <v>1.5</v>
@@ -4462,7 +4501,7 @@
       <c r="U14" s="118">
         <v>1</v>
       </c>
-      <c r="V14" s="159"/>
+      <c r="V14" s="160"/>
     </row>
     <row r="15" spans="2:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
@@ -4507,23 +4546,23 @@
         <v>63</v>
       </c>
       <c r="M15" s="15">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N15" s="18">
         <f>M15*1.2</f>
-        <v>30</v>
+        <v>32.4</v>
       </c>
       <c r="O15" s="18">
         <f>M15*1.5</f>
-        <v>37.5</v>
+        <v>40.5</v>
       </c>
       <c r="P15" s="18">
         <f>M15*1.8</f>
-        <v>45</v>
+        <v>48.6</v>
       </c>
       <c r="Q15" s="21">
         <f>M15*2.1</f>
-        <v>52.5</v>
+        <v>56.7</v>
       </c>
       <c r="S15" s="116">
         <v>1.2</v>
@@ -4532,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="U15" s="118"/>
-      <c r="V15" s="159"/>
+      <c r="V15" s="160"/>
     </row>
     <row r="16" spans="2:22" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
@@ -4589,7 +4628,7 @@
       <c r="T16" s="120"/>
       <c r="U16" s="121"/>
     </row>
-    <row r="17" spans="2:17" s="13" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" s="13" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>48</v>
       </c>
@@ -4629,137 +4668,137 @@
         <f t="shared" si="6"/>
         <v>43.2</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="20">
         <f t="shared" si="6"/>
         <v>50.400000000000006</v>
       </c>
       <c r="M17" s="19">
         <f>M15*M16</f>
-        <v>32.5</v>
+        <v>35.1</v>
       </c>
       <c r="N17" s="23">
         <f t="shared" ref="N17:Q17" si="7">N15*N16</f>
-        <v>39</v>
+        <v>42.12</v>
       </c>
       <c r="O17" s="23">
         <f t="shared" si="7"/>
-        <v>48.75</v>
+        <v>52.65</v>
       </c>
       <c r="P17" s="23">
         <f t="shared" si="7"/>
-        <v>58.5</v>
+        <v>63.180000000000007</v>
       </c>
       <c r="Q17" s="14">
         <f t="shared" si="7"/>
-        <v>68.25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>73.710000000000008</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="135" t="s">
+      <c r="C18" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="135" t="s">
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="136"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="135" t="s">
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="136"/>
-      <c r="Q18" s="137"/>
-    </row>
-    <row r="19" spans="2:17" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="137"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="138"/>
+    </row>
+    <row r="19" spans="2:18" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="156" t="s">
+      <c r="C19" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="156" t="s">
+      <c r="D19" s="158"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="157"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="156" t="s">
+      <c r="I19" s="158"/>
+      <c r="J19" s="158"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="159"/>
+      <c r="M19" s="157" t="s">
         <v>27</v>
       </c>
-      <c r="N19" s="157"/>
-      <c r="O19" s="157"/>
-      <c r="P19" s="157"/>
-      <c r="Q19" s="158"/>
-    </row>
-    <row r="21" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N19" s="158"/>
+      <c r="O19" s="158"/>
+      <c r="P19" s="158"/>
+      <c r="Q19" s="159"/>
+    </row>
+    <row r="21" spans="2:18" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:18" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="153" t="s">
+      <c r="C22" s="154" t="s">
         <v>274</v>
       </c>
-      <c r="D22" s="154"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="153" t="s">
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="154" t="s">
         <v>275</v>
       </c>
-      <c r="I22" s="154"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="154"/>
-      <c r="L22" s="155"/>
-      <c r="M22" s="153" t="s">
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="156"/>
+      <c r="M22" s="154" t="s">
         <v>276</v>
       </c>
-      <c r="N22" s="154"/>
-      <c r="O22" s="154"/>
-      <c r="P22" s="154"/>
-      <c r="Q22" s="155"/>
-    </row>
-    <row r="23" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N22" s="155"/>
+      <c r="O22" s="155"/>
+      <c r="P22" s="155"/>
+      <c r="Q22" s="156"/>
+    </row>
+    <row r="23" spans="2:18" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="138" t="s">
+      <c r="C23" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="141" t="s">
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="142"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="142"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="161" t="s">
+      <c r="I23" s="143"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="162"/>
-      <c r="O23" s="162"/>
-      <c r="P23" s="162"/>
-      <c r="Q23" s="163"/>
-    </row>
-    <row r="24" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N23" s="163"/>
+      <c r="O23" s="163"/>
+      <c r="P23" s="163"/>
+      <c r="Q23" s="164"/>
+    </row>
+    <row r="24" spans="2:18" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>6</v>
       </c>
@@ -4783,45 +4822,45 @@
         <v>378</v>
       </c>
       <c r="H24" s="17">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I24" s="18">
         <f>H24*1.2</f>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J24" s="18">
         <f>H24*1.5</f>
-        <v>97.5</v>
+        <v>90</v>
       </c>
       <c r="K24" s="18">
         <f>H24*1.8</f>
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="L24" s="21">
         <f>H24*2.1</f>
-        <v>136.5</v>
-      </c>
-      <c r="M24" s="17">
+        <v>126</v>
+      </c>
+      <c r="M24" s="286">
         <v>90</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="287">
         <f>M24*1.2</f>
         <v>108</v>
       </c>
-      <c r="O24" s="18">
+      <c r="O24" s="287">
         <f>M24*1.5</f>
         <v>135</v>
       </c>
-      <c r="P24" s="18">
+      <c r="P24" s="287">
         <f>M24*1.8</f>
         <v>162</v>
       </c>
-      <c r="Q24" s="21">
+      <c r="Q24" s="134">
         <f>M24*2.1</f>
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="2:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>7</v>
       </c>
@@ -4845,45 +4884,48 @@
         <v>75.600000000000009</v>
       </c>
       <c r="H25" s="17">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I25" s="18">
         <f>H25*1.2</f>
-        <v>28.799999999999997</v>
+        <v>22.8</v>
       </c>
       <c r="J25" s="18">
         <f>H25*1.5</f>
-        <v>36</v>
+        <v>28.5</v>
       </c>
       <c r="K25" s="18">
         <f>H25*1.8</f>
-        <v>43.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="L25" s="21">
         <f>H25*2.1</f>
-        <v>50.400000000000006</v>
+        <v>39.9</v>
       </c>
       <c r="M25" s="15">
-        <v>20</v>
-      </c>
-      <c r="N25" s="18">
+        <v>15</v>
+      </c>
+      <c r="N25" s="16">
         <f>M25*1.2</f>
-        <v>24</v>
-      </c>
-      <c r="O25" s="18">
+        <v>18</v>
+      </c>
+      <c r="O25" s="16">
         <f>M25*1.5</f>
-        <v>30</v>
-      </c>
-      <c r="P25" s="18">
+        <v>22.5</v>
+      </c>
+      <c r="P25" s="16">
         <f>M25*1.8</f>
-        <v>36</v>
-      </c>
-      <c r="Q25" s="21">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="10">
         <f>M25*2.1</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31.5</v>
+      </c>
+      <c r="R25" s="11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
@@ -4932,8 +4974,11 @@
       <c r="Q26" s="10">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="2:17" s="13" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R26" s="10">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" s="13" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>48</v>
       </c>
@@ -4959,135 +5004,139 @@
       </c>
       <c r="H27" s="19">
         <f>H25*H26</f>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I27" s="20">
         <f t="shared" ref="I27:L27" si="9">I25*I26</f>
-        <v>28.799999999999997</v>
+        <v>22.8</v>
       </c>
       <c r="J27" s="20">
         <f t="shared" si="9"/>
-        <v>36</v>
+        <v>28.5</v>
       </c>
       <c r="K27" s="20">
         <f t="shared" si="9"/>
-        <v>43.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="L27" s="14">
         <f t="shared" si="9"/>
-        <v>50.400000000000006</v>
+        <v>39.9</v>
       </c>
       <c r="M27" s="19">
         <f>M25*M26</f>
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="N27" s="20">
-        <f t="shared" ref="N27:Q27" si="10">N25*N26</f>
-        <v>26.400000000000002</v>
+        <f t="shared" ref="N27:R27" si="10">N25*N26</f>
+        <v>19.8</v>
       </c>
       <c r="O27" s="20">
         <f t="shared" si="10"/>
-        <v>33</v>
+        <v>24.750000000000004</v>
       </c>
       <c r="P27" s="20">
         <f t="shared" si="10"/>
-        <v>39.6</v>
+        <v>29.700000000000003</v>
       </c>
       <c r="Q27" s="14">
         <f t="shared" si="10"/>
-        <v>46.2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>34.650000000000006</v>
+      </c>
+      <c r="R27" s="14">
+        <f t="shared" si="10"/>
+        <v>92.399999999999991</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="135" t="s">
+      <c r="C28" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="135" t="s">
+      <c r="D28" s="137"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="136"/>
-      <c r="J28" s="136"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="135" t="s">
+      <c r="I28" s="137"/>
+      <c r="J28" s="137"/>
+      <c r="K28" s="137"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="N28" s="136"/>
-      <c r="O28" s="136"/>
-      <c r="P28" s="136"/>
-      <c r="Q28" s="137"/>
-    </row>
-    <row r="29" spans="2:17" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N28" s="137"/>
+      <c r="O28" s="137"/>
+      <c r="P28" s="137"/>
+      <c r="Q28" s="138"/>
+    </row>
+    <row r="29" spans="2:18" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="156" t="s">
+      <c r="C29" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="157"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="156" t="s">
+      <c r="D29" s="158"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="I29" s="157"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="157"/>
-      <c r="L29" s="158"/>
-      <c r="M29" s="156" t="s">
+      <c r="I29" s="158"/>
+      <c r="J29" s="158"/>
+      <c r="K29" s="158"/>
+      <c r="L29" s="159"/>
+      <c r="M29" s="157" t="s">
         <v>110</v>
       </c>
-      <c r="N29" s="157"/>
-      <c r="O29" s="157"/>
-      <c r="P29" s="157"/>
-      <c r="Q29" s="158"/>
-    </row>
-    <row r="31" spans="2:17" s="13" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N29" s="158"/>
+      <c r="O29" s="158"/>
+      <c r="P29" s="158"/>
+      <c r="Q29" s="159"/>
+    </row>
+    <row r="31" spans="2:18" s="13" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:18" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="144" t="s">
+      <c r="C32" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="144" t="s">
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="I32" s="145"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="145"/>
-      <c r="L32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="147"/>
     </row>
     <row r="33" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="138" t="s">
+      <c r="C33" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="139"/>
-      <c r="E33" s="139"/>
-      <c r="F33" s="139"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="141" t="s">
+      <c r="D33" s="140"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="142"/>
-      <c r="J33" s="142"/>
-      <c r="K33" s="142"/>
-      <c r="L33" s="143"/>
+      <c r="I33" s="143"/>
+      <c r="J33" s="143"/>
+      <c r="K33" s="143"/>
+      <c r="L33" s="144"/>
     </row>
     <row r="34" spans="2:17" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
@@ -5265,39 +5314,39 @@
       <c r="B38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="135" t="s">
+      <c r="C38" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="136"/>
-      <c r="E38" s="136"/>
-      <c r="F38" s="136"/>
-      <c r="G38" s="137"/>
-      <c r="H38" s="135" t="s">
+      <c r="D38" s="137"/>
+      <c r="E38" s="137"/>
+      <c r="F38" s="137"/>
+      <c r="G38" s="138"/>
+      <c r="H38" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="I38" s="136"/>
-      <c r="J38" s="136"/>
-      <c r="K38" s="136"/>
-      <c r="L38" s="137"/>
+      <c r="I38" s="137"/>
+      <c r="J38" s="137"/>
+      <c r="K38" s="137"/>
+      <c r="L38" s="138"/>
     </row>
     <row r="39" spans="2:17" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="156" t="s">
+      <c r="C39" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="157"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="156" t="s">
+      <c r="D39" s="158"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="158"/>
+      <c r="G39" s="159"/>
+      <c r="H39" s="157" t="s">
         <v>317</v>
       </c>
-      <c r="I39" s="157"/>
-      <c r="J39" s="157"/>
-      <c r="K39" s="157"/>
-      <c r="L39" s="158"/>
+      <c r="I39" s="158"/>
+      <c r="J39" s="158"/>
+      <c r="K39" s="158"/>
+      <c r="L39" s="159"/>
       <c r="M39" s="26"/>
       <c r="N39" s="26"/>
       <c r="O39" s="26"/>
@@ -5366,8 +5415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E67363-7FC7-4BA4-8F5D-65854E98AD6E}">
   <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5390,11 +5439,11 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="165" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
       <c r="F2" s="36"/>
@@ -5404,9 +5453,9 @@
       <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="166"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
+      <c r="A3" s="167"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
       <c r="D3" s="38"/>
       <c r="E3" s="39" t="s">
         <v>40</v>
@@ -5448,11 +5497,11 @@
       <c r="J4" s="43"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="174" t="s">
+      <c r="A5" s="175" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="174"/>
-      <c r="C5" s="174"/>
+      <c r="B5" s="175"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="38"/>
       <c r="E5" s="46" t="s">
         <v>46</v>
@@ -5472,9 +5521,9 @@
       <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="174"/>
-      <c r="B6" s="174"/>
-      <c r="C6" s="174"/>
+      <c r="A6" s="175"/>
+      <c r="B6" s="175"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="38"/>
       <c r="E6" s="46" t="s">
         <v>47</v>
@@ -5494,9 +5543,9 @@
       <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="174"/>
-      <c r="B7" s="174"/>
-      <c r="C7" s="174"/>
+      <c r="A7" s="175"/>
+      <c r="B7" s="175"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="38"/>
       <c r="E7" s="46" t="s">
         <v>48</v>
@@ -5600,11 +5649,11 @@
       <c r="B12" s="63">
         <v>35</v>
       </c>
-      <c r="C12" s="172" t="s">
+      <c r="C12" s="173" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="38"/>
-      <c r="E12" s="170" t="s">
+      <c r="E12" s="171" t="s">
         <v>52</v>
       </c>
       <c r="F12" s="64" t="s">
@@ -5628,9 +5677,9 @@
       <c r="B13" s="66">
         <v>5</v>
       </c>
-      <c r="C13" s="173"/>
+      <c r="C13" s="174"/>
       <c r="D13" s="38"/>
-      <c r="E13" s="171"/>
+      <c r="E13" s="172"/>
       <c r="F13" s="67" t="s">
         <v>55</v>
       </c>
@@ -5665,11 +5714,11 @@
       <c r="B15" s="72">
         <v>44</v>
       </c>
-      <c r="C15" s="172" t="s">
+      <c r="C15" s="173" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="38"/>
-      <c r="E15" s="168" t="s">
+      <c r="E15" s="169" t="s">
         <v>58</v>
       </c>
       <c r="F15" s="64" t="s">
@@ -5694,9 +5743,9 @@
       <c r="B16" s="74">
         <v>9</v>
       </c>
-      <c r="C16" s="173"/>
+      <c r="C16" s="174"/>
       <c r="D16" s="38"/>
-      <c r="E16" s="169"/>
+      <c r="E16" s="170"/>
       <c r="F16" s="67" t="s">
         <v>55</v>
       </c>
@@ -5730,11 +5779,11 @@
       <c r="B18" s="77">
         <v>68</v>
       </c>
-      <c r="C18" s="172" t="s">
+      <c r="C18" s="173" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="38"/>
-      <c r="E18" s="168" t="s">
+      <c r="E18" s="169" t="s">
         <v>61</v>
       </c>
       <c r="F18" s="64" t="s">
@@ -5759,9 +5808,9 @@
       <c r="B19" s="74">
         <v>29</v>
       </c>
-      <c r="C19" s="173"/>
+      <c r="C19" s="174"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="169"/>
+      <c r="E19" s="170"/>
       <c r="F19" s="67" t="s">
         <v>55</v>
       </c>
@@ -5795,11 +5844,11 @@
       <c r="B21" s="72">
         <v>92</v>
       </c>
-      <c r="C21" s="172" t="s">
+      <c r="C21" s="173" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="38"/>
-      <c r="E21" s="168" t="s">
+      <c r="E21" s="169" t="s">
         <v>65</v>
       </c>
       <c r="F21" s="64" t="s">
@@ -5824,9 +5873,9 @@
       <c r="B22" s="74">
         <v>80</v>
       </c>
-      <c r="C22" s="173"/>
+      <c r="C22" s="174"/>
       <c r="D22" s="38"/>
-      <c r="E22" s="169"/>
+      <c r="E22" s="170"/>
       <c r="F22" s="67" t="s">
         <v>55</v>
       </c>
@@ -5882,11 +5931,11 @@
       <c r="J25" s="38"/>
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="164" t="s">
+      <c r="A26" s="165" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="165"/>
-      <c r="C26" s="165"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="166"/>
       <c r="D26" s="36"/>
       <c r="E26" s="36"/>
       <c r="F26" s="36"/>
@@ -5903,9 +5952,9 @@
       <c r="K26" s="87"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="166"/>
-      <c r="B27" s="167"/>
-      <c r="C27" s="167"/>
+      <c r="A27" s="167"/>
+      <c r="B27" s="168"/>
+      <c r="C27" s="168"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39" t="s">
         <v>40</v>
@@ -5957,11 +6006,11 @@
       <c r="K28" s="89"/>
     </row>
     <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="175" t="s">
+      <c r="A29" s="176" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="176"/>
-      <c r="C29" s="176"/>
+      <c r="B29" s="177"/>
+      <c r="C29" s="177"/>
       <c r="D29" s="38"/>
       <c r="E29" s="46" t="s">
         <v>46</v>
@@ -5987,9 +6036,9 @@
       <c r="K29" s="89"/>
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="177"/>
-      <c r="B30" s="176"/>
-      <c r="C30" s="176"/>
+      <c r="A30" s="178"/>
+      <c r="B30" s="177"/>
+      <c r="C30" s="177"/>
       <c r="D30" s="38"/>
       <c r="E30" s="46" t="s">
         <v>47</v>
@@ -6004,16 +6053,16 @@
       <c r="I30" s="31"/>
       <c r="J30" s="99"/>
       <c r="K30" s="89"/>
-      <c r="M30" s="161" t="s">
+      <c r="M30" s="162" t="s">
         <v>68</v>
       </c>
-      <c r="N30" s="162"/>
-      <c r="O30" s="163"/>
+      <c r="N30" s="163"/>
+      <c r="O30" s="164"/>
     </row>
     <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="177"/>
-      <c r="B31" s="176"/>
-      <c r="C31" s="176"/>
+      <c r="A31" s="178"/>
+      <c r="B31" s="177"/>
+      <c r="C31" s="177"/>
       <c r="D31" s="38"/>
       <c r="E31" s="46" t="s">
         <v>48</v>
@@ -6037,11 +6086,11 @@
         <v>18</v>
       </c>
       <c r="K31" s="89"/>
-      <c r="M31" s="184" t="s">
+      <c r="M31" s="185" t="s">
         <v>176</v>
       </c>
-      <c r="N31" s="185"/>
-      <c r="O31" s="186"/>
+      <c r="N31" s="186"/>
+      <c r="O31" s="187"/>
     </row>
     <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="90"/>
@@ -6061,9 +6110,9 @@
       <c r="I32" s="32"/>
       <c r="J32" s="102"/>
       <c r="K32" s="89"/>
-      <c r="M32" s="184"/>
-      <c r="N32" s="185"/>
-      <c r="O32" s="186"/>
+      <c r="M32" s="185"/>
+      <c r="N32" s="186"/>
+      <c r="O32" s="187"/>
     </row>
     <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
@@ -6083,9 +6132,9 @@
       <c r="I33" s="38"/>
       <c r="J33" s="38"/>
       <c r="K33" s="89"/>
-      <c r="M33" s="184"/>
-      <c r="N33" s="185"/>
-      <c r="O33" s="186"/>
+      <c r="M33" s="185"/>
+      <c r="N33" s="186"/>
+      <c r="O33" s="187"/>
     </row>
     <row r="34" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="91">
@@ -6094,11 +6143,11 @@
       <c r="B34" s="92">
         <v>140</v>
       </c>
-      <c r="C34" s="178" t="s">
+      <c r="C34" s="179" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="38"/>
-      <c r="E34" s="168" t="s">
+      <c r="E34" s="169" t="s">
         <v>70</v>
       </c>
       <c r="F34" s="93" t="s">
@@ -6117,9 +6166,9 @@
         <v>4</v>
       </c>
       <c r="K34" s="89"/>
-      <c r="M34" s="187"/>
-      <c r="N34" s="188"/>
-      <c r="O34" s="189"/>
+      <c r="M34" s="188"/>
+      <c r="N34" s="189"/>
+      <c r="O34" s="190"/>
     </row>
     <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="94">
@@ -6128,9 +6177,9 @@
       <c r="B35" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="179"/>
+      <c r="C35" s="180"/>
       <c r="D35" s="38"/>
-      <c r="E35" s="169"/>
+      <c r="E35" s="170"/>
       <c r="F35" s="67" t="s">
         <v>55</v>
       </c>
@@ -6160,11 +6209,11 @@
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
       <c r="K36" s="89"/>
-      <c r="M36" s="161" t="s">
+      <c r="M36" s="162" t="s">
         <v>126</v>
       </c>
-      <c r="N36" s="162"/>
-      <c r="O36" s="163"/>
+      <c r="N36" s="163"/>
+      <c r="O36" s="164"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="91">
@@ -6173,11 +6222,11 @@
       <c r="B37" s="92">
         <v>166</v>
       </c>
-      <c r="C37" s="180" t="s">
+      <c r="C37" s="181" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="38"/>
-      <c r="E37" s="168" t="s">
+      <c r="E37" s="169" t="s">
         <v>76</v>
       </c>
       <c r="F37" s="93" t="s">
@@ -6196,11 +6245,11 @@
         <v>4</v>
       </c>
       <c r="K37" s="89"/>
-      <c r="M37" s="184" t="s">
+      <c r="M37" s="185" t="s">
         <v>177</v>
       </c>
-      <c r="N37" s="176"/>
-      <c r="O37" s="192"/>
+      <c r="N37" s="177"/>
+      <c r="O37" s="193"/>
     </row>
     <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="s">
@@ -6209,9 +6258,9 @@
       <c r="B38" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="181"/>
+      <c r="C38" s="182"/>
       <c r="D38" s="38"/>
-      <c r="E38" s="169"/>
+      <c r="E38" s="170"/>
       <c r="F38" s="67" t="s">
         <v>55</v>
       </c>
@@ -6228,9 +6277,9 @@
         <v>75</v>
       </c>
       <c r="K38" s="89"/>
-      <c r="M38" s="193"/>
-      <c r="N38" s="176"/>
-      <c r="O38" s="192"/>
+      <c r="M38" s="194"/>
+      <c r="N38" s="177"/>
+      <c r="O38" s="193"/>
     </row>
     <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
@@ -6246,9 +6295,9 @@
       <c r="I39" s="38"/>
       <c r="J39" s="38"/>
       <c r="K39" s="89"/>
-      <c r="M39" s="193"/>
-      <c r="N39" s="176"/>
-      <c r="O39" s="192"/>
+      <c r="M39" s="194"/>
+      <c r="N39" s="177"/>
+      <c r="O39" s="193"/>
     </row>
     <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="91">
@@ -6257,11 +6306,11 @@
       <c r="B40" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="C40" s="178" t="s">
+      <c r="C40" s="179" t="s">
         <v>141</v>
       </c>
       <c r="D40" s="38"/>
-      <c r="E40" s="168" t="s">
+      <c r="E40" s="169" t="s">
         <v>77</v>
       </c>
       <c r="F40" s="93" t="s">
@@ -6273,14 +6322,14 @@
       <c r="H40" s="93">
         <v>2</v>
       </c>
-      <c r="I40" s="190">
+      <c r="I40" s="191">
         <v>3</v>
       </c>
-      <c r="J40" s="191"/>
+      <c r="J40" s="192"/>
       <c r="K40" s="89"/>
-      <c r="M40" s="194"/>
-      <c r="N40" s="195"/>
-      <c r="O40" s="196"/>
+      <c r="M40" s="195"/>
+      <c r="N40" s="196"/>
+      <c r="O40" s="197"/>
     </row>
     <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="94" t="s">
@@ -6289,9 +6338,9 @@
       <c r="B41" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="179"/>
+      <c r="C41" s="180"/>
       <c r="D41" s="38"/>
-      <c r="E41" s="169"/>
+      <c r="E41" s="170"/>
       <c r="F41" s="67" t="s">
         <v>55</v>
       </c>
@@ -6301,10 +6350,10 @@
       <c r="H41" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="I41" s="182" t="s">
+      <c r="I41" s="183" t="s">
         <v>136</v>
       </c>
-      <c r="J41" s="183"/>
+      <c r="J41" s="184"/>
       <c r="K41" s="89"/>
     </row>
     <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -6326,11 +6375,11 @@
     </row>
     <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="164" t="s">
+      <c r="A45" s="165" t="s">
         <v>123</v>
       </c>
-      <c r="B45" s="165"/>
-      <c r="C45" s="165"/>
+      <c r="B45" s="166"/>
+      <c r="C45" s="166"/>
       <c r="D45" s="36"/>
       <c r="E45" s="36"/>
       <c r="F45" s="36"/>
@@ -6348,9 +6397,9 @@
       <c r="K45" s="87"/>
     </row>
     <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="166"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
+      <c r="A46" s="167"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="168"/>
       <c r="D46" s="107"/>
       <c r="E46" s="39" t="s">
         <v>40</v>
@@ -6371,11 +6420,11 @@
         <v>68</v>
       </c>
       <c r="K46" s="89"/>
-      <c r="M46" s="161" t="s">
+      <c r="M46" s="162" t="s">
         <v>127</v>
       </c>
-      <c r="N46" s="162"/>
-      <c r="O46" s="163"/>
+      <c r="N46" s="163"/>
+      <c r="O46" s="164"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="108"/>
@@ -6404,18 +6453,18 @@
         <v>462.5</v>
       </c>
       <c r="K47" s="89"/>
-      <c r="M47" s="184" t="s">
+      <c r="M47" s="185" t="s">
         <v>178</v>
       </c>
-      <c r="N47" s="176"/>
-      <c r="O47" s="192"/>
+      <c r="N47" s="177"/>
+      <c r="O47" s="193"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="175" t="s">
+      <c r="A48" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="B48" s="176"/>
-      <c r="C48" s="176"/>
+      <c r="B48" s="177"/>
+      <c r="C48" s="177"/>
       <c r="D48" s="107"/>
       <c r="E48" s="46" t="s">
         <v>46</v>
@@ -6439,14 +6488,14 @@
         <v>21.25</v>
       </c>
       <c r="K48" s="89"/>
-      <c r="M48" s="193"/>
-      <c r="N48" s="176"/>
-      <c r="O48" s="192"/>
+      <c r="M48" s="194"/>
+      <c r="N48" s="177"/>
+      <c r="O48" s="193"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="177"/>
-      <c r="B49" s="176"/>
-      <c r="C49" s="176"/>
+      <c r="A49" s="178"/>
+      <c r="B49" s="177"/>
+      <c r="C49" s="177"/>
       <c r="D49" s="107"/>
       <c r="E49" s="46" t="s">
         <v>47</v>
@@ -6461,14 +6510,14 @@
       <c r="I49" s="110"/>
       <c r="J49" s="109"/>
       <c r="K49" s="89"/>
-      <c r="M49" s="193"/>
-      <c r="N49" s="176"/>
-      <c r="O49" s="192"/>
+      <c r="M49" s="194"/>
+      <c r="N49" s="177"/>
+      <c r="O49" s="193"/>
     </row>
     <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="177"/>
-      <c r="B50" s="176"/>
-      <c r="C50" s="176"/>
+      <c r="A50" s="178"/>
+      <c r="B50" s="177"/>
+      <c r="C50" s="177"/>
       <c r="D50" s="107"/>
       <c r="E50" s="46" t="s">
         <v>48</v>
@@ -6492,9 +6541,9 @@
         <v>42.5</v>
       </c>
       <c r="K50" s="89"/>
-      <c r="M50" s="194"/>
-      <c r="N50" s="195"/>
-      <c r="O50" s="196"/>
+      <c r="M50" s="195"/>
+      <c r="N50" s="196"/>
+      <c r="O50" s="197"/>
     </row>
     <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="90"/>
@@ -6541,11 +6590,11 @@
       <c r="B53" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="C53" s="178" t="s">
+      <c r="C53" s="179" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="107"/>
-      <c r="E53" s="168" t="s">
+      <c r="E53" s="169" t="s">
         <v>70</v>
       </c>
       <c r="F53" s="93" t="s">
@@ -6564,11 +6613,11 @@
         <v>4</v>
       </c>
       <c r="K53" s="89"/>
-      <c r="M53" s="161" t="s">
+      <c r="M53" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="N53" s="162"/>
-      <c r="O53" s="163"/>
+      <c r="N53" s="163"/>
+      <c r="O53" s="164"/>
     </row>
     <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="94" t="s">
@@ -6577,9 +6626,9 @@
       <c r="B54" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="179"/>
+      <c r="C54" s="180"/>
       <c r="D54" s="107"/>
-      <c r="E54" s="169"/>
+      <c r="E54" s="170"/>
       <c r="F54" s="67" t="s">
         <v>55</v>
       </c>
@@ -6596,11 +6645,11 @@
         <v>130</v>
       </c>
       <c r="K54" s="89"/>
-      <c r="M54" s="184" t="s">
+      <c r="M54" s="185" t="s">
         <v>179</v>
       </c>
-      <c r="N54" s="176"/>
-      <c r="O54" s="192"/>
+      <c r="N54" s="177"/>
+      <c r="O54" s="193"/>
     </row>
     <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="108" t="s">
@@ -6616,9 +6665,9 @@
       <c r="I55" s="107"/>
       <c r="J55" s="107"/>
       <c r="K55" s="89"/>
-      <c r="M55" s="193"/>
-      <c r="N55" s="176"/>
-      <c r="O55" s="192"/>
+      <c r="M55" s="194"/>
+      <c r="N55" s="177"/>
+      <c r="O55" s="193"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="91">
@@ -6627,11 +6676,11 @@
       <c r="B56" s="92" t="s">
         <v>144</v>
       </c>
-      <c r="C56" s="180" t="s">
+      <c r="C56" s="181" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="107"/>
-      <c r="E56" s="168" t="s">
+      <c r="E56" s="169" t="s">
         <v>76</v>
       </c>
       <c r="F56" s="93" t="s">
@@ -6650,9 +6699,9 @@
         <v>4</v>
       </c>
       <c r="K56" s="89"/>
-      <c r="M56" s="193"/>
-      <c r="N56" s="176"/>
-      <c r="O56" s="192"/>
+      <c r="M56" s="194"/>
+      <c r="N56" s="177"/>
+      <c r="O56" s="193"/>
     </row>
     <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="94" t="s">
@@ -6661,9 +6710,9 @@
       <c r="B57" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="C57" s="181"/>
+      <c r="C57" s="182"/>
       <c r="D57" s="107"/>
-      <c r="E57" s="169"/>
+      <c r="E57" s="170"/>
       <c r="F57" s="67" t="s">
         <v>55</v>
       </c>
@@ -6680,9 +6729,9 @@
         <v>133</v>
       </c>
       <c r="K57" s="89"/>
-      <c r="M57" s="194"/>
-      <c r="N57" s="195"/>
-      <c r="O57" s="196"/>
+      <c r="M57" s="195"/>
+      <c r="N57" s="196"/>
+      <c r="O57" s="197"/>
     </row>
     <row r="58" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="108" t="s">
@@ -6706,11 +6755,11 @@
       <c r="B59" s="97" t="s">
         <v>146</v>
       </c>
-      <c r="C59" s="178" t="s">
+      <c r="C59" s="179" t="s">
         <v>16</v>
       </c>
       <c r="D59" s="107"/>
-      <c r="E59" s="168" t="s">
+      <c r="E59" s="169" t="s">
         <v>77</v>
       </c>
       <c r="F59" s="93" t="s">
@@ -6722,10 +6771,10 @@
       <c r="H59" s="93">
         <v>2</v>
       </c>
-      <c r="I59" s="190">
+      <c r="I59" s="191">
         <v>3</v>
       </c>
-      <c r="J59" s="191"/>
+      <c r="J59" s="192"/>
       <c r="K59" s="89"/>
     </row>
     <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -6735,9 +6784,9 @@
       <c r="B60" s="96" t="s">
         <v>147</v>
       </c>
-      <c r="C60" s="179"/>
+      <c r="C60" s="180"/>
       <c r="D60" s="107"/>
-      <c r="E60" s="169"/>
+      <c r="E60" s="170"/>
       <c r="F60" s="67" t="s">
         <v>55</v>
       </c>
@@ -6747,10 +6796,10 @@
       <c r="H60" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="I60" s="182" t="s">
+      <c r="I60" s="183" t="s">
         <v>137</v>
       </c>
-      <c r="J60" s="183"/>
+      <c r="J60" s="184"/>
       <c r="K60" s="89"/>
     </row>
     <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -6774,11 +6823,11 @@
     </row>
     <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="164" t="s">
+      <c r="A64" s="165" t="s">
         <v>155</v>
       </c>
-      <c r="B64" s="165"/>
-      <c r="C64" s="165"/>
+      <c r="B64" s="166"/>
+      <c r="C64" s="166"/>
       <c r="D64" s="36"/>
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
@@ -6797,9 +6846,9 @@
       <c r="K64" s="87"/>
     </row>
     <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="166"/>
-      <c r="B65" s="167"/>
-      <c r="C65" s="167"/>
+      <c r="A65" s="167"/>
+      <c r="B65" s="168"/>
+      <c r="C65" s="168"/>
       <c r="D65" s="107"/>
       <c r="E65" s="39" t="s">
         <v>40</v>
@@ -6848,18 +6897,18 @@
         <v>555</v>
       </c>
       <c r="K66" s="89"/>
-      <c r="M66" s="161" t="s">
+      <c r="M66" s="162" t="s">
         <v>157</v>
       </c>
-      <c r="N66" s="162"/>
-      <c r="O66" s="163"/>
+      <c r="N66" s="163"/>
+      <c r="O66" s="164"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="175" t="s">
+      <c r="A67" s="176" t="s">
         <v>175</v>
       </c>
-      <c r="B67" s="176"/>
-      <c r="C67" s="176"/>
+      <c r="B67" s="177"/>
+      <c r="C67" s="177"/>
       <c r="D67" s="107"/>
       <c r="E67" s="46" t="s">
         <v>46</v>
@@ -6883,16 +6932,16 @@
         <v>25.5</v>
       </c>
       <c r="K67" s="89"/>
-      <c r="M67" s="184" t="s">
+      <c r="M67" s="185" t="s">
         <v>180</v>
       </c>
-      <c r="N67" s="176"/>
-      <c r="O67" s="192"/>
+      <c r="N67" s="177"/>
+      <c r="O67" s="193"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="177"/>
-      <c r="B68" s="176"/>
-      <c r="C68" s="176"/>
+      <c r="A68" s="178"/>
+      <c r="B68" s="177"/>
+      <c r="C68" s="177"/>
       <c r="D68" s="107"/>
       <c r="E68" s="46" t="s">
         <v>47</v>
@@ -6907,14 +6956,14 @@
       <c r="I68" s="110"/>
       <c r="J68" s="109"/>
       <c r="K68" s="89"/>
-      <c r="M68" s="193"/>
-      <c r="N68" s="176"/>
-      <c r="O68" s="192"/>
+      <c r="M68" s="194"/>
+      <c r="N68" s="177"/>
+      <c r="O68" s="193"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="177"/>
-      <c r="B69" s="176"/>
-      <c r="C69" s="176"/>
+      <c r="A69" s="178"/>
+      <c r="B69" s="177"/>
+      <c r="C69" s="177"/>
       <c r="D69" s="107"/>
       <c r="E69" s="46" t="s">
         <v>48</v>
@@ -6938,9 +6987,9 @@
         <v>51</v>
       </c>
       <c r="K69" s="89"/>
-      <c r="M69" s="193"/>
-      <c r="N69" s="176"/>
-      <c r="O69" s="192"/>
+      <c r="M69" s="194"/>
+      <c r="N69" s="177"/>
+      <c r="O69" s="193"/>
     </row>
     <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="90"/>
@@ -6962,9 +7011,9 @@
       </c>
       <c r="J70" s="101"/>
       <c r="K70" s="89"/>
-      <c r="M70" s="194"/>
-      <c r="N70" s="195"/>
-      <c r="O70" s="196"/>
+      <c r="M70" s="195"/>
+      <c r="N70" s="196"/>
+      <c r="O70" s="197"/>
     </row>
     <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="52" t="s">
@@ -6992,11 +7041,11 @@
       <c r="B72" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="C72" s="178" t="s">
+      <c r="C72" s="179" t="s">
         <v>301</v>
       </c>
       <c r="D72" s="107"/>
-      <c r="E72" s="168" t="s">
+      <c r="E72" s="169" t="s">
         <v>70</v>
       </c>
       <c r="F72" s="93" t="s">
@@ -7015,11 +7064,11 @@
         <v>4</v>
       </c>
       <c r="K72" s="89"/>
-      <c r="M72" s="161" t="s">
+      <c r="M72" s="162" t="s">
         <v>154</v>
       </c>
-      <c r="N72" s="162"/>
-      <c r="O72" s="163"/>
+      <c r="N72" s="163"/>
+      <c r="O72" s="164"/>
     </row>
     <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="94" t="s">
@@ -7028,9 +7077,9 @@
       <c r="B73" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="C73" s="179"/>
+      <c r="C73" s="180"/>
       <c r="D73" s="107"/>
-      <c r="E73" s="169"/>
+      <c r="E73" s="170"/>
       <c r="F73" s="67" t="s">
         <v>55</v>
       </c>
@@ -7047,11 +7096,11 @@
         <v>161</v>
       </c>
       <c r="K73" s="89"/>
-      <c r="M73" s="184" t="s">
+      <c r="M73" s="185" t="s">
         <v>182</v>
       </c>
-      <c r="N73" s="176"/>
-      <c r="O73" s="192"/>
+      <c r="N73" s="177"/>
+      <c r="O73" s="193"/>
     </row>
     <row r="74" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="108" t="s">
@@ -7067,9 +7116,9 @@
       <c r="I74" s="107"/>
       <c r="J74" s="107"/>
       <c r="K74" s="89"/>
-      <c r="M74" s="193"/>
-      <c r="N74" s="176"/>
-      <c r="O74" s="192"/>
+      <c r="M74" s="194"/>
+      <c r="N74" s="177"/>
+      <c r="O74" s="193"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="91">
@@ -7078,11 +7127,11 @@
       <c r="B75" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="C75" s="180" t="s">
+      <c r="C75" s="181" t="s">
         <v>39</v>
       </c>
       <c r="D75" s="107"/>
-      <c r="E75" s="168" t="s">
+      <c r="E75" s="169" t="s">
         <v>76</v>
       </c>
       <c r="F75" s="93" t="s">
@@ -7101,9 +7150,9 @@
         <v>4</v>
       </c>
       <c r="K75" s="89"/>
-      <c r="M75" s="193"/>
-      <c r="N75" s="176"/>
-      <c r="O75" s="192"/>
+      <c r="M75" s="194"/>
+      <c r="N75" s="177"/>
+      <c r="O75" s="193"/>
     </row>
     <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="94" t="s">
@@ -7112,9 +7161,9 @@
       <c r="B76" s="96" t="s">
         <v>170</v>
       </c>
-      <c r="C76" s="181"/>
+      <c r="C76" s="182"/>
       <c r="D76" s="107"/>
-      <c r="E76" s="169"/>
+      <c r="E76" s="170"/>
       <c r="F76" s="67" t="s">
         <v>55</v>
       </c>
@@ -7131,9 +7180,9 @@
         <v>165</v>
       </c>
       <c r="K76" s="89"/>
-      <c r="M76" s="194"/>
-      <c r="N76" s="195"/>
-      <c r="O76" s="196"/>
+      <c r="M76" s="195"/>
+      <c r="N76" s="196"/>
+      <c r="O76" s="197"/>
     </row>
     <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="108" t="s">
@@ -7157,11 +7206,11 @@
       <c r="B78" s="97" t="s">
         <v>171</v>
       </c>
-      <c r="C78" s="178" t="s">
+      <c r="C78" s="179" t="s">
         <v>188</v>
       </c>
       <c r="D78" s="107"/>
-      <c r="E78" s="168" t="s">
+      <c r="E78" s="169" t="s">
         <v>77</v>
       </c>
       <c r="F78" s="93" t="s">
@@ -7173,10 +7222,10 @@
       <c r="H78" s="93">
         <v>2</v>
       </c>
-      <c r="I78" s="190">
+      <c r="I78" s="191">
         <v>3</v>
       </c>
-      <c r="J78" s="191"/>
+      <c r="J78" s="192"/>
       <c r="K78" s="89"/>
     </row>
     <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -7186,9 +7235,9 @@
       <c r="B79" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="C79" s="179"/>
+      <c r="C79" s="180"/>
       <c r="D79" s="107"/>
-      <c r="E79" s="169"/>
+      <c r="E79" s="170"/>
       <c r="F79" s="67" t="s">
         <v>55</v>
       </c>
@@ -7198,10 +7247,10 @@
       <c r="H79" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="I79" s="182" t="s">
+      <c r="I79" s="183" t="s">
         <v>181</v>
       </c>
-      <c r="J79" s="183"/>
+      <c r="J79" s="184"/>
       <c r="K79" s="89"/>
     </row>
     <row r="80" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -7285,7 +7334,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7573,7 +7622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739D2FDF-FF58-405E-A4E4-D6DDA6C3C12C}">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -7586,7 +7635,7 @@
     <col min="5" max="5" width="17" style="35" customWidth="1"/>
     <col min="6" max="6" width="9" style="35"/>
     <col min="7" max="7" width="16" style="35" customWidth="1"/>
-    <col min="8" max="8" width="9" style="201"/>
+    <col min="8" max="8" width="9" style="202"/>
     <col min="9" max="9" width="9.375" style="33" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.875" style="33" customWidth="1"/>
     <col min="11" max="11" width="19.875" style="33" customWidth="1"/>
@@ -7597,60 +7646,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="201"/>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
+      <c r="A1" s="202"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
     </row>
     <row r="2" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="201"/>
-      <c r="B2" s="234" t="s">
+      <c r="A2" s="202"/>
+      <c r="B2" s="235" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
-      <c r="E2" s="234"/>
-      <c r="F2" s="234"/>
-      <c r="G2" s="234"/>
-      <c r="I2" s="234" t="s">
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="I2" s="235" t="s">
         <v>254</v>
       </c>
-      <c r="J2" s="234"/>
-      <c r="K2" s="234"/>
-      <c r="L2" s="234"/>
-      <c r="M2" s="234"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
     </row>
     <row r="3" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="201"/>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="235"/>
-      <c r="G3" s="235"/>
-      <c r="I3" s="235"/>
-      <c r="J3" s="235"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="235"/>
-      <c r="M3" s="235"/>
+      <c r="A3" s="202"/>
+      <c r="B3" s="236"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="236"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="236"/>
+      <c r="M3" s="236"/>
     </row>
     <row r="4" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="201"/>
+      <c r="A4" s="202"/>
       <c r="B4" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="211" t="s">
+      <c r="C4" s="212" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="211"/>
-      <c r="E4" s="211"/>
-      <c r="F4" s="211" t="s">
+      <c r="D4" s="212"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="212" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="212"/>
+      <c r="G4" s="213"/>
       <c r="I4" s="128" t="s">
         <v>216</v>
       </c>
@@ -7668,25 +7717,25 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="201"/>
-      <c r="B5" s="213" t="s">
+      <c r="A5" s="202"/>
+      <c r="B5" s="214" t="s">
         <v>88</v>
       </c>
       <c r="C5" s="28">
         <v>1</v>
       </c>
-      <c r="D5" s="243" t="s">
+      <c r="D5" s="244" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="244"/>
-      <c r="F5" s="224" t="s">
+      <c r="E5" s="245"/>
+      <c r="F5" s="225" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="225"/>
-      <c r="I5" s="239">
+      <c r="G5" s="226"/>
+      <c r="I5" s="240">
         <v>12</v>
       </c>
-      <c r="J5" s="229" t="s">
+      <c r="J5" s="230" t="s">
         <v>103</v>
       </c>
       <c r="K5" s="129">
@@ -7700,19 +7749,19 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="201"/>
-      <c r="B6" s="214"/>
+      <c r="A6" s="202"/>
+      <c r="B6" s="215"/>
       <c r="C6" s="30">
         <v>2</v>
       </c>
-      <c r="D6" s="243" t="s">
+      <c r="D6" s="244" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="244"/>
-      <c r="F6" s="226"/>
-      <c r="G6" s="219"/>
-      <c r="I6" s="231"/>
-      <c r="J6" s="233"/>
+      <c r="E6" s="245"/>
+      <c r="F6" s="227"/>
+      <c r="G6" s="220"/>
+      <c r="I6" s="232"/>
+      <c r="J6" s="234"/>
       <c r="K6" s="130">
         <v>2</v>
       </c>
@@ -7727,19 +7776,19 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="201"/>
-      <c r="B7" s="215"/>
+      <c r="A7" s="202"/>
+      <c r="B7" s="216"/>
       <c r="C7" s="105">
         <v>3</v>
       </c>
-      <c r="D7" s="216" t="s">
+      <c r="D7" s="217" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="217"/>
-      <c r="F7" s="227"/>
-      <c r="G7" s="228"/>
-      <c r="I7" s="232"/>
-      <c r="J7" s="230"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="229"/>
+      <c r="I7" s="233"/>
+      <c r="J7" s="231"/>
       <c r="K7" s="131">
         <v>3</v>
       </c>
@@ -7752,21 +7801,21 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="201"/>
+      <c r="A8" s="202"/>
       <c r="B8" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="221" t="s">
         <v>189</v>
       </c>
-      <c r="D8" s="220"/>
-      <c r="E8" s="220"/>
-      <c r="F8" s="220"/>
-      <c r="G8" s="221"/>
-      <c r="I8" s="239">
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="222"/>
+      <c r="I8" s="240">
         <v>18</v>
       </c>
-      <c r="J8" s="229" t="s">
+      <c r="J8" s="230" t="s">
         <v>218</v>
       </c>
       <c r="K8" s="129">
@@ -7780,19 +7829,19 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="201"/>
+      <c r="A9" s="202"/>
       <c r="B9" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="216" t="s">
+      <c r="C9" s="217" t="s">
         <v>190</v>
       </c>
-      <c r="D9" s="216"/>
-      <c r="E9" s="216"/>
-      <c r="F9" s="218"/>
-      <c r="G9" s="219"/>
-      <c r="I9" s="231"/>
-      <c r="J9" s="233"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="217"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="220"/>
+      <c r="I9" s="232"/>
+      <c r="J9" s="234"/>
       <c r="K9" s="130">
         <v>2</v>
       </c>
@@ -7807,19 +7856,19 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="201"/>
+      <c r="A10" s="202"/>
       <c r="B10" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="220" t="s">
+      <c r="C10" s="221" t="s">
         <v>191</v>
       </c>
-      <c r="D10" s="220"/>
-      <c r="E10" s="220"/>
-      <c r="F10" s="220"/>
-      <c r="G10" s="221"/>
-      <c r="I10" s="232"/>
-      <c r="J10" s="230"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="222"/>
+      <c r="I10" s="233"/>
+      <c r="J10" s="231"/>
       <c r="K10" s="131">
         <v>3</v>
       </c>
@@ -7832,21 +7881,21 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="201"/>
+      <c r="A11" s="202"/>
       <c r="B11" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="222" t="s">
+      <c r="C11" s="223" t="s">
         <v>192</v>
       </c>
-      <c r="D11" s="222"/>
-      <c r="E11" s="222"/>
-      <c r="F11" s="222"/>
-      <c r="G11" s="223"/>
-      <c r="I11" s="239">
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="224"/>
+      <c r="I11" s="240">
         <v>4</v>
       </c>
-      <c r="J11" s="229" t="s">
+      <c r="J11" s="230" t="s">
         <v>221</v>
       </c>
       <c r="K11" s="129">
@@ -7860,15 +7909,15 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="201"/>
-      <c r="B12" s="201"/>
-      <c r="C12" s="201"/>
-      <c r="D12" s="201"/>
-      <c r="E12" s="201"/>
-      <c r="F12" s="201"/>
-      <c r="G12" s="201"/>
-      <c r="I12" s="231"/>
-      <c r="J12" s="233"/>
+      <c r="A12" s="202"/>
+      <c r="B12" s="202"/>
+      <c r="C12" s="202"/>
+      <c r="D12" s="202"/>
+      <c r="E12" s="202"/>
+      <c r="F12" s="202"/>
+      <c r="G12" s="202"/>
+      <c r="I12" s="232"/>
+      <c r="J12" s="234"/>
       <c r="K12" s="130">
         <v>1</v>
       </c>
@@ -7883,15 +7932,15 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="201"/>
-      <c r="B13" s="201"/>
-      <c r="C13" s="201"/>
-      <c r="D13" s="201"/>
-      <c r="E13" s="201"/>
-      <c r="F13" s="201"/>
-      <c r="G13" s="201"/>
-      <c r="I13" s="231"/>
-      <c r="J13" s="233"/>
+      <c r="A13" s="202"/>
+      <c r="B13" s="202"/>
+      <c r="C13" s="202"/>
+      <c r="D13" s="202"/>
+      <c r="E13" s="202"/>
+      <c r="F13" s="202"/>
+      <c r="G13" s="202"/>
+      <c r="I13" s="232"/>
+      <c r="J13" s="234"/>
       <c r="K13" s="130">
         <v>2</v>
       </c>
@@ -7906,17 +7955,17 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="234" t="s">
+      <c r="A14" s="235" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="267"/>
-      <c r="C14" s="267"/>
-      <c r="D14" s="267"/>
-      <c r="E14" s="267"/>
-      <c r="F14" s="267"/>
-      <c r="G14" s="267"/>
-      <c r="I14" s="232"/>
-      <c r="J14" s="230"/>
+      <c r="B14" s="268"/>
+      <c r="C14" s="268"/>
+      <c r="D14" s="268"/>
+      <c r="E14" s="268"/>
+      <c r="F14" s="268"/>
+      <c r="G14" s="268"/>
+      <c r="I14" s="233"/>
+      <c r="J14" s="231"/>
       <c r="K14" s="131">
         <v>3</v>
       </c>
@@ -7929,17 +7978,17 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="267"/>
-      <c r="B15" s="267"/>
-      <c r="C15" s="267"/>
-      <c r="D15" s="267"/>
-      <c r="E15" s="267"/>
-      <c r="F15" s="267"/>
-      <c r="G15" s="267"/>
-      <c r="I15" s="239">
+      <c r="A15" s="268"/>
+      <c r="B15" s="268"/>
+      <c r="C15" s="268"/>
+      <c r="D15" s="268"/>
+      <c r="E15" s="268"/>
+      <c r="F15" s="268"/>
+      <c r="G15" s="268"/>
+      <c r="I15" s="240">
         <v>3</v>
       </c>
-      <c r="J15" s="229" t="s">
+      <c r="J15" s="230" t="s">
         <v>153</v>
       </c>
       <c r="K15" s="129">
@@ -7957,17 +8006,17 @@
       <c r="B16" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="208" t="s">
+      <c r="C16" s="209" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="208"/>
-      <c r="E16" s="208" t="s">
+      <c r="D16" s="209"/>
+      <c r="E16" s="209" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="209"/>
-      <c r="G16" s="210"/>
-      <c r="I16" s="231"/>
-      <c r="J16" s="233"/>
+      <c r="F16" s="210"/>
+      <c r="G16" s="211"/>
+      <c r="I16" s="232"/>
+      <c r="J16" s="234"/>
       <c r="K16" s="130">
         <v>1</v>
       </c>
@@ -7982,21 +8031,21 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="263" t="s">
+      <c r="A17" s="264" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="240" t="s">
+      <c r="B17" s="241" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="249" t="s">
+      <c r="C17" s="250" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="250"/>
-      <c r="E17" s="197"/>
-      <c r="F17" s="198"/>
-      <c r="G17" s="199"/>
-      <c r="I17" s="231"/>
-      <c r="J17" s="233"/>
+      <c r="D17" s="251"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="200"/>
+      <c r="I17" s="232"/>
+      <c r="J17" s="234"/>
       <c r="K17" s="130">
         <v>2</v>
       </c>
@@ -8011,15 +8060,15 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="263"/>
-      <c r="B18" s="245"/>
-      <c r="C18" s="251"/>
-      <c r="D18" s="252"/>
-      <c r="E18" s="202"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="204"/>
-      <c r="I18" s="232"/>
-      <c r="J18" s="230"/>
+      <c r="A18" s="264"/>
+      <c r="B18" s="246"/>
+      <c r="C18" s="252"/>
+      <c r="D18" s="253"/>
+      <c r="E18" s="203"/>
+      <c r="F18" s="204"/>
+      <c r="G18" s="205"/>
+      <c r="I18" s="233"/>
+      <c r="J18" s="231"/>
       <c r="K18" s="131">
         <v>3</v>
       </c>
@@ -8032,19 +8081,19 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="261" t="s">
+      <c r="A19" s="262" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="241"/>
-      <c r="C19" s="253"/>
-      <c r="D19" s="254"/>
-      <c r="E19" s="197"/>
-      <c r="F19" s="198"/>
-      <c r="G19" s="199"/>
-      <c r="I19" s="236" t="s">
+      <c r="B19" s="242"/>
+      <c r="C19" s="254"/>
+      <c r="D19" s="255"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="200"/>
+      <c r="I19" s="237" t="s">
         <v>219</v>
       </c>
-      <c r="J19" s="229" t="s">
+      <c r="J19" s="230" t="s">
         <v>217</v>
       </c>
       <c r="K19" s="129">
@@ -8056,19 +8105,19 @@
       <c r="M19" s="127"/>
     </row>
     <row r="20" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="261"/>
-      <c r="B20" s="246" t="s">
+      <c r="A20" s="262"/>
+      <c r="B20" s="247" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="255" t="s">
+      <c r="C20" s="256" t="s">
         <v>294</v>
       </c>
-      <c r="D20" s="256"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="204"/>
-      <c r="I20" s="237"/>
-      <c r="J20" s="233"/>
+      <c r="D20" s="257"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="205"/>
+      <c r="I20" s="238"/>
+      <c r="J20" s="234"/>
       <c r="K20" s="130">
         <v>1</v>
       </c>
@@ -8083,17 +8132,17 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="263" t="s">
+      <c r="A21" s="264" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="247"/>
-      <c r="C21" s="257"/>
-      <c r="D21" s="258"/>
-      <c r="E21" s="197"/>
-      <c r="F21" s="198"/>
-      <c r="G21" s="199"/>
-      <c r="I21" s="237"/>
-      <c r="J21" s="233"/>
+      <c r="B21" s="248"/>
+      <c r="C21" s="258"/>
+      <c r="D21" s="259"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="199"/>
+      <c r="G21" s="200"/>
+      <c r="I21" s="238"/>
+      <c r="J21" s="234"/>
       <c r="K21" s="130">
         <v>2</v>
       </c>
@@ -8108,15 +8157,15 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="263"/>
-      <c r="B22" s="248"/>
-      <c r="C22" s="259"/>
-      <c r="D22" s="260"/>
-      <c r="E22" s="202"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="204"/>
-      <c r="I22" s="238"/>
-      <c r="J22" s="230"/>
+      <c r="A22" s="264"/>
+      <c r="B22" s="249"/>
+      <c r="C22" s="260"/>
+      <c r="D22" s="261"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="204"/>
+      <c r="G22" s="205"/>
+      <c r="I22" s="239"/>
+      <c r="J22" s="231"/>
       <c r="K22" s="131">
         <v>3</v>
       </c>
@@ -8129,23 +8178,23 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="261" t="s">
+      <c r="A23" s="262" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="240">
+      <c r="B23" s="241">
         <v>1</v>
       </c>
-      <c r="C23" s="249" t="s">
+      <c r="C23" s="250" t="s">
         <v>184</v>
       </c>
-      <c r="D23" s="250"/>
-      <c r="E23" s="197"/>
-      <c r="F23" s="198"/>
-      <c r="G23" s="199"/>
-      <c r="I23" s="239" t="s">
+      <c r="D23" s="251"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="199"/>
+      <c r="G23" s="200"/>
+      <c r="I23" s="240" t="s">
         <v>223</v>
       </c>
-      <c r="J23" s="229" t="s">
+      <c r="J23" s="230" t="s">
         <v>220</v>
       </c>
       <c r="K23" s="129">
@@ -8159,15 +8208,15 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="261"/>
-      <c r="B24" s="241"/>
-      <c r="C24" s="253"/>
-      <c r="D24" s="254"/>
-      <c r="E24" s="202"/>
-      <c r="F24" s="203"/>
-      <c r="G24" s="204"/>
-      <c r="I24" s="231"/>
-      <c r="J24" s="233"/>
+      <c r="A24" s="262"/>
+      <c r="B24" s="242"/>
+      <c r="C24" s="254"/>
+      <c r="D24" s="255"/>
+      <c r="E24" s="203"/>
+      <c r="F24" s="204"/>
+      <c r="G24" s="205"/>
+      <c r="I24" s="232"/>
+      <c r="J24" s="234"/>
       <c r="K24" s="130">
         <v>1</v>
       </c>
@@ -8179,19 +8228,19 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="261"/>
-      <c r="B25" s="240">
+      <c r="A25" s="262"/>
+      <c r="B25" s="241">
         <v>2</v>
       </c>
-      <c r="C25" s="255" t="s">
+      <c r="C25" s="256" t="s">
         <v>186</v>
       </c>
-      <c r="D25" s="256"/>
-      <c r="E25" s="197"/>
-      <c r="F25" s="198"/>
-      <c r="G25" s="199"/>
-      <c r="I25" s="231"/>
-      <c r="J25" s="233"/>
+      <c r="D25" s="257"/>
+      <c r="E25" s="198"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="200"/>
+      <c r="I25" s="232"/>
+      <c r="J25" s="234"/>
       <c r="K25" s="130">
         <v>2</v>
       </c>
@@ -8203,17 +8252,17 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="263" t="s">
+      <c r="A26" s="264" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="241"/>
-      <c r="C26" s="259"/>
-      <c r="D26" s="260"/>
-      <c r="E26" s="202"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="204"/>
-      <c r="I26" s="232"/>
-      <c r="J26" s="230"/>
+      <c r="B26" s="242"/>
+      <c r="C26" s="260"/>
+      <c r="D26" s="261"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="204"/>
+      <c r="G26" s="205"/>
+      <c r="I26" s="233"/>
+      <c r="J26" s="231"/>
       <c r="K26" s="131">
         <v>3</v>
       </c>
@@ -8223,21 +8272,21 @@
       <c r="M26" s="125"/>
     </row>
     <row r="27" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="263"/>
-      <c r="B27" s="240">
+      <c r="A27" s="264"/>
+      <c r="B27" s="241">
         <v>3</v>
       </c>
-      <c r="C27" s="249" t="s">
+      <c r="C27" s="250" t="s">
         <v>185</v>
       </c>
-      <c r="D27" s="250"/>
-      <c r="E27" s="197"/>
-      <c r="F27" s="198"/>
-      <c r="G27" s="199"/>
-      <c r="I27" s="231">
+      <c r="D27" s="251"/>
+      <c r="E27" s="198"/>
+      <c r="F27" s="199"/>
+      <c r="G27" s="200"/>
+      <c r="I27" s="232">
         <v>17</v>
       </c>
-      <c r="J27" s="233" t="s">
+      <c r="J27" s="234" t="s">
         <v>222</v>
       </c>
       <c r="K27" s="130">
@@ -8254,15 +8303,15 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="264"/>
-      <c r="B28" s="242"/>
-      <c r="C28" s="265"/>
-      <c r="D28" s="266"/>
-      <c r="E28" s="205"/>
-      <c r="F28" s="206"/>
-      <c r="G28" s="207"/>
-      <c r="I28" s="231"/>
-      <c r="J28" s="233"/>
+      <c r="A28" s="265"/>
+      <c r="B28" s="243"/>
+      <c r="C28" s="266"/>
+      <c r="D28" s="267"/>
+      <c r="E28" s="206"/>
+      <c r="F28" s="207"/>
+      <c r="G28" s="208"/>
+      <c r="I28" s="232"/>
+      <c r="J28" s="234"/>
       <c r="K28" s="130">
         <v>2</v>
       </c>
@@ -8277,23 +8326,23 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="261" t="s">
+      <c r="A29" s="262" t="s">
         <v>119</v>
       </c>
       <c r="B29" s="109">
         <v>1</v>
       </c>
-      <c r="C29" s="197" t="s">
+      <c r="C29" s="198" t="s">
         <v>120</v>
       </c>
-      <c r="D29" s="197"/>
-      <c r="E29" s="197" t="s">
+      <c r="D29" s="198"/>
+      <c r="E29" s="198" t="s">
         <v>121</v>
       </c>
-      <c r="F29" s="198"/>
-      <c r="G29" s="199"/>
-      <c r="I29" s="231"/>
-      <c r="J29" s="233"/>
+      <c r="F29" s="199"/>
+      <c r="G29" s="200"/>
+      <c r="I29" s="232"/>
+      <c r="J29" s="234"/>
       <c r="K29" s="130">
         <v>3</v>
       </c>
@@ -8306,23 +8355,23 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="262"/>
+      <c r="A30" s="263"/>
       <c r="B30" s="112">
         <v>2</v>
       </c>
-      <c r="C30" s="205" t="s">
+      <c r="C30" s="206" t="s">
         <v>183</v>
       </c>
-      <c r="D30" s="205"/>
-      <c r="E30" s="205" t="s">
+      <c r="D30" s="206"/>
+      <c r="E30" s="206" t="s">
         <v>187</v>
       </c>
-      <c r="F30" s="206"/>
-      <c r="G30" s="207"/>
-      <c r="I30" s="239">
+      <c r="F30" s="207"/>
+      <c r="G30" s="208"/>
+      <c r="I30" s="240">
         <v>1</v>
       </c>
-      <c r="J30" s="229" t="s">
+      <c r="J30" s="230" t="s">
         <v>224</v>
       </c>
       <c r="K30" s="129">
@@ -8334,21 +8383,21 @@
       <c r="M30" s="127"/>
     </row>
     <row r="31" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="200" t="s">
+      <c r="A31" s="201" t="s">
         <v>296</v>
       </c>
       <c r="B31" s="33">
         <v>1</v>
       </c>
-      <c r="C31" s="200" t="s">
+      <c r="C31" s="201" t="s">
         <v>297</v>
       </c>
-      <c r="D31" s="200"/>
-      <c r="E31" s="200"/>
-      <c r="F31" s="200"/>
-      <c r="G31" s="200"/>
-      <c r="I31" s="232"/>
-      <c r="J31" s="230"/>
+      <c r="D31" s="201"/>
+      <c r="E31" s="201"/>
+      <c r="F31" s="201"/>
+      <c r="G31" s="201"/>
+      <c r="I31" s="233"/>
+      <c r="J31" s="231"/>
       <c r="K31" s="131">
         <v>1</v>
       </c>
@@ -8356,21 +8405,21 @@
       <c r="M31" s="125"/>
     </row>
     <row r="32" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="201"/>
+      <c r="A32" s="202"/>
       <c r="B32" s="33">
         <v>2</v>
       </c>
-      <c r="C32" s="201" t="s">
+      <c r="C32" s="202" t="s">
         <v>298</v>
       </c>
-      <c r="D32" s="201"/>
-      <c r="E32" s="201"/>
-      <c r="F32" s="201"/>
-      <c r="G32" s="201"/>
-      <c r="I32" s="231">
+      <c r="D32" s="202"/>
+      <c r="E32" s="202"/>
+      <c r="F32" s="202"/>
+      <c r="G32" s="202"/>
+      <c r="I32" s="232">
         <v>2</v>
       </c>
-      <c r="J32" s="233" t="s">
+      <c r="J32" s="234" t="s">
         <v>225</v>
       </c>
       <c r="K32" s="130">
@@ -8382,19 +8431,19 @@
       <c r="M32" s="124"/>
     </row>
     <row r="33" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="201"/>
+      <c r="A33" s="202"/>
       <c r="B33" s="33">
         <v>3</v>
       </c>
-      <c r="C33" s="201" t="s">
+      <c r="C33" s="202" t="s">
         <v>299</v>
       </c>
-      <c r="D33" s="201"/>
-      <c r="E33" s="201"/>
-      <c r="F33" s="201"/>
-      <c r="G33" s="201"/>
-      <c r="I33" s="232"/>
-      <c r="J33" s="230"/>
+      <c r="D33" s="202"/>
+      <c r="E33" s="202"/>
+      <c r="F33" s="202"/>
+      <c r="G33" s="202"/>
+      <c r="I33" s="233"/>
+      <c r="J33" s="231"/>
       <c r="K33" s="131">
         <v>1</v>
       </c>
@@ -8532,26 +8581,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4829BB66-8207-4076-AF2F-C0DDAAFABB1D}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="268"/>
-    <col min="2" max="6" width="9" style="134"/>
+    <col min="1" max="1" width="9" style="284"/>
+    <col min="2" max="6" width="9" style="135"/>
     <col min="7" max="7" width="9" style="2"/>
     <col min="8" max="8" width="9" style="12"/>
     <col min="9" max="9" width="9.5" style="12" customWidth="1"/>
     <col min="10" max="10" width="9" style="12"/>
     <col min="11" max="11" width="13.875" style="12" customWidth="1"/>
     <col min="12" max="13" width="9" style="12"/>
-    <col min="14" max="14" width="15.375" style="283" customWidth="1"/>
-    <col min="15" max="17" width="9" style="134"/>
-    <col min="18" max="18" width="19.375" style="134" customWidth="1"/>
-    <col min="19" max="19" width="9" style="134"/>
+    <col min="14" max="14" width="15.375" style="282" customWidth="1"/>
+    <col min="15" max="17" width="9" style="135"/>
+    <col min="18" max="18" width="19.375" style="135" customWidth="1"/>
+    <col min="19" max="19" width="9" style="135"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
@@ -8567,35 +8617,35 @@
       <c r="E1" s="269" t="s">
         <v>310</v>
       </c>
-      <c r="F1" s="273" t="s">
+      <c r="F1" s="272" t="s">
         <v>319</v>
       </c>
-      <c r="G1" s="274" t="s">
+      <c r="G1" s="273" t="s">
         <v>325</v>
       </c>
-      <c r="H1" s="275" t="s">
+      <c r="H1" s="274" t="s">
         <v>326</v>
       </c>
-      <c r="I1" s="275" t="s">
+      <c r="I1" s="274" t="s">
         <v>320</v>
       </c>
-      <c r="J1" s="275" t="s">
+      <c r="J1" s="274" t="s">
         <v>321</v>
       </c>
-      <c r="K1" s="275" t="s">
+      <c r="K1" s="274" t="s">
         <v>328</v>
       </c>
-      <c r="L1" s="276" t="s">
+      <c r="L1" s="275" t="s">
         <v>329</v>
       </c>
-      <c r="M1" s="275" t="s">
+      <c r="M1" s="274" t="s">
         <v>323</v>
       </c>
-      <c r="N1" s="280" t="s">
+      <c r="N1" s="279" t="s">
         <v>324</v>
       </c>
       <c r="O1" s="2"/>
-      <c r="P1" s="134">
+      <c r="P1" s="135">
         <v>90</v>
       </c>
     </row>
@@ -8612,84 +8662,84 @@
       <c r="E2" s="269">
         <v>9</v>
       </c>
-      <c r="F2" s="273">
-        <v>12</v>
-      </c>
-      <c r="G2" s="277"/>
-      <c r="H2" s="272"/>
-      <c r="I2" s="272"/>
-      <c r="J2" s="272"/>
-      <c r="K2" s="272"/>
-      <c r="L2" s="271"/>
-      <c r="M2" s="272"/>
-      <c r="N2" s="281"/>
+      <c r="F2" s="272">
+        <v>20</v>
+      </c>
+      <c r="G2" s="276"/>
+      <c r="H2" s="271"/>
+      <c r="I2" s="271"/>
+      <c r="J2" s="271"/>
+      <c r="K2" s="271"/>
+      <c r="L2" s="270"/>
+      <c r="M2" s="271"/>
+      <c r="N2" s="280"/>
       <c r="O2" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="P2" s="134" t="s">
+      <c r="P2" s="135" t="s">
         <v>322</v>
       </c>
-      <c r="Q2" s="134" t="s">
+      <c r="Q2" s="135" t="s">
         <v>323</v>
       </c>
-      <c r="R2" s="134" t="s">
+      <c r="R2" s="135" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="270">
+      <c r="A3" s="285">
         <v>0</v>
       </c>
-      <c r="B3" s="134">
+      <c r="B3" s="135">
         <v>6</v>
       </c>
       <c r="G3" s="1">
         <f>F3*F2+E3*E2+D3*D2+C3*C2+B3*B2</f>
         <v>30</v>
       </c>
-      <c r="H3" s="278">
+      <c r="H3" s="277">
         <v>4</v>
       </c>
-      <c r="I3" s="278">
+      <c r="I3" s="277">
         <v>4</v>
       </c>
-      <c r="J3" s="278">
+      <c r="J3" s="277">
         <f>G3-I3+H3</f>
         <v>30</v>
       </c>
-      <c r="K3" s="278">
+      <c r="K3" s="277">
         <f>J3+I3</f>
         <v>34</v>
       </c>
-      <c r="L3" s="278">
+      <c r="L3" s="277">
         <v>30</v>
       </c>
-      <c r="M3" s="278"/>
-      <c r="N3" s="282"/>
-      <c r="O3" s="134">
+      <c r="M3" s="277"/>
+      <c r="N3" s="281"/>
+      <c r="O3" s="135">
         <v>20</v>
       </c>
-      <c r="P3" s="134">
+      <c r="P3" s="135">
         <v>110</v>
       </c>
-      <c r="Q3" s="134">
+      <c r="Q3" s="135">
         <v>50</v>
       </c>
-      <c r="R3" s="134" t="s">
+      <c r="R3" s="135" t="s">
         <v>336</v>
       </c>
-      <c r="S3" s="134">
+      <c r="S3" s="135">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="270">
+      <c r="A4" s="285">
         <v>1</v>
       </c>
-      <c r="B4" s="134">
+      <c r="B4" s="135">
         <v>6</v>
       </c>
-      <c r="C4" s="134">
+      <c r="C4" s="135">
         <v>3</v>
       </c>
       <c r="G4" s="2">
@@ -8714,28 +8764,28 @@
         <f>L3+J4</f>
         <v>65</v>
       </c>
-      <c r="O4" s="134">
+      <c r="O4" s="135">
         <v>40</v>
       </c>
-      <c r="P4" s="134">
+      <c r="P4" s="135">
         <f>O4+P3</f>
         <v>150</v>
       </c>
-      <c r="R4" s="134" t="s">
+      <c r="R4" s="135" t="s">
         <v>332</v>
       </c>
-      <c r="S4" s="134">
+      <c r="S4" s="135">
         <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="270">
+      <c r="A5" s="285">
         <v>2</v>
       </c>
-      <c r="B5" s="134">
+      <c r="B5" s="135">
         <v>7</v>
       </c>
-      <c r="C5" s="134">
+      <c r="C5" s="135">
         <v>3</v>
       </c>
       <c r="G5" s="2">
@@ -8763,28 +8813,28 @@
       <c r="M5" s="12">
         <v>80</v>
       </c>
-      <c r="N5" s="283" t="s">
+      <c r="N5" s="282" t="s">
         <v>327</v>
       </c>
-      <c r="O5" s="134">
+      <c r="O5" s="135">
         <v>50</v>
       </c>
-      <c r="P5" s="134">
+      <c r="P5" s="135">
         <f t="shared" ref="P5:P22" si="3">O5+P4</f>
         <v>200</v>
       </c>
-      <c r="S5" s="134">
+      <c r="S5" s="135">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="270">
+      <c r="A6" s="285">
         <v>3</v>
       </c>
-      <c r="B6" s="134">
+      <c r="B6" s="135">
         <v>17</v>
       </c>
-      <c r="C6" s="134">
+      <c r="C6" s="135">
         <v>9</v>
       </c>
       <c r="G6" s="3">
@@ -8812,92 +8862,92 @@
       <c r="M6" s="22">
         <v>80</v>
       </c>
-      <c r="N6" s="284" t="s">
+      <c r="N6" s="283" t="s">
         <v>330</v>
       </c>
-      <c r="O6" s="134">
+      <c r="O6" s="135">
         <v>80</v>
       </c>
-      <c r="P6" s="134">
+      <c r="P6" s="135">
         <f t="shared" si="3"/>
         <v>280</v>
       </c>
-      <c r="Q6" s="134">
+      <c r="Q6" s="135">
         <v>100</v>
       </c>
-      <c r="R6" s="134" t="s">
+      <c r="R6" s="135" t="s">
         <v>333</v>
       </c>
-      <c r="S6" s="134">
+      <c r="S6" s="135">
         <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="270">
+      <c r="A7" s="285">
         <v>4</v>
       </c>
-      <c r="B7" s="134">
+      <c r="B7" s="135">
         <v>6</v>
       </c>
-      <c r="C7" s="134">
+      <c r="C7" s="135">
         <v>4</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="H7" s="278">
+      <c r="H7" s="277">
         <v>14</v>
       </c>
-      <c r="I7" s="278">
+      <c r="I7" s="277">
         <v>13</v>
       </c>
-      <c r="J7" s="278">
+      <c r="J7" s="277">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="K7" s="278">
+      <c r="K7" s="277">
         <f t="shared" si="2"/>
         <v>332</v>
       </c>
-      <c r="L7" s="278">
+      <c r="L7" s="277">
         <f>L6+J7</f>
         <v>255</v>
       </c>
-      <c r="M7" s="278">
+      <c r="M7" s="277">
         <v>80</v>
       </c>
-      <c r="N7" s="282" t="s">
+      <c r="N7" s="281" t="s">
         <v>331</v>
       </c>
-      <c r="O7" s="134">
+      <c r="O7" s="135">
         <v>40</v>
       </c>
-      <c r="P7" s="134">
+      <c r="P7" s="135">
         <f t="shared" si="3"/>
         <v>320</v>
       </c>
-      <c r="Q7" s="134">
+      <c r="Q7" s="135">
         <v>50</v>
       </c>
-      <c r="R7" s="279" t="s">
+      <c r="R7" s="278" t="s">
         <v>334</v>
       </c>
-      <c r="S7" s="134">
+      <c r="S7" s="135">
         <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="270">
+      <c r="A8" s="285">
         <v>5</v>
       </c>
-      <c r="B8" s="134">
+      <c r="B8" s="135">
         <v>6</v>
       </c>
-      <c r="C8" s="134">
+      <c r="C8" s="135">
         <v>4</v>
       </c>
-      <c r="D8" s="134">
+      <c r="D8" s="135">
         <v>3</v>
       </c>
       <c r="G8" s="2">
@@ -8922,34 +8972,34 @@
         <f>L7+J8</f>
         <v>330</v>
       </c>
-      <c r="O8" s="134">
+      <c r="O8" s="135">
         <v>50</v>
       </c>
-      <c r="P8" s="134">
+      <c r="P8" s="135">
         <f t="shared" si="3"/>
         <v>370</v>
       </c>
-      <c r="Q8" s="134">
+      <c r="Q8" s="135">
         <v>50</v>
       </c>
-      <c r="R8" s="134" t="s">
+      <c r="R8" s="135" t="s">
         <v>343</v>
       </c>
-      <c r="S8" s="134">
+      <c r="S8" s="135">
         <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="270">
+      <c r="A9" s="285">
         <v>6</v>
       </c>
-      <c r="B9" s="134">
+      <c r="B9" s="135">
         <v>7</v>
       </c>
-      <c r="C9" s="134">
+      <c r="C9" s="135">
         <v>4</v>
       </c>
-      <c r="D9" s="134">
+      <c r="D9" s="135">
         <v>6</v>
       </c>
       <c r="G9" s="2">
@@ -8977,130 +9027,138 @@
       <c r="M9" s="12">
         <v>160</v>
       </c>
-      <c r="N9" s="283" t="s">
+      <c r="N9" s="282" t="s">
         <v>337</v>
       </c>
-      <c r="O9" s="134">
+      <c r="O9" s="135">
         <v>60</v>
       </c>
-      <c r="P9" s="134">
+      <c r="P9" s="135">
         <f t="shared" si="3"/>
         <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="270">
+      <c r="A10" s="285">
         <v>7</v>
       </c>
-      <c r="B10" s="134">
+      <c r="B10" s="135">
         <v>18</v>
       </c>
-      <c r="C10" s="134">
+      <c r="C10" s="135">
         <v>8</v>
       </c>
-      <c r="D10" s="134">
+      <c r="D10" s="135">
         <v>6</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="H10" s="22"/>
+      <c r="H10" s="22">
+        <v>10</v>
+      </c>
       <c r="I10" s="22">
         <v>30</v>
       </c>
       <c r="J10" s="22">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K10" s="22">
         <f t="shared" si="2"/>
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="L10" s="22">
         <f>L9+J10</f>
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="M10" s="22">
         <v>160</v>
       </c>
-      <c r="N10" s="284" t="s">
+      <c r="N10" s="283" t="s">
         <v>338</v>
       </c>
-      <c r="O10" s="134">
+      <c r="O10" s="135">
         <v>90</v>
       </c>
-      <c r="P10" s="134">
+      <c r="P10" s="135">
         <f t="shared" si="3"/>
         <v>520</v>
       </c>
-      <c r="R10" s="134" t="s">
-        <v>332</v>
-      </c>
-      <c r="S10" s="134">
+      <c r="R10" s="135" t="s">
+        <v>333</v>
+      </c>
+      <c r="S10" s="135">
         <v>470</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="270">
+    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="285">
         <v>8</v>
       </c>
-      <c r="B11" s="134">
+      <c r="B11" s="135">
         <v>6</v>
       </c>
-      <c r="C11" s="134">
+      <c r="C11" s="135">
         <v>3</v>
       </c>
-      <c r="D11" s="134">
+      <c r="D11" s="135">
         <v>4</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="H11" s="278">
-        <v>19</v>
-      </c>
-      <c r="I11" s="278">
+      <c r="H11" s="277">
+        <v>39</v>
+      </c>
+      <c r="I11" s="277">
         <v>15</v>
       </c>
-      <c r="J11" s="278">
+      <c r="J11" s="277">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="K11" s="278">
+        <v>100</v>
+      </c>
+      <c r="K11" s="277">
         <f t="shared" si="2"/>
-        <v>807</v>
-      </c>
-      <c r="L11" s="278">
+        <v>837</v>
+      </c>
+      <c r="L11" s="277">
         <f>L10+J11</f>
-        <v>655</v>
-      </c>
-      <c r="M11" s="278">
+        <v>685</v>
+      </c>
+      <c r="M11" s="277">
         <v>160</v>
       </c>
-      <c r="N11" s="282" t="s">
-        <v>339</v>
-      </c>
-      <c r="P11" s="134">
+      <c r="O11" s="135">
+        <v>70</v>
+      </c>
+      <c r="P11" s="135">
         <f t="shared" si="3"/>
-        <v>520</v>
+        <v>590</v>
+      </c>
+      <c r="R11" s="135" t="s">
+        <v>332</v>
+      </c>
+      <c r="S11" s="135">
+        <v>590</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="270">
+      <c r="A12" s="285">
         <v>9</v>
       </c>
-      <c r="B12" s="134">
+      <c r="B12" s="135">
         <v>3</v>
       </c>
-      <c r="C12" s="134">
+      <c r="C12" s="135">
         <v>2</v>
       </c>
-      <c r="D12" s="134">
+      <c r="D12" s="135">
         <v>1</v>
       </c>
-      <c r="E12" s="134">
+      <c r="E12" s="135">
         <v>2</v>
       </c>
       <c r="G12" s="2">
@@ -9108,257 +9166,352 @@
         <v>52</v>
       </c>
       <c r="H12" s="12">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="I12" s="12">
         <v>20</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K12" s="12">
         <f t="shared" si="2"/>
-        <v>907</v>
+        <v>967</v>
       </c>
       <c r="L12" s="12">
         <f>L11+J12</f>
-        <v>735</v>
-      </c>
-      <c r="P12" s="134">
+        <v>795</v>
+      </c>
+      <c r="N12" s="281" t="s">
+        <v>339</v>
+      </c>
+      <c r="O12" s="135">
+        <v>60</v>
+      </c>
+      <c r="P12" s="135">
         <f t="shared" si="3"/>
-        <v>520</v>
-      </c>
-      <c r="R12" s="134" t="s">
-        <v>333</v>
-      </c>
-      <c r="S12" s="134">
-        <v>590</v>
+        <v>650</v>
+      </c>
+      <c r="R12" s="135" t="s">
+        <v>335</v>
+      </c>
+      <c r="S12" s="135">
+        <v>640</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="270">
+      <c r="A13" s="285">
         <v>10</v>
+      </c>
+      <c r="B13" s="135">
+        <v>2</v>
+      </c>
+      <c r="C13" s="135">
+        <v>2</v>
+      </c>
+      <c r="D13" s="135">
+        <v>6</v>
+      </c>
+      <c r="E13" s="135">
+        <v>3</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="H13" s="12">
+        <v>84</v>
+      </c>
+      <c r="I13" s="12">
+        <v>20</v>
       </c>
       <c r="J13" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="K13" s="12">
         <f t="shared" si="2"/>
-        <v>907</v>
+        <v>1142</v>
       </c>
       <c r="L13" s="12">
         <f>L12+J13</f>
-        <v>735</v>
+        <v>950</v>
       </c>
       <c r="M13" s="12">
         <v>220</v>
       </c>
-      <c r="N13" s="283" t="s">
+      <c r="N13" s="282" t="s">
         <v>340</v>
       </c>
-      <c r="P13" s="134">
+      <c r="O13" s="135">
+        <v>60</v>
+      </c>
+      <c r="P13" s="135">
         <f t="shared" si="3"/>
-        <v>520</v>
-      </c>
-      <c r="R13" s="134" t="s">
-        <v>335</v>
-      </c>
-      <c r="S13" s="134">
-        <v>590</v>
+        <v>710</v>
+      </c>
+      <c r="R13" s="135" t="s">
+        <v>296</v>
+      </c>
+      <c r="S13" s="135">
+        <v>690</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="270">
+      <c r="A14" s="285">
         <v>11</v>
+      </c>
+      <c r="B14" s="135">
+        <v>4</v>
+      </c>
+      <c r="C14" s="135">
+        <v>4</v>
+      </c>
+      <c r="D14" s="135">
+        <v>6</v>
+      </c>
+      <c r="E14" s="135">
+        <v>5</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+        <v>131</v>
+      </c>
+      <c r="H14" s="22">
+        <v>109</v>
+      </c>
+      <c r="I14" s="22">
+        <v>30</v>
+      </c>
       <c r="J14" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="K14" s="22">
         <f t="shared" si="2"/>
-        <v>907</v>
+        <v>1382</v>
       </c>
       <c r="L14" s="22">
         <f>L13+J14</f>
-        <v>735</v>
+        <v>1160</v>
       </c>
       <c r="M14" s="22">
         <v>220</v>
       </c>
-      <c r="N14" s="283" t="s">
+      <c r="N14" s="282" t="s">
         <v>341</v>
       </c>
-      <c r="P14" s="134">
+      <c r="O14" s="135">
+        <v>100</v>
+      </c>
+      <c r="P14" s="135">
         <f t="shared" si="3"/>
-        <v>520</v>
-      </c>
-      <c r="S14" s="134">
-        <v>690</v>
+        <v>810</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="270">
+      <c r="A15" s="285">
         <v>12</v>
+      </c>
+      <c r="B15" s="135">
+        <v>2</v>
+      </c>
+      <c r="C15" s="135">
+        <v>2</v>
+      </c>
+      <c r="D15" s="135">
+        <v>3</v>
+      </c>
+      <c r="E15" s="135">
+        <v>1</v>
+      </c>
+      <c r="F15" s="135">
+        <v>1</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="278"/>
-      <c r="I15" s="278"/>
-      <c r="J15" s="278">
+        <v>64</v>
+      </c>
+      <c r="H15" s="277">
+        <v>101</v>
+      </c>
+      <c r="I15" s="277">
+        <v>15</v>
+      </c>
+      <c r="J15" s="277">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="278">
+        <v>150</v>
+      </c>
+      <c r="K15" s="277">
         <f t="shared" si="2"/>
-        <v>907</v>
-      </c>
-      <c r="L15" s="278">
+        <v>1547</v>
+      </c>
+      <c r="L15" s="277">
         <f>L14+J15</f>
-        <v>735</v>
-      </c>
-      <c r="M15" s="278">
+        <v>1310</v>
+      </c>
+      <c r="M15" s="277">
         <v>220</v>
       </c>
-      <c r="N15" s="282" t="s">
+      <c r="N15" s="281" t="s">
         <v>342</v>
       </c>
-      <c r="P15" s="134">
+      <c r="O15" s="135">
+        <v>110</v>
+      </c>
+      <c r="P15" s="135">
         <f t="shared" si="3"/>
-        <v>520</v>
+        <v>920</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="270">
+      <c r="A16" s="285">
         <v>13</v>
+      </c>
+      <c r="B16" s="135">
+        <v>2</v>
+      </c>
+      <c r="C16" s="135">
+        <v>2</v>
+      </c>
+      <c r="D16" s="135">
+        <v>5</v>
+      </c>
+      <c r="E16" s="135">
+        <v>1</v>
+      </c>
+      <c r="F16" s="135">
+        <v>2</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="H16" s="12">
+        <v>90</v>
+      </c>
+      <c r="I16" s="12">
+        <v>20</v>
       </c>
       <c r="J16" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="K16" s="12">
         <f t="shared" si="2"/>
-        <v>907</v>
+        <v>1727</v>
       </c>
       <c r="L16" s="12">
         <f>L15+J16</f>
-        <v>735</v>
-      </c>
-      <c r="P16" s="134">
+        <v>1470</v>
+      </c>
+      <c r="O16" s="135">
+        <v>120</v>
+      </c>
+      <c r="P16" s="135">
         <f t="shared" si="3"/>
-        <v>520</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="270">
+      <c r="A17" s="285">
         <v>14</v>
+      </c>
+      <c r="B17" s="135">
+        <v>2</v>
+      </c>
+      <c r="C17" s="135">
+        <v>2</v>
+      </c>
+      <c r="D17" s="135">
+        <v>4</v>
+      </c>
+      <c r="E17" s="135">
+        <v>2</v>
+      </c>
+      <c r="F17" s="135">
+        <v>3</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="H17" s="12">
+        <v>86</v>
+      </c>
+      <c r="I17" s="12">
+        <v>20</v>
       </c>
       <c r="J17" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K17" s="12">
         <f t="shared" si="2"/>
-        <v>907</v>
+        <v>1917</v>
       </c>
       <c r="L17" s="12">
         <f>L16+J17</f>
-        <v>735</v>
-      </c>
-      <c r="P17" s="134">
+        <v>1640</v>
+      </c>
+      <c r="O17" s="135">
+        <v>130</v>
+      </c>
+      <c r="P17" s="135">
         <f t="shared" si="3"/>
-        <v>520</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="270">
+      <c r="A18" s="285">
         <v>15</v>
+      </c>
+      <c r="B18" s="135">
+        <v>4</v>
+      </c>
+      <c r="C18" s="135">
+        <v>4</v>
+      </c>
+      <c r="D18" s="135">
+        <v>5</v>
+      </c>
+      <c r="E18" s="135">
+        <v>1</v>
+      </c>
+      <c r="F18" s="135">
+        <v>5</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
+        <v>148</v>
+      </c>
+      <c r="H18" s="22">
+        <v>62</v>
+      </c>
+      <c r="I18" s="22">
+        <v>30</v>
+      </c>
       <c r="J18" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K18" s="22">
         <f t="shared" si="2"/>
-        <v>907</v>
+        <v>2127</v>
       </c>
       <c r="L18" s="22">
         <f>L17+J18</f>
-        <v>735</v>
+        <v>1820</v>
       </c>
       <c r="M18" s="22"/>
-      <c r="N18" s="284"/>
-      <c r="P18" s="134">
+      <c r="N18" s="283"/>
+      <c r="O18" s="135">
+        <v>140</v>
+      </c>
+      <c r="P18" s="135">
         <f t="shared" si="3"/>
-        <v>520</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G19" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="12">
-        <f t="shared" si="2"/>
-        <v>907</v>
-      </c>
-      <c r="L19" s="12">
-        <f>L18+J19</f>
-        <v>735</v>
-      </c>
-      <c r="P19" s="134">
-        <f t="shared" si="3"/>
-        <v>520</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P20" s="134">
-        <f t="shared" si="3"/>
-        <v>520</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P21" s="134">
-        <f t="shared" si="3"/>
-        <v>520</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P22" s="134">
-        <f t="shared" si="3"/>
-        <v>520</v>
+        <v>1310</v>
       </c>
     </row>
   </sheetData>
